--- a/data/referee.xlsx
+++ b/data/referee.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +448,16 @@
           <t>name</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>image</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>dt_insertion</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -454,6 +468,14 @@
           <t>Marcelo de Lima Henrique</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xe1\x92\xf4Exif\x00\x00MM\x00*\x00\x00\x00\x08\x00\n\x01\x0f\x00\x02\x00\x00\x00\x1a\x00\x00\x00\x86\x01\x10\x00\x02\x00\x00\x00\r\x00\x00\x00\xa0\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00\xae\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00\xb6\x01(\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\x011\x00\x02\x00\x00\x00\x11\x00\x00\x00\xbe\x012\x00\x02\x00\x00\x00\x14\x00\x00\x00\xd0\x02\x13\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\x82\x98\x00\x02\x00\x00\x00\x0f\x00\x00\x00\xe4\x87i\x00\x04\x00\x00\x00\x01\x00\x00\x00\xf4\x00\x00\x00\x00SAMSUNG TECHWIN CO., LTD.\x00Samsung L700\x00\x00\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00`\x00\x00\x00\x01paint.net 4.0.12\x00\x002010:11:01 04:56:04\x00Copyright 2005\x00\x00\x00 \x82\x9a\x00\x05\x00\x00\x00\x01\x00\x00\x02z\x82\x9d\x00\x05\x00\x00\x00\x01\x00\x00\x02\x82\x88"\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\x88\'\x00\x03\x00\x00\x00\x01\x002\x00\x00\x90\x00\x00\x07\x00\x00\x00\x040220\x90\x03\x00\x02\x00\x00\x00\x14\x00\x00\x02\x8a\x90\x04\x00\x02\x00\x00\x00\x14\x00\x00\x02\x9e\x91\x01\x00\x07\x00\x00\x00\x04\x01\x02\x03\x00\x91\x02\x00\x05\x00\x00\x00\x01\x00\x00\x02\xb2\x92\x01\x00\n\x00\x00\x00\x01\x00\x00\x02\xba\x92\x02\x00\x05\x00\x00\x00\x01\x00\x00\x02\xc2\x92\x04\x00\n\x00\x00\x00\x01\x00\x00\x02\xca\x92\x05\x00\x05\x00\x00\x00\x01\x00\x00\x02\xd2\x92\x07\x00\x03\x00\x00\x00\x01\x00\x04\x00\x00\x92\x08\x00\x03\x00\x00\x00\x01\x00\x00\x00\x00\x92\t\x00\x03\x00\x00\x00\x01\x00\x01\x00\x00\x92\n\x00\x05\x00\x00\x00\x01\x00\x00\x02\xda\x92|\x00\x07\x00\x00\x90\x00\x00\x00\x02\xe2\xa0\x00\x00\x07\x00\x00\x00\x040100\xa0\x01\x00\x03\x00\x00\x00\x01\x00\x01\x00\x00\xa0\x02\x00\x04\x00\x00\x00\x01\x00\x00\x03\x00\xa0\x03\x00\x04\x00\x00\x00\x01\x00\x00\x04\x00\xa2\x17\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\xa3\x00\x00\x07\x00\x00\x00\x01\x03\x00\x00\x00\xa3\x01\x00\x07\x00\x00\x00\x01\x01\x00\x00\x00\xa4\x02\x00\x03\x00\x00\x00\x01\x00\x00\x00\x00\xa4\x03\x00\x03\x00\x00\x00\x01\x00\x00\x00\x00\xa4\x04\x00\x05\x00\x00\x00\x01\x00\x00\x92\xe2\xa4\x05\x00\x03\x00\x00\x00\x01\x00#\x00\x00\xa4\x06\x00\x03\x00\x00\x00\x01\x00\x00\x00\x00\xa4\n\x00\x03\x00\x00\x00\x01\x00\x00\x00\x00\xea\x1d\x00\t\x00\x00\x00\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x1e\x00\x00\x00\x1c\x00\x00\x00\n2010:11:01 04:56:04\x002010:11:01 04:56:04\x00\x00&amp;\x9d\xd8\x00\x0c\x00\x00\x00\x00\x13+\x00\x00\x03\xe8\x00\x00\x0c\x00\x00\x00\x03\xe8\x00\x00\x00\x00\x00\x00\x00d\x00\x00\x0b\x9b\x00\x00\x03\xe8\x00\x00\x16\xa8\x00\x00\x03\xe8\xff\xd8\xff\xdb\x00\x84\x00\x05\x03\x04\x04\x04\x03\x05\x04\x04\x04\x06\x05\x05\x06\x08\x0e\t\x08\x07\x07\x08\x11\x0c\r\n\x0e\x14\x11\x15\x15\x14\x11\x13\x13\x16\x19 \x1b\x16\x17\x1e\x18\x13\x13\x1c&amp;\x1c\x1e!"$$$\x15\x1b\'*\'#* #$"\x01\x05\x06\x06\x08\x07\x08\x10\t\t\x10"\x17\x13\x17""""""""""""""""""""""""""""""""""""""""""""""""""\xff\xc4\x01\xa2\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc0\x00\x11\x08\x00\xf0\x01@\x03\x01!\x00\x02\x11\x01\x03\x11\x01\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xa4\xd1\x02:U\x1b\xc8\x80\x07\x8a\xf3\xcf\x1a\xc6\x15\xecc$VG\x8c\xe3\x1f\xd96|\x7f\xcbA\xff\x00\xa0\x9a\t\xea`\xe9\xe8\xa6\xe20{\xb0\x15\xf6\'\xc6\x96:\x0f\x88\xfc\x03$6\xf7\x9a\xb4\xd1G~\x8b\x10c$\xacY\x13\x9e\x998-\xe9\xd0{S[7\xfdn\x8e\xca\x7f\x03~h4o\x1fI\x07\x8c\xb5K\xbdS\xc1:\xf9\xb3\xb8\x8a%\x8e\x19-\xd310ES\x95v\\\x03\x8c\xe7\xdf\xa5t3\xf8\xef\xe1\xdd\xd4\x12.\xa5\xa1Enq\x82\x97P\xdb\x92\x7f\xef\x97lWD*\xce\x9a\xbe\xdd\xd9\xdfZ\xac\\\xdah\xf9\x83\xe2/\x89\xfcl\xde2\xbe\x7f\x03\xe8\xf1\xd8\xe9\x00\x85\xb7\x8a\xd7M\x86F\xc0\x1c\x93\'\x97\xb8\xe4\xf3\xd7\x8c\xe3\xb5aM\xe3\xbf\x8bpDR\xff\x00E\x9ah\xf1\xf7n#\xb8E\xfc\x96E\x1f\xa5qT\xa7J\xb2\xfd\xe3\xdf\xa1\xe7\xb8\xd1n\xe6s\xfcO\xd6\xd7\x0b}\xe0\xad\x16@?\xbf\x04\x8es\xff\x00\x03v\xad\xedW\xc4\x1e\x17\x86}/W\x9f\xc3\xd6\xd3\x0b\xfd1\x0c\xd6\x96\xe6\x18\xd2\t\xbc\xc9\x01\xce!l\x1c*\x9f\xbb\xbb\x91\xce+h\xd2\x94b\xd4%\xa7E\xfd\x7f\x90{(\xbbZC\xf5\xbb\x9f\x08\xda\xa6\x87\xad\xcb\xe1\xc6[-N\xc5\xdd\xad#\x98\xb9G\x13\xc8\x9b\x81S\x1e\xee\x13\xa7\x1dzVu\xc6\xb7\xf0\xbd\x95\xbc\xfd\x13W\xb2b\xbd&gt;\xccF~\x9b\xaeX\x9f\xca\xa1\xcaQ\xd0\xb5\x86\xa8\xef\xca\xf6=\x0f\xe1g\x84m|E\xe1\xc9o|\x15\xab\xeaV\x16S\x16\x85\xe2\x92\xf3\xc9\x0cz\x10P@\xc3\xbf\xafz\xca\xd6\xb4-o\xc3\xda\x9c\xf6s\xb1\x17\x1at\x9ff\x9c\x06\r\xf2pQ\xb2@\xc8\xda\xcas\x81\xd4\xd7\xb9\x94M*\x92\x8c\x96\xeb\xf20\xafJ\xbc`\x9c\xb67\xfc\x11\xa8jZ&gt;\xbc\x1e\xe47\xd9/0\x8cv\x8c$\x9d\x8f\x07\xbfO\xcb\xd2\xbd\xa2\xd9\xc5\xf5\xa9b\x8b\xe6\xa8\xcf\xe1]\x18\xe8\xa5QJ=K\xc39r\xb8\xc8\x8bo\x92\xfbYx#\x91X\xde:\xd3\x96\xfb\xc3\x17\x91(\xc9h\xc9_\xca\xb8b\xce\x9f#\xc2l\x1d\xa113\x0e8\xa6\xf8\x8a\x05[\xed\xeb\xd0\xf2+\xefo\xb5\x8f\x9b\xeaM\x02\xf9\xfaK)\xe5\xa39\xfc+\xd4\xfe\x16\\\xfd\xa7\xc2\xd0F\xc7-\x034g\xf0\xe9^f`\x93\xa0\xdffua\x1d\xaaht\xb7\x11\xe1\xbapk6D).\xe1\xd5k\xe5\x9e\xc7\xb0\x86^\xc67\x96\x1d\x0f5\x9bu\x9f\xb2I\x16\xd2F\xec\xff\x00\x9f\xca\xb2\x91q\xdc\xc9\xb8\x82E\x95d\x04\x00}*\xa5\xfc\x8a\xb6\xe4\x8e\xa4\xf3Y\x9a\x99\x10|\xf2;\x1fN\xb4\xaf\x8d\x85\xb1\xc7j.+\x94\xae:z\x11\xda\xaa\xb4ym\xe4\xe2\x81\t\xb4\xe6\xaa_\xee\x12u\xe0\x0ejGv2\xcc\x03\x11lc\x9e*W\x01\x90)\x1c\x93\xcdH\x88$]\xa7\xe5\xfc\xa9\xeb\xf7A?\x95&amp;\x86\x8e\x9c(\xc75N\xf4\r\x87\x8a\xe7g\x98s\xb7\xa0\xee8\xac\x8f\x1a\x0f\xf8\x94Y\xff\x00\xd7A\xff\x00\xa0\x9a/\xa1\x8fS\x9f\xb0\x8c\xb5\xc4aA\xc9a\x8f\xce\xbe\xaa\xf8\xb9q\xaa\xc9\xf17\xc2"\xca4\xbex\xa3\xba)o4\x820\xbf(\xdcK\x058\x18\x19\x1c\x1e\x95\xcdRmJ)uge+\xf2;wE\xadO\xe2&lt;\xfe\x05\xf1.\xb7\xe2/\x16hpXEt\xf1F\xca\xba\x89p\x8c\xb1 \x0b\xfe\xa8nb\x008\xf45\xe7\x9e4\xd1&gt;"x\xcf\xc6\xf7\xbe=\xf0&amp;\x91\xa9\xdaXji\x14\xd6\xae\x8e#\xca\xf9J\xa5\xb2HR\t\x04\xfb\xe6\xbd\x1ai\xcdr\xb4\xb4;*\xcaN\xabM\x1e3\xe2\xdf\x1b\xf8\xabH\xd4\xa5\xd3\xef\xb5\x9b\xdb\xbb\xebv\xdb){\xd7uF\xee\xa4+\x94?A\xfa\x1a\xe6\xef~"x\xa9\x9cO\x1d\xd5\x94 \xb1eQe\x0b\x85\xf6\x05\xd1\x8f\xe6M`\xe9B\xa5\xdfpp\xa7=lE\x1f\xc4\xef\x1c\xab\xe6\x1f\x11\xcfl\x0fkh\xa3\x88~H\xa0V\xdf\x84&lt;S\xa3x\x93V\x95&gt;"\xeb\xb7v\x8f\xe5\x05\x8e\xfe\x0be\x97q\x04\xff\x00\xac]\xac{\xf0Tv\x1fZ\xda\x14\xa1M\xdd#5B\t\xa7\x13\xd1\xfcW/\x80\xb4[m.\xda\xef_]OM\xb3\xd1\x89\xb5\x92\xddQ\xdeg{\x89\x18(Q\xc08n\xf8\xc0\xfc\xab\x03\xc2\xcd\xf0\xf3_\xd3\xbc\xeb\x94\xd3\xf4\xcb\xad\xe4\x18o\xf5\x06L/f\xc8\x8c\x03\x9f\xadL\xdd\xe4\xe5\x1d\x85\xec=\xa4\x9b\xe6\xb1\xee\x7f\n|\x0fr\xfe\x1cK\x8f\x08\xf8\xddt\xdbVvo"\xc9V\xe61\x86\xc6\xec\x97\xc78\xcfJ&gt;+x7\xc5zN\xb3\r\xd6\xaf\xe2\x14\xd6F\xad\x0bDf{d\x8b\x0c\x83\x85!@\x07*O=~C\xe8+\xb7-qX\x84\xdb\x16"\x95XS\xb75\xd1\xc4i\xf6\xfa\xeb\xdb\xcba+\xc3#Bv|\xddH\xc6A\xcdz\x97\x84u\x1b\xb4\xb0\x82K\xa1\x89\xb6m\x90g\xb88?\xca\xbd\x8ctb\xe1x\xf4g-\x075+3\xb0\xd4bY\x15\'\x8b\x9c\xaf5\x991\x06\t-\xe4\x1f#\x82\x01=\xab\xc9O\xa9\xda\xcf\x9e\xee\xa20\xde\xdd\xda\x91\xc4S:\xe3\xf14\xdda\x08\xb6\x81\xcf?/Z\xfb\xaa/\x9a\x94_\x92&gt;r\xaa\xe5\xa8\xc3A!\xb7E\xd9\xd4\x8a\xee\xfe\x11\\yrj\x16$\x9c\xa3\x07Q\xfa\x1f\xe9\\\xb8\xd5z\x12F\xd8wj\xa8\xf4I\xd3*x\xf7\xac\xeb\xa5\xc1\r\x8a\xf9&amp;{ey\xd71\x01\xfd\xd1\x8a\xc9\xbcfY@\xce\x17\x19\xc5c"\xe3\xb9\x03l\xf2\xb3\x8cm\x1c\n\xe75\r\xc56\x8e\xe6\xb3e\xb3:M\xc9\x80x=\xe8f\xdc\x15z\nH\n\xf7\xa4!\x18\xeb\x8e\x95_\r\xb7\x9a\x18"%\xf3\x0eH\x1f(\xaa\xb7[Z\xe0\xa1\xe4\xe2\x90\xc5\x81B\xa1\x1c\x91\x9av\x03\x12\xd9\xc5H\xb7\x1b*\x00\xa0\xe74\xe8\xd4\xed\xe9C\r\x8e\x91y\x15V\xf7\xee\x10\x05s\xb3\xcd\xdd\x1c\xe5\xf7\xdf5\x91\xe3A\x8d*\xcb\xdeA\xff\x00\xa0\x9a\x93\r\x99\x91\xa2&amp;\xedB\xd9G$\xc8\xa3\xf5\xaf\xb1~,&gt;\xad\x0f\x89\xfc\nt\xab\x14\xb8\xbdKM@\x18f\x93`\nb@\xc7\'\xb8\x19?\x85r\xd5\xd6\xff\x00\xd7Tz\x14&gt;\x17\xf2&gt;(\xfd\xa3\xfcC\xaf\xf8\x8b\xe2\xe6\xb9.\xbf\x08\xb5\xb9\xb6\x9c\xdb\x8bH\xdfrB\x10\x04\xc0=\xf3\xb4\x12{\xfeB\xb24_\x16\xf8\xc6\xd3A}\n\xd7\xc5\x1a\xa4\x1aS\x8c5\x9cw\x92,Dzl\x07\x1f\xa5z\x16N\x1a\x9e\x9c\xe1\xcdQ\xa37W\xd3\x8a\xda[\x98]\xfc\xf9\xceD&amp;&amp;\x04\xf6\xe0\xe3\r\xf8V\x17\x96D\x85%\xca7L0\xc6+H;\xab\x988\xb8\xe8\xce\xabT\xd0\xf4\xe8\xdbG:T\xf0\\\xcbu\x00\x12%\xbc\x85\xf6\xc9\x8c\xe0\x9c\x9c1\xcf\xdd\xc0\xc1\x1e\xf5\x83\xa8Y4Ry\xc0\x10A\xe6\x93\x93\xb9\xac#\xcd\x16\xba\x95&lt;\xe6)\x93\xf3\xb6~\xf3d\x9ar\x19\x01\x03\x93\xe9Z\x98\xd8\xd3\xb2\xbc\xb8\xb3\x8f\xed6\xb7\x0f\x05\xd2\x1f\x92H\xdc\xa3\xaf\xd0\x8ek\xac\xf0\xff\x00\xc4o\x17\\kVQj\xfe*\xd5\xef\xad\x96M\xcb\x15\xd5\xec\x92\xaa\xb7# 3\x1c\x1c\x12&gt;\x84\xd2\xa4\x92\xaa\xa7m\x9a&amp;\xa2\xbc\\OC\xd4u\xcdZ\xc7P\x17\x90\xdfI\xb5\xc0V\xe79\x1f\xe4\x9a\xf4\xaf\x85\xda\x84\xfa\x86\x93z\xd2L\xf2\xc9\x14\xaa\xe5\x98\xe7\xe5a\xc7\xea\xa7\xf3\xaf\xaf\xcc(\xc5Q\x93K\xb7\xe6xxj\x92\x94\xe2\x9b=\x17E\xbf(\xfeL\x8cv7C\xe8jMM]\x1d\x83\x1c\xa3t5\xf2\xebTz\xefc\xc1\xbcG\x19\x8b\xc4\xb7\xe8I\x0cd\xdd\xf9\x8am\xe83i\x11\xb7R\xa4\x8a\xfbl\x13\xbe\x1e\x0f\xc8\xf9\xfa\xfaUh\xca\xd2\'0\xdd(=\x8dw\xbe\x02q\x07\x8dB\x83\xf2\\\xc4@\xfe\x7f\xd2\xae\xbco\t/&amp;\x14\x9d\xa6\x99\xea\xee\xb9\x8dO\xb5g\\\xa6U\x87q_\x16\xcf|\xa6yR+\x13WR\x1e3\xc0\x1995\x8c\x8bKR\x84\xb2\xee\x84\xa8\xe9X\xda\x98\xe0&amp;\xe2\xa7#\xe6_\xaddYB\xe1w\xc8\x08\xe6\x98\x8b\x92\xc4v\xa4\x81\x95\xa6_2|\x1e\xdc\xd1.\x02\x01\x9fn(\x04@\x18r\x0f\xe5T&amp;\x03\xedE\xb7dc\x9aV\x06:\xd8\x92\x87\xbeO\xe5S\xaa\x80\xa3\xf5\xa9\x01\xaf\xb4\x90pN\r\x0e\xc4E\x8c\x12\x074\xc1\x1b\xd1\x13\x8cu\xa8o\t\xd9\xd2\xb9\x99\xe6\xad\x8ev\xf4|\xc7\x8a\xca\xf1\xa0\xff\x00\x89M\x88\xff\x00\xa6\x9f\xfb)\xa91{\x99~\x1e_\xf8\x9bY\xf1\xc7\x9c\x9f\xccW\xd9\x7f\x14\xdfR\x9f\xc7&gt;\x0c\x93F\x16\xc6V\xb4\xbf!\xaeC\x15\ncL\x9c\x02\x0eq\\\xd5^\x8f\xfa\xea\x8fC\x0f\xf0\xe9\xe4|\x95\xf1\xc6?\x0c\xde|M\xf1l\x9e4MON\xf1:]\xc6#M&amp;\x08\xe5\xb4t\x11\xa0\xcboup\xc4s\x9ey5\xc14\x9e\x1a\x8a\x10\xd0\xcf\xa8\\\xca2\x04\x12[$`\xfa\x10\xe1\xcf\x1f\xf0\x1c\xfb\x1a\xeeO\x9a6\xb1\xeb^\xd3l\xe7\xe1\xb0\xd4/\xf5f\x8bN\xb6\x90]\xcc~H\x11\x89.;\x01\xd3=?\xc2\xb5"\xf1;y\xbfa\xf1V\x955\xd3\xc4vI*\xc8b\x9cc\x82\x1c\x11\x87#\xfd\xa0\x0f\xbdm\xcb\xee\xab\x1c\xd2o\x99\xdc\xeb\xf4\x1dk\xe1\xf3\xe8\x13\xe8\xc3L\xb3\x9aR\xe5\xd2\xea\xf24IpB\xe4np\x02\x91\x83\x80\x1c\xd5{\xbd=\xfcK\xac\xdeC\x0e\x8bu\nH\xec\xd6WB2T\xa0\xe8\x92\xbeHn:8$\xfa\x929S\x99\xb5\xca\xc2\x17\x83\xe68\rGF\xb9\xb3\xb8\x96\'\x80\xa0F\xe4\x1e\xa3\xd4V\x95\xb7\x86\xe7\x96\xc2\x19\x8ay\x0e\xfc\xa9|\x8d\xc0\xf4&amp;\xa5\xce\xc8\xdaT\xfd\xef }\x01\xe2Re\x9a\xdf\x8c\xe0\xac\xaas\xf9\x1f\xadg\x0bYm\xee\x92d\xdc|\xbc0m\x87\x1csDes*\x90\xd4\xf5\xeb\x17MS\xc3\xf0\xc8\xa3\x92\x9cg\xd7\x15\xdd|\x00\xbb\xff\x00\x89\xe5\xd6\x9d)\xff\x00Y\x01\xe0\x9e\xb8#\xfcM}\xe5f\xaa\xe1y\xbb\xc7\xf4&gt;f\x9a\xe4\xad\xcb\xd9\x9e\xb4\xf1G\x0c\x8f\x1b1,\xa7 \x8a\xd4\xb4\x95/mL/\xcc\x888\xcfq_\x1c\xb4g\xb8x\xa7\xc4\x9bV\xb3\xf1s\xee\x18\x12G\x90~\x86\xb3\xed\x88m.Py\x01\x81\xaf\xb3\xcb\xf5\xc3G\xfa\xea\xcf\x03\x12\xbf|\xce~u1\xdc\x92:f\xba\xef\r^\x18\xf5]"\xf0\x9f\xbb(B\x7f\x1c\x7f#]rWL\xcdi\xa9\xee\x0b\xcc$z\x1a\xa9:\x8c\xe6\xbe\x1d\x9fBf\xc8\xb8f\x15\x87\xe2\x00V\x00\xc3\xb3V2-\x18/3\xacd(\x05\x8f8\'\x02\xb3n\x9c\xbeI\xacY]H\x01\x0eJ/\x19\x18\xcdG\x00\xf2\xd9\xc19\xc5!\x95\xdb%\x8b\x8e\x86\xa2s\x92;\x1al\x12\xd0\x8d\xa3f95F|\t\xe4A\xcf\xadH\xc4\x1b\xc3*\x83\x81\x90O\x15`&gt;\t\xc7#\xde\x96\xe0\x0b\xcb\x0c\xf0(\xb9m\xb1\x0cq\x9e($\xe8\x9108\xaa\xd7\xb9\xdak\x98\xe09\xfb\xc1\xf3\x1a\xcd\xf1\x82n\xd2\xac@\x1f\xf2\xd3\xff\x00e5&amp;\x0fs?\xc3\x91\x95\xd6lr\xbcy\xe9\xff\x00\xa1\n\xfb\x13\xe2,\x97\x93x\xf3\xc2\xb6\xba&lt;\xd6\x90]\xc5ex_\xed1&lt;\x88\xa8\xca\x83\x00)RO\x07\xbdsT\x8b\x96\x9d\xff\x00\xcd\x1d\xf8}\x13\xb7\x91\xe7\xde4\xf8D\x9f\x105\x9doT\xd6\x97B\xb6\xd4-\x9c\xad\xc6\xa1\n\xcfm\xca\xa8\xe5\xb3#)P1\x9c\x80x\xea+\x98\xf8o\xfb8\xeb\xd6&gt;-\xb1\xf1\x02j^\x1f\xd64\xbb9\x96T\r#&lt;w@\x1e\x9c)\x18\xf7=\xfb\x1a\xf5\xa9\xc18j\xf5\xd7\xa7\x99\xdd\x1a\xae5\x1d\xcdO\xda\xbf\xe1\xa7\x8a5\xfb%\xf1\x9d\xa7\x86\xb4\x8b9txY\xee\xe4\xb0\xbd\xcc\xb3D\xa0`\x82bC\x94\x00\xf5\'\x8e\x83\x8a\xf9\x97\xc2\xfaW\x8a&gt;$k\xe9\xa4\xd8\xda\xdck\xda\x98\x88\x94Y\xa6_3b\xf2~w#8\xcfsX\xc1\xce?\xc4\xb5\xfc\x88W{\x97\xfcE\xf0g\xc7ZU\xbc\xf77^\x14\xd5-\xa2\x80fW{f(\x83\xd4\xb0\x1bq\xef\x9cW\'\xa6h\x1a\xe4sIs\xa7Cp\x0c\x04o\x9a\xdc6#\xfa\xb0\xe9\xf8\xd7DW:\xba.\xd7:8SZ\xb4\xb4kmE\x9akb\x7fw\xf6\x88\xcb\x04#\xb267\x01\xea\x08\x03\xbde\xea\xfa5\xf2A\xe7=\x8bE\x1b\xbf\xde\x08y&gt;\xc7\xeb\x9a\xcb\x95\xbdQ\xbamD\xcaW\xd5b\x19MB\xe9P\x0e\x9es\x00\x07\xe7Q=\xed\xfc\xa0:\xdeI\xe6\x0e\x08\xdd\x8c\xfb\xe6\x9d\x95\xcc\x9bv=G\xe0\xcf\x9d\xacY\x1d6K\x98\xd2h\xdc\x9f2\xe6M\xa3\x1d\xf2O\xe1\xf9W\xa0i\xdaZxO\xe2\x86\x9a\xd0_\xc7u\x14\xec\xb8\x92?\xbaw\xe5H\xeb\xef\x9a\xfb\x1c5K\xe1a\x1e\xe9\xfe\x07\xcfV\x85\xabJG\xb4j\xd0\x94\x90\xb1\x1f2\x9ej\x1b}\xf0O\x15\xc2p\xad_*\xf7=W\xb9\xc4\xfco\xb5Cs\xa7j\x11\xaf\xde%\t\xfc3\xfd+\x88\xd3\x06\xe8\xae!\xcf\x0c\x84\x8a\xfb\x0c\xb2W\xc3|\xcf\x13\x19\x1bU\xb9\x91:\x82\xe4\x1e\xd5\xa7\xa63\x0b\x17\x0b\xf7\xa2!\xc7\xe1^\x83\xd1\x9c\xfb\xa3\xe8\r*Qse\x1c\xc3\xa4\x91\xab~b\x998\xeb_\x13Qr\xc9\xa3\xe8"\xee\xaeg\xdc.$\xcf\xa8\xac=qwZ8\xfa\x7f:\xc1\x9a#\x98em\xc1OC\xd6\xa9\xdc\xc6r@\xe9Y5\xa1H\xa5&amp;W%s\xb8S\x182\x03\x92I"\xa5\x0e\xe3\x15v\xc61\xf4\x14\xd6_Q\xc0\xa4\xc6\x88\xd4\xf2}=+.e\xcc\xcd \x03\x96\xa4\x0cI%\x00\x93\x83R\x16\xf9E\x02d\x96\xeb\xb9\x8f=\xaa\x0b\xad\xe2B\x08\xe1x\xa4\t\x1d\x88\x8c\xed\xc0\xaa\xb7\x90\xb1C\\\xc7\r\x8ev\xf5q!\xaa&gt;)_\xf8\x97\xd8\x7f\xd7O\xfd\x94\xd4\x985\xa9\x0e\x95g4\xd7V\xe9l\xe29\x99\xd4#\xe3;[&lt;\x1cW\xd3\xf7&gt;\x10\xf1\xcb\xea\xd6\x9a\xf3\xf8\xce\xd2\xf6\xee\x0bgDi\xf4\x91\x12mlg\x85l\xe4\xf1\xf9VrI5s\xba\x84[Z\x15!\xd3&gt;%\xde\xbe\xbd\xa6\xa8\xf0\xfe\xa5ow,\x89z\x9bf\x88\x93\xdc)\xdc8=?\xa8\xcek;E\xf0\x1f\xc6\x1f\x0bj\xdf\xdb&gt;\x17\xbd\xd3R\t\xe2M\xdaL\xb7\x0c\xd0.\x17\x95e s\xfe\xd2\xbe{d\x8a\xf4\xe9\xc2\xf4\x9ar\xeb\xfa\x9bF\xfe\xda\xf2\xd8\xa5\xe3\x8f\x8c\x1f\x14&lt;=\xa5\xdd\xd8\xf8\xa7\xe1D-\x14\xb14O8w6\xed\xb8\x11\xc9\x01\x94\x8fm\xdf\x95x?\xec\xd3.\xb7\xa3|[\xd3/t-\x10j\xb7x\x99E\xa8\x9b\xca\x12\x03\x1bg.A\xc6:\xf4\xed^|\x9dF\xad=\xce\xc8E-S&gt;\xc2O\x1a\xf8\xf9"g\xb8\xf8Us\xf2\x9c\x11\x16\xa7\x1b\xfe\x9bA5\xceh\xfe/\xd6l\xfc]\xe2\x19\xaf|\x07t\xe7R\x10\x13c\x1d\xe5\xbb\xc9\x18T\xdb\xf3!`~m\xc3\xb79\x15\xa5:\x95cOT\xaf\xebdsG\x99\xec\x83\xc3\xba\x95\xb6\x85\xe2\xedOX\xb7\xf8S\xacX\xda\xdc\xc3\x14p\xc7k\xa7D\x19\x19wob\x03\x0cn\xdc\xbd3\x9d\xbc\xd6\xfd\xf7\xc4m\x1ah\x1e\xd7R\xf0\x17\x89Z\t\x06\x1d\'\xd2\x03+\x0fq\x93\x9a\xe8\xf6\x95\x16\xd1l\\\xe7\x8c\xfcR\xf0w\xc2\x9f\x14B\xc7F\xb1\xd6\xfc+~\xdft\r&amp;c\x03\x1e\xd9\x8ct\xff\x00\x80\xfeU\xe0\xda\x9f\xc2}Z\xc6\xd2[\x85\xbc\xb7\x96H\xe4*-\x8c3\xc7#\xa8?xo\x8c.\x08\xe7\x05\xb3\xed\x9e+H\xcb\x9d\xec\xc3\xdaEh\xc8\xfc\x17iy\xa5x\x89\xe0\x9a\x16E\x91p{\x80y\xae\xfa\xf6\xe4\xc3i\x9c\x05\x9e\xdd\xd2H\x1foL\x1c\xf5\xaf\xaa\xcb[\x96\x1b\x97\xb3&lt;\x8cjQ\xac\xa5\xdd\x1f@i\x17\xd1x\x87C\xb4\xd4m\xf6\x9f: \xcc\x01\xe9\x91\xd3\xf09\x15$q(I,\xe4\xfa\xa9\xaf\x9c\xa9\x0eI8\xbe\x87\xa2\x9f2R\xeep\x7f\x15\x1bv\x87\x0cr}\xe8f\x04\x1fn\x9f\xd6\xb8-$\x84\xbe\x08\xdc\x86\xc8\x15\xf4\x99D\xafFQ\xf3&lt;\xacj\xf7\xd32\xf5\x15+;\x01\xc1V5sA\x90&lt;\xc5\x0fGR\xa4W\xaf#\x8dm\xa9\xee^\x05\x9b\xce\xf0\xe5\x8b\x1e\xa2\x10\xa7\xf0\xe3\xfaV\x9d\xc2\xfc\xc6\xbeC\x14\xadZK\xcc\xf7);\xd3F}\xd0\xe4V\x16\xb2\xa5\xed\xd9W\xefW\x14\x8d\xd1\x83-\xbb7*y\x15F\xe9s8B\xa7\x9e\xf5\x93\xd8\xa4g\xcc\x9b]\xf3\xebP2\xee\x93i&lt;\x0e\xd4\xba\x03#\x9b*q\x82E\x0e\xa0\xa6:qCZ\x94W `\x93\xd0\n\xa17_j\x80d\x13\x83\x8d\xdd\xa9\x03\x12\x014\x08\xbb\t\x08\x9b\xbd:\xd4S6\xf2Ni\x02; \x0e:U{\xbf\xb8r\rs3\x88\xe6o\xc6d5G\xc5\x00\xfd\x82\xc3\x9f\xe3\xff\x00\xd9MI\x8b\xdc\xbb\xe0\xd5\x0f\xadX\x022\x0c\xc8?\xf1\xe1_sL\xa2=9\x91T(X\xf0\x14s\x8e+z{\x9d\xf4&gt;\x13\x9e\xf0\x85\xfd\xc5\xee\xbf\xe2\x05\x99\x11R\x0b\x9f-6\xa0\x04\x81\x91\xc9\xeazw\xae\xa6\xba#\xb7\xdf\xf9\x9b\xbf\x89\x85@\xb6Vkt.\x96\xd2\x11p\x01Q(\x8cn\x00\xf5\x19\xebS4\x9a\xd4\x0c\xaf\x1a\xf8\xa3J\xf0\x96\x87.\xab\xaa\xcc\x15G\x11D\x0f\xcf3\xf6U\x1e\xbf\xcb\xadq\x1f\x06\xfc={\xa8\xea7\x9f\x11&lt;Gn\x91\xea\x1a\x9c\x8c\xf6\x90\x83\xbb\xca\x88\x80\x01\xe4d\x12\x06\x07\xb7\xd6\xb0V\x9bQ\xed\xa9\xb4/\x18\xb9\xfc\x8fS\xa2\xba\xccD#4\xb8\x1e\x82\x8b\x81\xc8|N\xf0\x8e\x8f\xe2\x1f\x0b\xea\r6\x91o&gt;\xa1\x14\x0c\xf6\xd3y`H\xae\xa0\x95\x01\x87={t\xaf\x06\xf1o\x82,/\xf4\x7f\xb7h\xdb\x91\xc4a\x92&lt;\xe4:\x91\xef\xd3\xad{\x19uiB\xeb\xa1\xc3\x89\xa6\xa5b\x8f\xc0\xadnX\x1e}\x06g!\xe0r\xd1\xa9\xee\xa4\xf2?\x03\xff\x00\xa1W\xa5\xea\xeb4w"B6\x95=\xab\x9f\x1f\x16\xab\xc9\xf7\xd40\xee\xf4\xd2\xecr\x7f\x15\xecZ\xe3\xc2\xed{\x10\xfb\x83-\xfaW\x96\xda1\xf3Q\xc7$\x10Ez\x99;\xf7g\xf28\xb1\xcbTC\xae [\xa9\x0fbj\x86\x91t\xb0\xde\xaf\xcd\x8c5{\x8fc\x8e)\xb3\xdd\xfe\x1aJ\xaf\xa2l\x07!%u\x1fC\xcf\xf5\xae\x96\xe0t5\xf2\x98\xdf\xe3\xc8\xf6h\x7f\r\x19\xb7\xbc\x0c\xd6\x06\xa0Kd\x03\x8c\xd7\x9d#\xa1\x15m-\x8b\xab\xe7=+6{|LG^{\xd6mhQ\x9d\xa8B\xa2=\xdcg&amp;\xa8"o\x938\xc5&amp;\x00\xd1\xf2N*\x9c\xacC\xb2\x91\xc7cM\x81^F\xe4(\x1cU\x12\t=@\x02\xa1\x8d\x11O\xbb\xc8f\xefQZ)\x91\xc0\xf5\xebI\x81\xa1\x10V\x06/QU\x9c\x81\x85\'\x9aLv;U\x93\x8a\xaft\xe0\xa1\xaeVp\xdc\xe7/\xc7\xcej\x87\x8a\x07\xfa\x05\x8e9\xf9\xff\x00\xf6SH\xc5\xee[\xf0Q?\xdb6\x00g&gt;z\x7f\xe8B\xbe\xe4\x91\x8b\xe9\x9b\xd9J\x96\x8c\x12\x0fQ\xc5mKs\xd0\xa3\xb1\x83\xe0\xabW\x83R\xd7\xa5x\xd9\x0c\xb7\xb20\xc8\xc6F\xe3\x83\xef]3\x92\x00\xc7\xa8\xadn\xd4_\xcf\xf36\xea`x\xd7\xc6:?\x84\xed\x92ME\xa4\x96y\x011\xdb@\x03H\xfe\xfc\x90\x00\xf7$W\x99j\xff\x00\x1d\xee\xa0S-\x9f\x83g\x9a\x00\xd8,\x97+4\x83\xd7)\x1eB\x9fb\xd9\xf6\xa59I\xbb$&amp;\xccO\x07\xe8:\xbf\xc4\xef\x17\x9f\x15\xf8\xc2e\xb6\xd2m\x1b\tj\xf3)\xdd\xdf`\\\xfc\xab\xd3$\xf5\xf79#\xdbn&lt;W\xe1{\'6\xcf\xad\xd9+D0c\x8e@\xc5\x00\xe3\x90\xb9\xc7\xa5M8\xaawm\xea\xd9\xb4\xe6\x9cb\x90\x1f\x18\xf8MQ^O\x12\xe9q\x06\x19\x02[\xb4C\x8f\xa1 \xd5\xdd3[\xd1\xb54w\xd3u{+\xd4O\xbc\xd6\xf7\x0b _\xae\x0f\x15~\xd6\x1c\xdc\xb7\xd4\xc8ck\xda\x10\xd4\xbf\xb3\x0e\xb5`/\xb8\xff\x00F\xfbJy\x9c\x8c\x8f\x979\xe4sW.\xae\xed--e\xba\xba\xba\x8a\x0bx\x97t\x92\xc8\xe1U\x07\xa9\'\x80*\xb9\xe3{\\\n\xb7\xba\xd6\x93g\xa6\xa6\xa3q\xa8B\xb6rm\xd90m\xca\xd9\xe9\x82:\x8a\xf1\xabG\x82\x01\xa8i\x7f*}\x86ym\x82\x0e\xca\xacB\xff\x00\xe3\xbbO\xe3]\xf8)^M.\xc6\x15\x96\x89\x9eH \xba\xd0|o.\xbf\x0c-\r\xb5\xac\xe3z\x91\xfe\xb1\t\xf9\xbe\xbcs\xf8\n\xf7\xeb\xf3\x15\xf6\x9b\x14\xf1\x95p\xca\x180\xef]X\xfdy_\x91\x85\x15g$r\xbe!\x8dg\xf0\xc6\xa5\xa7\xc9\xfcQ1_\xca\xbc"\xca_,#1\xe0\x01]\x993\xd2k\xd3\xf59q\xcb\xe1&amp;\xd6\\4\xdb\xb3\x95t\r\xfaW6\xf1\x98\xe4/\x9e\x87\x8a\xf7\x9b\xe58\xe9\xec{w\xc2k\xd8a\xd3&amp;[\x8b\x88\xa2\x05\xd5\x97{\x85\xceW\x1cg\xe9^\x81;\x1d\xbc\xf6\xaf\x94\xc75\xf5\x89|\xbf#\xd9\xa0\x9f\xb2L\xca\xd4\x1b+\xc5a\xcc7HG\xa5y\xd2\xd8\xd5\x12\xda\xc6\xfen\xcc\x03\x91\x8cU\x1b\xb8\xb34\x84\x1e\x86\xa6\xc5\x18\x9a\x9a\xb0`\xb8\x1b{\xd58\xa3BH\x8d\xb3\x9eO=*\x1e\xe3[\x11\xca\x0e\xd6\x00\xd5\x19\xe1!A\xfd)\x8a\xc5gR\xf9=\x00\xaa\x8f\x1a\x81\x80*@\xafp\xbf\xe8\xee\xa3\x81L\xb6+\x14e\x00\xc9\xeei1\x92F\xf8l\x81\x93\x83\x80*\xb3\x06V%\xbe\xf7J\x96;\xd8\xec7\x9cu\xa8&amp;l\x83\\\xc7\x9cd^\xf2I\xaa\x1e\'\x19\xd3lNy\xdd\xfd*H{\x97\xbc\x10\x99\xd6t\xe2s\x8f=?\xf4!_p\xdesb\xf9\xc8\xf9kzg\xa1Gc\x9b\xd3\xb5\xb8\xb4\xeb\x1dsS\xd5/\x00\xb7\xb4\xba\x94\x12\xcd\xf7@r\x14\x7f +\x92\xf1W\xc6\xdf\x0e\xf8{V\x82\xdbPq*Mn&amp;\x16\xd6\xc8\xd2J\xa1\xb9B\xc7\x85\x19\x18;z\xe0\xe7\xd0\x1d/\xee7\xeb\xf9\xb3\xa2*\xf3\xe5&gt;y\xf1\xd7\xc5MG\xc4\x1a\xc3A{k\xa7\xdb\xc7\x13\x0f(\xda,\xbc\xa0\xfb\xa8K\xb0\xc0\xe7\x9c\x01\x9czq\\\xe2\xeb\xb7&gt;x\xb92\x89X\x00\xa9\xb4\xb6\xd5\xc0\xcf\x1b_\xfck\x087kv\n\xd0qi\xb2\xf5\x9f\x8b5[x\xe1\x82\x1b\x86EM\xa0+!\x00\xf5\'\xa1\xdc9\xf4#\xad+x\x8fW\x99#\x8b\xed\x8d\xb7\xe5\xc4c(\x83\x9e\xb8*I&gt;\xe7\x9a\xd3\xcc\xc5k\xa1\x99\xaf\xe9\x9e,\xf1&lt;6\xf6\x9a&amp;\x8f}\xabN\x8edu\xb3\xb62l\x1d2\xc5W\xe5\x07\x8e\xb5\xb5\xa4|\x02\xf8\xcd~\xeb\x0c\xfa2\xd8B\xd8\xf9\xee\xef\xe3\xd8\xbfP\x8c\xc7\xf4\xad\xa1\x04\xd6\xa6\xaa\xc6O\x8e\xbe\x18j~\x13\x06\x1b\xff\x00\x18xz\xfbSV\xf9\xadmf\x9aI\x10\xf7\xdcDx\x07\xd9\x885\xceAa\xa8%\xbc\xa8\xfa\xc4\xa8\xb2\x8c&lt;qeU\x87\\\x1ey\xed\xd4W\x15l](;E\\\xfa\\\xb3\x87\xebcc\xcf/v,\xee|9\xf1\x03U\xd1&lt;)\x1f\x87\x12\x18\'\xb5\x8c\xe4M4m#\x8f\x98\xb0\xfe0\xbc\x12\x7f\x86\x9d\xa8x\xb7\xc4\xfa\x85\xe5\xce\xa9\x16\xb4\xad%\xd9\r#E\x12&amp;HP\xbd\x87\x1c(\xfc\xbdk\xce\x96cZ\x12\xe6\x83\xb1\xf6\xd8n\x12\xc1\xa5\xfb\xcb\xc9\xf9\xecd\xaf\x89\xf5\xe9b\xf2\xef\'K\xa2\xcb\x82fA\xc8\xff\x00\x80\xe2\xbb?\x0f\xfcW\xf1\x06\x93\xa5[\xe9\xa3N\xb0\xb9X\x11P;\x87\x07h\xf5\xf9\xba\xd6\xef7\xaa\xe1\xc9-L\xb1\x1c\x19\x85\xa9&gt;zw\x87\x92\xd8]C\xe2\xcd\xcd\xccl\xaf\xa0\xc47\x82\x01K\xa28?\xf0\x13\\\x86\x954\xba\x8bI\xb2\xd5c\x86\x14\xdf4\xcf(T\x8d}I8\x03\xd0{\xd7\xa7\x96\xe7N\x94\xdap\xbd\xcf\x9b\xcd824\xa8J\xab\xade\x1e\xe8\xec\xfc3\xe1\x9dG]\x92\t\xadl\x10\xda\x84\x18\x9e\xe3O\x9eTa\xd39\xdd\x1a\xe3\xfd\xdd\xfe\xc4\xd7\xa0Z\xf8kF\xd2`\xc7\x89F\x91j\xa8\x01I\xad\xee\x1a\xd0\xe0\xb6\x06b~pI\x00|\xcd\x92@\xc75\xdb\x88\xcc+W\x9d\xefe\xd8\xf8jXjt\xa3g\xab)j\xba\x7f\x81d\xf3c\x83\xc4\x10\xc1"#\x192\xfbv\xe1\x80`X\x9c|\xa5\x97p&lt;\xaeA \n\xdb\xd3om\x9e\x01b\xb71\xcc\xf6\xdf\xb9g\x8eP\xe0\xb2\x8c\x10H\xe8\xde\xa0\xd7*\x9d\xe7\xcd-\xce\x86\xdb\xa6\xa0\xb6C/[\x08k\x9e\xfbRI\xac5\x96\te\x8b\xccc\xe9\x93\x81\xf9\xf3\xf9V\x95\xa4\xe2\xb4\xee\xbf2)C\x9d\xdb\xd7\xf0F\xb6\x94\x14\\&lt;\x92\xf0\x15p\t\xaa\xb71\xb0iX\x8e\xadT\xb6 \xc5\xd5\xe2\xca.8\xecMfE\tEc\xd4\xd45\xa8\xfa\x11\xcb\x16\xc3\xd4\x93\xe9U\'\xc0\x19\xdax\xec\x06jX\xcaW\x9f\xbbF\xc0\xc6Mg\x93\xf2\xf1\xd2\x9b&amp;\xc4S0HI\xceF}*\x9a3l\'4\x98\xc7\xdbH\x04\xa0\x92I\x15#\x9f5\x98\x1f^*A\x1d(aL\x93\x95\xaeC\xce2\xef\x01\xc9\xaa~%\xb9\x8e\xcfG\xb7\xbax&lt;\xfd\x99\xc2g\x00\x921\xcd8\xfcH\x97\xb9s\xc0\xf2^M\xafi\xcf\xa8i\x93i\xb2\xbc\x89\xb5Ll\x91\xb8\xdc9\x01\xbb\x8f\xc79\xfc\xfe\xdf\xb9\xf9\xac\x0ey\xca\x8f\xc6\xbd\n\xb1Q\x9d\x91\xe9RI+\x18\x9aN\x8d\x14\xd0j\xf6Z\x95\xb2O\x05\xd5\xc4\x8c\xd1\xb8\x0c\xac\xa5\x89\x1f\xccW+\xe2O\x82^\x0e\xd75\xd3\xab\xccn\xede1G\x13-\xbb\xa6\xd6\xd8\x00\x07\x0c\xa7\x07\n\x07\x1e\x95\x9cW\xbbg\xe7\xfa\x9bF\\\xb2\xe6G\x82|s\xf8y\xa7xCX;e\x92W\xb9*\xd1\xcac\xd8\xaf\x1f \xaf\xca\xb8\x0c\x0e3\xc8\xc8\xed\xcdy\xd2\xe8s\\Y\x1b\xa8\x1e1\x08m\xbb\x8c\xb1\xa9\xc8\xe0\x8c;\x83\x8f|T\xa8\x9399\xbdK\x9af\x8d\r\xce\x94\xd7c)\x14D\t&amp;i\x11\xa3\x00u8\xe0\xf4\xe7\xae=\xc6*\xbd\xde\x99\xe1\xb8\xd9\x7f\xb3|Y\x14\xd2\xb0\x05\x92(\t\t\xd7\x1b\x8a3\x00?\x1c\xff\x00*\x99IE{\xcc\xd6\x96\x1eU&amp;\xa3M]\x99\xf6\xf2\xeaV7\x90\xddi\xba\xdd\xde\x9ds\t \\\xd8\xc8\xd0\xc8A\xed\xb8`\xe0\xfaW[}\xf1\x07\xc6z\x9e\x96\x9av\xa3\xe2\xcdF{U]\xa5Zb7\x8f\xf6\x88\xc1o\xf8\x16k\xc6\xaf\x8a\xbf\xc0~\x95\x95p\xd4"\x95LJ\xbc\xbbtF\x0c*\xac2\x98a\xfe\xc9\xcd\x17Q\xaf\x0e\xa3#\xf8\x80\xea+\xc9\x94\xf5&gt;\xfe\x9d\x18\xc1Y\x0c\xb4\xb5\xb9\xbb\xb8\x16\xf66\xd2]N\xdd"\x85\x0b\xb3\x7f\xba\x079\xf6\xae\xa3L\xf8\x7f\xe3i\xad\x1e\xf2/\x0c\xdeF\xc9\x80\xe9"\x08\xdaA\xd8\x94$6}\xf1\\\x95\xb1T\xa9/zFU\xf1\xf8l/\xf1\xa6\x91\x85\xafh\x9a\xb7\x87\xefm\xedu\x8b),\xe5e\x0c\x89)\x19*\xcc0x\'\xdf\xf2\xa8\xe7\x03\xcc\xda\xa3+\x9c\x05\xfe\xf9\xff\x00\n\xb8\xd5\x8dD\xa5\x1d\x8e\xda\x15\xa9\xe2)\xaa\x94\xdd\xd3\xeb\xf8\x14\xf5\x15x\x0b\t\x14\x99\x08\xce\x08\xc6}\xfe\x95\xeap\xb7\x87\xbe\x1b\xf8\x12\xcf\xc4\x9e!\xb5\x1a\x8d\xcd\xc1\xdf\xa6i\xcd\xc9\x9el\x7f\xad \xf1\xc7\xa9\x04"\x91\x81\xb8\x9c\xfa\xf9g-F\xe5\x17s\xe0\xb8\xcb\x18\xa3\x86\x85(;\xf3=~_\xf0\x7f#\xde|\x1bm\xad?\x87\xede\xf1\x13\xa1\xd5&amp;A-\xc4Q X\xe2c\xcf\x96\xa0v\\\xe3$\x92pNk\x8b\xd2\xbe\x0e&lt;\x97\x08\xfa\xbe\xbb;Z\xdbC=\xb5\xa2\xda\xabEp\x91&lt;\xc2T\x12M\xbd\x83\xec\xc6\x14m\x03\x04\x86\xcfJ\xfa\x18\xda\xda\x9f\x93\xda\xe4\xba\x87\xc1]\x01\xec\xd6\x0bk\xfb\xcbw72O4\x9bc\x02_2\x1f%\xd4\xc6\x8a\x882\x9cd(=O$\xd5\rW\xe1RX\xe9\x16\t\xa6\xeb\x93\xc1wa\x03$R\x15\x0b\x1c\xd2\xb62\xef\xd5\x8eNp7\x1d\xa5\xb8\x1c\x01W)\'\xba*\xc6:j\xf7V\xd7\x83H\xd7\xe1[k\xe3\xfe\xaeD9\x8eQ\x9cu\xecN3\xce:\x8e\x87 g\xf8!\xbe\xdd\xe2\x0f\x13\xde8\x06$\x92+x\xcf\xa6\xd0\xd9\xfdMe:\x9c\xce1\xeb\x7f\xf8&amp;\xd4\xe98\xa9O\xa5\xbfT\xbfS\xa4\xb4\x8c\xa4r9\x07\x0f\xeb\xda\xa2\xb9 \'J\xe9[\x1cl\xc5\xd5\x1c\x15\x00\n\xc9\x1b\xd4\xe1[p\'\xbd&amp;\x08\x1d\xc9\x93n8\xefUd\x0c\x18\xe0u&lt;R`e\xea\xa3\x08\x18\xf5\'\xa5fO\xc4@\x8a\x96\x05[\x97&amp;\x10\x83\xb89\xa8d!`\x8f\xb1#\x9a\x04\x8a\xf1\xb1Y\xf7n\xe3=*\xf4l73\x1e=\xaaFt@\x9aGo\x97\x15\xc8\xcf9\x14.y$\xd6G\x8e\xc0\x1e\x1c\x87\x8e\xf4\xe3\xf1!uF\xf7\x87|\x8f\xf8J\xf4\xc9bX\x86\xe9T&gt;\xc8\xd0\x10\xc1\x97*\xcc\xac\xc5\x98w\xcf\xafz\xfbb\xe4\xff\x00\xa11\x1c\xfc\xa3\xa5w\xd4\xf8\xbe_\xa9\xe9\xc3c\x9a\xd1uKM\'G\xd75mN\xe0Cgisq$\xb2\x13\x9d\xaa\xb21\'\x8a\xf3\x1b\x9f\xda\x8b\xc1kza\xb6\xd2\xb5\x19\xa1\xce\x04\x8c\x15\x0b}\x06\x7f\x99\x1f\x85b\x9d\x96\x8b\xbf\xe6h\xa3\xcc\xce_\xe3\x87\xed\x05\xe0\r[\xc0\xd2\xe9\xfa~\x99q\xa8j\x92\xa6b[\x85\x08-d\xce2Y[\x93\x8ep\xa4\x83\x9c\x13\xd4W\xc7\xba\xe7\x895\x8dJ\xe3\xcc\xbb\xbey1\xf7W\x80\xab\xf4Q\xc0\xfc*c)I\xb6\xd5\x85k2\xcf\x84\xecn\xfcE\xac\x06\xbb\xb9\x96Hm\xc6]\x98\x92q\xd9A\xed\x9f\xe9^\x97\xf6(--V8c\x11\xc4\x9d\x15x\xff\x00?Z\xf2s\x1a\xcd5\x04~\x95\xc29rp\x96"k\xc9~\xa5V\xb9\xb7_\xbb#\xa1\x1e\xac\x08\xfeB\xae\xe80\xbe\xaf\xacZi\x96\xa2\xdd\xe7\xba\x95bB\xe7\xca\xe4\x9c}\xe5\xed^D\x9b\xb5\xd9\xfa7\xbb\x14z\x17\x89\xb4\x1f\x87~\x14\xd7 \xd25\x9dC[\xbc\xba1\x87\x96[ao\xe5\x82O\n2\x0b\x03\x8ez\x93\xc8\xe2\xb4-\xbc_\xf0\xa7G\x87:g\x81\xef5;\xa8\xd7\x9f\xediC)\xfc\xdaE\xff\x00\xc7E|\xf76/\x13\x04\xe3d\x99\xf2\xb1\x96i\x99Q\x8c\xe8\xc9B\x12\xbf\xaaW(_\xfcl\xf1(\xb6k]\x12\xcfL\xd0\xed\xb3\x94[kp\xc5\x7f\xef\xac\xaf\xfe:+\x8d\xbd\xf8\x81\xe3;\xcdMf\x7f\x13j\x8d30\x11\xac\x17\x0f\x18\xdd\xfd\xd0\xa9\x80\t\xed\x81]\x98|\xb2\t\xde~\xf3;p\xd9\x1e\x0f\t\xfb\xca\xbe\xfc\xbb\xcbSkC\xf1O\x88\xb4\xab\xab\xab\xcdCD\xfe\xd7\x96\xe9\xbc\xb6\xb9\xd5m^g\\pQ]\xb9\x04\x86 \x8e~\x9cV\xbe\xad\xe3mMV+\x9d\x03\xc1:N\x856\xe0 \x92\r9$\xb8V\xcfbW\x9f\xa6\xda\xec\x9f\x0f\xd7rn)\xa5\xd5z\x1emw\x97\xca\xaap\xc4r\xc1\xd9r\xa7e\xd2\xd6\xed\xbd\xdf\xa8\xfbmw\xe2\x17\x8c\xfcC\xa7h\xbe"\x17\xf1iwr\xaaH\x92X\x88b}\x9f9\x0c\xc5GP\xad\xc6k\x8d\xf1\x0f\x88W\xc7_\xb4\xee\x8do\xb8\x9d6\xcbR\x82\xca\xd9;\x15\x8d\xc6\xe6\xff\x00\x810\'\xe8E{\x99N\x01a\x14\x92V\xbf\xfc\x13\xe1\xf8\x82\x18HN\x10\xc2;\xc5\'}o\xad\xcf\xb8ma\x18\xd8:\x9e\xa4\x7f*\xd2\x8e\xd8*\x8f\x98\x9f\xa8\x06\xbd\xe8\xa3\xe5\xcawp*\x8d\xc7\x04\xd6\x0e\xbbe\xf6\xdd:\xe2\xd0Hb2\xc6T8\xceP\xe3\x86\x18=GZ\x96\x8aG\xcf^.\xb9:\xb5\xaa\xf9\xf3\x08\xaf\xadQ\xde]\xc4\x0c\x10q"\x9f\xf7]2?\xd9qY\x1e\x00\xf1w\x86\xb4\xcf\x0e\xcf\xf6\xef\x10\xe9\x91^\xdc\xdc\xb4\xd2E\xf6\xb4\'\x92}\x0e=;\xd7\nmTO\xb6\xff\x00\x89\xea\xcaQ\x8e\x12I\xbd^\x8b\xd2\xe9\x9az\x8f\xc6/\x00Y\xc0T\xea\xaf;\x8e\xa2\xde\x12\xfc\xfdx\x07\xf0\xe2\xb0u\x1f\x8d~\t\x117\x90u\x19\xf1\xd0%\xb0\x04\xff\x00\xdfL+\xbe\x9d^~\x8dz\x9e#15O\x89\xf7W\x9e\x1e\x9bX\xd2\xbc-+\xe9\xd1J!77\x17*\xa41\xf5\x8dA8\xed\x9c\xe3$\x0c\xd2|1\xf1\xa5\xd7\x89/o,\xaf\xe0\x82)\xa3Q,B\x00@+\xd0\x83\x92y\x19\x1f\x9dL+FnQ\x8b\xd6:2nw\n\xa4\xe4\xf5#\xbdC&gt;C\x01\x8c\x92x\xad\xd8\xcc=sR\xd2-\xdf\xcb\x9fQ\xb4\x89\xc0\xe5\x1eeS\xf9\x13Y\x91M\x05\xf0\xff\x00D\x9e9\x90\x0e|\xb6\r\xfc\xaa\x1b\x0e\x83.#\xc3*t8\xaaS\x02\x1fi\x06\x90\x10\'\xfa\xf0\x0f\xebV\xdd\xf3\x80)\x88\xea\x82{Tr\xa1\x035\xc4y\xe5\x1b\x90{V7\x8f\x88\x1e\x1b\x84\x9e\x9b\xbf\xa58|H]Q\xb1\xe1\xd1$\xd7z=\xec2\xdc,\x92\x91\xe4\xad\xdb\xb3m\x1b\x97\x00g\xf8T\xf7\xeas\xf4\xaf\xb7\xe7R\xb6EOP\xa0q]\x92\x93\x94\xe4\x9a\xb5\xb4\xff\x00\x82z\xb1I-\x0eR_\x0c\xd9k~\x19\xf1\x16\x83-\xe2\xbc\x1a\x9b\xcc\x92I\x1a\xf3\x19fo\xcc\xa9\xfdEx,_\xb2~\xa3%\xc4\x89q\xe2\xbbH\xa0\xe7d\x91\xdb\xb3\xb1\xfa\xa9#\x1f\x99\xa5\x14\x9f\xf5\xe6\\ef\xcf\x9c~,\xf8\'V\xf0G\x89\'\xd1uh\x99\x1e\x11\xfb\xb7+\x81"\x12p\xe3\xeb\xf8\xfaW$-!k$\x01\x12[\xa9\x8e#L\xb0bO\x03\x8f\xd6\xb3\x9bj:nT\x173=7\xc2ZBh\xda:@q\xe6\x9f\x9eV\xf5n\xff\x00\xe1\xf8V\x82\xdc\xb3\xc8~Q\x8c\xfc\xb9\xed_-\x88\xa9\xedj\xcaKc\xf7\xac\x9b\t\xf5L\x1c)=\xd2\xd7\xd5\xea\xcb)\xf6\x96P@@\x08\xf4\xa8n!\xbbfVa\x10\x00\x8f\x98\x0c\xb7\xf2\xe3\xf5\xaeK\xa4{\x8d7\xa1\xad\xe2_\xed\x8f\x15\xe9\xed\xe2K\x9b\xf7\xbd\xb9\xb5"\x0b\x9d\xd1\xaf\xca\x9c\xecl*\x81\x82w\x03\xef\\|\xb1]\xab\x05I\x14\xa3\x00@l\x82&gt;\x94\xb0\xaa\x9aN\x92\xfb?\xae\xa7\x85\x85\x9c0\xfc\xd8zJ\xca\x0e\xdf~\xbf\xa9\x1d\xa8\xbf\x82c!\xb2\xd3\xef\x94)\x0b\x1d\xd4\xf2\xa2\xe4\xf4$G\x83\xc7\xfb\xc2\xa4\xf8}\x1e\xa7e\xe2MJ\xf7V\xb9\x8e\xdd\xe4\xb2\x92\x18Wo\xee\xe4,\xa7\xa3\x0f\x95\x08\xc0\xeb\x82I\xeek\xe80\x95(\xc1\xd9\xee|\xae\x7f\x87\xcc\xb1\x11r\xa6\xef\x05\xd1o\xeaz\xc3\xf8\xb3L]4\x8b\x9b\xb4\xde\xeb\x95D\x05\xcf\xd0\xe3\xa7\xe3\x8a\xe6\xe4\xf1tp\xdcC=\xa5\xa6\xf7\x89\xc3\x83/L\x83\xe8?\xc4W\xd7c\xf3l=\x15\xcbO\xde~[\x1f\x0f\x95p\xb63\x16\xd4\xab\xfb\x90\xf3\xdf\xe4\x8e\xaf\xe1\xc7\xc4+\xfdO\xc7\x96\xf6\x17q[A\x15\xe2H\x11 L\x0f0.\xe0Il\x9e\x8a\xc3\x00\x8e\xa2\xbc\xb7\xe1\xee\x9e\xba/\xc4]\x0f^3"Cky\x1c\xcedl|\xa0\x82\xdfS\x8c\xd7\xcb\xd2\xc4\xcavr=\x0c\xef*\xa5\x97&gt;JM\xb4\xd2\xdf\xbd\xdd\xcf\xd0(\x0c\x1e\\s[\xc8\x92E \x0c\x8c\x87 \x83\xc8 \xfaV\x8a0e\x04\x1a\xf4\xa2\xcf\x94*^\xba\xe3\xda\xb1n\x9cms\xed\x81D\x99h\xf9\x83\xe3%\xbf\xd8&lt;U\xae\x14\x8c\xfd\x9da\xfbr8R|\xb6u\xda\xe3&gt;\xe5\x01\xf6\xc5|\xbb!\xc9\xc7&lt;TQ~\xf4\xbeGEt\xd5\x187\xe7\xfa\x11\xb8\xdc0F}\xea\xb1\x05\x1c\x8a\xeah\xe0=\x13\xc3\x1f\x165]3D]\x07T\xd3-5M)#\xf2\x96 \xa2\x17T\xe7\x80T\x15\xc1\'\'*I \x12k\x99\xd0&lt;A.\x8d\xe2s\xa9\xe8\xe8 B\xcc\x12)N\xf0\x10\xf1\x83\xd3?\xfda^]\x1c\x0f\xb1\xaf:\xb1\x96\x93\xddy\xff\x00W\x11\xdd\xcb\xe3/\x19L\xbb \xbb\x8a\xd9\x8fW\x8a\xddX\xff\x00\xe3\xe1\x87\xe9\\\xdf\x88t\xaf\x11j\xd0=\xdd\xde\xb56\xa4\xcb\xc9\x86G\'\x1f\xee\x8e\x83\xe8\x00\xadV)Gs\xd6\xfa\x8b\x92\xd0\xe2\xc2\x0c\xed\xc6)\x1e!\x9c\xe0dt\xaf@\xf2mc\xb9\xf8W\xacC\xfd\xa5&amp;\x85\xaa\xcb1\x8fP\x028.\x04\xee\x1a\x07\x19\xc0Q\x9c|\xdfw=\x89\x07\xb6+\'T\xd7|G\xa4\xea\xd7V#X\x92_"B\x81\xa4\x0b&amp;\xe0\x0f\x07,\x0fj\xf3\x12\x941\x92\x8bw\x8c\x95\xd7\x95\xb4\x7f\x99\xa5\xaf\x0f4:\xdf\xc7:\xd4g2Gi9\xee\xcf\x19\x07\xf4`?J\x92\xe3\xe2\x06\xb2\xcd\x98\xad\xad#P:lf?\x9e\xea\xf49\x0c\xd3&gt;\x89[\x7fj\x8a\xe2\xdf\x11\x9e+\xce8\xecb^.\xdc\xd6o\x88\xdf\x16Za\x05\xc6.S\x94\x19a\xcfa\xceMTwFOFh\xda\xa4\xd1x\xa7L\x92\xe5\x9d\xd8\x8f\xf5\x92\xda&lt;\x0c\xd8e\'9\x00\x1eI\xe8\x063\xcek\xed\xc9y\xb3\xf5\xf9Ev\xcb\xa7\xa7\xeazt\xf61\xbc\x1b(\x92-F-\x85|\xbb\xd9\x86\xe2~\xf6dcT\xf5\xbf\x88&gt;\x19\xd1\xb5\x994\xbdF\xf0\xdbM\x167\x99\x10\x81\x8221\xc7?\xcb\xaf=\xab\'%\x08\xdd\xf9\x9b\xc2\x9b\xa9&gt;T|\xf5\xfbB\x9d\x1f\xe2\x92\xcfq\xa1Gs\xfd\xa3\xa7\x8d\xa8gE\x11\xc9\x1f&lt;\x06\x1c\x8c\x9c\xf2\xd8\x00\x8e\xd9\xc8\xf0\xeb-\r\xb4K\x98\x93P\x7f\xdf$jV&amp;F\xccd\x8cu#\x07\xea\xa4\x8ez\x9a\xe2\xc4\xd5\xbd\x17${\x99&gt;\x05\xcf0\xa7J~\xbfv\xbf\xa1zk\xbf0yq\x8f\x97\xb9=\xe9\xf6\xaa\x0c\x80\xf5\x04s_8\xd6\x87\xee\x90H\xd3\x120\x1c\xbe\xdfzF\x95H \xc8\xcc\x0f\x18\x1d\xeb\x16\x8d\x8fF\xfd\x9c\xac\xd2\xf3Y\xd5\xac\xe6\xc9\x86[FWL\x9c0\xdc\xbc\x1c}M6\xd7\xe1v\x85\xa8^5\x8a\xf8\xa2\xe2\x1b\xd4\x81et6H\xc3\x04)\xc8\x1ehle\xb1\xc8\x1d\x0f\xb6t\xcb\xe8\xaa\xd8\xc9\xc5\xbb{\xa9\xfeg\xc1gy\xa4\xb2\xcc\\\xa5\x18\xf3s(\xfer(/\xc2\xbb}B\xe6\xe2\xd3\xc3\xbe3\xd3uK\xfbu\xcc\xb6\xcc\x862\x008 \x95g\n\xd9\xe3\x07\x15\xc0\xeaZm\xf6\x95{%\x9d\xed\xb9\x8d\xd1\x8a\x91\x90\xcappp\xc3 \xe0\x828\'\x90k\xd8\xc4\xe0\xe5J&lt;\xcbT&lt;\xa7?\xa5\x8f\x9f\xb2k\x96_\x9fr\xa2\xbe\xc7\n\xdf4o\xd3=\xbd\xa8\xb8Q\x0c\x80\x95%\x1b\xb8\xea?\xc6\xbc\xcb\xea}r\x8d\xd0\xeb)\xa4\xb4\xd4mu\x0b\x16Qum*\xcd\x0e\xef\xbaJ\x9c\xe0\xfbv&gt;\xc4\xd5\xe9|=s\xe2\xfd\xd6z\x0e\xc8\xa4\xb9\x9eCk\x1c\xcc\x17k\xa0\xdd\xe5\x13\xd0\x1c0Pzd\x8e}:\xa8T\xb6\x8f\xba&gt;K\x890~\xd2\x9a\xaa\xb6I\xaf\xbfo\xd4\xf6O\xd9?\xe2t\xb7v\xaf\xf0\xe3\xc5\x12M\x0e\xb7\xa6\x16[U\x9c\x80\xcf\x1a\xfd\xe8\xb9\xe7r`\xf1\xd7\x1f\xee\xd7\xd1\x0bv\xa1B\x87\'=F1_E\xb3\xb1\xf9\x1d\xad\xa1^\xe6\xe0\xb6Nk\x85\xd7~"x2\xc6K\xcbk\xcf\x15i\x96w6\x84\xac\xd0\\\xdc\xacR!\x1f\xec1\x0c{c\x03\x07#\x1cRlg\xc8\x9f\x1c\xfcyu\xad\xf8\xa6\xfa\r7Q?\xd9\xb2\xc4\x91\xba\xc6A\x0e\x01,2q\x90y\xe4\x03\xeczW\x95\x9cf\xb6\xa7\x14\x95\xfb\x8e\xbc\xe5\xa4\x1fA0\x00\'\xb5V\x98\xfc\xf5\xab9\x90\xde\xd4\xe8\xb1\xe6\xad \xdc\xf6\x9d"\xde\x06\xd3\xecf\x94\r\xd2\xc4\xacO\xd4S\xee\x16\xde&amp;w\x0e\x14 \xe4\x83\x8c\xd7\xcfOI\xb4}\x8d-iE\xbe\xc8\xf1\xadBD\x97P\x9eH\xc6\x11\xa4b\xbfL\xd4\x0cI8\x15\xf4\x10O\x95#\xe4\xab4\xeaI\xad\xae$l\xf1J\xb2!*\xe8A\x04\x1eA\x15&amp;\xa3w5\xfd\xfc\xf7\xb7%L\xd3\xb9w#\x81\x9</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -464,6 +486,14 @@
           <t>Luiz Flávio de Oliveira</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xe1\x00hExif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x04\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00&gt;\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00F\x01(\x00\x03\x00\x00\x00\x01\x00\x03\x00\x00\x011\x00\x02\x00\x00\x00\x11\x00\x00\x00N\x00\x00\x00\x00\x00\x00\x93\xa3\x00\x00\x03\xe8\x00\x00\x93\xa3\x00\x00\x03\xe8paint.net 4.0.13\x00\x00\xff\xdb\x00C\x00\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\xff\xdb\x00C\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xfdJ\xfe\xcb\x95\x90\x9c6\xe2\x98\xda\x19T\x02:\x02\x01#9\xceN@\xcf\xa58i\xb7\x00q\x18\xf9F\xec\x16@Kg\xee\x83\x9e\x0f9\xce\x08\xc0 \xe35\xd3H\xab \xc4m\x9e1\xc7\x1f\xe7\x1f\xa7\x1e\x9c\xc1\xf6WoS\xff\x00\x02\x1f\xd6\xbe1S\x8a\xe5\xb5\xec\xb6ZY\xed\xbe\x9e]\xcc\xe5MN\xd7r\xd2\xfb4\xb7\xb7\x97\x97\xe7\xdc\xcaK9\xd5\x89\xf2\x90\x03\x1e\xceJ\x9c\x0e\xbc\xedc\x93\xf4\xe3\xb8\x19\xab\xd1[\x04\xc6\xe5\xee\xb8\xf5\xdcxe\xe3\xb0\x1d:U\xb5\xb4n\xe3\x9c\xff\x00{\xfc*\xd4V\xee\x03\x04\n\xccv\xe3w\xde\x18\xceJ7@s\x8eO\xf8\xd5;[[%\xf7/"\x92\x8c#m\x92\xb5\xdb\xeb\xb2\xbb{]\x91\xc7k\xc6H\xda\\\x82\xaa\x0f\xca\x02\x13\x8223\xeey\xc0\xf6\xcdK\xf6F\xda[\x19\n\xbbO=\x8f?\x9eE[Hff\x003\x02yt\xe0\xbb*\x11\xb7\'\xa1\x0c\xc7\x04\x8cq\xf8\xe2\xcd\xd4\xd6z}\x94\xd7\xf77\x10\xdb[\xdbD\xf2\xdd\xdc\xdc\xcd\x1c\x16\xb6\xd0\xa0\xcc\x93\xdc\xdc\xcc\xe9o\x04Q\x0ed\x92WTE\xcb\xb1\xda\xacFsP\x957\xcbg.k+;\xbe\x97\xeb\xdb\xe4\xb5\x1a\x92\x93\xb4Z\x93\xec\xb5\xfc\x8ciP\x1c0Y9\xe0\x81\xf7:\x1d\xcd\xc0f\x03\x1c\x927m\x19$\x1e\x95\xc6\xf8\xb7\xc6~\r\xf0.\x97&amp;\xa7\xe3\x1f\x13x{\xc3\x96P\xa6\xf7\xb9\xd7u\x8d;K\xb7\x8c2\x93\x13+_\xcfk,\x85\x826\x11a\x1b\xc0\x05I\xaf\xc4\x9f\xdb\x8b\xfe\x0b\'\xe1O\x862\xeb~\x08\xfd\x9cb\xd3\xbc]\xae[Ksg\xab\xfcI\xbb.\xfa&amp;\x95y\x1c\xd3\xd9]Y\xe8\x16\xef\x10\xb7\xd4\xa7\xb6H\xcf\x91\xab\\Ms\xa7\xa4\xa5\x1a\xde\xdah\xca\xab\x7f3\xff\x00\x15\xff\x00i\xcf\xda\'\xe3\xe7\x88__\xf1\x9f\x8e|G\xe2\x1dCV\x92\x16\x92\xfe\xfeyn\xad\xe2\x9d\x0c\xd1B\xb6\x96\x82I\xad\xec,c\xb7&gt;DW\x10\xa4\x10\xa6\xd3"\xdb\xc0\x08E\xc2\x94m\xef9B\x9c&gt;\xd4\xe7%\x18h\xd6\x8d\xb6\x95\xf4\xb2]\xfa\x1e\x8e\x1f\x03:\x8b\xdaU\x8dX\xc5;r\xf2K\x9aW\xe5\xb3\xda\xf6\xd7t\x9d\xfau?\xb4\x1f\x16\x7f\xc1I?cO\x0b\xbd\xc4W\xff\x00\x18\xf4\x9b\xc9\xa3\x8d\xe51\xe8\x96\xba\x86\xaa\xb2\xa49\xc0\x82Kx&gt;\xcc\xd2\xcb"\xf9q!\x98F\xe5\x81\x12\x88\xc8aS\xc2\x7f\xf0S\x1f\xd8\xd7\xc4\xb7PYC\xf1r\xdbNy`iD\x9a\xd6\x95\xa9i\xb6\xf2\x06\xcao\x8eE\x8a\xf9@vFx\xf64\xe9\xe5\xb2\x9f5\x9bz\xaf\xf0\x89\xff\x00\x08_\x8bn\xe5\x8e\xfe\xe2+\xfb\xd9\xbc\xff\x00*\xcd\x9ek\x8b\xa8|\xa8\xa7\x0b7\x94\xa1\xa4\x9eie$J\xe8\x93F\nF~O,\xec=\x86\x97\xf0s\xe2\x15\xd0i\xec\x0e\xa0\x16\xc5@2\x19.-\xda\xe2\xe1od\x86\xcbboeH\xc5\xa3\xabm\x85\xcc*\xa1|\xcd\xacNb\xb6/,\xa0\xedS0\xa5\x17\xa6\xf5)\xa5\xe7oy\xf5\xfc\xfb\x1e\x9d,\x92\xa5k{*\x18\x89\xde\xda{9\xb9?\x87\xa2\x8av}\xf6\xdf^\xff\x00\xe8\xb3\xe0/\x89\xbf\x0e~#i\xc9\xaax\x07\xc6\xfe\x1a\xf1]\x9b\x8f29\xb4MR\x0b\xc9PI4\xf1+Om\x11\x92\xe6\xdc8\x88l\xdd\x01\xe4\x91\x91\xc0\x1e\x8d\x18\xc6\xe5\xe8|\xd2\t8q\xeb\x90\x8aK&amp;}X)#\x96E#\x15\xfex\xfe\x0e\xd7?i\xaf\x86\x17\xf6z\xe7\x87\xf5\roO\xb9\x85VXu=/V\xba\xd3\xa7\x97\xec\xe0\xcbe;=\xad\xd4R\x03it\xb1I\xb9\xbc\xc8\x89\xe1\xe29\xc8\xfd\xca\xfd\x8e\x7f\xe0\xb4\x1e:\xf0\xdd\xd6\x9d\xe1\x0f\xda\xa3\xc3\xba\xa6\xbd\xa05\xc4\x96\xc7\xc7\xb6p\xcf/\x89\xb4\xef#sI=\xda\xc4\xab\x16\xbd\x15\xc3\xb0+\xcd\x9c\xca\xb8\x11\xb4\xec\xb9$1\x98j\xab\xdc\xc5P\xa8\xafe\xcbV\x9c\xb5\xe9kI\xeb\xff\x00\x07\xcc\xca\xb6E\x8a\xa3\x06\xdd\x1a\xd0\x84vui\xca5[\xed$\xd2\xd3\xfb\xd6\xff\x00\x81\xfd?B\xa1\x97\x18\x03\xa1\\t\x07\x8f_\xaf\xf2\xa9\x9a\x16,\x0b\x00\x00\\\xf4\'\x1bK\x91\x809 \xee$\x81\xd7\x1dz\xd7!\xf0\xbb\xe2G\xc3\xef\x8c\x1e\r\xd1\xbcw\xf0\xd3\xc4zo\x8a&lt;+\xae\xdbGsk\xa9i\xf3-\xcc\x96\xcc\xd1\xa4\x89c\xaa\x05{\x89\xecu\x04\x132\xcfgx\xf1\\C2\xf9R\xc2\x92\x14\r\xe9)a\xe68\x0cH\xdb\x82H\xed\xdf\x928\xc8\xe8G\xf55NWz;\xa7\xda\xcdlx2\xf7e\xcb-%v\xac\xf4n\xda;\'m\x8c\x89!O\x91\xc0*\xc4\x1e\x846\x07\x1c\x83\x8c|\xdd\xd4\xe4\x8cs\xd6\xa8\xc9\x08B\x04C\xef\x1d\xceN\x0cm\x9e\xb1\x9e\xe1\x8f|\x1e\x9d\x00\xc5u\xff\x00`\x00/\xcb\x8d\xd9\xc2\xe7#\xe5\x00\x93\xc0 \x16\xcfC\x83\xd2\xaa5\x82\x16-\xe5\xb0\x07#w?{\xd7n=\x7f\x1c\xf7\xae@9\x06\xb2v\xff\x00\x96\x80u\xed\xeb\xf8T\x7f\xd9\xcd\xde`\x7f\xde \x7f\x81\xae\xc3\xfb&lt;\x0e\xaaG\xfc\x04\xff\x00\x855\xac\xa3^\xcd\xff\x00|\x7f\xf5\xff\x00\xa5\x00r\x07N\xcf\xfc\xb7\x89}\xb7\x1c\xfe?5\x15\xd2Kf\x84\x90\x15\xba\x8f\xe0oO\xa5\x14\x01w\xfb#oH\x07\xe0\xcaz\xfe\x14\x7fdLyX\xc0\x1f\x80?\xa2\xf3\xfd;\xd7\xaa&gt;\x8e\xa4\xfc\x8a?\x1c\x81\xfc\xbf\xcf\x15\x11\xd1\xdcuU\xc7\xaeEW5]&gt;_k\xfc?\xdd\xf4\xfe\xaeo\xec\'\xda_\xf8\x0b\xf2\xff\x00?\xea\xcc\xf2\xf3\xa5\xba\xff\x00\xac\\\x0cs\x8fN\x9dv\xff\x00\xfa\xa9\x13N\x01\x81\x8b-\xd8\xaeF\xe2Nq\x83\x8c`\x00I\xe3&gt;\x98\xef\xe9\xad\xa4z\xaeN:\x8c`u\xef\x9f\xe9L\x8bI\x0b \xdaZ2A%\xd57\x90\x07R\x07\x18\x039on\x80\x91N\x12\xa8\xdd\x9e\xcf\x7fz\xea\xd6\x8fK/+z\\\x15\x19]]J\xd7]\x1a\xdd\xf7\xd6\xc7\x9b\xde\xc1g\xa6\xda^j\x17\xd3ZZ\xdaY\xda\xcfsy\x7f{2\xdb\xda\xda\xda@\x86{\x89\xee\xae$t\x8a\x1bh\x11\x1aI\xe5b\x168\x91\xd8\xf0+\xf1\xbb\xe3\xff\x00\x8d\xfc}\xfbi\xf8?\xc7\x1a\x9f\xc3\xbf\x15\xcd\xf0\xbb\xf6\'\xf0&gt;\xa1\xac\xf8s\xc4_\x13\xef-^=o\xf6\x84\xf1\x1e\x93mp\xf7\xfe\x1e\xf0\x06\x9f\x14?j\xba\xf0\x8e\x8d=\xb0\x83U\xd5C\xe9\xf0\xc9q2\xc3%\xe4\xf0\xb1\x88\xf9\x9f\xfc\x16?\xf6\xc0\xd6N\xbd\xa2\xfe\xc4\xdf\x07\xb5\xb9m\xb5\xcf\x11Kk\'\xc6m[J\x99\xd6\xe6\xc7N\xd5\xed\x97\xfb7\xc1\x92\xb4^\\h\x93Z]\rS\\\x8c\xdc+I\x0c\xd0XJ\xdb&amp;w\x8f{\xf6\xb8\xf8\x8b\xa7\xf8\x0b\xf6]\xf8M\xf0o\xc3\x8b\xa7\xe8\xda\'\xc3\x7f\x03\xe9pI\xe1\xed9\x1a\xdcZ\xddI\xa0D`\x9bR\x8a0`\x13\xcf\xaa\xcd\xaaj\x1a\x8ba\xe7\xb8\x96\xedn&amp;\x07|A\xb5\xa9\xce\xa8\xb7\x19F\x1f\xc4nR\x95\x9a\xf6p\x8c\xf4\x8bZ\xdfk\xf3+og\xb1\xf4\x99&amp;U\t\xe2#9\xc3\x9d-9t\xb6\xca\xde\xf5\x9d\xae\xbf\xba\xfe{\x1f\xcd/\x8b\xfc+\xe0\xfb\x7f\x14j\xb1X\xe9/u\xa5\xc9}&lt;\xd6r^M%\xc4\x8fko&lt;\x84\xc6\xbb\xe4h\xa3m\x80\x01\x18\x0b\x12\x8f\x94.q]\xcf\x87\xbc1\n\xacRE\xa2Z\xdbL\xca\xa1!\x16\x91\x89\n\x126\xb2\x19\x95\xe1R\xa9\x80\xaf\x18F\x07&lt;\xe0\xd5M\x07D\xb8\xf1O\x89VEe|]L\x91\xbc\xcb\x0f\x90\xb2\xbf\xfaK\xb9\x94|\x81\xbc\xf9\xa4\xdb\xf20,0\x0ev\xd7\xd9\xde\x0e\xf8{\xe1\x9bkkyu=D\xc14\x826\xf9\xe7\x06C4\xf1\t\x1d\x84\x08\x80$i\x19\x19|\xfc\xf9\xd820k\xf1\x0c\xda\xbd|k\xa97\x89\xafJ.R|\x90\xab\'\x1dZ\xd5Y\xc6\xefM\xed\xae\x9a-O\xd8\xf2\xac\x1e\x1aN\x9f5*iF=iFw\xd1+[K\xe8\xads\xc8\xb4\x9f\x01\xdf^\xe1`\xd3\x0ci\x0b\t\xa3c$\x10,\x92\xcaTH&lt;\xe0\xc0FUA\x1b\xd5\xd1\xf8\xe0\x968\xae\x86?\x87z\xb4\xac\xe6=\xd0y`\x98\xdem\x93#\xb3\xc6\xd1\xdb\xc9j\xa9\xb8K\x1a\xc7\xb66@\xbe\\\xb2B^e\x91\x89\x07\xeb\xef\x0f\xd9\xf8\t\x84:LZ\xd2\xb4\x8b\x1cE\xd1-\\66\xdb\x05\xcc\x8e\xce\x12y&lt;\x92\x9bTm\x08\xca\x15\xbb/\xb6\xda\xf8\'C\x86\xc6-u\xf4\xbf\xb3yV\xcfq\x1c\xc5\xe1X\x8c\xcb;$0%\xa6\xd2\x0c\x92)\x12\xce\xc4\x80\xca\xc4\xa9b\xa5k\xc1\x86\r)sU\xa8\xf1\x1a\xdf\xf7\xde\xd2RKK\xab\xfbT\xad\xa7\xf2\xf9\x9fUN\x85\x05iR\x8b\xa4\xd2Q\xbd%\nqvI\xdd\xc7\x92O\x99\xde\xd7\xe6\xb5\xadm\xae\xff\x00$|_\xe1\x1d^\xda\x06\xb0\xbb\x82\xe6%\x11\xaa@\xf0\xda\xce\xe2p\xe4D\xa4\xc5&amp;\xd8D{\xa4]\xd9\x1f{\x1c\x1e\xa7\xc44}N\xef\xc1\xbe%\xd3\xef\xe3\xb7\x17\x8fgs\x04f\x1b\xfb3qks\x1cs\x15kW\x89\xd5\xd1\xcc\xca\xa5Y#\n\x02\x1d\xaa\x15\xb0k\xf5\xfb\xc6z\x8e\xa3\xaa\xd9\x98\xfcI\xa4hkg\x1c%\xed\r\xbd\x8a\xfd\xa6\xd2\xdf\xcf\xc2\xc6g\x9aVq:\xae\xe2XE\xb5pq)\xcf?\x0b|]\xf0U\x9ck$\x9ae\xbd\xbc\xd1\x1c\xcf\xb9\xa7T\x9d$\x91\xe0\x8eO\xdeF\xa5_\xcd\x8eh\xb6\x0c\x82~`v\xe0g\xba\x84\xbe\xac\xe0\xe8\xafg\x18I7\xec\xe58\xbbh\x9d\xe5)\xcbO+oo;\xf9x\xec$*\xd3nj\x9b[5\xec\x96\xbaunMt\xed\xe9n\xbf\xd0\x07\xec\x11\xe2\xcf\x0f\xfcY\xf8F\xbe-\xfd\x9a\xf4?\rx\x17\xf6\x96\xf8yik7\x8c\xbe\x0f\xd9M\x16\x97\xf0\xfb\xf6\xa6\xf0\xbc\xb6\xd6\xda\x85\x9a\xff\x00dE$z_\x86~-\xe9\xd6\xf6m\xa4\xf8C\xc5\xdae\x9d\xbd\x96\xad\xa8\xad\xb6\x99\xe2\xd8$\xfe\xd0\xfe\xd2\xb3\xfdp\xf8?\xe3\xdf\n\xfch\xf06\x97\xe3\x9f\x08\xb5\xe3\xd8j&amp;\xebM\xd4\xf4\xab\xe8\x1e\xd3Z\xf0\xaf\x88ty\x1fO\xd7\xbc+\xe2K\x19\x82\xcd\xa6k:\x0e\xa5\x14\xbae\xed\x9d\xc0I\x8bZ\xbc\x88\x85d@?\x8d_\xd8\x97\xe3\xc6\xbf\xf0[\xe2\xc7\x82nt\xbb\xbdCJ\xb8\xb0\xf1\x0e\x92m\xaem\xdd\xe3\x92-\xfa\x9d\xa7\xee\xdd\x8c\x8c\x1e\xc0\xcc\x13\xed\xb6\xcc\xa6&amp;\x83|\xceA\x8bi\xfe\x85&lt;s\xf1\xcf\xc3\xdf\x01?n/\x87\x9f\x1b|=\xaf\xad\xb7\xc1\xef\xdb\x1dt\xfd\x1f\xe3\xb7\x85\xedb\x8a\xdf@\xf0g\xc6\x16\x92\xdbK\xb0\xf8\x88\x12\t\xbc\x9bW\xd6\xaen\xac\x87\x885\x18l\xe3\x82\xf3&amp;\xfeYd\x9f\xcc\xdd\xfbNI\x8e\x8e;\x0fA6\xef\xc8\x975\xf9\xafk+t\xd7\xa6\xefo3\xf2\x0e#\xc8\xe3[\x9b\x15\x85\xa7\x08\xaa)\xca\xacRJ\xdayl\xde\xae\xef\xd2\xdd\xbfZ\x06\x82B\xec\x8c\xa3/R\xc8\x1b\x82\x0f\xdc9\xdd\xc8\xeex\xcf\x1d\xa9\xdf\xd8\xb2\x81\x92\x89\x80w\x1f\x94\xfa\xf5\xce=?\xc2\xbd&gt;\r\'\xf7e\xdf\xab\x1f\xba\xfe\\\x8d\x81\xdfr3\x82\t$g#%X\x8c\xae\t\xce\xd4!\x10\xe4c\x01p\x06\xc1\xb4`\xf4-\xc7&gt;\xff\x00\xa5z\xb3Qrp\x8cym\xd6\xf7\xbf\xca\xca\xdb\xf7&gt;\x05P\x97V\xd2\xee\xd6\xff\x00\x89\xe7\xed\xa5g\x19T\x1f\x86?\xa5A&amp;\x94\x83\xef*\x9e\x07Lz\xfb\x8a\xdf\x92d\xe3\x93\xdf\xb7\xd2\xabI"7F\x1d\x07_\xae}\xea=\x9f\x9f\xe1\xff\x00\x04~\xc3\xfb\xff\x00\xf9/\xfc\x13\x08\xe9\x90\xe7\xfd_\xf9\xfc\x06(\xadB\xc0\x1f\xf5\x91\x01\xeeH?\xca\x8a9&lt;\xff\x00\x0f\xf8#\xfa\xbf\xf7\xbf\xf2W\xe5\xfe\x7f\xd6\x97\xf4A\xa5`\xfd\xed\x9f\xf0\x10s\xf9\xe6\x98\xdaY\xed\xb5\xf3\xea\x14\x7f\xec\xb5\xd7y\xb6\x84s\xb9~\x84\xb7\xf9\xfd*66\xcd\xc2\xf3\xdf\xb7\xf5\xa4\xe7+\xbbJV\xf5k\xf5=&gt;J\xbd\xa5\xf7\xff\x00\xc18\xe3\xa72\xf0a\x8c\xff\x00\xc0\x80\xfe\xbf\xd2\xb9\x8f\x18\xea\xd6\x1e\x0c\xf0\x97\x8a&lt;a\xa9\'\x95c\xe1?\x0e\xeb~&amp;\xbe,O\x96l\xb4-2\xebR\xbbI\x19N\xe1\xe6[[\xcc\xa8\x14\xfd\xe0\x0fP+\xd4Z8\x9b\xf8\x7f\xf1\xe5\xfey\xaf\x83\xff\x00\xe0\xa6\x1e*\x9b\xc0\xdf\xb0\x97\xed7\xaeX\\\xbd\xa6\xa0\xff\x00\r\xa7\xd1-d\x89K\xdc\xb3x\x9f[\xd1\xbc6\xf1\xdb\x80A\xdd$:\xac\xa8\xe4d\x88\x8c\x98\x19nE\'}d\xed\xd6\xed\xff\x00\xc1\xf2\xfb\x91J59\xa3\xcc\xa5k\xc6\xf7wV\xba\xdf[v\xd3\xcb\xc8\xfe"\xfc]\xf1/Z\xf1\xaf\xc6\x0f\x13|U\xd7o\x12\x7f\x15\xf8\xdf\xc6z\xdf\x89\xf5\xf5\x9eX%\x8e\xc1\xaf\xf5\x08n,\xe32&gt;^0m\xee\x05\x90\xb6\xb6\x85H\xb6\xb7\x828\xd9~\xcf\x08\x8f\xdc\xbfh\x9f\x8c\xf7\xde(\xb2\xf3o5)\xd5/\xec6^\xab\xb1\xf3\xee\xae\x9e\xde\xd9o.\xe7Df/\x00\x8c\xda\xd9[C)yb\x8a\xd9~vR\x02\xfer\xc9\xa9%\xde\xab\x19\x8d\xe4$\xc7g&lt;\xb7\x044Wp\xeaQ\xce\xb7\x10C\x12\xab\xab\x8f"L$\x85\x81\xdc\x14c\x9e+\xeb{\xcf\n\x1b\xaf\x0eM\xe3/\x1bj\xad\x16\x97\xa3xU\xee\\I\x85\xb9\xd5/\xe1\x8aE\xd3t\xdbA!!\xef\xaf5+\xe8\xa2TP\xa5\xe0\x8dY\xb2 8\xe4\xc7\xbfk\x87\xabB6\xe6\x95)\xca2\xea\x9b\xb4\x1aM\xad.\xb4vz\xedf}fY/b\xbe\x0f\x8b\x93T\x96\xae\xd1\xfb\xdb\xef\xe6\xcf,\xf8u\xad%\x95\xca\xa4M\x13\xc2n\x12@\x9bL\xdbbI\x03 \x9c\x0c$E\x83+\xa9\\I\x8c\x1c\xe3\x04\xfd\x97\xe0\r\x03\xc4\xde4\xbb\xb6\xb2\xb2\x96C-\xd2\xaaB\x88\xa3\xfd"\x03m\t*\xa1\xe5I\xd9`D-\x96m\xca\xc8\xdc\xe4\x1a\xf8O\xe1\xaf\x8b \x8aG\x92-\x1a\xebY\xbf\x95\xbe[+\x1b9o\xa0\xdc\xb3\x98\x85\xd3CnA\xe2!\x14k2I\xfb\xc8\xdf\xccd\x00\xd7\xb7]\xfe\xd6\x17\x7f\x0b5;iuo\x0c\xdf\xf8j\xee\xc57Z\xcc-\xee\xed\x92\x16\xbb\xb6\x9e\xd5\x9c%\xc9\xde\xe5\x92@\x04i\x98\xd7\x05\xcf&lt;\x0f\xcb\xebd\x98\xa9U\xf6t\xd4\xa7;\xc7\xf7Q\x9cmy5\x14\xbe$\x9f]?\xe03\xee2\xdc\xdf\x0bN\x1f\xbe\x92\xb2\xd1\xda\x12N\xfa$\xaf\xcb}\xf7{3\xee\xeb\x1f\x84_\x18\xbc;\xa8\xb3\xf8_B\xff\x00\x84\x81\xbe\xdc`\xbc\x16rFd\xb5\xb8Kf\x9e#p\x82I|\xb6(\x14\xf9RpH\xc0\x05\x8d{\x9e\x96\x9f\x10|e\xa6\xe9\xfe\x17\xb3\xb2\x8a\xdf\xc5\x9a\xc6\xadu\x02\xda]\x90!\xb5K[9%\xf3\xee\x0bF\xad\x01\x86\x08L\xc6\x04\n\x84\xc8K\x86\xc7\x1f\x9a&gt;\x11\xfd\xb75\x0bU\xd5&amp;\xd0\xbcK}mi\xafk6\x1a\xc3A-\xcc\xd1\xdc&amp;\xa3\x13\xc6&lt;\xd0\xc7.\xcd&amp;\x02\x98\xc3yXb\x08\xc1"\xbd[\xe2/\xedI\xe2\xbb\xdf\x89m\xe2\x8d\x12\xea\xfa;\x11\xa5i\xf7\xab%\xb2\x86Y\xbc\xe8n#\xd5\x1e_&amp;\x02\xb6\xf7N\xb7/\n*\xb8\xcc1\xc2O\xccI&lt;P\xc1J\x8dj\xd4k\xc5\xc2\xa4b\xa0\xa3V\x9c\xec\xa7\xbbq\x9b\x8b\x83\xb2\xfbQ\x95\xaf\xd7]&gt;\x86\x96iG\xd9\xcate\x1fg\x1fzW\x974\xb6Z\xf2\xa4\xe4\xbb%m]\xec\x8f\xaf\xb5\x9f\xd9\xfbU\xd1\x85\x9c\x1f\x12&gt; \xe9\xd1\xdf\xebI#h\xb6\xdaT\xef=\xa5\xe9F\x0fz\xd2f8\xa1\tn\x99\xd9*G\x12mbB\x91\xca\xfc\x8b\xf1{\xe1\xfa\xe97\x17\x11\xe82\xcb\xaa\xd9\xdb1sz\xa4\xba\x18\xd7\xcaTS\x82\xc8WtQ\x80O\x18\x19\xcfR~d\xf8\xc1\xfbg^\xe8M\xe1\x91ixu\xab\x8b\x0b)\xa3\xb4\xfbL\xb3\\\xb5\xb22\x90\xe1\x98JH\x93\x86\x88d|\xd9p\xc7 c\x8b\xf8}\xf1_\xf6\x8c\xf8\xc6\x1a\xe2\xd7H\xb9\xb3\xd1\xa6\x12/\xdaa\xd3\xae\x12\xcahyq\x0b\xcc\xa9$J\x16\x1d\xac[q#,\xb8\x0e0:0\xd9\x1e*\xae\x15c\xaa(\xd0\xc3\xc9\xc7\xf7\x98\x85xN2_\n\xa6\xef)J\xebKE\xbd\xeff\x8e,\xcb&gt;\xc2\xaa\xdfV\xc3\xd3\xabU\xcd\xddr\xc5\xbd\xac\xb4Iiw\xe8\x93\xf534M[U\xf0\xff\x00\x8f\xec\xa0B\xc9}\xa7\xdfCrL\x07q\x7f\xb3\xb9\xbcS,R\x02S\xcb0\xa8\xf9\x14+\x8e\xa1\x81\xc5~\xae|_\xf1\xec&gt;?\xfd\x9c|/y~\xf6\xf1\xa5\xae\xb5\xe4\x1dI\xa52\xc9\xa6\xdf[\xdb\xda\xc9\x1c\xf2)"[9\x99\xbe\xcb"H\t\x82\xe3\xca\x08\xd1\xab+\xbd~;x\xaf]\xf1\x07\x83\xfcoe\x7f\xae\xc0e\xf1%\x85\xf5\xa5\xdd\xbd\xe4\x16\xe9\xf6I.!\x9a5\x9a)RF\x89\xa5\xb7\x9a -\xa6Y\xa3T\xe3\xe5\xe5\x8e\x7fA|u\xac\xe9\x9e,\xf8!\xff\x00\t\x17\xc3\xf6\x92\xe3\xc3\x9e&amp;\xd1\x97\xc4\x1a\x96\x86\xb1ZCk\xa3\xea\x9apE\xd4\xac\xae\x8c\x90;\x9b\x9bG\xfbt6\x92C33\xdb\xd9\xdb1#\x80&gt;\xeb!\xa3\x0c7%*sR\x84et\xd4\xb9\x96\xad=\x1a}\x16\x96[m\xe4|f:\xbat\xb1QP\x92\xe7\xb74e\x1fy\xf2\xc5\'{\xd9\xbeU\xb3km\x99\xfd\x9a\xfe\xc3_\x18/&gt;;\xfe\xc8\x7f\x02\xbe&amp;jr\x8b\x8d{U\xf0E\x96\x91\xe2y\x91v\xe7\xc4\xde\x16\x9a\xe7\xc3Z\xcf\x9a\xbc\xb2\xcfqy\xa4K\xa80vve\xbd\x0c\xaeb\xf2\xd5=\xf3Z\x96L8#p\xc9\xdc0\x07\xca\xb9\xe78\x18\xc09\xcfs\xcek\xf1\x8b\xfe\x08)\xf1\x1a}w\xf6&gt;\xf1\x7f\x84\xee%\n\x9e\x07\xf8\xb3\xae[\xd9@\xf1C\x0c\xb0i\xfe%\xd2\xf4\xadY3\x0cRK\xb8\xb4\xe6\xf9\xe1\x93p\xcbL\xed\xb5{\xfe\xbb\xf8\x9b]\xfb&lt;R&amp;\xf4RU\xd3/\xf7\x82\x8c\x80\x18\x02&gt;lc&lt;\x0e\xfe\x95\xf48\x89\xb8\xce\xf1\xbb\xbb\x7f\x0b\xb6\xd6\xbb\xfb\xff\x00=\x0f\x81\xf6\x0e\xbc\xec\xa2\xdcb\xafo\x85^\xf1[i}/\xde\xcb\xee9\xf9\xa5\x87o\xfa\xd6\xef\xd8\x9fJ\xc7\x9et_\xbb#\xf4\xfe\xe9\x03\xaf\xb0\x1f\xa7a\\\xa5\xc7\x88\xc0Q\xfe\x92\x9f\x83\xb7\xb7\xa9\xaer\xef\xc4\xe9\xd3\xed#\xa1\x1c7\xbfl\x9a\xe7\xf6\xd5;T\xff\x00\xc0\xbf\xe0\x95\xf5\x07\xfc\x9d\xba\xff\x00\x87\xcf\xfa\xd7\xce\xfd\xd4\x97\xad\x9e\x9b\xbe\xac\xfe\x83\xde\x8a\xf2\x0b\xaf\x13.G\xfaSu\xfe\xf8\xf4\xff\x00z\x8a=\xb5^\xd5&gt;\xff\x00\xf8&gt;\xbf\xd6\xf4\xb0/Ov]&gt;\xd7\xf8|\xff\x00\xab?3\xebX\xfcJ\xe3\x86\xdd\xf8\x05=}8\xff\x009\xe2\x9e\xde \xdf\xfcR\xafQ\xf7pk\xe7i&lt;V\xad\xcb\\#}%\x03\xf9d\xff\x00\x9f\xad@|W\x08\xff\x00\x96\xc0\xfd\'\xfe\x98\xfe\x94\xfe\xb3\r5\x8f\xde\xff\x00\xbb\xe5\xe6#\xe8\x86\xd6\xc6s\xe7H\x01\xf7\xff\x00?\xce\xbf9?\xe0\xac\xba\xda\xbf\xec\x05\xfbAD.\x19Y\xb4\x8f\x08\xb4r3"\xec\x95&gt;!\xf8JE\xda\xcc\xcb\xf3\x10\x8c\x02\xee\xc3g\x958\x15\xf4\x98\xf1t\x00\xff\x00\xae?\x84\xa7\xd3\xd4\xae+\xe4\x0f\xf8(\x04m\xf1\x0b\xf62\xfd\xa2\xfc\'c\x1c\xb7w\xb7\x7f\x0c\xb5\xddN\xd6\xde\x12\xb2\\=\xc7\x87\x96/\x10\xdb\x08\x03pe7zU\xba\x0c\x06e\x0c\\)\xc6\xd6_YN\xd6qm\xb8\xabk}\\S\xe9\xfd\xef\xcb\xce\xc5\xaf\xa6\xdd~\xed\x7f\x1bX\xfe*~\n\xf8Z\xef\xc7\x7f\x12\xa2\xb6\x86\xd27\xfb\\\x87jJ\x9bU#\x8a\xda\xf6[\xb7%\x81V\x9d$\x80\x13\xb4\xeeC\x1e&gt;S\x91]\xb7\xed1\xf1\x00j\xe3M\xf8{\xa6L\xd6\xdaF\x97~\xf7\xba\x89\xcaD%\xfb:\xb5\xb5\xb4\x8f1t\x924\x86X\xee\x0e\xe8U\x88u^P\xe3=_\xecY\x03Zx\xa3\xe2O\x88\x99\xa3\xba\x8f\xc3\xfe\x02\xd7\xe6\xd3\x82K\x1d\xb3\xbe\xab\xe29\x93L\x86\xe7\xca\x11\xcc\x8b,BMA\xd3\x12n\x85\xa3e\x08O\xcf^U\xad\xf8JMG\xc4w\x8dt\xa2{o\xb6Kkm}{(+:F\xc3\xcd\x8d\x19\xf6\xfe\xf0\xb1\x19_\x9f{\xb1;\x86H&lt;9\xee&amp;9}/h\xe39)Z\x9b\x94~\xcf\xc3+\xe8\xb7\xbe\xdf\xe6}6UBX\xb8SP\x9c!7f\x94\x9b[Y+&gt;\xcd\xab&gt;\xdeZ\x9e\x7f\xf0g\xc4\xde:\xbd\xb9\xf1w\xfc*_\tj~#\xbf\xf0V\x97{\xe2\x8dN\xd3K\xb3-u\x16\x85\xa6"\x1b\x8b\xcb\xa9d\x8aV\x82\xc5W\n,\xa1\xd3\xae\xef\xeeR&amp;\x9a\xde[vS\x8f{\xf0\xc7\x87\xbe6~\xd8\xfa\x1f\x8d.\xbc\x1fy\xa7|C\xd1\xbc\x03\xe1\xfd\'S\xf1]\x94?\x0f\xec\xbc7\xe2+[\xddKZ\xd3\xb4\xf1\xa0\xf8Z[\xd4\xd5\x0f\x89\xef\xad\xe2\x92\xe9\xacVk\x9d\n{\xf8c\xb82\xb5\xbd\xc2\xc4O{\xf0g\xc1^7\xf0.\xb1\x7f\xab|1\xd4\xff\x00\xe1\x08\xba\xd6\xa1q\xa8\xdd|\xbboc\xb9UY\x96W\x85\x85\xd4\x88\x90\x8f,\xdae\xad\x99\x8b\xe5U\x1c\x81\xf7\xf7\xc3\xcf\x82\x9e#\x1a$\x92x\x8b\xc7\x92C\xa1\xdf\xbf\xdbo4]\x1a\xd2\x1d\x1bK\xd6g\xf2\xddr\xf6\x16\x90Akq\xa8H\x93\\\xc5%\xed\xd5\xb10\xc7ys"\xb9\xb8d\x9a/\x96|Q\x80\xa6\xb1\x0b\x01\x96\xa8\xd7\x97\xb0T\xb1\xb8\x9a\x93\xbcZ\xf6~\xd7\x99r\xa8\xdeIK\x92Q\xb3M\xea\xae\x92&gt;\xa7\r\xc3\xd8\xca\xf3\xc3\xca\xa5f\xa2\xe5/mF0\x87$R\xf89|\xee\xae\xef\xd1\xa7mO\xc6][\xf6R\x9b\xc3\x1a6\x91\xe3k\xadR\x1b{9\xaee\xb6\xb3\xb1\x8e\xea{]]\xee\xe0#\xcd\x8bR\xf0\xf5\xe9MWF\xbdM\xc0\xcbkx\xa7n\t\x86YP+\xbf\xdd\xfe\x1c\xf1w\x87\xf4o\x86v\xb1\xe9\xde\x18\xb7\xbe\xd4\xff\x00\xb0\'\xb0\xd4\xaeo\xa1\x124\xd3,"\x1f&lt;o\x03\x88\xcc)((\xc0\x92\xc7ku\xaec\xf6\x8b\xb8\x82\xf7\xe2&lt;:5\xb4m4z\x1c\xf6qJc\r9Y%_"\x1b`\xcb\x17\x94\xd2C\x0bn\x96UV\x12\xb6\x1b\xe4\xc0\x15\xf45\xef\xc1\x9f\x12\xd8\xfc\x1d\xb1\xf1D^\x17\xd6d\xd2\xee\xec\xa6\xb5]c\xfb=\x9a\xd4;+\xc8\xca\xd3\xae\xc4\x82\x04\x80\xbc\xcb4\xab\xb5\xa4\xdd\x06\xec\xfc\xcb\xf0\xfcO\xc4\xd9\x84!E\xd6\xabVQ\xabt\xa2\xe0\xad\x15w\xf0\xb8\xab\xf2\xde\xf6\xbf\xc4}NS\x90\xd0\x8dLz\xa1M\xb7F\x0b\x99\xb6\xdf4\xee\xaf\xcdwg\xea\xb6K\xb3?&lt;&lt;\x03\xf06\xd7\xc5\xba\xae\xb7\xe24\x9e\xd2\xefY\xb0h\xa6\xb4\xd0e\xb0K\xbdN\xee\xe6\xfa\xe1\xc6\x9f\x06\x8f\x04\x83\xfb5\x1b\xcfb\xd3\xea:\x9c\xf6\xbau\xa4e\xa7\xba\x92;h\xdd\x87\xb5|u\xf8G\xf1\xab\xe0\xe7\x81\xfe\x1b\xf8\xc3\xc3\x9e+\xd7\xfe"j~2\xd3|C\xa7x\x97\xc2?\x0b\xbcM\xe1\xfdJ\xd3\xe1\xcf\x88\x97V\x1f\xd9:v\xb5g\x16\x9d\xe2\x195K\x18\xf4\xb0%\x8fP\xb4\xd3\xec4\xdb\x8dE\xae-\x86\xa0,\xa2\x86W\xc5\xf0^\xa3\'\x87&lt;u\xe1\xfb\xcbg{8g\xbd}:\xf1\xa0fh\xe0h\x92\\\x19\x14\xa1F\x86R\xfe\\\xa5\xd2X\xdcc\x01[\x05\x7fA\xbcK\xf0c\xe1\xdf\x8e\xf4;[\xbd\x01\xf5\xbd;S\x9e\xc8\xcf\xa8i\xf67\x93Bl\'\x11\x82d\xd3e\xb7\x95VK\x0b\xa97\xb1\x8d\xd5\x0c[\x8a\x858+_A\x94q\x1e&amp;\x8f\xd5q5\x15\x0cT0\xb2|\xd8|D\x14\xa9T\xa7*S\xa6\xa3(\xfd\x85\x19IN.)8\xce*\xddO.\xb6E\x1cb\xadN\x93\x9e\x1e\xb4%\x1eZ\xf0\x9f%F\xad\xacy\xfa_\x7f\x91\xf8\x8f\xf1\x8f\xc1\xff\x00\x16~\x1d\xeb&gt;\n\xb6\xf8\x86m\xaf\xb5\x7f\x18\xf8\x7fL\xd6\xefN\x8ds4\xf6\xda-\xd5\xe9\x9e[\x8d\'S\xff\x00H\xbe\xb2\x8bZ\xb1\x8a+y\x99\xec\xe7\x8a\xd2G\x96XZ\xd1%\x8fj\xfd\xcd\xfb\x04\xdf\xff\x00\xc2ak\xe2\xcf\x85\xb7w\x13i\xef\xaaA\xa8\xcf\xa4\xdc\x16s\n\xdcOe:\xc9`\xe8\xcf\xb8\xda\xde\x88\xfe\xc5+\x14tO1\xa6\xc6N\xe3\xcfx\xe7\xe16\x9d\xe1\xbdJ\xe2\x11,\xda\x95\xca1Qy\xa9\xca\xd7r\xa8\x19E\x8d"\x96Gx\x8cc\xe4b\x9f)\xe5\x80_\xba}\xa3\xf6\x1b\xf8_`\x9e/\xf17\x8e\xad\xd2Q\x1f\x87\xa2\x82\xd5\x12 \x12k\xad^K\x80b\xb2\xb6\xb8\xb8\x11E\x1c\xb7H\xac\xb1\tbx\xc9\x95w\xba\xa0-_A\x92\xe7\xeb3\xc5\xd3\xa3\xf5hQ\xad\x86Rs\x9d({:\x159\xa4\xa4\xbd\xd8\xb6\xa2\xe0\xa4\xa2\xd2o\x99\xc5J\xd7\xdb\xc4\xc4d\x93\xc1\xa79\xd7\xf6\xf7\x8f+U\'\xce\xefd\x9bso\x9aM\xea\xf5\xbaL\xfd\xa6\xff\x00\x82\x02\xdc\xb6\x93\xf0\xaf\xf6\x91\xb0u1G\xa6\xfcO\xf0\xe4*\x926\xd1\x17\xfcSw*IY\x0f\x9b&amp;U"\x02F\x1b\x98*\x82\xcc\x08\xc7\xec\xa7\x8d\xfcA\x9f;k\xa1\xce[pl2\x84%\\\x15,H.\xdca\xb9\x1d\x075\xf9!\xff\x00\x04\x84\xf0\xbe\xa1\xe0\xcf\x85\xdf\xb46\xbd}eqcm\xe2\xcf\xda\x07\xc4\xd6zQ\xb8b\xcf.\x9b\xe1{(\xb4m\xeaXy\x82;k\xfb\x9b\x9bf,\x89\x11{6\xf2AW\x0e\xbf\xa2\xde2\xd5\xa21\xb1\xdf&amp;\x1c\xca\xe44NK9\xdc\xf9.\x07+\x9c\x1d\xa0\x01\x81_g)s;\xda\xdb\xfe.\xff\x00\xf0\xc7\xc7:v\x94\xd58\xc6\xf1\x9b\x8e\xa9\'en\xdd\xfe\xed\x0eN\xef^\xbe\xf2\xfa\'\x7f\xf9h?\xf8\x9a\xe3ou\xeb\x93\x90\xecG_\xba\xd9=}\x05r\xb2j\x93\xb8\x00\xb1#\x9c\xfe\xeeJ\xcb\xb9\xbb*2W&lt;d\xfc\x8e;\xfd\x0f\xadH\xb9+v\x87\xde\xfc\xbf\xe0\xfe\x1ef\xdc\xfa\xd9\xdcIy\xf3\x9e\xc0\x9e\xdc\xf4\xcf\xb5\x15\xc0^jK\xb8b2\xbd?\x81\xcex\xff\x00v\x8aN\xde\x7fs\x7f\xa0r\xd5\xed\x0f\xbd\xff\x00]\xff\x00\xad\xbd\x8d\xb5\xf6\x04\x0f)\xc7=&lt;\xe7\xf5\xed\xe9\xd7\xf9U\xc1\xae\xc9\xe5\xff\x00\xabh\xc1\xfe6|\xa8\xe3\xbf\xcd\x9e\xddq\x83\xeb\xeb\x8a|3~:\xac\xfe\xa3\xa7_\xaf\xff\x00^\x91\xbc9\xa82\xed+q\xb7\xd3\xe4\xfaW\x8bRNI\xf2\xc2\xa2z}\x89-\x7f\xa6\xbf\xe1\xcf\x9b\x85%\xa7=E\xd1\xde\xf2\x93{vK_\xf3\xdc\xd7\x8bZ\x91\x98\x98\xeec\x98\xe7\xee.\xe5#&lt;c,T\x1f\xc0\x9a\xfc\xea\xff\x00\x82\x83\xfe\xdd\xef\xfb/\xe9^\x13\xf0\x1e\x8b\xe1K\x7f\x13\xf8\xdf\xe2\xad\xae\xb1\x12\xdb\xea05\xee\x99\xa4\xf8V\x04\x16\x1a\x95\xd5\xce\x9d\x14\xf0&gt;\xa56\xa7%\xcc\x96v\xf6\xcd*\xc0\x8bm&lt;\xd3\xe5@\x07\xef\xeb_\x0b\xcf\x04\x9b\xbc\xa9\x01\'\xab\x9e;\xe7\xee\x90k\xf2K\xfe\nG\xf0\xdbN\xd5~ \xfc;\xd6\xda\xc5.\xfcEq\xf0\xef\xc5\x1a^\x8e%\x89\x98\xc9&gt;\x99\xae\xe9\xb3Y\xdaX\xce\xe4\x08\xafnd\xf1\x05\xde\xe5\x8c\x89\x1e(\xd7\x82\x00\xc7\x83\x9abk`p\x95\xf1j\x8dj\xbe\xc6\x1c\xf1\x8c\'\xece\xcc\xdcc\x19)\xce\xc9{9IT\x92\x7f\x12\x8f*\xd5\x9fU\xc3\xf8\x0c&gt;7\x1f\x85\xa3*\x89\xaa\x92\x9d\xd5\xec\xdd\xa9\xb7\xa2w\xbb\xd3\xcfK\xbfO\xc3\xef\x87\xba\xc5\x8f\xc2\xcb\x9f\x1bi\x9al\xb2O\x1f\x8b\xacN\xadh\xb3\xab%\xaf\xee\xb5\x03u,0\xdb\xc9\x14,V\xceg\xb9DG\x92\xe0\xa4R\xb3\x82VR\xcd\xc6\xdfx\xde\xee\xfa]5\x9c\xc5 \xb4\xbb\xfbI\t\xb9S\xccl\xabG\xb4\x0cJU\xd0\x10d\xc6\xfe\t8\xdaO\xa8|Z\xf0\xdf\x894\xdf\x1c5\xe7\x89\xbc\xd0\xba^\x9dg\xe1\xd8\x94\x85\x8cG;[\xdeZ\xc9\xa7\xc8\xa8c\x8a\x15\x8f\xec\x96\xb0[\x86\x8c5\xc4\x9b\xa4\x95\x9d\x9c\x8a\xf0KPD\xc2\x15\x88\x0f"\xe5\xfc\xd4)\x87o*E\x0c\xaa@\xd8J@\x8b\x8e\xc7i\'94S\xcc*f\xb9\x06\x1a\xa5LL\xf1u\x959\xca\xa5I\xb87/yZ&lt;\x90\xdaT\xef\xc8\xf9\xa2\xa4\xde\xb6\xb1\xf4\x95\xb0Q\xc0f\xd5(B\x0e\n.)^&lt;\xb1\xd3\xacd\xd4b\xd3Kx\xef~\xec\xfd\x12\xf81\xe3\xfd)\xa7\xb6\xb9\xd6"\xb8\xb8\x96\xd6\xce/*\x03",\x13\xc5\x16\xd5\x90y)\xfe\xa8H\x11\xbc\xc5n\xd9\x04\xb6\r~\x80\xf8\x0e6\xf8\x89\xa8\x99/\xa7\xb6\xd2\xf4\x8d&gt;\xda+\xc6H&lt;\xe3\x1aYZZ\xdb\xf9\x8b\x1b\xa4n|\xe7\xdc\xc8\xd2;\x18\xf7\xee,\x84\x02\xc7\xf1\x8f\xc2\x1a\xe5\xd5\xb5\xca\xb1\x99 Y%H\xe4b\xca\xb1\xc3l\xae\\\xa38\x03\x8c\x10\x0f]\xc7\x83\xf7\xab\xf4{\xe1\'\xc6\xfd3\xc3~\x0b\xbe\x82[u\xbe\xbf\xd5\xdeh\xec\x91\x1eG\xfb2[\x96\x8e{\x81\x04r\xa9\xdb-\xbc\x8b\xe4\xee\x05]\xb2J\x92\xa3?\x0fN\x9dJ\x92\x9a\x8cd\xe3\x0b\xc9\xae\x89/yi~\x8f_&amp;}\xd6Y\x8d\xa7\x15\x1ax\x8a\x9c\xad\xab\xc6^\xf3\xf7\xd2\x8f"\xba\xb5\xef(\xe9\xdd6\x9e\xe7\xe6\xb7\xed\x1f\xf1\xab\xe2v\x83\xf1\xbb\xc7\xd7\xbf\x0f&gt;\x15\xcb\xe2\x7f\t\xe8\xde%\xd4\xb4\xfb\xbdB\xdfI\x9bUkk-?P\xf2\xac\xa2Y\xf4\xa4\x9e\x08$\x16V\xf6\xd35\xfc\xb6\xc4\xdcI{:\xb1\xce\xec{\x84\x7f\xf0P\xbf\x88\x97\x9f\nl|\x0b\xa7K\xe2xu4h\xe1\xb2\xf04m-\xbbG}&lt;\x8c\xe7L:t\xa9\r\x99\x89w\xe2f\x93\x16\xe26S\xe4\xab\x17g\xe8u\x9f\x00i\x1a\x97\x8cg\xf1v\x83\xa7\\Xj\xda\xeb\xf9\x17\xdeV\xa1u\r\x9c\xe1KFe\xb9\xb2\xb7\x96\x1bY7\xae\x19\xdah\xdeG\xc7R\xdc\xd7\xda:w\xc1\xaf\x87\x06_\tx\x86\xf3\xc1\xbe\x1f_\x1d]Y^G\xfd\xb9i\xa0\xd9ni\xae`\x87d\x81\xa5V\x12N\xb9e\x04\x95\x94a[?0\xc7\xb7\x9aU\xe1\xda\xf8\\\x9e8\xfc\x96\x15\xaa\xd2o\xf7\xfc\xd5\xb9\xebI+\xf2\xd6\x82\x95\x9c]\xee\xa5\x1eE\xd2*\xe8\xe5\xcb\xe8g\x8f\x1d\x98,.j\xa9S\xc5&gt;j\x90\x95\x16\xfd\x9e\x89^\x12kWh\xae\xae&gt;W\xb9\xf8\xf9\xa2\xfcf\xfd\xa5\xef\xfce\xe1\xcdO\xe2\xa7\xc3M\x13D\xf0\xe4^ \xd2`\xb0\x9dt\xad+I\xbeb5\x0b}\xd6\x125\x94\xfem\xfa\xdd[\xc6\xcbt\'\xb4\xc4\xa0M\xb9\x8a3\x06\xfd\xa0\xd7&lt;%q\xa2\xf8z\xd7\xc6^\x10\xbd\xb4\xb6\xd2\xa7\x82K\x9cGp\xb9\x95\xa0@\xe2\t\xc0_*\x1cHXc!\x99q\xb8\x06\xaf\x96|Y\xf0\xefH\xd3\xfckn\xda\xbe\x81\xa7\xeaF\xc3P{\xcb+\xd94\xe8\x9ekk\xa2\xcc\x1dVK\xa8eq\xe4\xb2\xab*\x87\x0668S\x8c\xd7A\xe2/\x8e\xda\x87\x84t\x8dC\xc2\xfa\xfe\x9b\xe6\xf8S[\x8a=:7\x8d\x9e4\xd3n\xf7o\x86\xf1\xf6\xbe\x123\x11\x0b!\xf9C62\x08\xa5\x9aK\x0f\x8e\x9d\x19`\xb0\x18L\x03\x8c9eG\x05\xcdO\rk\xadZ\xad\xfb\xc9N\xfdy\xadn\xfd:p\x17\xcb\xe9W\x8e?\x1d\x89\xc5\xb958W\xc6\xc2&gt;\xdd\xca6J?\xec\xe9\xd3\xe5w\x93\xd7\x95\xab+]\x1f=|x\xf8\x83&amp;\xaa\x82R\x96q\xdf\xc6\x8e\'\xb8\xb5D\xcc\x12\x90\xc1\xad\xd5\xe2?,r\xec\xde\xcf!U%\xb1\xc8bG\x0f\xfb2\xfcD\xd7\xa0\xd4\xb5\xfd\x06\xc2\xfeD\xb7\xba\xbc\xb1\xd5\x9e8e\xb7\x8fu\xcd\x8b\xc6\xed\x86(\xe2B\x8a\n1P\xcc\x032.z\x1a7\xde\x1e\xd3|Mq\xac.\xa3s3\x0b@\xd7v\x8dk&lt;\x1ff\xb9\x81\xc1\x08.\xb2\xber\xe4\xbc[%\x0c\n\xb3\x08\xf3\x83T\xfc&gt;\xd6\x9e\x15\x9cjzD)g5\xb4wZ]\xdbn\x1bV;\x87\xb5Quq4\x9ef\xf8\xd5b\x94I\xb8\xf1\x87E\xe0\x01^\x9eABx|E\x1a\xd1\x84\\\xbe\xdcc8\xdfM\xa3\xd5J\xfeZ\xf5&gt;k7\xc6\xca\xa4y\xe9r\xcb\xde\xe5\x8e\xd1\xbf.\xce\\\xce\xc9]+\xb7\xe6\xd9\xd2\xfc\x1a\xfd\xbd\xfe7\xfe\xcf\x1f\x13&lt;{\xe2\xbf\x85\xe9\xab\xea\x9e\x13\xd5~0\xf8\x92\xfb\xe2W\x87\xb5;\xfb\xab\xef\x0e\xf8\x8e\xc8x\x8a\xe2\x19#]\x065\x8am\x06[]%\xe4\xb6\x17\xfau\xcd\xa1\x96\xfd#\xbc"B\xed\xb3\xfa\xe2&gt;,\xb7\xf1w\x84\xf4?\x13Y,\x8bg\xe2=\x03L\xd7\xad"VY\nY\xeb:|\x17\xf6\xd1\xc8\xe9\x83\xe6\xa4S\xaa\xb3\xc8\xaa\xc4\xa9/\xf3\x13\x9f\xe3s\xf6I\xd2|-\xe3\xdb\x0f\x8f&gt;.\xb7\xbcH\x1d|K\xae\xcf7\x87^M\xebw&gt;\xa9m0\xd2\xae\xed\x04b\t\xae\xec5\x1b\xfbk\xa8\xe5\x8686\xdaK5\x96\xe7cx\xb5\xfd}\xf8O\xc3\xf7z\x0f\xc2\xcf\x87\xda6\xaf\x02\xd8jz\x1f\x80\xfc\'\xa5\xea6\xa8\xe5~\xcf{a\xa1Y[][\xe5I\xdf\xe4\xcf\x1b\xc7\x96g\x07ns\xcd}\xa41u\xa5\x9cg9mL&lt;\xa9R\xca\xe7\x85\x8d\x1a\xf2\x95\xddu\x8b\xa0\xabIr\xda\xeb\xd9\xce.:\xf9-\xefo\x02T0\xdf\xd8\xd9N:\x94\xd4\xea\xe3~\xb6\xea\xa5}%J\xb7,\xee\xda[J\xd6ot\xef\x1fv\xc7\'#\xb0\x1cy\x8b\xd7\xab\x1cv\xf4cY\x973\xcc\x07\xfa\xc0x\xe8X\x9e\xfe\xe7\x15\xb3*A\x8f\xf5\xbe\xbd\xf3\xe9\xdb=\xba\xd6M\xcf\xd9\xc0\xfb\xe7\xa7\xf7\x14\xf7\xfa\x9a\xd2s\xbd\xbd\xe7\xa5\xfa\xbf.\xe7\r\xbc\xbf\x0f\xeb\xb2\xfb\x8en\xe6\xe6l\x8c\xac\x1d\x7f\x88)\xec=\x8d\x14\xfb\xa9!\xc8\xf9\xcf_\xf9\xe2\x9e\x83\xda\x8a\xcdM\xbd\x9b\xfcEe\xd9}\xc7\xe9\x99\xf0\x15\xcfh\xd7\xfe\xfa\xb7\xff\x00\xe2\xc57\xfe\x10;\xaf\xf9\xe2?\xef\xabo\xfe;_`\x9f\x01\xc7\xd3w\xe7\x12\x7f\xf1\xbaa\xf0\x1cc\xfeZ(\xff\x00\xb61\xff\x00\xf1\xaa\xfbO\xec\xa5\xff\x00&gt;\xe9_M-\xab\xf8n\xf7\xe9\xfeZ\xf7\xfc\xd3\xda\xd4_m\xfe\x1e_\xe4\x8f\x90\x97\xc0\xb7+\xcbDTw\xc2\xda\xc9\xf9\x811\xaf\xcf\x0f\xf8)7\xc0\x9b\xedS\xe0|\x1f\x194\x08\xa5\x93\xc4\x7f\x005\xab\x1f\x88Oh,\xdah\xf5_\x0cY_X\xbe\xbf\xa7G\x0c\x06Fi\xa3\x8a(\xb5\x17\x8fh\xfbM\xbd\x94\x90\x96 \x05?\xb9\'\xc0\xb8? 2\x7f\xbb\x04G\xf9\xc5\xda\xb3\xb5_\x87\xb6:\x96\x97\xa8iZ\xc6\x8fk\xa9i\xba\x9d\x8d\xee\x9f}\xa7\xde\xdaE-\xbd\xe5\x95\xfd\xbbZ^\xdb]FP$\xd6\xd7\x16\xd2\xc9\x04\x90\xca\x1e&amp;W}\xc8[a^,vGO\x17\x85\xc4ajF\x94!Z\x8c\xe0\xdd\xafi8\xaeN\xbdd\x92]\xb4\xect\xe13&lt;F[\x89\xa1\x8d\xa5)\xb9a\xea\xc2V\x83\xb3qmB\x7f\xf9#w\xf2O\xa9\xfc\x18x\xaf\xc6\xe9\xf1{\xc0&gt;0\xd3\xec\xb4\x1d*\xefS\xf1g\x88\xadnZ\xf1\xe2\x17\x1a\xb5\xad\xf5\xad\xe1\xd4\xb4\xe3aq\x10\xd9mj\x91\xb3\xcfs+?\x96-\xb7a\xd9\x0e[\xf3\xafZG\xb6\xb0\xb6\xb9\x8a6\x8ad\xd4\xefm\xef\xcc3L\x9b\xae`w\x17Q\xa1(#Wb\xdb\x14\xe4\x8d\xa8T\x12\x1c\x03\xfd\x99\xfcI\xff\x00\x82)\xfc\x00\xbe\xf1u\xd7\x89&lt;\x1d\xe3\x8f\x8a\x7f\x0c|=wqu6\xa3\xe0\x7f\x0b\xde\xe9w\xdab\xc1{9\x96\xe2\xcbD\xd4\xf5{\x1b\xadWE\xb3\x9a2\xf6\x90\xacr\xdf}\x8a\xdc\xacv\xf2"F\xa8?\x9b\xff\x00\xf8(\xf7\xec\xff\x00\xe1/\xd9\xeb\xf6\x80\xf1\xef\x80\xbc\r\xa4\xa6\x93\xe0\xbd6}\x03R\xd0t\x95\x9e{\xd5\xb5\xb3\xd4\xb4=*\xfc,\xb7R\xdcK+]\x86\x9de\xbd\x9aF&amp;\xe2\xee\xe6\xe6f\x06Y\x1d\xab\xf2\x9c\x17\x0ec\xf8w\x0f\x89\x8e*\ra\xdc\xe5\x1a)\xa7isj\x9cv\xd2\xdf6\xf5\xbd\xb4?T\xc5qF\x07=\xabBxT\xd6*4a\xedSw\xb2\x8f*\x95\xd5\x93Rn\xefWmmm\x99\xf1\x86\x8f\xa8\xc9\'\xdb\x8c\x06R\x89\x1b*\xc7=\xbc\x85\x01\xc1\xc2\xb6\xc4TfP\x06\x18\x91\xf3\x81\x9c\x93\xcf\xbc\xfc.\xd6\xa4\xd2g\xbd\xd5\xb58^X-\xed-v\xa5\xba\xaaI\x14h\x8c\xef *\xcc\x83#\xe5(\x08.&gt;U\x0c\xe7\x9f\x97\xecn^(\x14J#y#\xf3\x92]\xf1\xb2F\x99|\xc6\x1d\xd4\x83p\xee\xa3+\x8c\x1d\x84\xb1\xcfZ\xf6\xbf\x87\xba\xe6\x8f\x03\\\xdbI:\x86\xdf\x1bH\x80\x93\xf70Y\x91\x08RZ-\xeap\xe5\xd3h\xe5O&amp;\xbc\xbc,?\xda+\xc26\xb4\x92\xbe\x9a\xdaI]\'m&lt;\x9bM_s\xbe\x9e%\xc7\xd8\xca\xa4\xd7-\xd3\xbc\xd3q\xba\xb7.\xcd&gt;\x8b\xaa\xf2\xb1\xdd\xcd\xfbN\xdaj\xda\xabh^\x0b\xf0\xaf\x88\xb5h\xd6p./\xec\xf4]\\,rE?\xfc\x83\xed\x83\xdb"\xcbp\xb2\xaf\x99%\xe1`\x81\x0bB\xca\x14n\xafI\x7f\x8f\xdf\x1f\xb4\xdb4\xd04/\x85\x9f\x13~\xc1\xaa\x94\x8d\xa4\x96\xc9\xa4\xf2\xeeD\xc1\x12x\'{\x91\xf6&amp;\x9b\xc8\x86\x16th\xe3\xfb8\x94\x96\xdc\x17\x18\xba_\xc4;-\x16\xf4\x8dB\x185H!\xdc\xb1\x99mH\x13\xc7\xc3Cn|\x9d\x8f\n\x03\x19b\xe8\x04\xacT\x00\xe8\xa7\x15\xec7\xff\x00\xb5\x9f\xc5;\x9b-*\x0f\x0e\xfc\x13\xf0\x1f\x89\xed\xb4?\xb35\x96\xb5\xa9\x194\xe9,R%\x9a$\x95#\xb7\xb7\x96\xf2\xfaLI\x97r$f\x91F\x18\x84e\xafUC\x0b*\x94\xa9G.\x8dZj\x9cR\xfa\xe6&amp;\x9cj*\x89\xb7\'\x1bS\x8a\xe4q\xb7+j\xed\xf3v&gt;\x97.\xafJ\x9a\x9d\\f&gt;\xbd/l\xde\xb8zNiB\xd1\xb5\x9b\xbaR\xbd\xfd\xd7~\x8f\xad\x8f\x9f|C\xf1\x07\xe3\xe6\x98\x96\xda\x83\xfc)\xf14\xd1\xa3\x8b\x89-g\xd4l.d\xbe\x96I@\x9c\xdb9\xd4\xa7\x9e$\x91\xc0\xe1\x05\xcb\x96\x18\x1dH&gt;e\xf1+\xf6\x85\xb2\x87\xc2w:\x7f\xc4\xdf\tk&gt;\x0b\xd6.\xd0&lt;ZF\xa5\x8b\x9b\xfb\x98L\xcd\x16\xe8m-g\x99\x9c\xc2\xe3\x1f\xe9)k7\x97\x87X\xd90k\xe9\xddk\xe2\xf7\xc4\xaf\x18\xdc\xdcj&gt;8\xd2,\xf4)g\x8dZ\xda\xcfBY \x8e\xd4\x00\x19\xfc\xa5\x9a3,L&amp;\xde\x15\xa3\x95X(\x03\x05\xbez\xf9\xab\xe2\x17\xc3\xcf\x86~/\x86\xf7[\xf1\xb7\x87\xdbQ\xbb\x10\xc9&lt;z\x89\xba\xb9\x82\xf8\xc8\xe7h\x12\xc9\xf6\xa1-\xc2\xe7\xe6\x05\x81*\xdc\xee#\xe5\xae\xaa\x152\xd9U\xa7G\x1f\x81\xa9J.i\xd4\xab\x85\x84\x9dU\x18\xe8\xd2\xe6r\x84b\xdd\xbd\xf7\x19Y\xa4\xb5\xbe\x9efv\xeb\xca\x13\x9e]\x89\xafV-Z\x9a\xc6\xd0q\x83\x9b\xb6\xee.\x9e\xaf\xb2\xee\xf48?\x87\x1f\x11\xbc\x17\xe2\x95\xd3`\x87\xc46\xfa|7DiW3k\r=\xb3Y\\.\x0c\x13jpl\x99\x8d\x92\xb0\x87t\xf1\xa1\x8d\x01Fi\x14\xaek\xed\xbf\x10\xfc\x0b\x1e\x0e\xf8\x15\xf1\x93\xfe\x12v\xbf\x1f\x13\xaft\xcd"\xff\x00\xc1\xb6z|\xf6\xe9\xa7h\xf6\xf6Z\xea\xdc^]jw\xce\xc4\xc7&amp;\xb3ms5\x85\xad\xca\x9f).Don$Y`\xf3?2&lt;\r\xf0\xc7\xc3\x0b\xe2\xcd6\xf7K\xd2\x8c\x07G7\xba\xbd\xb3I-\xc6\xa1\x14\x8bc\xbd\xe0{\xa5\x95\x9e\xde\xedm\xd8G6%\x8c"\x18\xd7\xcd\x12\x01\x8a\xfe\x97\x7f\xe0\x93\xbf\xb1N\x87\xfbWi_\x1e&gt;*~\xd2:n\xa9\xf1#\xe1\xe6\xa6\xb6_\x0f\xb4\xfbmwR\xd6\xa2\x9bZ\xf15\xb5\xccZ\xe5\xee\xb5\xa6\xdd\xda^\xc0l$\xf0\xba\x0b\x15\xd3/l\x1a\xdcY\xde\xdd\xa0\x8d\x9bl\x96\xad\xeb\xe1\xe9\xe0\x96"\x10\xca)\xd4\x94\xdf&lt;\x92\xc6\xd3\xb4\xe3mae\x19A\xbbZ-\xcbD\xf4I-\x19\xf1\x95\xf12\xa1B/1k\xd8GJ\xee\x85\xe0\xf9\xe5\xbcb\xe6\xear\xbd\xd6\xd2\xd7\xd5\x9f\x98\x1f\xf0O\x9f\x84\xd0]|p\xfd\x9b~\x1f=\xac\xb1xF\xe3\\\xd4\xb5\xdf\x10\xdcCd\xab\x15\xd5\xc5\xfd\xbc\xfe \x93I\xd7o\xe3wya\xd5u\x8f\x06\xe9\xb6\xf0\xda\xca\x88mb\xb5[Ko9\x1by\xfe\xae\xbcl\x16$\x90*\xa9R@R\xe0nV\xc1\x02\x13\x9f\x90\xc6\xbfuG/\x803\x8cW7\xe2\xcf\xd9g\xe0\x7f\xec\xb3\xe1_\x86\x1aG\xc1\xbf\x05\xc1\xe1ki\xff\x00h\x0f\x85\x8fw}u\xaajZ\xfe\xaf\xa9My\xaa]xr\xd6+\xbdWX\xba\xbc\xd4\xa4\xb6\x86-rXR\xca\x0b\x984\xfba7\xeemQv\x81\xd0|L\x8d\x82\xdc\x10\xd8\n\x19\x925u\xe6P\tI\t\x03\x05\t#$(\'\'\xe6\x04\xe6\xbd,&gt;\x1e\xa5*u*\xe2\xa5:\x98\xea\xf3s\xc4\xd5\x93\xf7\xa7{\xb8\xa6\xd2ZAJ\xd1]\x9b\xbb{\xac(c(\xe2\xaa\xc2\x8e\x12\x9c\xa8\xe0\xa1\x0bR\xa5\xcdx\xd3\xd27p\xd3G;^z\xb4\xdaVJ\xda\xf8\r\xcc\xf2\x04\xce\xc1\xdf\xa63\xd2\xb9\x9b\xbb\xe9y\xc2I\xc6{{\xe7\xa8&gt;\x83\xb5Q\x93R\xdc0\xec\xe0\x7f\xd7R=+\x0e\xee\xed\x08\xfd\xdeKc\x9d\xd31\xcf\'\xfb\xb8\xcf\xe7\xda\xb1\x93\xb2\x7f\xad\xfc\x8e\xe9SI\xd97\xd3\xf4\xbe\xcb\xcc\xb1qw1&lt;\xc5/n\x84\xfa\x7f\x9f\xf2h\xaeJ\xee\xf6t`\x1d#\xe7\xa6&amp;\x97\xd3\xbf\xefM\x15\x92^k\xff\x00\x01\xbfo/?\xcb\xb9\x95\xbf\xaf\xeb\xd7\xfa\xb3?\xac_\xec\xc8\xc7C7\xfd\xff\x00?\xe1I\xfd\x96\x9f\xde\x9f\xfe\xff\x00\xff\x00\xf65\x9d\xfd\xba\xbf\xde_\xcc\xd1\xfd\xba\xbf\xde_\xcc\xd7\xe9\xc7\xe5&lt;\x92\xfe\xbf\xaf\xea\xde\x97\xba\xfaX\xec\xad&amp;?\xe7\xa4\xc5\x87\xe5\xb4\x7f\x9f\xadQ\xba\xd3\xd28%&gt;R\xc6\xdbs\xc1\'p\x00\xed\xceGb[\xf3\xf6\xa9\x93[C\x8c\x91\xcf|\xe7\xbf\xa15\x1d\xf6\xa9\x04\xb08\x</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -474,6 +504,14 @@
           <t>Wagner do Nascimento Magalhaes</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xe1\x00hExif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x04\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00&gt;\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00F\x01(\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\x011\x00\x02\x00\x00\x00\x11\x00\x00\x00N\x00\x00\x00\x00\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00`\x00\x00\x00\x01paint.net 4.0.12\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x02\x01\x01\x02\x02\x02\x02\x02\x02\x02\x02\x03\x05\x03\x03\x03\x03\x03\x06\x04\x04\x03\x05\x07\x06\x07\x07\x07\x06\x07\x07\x08\t\x0b\t\x08\x08\n\x08\x07\x07\n\r\n\n\x0b\x0c\x0c\x0c\x0c\x07\t\x0e\x0f\r\x0c\x0e\x0b\x0c\x0c\x0c\xff\xdb\x00C\x01\x02\x02\x02\x03\x03\x03\x06\x03\x03\x06\x0c\x08\x07\x08\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xfd\xd6H\xf6\x8ei\xca\x9cS\xb6R\xa8\xc0\xa0\x04\xd9F\xcax\\\xd2\xec\xa0\x06(\xc0\xa7\x05\xcd.\xca3\xe5\x8f\xba\xcd\xfe\xea\xee\xfd\x07?\xe3F\xc0\x0b\x1e\xe6\xdb\xdf\xb7\x07\x9fa\xea}\xa9\xb3:\xc0\xb9i#]\xa4\xabe\xc7\xc8@\xc9\x07\x9e\xb8\xe6\xbeB\xff\x00\x82\x83\xff\x00\xc1`\xbc\x0f\xfb\x16\xde\xbf\x86\xb4\xd8\x97\xc6~4\x9e\x06qckr\x8bkdU\xc0\xff\x00I\x93\x05\x95\x81\x07\xe4PX\xf0\x08PA\xaf\xc9/\x8f\x1f\xf0R\xaf\x8f\x1f\xb5A\x92\xd7W\xf1\xde\xa9\xa7\xe9\xf7\x10\x1by\xb4}\x0eF\xd2a\x8drN\x18E\xb5\x9cp\x17\x04\xb0#\x9cg\x8a\x87.\xc6\x91\x8d\xde\xa7\xf4!\xe2?\x89&gt;\x1d\xf0p\xff\x00\x89\xb6\xbd\xa3i\x8f\x80|\xbb\x9b\xd8\xe3rOl\x16\xcf\xb7\xa6EZ\xf0\xf7\x8b4\xbf\x16[\xac\xbaf\xa5\xa7j\x11\xb7{{\xa8\xe5\xc1\xf4;I\xe7\xa7\x1e\xf5\xfc\xa8\xdex*]i\xda\xea\xe2I U\r\'\x9bv\xb9\xde\xe3\xef\x13\xbb\'\x93\x9e\x9f\x90\xacx\xbc_\xe2\x0f\x83Z\xd4\x1a\x87\x87\xf5\xddcD\xd4\xb8\x9dg\xd3n\xde\xd6P{r\x98\xe3\x8e\x86\xb3\x8dU\xbb4\x95\x17m\x0f\xeba\xe2+\xd03s\x83\x84l/\xd4\xe3\x14\x18\xf0\x7f\xcf5\xf8\x0f\xfb\x14\xff\x00\xc1\xc6\x1f\x17&gt;\x02\xde\xe9\xfa\x7f\xc4\xc5_\x88\x9e\x16\x9a\xe9\x12K\x9b\x95H5\x8bHp\x03\x88dM\xab6\xd0\x03\x04\x90\x02K7\xccr\x00\xfd\xb0\xfd\x96\xff\x00k\x7f\x01~\xd8\xff\x00\x0b\xa2\xf1w\x80u\xd8\xf5\x8d-\x98\xa5\xc0u\xf2\xae\xac\x9f\x01\xb6O\x11\xf9\x91\x82\xb2\xf3\xd3\xbeq\x9a\xd63Oc\x19E\xad\xcfH\xd9Lt\xe6\xa5\xe8=\xfb\x8c\xe7\x14\xd6\\\x9a\xa2H\xf6SY9\xa9\xb6S\x1d9\xa0\x08^=\xdd*/,\xc7\xc1\xab[)\xac\x9c\xd2`Ue\xc9\xa2\xa6x\xb7\x1e(\xa9\xb3\x02\xc8\\\xd2\xec\xa5Q\x81OH\xcb\x8a\xb0\x18\xa3\x02\x9e\x91\x97\x14\x8c\x85[\x15$Q\xe0|\xcav\xe7\xefv\xa0\x06&lt;E\x13q+\xd7\x00g\x968\'\x8f\xc0\x1a\xf8\xb7\xfe\n\x83\xff\x00\x05)\x83\xf6s\xd1/|\x0f\xe0\xdb\xe8\xbf\xe1;\xd4\xac\xbf}w\xbf\xe4\xd0\xe1\x93\x8d\xe3\x04fr9\\\x9f\x90s\xd4\x91^\xc1\xff\x00\x05\x0b\xfd\xb34\xef\xd8\x9f\xe0E\xd6\xb7#[\xc9\xe2}S6\x9a\x0e\x9f"ok\x8b\x907o#?r1\x86\'\x91\x92\xa3\xbd~d\xfc\x1d\xfd\x99uO\x89\xbe"\x9f\xc7\x9f\x11\xee&amp;\xfe\xd8\xf1\x15\xcc\x97\xf2Z(\x06Y#\x93$o\xceB\xe5\x99\xdboU\xc8\x1d\xb8\xf3\xf3\x0c\xc2\x9e\x16\x1c\xd2z\x9e\xb6S\x95\xd4\xc6U\xe5\x8a\xd3\xb9\xf1\xcb\xd8\xde\xf8\xf7\xc6/\xa7\xc3\x05\xd6\xa9\xae]M\xbdYA\x99\xe6\xdf!\x0f+9\xc6\xe6}\xa4\xee\xe4\xfbW\xafxS\xf6\x17\xf8\x99{\x0b\x05\xf0\xb5\xcd\xb4o\xc4,\xcb\xe63D\x18\xb7.@!\x8e\xe3\xd0\x1a\xfd\x08\xf8\x07\xfb?\xf8\x0f\xe1\xea\xc5\xfd\x8f\xa1X[\xdcoQ$\xec7Jp\x07s\xf8t\xc0\xaf~\x8cE\xa3ip+3m\xf3@M\xbd\x87^k\xe5\xe5\xc4\x13\xa9+Ai\xdc\xfb(p\xc5:J\xf3z\x9f\x94\xfe!\xff\x00\x82xx\xdbS\xd0\x1a)\xfc\x0b{\xe5\xda\xc2J&lt;\x8eN\xe2y\r\x9ce\x8eO#\x1d\xab\xc3\xfcI\xff\x00\x04\xdc\xf8\xb5\xe2MF{\xb8\xfc\x0b}\x1d\xbe\xc1\xbeW!r\xc3\x8e\x01\xe7\x18\x03\xb5\x7fA:u\xf9\xb8\xf0\xfcfm\xb3\x05b\xbbG#\x1dA\x1e\x87\x9e\xb5\xc0x\xae\xf6\xde\xee\xeeU,\xbb\x96M\xb8\x03v\x17\x81\x83\xearO8\xae\xaa\x99\x94\xe9C\x9a\x1b\x9cX|\xa6\x9df\xe3=\x8f\xe7\xe7\xc4\x9f\xf0M\xff\x00\x89\x9a\x0e\xe9\xa6\xd0o&gt;d\xdf\xfb\xb5g\x00\x03\xf7[\x8cg\xafL\x1ez\xd6\xd7\xec\xe9\xe2\x8f\x8b\x9f\xb0\xaf\xc5\xb8&lt;a\xe1[\xcdSD\xd7,\xd0&lt;\xf0\xdd+\xb5\xa6\xa1\x0f\xfc\xf0\x95N\x03\xabc\x03#*y\x07;J\xfe\xd4x\x9bP\xb3\x8e\xc6\xe1|\xec\x06\xdd\xb5@\n\xb8 c=y\xaf\x0f\xf8\x97\xa1i&gt;5\x85\xad\xaf,m\xae\xed\xf2\t\x0c\x81\xf9\x18 \xf6\xee\x05yq\xe2j\xea\xa7,\xadc\xd6|#\x87t\xef\x1d\xcf\xa5\xbf\xe0\x9b\xbf\xf0T\x9f\x07\xfe\xdf\xfe\x14\x92\xce;S\xe1?\x1eh\xf1\xaf\xf6\x97\x87\xaee\x05\x8ez\xcbnx2E\x9e:\x02\xa4\xa8#\xe6\\\xfdH\xa4\x95\x19V\\\xf3\x83\xd4W\xe0\xcf\xed\r\xe0\xab\xdf\xd9\xeb\xc7&gt;\x1f\xf1\xaf\x84nn4\x9b\xcd:Vx\xef\xad\xff\x00w&gt;\x9f"\x8c\xac\xbf\xddee\xca26U\x87\x04`\xd7\xea\xe7\xfc\x13c\xf6\xf1\xb3\xfd\xbb~\x0b6\xa7q\x1d\xb5\x8f\x8c4YV\xd3\\\xd3\xa2o\xf5M\x8f\x96t\x04\x93\xe5H\x01#&lt;\x83\x95\xf9\xb0\x19\xbe\xcf/\xc7,E.c\xe03L\xbaXZ\xdc\xa7\xd1T\xd6\\\x9a#\x91e\\\xa9\xcfO\xd4d~\x84S\xab\xbc\xf3H\xc8\xc55\x97&amp;\xa4e\xc9\xa3e\x00G\xb2\x8aq\x18\xa2\x80&amp;H\xcb\x8a\x92(~Z"\x87\xe5\xa9\x11v\n\x00h\x87\x9a|\xb1\xe6\xd9\xb6\xc8\xd1\xb4\x98]\xdf\xdd\xe4v\xf7\xe9\x9ap\\\xd7\x15\xfbIx\xd1\xfe\x1b~\xcf~:\xd7\xd5\xbc\xb9t_\x0f\xdf_\xc0\xfd\x96H\xa0w_\xd4\n\x1d\xfa\r\x1f\x8e\x7f\xb6\xef\xed3\'\xed[\xff\x00\x05\x1f\xdb$\xd2M\xe1\xaf\x0bj\r\xa4\xe9\xb0\x12\r\xb8\x82)\nH\xe3\x04\xe4\xcb"9\x1d26\x13\x82\xb8\xaf\xa7\xbc9/\xdb\xa2\x8e\xe2(\xad\xd4\xe0(V\xfe\x11\xe8O99\'\x9e\xfdp3\x8a\xfc\xe7\xf8\x1f\xa4\xcbo\xf1\x0fI\x97-q2O\xbb\xcd\'&gt;q\x04\x92I\xeb\xf7\x8b\x1f\xc6\xbfA~\x12[\xddj\xda.\xc8\xd2F\xfb1$\xb3)\xf9\xf2s\xc1\xe9\xdf\xbd~w\xc4\xf8\x89N\xa7,O\xd3\xf8O\x0e\xa1O\x99\xeez_\x82\xf4\xb6\x1a\xbcrl;s\xf3\x08\xfaf\xbdf\xff\x00K\x1a\xa6\x9f\x1a\xc7\x0c\xeb\x80\x00,\xbc\x03\xf9\xd7\x9axIu\x0f\x0f\x10$\x8dG\xcd\xbboS\x8c\x0es\xd3\xf5\xcdz\xb7\x82\xfc}\r\xe4&gt;L\xcb\xb6M\xdd\n\xf4\xe0W\x8b\x96\xd4I\xf2\xcfC\xe83\t=\xe1\xa9\xd5h\xb6?d\xd1\xed\xe2\xdc\x0b\xaa\xe5\xeb\x86\xf1\x86\x835\x96\xa1+i\xd6rHf`\xef+|\xaa\x0eFFFOA\xd3\x1d\xeb\xb5\xd3\xafT\xdc3\xefS\x18\xe3\xad`\xf8\xd3\xe2\x1e\x9b\xa3n\xb7\xf3\x95n$\x1b\x94dn9\xe3\xe9\xda\xbd\xdcUJJ:\xb3\xc0\xc3\xc6\xa2\xab\xcb\x14yO\x8d\xfc$\xc7F*\xcbl\xb7\r\xf319\x03\xa6:\xe3\x9e\x95\xe7\xe9\xe1[u\x82I\x9b\xcbo,\x15!\x0ey\xeb^\x95\xe2Mv\x1dN6k\x8b\xc5u \xe4\xb6\x01L\x7f\x0f\x1f_\xd6\xb8?\x11i6\xf6\x8c\xcdkv\x83\xce]\xa1Y\xf0\xacO?\xd4W\xceU\xa4\xdc\xef\x14}F\x1e\xbcyyd\xcf\x99\xff\x00i\xdb\xdb=O\xc1\x9a\xc5\xad\xda\xc3uj\xa83\x18=\xf7z\xfa\xe0t\xf7\xaf\x9e\x7f\xe0\x9d\xbf\xb4\xc5\xdf\xec\xaf\xfbwxG\xc4Wk\xb7J\xd5n\x93D\xd5\xe0I\x8cqKm9X\xd5\xcf\xf7\x8cO\xb2A\x9c}\xc2;\x9a\xf7?\xda3@h\xed\xee-\xa51\xc6\xcd#\xbc\x8a\xa4\xfc\xc3\x1d\xb8\xf6\xaf\x85\xbe.O\x1c\x90\\7\x9d\xe4\xcbf\x1eX\xde0s\xf2\xe7\x18\xf7\xceO\xe1_[\xc3x\x86\xa3\xec\xe4|g\x15\xe1.\xfd\xacQ\xfdH;\xb4\x843m\xcb\x00x\x18?\x8f\xbf\xff\x00Z\x9b\\O\xec\xc3\xf1\x15~3\xfe\xcd\xde\x01\xf1tldo\x13xz\xc7R\x90\x9e\x0e\xf9`Fl\xfe&amp;\xbb\x83\x11Z\xfbX\xec~w-\xc6\xd1NH\xcb\x8a_!\xbd\xaa\x89"e\xc9\xa2\x9e\xeb\xb0\xd1@\x16\x956\x0f\xd6\x9c\x174\xbbw\nU\x18\x14\x00(\xc0\xaf)\xfd\xbbmd\xbc\xfd\x8a&gt;.G\x1c~kI\xe0\xfdUQ1\xfc_d\x94\xe6\xbd^\xb9\x1f\xda\x02\xcf\xfbW\xe0?\x8dl\xd9C%\xd6\x83}\x0b\x03\xfe\xdc\x0e\xbf\xd6\xa6M\xa8\xb6\x86\xb7\xd4\xfc\x05\xfd\x86\xb4\xb7\xd5\xae/u\xbdBe\x16\x9aN\x04r1\xfd\xda\xb3e\x8f\xe4\xa4g\xeb^\x89\xe3\x9f\xf8(\x1f\x8a\xb4\xfb\x9b\x8b?\x01h\xef}mnU\x16E\x803\xcaA9\xdb\xc3q\xf5\xc5y\x7f\xc1=6\xebL\xfd\x884\x95\xd3\xe3\xf3/|Yuq\x1b\xcc\xad\x8f\x97\xcf1dz\xe3\xcb?\x85d\xdf~\xdd\x9e\x17\xfd\x9a.\xbf\xb27[\xcf}f\x15[\xec\xcb\xf3F\x07\x1c\x9f^;\xd7\xc3\xe3\x13\xf6\xbe\xd21\xe6\xf2&gt;\xff\x00\x03Q\xac:\x8c\xa5\xcb~\xa3~%\x7f\xc1f&gt;7x?\xc4\x92\xda\xa5\xaf\xd9^2\x15\xa0\xbd\x85v\xe7\xd3\x01W\x9f\xc3\xf1\xae\x83\xe1W\xfc\x16\x97\xc6\x1a\xee\xb0\xa9\xe2M5\xec\xee$O(\x18\xa5\x00q\xce\xecg\x81\xcf\xe9^\x17\xfbC\x7f\xc1N&lt;\x1d\xf1\xf0\xfd\x8eO\x05[}\xb1_1\xddy`M \xfe\xf3m\'\xbey\xaf\x0cMq\xfco\xadH4\r\x1e\xf2K\x88N\xf7\x85@g9 eFs\xb4\xf4\xed\xc85\x95H\xc5\xd2\xbc\xa9\xf2\xf9\x9d\xd8X\xbfk\x7fi\xcc~\xdf\xfc\x00\xfd\xb1uO\x1a|?\x92\xfa\xdd\xae\x9a=\xa5\xd9\xdd\xb7\x0c\xe0p\x0ek\xe5\x7f\xda\xb7\xfe\nC\xacxC\xc4\xd7\x16\xa6fi!,J\xb8*\xd2\x01\x9e\x01\xff\x00=\xeb\xea\xef\xf8\'_\xec\x97o\xaa~\xcf\xb6\x7f\xdbKqkt\xb6I\xe6\x08f\xfe"\xa1\xbaz\xf3\x83\x9c\x1e&gt;\x84\xfes\xff\x00\xc1d\x7fg\x9dg\xe1\xaf\xc5\xad=\xf4\x98\xee5\x0b;\xc6pdb1\x17\'\xe5bq\x8c\xe3\xb6k\xc2\xa1\x19J\xaa\x9d\xf4\xe8{\xb2\xe4t\xdcm\xaa&lt;\x93\xe2/\xfc\x14;\xe2\xaf\xc4\x1dk\xcb\xb5\xd55\xab}&gt;`V\x0bkln\x00\xf4\xf9\xb7W\xa7\xfc/\xd5\xfe:k\x9e\x16k\xc9?\xe1!\x8a\xc5O\x98\x8dwr&lt;\xc6!W\x95\xdcG\x1e\xd5\xf3\x7f\xc3?\xda\x16\xff\x00\xe1m\xfa\xddi\xfe\x14\xb7\xbb\x9bOL\xcd%\xc4-2G\x8e\xbd\x01^\xde\xb9\xf6\xafR\x1f\xf0ZMS\xc4v\x11\xd9\xc9\xe1\xfb\x14\x86\x11\x82\xd1\xc8F\xd6\xe8Wi\\\x0e0q\x9e\xf5\xf4U\xa5\x88\xe4J4\xee\xbc\x8f\x9c\xf64#7)T\xe5~g\xd1\x1f\r?l\x0b\xaf\x1b^/\x86\xfc]cug\xaai\xe8L\x17\x17*\x98\xb8\xecC\x10\xc7\xaf8\xc05\xe2\xff\x00\xb6_\x86\xe3\xf0\x0f\x89m\xb5\x0b}\xcde\xa8\x82\xe25r\x00f\x05v\xe3\x18\xfe"j\xaf\x87&gt;5\xf8k\xe3\xf4i\xadX\xc8\xd1\xea\x1a]\xc4ow\x11\xe6A\x93\xce\xd0\x07+\xc8\xfdk\xb6\xfd\xba\xa1\xbco\x81\xda.\xa15\xac+%\xae\xa3\x1a\x00\xc1\x83:\xbcNW\x1cc\x92\x07z\xbc\x0c\x14+\xab\xe8g\x8f\x94\xaaa\x9d\x9d\xec~\xd9\x7f\xc1\x0e&gt;!\x7f\xc2\xcf\xff\x00\x82W\xfc#\xbevV\x96\xc7O\x9fJp\x1bq_\xb3]\xcd\n\x83\xc7\xf7Q\x7f\x0cW\xd5\xcc\xaaE|\x1b\xff\x00\x06\xd9\xb9?\xf0Km\x102\xba\xf9~!\xd5\xfe\\\x13\xb7\xfd)\xb8\x18\xf7\xcfJ\xfb\xcc.k\xedc\xb1\xf9\xd5\xee\xee\x88\x8c[)\xaa\x03T\xb2&amp;j/+`\xe6\xa8c^-\xc7\x8a)\xca\x03Q@\x16\x13\xa5:\x91F\x05-\x1a\x87\xa0\x8e\xdb\x17\'\xfc\xf1\x9f\xe9\\7\xc7O\x1b\xe9\x9a_\xc3\x8f\x13X\xc9\xa9i\xf0_M\xa4]\x04\x82[\x85Y\x18\x98[h\x0b\x9c\x9eOa]?\x8b5x\xbc?\xe1\xeb\xfdB\xe1\x99mt\xebi.f\xdb\x8c\x95Q\xb8\xe3=\xc0\x07\xf3\xaf\xe7\xe2\xef\xf6\xda\xf8\xb5\xac\xfcl\xf1o\x8b\x1e\xfb\xfbR\xd6\xfa{\x8b\x99,d]\xf1\xc0\x86A\x81\x11+\x91\x85\xc8\x1d\x06\x00\xaf+4\xc7}^\xd6\xea{Y\x16M\xf5\xd8\xca\xa2\x7f\t\xa5\xe1O\x87z\xce\x8d\xfb!|5\xd1\xac\xec\xa3\x92\xea\xd6\xc5\xae"i\xe41\xc7l\xd3L\xf3\x07b\x01l\x9d\xf8\x03oj\xf9+P\xfd\x88\xfcQ\xe0\x8dZ\xe2\xeb[\xf0~\xbd\xe2-SP\xb8i\'k\x08\'\xbb\x00\x13\xc0\xc2\xa1\xfa\xfd\x08\xaf\xd5\xbf\x08x*;\xf8\xec!Hb\x86\xd6\xd2\x08a\x85J\xef "\x85\xcf=x\x00~\x15\xf4\x87\xc3M\x02\xde\xe62\xa6+8\xbe\\\x00b\xc1\xce\x07q\xcf\xeb_\x15_2\x97\xb5\xf7V\x87\xdea\xb2\x98:\x11R{\x1f\x8b\xff\x00\x07?f\xaf\x88\xfa\xde\xaf\x06\x97\xe1\x7f\x84\xba\x85\x8c\xcf U\xbb\xd5m\x846\xf0\x0e&gt;c\x1ew\xb3{\x11\xe9_s|!\xfd\x82\xa3\xf8`\xb6R\xf8\xa3Sms\\\x9fm\xc5\xc2\x02-\xedmJ\xf4EE\x1b\xba\x83\xc1=\xeb\xedmLh\x9e\x03\xb57~D2I\x96,?\xda\x03$\x83\xdb\x03\xbf=+\xc4\xfcU\xe3=6\r+R\xd75MJ\x18d\x9a\\\xc1\x12\x8e|\xa1\x82\xbfRrN}\x08\xaf7\x19\x88\xab8;3\xdc\xc1aiE\xa5\xcb\xf3=\x93\xe0\xa3\xcd\xa3\xf8\x06\xe9\xe1\x81\x96\x16\x1bW?\xc3\xed\xc9\xe3\xb7\xad|\xe5\xfbL|&amp;_\x89\xda\xbd\xd4z\x95\x8e\xf8c\xfd\xeco\xb8\x86\x0e\xb9 \x8eq\x8e}+\xd8&lt;\t\xfbix\x06\xd3\xc2\x90\xdb\xde]\xc4\x97\x17`*\xa9*\xaa\xb8\x00|\xd99\xcf\xe0k\xc9~)|}\xf0\x8f\x8b\xbe%Z\xe9\xb6\xfa\xacv\xf1\xc9.\xe7\x90H:\x1e\x00\x1c\xe3\x1cW$\xe9\xfe\xea\n\x12\xd4\xee\xc1[\x9e\xa3\x9ct\xfc\xcf\x95\xbe/~\xc6\xdf\x10\xef\xfc"\xda\xbf\x81V\xc3\xc4\x16h\xa5n,&amp;ci*8$\x9d\xb2\xa8\xe4\xe0\x8e\x0e\x07\xbf5\xf2?\x8a?g\xdf\x88\xbe)\xf1\x13C\xa8|\'\xf1U\xc6\xa4\xc7\xbd\xaf\xdac\x1c\x91\xc4\x8e\xfbv\xfd\x1b\xd7\x8a\xfd\x86\xf8\x15\xae\xdaxS\xc7\x17zn\xa1t\xadk3\x17\x86u\xda\xcb\xb4\xe3\n\xdc\x90zg\x18\xef\xd6\xbe\x80\xb5\xd3\xf4y\xe1\xf3-Z\x16\x1bpDg\n\x7f\x0e\x80\xfd+\xd1\xc1b+\xb8\xdeOc\xcf\xc5a(:\x9e\xf4O\xc2\x7f\x87\xbf\xf0M\x1f\x16xC[\x8b\xc4\x17\xdaN\xbf\xe0\x8b\xa3\x1b6\xd7\x10\xb43\x86\x1891\xbbm\xe9\xc0=1^\x95\xf1\x97\xe1\xcd\xfe\xbb\xfb k:=\xc4\x92M}\xa5\x98n\xd4\xcf#HO\x952\x1d\xcaH\xdc&gt;B\xfc\x10?#\x9a\xfdC\xf8\xc7\xe0\x9b]SN\x94\xad\xc1\x8fh\xdc\x13hh\xcbs\xf7\x87\x19\xfe\x95\xf2g\xc5\xbf\x05X\xc7a}j\xc1W\xfbN\x07\x86\\\x1d\xc4\xee\x05s\x9f\xc7\xf4\xab\xa3\x99\xcb\xdb\xa4\xfe\xf3\x8f\x17\x96\xc1\xd3qZ\t\xfb\x01\x7f\xc1S4\x9f\xf8\'\xef\xecQ\xe0\x7f\rk\x16zA6/u{wk\x1e\xf7\xba\x99\xa6\xb9\x92F`r0\xc1Yz\xafQ\xd4\x8a\xfdu\xf8\x1f\xf1\x7fH\xf8\xfd\xf0\x8f\xc3\xde3\xd0f\xf3\xf4\x7f\x12X\xc5\x7fh\xdb\xb76\xc7Pv\xb1\xfe\xf2\x9c\xa9\xf7S_\xcd\xaf\x85\xfe\x00\xdc|E\xf0\x9e\xa3\xabAx\xb7Z\x95\xbd\xd2\x05\x84\xe4\xc9\x1a\xb1\xf2\xd8t\xfb\xa0\xa8?\x89\xaf\xdbO\xf8"\r\xb5\xf6\x87\xfb\x0bXi\x17\xb3\x19WF\xd5nm\xad\x97\x18\xf2b"9B~\x06F\xfc\xeb\xebr\x8c\xcaUq\x12\xa4\xcf\x97\xe2&lt;\x8e\x95\x0c\x14qT\xd5\xb6_y\xf5\xf3.M2D\xcdJ9\x19\xa61\xc9\xaf\xa6&gt;\x0c\x83\xcb\xday\xe6\x8a\x9b\x00\xf5\xa2\x80$\xa3\xbd\x14Q\xd0\x0ec\xe3V\x956\xbf\xf0\x8b\xc5\x1a}\xbcm$\xda\x86\x93wn\x81z\x96hY@\xfa\x92F?\x1a\xfch\x8b\xe1\x04_\n\xbc+\xe2\rB\xde\xd6\x1b\xb6h\x92\x14L\x13\xf20\x94g\x91\xd4\xed\xcf\xe5_\xb7\xa2&amp;\x9d\xf6\x82\xbbq\x92\x0f\xe9\xfa\xd7\xe7\x87\xed}\xe0}\'\xe1\x9f\xc7\xd9\xbc?$ig\xa5\xf8\xb2\xcd\xa5\xd3K\x8cF.U\xdc\xacL\x7f\x87;\xa5\x0b\xd4`\x0eA\xe2\xbe_\x890r\x958\xd5\x8b\xd8\xfb\xce\x07\xc6S\x84\xaaa\xa4\xbe%u\xf2&lt;\xc7\xc3\xde6\x87Ex\xd8\xcc\xbeS\x1d\xca\xbd\xd4\x1e\xdf\x9ek\xd4\xbc1\xf1\xb2\xdfO\xb6\xf3\x96h\xb6\x91\x80\t\xf9\x89\xc5|\x91\xe3\x8f\x14\xc9\xe1\xfdn\xf2\xc9#\x91\x1a\xdeb\x9bd\xe1\x93\x1cc\xf0\xack\x8f\x89:\x8e\xafb,\xed~[\x86o\xdd\xe0\xf4&gt;\xa7\xda\xbe\x1f\xd9IH\xfb,\x1e"\x9b\x94\xa0\xcf\xa2&lt;]\xfbLI\xe2\xaf\x1f\xdb\xe9v\x91\xcbp\x9c\xbd\xd0P\x08\x8d\x01\xe7\xbfS\xd3\xe9_\x98\xff\x00\xf0S\x7f\x1d\xfcB\xf0w\xc7mSO\xd2uk\xe8t\x7f5nm\xa6\x85]\xe3Dl\x9f(\xf4\xc6\xde\x9cg\x8c}\x07\xdc\xbf\to\xf4\xdf\x85v\xd77w\x17PI\xabj\x1f-\xc9\xb8n\xc7\x19\t\xff\x00\xd7\xc5f\xfcS\xf8m\xe1\xdf\x8az\x87\xdb&amp;\xb5k\x810\x01\x10to\xe7\xcf\xff\x00Z\xba0\xd2Q\xa9y+\x95\x88\xc5)A\xc2\x9b?,\xb4\xff\x00\xda\x13\xc4\x8dq\x1a__O\xe6\xc6\xa0\xefR\xca\x19\xbdy\xaco\x1d|T\xf1\xd7\x8a\xf58$\xb5\xd4\xef\x12;|\x10m\x98\x96c\x93\xd4\xf1\xed_R\xfe\xd5?\xb1\xdc:~\xa2\xbf\xd9z\\\xf1&lt;\xc00\x04}\xdeM;\xe0/\xec\xd3i\xa3\xd93\xea\x96)#)\xdb\x8d\xfc\x83\x81\xeb\xda\xbd\xc8\xd4\xc3r_\x97S\xe7\xf9\xf12|\x9c\xcfs\xd5?\xe0\x9c\x1f\x18\xb5\xfb?\x03\xebW&gt;%\xb8\xb8\xba\x93\xec\xeb\x15\xa8\xb8b\xce\xac\x00;\xcf\xa7\\q\x9e\x95\xf4\x17\xc2_\xf8(\xed\xa6\x8b\xe3\'\xd0\xf5+\xd5\xb5\x99N#YF\xdf4q\xc8\xcf\xd0\xfeU\xe2~\x19\xd5\xb4/\x86\xda}\xc6\xe1\r\x9e\xe0\x11H\xf9\xb1\\\xf7\xc4\x9f\nxg\xf6\x99\xd0c[)f\xb7\xd4\x91\xb7Z\xdeG\x1a\xc5,L\xbe\xb8?2\xe7\xb7\xbdxsM\xb7m\x0f\xa0\xfa\xda\x8d4\x9e\xac\xfb\x17\xc6\xdf\xb5\xdd\xa6\xa9m4\x8dx\x8b\x1b\x1c+\x026\xb8\xf5\x075\xe2~.\xf8\xa2\x9e3\xd5\x11\xed\xe6g\xfe\x0c\x9cm&lt;\x93_7\xf8\xbd\xb5\xaf\x0ex~\x1d\'R\x91\xa4\x9e\xd5\xbc\xa3(&lt;I\x8e\xe0v\x1e\xd5\xd2\xfc$\xd5%\xba\xbb\xb6\xb7\xdd\x86\x8eE\xcf_\x9b&lt;~u\xcf\x87\xc2\xf2\xcb\x9d\xb3\x9f\x19\x8d\xe6\xb4Q\xee?\xb3\xd7\xc3\x18|\x01c\xac\xeb\x11B\xce\x13Vh0~\xeby\x97\x0b\xb1O\xd7\xa0\xf7&gt;\x9c\xd7\xebw\xec+\xf0\xe7\xfe\x15\xe7\xec\xfba\xe6B-\xe7\xd7&amp;}RH\xd4p\x9e`U\\}Q\x10\xfe5\xf9\x97\xf0G\xc2\xba\xb7\xc6O\x8a\x9e\x17\xd0l\xac\xaft\xdd\x16Md\xb5\xe2\\\xa0\x8eK\xa9\xf7\x8f%\xd4)9\x89C\x19\x0b\x1c}\xd1\x80Nq\xfb!cc\x0e\x9bi\x1c\x16\xea\x12\x18\x91Q\x14}\xd4P\x00\x00{\x00\x05}\x97\x0e\xe1\xbd\xf9Vg\xcc\xf1\x9e9{*xX\xbd7\xfb\x89\xf8\x03\x8a\x88\x8cT\x94\xd6\\\x9a\xfa\xe3\xf3\xd1\xb4PF(\xa0\t(\xa2\x8a\x00th\xa1\xfc\xcew\xf4\xfc+\xe6\x9f\xf8)\x0f\xc1\x9d/\xe27\x82,u\x1b\xe8\x19Z\xc5\xc4~z\r\xa6\x06,\x1e7\xcf|2\xe3\x03\xb4\x8d_K\'J\xcf\xf1_\x85\xec\xfce\xa3\\i\xba\x8d\xb47\x967q\x94\x96\x19FU\xbe\xa3\x19\xfc\x88\xae\\f\x1dW\xa5\xec\xd9\xdb\x97\xe3\x1e\x17\x11\x1a\xcb\xa1\xf8g\xf1\xc2\xda\xea\xc7\xc7z\x9b]\xc8\xb2\xce\xf2\x96\x92Q\xd2c\xfd\xf0;\x03\xe9Y\x7f\r|/\x16\xb7\xaa}\xa2k\x93\x0f\x95\x9c\x15&lt;\x9e\xf8\xaf\xa1\xbf\xe0\xad\x9f\xb3\x0e\x9b\xfb6x\xcbG\xba\xf0\xde\x9c\xd6\x1e\x1b\xd6,H\x86%\x9aIDw\x11\xbby\x8a\x0c\x84\xe0mh\x88\x1b\xba\xb1\xe0\x0c\x9a\xf8\xdb\xc1\x1f\x12\xda\xd3]\x8a\xdf\xf7\xc9\xbaB\x19N2\x08\xc6s\xcd|\x1ec\x96\xba\x12\xb9\xf7\xf8\x1c|k\xb6\xe3\xd4\xe7\xff\x00i\xf4\xf8\xa1\xabx\xd2\xce\xc7\xc1&gt;\x19\xd4\xf5\xc1\x0c\xbe|\xad\x10\x03\x08\t\xeaI\x03\xb5s\x16\xf1~\xd5\xff\x00\x12$\x93O\xd2\xfc3\xff\x00\x08\xbe\x9f\x9d\xbev\xa3w\x1c;\xc7N\xa8\xceG\xe0+\xf4C\xe0w\x8b\xb4y\xfc=#L\x90\xc9%\xc4{A\x07\x07\xdf5\xe3\xdf\x19\xfc[\xe2\x8f\x84\x9a\xcd\xc4\xda\r\xd7\xda\xb4\xab\x89\x8c\xa2=\xaa|\x9c\xf0W\x04\x1f@\x7f\x1a\xe5\x86*\x10V\x92=|&gt;\x1e\x16\xe6\x9c\x9f\xcbs\xc1t\x7f\xf8\'\xc7\xedd\xc6\xcbR\x83\xc4\xde\r\xbaI\x00\x0c\xb3k\x13\\\xac^\xdc\xc0=z{\xd6\'\xc5\x9f\xf8\'G\xc7\xa5\xb8\x92\xf3W\xf8\x91\xe1\xdb;\xfd\x80\xac6\x02c\x91\x93\x81\x95\n3\x9c\xf5\x15\xd8\xf8\xcb\xf6\xf0\xf8\xa9\xe1\xf6\xc6\x9b|\xf1\xc6\xaf\xfe\xa9\xed@\xfc\xb0:W&lt;\x9f\xb4o\xc5o\x89\x13\xab\xde^\\*\xc9&amp;Um\x91P\xe7\x8e\xa7\x15\xd5\xed\xbd\xceh#\xae/\r\xf0\xfb\xcf\xf0\xfcO\x18\xd6?d\xff\x00\xda+lv7^$\xd0\xf5\x0b9X\x04\xf3\xae\xdd\xa4n\xd8\xdaS\xaf\xb6{\xd7\xd1\x7f\xb1\xc7\xec7\xe2\x0f\xd9\xa7H\xfb\x7f\xc4\x1dF\x1dA\xae\x83N\x96\xb6\xd9X\xe3\xdd\xd3q\'\xaf\x07\xf4\xe2\xbd\x9b\xf6j\xf8kt\xba\x9c\x1a\xd7\x89$\xb8\xbc\xbbf\xfd\xdcs\x11\xb5x\x04\x1e\x9e\xe6\xba\xaf\xda\xaf\xe2E\x9bh\x06\x16d\x8f\xcb\x1bO\x96G^~\x95\xcf[\x119F\xd2\xb1\xe7\xd4\xa3IO\x9e\x17\xf9\xbb\x9f.\xfcQh|U\xe2\xe6\xb7\xb1\x87\xcb\x89e\xc6\xd2s\x8e}k\xb1\xfd\x9a~\x13\xff\x00\xc2\xc4\xf8\xed\xe1\x9f\x0c\xd8\xdc=\xbc\xfa\xc6\xa5\r\x9bH\xb1\xf9\xbeV]C6\xcc\x8d\xd8Rz\x91\xd2\xbco\xfe\x164:O\x88/g\x8d\x99\x8e\xe0\x8a\x7f\xbaNpO5\xf7w\xfc\x10\x97\xe0\xc5\xf7\xc4\x7f\xda\x16\xfb\xc6\x97\xb6\xcal|3j\xcf\x14\xb2\x03\xb7\xedr\x82\x91\xa8\xe3\x19\n]\xbf\x05\xae\xcc\xb7\t*\xb5\x14Z\xd0\xf23\x8cR\xa3M\xca\xfa\x9fZ\xfe\xc4\x7f\xf0N\x9f\x1b~\xcf\x1f\x11\xedu_\x16x\xb7D\xd6,\xf4Vq\xa7\x8d&gt;\xd9\xd6k\xd4(\xe8\xa6}\xe0\x08\xca\xabg\x08XdW\xd9H\xbb\x19\xba`\x9e1\xe9\xefN\x88\xb4\xd1\xab\x7f{\'\x9f\xad\x04b\xbe\xef\x0f\x86\x85\x18\xf2\xc4\xf8\x0cV2\xa6%\xa9T\xdd\x05\x14Q[\x9c\xe3_\xad\x14?Z(\x01\xd4QE\x009[\x02\x9c\x0ej:rt\xa1\x87\xa9\xe4?\xb7\x1f\xec\xb5g\xfb\\\xfc\x00\xd5\xbc/7\x97\x0e\xa0\xab\xf6\xbd*\xe1\x8e&lt;\x8b\xa4\x07nH\xe4+\xa9dn\x0f\x0f\x9c\x12\x05~\x02\xf8\xf7\xc0\x9a\xc7\xc2_\x8a\x97\x9aN\xaf\x0bX\xeaZ-\xc3Z\\\xc5)\xc3\xeeO\x93\x1e\xfd?,w\xaf\xe9Z\xe9\x15\xed\xdfr\xeeF\x1bXg\xa85\xf8G\xff\x00\x05e\xd1\xed\xec?m_\x1d\t\x9b\xcb?\xda&gt;l$\xf07:\x87#?V?\xa5y9\xa6\x1e\x13\x8a\xe6=\xbc\xa7\x13(\xbb-\x8b?\xb3\xc5\xe7\xd9\xecm[\xcc\x12C3\x94rr\xc66\xc0\xeb\x80p0G?Z\xf6\xbd\x7f\xe0H\xf1\xa5\xa0\x8e\xe2kx|\xf5\r\x18S\xbb#\xd7#\xa5|q\xf0G\xe3U\xaf\x815\t~\xd1u$Q\\\x11\x14\xdb\x1f\x0c\x18`\xf4\xe8W\x91\xd4\x8e\xf5\xf5N\x9d\xfbSh\xf6\xbe\x11\xb6\xbc\x86\xea\xdei#\x1bH\x8e&gt;I\x1e\xc3#\xb8\xef_\x17\x8a\xc1\xa8\xca\xc7\xd8\xe11\xdc\xca\xc7Me\xff\x00\x04\xea\xf0\xcd\xe5\x9c3\xea\ruw P\x19#\x97\xe5?\x98\x07\xbdX\x9f\xf6D\xf0o\x83.#[{\x16\x85@\xdd\x8f3~\x0f\xa9=\xbaW\x0f\xae\xff\x00\xc1Glt=&lt;b\xe2\xd5e\xdb\x80$%p&gt;\x95\xc8\xc7\xff\x00\x05\x03\xb3\xd6\xe7m\xd7V\xbbf\xf9d!\xb2\x15\x7f\x1a!\x1d9N\x8f\xacJ\xf7=\xab]\xd1\xf4\xef\x0f\xe9x\x86H\xe3\x8e2@\xc1\xe4\xf1\xd6\xbe)\xfd\xae~ .\x89-\xc4q\xc9\xe7F[\x7f^{\x8f\xe9]\xef\xc5/\xdb\x16\xc6\xf6\xdb\xcb\xb3\x99Z8S\x1b\xb20\xdd}\xeb\xe3\x0f\x8e_\x17d\xf1\xe6\xbf\'\xefB\xa98\xc6x#&amp;\xbb0\xf8G)j\xb48q\x18\xa6\xf4L\xb7\xe0\x1b\x1b\x8f\x1b\xf8\xafp\x8flr\x13\x9d\xdfw\xaa\x90[\xe9\x83\xf9\xd7\xefw\xfc\x11\x03\xc3v\xda/\xecS\xba\xd5\x17\xfd#\\\xbb\x12\xcb\x80\x1aR\xa25\x078\xe7n\xde&gt;\xa7\xa5~\x11|)\xf1\n\xe9\x9a{Cn\xbf\xbc\x99p[\x1c\x0e\x95\xfb\xdd\xff\x00\x04H\x84\xc7\xfb\x02hlp|\xedN\xf5\xff\x00\xf2)\x1c\xfeU\xf4YjJ\xa7,Q\xf3\xb9\xa7&lt;\xa8\xf3O{\xa3\xebEl~|{R1\xc9\xa4\xa2\xbd\xc3\xe6\xc2\x8a)\x0bb\x80\x11\xfa\xd1H\xc7&amp;\x8a\x00}\x14\x03\x9a(\x00\xa0I\x87\xdb\xb5\x98\x9e\x80w\xff\x00\xf5R\x85\xc8\xcds\xbf\x15&gt;#\xe9\x9f\n&gt;\x1f\xea\xba\xfe\xb18\x87O\xd2\xe0i\xa4\xe7\x06C\xd9\x07\xbb\x1c\x00=\xea\xe3Ns\x92\x84U\xdb\xd3\xef*:\xbb\x14&gt;6|{\xf0\x9f\xec\xfd\xe0I\xbcE\xe3\rr\xcfA\xd1\xe0V&amp;[\x86;\xa4\xe3\xa2"\xe5\x9c\xf7\xc2\x82k\xf0\xf7\xfe\nQ\xf1O\xc3\x7f\xb4\xd7\xc7?\x10x\xcb\xc2\xb7R^h\x1a\xf4\x91Kc&lt;\x91\x98\x9eEXR6}\xa7\xe6\\\xba6\x03\x00q\x8e\x05r\xff\x00\xf0X\x1f\xdb_]\xf8\xb9\xa5\xeb^"\xd5$+\x1c{\xe0\xd3\xac\xd5\xcf\x95`\x87\xe5\x089\xc6A\',\x06s\xbb\x92\x00\'\xc9\xff\x00fDo\x12\xfe\xcb\xbe\x10\xb8\x92I\xaee\x16^ag;\x9bk309$\x92&gt;n\xa7\x9a\xe5\xe2\xec\x0f\xf6v\x1e4\xe4\xfd\xed/\xe5\xe4}\'\x0f\xd1\x8c\xabY\xa3\xc5|u\xacj\x1a\r\xf4\xd0\xb6\xef-9\x0f\x9eO\xb9\xaeA\xfe&lt;\xea\x9aT2F\x97\xb2\x85\xe7\xe5\x12\x11\xfdk\xde&gt;$xJ\xdf[i\x95\x84j\xcc0\x87\xfb\xde\xdfZ\xf9\xbf\xe2/\xc3\x0f\xec\xd9\xe5h\xc3\x06\x1c\x11\xe8y\xaf\x94\xc1\xe3\xe9U\x8f\xef\x11\xed\xe2\xb03\xa5;\xd3\xd8\xc8\xd5\xbe0\xeaW\x8e\xdb\xaf\xe4]\xcd\xbb\x0e\xc5\xbf\xadF\xbf\x17u+x\xc2\xdb\xddof\xf9\\\x93\x8e=\xab\x91\xbf\xf0\xe6\xa9o/\x16\xcb2\xf5\x04\x1e\x9e\xd5\r\xa6\x8f\xaa\xcd.\xd3k\x1c1\xf7$\xfc\xdf\xca\xbb\x9c\xb0\xedh\x8e^J\xc7{7\xc5\xbdJ\xf6\xd1m\xd6iU\x97\x80\t\xea*\xff\x00\x86\xe1\xba\xd6\x1d%\x98\xb2\xfc\xfbK7~\x87\xfa\xd7?\xe0\xff\x00\x07\xb2\xdfG\xf7\xe6r\x7f*\xf6\xcf\x08\xf8j=8E$\xf1\xa4\x99\xe9\x18\xe4\n\xe2\xc4c#N&gt;\xe1\xd5\x85\xc1\xcaRNGa\xf0\xdfI\xfe\xcc\x16\xaa\xcc\xbf\xbe`\xab\xeeO\x7f\xa7\x15\xfb\x93\xff\x00\x04j\xfd\xa3\xfe\x1f\xe8\x1f\xb2g\x87&lt;\x17y\xe3/\rY\xf8\xb8\\\\\xdc\x7fcO\xa8\xc5\x15\xf1\x8d\xe6m\xac"f\x0c\xc0\xe0\x8c\x80FA\x1d\xab\xf1+J\xb1[5Y\x1f;z\xae:\xc6=\xab\xc0\xbfl\xcf\x1d_X\xfcR\xd2\xae-\xa6[t\x93IX\x98\x0c\xfc\xc5%\x95\x8bpG$0\xe0\x828\xe9]&lt;;YV\xc4\xa8\xc9\xda\xe6&lt;E\x85P\xc3s.\xe8\xfe\xc4Rd\x93\xee\xb0*Fwv\xfa}}\xa9\xc1\x83\x0c\x8f\xd4\x10G\xd4\x1ek\xf9\xab\xff\x00\x82H\xff\x00\xc1i\xfcy\xfb5\xf8\xb5&lt;;}\xaa\xdck\xfa\x0c\xaa\x80i7\xd3\xb4\x90J\x98\x1917\xfc\xb2p8\xf9@\x1ct\xee\x7f\xa1\x0f\xd9\xab\xf6\x98\xf0\xb7\xedI\xe0\x08u\xef\x0c\\3+m[\xabYH\xfbE\x94\x85A\xd9\'\'\xb7F\xe8@\xf5\xe2\xbe\xe7\x15\x96\xce\x92\xf6\x8bX\xf7&gt;\x1d\xd3\x92\xdc\xf4Jk\xf5\xa0K\x9c\xf0}\x8f\xa8\xf5\xa4c\x93^q\x02QAlQ@\x0eV\xc0\xa6\xad\xc2\xb5\xd7\x93\xf3n\xc6\xec\xf6\xa2\x8a\x99l8\x92\\\x13\x04L\xdd\x94\x168\xf6\xaf\xce?\xf8+\xaf\xed%\x7f\xac\xfcD\x87\xe1\xed\x97\x9do\xa6h(\x977\xdb\xb0\x05\xdd\xc4\x8b\xb9H\xc19TB\xb8\xce&gt;g~8\x04\x94W\xd4p\x85(\xcf\x1f\x0eu}\xcd\xa9\xc5s#\xf2#\xfe\n]\xa3M\xaf|3\xb7\xb7\x85\xa3\x85o\xaf\xed\xed\xd4\x168\\\xb0U\xcf\x1d\x99\x86O\xa0\xcf^+\xb5\xfd\x9b\xad\x07\x86&gt;\x1ahZ\\?\xf1\xeb\xa7\xdaGl\x80\xf5uU\x00g\xf0\xa2\x8a\xf9\xff\x00\x17\xb4\xc7$\xbb\x1fk\xc2\xb0\x8b\xa9&amp;\xcd\x9f\x8c\x9e\x02\x86\x1f\x0f\xb6\xa9g\xb5\x04\x9f#+\xf0cn\xb9_nE|\xcf\xe39M\xd42FUY\xd0\xe3q\xfe/sE\x15\xf9\x0e\x06N\xf6&gt;\xaf\x1f\x14y\xd6\xb3m\x1a7\xefW-\x8c|\xa6\xb2\xe6\xb0\x0b2\xaa\xb3$l\xbb\xb0\x0eh\xa2\xbd\xa4\xdf)\xe5\xf2\xa3\x7f\xc2\x10\xff\x00e^/\x90wH\xc79\x92\xbd\x83\xc1\xbbQ\xe3k\x91\xbb\xcc?\xc3\xcd\x14W\x9f\x88n\xc7n\x1e*\xe8\xee&lt;G\xa6\x9d#HY\x1bn$]\xeb\xb7\xb0\xff\x00"\xbc\x0f\xe3\xcf\xc3?\xf8Z\xfa[\x08d[MR\xc9\x1aK[\x86\xce\x08\x19,\x8d\xc1\xe3\x1d0\x0f$\xd1Em\x93T\x94j\xa6\x99\xa6aF\x13\xa4\xd4\x95\xf4&gt;l\xf0\x8f\x8d\xee&lt;;\xe2\x88\xe6\xb7V[\xed&gt;M\xea\xc2B\xab\xf2\xee\xc9\xfa\xfc\x87\x8f\xa5~\xdb\x7f\xc1=\x7flmC\xf6z\xf1G\x86\xbcL\xcd}wg\xa8\xdb\xc7e\xab\xd8\xc6\xc1V\xfa\x17m\xbdr&gt;eo\x98\x1f\xc3\xbd\x14W\xf4\'\x08\xc5b0uU\x7f{N\xa7\xe4\xfc\xa9JK\xcc\xfd\xc8\xd2\xb5h\xf5-2\xd6\xe25e\x8e\xea%\x95\x01\x00\x1c0R3\xef\xf3\x0c\xfe=j\xd6\xfe?\x12?"G\xf4\xa2\x8a\xf89E*\x92\xb7s\x92[\x836h\xa2\x8a\x04\x7f\xff\xd9'</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -484,6 +522,14 @@
           <t>Raphael Claus</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xe1\x00fExif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x04\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00&gt;\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00F\x01(\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\x011\x00\x02\x00\x00\x00\x10\x00\x00\x00N\x00\x00\x00\x00\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00`\x00\x00\x00\x01paint.net 4.3.4\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xdb\x00C\x01\x02\x02\x02\x02\x02\x02\x05\x03\x03\x05\n\x07\x06\x07\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01!\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xfd\xfc\xa2\x80\n(\x00\xa2\x800&gt;#\xfcS\xf8w\xf0\x8b\xc3\x17&gt;2\xf8\x99\xe3\x1d?E\xd3-#/qw\xa8\\,j\xaa\x07\xbf_\xa0\xe6\xbf3\xbfk/\xf8:O\xf6r\xf8[\xa9\xdexk\xf6i\xf8M\xa8x\xe2KY\x0cM\xe2\x1dgP\x8bK\xd3L\x83\xb4a\xc9\x9a_\xa8E\x1e\xf52\x97)Q\x8d\xf7&gt;K\xd6?\xe0\xec\xbf\xdbz\xeay\xa3\xd1\xbe\x04|5\xb7D\xf3B\xb40\xdd\xdc\xaa\x83\xf7X\xb8\xba\xdaq\xed\xd7\xde\xba\x0f\xd9C\xfe\x0e\xc4\xfd\xa0\xed\xfcW\xa7\xf8W\xf6\xac\xf8\x13\xe1\xedj\xc6\xee\xecB\xda\xdf\x86\xae\x9a\xceTRx&amp;\'\xdc\xb9\xe7\xd5F\x07C\xd6\xa5N\xe5r\xc6\xf6G\xec\xd7\xec\xb9\xfbY\xfc\x18\xfd\xaf\xfe\x1cC\xf1/\xe0\xd7\x88~\xd5j\xcec\xba\xb5\x9dB\xcfk(\xfb\xd1\xba\xe4\xf2\x0fpH=\x8dzUhg\xb6\x81E\x00\x14P\x01E\x00\x14P\x01E\x00\x14P\x00\xcc\xa8\xa5\x9c\xe0\x0eI=\xab\xf3g\xfe\n\xe1\xff\x00\x07\x05\xfc\x1f\xfd\x884\xdb\xef\x86\x7f\x02\x1e\xd3\xc5~6\x8c\x98/.\xd2a\xf6\x1d%\xca\xff\x00\x1b\xf4\x92A\x91\xf2\xae@?{\x1cfe.R\xa3\x1ef\x7f?\x7f\xb5\xd7\xfc\x15\x0f\xf6\xd7\xfd\xbdu;\x8bo\x8a\x9f\x1c?\xb4\xb4\xf5\x98\x91\xa3\xc6\xcdk\t\x0cx\x04F\x00l}x?\x9dx&gt;\x81\xa4\rCH\xd5\xb5\x0b\x8d:HSA\x92\x13\xa8\r\xe5\x9dVB\xc0\xb4m\xea\x02\x96\xc1\xea\xa1\xab&gt;^d\x12\xde\xc8\xf4?\x02h\xbf\xf0\x91A\xa9.\x81w%\xbf\x89&lt;;\xa6\x8dZ\xcekU*\xba\xa5\x8a\xb2\xf9\x9b\x94tu\x0c\x1b\xd1\xb6\xb08\xe3=E\x95\xce\x9f\xf1\x07E_\x13[G\x1e\xef%\xa6\x9aH\xb1\xf7\xd4\xe0\xb0\xc7F\r\x80A\xecA\x02\xa7b\xe2\xb5L\xf7o\xf8\'\xe7\xfc\x14\xd7\xe2\xf7\xec\x99\xf1*\xdfO\xf0\x7f\x8e$\xd3~\xd1q\xb2\x1b\xa9$&amp;\xd2oU\x9a&gt;\x84w-_\xac\xc7\xfe\x0eZ\xf0\xd7\xc1}\x1fE\x97\xf6\x82\xf8ec\xaf}\xbe\x1d\xd7W\xfe\x04\xd4\t\x10\x90p~I\xc0\x0c}\x95\xb1U\x19X\xa9G\x9bS\xeb\xbf\xd8\x8b\xfe\x0b\x07\xfb\x0c\xfe\xdf:\x92\xf8W\xe0\xa7\xc4\xb9\xad|H\xd0\xf9\xcb\xe1\x8f\x10\xd9\xb5\xa5\xe4\x88:\xb4y\xccr\x81\xdfc\xb1\x1e\x98\xaf\xa8+d\xef\xb1\x8bV\n(\x10Q@\x05\x14\x00Q@\x05\x14\x01\xf9K\xff\x00\x07\x14\xff\x00\xc1Y\xfcG\xfb8h\xf1~\xc9?\xb3\x8f\xc4\xb8\xb4_\x15]X\xb5\xef\x8eu\x8b}\xaf&amp;\x97`\xe8Dv\xe9\x93\xc4\xf2\x92\xac\x00\xf9\x82s\x8c\x10k\xf9\xc3\xf8\x81\xa4\xf8\xaf\xc4bMf\xf3\xedL\x92JZ%\xba\x0c\xcdr\xe4\x92\xd26\x7f\x88\x93\x9c\xf4\xc9&gt;\x95\x84\xa4\xb9\xac\xcd\xe3\x1fwC\xbc\xf8\x15\xf0+H\xfe\xc5\x93\xc7~&amp;\xb6\x9e\xce;\xed\x1d\xa1\xb3\xb5X\xcb}\xa2O\xb4"3\x0c\xf0\x08P\xc4\xfac#\xb5i|S\xf0\xb6\xa7\xa1\xe8\xde(\xb0\xb2\xb3\xdc\xda\xc6\xb9$\xac\xcbjF-\xe2\x86H\xa1\\\xe3\xa6$f&gt;\xec+)V\xa7\xdc~\xceq\xd2\xc6\x07\xc3\xdd+\xc7&gt;\x02\xd1u\x9f\x1eCb\xcb$\xde\x15\x9bG\xb3\r\xd7\xcb\xba\x06&amp;\xc7\xa9(\xcf\x80:`\x9a\xab\xf0\xfeo\x15\xf8g\xc1\xf6Zm\xa5\x8c\xded\x97\xd7\x17,\xff\x007\xfa\x92\x8a6\xe0v,7\x1c\xff\x00tU:\xb1\x94G\x1ar\x94\x95\xce\xa7K\xf8_\xa9\xc0\xd7\x10K\xa3\xce\xd3\xdcn66\xea\xbb[s\xa6\xde=8n&gt;\x82\xb9\xedk[\xbd\x87\xcb\xd3&lt;O\xa4\xc3\xe5\xc2\x04/\xe6H\xcb\'\xcaH\xcezg\xf0\xaccZ;\x1b\xd5\xa38\xc3c\xac\xf8\x07\xf1?\xe2\x0f\xc1o\x88\xf6\x1f\x15\xfe\x18\xf8\xa2\xe6\xdem\x0e\xe9%\xb3\xb8\x8e\\K\x06\xd3\xfe\xb1J\xfa~\xa3\xb5\x7fF\x7f\xf0G/\xf8,\xcd\x97\xed\xa1}7\xec\xd9\xfb@Ie\xa6\xfcL\xd2\xed|\xeb+\x88[d:\xec\x00\x02Y\x14\xe3\x12\x85!\x8a\x8e\x08\xc9\x1d\ruSv\xd0\xe4\x97\xbd\x1fC\xf4*\x8a\xd8\xc8(\xa0\x02\x8a\x00(\xa0\x02\xbc\x0b\xfe\n[\xfb[k\x1f\xb1w\xec\x95\xe2/\x8c\xbe\x15\xd0\xdbP\xd7#\x8c[h\x96\xa22\xc0\xdc\xc9\xf2\xab\x10:\x81\xd7\x1d\xeae.X\xdc\xa8\xaei$\x7f+\x1f\xb6\x97\xc4\xdf\x8a\xbf\x1e?iM&gt;\xe3\xc5Z\x8d\xc7\x88\xbcA}8\xb8\xbf\xf3\xe2&gt;e\xcd\xe4\xaeK\x02\xbdH\x07\xe5\xc7`\x80\x0e\x00\xaf\xb7\x7fc/\xf8#\xe5\xd7\x8e\xf4]?\xe2\x97\xed%\x12\x86c\x88\xb4\x01\x0e\xd5\x89G8\xda:s\x93\xcez\xfb\xd7\xcf\xe6\xd8\xaf\xab\xc6\xcbs\xe9\xb2\x1c\x0f\xd7+^K\xdd&gt;\xb1\xf1\x17\xfc\x13\xeb\xe0\x85\xce\x89o\xa1x3\xc2vv\x8d\t\xf9K(\x1bs\xd8~U\xe0\xfe&gt;\xfd\x83\xb4\xd9\xfcj\xb6\x13\xe8\xdeu\xa8\xba\xc4\x9bFVE\xda?.\x95\xf3\xf4s)Ij\xcf\xad\xc5\xe44\xa3.h\xa3+_\xff\x00\x82uYj\x9e$\x81t\xbd2h\xf4\xdb\x1b\x16\x91VD\xda7\x81\x901\xdf\xa6+K\xc0\xdf\xf0J\xeb}E#\xd5\xae\xb4\xfbt\x8eI\x19[\xe5\xe4\xa1a\x85\xc7a\xeb]\x0f2\xe5Z\xb3\ny\x1ce$\xda=?\xc2\xff\x00\xf0N\xbf\x86\xban\xb33\xb5\xb47S\x15\xe8\xca\x02\x8c\x9f\x98\'\xa1\xf45\xf3?\xed\xc3\xff\x00\x04\xbf\xb0o\t\xea\xda\xdf\x85\xac$\xfbe\x9cE\xe0\x8f\xcb\x08\xe3\xb9G\x1f\xc4\x0ff\xac0\xf9\x84\x9e!6\xf4:1\x9958\xe1Z\x8a\xd4\xfc\xca\xd3"\xd7\xfc%\xac\\\xe8\x97\x11\xc9\x0b\r\xd1\xb2\x92F\x18\x13\x81\x83\xd3\xd3\xde\xbe\x9b\xfd\x96~9\xf8\xcb\xf6|\xf8\xcb\xe1_\x8f~\x12\xbf\x99u\xcd\x06\xf2\xde\xe6\xdf\xed\r\x8c\xb4k\x19hKv\x06&amp;e\xc7C\x90;W\xdb\xd2\x974S?2\x94y$\xd7\x99\xfdg|\x18\xf8\x91\xa6\xfca\xf8M\xe1\xbf\x8aZC)\xb7\xf1\x06\x8do}\x1e\xd6\xc8\x1eda\xb1\xf8\x13\x8a\xe9\xab\xa8\xe6\n(\x00\xa2\x80\n(\x00\xaf\x90\xff\x00\xe0\xb5~\x00\xd7&gt;!\xfe\xc7\x87J\xf0\xfd\xcf\x97p\xbe \xb5\xe0\x0c\x96\x05\xb0@\x1d\xce:}k:\xba\xd3f\xd4?\x8d\x1fS\xf3\x8b\xf6\x18\xff\x00\x82s\xfc;\xd1\xbfi\xadK\xe2\xde\xbd\xa2C2\xc3n\xb6\x9al\x13)u\x8d\xb6\xe6w\xc9\xe4\xc9\xbc\xed\xcf?\xc4+\xf4\x0bB\xf0_\x85\xae\xfc=u\xa4X\xe8\xa61\x16\xf2$D\x00\x83\xc7\xa60z~\x15\xf1x\x8elMw~\x87\xe8\x99lc\x82\xc3\xc5\xae\xac\xf2\xcb\xd1\x1e\x9bt\xd6\xaf#n\xf3\x8a\xa6\xe3\x83\xc1\xe6\xach\x0b\xa5\xcb~\xc2\xf1\x960\xa3r\xb1\\\x86\xe7\xa1\xaf\x0e4\xf9j?S\xea\xaaVS\xa3\xealH\x9e\x17\xd5\xaf\x04\'P\x84a\xbel\x8d\xbc\xe7\x19\xae{\xe2\x06\xb1\xa4\xf8_P\x89\x1bZ\xb7\x9b\x03\xe6\xf2d\xdc\x02\x9e\x84\x8a\xda\xa5;\xc6\xe7=\n\xdc\xb5TY\xd6\xc5\xe1o\tO\xe0\xa8\xfcZ\x9a\xe47\x10\xcc\xb9Xm\xfe\xfe\xfeB\x8ez\x1c\xd77\xe3_\x84wW\x7f\rg\xf1\x8e\xb1\xfb\xc9\x05\xb9\x01%\x01\x98\x85\x1c\x8f\xa63]\x13\xa1\x18\xc6-vF?[\xe7\xe6\x8c\x8f\xc1\xff\x00\xdb#\xe1\xf2xo\xf6\x80\xd65{\x1d\x15\x92\xc2\xf2\xf5\xeeX\xaa\xff\x00\xabe|\xe3\xdb=\xab\x03\xc1\xbe*\xb1\xf8\x87|\xb7\x12\xda8\xb1\xb8\xbe[{\x86V\xda\xb16\xd4\xc6=[*\xc3\xf2\xaf\xb4\xc1\xcf\x9a\x84O\xcbs({&lt;d\xad\xb5\xcf\xea\xaf\xfe\t\x97\xe0\xbdo\xe1\xe7\xec\x11\xf0\xaf\xc1\xbe!\xbb\xf3\xee\xac|#l\x8d!\x04eJ\xe5z\xf3\xf7H\xafv\xafEly\x8fp\xa2\x98\x82\x8a\x00(\xa0\x02\xbc_\xf6\xe7\xb5\xb7\xd4&gt;\x0f-\x8d\xebm\x85\xaf\x96G\x91\xba!U$\x13\xec\rc\x88\x93\x8d\x195\xd8\xe8\xc2\xd9\xe2#~\xe7\xc4?\x03o\xe6\xd0&lt;E\x1e\x91\xa4\xeaQ\xcd\x1c3I\xba`\xbb\xb7\xe79o\xa99$\xfb\xd7\xb6\xe9w\xf7\xfa\x14W\xc9m\xab\xc5\x13jQg\x13\xc7\xbc\xed\x0b\xb4\x85\xcf\xe7\x9a\xf8Zu\x7fy)6~\xa4\xa8\xc5\xe1\xa0\xbc\x8f8\xd5~\x1b\xdc5\xf4Z\x85\xde\xb75\xc23;b\\`1&lt;\x8c\xd5[\x9d7Y\xd2nM\xb5\xa5\xacs3/\xc8\xbb\xf1\xd0u\xae?\xb4\xd9\xeaIG\xd9F\xdd\x8b\xfaU\x8f\x88\xd7m\xdd\xc3\xcc\xab\xb5Kyo\xdf\xae\t&lt;W)\xe2m&amp;}bk\x89\x0candpd\x92`\xbe\xbc\x01\xc7Nj\xb9\xbd\xa4l\x90Q\x8c}\xa2\x93F\xb7\x84f\xd4t\x9bv\xb4\xbf;\xa3\x8e%#\xa9\xc3w\xe7\xbfr\x07\xd2\xba=[\xc5\xf2\xea\x16\x17\xfa^\xab4\xd0\xac6&amp;\x0bv\xdeV93\xc6\xef\xae9\xfa\xd5\xc6\xa3\xe5\xb4\x8cq\x14\xa1\xcdx\x9f\x9f\x7f\xb5g\xec\xbd\xe1\xff\x00\x1a_j\xb77\xd6\x8a\xae7\xb4)o\x18\xcbH\xa7 ~\x03o\xd7&amp;\xbc\xbf\xf6\x17\xfd\x8a\xbc!\xae~\xd2&gt;\x15\xf0\x87\x88\xbc4\xdfe\xba\xf1}\xbc\x97Z[DZ\x19#\xc8`\xc7\x8f\xbd\x8f\xf1\xef_W\x96\xcf\x99/C\xf3\x9c\xe2\x9a\x8dK\xf9\x9f\xd2\xce\x95\xa6\xd9h\xdae\xbe\x91\xa6\xda\xa46\xf6\xb0\xacP\xc3\x1a\xe1QT`\x00;\x00*\xc5{\x87\xce\x85\x14\x00Q@\x05\x14\x00W\x87\xff\x00\xc1D&lt;F\xfe\x0f\xfd\x96\xb5\xff\x00\x13\xa4&amp;O\xb2\xa2\xae\xd5\xeb\x97;G\xf3\xacq\x1f\xc0\x97\xa37\xc3\x7f\xbcG\xd5\x1f\n|\x1cm;\xc3\xee5\x8b\x99\xbe\xcb\r\xbc\x7fhs\xbf+\x86=\xf3\xfe5o\xc4?\xb6?\xc0/\x13\xeb\x12xoG\xf8\x93\r\x8d\xf6\x9f\'\x92\xebq*\xaaH\xd8\xc9!\x8f\x07\xb6k\xe0p\xf4e[\x99y\x9f\xa8\xcb\x19\x1c=8_\xb1\xcf\xf8\xb7\xf6\x9f\xd3-m\xee-t\xbf\x19\xe9z\xa4\xff\x00,P\xc7op\x8d\xb9\x8bc&lt;\x1e\xb8\xfc\xaa\xf4\x7f\xb4\xbe\x8f\x06\xad\xad[\xdf\xc6\xb9\xd2\xb4\x98\xb6\xb30!d \xe7\xa1\xaeZ\xdc\xf4*r\xb3\xd0\xa5\x88\xa7\x88\x8f4^\xc7\x1b\xe3\x7f\xdb\x1bEi\xda)&lt;aego4"p\xabp\x02\x85\xc7\xa1\xae:\x7f\xdb\xef\xf6z\xd0\x19\xbf\xe1"\xf8\xa1\r\xd9\xeb\x9bv\xdf\xce9\xc5tR\xc1\xe2+C\x9a&amp;5s*4\xe4\xa3\xd8\xf6\xff\x00\x81\x9f\x1e~\x10|s\xf0\xcf\xdb~\x1cx\xfa\xce\xfaI#o2\xc6g\x0b2\xf1\xc6T\xf2\x7f\n\xb9\xe2\x0b;\xdd:\xcb\xc8\xd6\xe4\x93q\xc9\x8e\xd63\x84\x07\xfb\xcdYT\xa5R\x8f\xc6iN\xb4q\n\xe7\xce\x9e&gt;\xf1}\x97\x87\xbcta\xf1\x0cK|\xcb+F\xd6\xb2)\xf9a\xdcI\xdb\xee\x06\x0ez\xd7\xa5\xff\x00\xc12\xbc=g\xe2_\xdb\xb3H\x86\xce\x0b\xd9l\xe1V\xbd\xb5\x96&lt;yi\x1aE\x95I2I\x0e\xb9 {c\x93\xc0\x1fO\x93\xcf\x9a)\x9f\x07\x9fG\x96\xa3?b\xa8\xaf\xa4&gt;T(\xa0\x02\x8a\x00(\xa0\x02\xbc\xbf\xf6\xd2\xf0\xe4\x9e+\xfd\x96|o\xa3C\x07\x99#h3&lt;k\xe5\xee\xf9\x94n\x1c}EgWZr^L\xdb\x0e\xed^/\xcd~g\xe4\xff\x00\xc4h\xcf\x8c|\x11\xa3\xe8\xf7\x1e%\x97E\xd25kX\xa7\xd5.\xc4\x9e\\\x91[\xf9{\x88\'\xa7_Q\xc7\xa0\xaf\x8a\xbf\xe0\xa0\xd6\xbf\xf0L\xc8n\x9a\xcf\xe17\xc7mZ\xdb\xc4\x96\xb6#\xce\x87M\xb8\xf3#\x9ep0w\x16\xda\xa1\x8f\xfb5\xf0x7\x88u\x1c)\xae\xb7&gt;\xf7\x15\xecy\x14\xaa\xbfC\xe1\xcd\x03\xe2\x0e\xb5\xe0\x9f\x13\xc3\xe2/\x0fx\xebV\xf3l\xe6\xf3"\xfbT\xc4\xab\x00A\xe9\x9c\x1e\xa2\xbfg&lt;5\xfb/\xf8\xd3\xc6_\xb2\xd6\x95\xf1W\xc3\xbe\'\x8a\xea\xf3\xc4\xfa\r\xbe\xa3,\x9bq\xf2\x98\x8bc\xe9\x93W\x98sh\xe4\xb5:r\x18\xdaS\x82wV\xb9\xf8\xfb\xf1g\xc4\x9e3\x9b\xc6Z\x8e\x8d\xe2_\x17^\xb3X\xddI\x00\xf2\xe6&lt;(b6\x81]\xc7\xec\xb4\x7fb;mX\xb7\xed\x13\xf1+\xc4Zm\xe2\xfc\xd6\xbeE\xd01\xee\xff\x00\xa6\x9bC\x11\xf9t\xae\xfau*\xfb\x1eJK\xa1\xe3\xd6\x84=\xb3\x95Y[S\xee\xef\n|\x05\xfd\x9e|I\xe0\x9b_\x8a_\xb2\x1f\xc6\xc6\x9f\xc4\x1aL\x8a\xebgk\xab!\xf3\x00\x1b\xb0\xc3\x87\x1fB+\xe8\x8f\x03|c\xf1W\xc4\xcf\x05Es\xa9Z:j"=\xb7\x91\xe7$\xb0\xe0\xb0\xff\x00\xf5\xd7\x87\x88\x95iE\xfbM\xcf\xa3\xc1\xaaQ\x8a\xf6R\xba&lt;o\xf6\xa9\xb9\xbc\xd0\xb5=\x1f\xc4\xd7z\xb2\xc1$\x92\xedi\xb6q\xb8\xae0x\xe0c\xd75\xed\x9f\xf0I\xbf\x88z\xe7\xc3\xdf\xda^\xe3\xe3\xc7\xc4].\xc7J\xf0\x9f\xf6,z]\xd6\xa9yq\xe4\xaf\xdae*\x91\xf9@\x8cH\xc4\xae;u#\xaf\x15\xede5\xe3\x85\xc2\xaa\x93\xda\xf6&lt;,\xd3\x03[\x1d\x8ct\xa9\xefk\x9f\xb2\xd0\xcd\x1d\xc4+&lt;M\xb9]C+z\x83N\xaf\xb0&gt;\x14(\xa0\x02\x8a\x00(\xa0\x02\xb2|}\x1aM\xe0]j\x19T2\xb6\x93p\x18\x1e\xff\x00\xbajR\xf8J\x8f\xc4\x8f\xc9_\x1c~\xcc\x8f\xf1\xc7\xe1\x86\x8f\xe1-wR\x9a\xc2\xcf\xc9\x92\x1dR\xea\xcd\xbe\xe4jYz\x93\xcfN\x9c}k\xf3\x1b\xf6\x99\xff\x00\x82s|\x14\xf8u\xf1N\x14\xbe\xd4\xae\xdf\xec\xb3\x10\xad\xa4\xdd\xc3:j 1*\xc46\x1e7=\x08\xda\xd8\xc7\x19\x185\xf0T1\x12\xc2\xd4\x93[\xb3\xf4j\xd8E\x8c\x84S\xdbC\xa5\xf0\xff\x00\xfc\x13\x97\xc1\xff\x00\xb4}\xe5\xac\x9a\'\x82um\x12\xe16\xac\xb7\x02\xed~\xce\x91\x0e\xad"\x98\xc6\x0e;\x03_\xb0\xff\x00\x0e~\x1f\xe8_\x0c~\x18\xd9\xfc9\x80\xff\x00\xc4\xa7\xc3\xfe\x18\x8a\xd6\xd5Ps*\xa4!\x07\xea\xd9\xfc+\x1a\xf5e\x8aj\xfd\xcfs\x01\x85\x8e\x1aM\xc7\xb5\x8f\xcdO\x8c\xdf\xf0O\xff\x00\x84z\xc5\xc6\xa5\xaex\x93\xc2\xd7\x8d\x1b_Mr\xf7\xdaIX\xe4\x91\x98\xb1\t&amp;Fv)\xc6v\xe0\xd7\xca&gt;2\xfd\x84\xbe\x14\xb7\x8c-\xf5;\xfb/\x10\xda\x8by\x15~\xcdfm\xe7\x86\xe7\x07\x8f\xde9]\x80\x81\xe8\xc6\xba08\xcfc-O+4\xcbi\xd6M5\xd4\xfa\xeb\xf6A\xff\x00\x82H\xfc2\xf1\x1e\x9du\xf1J/\x8az\xbf\x80\xf5\xa8Y_G\xb7\xd3o\x92g\xb8=\xbc\xe5\xe1v\x9e\x9bG&lt;\xf5\xaf\xa6\xbe\x14~\xcd\xbe!\xf8k\xa3^I\xae\xea\xf3]4r4\xb1\xcf4[w)\x1c\x85\xc3t\r\xeb\x9a\xe5\xc6TU\xaf#l\xbf\x0f\x1a\tF\'\x8e\xfe\xd7\x1e\x1d\xb7\xf1\x7f\x8c|;\xf0\xaeB\xdf\xe9R}\xa6\xe1\xca\xfd\xc8W\xa9$~9\xef^\xc1e\xf0{\xc4\xbf\x10\xfe\x08\xcc\xb0]i\xaf\xe1\xdd0[\x9b;\x18\xf8\xb8\x8e\xe2\x1b\x84`\xec=\xc79\xeb\x9c\xd4\xd6\x8dI\xe0\xe3\x05\xb2\xbb\x7f\xa1\xb6\x06J\x19\xb3\x9c\xba\xd9/\xd4\xfd|\xf8}&lt;\xd7&gt;\x05\xd1\xee.\x07\xef\x1fM\x80\xb7\xd7`\xad\x8a\xfd\x16\x9b\xe6\xa7\x17\xe4\x8f\xca+G\x96\xb4\x97f\xff\x000\xa2\xac\xcc(\xa0\x02\x8a\x00+\x17\xe2=\xd8\xb1\xf8\x7f\xad\xdd\xb1\xc0\x8fI\xb89\xf4\xfd\xd9\xa9\xa8\xedM\xbf#J+\x9a\xacW\x9a?7\xff\x00f\x7f\x1f\xe8\x9a\xcf\xc2\x8b-#X1\xcd\x1e\xa7%\xf3\\(\xc81F\xf72\x95S\x9f\xe2\xdb\x8e\x9d)\xd7_\xb2O\xc1\xab]v\xe3P\xd2&lt;\'\xf6\x8b\x86\x89]\xaf.\xdc9@I\xe8H\xfd+\xf3:\x95.\xee\x8f\xd7\xa9P\xf7\x9aGI\xa1x\x03\xc1\xd6\xda\x96\x9f\xf0\xe7\xc3\xbaM\xad\x9d\xb6\xf3s\xabN\x98\x0e\xe1y%\x8f\xe1\xc0\xab\xd0\xf8\xf3E\xf1\x0f\x88.\xb4\xc9\xac\xfe\xcfostm!\x92G\x1c\xc6P\x858\xcf\x1f2\x8f\xce\xba([\x953\xae\x94e)\xb4\xba\x1e;\xa9\xad\x86\x9b\xe2\xdb\x9f\x07j:+\xc13\x8f3\xcb\xbaQ\xb1\xd7&lt;\xb2\xfa\x8a\xcd\xd6\xff\x00f\x1f\x85W\x96S(\xd2\xfe[\xbf\x9aKn\xe8O\\7`+\x96Q\xe4\xb8\xeaE\xcbC\xa1\xf8\x1b\xf0w\xe0\xa7\xc3yb\xbd\xfbE\xe3M\x1b\x96\xb7[\x8b\xe2\xd1\x8c\x03\xc6=+\xa7\xf1\xc7\xc5\x8bO\x12\xda\xa8\xd2\xa0XV,\x89\x17vws\xf4&lt;T\xf3{\xa6j\x9f.\xac\xf0O\x846\xbe\x1b\xf8\x99\xfbS\xeb\x90\xf8\xae\x16\x86\xde\xcfI\x16\x8bx\xa8\x1b\xc8\x9aL\xed8&lt;\x1f\\qW|\x05\xfbF\xfe\xcf\x1e\x0b\xfd\xa3\xfc?\xf0Z/\x89Vs\xcd\xaa\\Mey\x1c*v;3\x85Uo\x9b\x01\x8bp\x07RI\xec+\xd6\xc2Sx\x8a5)\xff\x00t\xf0q\x18\x8f\xaa\xd5\xa7U\xff\x003?e&lt;?e\x16\x9d\xa1Y\xd8@\xbbR\x1bTE_@\x14U\xca\xfb\xa8G\x96)\x1f\x9a\xd4\x975G.\xec(\xaa$(\xa0\x02\x8a\x00*\x8f\x89\xeda\xbd\xf0\xe5\xf5\xa5\xc2\x06I-$VV\x1c\x1f\x94\xd4T\xfe\x1b\xf44\xa4\xedV/\xcd\x1f\x94?\x17#\xd6\xbe\x18\xf8\xe6H,\xbc/o\xa0\xe9\xb2j\r\xfd\x9b\r\xbc\xe2A.[,\xc4\x0cl\x04\xf4\x04Ws\xe1\xdf\x8b:\x83\xf8~k\xb9\xaf\xe3\x8eX!,\xe1\xc7A\xd0W\xe5R\xbf3L\xfd\xa2\x8cy\xe3t|\x85\xfbk~\xdf\x7f\x18\x7ff}+N\xf1\x0f\x84\xfe\x1d\xdfjV:\xc6\xac\xd1\xea\x9a\xad\x9c.~\xce\xab\x84T8\x07\x86\xdc\xdcw\xe7\xb8\xaf\x90\xfe!\xff\x00\xc1b\xfe3xC\xc5I\xaai:\x07\xd9\xfe\xcf*\xc8\xb6\xb3\xa9\xdc\xfd\xf0\x01\xe7\x9fS\xd2\xbd\xcc.\x17\xdaS\x83\xf3&lt;\xacnk\x1c\x05G\x0f#\xe9O\x80\x7f\xf0TA\xfb~x\x0e\xdfO\xd7&gt;\x1cI\xa0\xf8\xd3\xc2\xf2}\xa2\xd6\xf2\x00^;\x8b|~\xf5X\xe3\xe8\xd5\xf4g\x81~4Xk\xde\x1d\x8fQ\x1c\xcap\xb79\x93\x9d\xd5\xc3\x8c\xa7\xec\xa5$z\x99n"8\xbc:\xa9\xdcn\xa9\xf1\x03@\xbb\xb7k\xbbi\xbc\xb9\xf2U6\xa9;\x8f\xa5gZ[\xea\x17\xb0\xb4v\x92:\xc73\xef\x91\x9b\x90\xa79+\xc5p\xd3m\xc4\xe9\xafh\xe8y\'\xc5O\x8c\x91\xfc(\xf1\x14\xde\x04\xf8t\xaa\xde \xf1%\xd9\x92\xfa\xfeY6\xc7\x13*\x85\xdcY\x88\x0b\x80x\x04\x8ex\xae\x83\xfe\tG\xfb\x03\xe9\x9f\x1f\xbfl\xed?\xf6\x91\xf1N\x92\x9a\xd5\x9f\x87\xfcI)\xd2u\'a\xe5\x03l\x8a&amp;\x98\x00p\xed\xe7\x12\x80\xf20\x99\x15\xf4ym\xe9\xe2\x12\xfek#\xe3\xf3NYad\x9f\xd8\xbb\xfc\x0f\xdd\xa0\x00\x18\x02\x8a\xfbS\xf3\xb0\xa2\x80\n(\x00\xa2\x80\nl\x91\xa4\xb1\xb4R.\xe5e\xc3)\xee(\x03\xf3\xe7\xfe\n\x8b\xfb6\xf8{\xe1\x18\xb3\xf8\xd9\xe0\x91z\xc9\xaaj\x0b\x0e\xa5i&lt;\xc6Haa\xb8\xabF\x0f\xdc\xce\xe6\xc8\xfaW\x85xz9\xfcY\xa0Z\xe9\x96m\x1crjRbi]\xbe\xe4I\xd5\xbf\xc3\xde\xbf?\xcd\xb0\xb1\xa3\x98J0\xebc\xf4\xec\x930\xa9[/U&amp;\xf5\xd5}\xc5\xff\x00\x89\xd2\xf8WB\xf0\xea\xe8\xfaL0\xdf\xc3kj\xd1\xd8\xc2\x90\td\x91\xd7\x9c\x94\xc19-\xed\xc5~[|2\xfd\x91~-\xfcf\xfd\xa7&lt;Y\xf1;\xe3/\xc2\xcdR\xdbM\xb5\xd5\xa1\xbb\xb77\x96%\xbc\xe4\x12\x9f\xdd\xe3\xa0\x05q\xcf\xa7\x15\xedacF\x95\x18\xc1\xefc\xcc\xc5F\xb6+\x10\xa6\xd6\x97?K\xfe\x18xk\xf6u\xd2\xb4(\xd7\xc3\xfe\x07\xd2t;\x8b\x88D\x17O\xa7\xd8\xac;\xb2\xbc\xe4\x01\xfa\xd7\x9a\xeb\x1f\x0f5_\x86~61\xf8~\xe5\xa6\xd2\xf5B\xcff\xa5}\x0f)\xf5\xaf#4\xa3\x1b9D\xfa&lt;\x0e"\x9cZ\xa6\xba\x1a\xb6Z}\x93X\xfd\xa9\xe5\x11\xae[\xccl\x8c\xa8\x07\x04\xfdEbx\xc7\xe3\xa7\x87\xbe\x1bxb{\xef\x13^\xb6\xe5-\x14\x16\xfeY\xf3.&amp;&lt;$q\x81\xf7\x98\x9a\xf3\xb0t]I/#\xa7\x1d\x88\x8d8\xa6\x99\xcc\xfe\xca\x1f\r~6|S\xfd\xa0\xbf\xe1\x0c\x1e\x1b\xd0/\x0f\x8c\xac\x16-B\xdf\xc4\xb0\xee]2\r\xf9;I\xe4\xc9\xc8\xdc\x00\xeaq\xc6\x00\xaf\xd9\x7f\xd8\x9b\xf6*\xf8s\xfb\x13|,\x87\xe1\xcf\x81o./\x18\xbc\x92\xdc]\xdd7W\x91\xcc\x8e\x14\x0f\xba\xa5\xd8\x9f\xa6=+\xec2\xbc\x1c}\xa3\xae\xfd\x11\xf9\xe6u\x8c\x92\x8f\xd5\xd7\xab=\x9e\x8a\xf7\x8f\x9b\n(\x00\xa2\x80\n(\x00\xa2\x80&lt;\x17\xfe\nA\xf0\xda\xff\x00\xe2O\xec\xbb\xac[iq4\x97\x1at\x89v\xaa\xb8\xe4)\xc1\xeb\xe8\r~U\xfcx\xf8\xda?f\xcf\xd9\x99\xbcZ\x1a\xeb\xed\xb2Z\xf9\x16\xfeZ\x16(I\xe9\x9f^\x83\xeb_\'\x9c\xd3\xb6a\t\xf7G\xd7\xe4u\xa5\xfd\x9f(.\x92\xfc\xcf\x88\xbfh\x0f\xdb\xf7\xf6\xee\xb4\xf8w\x05\xaf\xc2o\x82^?\xf0\xe5\x9c\xf6\xa9&amp;\xab\xe2I|;3\\J\xb8\xceVM\x87\xca\x8f\x1d\xf8\'\xd6\xbe~?\xf0T\xaf\xda\xfdt\x984%\xf8\xe7\xae!\x89\x86\xe6\xfb.&amp;\x95\x87f=[\xf1\xad#\x87\x8c\xfd\xe4\xf5=\x0f\xaeb0\xbe\xeb\x85\xef\xb1\xea\xdf\x0c?\xe0\xb0~#\xd5t\xe6\xf0\xf7\xc7\xcf\x0c\\Mx\xb0\xec\xb3\xf1\x05\x95\xbbA6@\xe8\xea\x06\x1b\xea9\xaf\xb7\x7ff\x8f\xda\x9f\xe1\xaf\xc6O\x84\x8b\xe2o\x10\xf8\xdfL\xb7\x8fG\xc4\xf2_jW+\x1a\xa4j\x0e\xe2\xce\xf8\xe9\xeb\xf8Vx\xac,\xbd\x9f*\xd5\xb1\xd1\xc6^\xb7;V\xb6\xe7\x11\xe2\xaf\xdb\x8b\xf6}\xf8\x99\xad^xO\xe0\xe6\xb7u\xafj\x8a\x0b@,\xedJ\xc38\xc7?3\x0eTw8\xe9T&lt;7\xa0\xeb2k\xf6\xfe6\xf8\x93r\x97\x9a\xa5\xbec\xd1\xec\x9b\xfdM\x80\xc7-\x1a\x9f\xbc\xdf\xed\x1e\xf5\xc8\xe8&lt;\x1d7\xcd\xa3\xb1\xa4qQ\xcc*\'\x07us\xb1\xf8\xa3\xe3\xdf\x1exW\xe2/\x83|9\xf0\xb6\xe6\x7f\xed\xddV\xf3I\xb0\xb7{pw\x9b\x8b\xbb\xb5\x1d\xb9\xc6\x01$\xfa\x03_\xd06\x95\x15\xc4\x1a]\xb47g2\xa5\xba,\x87\xfd\xa0\xa3?\xad}&gt;W\xae\x06\x0f\xb9\xf2Y\xdb__\x92]\x0b\x14W\xa0y\x01E\x00\x14P\x01E\x00\x14P\x05\x1f\x13\xe9\x16\xda\xff\x00\x87/\xb4K\xb8\x95\xe3\xba\xb4\x92&amp;V\x1cr\xa4W\xe2\xcf\xc7\xdf\x0c\xe9P\xf8\xe5&lt;-\xe2\x89\xa3m/M\xd7\x19d\xb0\x92\x10\xf1\xce\x15\xb3\x96\xcf\xd0\x8f\xff\x00U|\xee\x7f\x1b\xfb6\xbc\xff\x00C\xea8u\xde5"\xfc\xbfS\x8d\xf8\xfb\xff\x00\x05+\xd3\xff\x00f]6\xf6\x0b\x9f\rO\xacx\x7fr\xa2\xa5\xba\xa9{P\xc0\r\xb8=S5\xf3\xec?\xf0Z/\xd9"\xc6y/\xad\xbfg\xfb9.\xa6\x93w\xda\x1bA\xb72.}\xca\xf5\xae\x1c\x1f\xb4\xa9N\xf7&gt;\xe2\x19\xd6]\x81\xa4\xa9\xd4^\xf5\x8d\xab/\xdb\xdf\xc2?\xb4e\xb7\x9a~\x1fi:\x0e\x8e\xa1\x82Iq\xa5\xc4\xf7S\x7f\xbav\xe1\x07\xd3\x9a\xf9\x8b\xf6\xc0\xf8Okq\xe1\xe5\xf0o\xc1\x11p\xf7\x1e,\xd6c\x9a;1\x1e\xd8I\\\xe6&gt;\xf8\xcb`\xf4\x1c\xd3\xc3\xd7\x94qV\x99\xe2\xe6\xb3\x8e+\t*\xb4\xff\x00\xab\x9d?\xfc\x12\xf3\xf6e\xd4\xbc=\xe2k\xaf\x89_\x18K[^\xe9\xb1\xcbmc\xa6\xb6w\'%di\x0f\xd0\x10\x07\xa5}\x17c\xaej\x1f\x11\xbe/\xda\xd9iq7\xd8\xfc\xe2\x90\xc9\xb4\xe0D\xbc\x9c\x0f\xe5YfX\x85Z\xb3\xb7\xa1\x86K\x85xz1O\xae\xa7\xd2\x7f\xf0N\x0f\xd9\x9b_\xf8\xeb\xff\x00\x05h\x8f\xc5\x1a\xcc\x12I\xe1\x8f\x84~\x1d\xb7\xd5\xee\x99\x971\xb6\xa9,m\x1d\xac~\x9b\x82\xb4\x92`\xf3\x81\x9a\xfd\xa6\xaf\xa6\xcbc\xcb\x81\x82\xf2&gt;G6\x976aS\xd4(\xae\xe3\xce\n(\x00\xa2\x80\n(\x00\xa2\x80\x19pq\x04\x87\xfd\x83\xfc\xab\xf1\x87\xf6\x97\xd7\xb4\xa3\xf1oX\xd2uk8\xdb\xcc\xd5\xa6X\xe6\x94|\xa9\xfb\xc6\xf9\xbd\xc0\xc8\xaf\x03&lt;\x7f\xc2\xf5\x7f\xa1\xf4\xdc;\xfc:\xde\x91\xfc\xd9\xe0_\x15\x7fe\xaf\x0c|q\xb4\xbc\xd3\xb5\x8dm\xa4\xb3Ua4q\xed-#c \x80:\x0e}k\xe6\xed/\xfe\t\xa3\xf0z/\x11\xcf7\xdb\xb5\t\xa3\xb5\xcb*\xcf\x8f/#\xabq\xda\xbc\xe5)S\xd2\'\xb1\xf5j\x18\xabU\x92\xd4\xf5_\n~\xc8\x1e\x10\xb6\xb7\x8e].\xfa\xde\xe1mB\xb1E9\x00\xfd\x1b \x1f\xc8W3\xf1/N\xf0\xef\x855\xfd&gt;\xf6\xd7W\x10\xdei\xad\xbb\xce\x80\xa9\x01\xb7g\x9cw\xcf\x19\x1c\x8c\xd61\x8c\xa5.fk\x8a\x97-\x15\x1e\x85\xff\x00\x83\xde7\xbc\xf1\x16\x9fv\xd7\x97\x85\x7f\xb4.\x1ak\xa9\xb6\xfc\xed\xfcX\xe7\x9c\xf6\'5\xe9?\x0f|M\xe1\xff\x00\x0ex\xa2\x1f\x13Cf\xd7\xcb\x1b,\x16:u\x84&gt;d\xd30\xeb\x8f\xee\xfdOJ\xe4\xad\xfcK\x9d\xf8\x07\xcd\x0b\xf6\xb1\xfaG\xff\x00\x04(\xf8\xbb\xe0=KD\xf8\x8d\xf0\xb3^\xb6\xb5\xd3\xfe$\xc9\xe2\xa9\xb5\x9dr\xcd\x08g\x92\xc1\xb6\xc5j\xa1\xc0\xf9\xc41\xa8B;\x13\x9e\xe6\xbfAk\xeep\x96XX%\xd9\x1f\x9c\xe67\xfa\xf5K\xff\x003\n+\xa0\xe3\n(\x00\xa2\x80\n(\x01\x1d\xd24i$`\xaa\xa3,\xccx\x03\xd6\xb9K_\x8e\xdf\x075-RM\x13F\xf8\x95\xa3j\x17\x90\xb6\xd9\xadt\xedA.$F\xf4"2p~\xbd(Z\x81\xcc\xea\xbf\xb5\x9f\xc2\x93\xe0\xbdc\xc5\x1a\x06\xa3%\xf7\xf6Tw\x06\xe2\xda(\xff\x00x\xbeQ!\xc9^\xb8\x18?\\W\xe3_\xed;\xaeZx\x93\xc6\x97\xfa\xbc\x0c\xb3C=\xcc\x97P\xb8P\xc1\x95\xdb?\xa8\xfeU\xf3\xfcE\x19ES\xf9\x9fS\xc2\xb3\x85XVk\xc9\x1f\x18~\xd5\x1f\xb4\xbf\xc7\x0f\x82\xfa|v\xbe\x15\xd6d[Y\xe3\xc5\xad\xd2F\x00\x0b\x93\x90\xca\x07\xdf\x1c\x02Nr\x06+\xe6\x86\xfd\xb3\xfe8\xdc\xb3}\xa7\xc5\xd3\xb8\x98\xff\x00\xa4F\xa7n\xf1\xf8p?\x01\\\xb8x\xfbJi\x8f\x15\x8a\xa9\x85\xab\xc8\x8e\x9b\xc2\x9f\xb7\xc7\xc5\x1f\x0c\xdc}\xa6\xdao\x98\x93\xc0PW\xa7ua\x8a\xea\xbc\r\xe3\xdf\x12\xfcW\xb7\xbc\xd7\xbcI\xadl\x8d\x89\x92HYUB\x8e\xa4|\xb8\xeb\x8e\x95U\xa9\xa8B\xe4\xd3\xc5K\x13%\x13\xd6\xb4\xef\x04Z\xf8\xff\x00\xc0Zn\x99\xa0\xdcjv\xf7\x7fn\n\xf2X\xc8c\x8cFG\xcd\xbc\xff\x00\x9c\xe6\xbe\x9d\xf8C\xe0\xad\'\xe1\xb7\x87\x1a;K\x0c5\xb5\xaeZV\x04\xb1\x90\xe7\x9c\xff\x00\xf5\xf1^\x1dIs\x1fe\x97a\xfd\x8d\x17Q\xf9#\xa8\xfd\x9bt\xef\xda\xb3\xe1\xa7\xed\xbb\xf0\xe7\xe3\xf7\xec\xe5\xe1\x8b\x1dr\xce\xeaai\xe3\xdb\x19n\xbc\x89b\xb3n%\x9b$\xe0\xa6\xd3\x8d\xa7\x9c\xa8\xf5\xaf\xdc_\x0e\xf8\xeb\xc3\x9e#\xb4\x8ak]J\x15\x9aE\xcb[4\xc3z\x9cr1\xdf\x15\xf7Ym:\x92\xc0\xc6V?7\xcf%F\x8ei8_w\x7f\xbc\xd8VV\x1b\x94\xe4{Q]G\x9a\x14P\x01E\x006i\xa2\xb7\x89\xa7\x9eEH\xd1K;\xb3`(\x1dI&gt;\x95\xf9\xef\xfbg\xff\x00\xc1\xc8\xdf\xb0\x9f\xec\xb7\xf1\x1aO\x81\xff\x00\x0e\x86\xa9\xf1G\xc6\xc9q\xf6y4\xcf\t\x94\xfb%\xbc\xdb\xb1\xb6[\xa7;\x06;\xec\x0eF:P\x07\xe57\xfc\x15k\xfe\x0e\x1a\xfd\xa7\xbfl]Jo\x82\xbf\nK\xfc;\xf0\\+\xe4\xea\x9a~\x87\xaa4\x97:\x9c\x9cn\x12\xdc\x85Bc\x1d\x02(Pz\x9c\xf1\x8f\x89\xbe\x12\xfe\xd0\x7f\x1e&gt;\x0cx\xf6\xd7\xc6\xff\x00\t\xbe(kZ6\xab\x03\x89\x05\xc5\x9d\xf3.\xf29\xc3\x8c\xe1\x81\xee\x0fQN2\xe5w"R\xe6\x8d\x8f\xda\xef\xf8#\xef\xedQm\xfb]xk\xc6?\x19\xef\x84p\xcf\xa8Y\x1b_\x16i0\xb7\xcb\x05\xf0B\xb2\xba/d\x91N\xf0=\xc8\xe4\x8c\xd7\x8c\xfe\xd2\x1a,\x9e\x06\xd7\xae\xbc;&lt;,\xcb\x1a\x93c,k\xf2\xcbn8FS\xdc\x05\xc0\xecG5\xc1\xc4x\x7fk\x85\x8dHt=^\x0c\xc4\xc7\r\x8f\xa9BO}\x8f\x8d\x7fj-f\xcf\xc4\x1e\x0f\x9e\xc2\xea\xd2?1dl\xbbr}3\x8fZ\xf8\xc7U\xf0\x96\xad\xa7\xa1\xd4\xbe\xc5!\xb6g!f\xda6\xfd3\xda\xbe{\x01S\xf7Vg\xd2gXx\xca\xbd\xd23\xc6\xcd\xe1\xe4\x047\xfb\xbf\xd2\xbd\xd7\xf6T\xbe\xd0\xaf\xef\x8e\x83\xaf\r\xeft\xc2(\x95\xdb\xe5f#\x0b\xc7\xd7\x15\xbe*W\xa6\xd2&lt;\xdc\xba\x9c\x9e*(\xfd\x10\xf8U\xe0M;\xe17\x82#\xd1Ya\xb9\x92\xfe`\xd21\x8ca2G\xca\x0f\xa7\xa9\xef\xda\xbbXf\xb7\xba\xd3]\x1ddV\x86/\x965]\xdb\xb1\xce0\x0f$\xf4\x0b\x8c\xf4\xaf\x06\x84T\xaa+\xf5\xd3\xe6~\x95O\xd9\xd3\xc2\xc9\xbe\x8a\xef\xe4}\x95\xfb\x0c\xfc&amp;\xd4~\x1cx\x0eMG\xc50\xed\xf1\x0e\xb0\xc2\xe7T\x8b\xfe|\xd0\xf3\r\xa7\xfb\xc8\x84o=\xdc\xb7`\x00\xf8\xb7\xfe\n\x89\xff\x00\x05\xa3\xf1\x07\xc0\x7f\x88\xda\xb7\xc0\x7f\xd8\xcb\xc56sx\xa2\x19&lt;\xaf\x10x\xc1\xa3[\x98\xb4\x8f[k`r\x86l\xfd\xe7 \x85&lt;rs\x8f\xd6\xb0\xb4\xe1\x83\xcb\xe3\x1e\xe8\xfey\xc7\xd6\x9ei\x9b\xce\xa5\xf4\xbe\x9e\x9d\x0f\x85t\x1f\xf8-\x8f\xfc\x14\xbf\xe0\xc7\x8a\xa1\xf1V\x8d\xfbe\xf8\xc2\xfbR\x96ef\xb3\xd5.\xa3\xb9\xb4s\xd0+\xc1"\x14)\xfe\xc8\x00W\xebg\xfc\x12\x83\xfe\x0ei\xf0\'\xed-\xaeX\xfc\x04\xfd\xb94}/\xc1~4\xb8d\x83M\xf1V\x9c\xc54\x9dVRp\x16DrM\xac\x87\x8e\xacQ\x8epW\x85\xaf1\xae\xa7\xaf\x1d\xac~\x93|a\xfd\xac?f\x7f\xd9\xff\x00O]S\xe3O\xc7_\x0b\xf8n\x19\x001\xff\x00jk\x11F\xcc\x08\xc8!s\xb8\x82;\xe3\x15\xc4\xfc5\xff\x00\x82\xa0\x7f\xc1=\xfe/x\x8e?\x08\xfc;\xfd\xaf\xbc\x0b\xa9jS6\xd8m\x13\\\x8d\x19\xce3\x81\xbc\x80\x7f:C=\xda\x19\xa2\xb8\x89g\xb7\x95d\x8d\xd42:6C\x03\xd0\x83\xdcQ@\x1f\xc9O\xc7\xcf\xf8/\xc7\xfc\x14\xfb\xe3\xe7\xc1{\xaf\xd9\xf3\xc6\x1f\xb4e\xd2\xf8~\xea#\x15\xf5\xd5\x8e\x9f\x05\xae\xa1{\x0f\xf7%\xb9\x85U\xca\x9e\xe0\x11\x9e\xf9\xaf\x98\x7fg\x9dB=\x17\xc4\x17\x1e2\x99\xb7Ico$\x90\xb37&amp;B\x08\x07&gt;\xa39\xa0\x9ec\x08^\xcd\xa9x\x8aK\x99e\xdc\xce\xe5\x8b\x13\xef]w\x84c\xfbF\xbb\x19\x94\xed\t\x0b\xb3{\xe0\x1akrO\xa1\xff\x00\xe0\x90?\xb7\x14\xff\x00\xb17\xed\x14\xba\xae\xbfx\xe7\xc1\xfe,\xdd\xa6\xf8\xaa\x1f\xe1\x85Y\xbeK\x9c\x7f\xb0O?\xec\x93_\xa7\x1f\xb4o\x87\xbc9\xe2\xbb\x0b\x89\xe1\x91/\xb4\xbb\xc5\x13\xd8\xdc[\xba\x92\xa1\x94\x15x\xdb\xd0\x82\x0f\xa1\xae\x95\x18\xd6\xc1\xbar&lt;\xca\xd5+`\xf1\xb1\xafL\xfc\xc7\xfd\xae\xbc5\xe2\x8f\x04]M\xe7E\xe6\xd9\xb0e\x8e\xea5\xe0\xe4\xff\x00\x1a\xff\x00\t\xf7\xe9_-\xdb\xf8\xcfT\xb2\x82\xe3I\xb9\x91\xa4\xb7\x9b\x8d\xack\xe4^\t\xe1\xea4~\x81\xfd\xa5\x1cv\x1e3\x8e\xf6\xd7\xd4\xcd\xfbDG\xf8\x7f\xef\xaa\xef\xbe\x00\x0b\x9dS\xe2V\x93\x15\xa4\x1b\x8d\xbd\xc2\xc9\xb3v\xd5\xeb\x9eN\x0f\x15\x8dh\xb8\xc6M\x86\x07\xda{d\xd6\xf7G\xe9\xc7\x85d\x8b\xc4\x97\xb6:U\x8d\xef\xda\xae\x95\x164\x8e8\xce\x15\xc1\x1c\x05\x1f{\xfd\xec\x8f\xc2\xbe\x83\xf89\xe1\x05\xf0\xce\xb7\x15\xdd\xea[\xde\xeb\xbb\x87\xd94\xd8\xe1\x1eU\x91\xce&lt;\xd9Hb\x0b\x8e\xca\x06A\xe4\xfaUp\xfeW,N25\'\xf0GS\xdb\xe2\xec\xf2\x8e_\x94\xbc=7\xfb\xc9h\xfd\x1e\xe7\x9c\x7f\xc1Z\xff\x00\xe0\xa9\x13\xfe\xca\x1f\x0e\x7f\xe1\x93\x7fg\xaf\x11\xad\xcf\xc4O\x12[\x91\xe2\x1dj9rt[y\x17\xe6\xc7\\N\xd98\xfe\xe89\xe3\x8a\xfcq\xb9\x9ci\xc9,\xd3\xea\x13Iq3\xb3M&lt;\x8cX\xc8\xd9\xe5\x98\xf7\xcf^k\xed\xf1\xb5=\xa4\xb9c\xb2?\'\xcbh\xfb:|\xcc\xc3\xb7\x82+\xfb\x9f\xf8Iu\xd6\xf2\xe3\x85\x8f\x96\xa7\xfeZ\x1fQ[\x11kV\x1a&lt;k\xe2\xbdJ\xdfl\x9b\xbf\xd0\xe1_\x99\x9c\xf6`?\xbd\xf8`u9\xe9\\\x8fS\xd0\x8f\xbaE\xe2\x7f\x1c|B\xf8\x95\x1b\xeb&gt;8\xf15\xdc\xee\xe5c\xb7\x92{\xe6\xb8\x99q\xf7T\xbb\x13\xc6\x07Je\xef\x85\xf5\xcd\x0e\xc2\xcex\xef\x8d\xed\xd4\x9b\x98\xc0\x97&gt;[B\xc3\x90\xc4\xf3\x8c\xff\x00J#\'\xcb`|\xdb\x9f\xa0\xbf\xf0J\xdf\xf88\x8b\xf6\xaf\xfd\x81&lt;/}\xf0\x9b\xe3\x17\x82\xdb\xe2G\x82\xd6\xd7&gt;\x1f\xb3\xb9\xf1\x01\x17\x9a]\xc6\xf5\xc8Y\xa5\x0cZ\x16]\xdf!\x1c0\\\x102(\xa9\x92\xe5\x95\x8d\x16\xa8\xfc\xde\xb4\xd3\xd0\xdfC\x02\x9f\xbf\xc7\xe7\xc5i\xfc&gt;\x02\xca\xc2\xf6\xdc\xf2\x15$\r\x8e\xf8\xe9IlfbX6\xddEX\xff\x00\xcfJ\xee|$\xfeN\xa53\xa7\xfc\xfb\xb0\xfc\xc5 1&lt;8\xaa\xd2_[F0\xd1\xccH\xcfC\xed_c~\xc1\x7f\xf0P\x8f\x16\xf8\x1bR\xd3\xff\x00f\x7f\x8aV\x97:\xee\x83\xa8L\x96\xfa\x15\xda0k\x8d9\xdb\xa4gy\x01\xe1\xf6\xceW\xb7\xa5mFV\x91\x8dzj\xa53\xdd?k\xcf\x87\xbae\xde\x85qq*\xa3\x07\x8f\xe6\x0c\xbdy\xaf\xcf\xdf\x16\xfc\x17\xb5\xbe\xd5d\x8fB\xbb\x8e\xdeO\x99\xd4H\xa7i\xff\x00\x03X\xe2\xa9*\x9a\x93\x97W\x96\x1fDy\x85\xef\x99m\xac\x9d!\x91|\xd5\x97\xcbb\x0eWv@\xeb\xc1\xc7\xe1_u\xfe\xcc\xbf\xb0\xf4\x1f\x0c|\x13a\xf1\x97\xe27\x8a#\x9e=R5{K\x1d\x1e"\xcf\xb4\xf6y%\x0b\xb7\xf0S\xf5\xaf.8\x1fl\xec\xde\x87\xd1K:\xfa\x8c}\xa4cv\x8f\xae\xbe\t\xe8SjF;o\x0b\xad\xbe\x8dk$\x7f4\x96\xeaZ\xe2E\xcf\xf1Hpy\xf4\x07\x15_\xf6\xf0\xfd\xae\xa1\xff\x00\x82\x7f|3\xb3\xb1\xf8}\xa0Ou\xe2\xcf\x13C"\xe9\xba\x9c\xdbZ\x0bN0\xd2\xbeN\xe6q\xd8\x01\x8e\xfcW\xd2ah\xd3\xc2a\xf9 \xb7&gt;?\x15\x8d\xad\x9cb\xbd\xb5W\xad\xcf\xc8\x9dg\xc6\xbe#\xf1\xa7\x8bu\x1f\x88~0\xd5\xee5\r[T\xbc\x95\xee/.$,\xee\xc5\x8e\xf6bz\x92\xd9\xfc+\x91\xd6\xb5\xcb\xbdN\xf5\xa2C\xb2?3f\xdf\xeb\\R\x93\xe6=H\xc5F)#z=:\xde\xdfB]kX\xdds\xe4\xc6L0\xee\xf9F:f\xb8\xaf\x11x\x87S\xd5.&gt;\xd74\xf8i\x17*\x17\x8f-z`zSE\x1a\x9aj\xcb\x16\x99e\x0c\x17\x0c\xa7\xed\n\x17\xd3\x189\xfcy5w\xc6\xfe%\xbb\xb1\x9f\xfb\x03N\x91\xa3X\xe3\xdfq7\xf1\xc9\xed\xff\x00\xd7\xa8\xe6ap\xf0\xdd\xb0\xb7\xb7\x173\xc8\xcf\xe6/\x19bz\xd1H\x0f\xff\xd9'</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -494,6 +540,14 @@
           <t>Flavio Rodrigues De Souza</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xe1\x01\x00Exif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x05\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00J\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00R\x01(\x00\x03\x00\x00\x00\x01\x00\x03\x00\x00\x011\x00\x02\x00\x00\x00\x11\x00\x00\x00Z\x87i\x00\x04\x00\x00\x00\x01\x00\x00\x00l\x00\x00\x00\x00\x00\x00\x93\xa3\x00\x00\x03\xe8\x00\x00\x93\xa3\x00\x00\x03\xe8paint.net 4.0.12\x00\x00\x00\x01\x92\x86\x00\x07\x00\x00\x00z\x00\x00\x00~\x00\x00\x00\x00UNICODE\x00\x00C\x00R\x00E\x00A\x00T\x00O\x00R\x00:\x00 \x00g\x00d\x00-\x00j\x00p\x00e\x00g\x00 \x00v\x001\x00.\x000\x00 \x00(\x00u\x00s\x00i\x00n\x00g\x00 \x00I\x00J\x00G\x00 \x00J\x00P\x00E\x00G\x00 \x00v\x006\x002\x00)\x00,\x00 \x00q\x00u\x00a\x00l\x00i\x00t\x00y\x00 \x00=\x00 \x009\x000\x00\n\xff\xdb\x00C\x00\x02\x01\x01\x02\x01\x01\x02\x02\x02\x02\x02\x02\x02\x02\x03\x05\x03\x03\x03\x03\x03\x06\x04\x04\x03\x05\x07\x06\x07\x07\x07\x06\x07\x07\x08\t\x0b\t\x08\x08\n\x08\x07\x07\n\r\n\n\x0b\x0c\x0c\x0c\x0c\x07\t\x0e\x0f\r\x0c\x0e\x0b\x0c\x0c\x0c\xff\xdb\x00C\x01\x02\x02\x02\x03\x03\x03\x06\x03\x03\x06\x0c\x08\x07\x08\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xe5m \xf3\x9c\xb7\xcf\x8e\x01V\x03\x1e\xd5\xb9f\x91\xbcj\xac\xbd:\x9f\xfe\xbdf\xda\xdb\xf9\xdf*\xfdr2\xbcv\xadKX\xd9\x19UYYT\xf4\xc6\x03q_\n\xe9\xe9s\xf7\x08\xd5\xe6\xd4\x99"\x01YYX\xab\xf4\xcf\xf0\x8a\x98\xc6\xb0\xcb\xf2\xa3/\xb1\xe8j5&amp;?\xbc\xbf.r\x14\x7f\x9fzz@\x1d\xd7g\xee\xd4g\xb9\xe9Y(\xdc\xbeb@\xab\x1c\x8f\xfd\xe02U~\xea\xfet\xf5\xb7\x011\x9c2\x8c\xe0\x9e\x08\xa7Ek\xb5J\xee\xe9\xc6\xecn\xf7\xa72%\x921\x99\x96//\x1b\xdd\xc6\x15s\xd0\x9fO\xc4\x8av\xd6\xc4Jj?\x16\x8b\xb8\xe8\x91Y\x17\x7f\xc9\x91\xb9\x9b\x07\x81S\x7fg\x96\x95|\xb1\xf2\x91\xd4\x9e\x9f\x8f\xd6\xbc\x8f\xe2\'\xeda\xa7xF\xee\xf7M\xb7\x8a85H\x01Kygu\x9a\xdac\x9c\x02\x02\x93\x91\xed\xd3\xa5|\xfd\xf1\x03\xf6\xd7\xb7Mn\xc6\x1b\xdb\xedGR\xf2\xe0\x98\xcbk\x1c\xc1#\x8eF\x066Bx\xe3\xa1\xe9\xc5zt\xf2\x9a\x92\xb4\xa7\xa2&lt;\x0cg\x12a\xe9^\x14\xfd\xe7\xea}\x93\xe3?\x1fh\x9f\x0c\xe1\x85\xb5\x8dR\xca\xc2K\x9c\xf9Q\xc90i\x1f\x00\xb3|\xab\x93\xc2\xa9\'\x1d\x05y&lt;\xdf\xf0Q?\x84\xf67\x9bn5\x8dZ\x1b|\x92&amp;K\t\x167\\}\xe8\xd9\x80\x0c\xbe\x84g&lt;\xd7\xc3z\x8f\xc4\x1dK\xc4.\xda\xa0\xbf\xb1\xb7fg\xda\xd2\xcd\xe4\xac9\xfb\xdf3\x11\x9f\x97\x00\xf5\xcfN\xf5\xc3\xf8\xbe}c\xc47\x7f\xda\x1a\xcb\xcd\xaeGt\xfe[\\\x1f2\xe12:\x00\xdbB\x921\x80\x01\xc0\x15\xe8\xd3\xca(=5g\x85[\x8b1)%M%\xea\xae~\xa5|:\xfd\xaf\xfe\x19\xfcV\xd6\xed\xb4\xfd\x0f\xc6\x1a]\xd5\xfd\xe6\x0cv\xaf\xbe9[\xd8d\x01\xbb\xdb\xd6\xbd9\xedd\x13\x1f\x93\xcbby\x18\xee=\xab\xf1c\xc0:F\xa1\xe2\x0f\x1cZ\xe9^\x18\xb9\xbe\xb7\xbf\xbe\x95#\x8dK\x0blH\xc7\x8erq\x8e\xb9\xff\x00\xebW\xe9o\xecc\xf1\xcd\x9bI\xb3\xf0\xef\x8c\xbcI\xf6\xcdCM\xbb\x9a\xc2\xfa\xf2\xee\xee\xd9a\x8c*\xc7\xb0G.\xd5\x8eV\xcba\xbc\xd9\x93\x01\xd3\x1b\xb3\\\xf8\xbc\xa1R\x8f=/\xb8\xee\xcb\xf8\xadT\x9f\xb3\xc4\xa4\xbc\xd1\xf4\x02D\xa4\xf9aW\x81\x80\x14\x1f\xd0\xd3\xb8\x96 \x17;Tc9\xc1&lt;\xf5\xa4\xf0\xd5\xed\xaf\x8d\xf4\xcb\x8b\xad\x1e\xe2\xdfQ\x82\xdeG\x89\xe5\x85\xfc\xcd\x85\x0e\x08\xeb\x91\xf8\x8csV!\x8aO%3\xf7}\xb1\x81^/\'+\xb4\xb4&gt;\xba\x9dH\xd4\\\xd0w]\xd1J+rYQ[\xe5f##\x92~\xb5(\xb6\xf2\xe5\xdb\xf2\xb7\x19\xc0l\x9a\xb3\x15\xb3mn\x14\x1d\xd8n~aR\x987\xc6\xa5\x95v\xe7&lt;\xd0i\xafR\x92[eKn\x04\xb7?w\xee\xe2\x9e\xb1\x88\x99x\xf9zm\xc6\r[\x8e\xdb\xce\xb8f\xdb\xf2\x81\xc1\xcf\x1f\x95\x06\x02[\x1bA+\xf7\x9b\x19\xcdL\x99^\xcc\xaf-\xb6\xc1\xb9\x9a&gt;\xb8\x00\x8eh\xab\x13ims\x12\xb0]\xfc\xf1\x91\x8a(L9Y\xe7\x10\xdb~\xf1A\xf9O\xde\xc68\x1fJ\xbf\x05\xa01\x08\xc3m\xdaw\x9e9?J\x9e\xca\xcaB\xc1\xd8\xefX\xc61\xd2\xaf\xc3n\xb6\xff\x00uU\xd6A\xc1\xcej\xb9\x9fS(\xd3\xf7lQX2\xca\x84\xe7\'\xa1\x18\xc7\xbdX\x1a|\xb20\r\xe5\x8cc\x90\x7f\n\xb9\x1d\xbf\x9a\x1bj\xeeP{\x9e\x9f\x9dM\x15\x9a\xe4\xf1\x95\xe8H\xe7\xeaq\xedS\xcdgt8\xab\x18\xda\xf7\x88t\xaf\x03\xe9\xcb6\xaby\r\x9cseU\xe5$)?\x87lW\xc4_\xb6?\xedew\xf1k\xc5i\xa0xn\xea5\xd0mU\xb2\xee\xdbZ\xf1\xfad\x8e\xbbF?\x1a\xf7\x8f\xdb\xfb\xe2\xce\x9f\xf0\xbb\xe1\xbb\t\x95\x9bP\xd4\xbfq\x06F\xf6\xd8\x07\xcd\xb3=\x07l\xd7\xe6\xdc\xcf\xa8\xebZ\xc7\xf6\x946\xf7\x0b$\xa5\xa3\x84\x96;\t\xcf\xf7\x8f\x1ct\xe8+\xda\xcb0\xf0\xb7\xb5\x9e\xe7\xc5\xf1&amp;eUI\xe1\xa9\xbd\n_\x10&gt;*^jw\xfeZ\xac~M\xbb0Q\x8d\xea;\x123\xc8\x1c\x0e\x05c\xe8Z\xba\xf8\x97^\xb3\xb8\xd4\x19\xa3\xd3\xa1\x95~\xd0\xd1.\x19\xa2\xdc7\x05\xf7"\xa2\xf1W\x85\xe6\xf0\xcb\xdcZ\xdd\xaa\xb5\xf4\xc49\xcc\xc1\xbc\x91\xd7\x9d\xbd\xc9\xed\xe9Z\x1ao\xc2\xaf\x14kZ,R\xdb\xd9\xcb\xe4M\xc20B\xa1\xb1\xe9\xc7\x7f\xd6\xbd\xea\xd8\xaa0\x8f\xbf$\xbdO\x8a\xa1\x87\xa9R~\xe4[~F\xb6\x93\xe2\x0f\xedO\x1f}\xba;yu\x0b\x95.4\xfb\x07Td\x81\x08!\x0b\x93\xc2\xed\xceN@\xc8\x18&amp;\xad\xf8\xbfZ\x9f\xc5\x1a\x1cQ\xdd^\xdb\xddI`\xb8f\x89@\x862rI\x05xlp8\xe0V.\x99\xf0+\xc7:\xacM\xa6\xd9\xe8:\xb4\xd2\x04g\xb8\x8e\x1bvg\x90u;\xf1\xc9\x03\x19\xc1\xec:U]_\xe1\'\x8e&lt;5n\xb0\xdc\xf8wV\xb1\x83\xef*\xc9g$h\xde\xa7\x91\xc8\xeb\\\xf1\xcc\xb0\xd7\xb7&lt;~\xf4u\xcf-\xc5r\xf3:r\xb7\xa3\xff\x00!&lt;?w\xacxvk}ONi\xadZ?\x9a+\x85%0A\xe9\xb8\xf5\xfc8\xeb^\xad\xe0\xdf\xf8(\xd7\x8b\xbc\x05\xe0\xc7\xf0\xfa\xff\x00f\xdci\xff\x00i\x92\xefk@\x07\xfaC\x15a \xd9\xb4\x8d\xac\x8a\xc0g\x1b\x94\x12\x0e\x06&lt;/U\xd2\xf5\xd9dQp\xb7\x87b\xed\n\xec\x7fv=\x00\xcf\x03\xf0\xac\xb7\xf0\xd5\xe4+\xb9\xa1|z\x81\x9e\xf5\xddF\xbcd\xb7M\x1c\x92\xa38\xe9f~\x88~\xc6\x1f\xf0S\x8b(4\xfb?\x08\xf8\x82\xff\x00X\x8c\xea2L\xb7w\xe2+M\xe3\xcc \xe5d\xc23d\x80X\xca\xed\x9fl\n\xfb\xbb\xc1Z\xe4&gt;\'\xd1\xbe\xd1ks\x0c\xd6\x90\xc7\x0cp\xcd;\x8f2\xec2m\xdd\xc7\xc8\xdb\x88\xe3\xcb$c\xbf\x07\x1f\xcf\xd42\\i7\xf1\xc8\xbb\xe3\x9a&amp;\x05O\xa7\xff\x00\xa8\xd7\xdf?\xb1W\xed\x9b\xab/\x83\xed\xc6\xa1oc"\xe8\xa8\x03\xc2\x9at~L\xb1n\x8f|\xb9#\t&amp;\xe5\x04\xf0\xa0\x92\xcc\xa4d\xe7\xc9\xcdhBpr\x8a\xd4\xf72&lt;\xce\xa6\x1e\xa5\x9bv\xed\xd2\xddO\xd2\x13f\\\x8f\x95c\xdb\xd0\x0e\x9f\x8dO\x1c+\x96\xdd\xc2\xfam\xac\x1f\x82\xff\x00\x14t\xdf\x8d\x1e\x06\x83Z\xd3\xae&lt;\xe8\xd8\x9b{\x85;CC*\x80\x19HVa\x9f\xc7\x91\xcdu\x06\x06h\xbe\xf2\xed\x07\x04\x01\xc8\xaf\x94\x94Zv?Q\x85h\xce*p\xd9\x95\x92\xd5{)9\x18\xc6([e\x94\x9eN}:f\xac\xcf\x1e\xed\xaa\n\x929=\xb0:S\x8c\x98\x0c\xdftt&lt;S\x96\xbb\x9a2\xbc\x16\xfbA\xda\xc5W\xdc\xe7\x9a*\xc1@"U]\xbf7\xcc~Z)\xd9\x91\xccp\x8aJ\x0f\xba\xa1\x88\r\xc8&lt;\xd3\x81o\x97\x85\x1b\xb8\x04\x01\xc1\xa5\x8dZH\xc0\xdd\xe6\x1d\xbdi\xf6\xf6x\x8b\xe6Q\xe6g\x82;SI\x11\xe8(}\xac&gt;_\x99H\xe4\x8e\x87\xde\xa6\x94\xf9Cw\xca\x14\x91\xdb\x80O\xf2\xa6\x90c\xce\xd2\xdb\x87$\x91\xc5Ha\xf3\xae&gt;\xf2\x82\x17=\x0esR&amp;|C\xff\x00\x05;\xbd\xbb\x81\xd7P\xbe\x86\xc4\xdaE\t\xb6\x81v\xa9\x90\xc7\xbf\xe6\xc1=\tf\xe4\xfaq_\x19\xdd\xfcS\xbe\xf1\x18\x86\xde+i\x16\xd5c1\xa2\xa2\xe0\x05\xe8rz\x7f\xf5\xab\xec\x1f\xf8,\xc5\x9c\x96rxW{\x05[\x8bY\xa3*\x10\x9c\xb0|\xf4\xfcE|=\xa3j\xb6\xfaR\x05&gt;\x80\x9c6;\xe3\'\xf0\xcf\x1e\xd5\xf4\x99|\xafF\xe7\xe6\x1c@\x9cq\xd2L\xeb&gt;\x12\xfc7\xff\x00\x84\xe7\xc42Iz\xad\x1e\xe6\x1eTh7|\xdb\x94~\'\x078\xfaW\xf4=\xff\x00\x04\x98\xfd\x87~\x19\xc3\xfb&gt;i\x1a\x85\xf6\x8bc\xadj\x85\x1b2^D\xb2\x08\xf0q\xc2\x9c\x80\x7f\xfdU\xf8W\xf0{\xe2\x97\x87|\x19,io\x03\xcf\xa8j\x01\x04J\xa8$%\xcc\x89\x80{\xf4S\xc0\xe7\x91\xda\xbf\xa1\xff\x00\xf8%G\x83u_\t\xfe\xcf\xba=\xe6\xa6\xb1\xc6\xf7P\x89\xda5\x00\xedF\xe5T\x81\xc0\xdb\x9e\x00\xef\xd6\xbe{&lt;\xf7\xf1\x94\xa9\xd4\x8d\xe3\xdb\xa7\xdczy\x1c\x9cp\xf5%\r\x1d\x96\xa7\xae\xea\x9f\xb1\x07\xc3\x8dm\xfc\xc6\xf0\x9e\x8e\x19\x1bxh\xe1\xf2\xb9\xff\x00\x80\xe3={\xd7\'\xf1\x1f\xf6&lt;\xf0\x0c\xf6b\xde\xe3\xc3\xba\x1d\xd2\x05 \t\xed#\x91\x94{\x13\xd0W\xbb\xdeA5\xf3\x87\x86M\xbb\xf9\xfaW\x0b\xf1[O\xba[H\xd7pP\xc7in\xe3?\xa5sc2\xfc"\xa6\xe4\xa9\xafT\x8f\xa2\xca\xb3\x0cK\xab\x18J\xab\xb7f\xcf\x8e\xfe&amp;\x7f\xc19\xbe\x0ex\xf1%\x87P\xf0m\x83ap\x8do\x88J\xff\x00\xdf \x1a\xf8\xfb\xe3\x1f\xfc\x11\x9f\xc0\xb3\xde^\x1d\x1bR\xd4t\xf4V!`}\xae\x10\xf5\x1c\x908\xc7\xbd~\x87|N\x82hZ1o4\xdb\xd1\xb2\xf2.G\x00~\xb5\xe3\x7f\x12\xb4}O\xfb^\xee8n\xa4\xb7k\x87\x18;\xbf\x87\x1c\x9fl\xfa\xd7\x8fN\xa5jsJ\x8c\x9a}\x96\xc7\xd8\xe204*\xc3\x9a\xb4S\xf9\x1f\x9b~\x10\xff\x00\x824i\xfe?\xf8\x9c\xfe\x1b\xd6\xb5\x86\xd2,\xef\xa1o\'U\x86\xd9X\xda\xcc\x9c\xaa\xb8,8c\xd4\x8e\xdc\xd7\x82\xfcg\xfd\x9a|i\xff\x00\x04\xcb\xfd\xa5\xad\xbc\x03\xe3\x0b\x96\x93\xc3w\xf7v\xda\x95\x96\xb3`\x8d%\xa6\xa7h\xd9\xc4\x91\x13\x85e\xc1(\xe8\x0fU\xeb\x8cg\xf6K\xf6[\xf8I\xe2\xdbO\x8e0\xeaQ\xae\x97\xaaZ\xacl\xcd\x1b\x00\xce\xa1Fq\xb5\xbaddn\x07\x9a\xda\xff\x00\x82\xda\xfe\xc6^\x19\xd6\xff\x00b\xbb=r\xd7K\xf3\xf5\x0f\x02\xc6f\xb5\x82\xf2V\xcd\x942I\x89\x16\x06ncl\xed#?(\nF:c\xeb\xa9b\xa4\xa99U\xbb\xda\xff\x00\xf0\x0f\xcc3\\\x1d8\xe2\x14ii\xb9\xf2\xff\x00\xec\x97\xe2\xff\x00\n\xdexoP\xd2\xfc(\xd6\xb2\x88eMJ\xedm"o+t\xfd2J\x80\xaev\xe4\xaa\xe7h\xc75\xeb\xd2DE\xba\xae\xe6]\xdf\x86+\xe6\xbf\xf8%\xe7\x8b\x7f\xe1&gt;\xf8U\xad^G\x05\xba\xc5\x1c\xf1\xc4\x8f\x10Q#\xa0N\xb2m\x03\xe6\r\x9e@\xe4c&lt;\xe6\xbe\x98\x96\xdd\xa4N&gt;\\\xf3\xd7\x823\\U\x12\xe6i+\x1fW\x94\xa7\xf5Xs\x11E9\n\xcaJ\xf02\t\\\xe6\x94@\xcd\xb8\xe4\x88\xdb\x03\x9e\x957\x91\xba6\xe1\xb6\xe7\x8cu\x07\xebK\x1d\xab\x05\n\x03|\xdf6rH\x02\x94\xadc\xd3P\xd0b,\xb1e{\x83\x82K\x0e\xd4T\xdf\xd9\xab \xdb\xb03d\x92O\x14U{B9\x19\xc4\xa5\xb3L\xcc\xb1\xb0fc\x9eNEX\x8a\x00\xec&lt;\xce\x83\x19\n:\xe2\xa6\xb7\x8cG\xce\xdes\x8f\xa5K\x10Te^\x1b\x9cg\xb95\x93v6\xe4\xb6\xa4PB\x0b\xb6\xec\x83\x82x\xe8)\xcbm\x87V+\xf3g \x91\xd6\xad*\x05v\xda\x17a\x18oZ\x99T\xc8\x9e_|\x03\xc9\xe8(\xd5\x93\xca\x9b&gt;\x17\xff\x00\x82\xd3h&gt;o\x84\xfc\x1d6\xd4VY\xe5\x8dw\x12Xd)\xea&gt;\x87\x8a\xfc\xf2\xb5\xb2[\x89\xdb\xccV\xf9\x9f\xcb\x8f\xe5\xc1\xdc\xdd3\xec+\xf5?\xfe\n\xc5\xf0\xc6\xfb\xc6\x9f\xb3\xc5\x9d\xf6\x95e}}}\xa2\xeaqJ\xdfc\x89\xa6\x98#\x8d\xa4\x85Q\x92\x06F}1_\x98\xf6z\x9d\xad\x9f\x87u(n\xa2\xddy\xbd\xa2\xb7\xf33\xe6@\xdc\x12X\xff\x00{\xb6=\xbf\n\xfa\x0c\xaeO\xd8\xfa\x1f\x99\xf1E?\xf6\xf9K\xa5\x91\xf67\xfc\x10\xfb\xf6\x1a\x83\xf6\xaf\xfd\xa8\xc5\xde\xae\xb0\x8f\x0e\xf8T\x0b\xfb\x9d\xcf\xb9\xa4!\xb0\x91\x81\xdf&amp;\xbf\xa3\x1f\n\xd8\xa6\x87\xa2\xdai:]\x94v6\xdatb(\\s\xb9GA\x8a\xfc\x8e\xff\x00\x83^|(m\xfc\x1f\xe3;\xc9m\xd1\xae\x1a(H\x94\x8f\x9b\xef7\x1e\xdcb\xbfK\xbfj\xaf\x1dk^\x03\xf8g\x7f&amp;\x96\xdfc\x8f\xc9a=\xd9\x8f\xcc0 \x1c\x95\x19\xc9b8\xe2\xbe#5\xcc=\x96"\xb6.\xbbv\x8bI[]\x15\xb4\xfb\xfa\xae\x87\xd4d\xd8\x15&lt;5:4\xedyk\xaf\x7f\xd4\xea\xfe\'~\xd6\xdf\r\xbe\x04\xcb\xe4\xf8\xab\xc5V\xba}\xd7\x94e`\xd1\xbb\xae\x07\'\x906\xf6&lt;f\xbc\x1b\xc7?\xf0Z\xef\xd9\xce\xee\xe4\xd9\xc9\xf1\x13Oa\x08i\x82\x8by\x18\x12\x07\n=\xeb\xf2\x97\xf6\xda\xf8\xec\xdf\xb4dw\x1e\x1f\xf0?\xc2\xdf\x1b\xf8\xaaK\x18%\x96\xe7[\xba\xb9\xbb\xda\xc20\xce\xe5A\xc2*\xae\x18\xe0v\x1dM~t\xe9\xfa\r\xcf\x8c"\xd55+\x1d5\x9a\xd7N\xc4\xb7edf\xf2\xd5\x88\x1c\xfd3\xfc\xeb\xd8\xca\xeaO\x19\x87s\x9a\xe4Z&gt;\x8f}\xba\xe9\xf7\x1c\xb9\x95\xb05\xd4b\xb9\xa5\xe7{|\xac\x8f\xe8;\xc5\xdf\xf0U\x0f\x83~\'\xd4\xedm4\xdf\x12-\xfd\xd5\xfd\xca\xda\xae\xd8\xca\xacl\xc7\xa1\'\xd8\xfe\x95\x9b\xf1\xf3\xf6\xd5\xf0\x0f\x82\xfcW%\xbe\xa5\xab\xd9yvg\xcbg,\x15J\xec\xc8\xc1\xe79\xe2\xbf,\x7f\xe0\x96\xdf\xb1\xd5\xf7\xed\x93\xfb@i\x9a\x14\x11\xcd\xa7\xe9zh\xfb^\xa5}\x86x\xe1@0\x17=\x0b\xb3\x1c\x01\xf5\xaa\xff\x00\xf0V\xff\x00\x81\x9a\xc7\xec\xd1\xf1\xdeO\x0f^I=\xd5\x9e\xa1\x99\xec\xa6@B\xca\x17\x0b\xb4\x1e\x84\x80W\xfe\xfa\x15\xe6\xd1\xa0\xde?\xd8\xc5\xddn\xde\x9fq\xf4\x18\xbc\xe2\xbd&lt;\x07\xd6e\x0f\xb8\xfd.\xfd\x98?\xe0\xb0\x9f\x06\xfc\x17\xf1q\xa4\xd4\xbcU\r\xb818F\x92)\x16\x11\x96P#fU&lt;\x10:\x91\xc1\x00\xf4\xaf\xb2?n\xaf\x1f\xf8w\xf6\x92\xfd\x87\xfc[\xaexb\xea\xcfZ\xb2\xd7\xfc#vmaI\x83\xc7\x14\xa2\x03(\xc8\x03!\xd4\x80y\xc75\xfc\xaaxgO\x8fZ\xd4\xdb\xcb\x86\xea\xf2dF\x95\xd6 Cl\\g\xa7a\xdf\xd2\xbfL\xff\x00\xe0\x86\x9f\x10&lt;G\xaex\xda\xf7\xc2\xfa\t\xb8\xbf\xd0u-2\xf2\xdfV\xb5\x9eV\x95bF\xb6\x90,\x91\xe7\xa1VP\x08\x18\x18&gt;\xb5\xf4\x99\x87\xb3\xa1ABO{~/C\xe1(\xe3\'\x8b\xae\xebMj\xbb\x1d7\xfc\x11\x7f\xc3\xf7V_\xb2\x95\xf5\xfd\xc4\x8c!\xd65\x99\xe4\xb6\xc7Q\x1a\x05_O\xefn\xaf\xae\x8cXu\xe7p\xe9\xcd|\xf5\xff\x00\x04\xb1\xd6a\xbf\xfd\x8b\xb4\x1b\x18\xa1\xf2\xe6\xd0\xef/\xac\xa7\xc2\x85\x0c\xeb;1&gt;\xad\xf7\xfa\xf6\xc6+\xe8I\x15\x92-\xaa\xdf7\x07\x9e\xd5\xc7Z\xfe\xd1\x9fq\x96r\xac,\x14{\reR\x9f3~G\xaf\xb5=\xed\xf6\xc7\xcb\xe7\'#\x07\xf4\xa6\xa9\xf2\xe1\xc6\xe0\xd99\xc7o\xc6\xa4i@\x1e_\xe6\x98\xe8&gt;\xb5\x89\xe9=\xb5\x1b\x08q\xb5\xb2U\xb1\x83\xdc\x1a( \x05_\xf5\x98\xec\x0fj(\x1a\xa8\xecq\xea\x19\'tc\xc3\x1d\xc0\xe35a\x18\xa3ue\xeeI^\xbe\xd5{W\xd1\x84\x1b\x8f\n\x88j\xaa\'\xef\x15\xb6\xc6\xad\xd8\xaf55"\xd4\xb5*\x9c\xb9\xa2\x98*\xb3\xbbck7\x1b\x80n@\xc7_\xc2\xacE\x1e\xe0\xdb\x8b/\xccWp\xe7\x03\xd6\x81nD\xdbv\xabm=H\xe3\xa75b8\xc8\xda\xaav\xf1\x93\x9e\x99\xa4\xea%\xaa\'\x95\xb7ds\xff\x00\x19?io\x1f~\xca\xff\x00\tm\xf5\x7f\x86\xfa&gt;\x9b\xa9x\xa7\xc4Z\xfd\xae\x82\x1e\xf6\xd9n\x92\xdd%\xc9ET$\x0f\xde&gt;\x06N\x07\xbd|\xb7\xff\x00\x05\x05\xf8\x13\'\xedo\xf1\xd3\xc2\xdf\x0fl~\x13\xe9~\x02\xf8\xf5q\xa6\xdek&gt; k(\x7f\xd1\xb5\x02\x89\x8bt\x8ffSd\xc49\xdcrU\x94\x0e\x875\xfa=\xfb,|%\xd2&gt;2\xfcD\xb6\xd2\xf5\x89\xa6\xf24\xeb\x985\xabh\xd0\x8f\xdeMl\xfb\xd3\xaf\xa7^9\xe2\xb6|s\xfbl~\xcb\xff\x00\xb3g\xed\xc34&gt;-\xd7.-~.j\x96\xf0\xe9\xd7\xf1\xc0\xbetZt\x11\x02-\xc5\xcc\x8b\x91\x19`\xc5\x80c\xb8n\xce\x06\x05N\x0b\x07\x8b\xa9Ru\xa1.U\x14\xed\xf3\xee\xbc\x8f\x0f\x88\xb3,\x1d\x1aP\xc2\xce\x9f4\xa5\xf1?\xcbo\xe9\x1f&lt;\x7f\xc1\xbf\x1e\x1b\xbe\xf0%\xef\x8f4]B\xd6\xe3M\x9bMKh\x9e\xd6t\xf2\xe5\x85\xd6I\x12Da\x80\xdb\x94\xc7\xce}k\xf4\xf7S\xf0\xed\x8f\x8c4;\x8b[\xa8m\xef\x16NL2\x1c\xac\xbe\xd8=\x8d|\xf1\xe0\xdf\x80\xbao\x84\xbfi\x8f\x13|K\xf0\x9e\xb4\x93\xe8\x1e&lt;\xb4\x8eK\x9bX\xc2\xbcS\xcc62\xce\x8e\x0e\x01`\x0e\xec\x0eK\x0e\x95\xe9\x17&gt;#\xb8\xd3\x03H\xb2\xb8h\xf9e\x1crx\xc5yO\x19N.q\xc4+\xa6\xf5\xd3\xf45\xa3\x97\xcat\xa1\xec]\x9aJ\xc5\xdf\x8a_\r4\xfdS\xe1\x92\xda\xc3go\xa0\xfd\x92\x12\x91\xacQ\xaa\xa8^\xeb\x81\xc1\x07\xa6\x0fc_\x93\xdf\x15\x7f\xe0\x9aw\x1e7\xf8\xa1u\xa2x^\xc7Ihu\xb9U\xaf#\xb0\xd2\xe3\xb7@I&lt;\xc8\xca\x00$g&lt;\xd7\xe9W\x8f|y7\x8e\xe0\xfe\xcf\x92\xe2\xee&lt;\x8d\x89\x1cO\x80~\xa7\x07\x07\xf1\xc5\'\xc3\x1f\x01\xd9\xfc6\xd5U\xde5\x8fs\xa1&gt;t\x84\xb4\x8f\xd4\x92O_\xc2\xb8jTU\xab\xc5\xe1\x9d\xa1\xb3}\xfeH\xfa&lt;.\ra\xf0\x8db\xd2\x94\xde\xa9v\xf9\xea\xca\x1f\xb1\xdf\xfc\x13\xb7\xc3?\xb1g\x82\xac\xf4\x9d\x02\xca\xde\x19\xd9\x92mBT\\\x8b\x99\xf6\x80\xcd\xcez\xf4\xe3\xa6+\xe7\xcf\xf8-/\xfc\x13\xdfT\xfd\xa8\xff\x00g{\xbd;\xc1zh\xd5\xfcY\xe1}^=sJ\x89p.\xa5\x88E$s\xc1\x1eq\x92\xca\xc8\xc1s\xc9\x88c\x9a\xf7\xcf\xdb\x93\xfe\n\x9b\xe0_\xd8j]\x19\xbcC\xa7\xeb\xbe \xd6|Er \xb2\xd3t{o\xb4\\\xbep\x01\xd9\x91\xdc\x80\x07S_,\xfe\xd6\xdf\xf0\\\xfb\x0f\x85\xff\x00\x10&lt;/ym\xa5\xcd\xa3C\xf6h5[\x97\xd4md\x8ah!,AF\x84\xe1\xf7\x9d\xac\xbbq\xc9\xafs\x0fW\x0f\x84\x92p\xbbm\xf4M\xb7m\xcf\x98\xadK\x19\x89\xa38\xe2t\\\xbeK}\xb4?)\xbfb\x8f\xd9\x96\xe6\xff\x00\xf6\x93\xb2\xd35[?\xec\xf6\x92\xecA\xab[\xdc\xee\x86O+p\xf3#*\xc3*\x0e\x08 \x00k\xfa\x10\xf8\t\xfb\x1e|#\xf8s\xf1CV\xf1\x1f\x84|\x1bo\xe1\xfb\xcf\xec\x0byo.,\xe3\x10\xd9\x99\xb0\xf1`F\xa0.\xf6\\\x96 s\x8c\x9f\x7f\x8e|\x15\xa7|;\xfd\xae\x7fh\x7f\xed\xbd/M}5\xbcIj\x9a\xe5\xac[~\xcb\xa8ir\xc8\xaa\xe1I\xe8T\x86\'\x19\xc6\x08\xafn\xd4&gt;.\xf8\x93\xe1N\x87y\xe1\xef\xed\xab\xab\x8d/H\xb4\x9a\xfaxn#U\xb8\xfd\xdcl\xe0n_\xbc\xbf)\xeb\xcd{y\xb6*\x84#\xed\xeb\xc7\x9a:[\xd7\xa1\xe0`r\xba\x8e&gt;\xc6\x8b\xe5k\x7f5mu&gt;U\xff\x00\x82}|F\xb7\xd6\xfe\x14x\xbb\xe1\xee\x9f\xe1k=/I\xf0\x0e\xbfr\x83S,\xefq\xa8j\x13]Nf\x19\'j\xc6\x14)\n+\xd8\xee\xf4\xcf\xb3\x069eU9\xe6\xbc\xef\xfe\ty\xe0Y,\xff\x00f\xad[T\xb9\x87m\xe7\x89&lt;Q\xa8\xdf\xceH\xc1\x1c\xafn\xbc1j\xf6}sC(\xfb\x95\xb2\xcaH&lt;c\xb5a\x1as\x95&gt;yo\x7f\xc0\xfa\xcej\x14\xaa\xaaTU\x92K\xef\xb2\xbf\xe2rb5\x03\x92S\xb9\xce1\xed\x9a\x90\xc7\xca\xab\x0c)\x1b\xf0\xac\x0e\xdf\xc6\xad=\xbe\xe7Te\x0b\xc1\xc9\x02\x81\x06c\xc9U\xdc\xbc\xe07Q\\\xe7[\xd5X\xab(\x92D\xf9I\xdb\x9f\xe2\x14U\xb7\xb5fN\x17+\x9c\x8e\x9cQS\xcc\xc6\x92\xb1\xa3\xe3O\x0c4G\n\x8a\xbc\x9c\xe0u\xae=\xad\x95\x1fo1\xfc\xd8\x01\x96\xbd\x9b\xc6\xba\x1b\x90\xff\x00{\x00\xe3\x15\xe6\x1a\xf6\x9a\xd6\x97&lt;\xa6\xd5n\xb8l\xe6\xbdL\xcb\x0b(\xca\xe7\x97\x94c\xbd\xa4,gZ\x0f2f\xdc\xcc\xfcc\x9e\x05I\x1c\x1bC\x05\xdaW8\xc8\x1d\x05\x16\xa3n\xe5\xdb\xb9\x8f\x1f7\xa7=\xa9\xde\\\x8av\xed\xdaw\x01\x93\xd0W\x98\xe3ufz\xfc\xfa\x1dw\xc2?\x1f\xbf\xc3\x1f\x1e\xe9\xfa\xa4q\xb3G\x11) &lt;f6\xf9_\x1f\x86k\xdf&lt;{\xfb4\xfc\x00\xfd\xa94\xbdR\xea\xfb\xc3\xfe\x15\xbd\xf1\'\x89l\x12\xde}Q\xa3\x8duhV3\x98\xe4\x0e~m\xd1\xbe\xd6\x04\xf5*\x01$W\xcc\x1b\x18\xc9\xb82\xa8\xc6[\x1f\xfe\xbfj\xf3\x1f\x87\x9aH\xf8\xad\xff\x00\x05X\xf0o\x85&amp;\x93n\x9bg\xe1K\xcdCQ#\xf8\xa2f\x11\xa0&lt;r78\xe9\x93\xc7j\x8a\xde\xed)J;\xd8\xf13:p\x92\x8c\xe6\xde\xe9h})\xf0?E\xb1\xfd\x9a~2i\x90\\x\x86\xf3O\xf0\xb6\xb74\x96\xd2\xa4\x10\xa4\xbe\x1f\xd6.\x15\x997\xc0\xe4\x9f\xb0\xcd\xb8\x12\xf1\x9f\xdd\x92@V\xed_^\xf8\xaf\xc0\x16+j\xd7\xb6\xb23C\xe5\x19\x1a\x17m\xb2\xc4\x08\xe0\xb2\x9ez\xf7\xe8}M|\xe9\xfb\x1c\xfe\xc9\xf7\xdf\xb2\x97\xc0\x8ds\xe1\xcf\x8a\xaf\xad\xfcE\xa2\xc1\xe2\x0b\xfb\x9d:I\xcf\x99\xba\xce\xe1\x96UI\x03wW2ps\xda\xbc\xde\xfb\xf6w\xb3\x93\xe27\x8b-t[\x89\xb4;\xcd/R\x89t\x1dr)\xe4\x9aK)\x1e\xd9.\x1a\xceuf\xc4\x90\x82\xfc\x03\x82\x15\xf6\xf6\x19\xf2V/\r\n^\xce\xb4n\xd3\xf8\xbb\\\xe5\xa5\x86\xc4\xaa\xea\xa6\x1av\x8b\xe8\xfa\xf5\xdc\xfa\x87\xc0\x9e\x07\xd3\xbe\xd3%\xe9Up\x08\x19a\x9e\x86\xb4\xac\xfc\x1b\xa5\xeb^!\x86\xe2\xec\xacv6r\x87H\xf3\xfe\xb1\xfe\xf7$\xf6\xaf\x9d~\x1a~\xd7\xf2\xf82\xfa\xe7\xc3_\x12\xa3\x8f\xc3:\xd5\x9c&gt;t\xb7\xe8\xae\xdan\xa3\x12\x94\x8c\xcd\x1c\x98;p\xc4nV\xc1Ry\xc5x\xa7\xfc\x14\x8f\xfe\n\x13\xe2o\x07|E\xf0\xdf\xc3\xdf\x86Z\x1e\xb5\xe2\x8dr\xfa/5\xed\xf4\xa8\xdag\x948\xca\xe3o\x07\x81\xd6\xa7\x0f*T\xe9\xc5\xc67W\xba\xec\xec\xfb\xed\xf2=\x9a\xb5*UnNv\xe8\xfb\xafT}\xb9\xfbI\xdb\xf8F\xe7M\x9bZ\xb7\xb1\xb1\x8f\xc5\x16\xb6\xf2[\xd9^\xc5l\x92^[\xa8\x04\x9d\x8c\xc0\xec\xe7\x1c\xf5\xcfJ\xfcr\xfd\x92\x7ff\x8f\x06\xf8\x8f\xe3u\xaf\x8e\xfe5Aq\xacxS\\\xd6\xf5\x1b\x1b\xdb}^R\xd1M\x1a\xee\xf2\x1fs\x10Q\x95\xd4\xf21\xd7\x1d\xcd{\'\x8d?h\xaf\xda\xdf\xc4\x9e\x16\x1ao\xc3\x8f\x80z\xf7\x85d\x92\xdfm\xde\xb5\xae]D\xba\x84\xceA\xdcQ\\\x81\x18\xe9\x81\x82x\xe4\xfa|\xc9\xf1\x97W\xfd\xb4&lt;X4\xdf\x0c\xea&gt;\x01\x9bS\xd3t\xd7\x90\x8d"\xce\x0bk\xa5\xbdnK\xb3\xa2\x92\xf26\x18\xf2\x0f\x07\x91^\xd6\x16\xd5+Fn*&gt;WW\xf3\xeb\xd4\xf3qX7O\x0e\xe3\xcd)[K\xd9\xdb\xcb\xe4\x8f\xd5\xef\x1a\xfe\xc6Z-\xa7\xc4\xbf\x06\xfcZ\xf8\x7ft\xbf\xf1%\xf2\xec5H!\x95J^\xd80\x1eE\xc0\x03\x8c\xc7\x94\x8d\x87\x03a\x07\xaa\xd5\xdf\x8e~\x14\xd2t\x7f\x8aV\xba\x85\xf5\x9cw\xba-\xe5\x9c\xcbw\x1a\x11\x87V\xda\xbbrx\xeex=zw\xaf\xca\x9f\xd8\x1f\xfe\n/\xf1+\xf6r\xfd\xa7\xf4-\x07^\xd3|U\xe1_\t\xf8\x98\x7fg\xdchZ\xbcR\xc5o\xf3e7F\xb3/*\x8cA\x18\xe8\x00\xc9\xaf\xd6\x1f\xec}7\xe3\xb6\xbfq\xa7\xeb:|:\x96\x9b\x10\x7f2\tA(\xca\xac\x8c\x99\xc1\x04\xe5\x94\x1a\xd37\xf6U\xeb\xd2\xc3Aj\xe4\xb4g\x89\x93\xe2gF\x9dJ\xb3w\x8cS_\x7f\xea3\xc2_\x014\xcf\x82\x7f\r\xb4}\'M\xd4.\xb5X\xef\x1a\xebW\x9e\xe2\xed\x11fyn\xae$\x94\x82\x10\x05\n2\x02\x80\x06\x14\x01X\xbe#\xd0I\x8c\xfc\xbd\x019\xc75\xec\x1a\x9e\x91\x98UB\xaa,j#E\x1fu\x15F\x00\x03\xb0\x18\xe9\\o\x8a4Fx\x9b\n\xa5\x88\xf4\xaf\xae\x96\tB\x97"[\x1ev\x0f3\x94\xabs\xc9\xeex~\xabf-\xae[wBx\xf7&gt;\xb5U\x0b\x15\n\xcb\x1f^G\xbf\xd6\xba/\x19\xe8\xef\x03}\xd1\xd6\xb9xUc\x9fb\x8f\x99{\x16\xed_+\x8a\xa2\xe1;\x1f\xa0\xe1\xabFt\xeeL\xb1n\x8b\x01\xa3\x8fi=\xe8\xa7[\x05+\xf7s\xeb\x81\xba\x8a\xc3\x95\x1d\x1c\xc7\xb6x\xbfB\x05]\xb1\xf3w\xc9\xaf-\xf1\x7f\x86\xfefb\xbf(\xc8\xc6+\xe8\x7f\x12\xe8`\xf9\x83h\xe9\xeb\x9a\xf3_\x17\xf8a\x8e\xe3\xb7\xbf\x038\xc5}\xcee\x85\xe7V?5\xc8\xf1\xdc\xb3\xe5{\x1e\x1f=\x82\xd9\'F\xcb\x1d\xa0\x83\xcez\xf7\xa9QY\x86\xd0\xbc\x9cu\xe75\xd1\xebz\x13D\xcd\xb1S\xbf\xfb\xd5\xf3W\xfc\x14_\xf6\x80\xf1G\xec\xd1\xf0{K\xd5&lt;/\x1e\x9e5MKT[\t$\xbb\x8cH\xb0!Gl\x80H\x04\xf09&lt;b\xbeF8J\x93\xac\xa8\xc7v\xcf\xb6\xc4c\xa9\xd0\xc3\xcb\x11R\xfc\xb1Wv=\xd8Z\xad\xb3\xa8\xdd\xe5\xaf\\\x0c\x0c~\xb5\xd4~\xcd\x1f\x0f\xeco\x7fj\x8f\x0e\xf8\x88B\x9fn\xb1\xd3/m&amp;\x94\x00d\xb8\xb4\x7f/td\xfa+*\xb0\x1e\xa2\xbf"\xec\xff\x00m\x1f\x8c\xcft5\x0b\xaf\x1fjV\xfei\xcf\x97\x0c\xa8#\x1d\xbe\xe2\x8d\xbf\x85{\xbf\xecq\xff\x00\x05\x9d\xf1_\xc1?\x8avM\xe2\xcd&gt;\xdf\xc5Z?\x9c\x8byt\x96\xcb\x16\xa1\x04\\\xab\xb2\x15\x000\x00\xee*A\'\x1dx\xe7\xd8\xc7p\xae*\x8d\x17)4\xf4\xd9n|\x9d.6\xc0b\xe5\xec\xa3\x19/7k\x1f\xb3\xbf\x1f\xfcD\xbe\r\xf0,\xfa\x9c\x91\xc9\xa8H\xe5,\xa0\xb5\x88\xfe\xfa\xf6\xe9\xb8\x81\x13\xaeL\x80\xf5\xfe\x1d\x8cO\x1d&lt;7\xc1\x16W~\t\xf0\xa4\xda.\xadp\xb7\x1a\xd6\xa0\xf2jww\xa0\xee\x8a\xe6\xf6O\x99\x8a\xb7R\x81\xb6\xa2\x93\xfc\x11\x8fZ\xef&gt;\x1b|C\xd1\xbe:\xfcUo\x1aZ\xdf\xdb\xeb&gt;\x01\xf0\xbc\x11Y\xf8jx\x1ft2\xdd\xdd[\xa4\xd7\x13\xcb\xfe\xdaC4P\xc4O)\xba\xe0\x7f\x15y\xbf\xed\x15\xe2?\xf8F|[ymt\xbe]\x9bH\xd3Y\xce\xab\xb5c\x0cs\x8e;g\xf9\xd7\xe3\x9cWRXjjq\xea\xfd\xe5\xdbN\xbe\xbf\x99\xf7&lt;7\x87\x96%\xbb\xea\xa2\xaf\x1f\xbf\xf4\xfc\x8ec\xf6\x80\xf0v\x8f\xfbB|-\xd4\xf4\xadf\xdek\x85\xb8\xb1y,\xa6\x86C\r\xdd\x8c\xc5\x19\x1bc\xa9\x05[\xe6*G!\xd4\x10\xc1\x81\xaf\xcf\xef\xd8\x17\xe2\xdf\x8d\x7f\xe0\x9f\xdf\xb4\x04\x9e\x1f\xf1\xc6\x9d\'\x89&lt;;\xac\xbf\xf6~\x97\xadI\x13&lt;\x9aS\x7f\nn9\xc2\x9e\x85r0q\x8a\xfak^\xfd\xa1\x1f\xc1^*\xba\xb1\x9a\xe1d\xb5\xbe-&lt;`\x80\xdb\x1c}\xe4\x07\xb9\xcf\xcd\xed\xc8\x15\xdb~\xce\x1f\x1f|!\xe2\xd9\xaf,5O\xec[\x85\x8d\x84\xd3,\xc9\x8f\x9c\x13\x8c\x0e\x99\xe3\xb7\xa5x\xf9.uZT\xdd\x14\xd7\xb3\x9fG\xd2]\x1a}\x19\xeccp\x98Ok\x1cL\xf4\x9ct\xd3\xaa\xec\xcf\x19\xfd\xbb\xff\x00n\x9f\x8c\x9f\x14l\xd3\xc2\xff\x00\x0bS\xc4Bk\xa0R_\xec\xd8\x99\xae\x1c\x9e\xc0\xaf\xcc\xb9\xf7"\xbf&lt;\xfe\'|*\xfd\xa1&gt;\x08kV\xfa\xe7\x8ac\xf8\x83\xa6\xdd[\xe2as%\xd4\xc6H\x8e~\xf3:\xb1)\xc9\xc6N\x07\xbd~\xbe\xfcI\xfd\xbb\xfc#\xfb,h\xfa\x9d\xd6\x83s\xa3\xe9m&lt;\x81\xda@\x8a_\nH\xdb\xd3\x9c\x9cq_\x03x\xdf\xfe\x0b\x19\xe2Mg\xe3\x96\xa5\xa8[j\x10j\xbaN\xbdl\xdan\xa1o&lt;{\xa1\xba\xb7r\x03)\\v\xe0\x82+\xf4^\x19\xa9W\x95\xd3\x9b\xbb\xdd\xbbu\xe8\x93g\xcbqMJ\x12\xbdE._\xe5\x8a\x7f\xa2:O\x85\xdf\xb5\xa7\x8e?iO\x81ZO\x87\xbe!.\xa1\xe2/\xb0\xdfE6\x8d\xa8\xea*\xd7\x17\x10\xcc\xad\x8c\xc7#\xe4\xaes\xb4\x858 s_\xae\x1f\xb1\xc7\x81.t\xdf\x86q\xeaw\x8a|\xedA\x11\x15\x88\xea\xaa\xa0\x12=\x8b\x06\xfc\x00\xaf\x19\xfd\x91&lt;9\xe0\x7f\xdb#\xe1\xa7\x86\xe1\xf0\x9e\x8e\xb6\xde\x1f\xd3g\x17\x17\xb7?g\x11\xf9 |\xdeVG\x1b\xd9\xf28=9\xaf\xb8\xed4\x08t\x9b(\xedm\xe1\x8e\x1bxT$q\xa0\xc2\xa2\x81\xc0\x1fJ\xf7\xf8g#\xaf_0y\x85w\xeeB\xea+\xcd\xf5\xf9~g\xc1\xe6\xf9\xb4c\x87Xho+^\xdd\x17C\x91\xd4t}\x91}\xdc\xf59\xf5\xae+\xc4\xfa[H\xaf\x84\xf5\xc5z\xae\xa9c\x8f\xe1\xef\\\x97\x88\xb4\x96ea\x8cv\xaf\xd0j\xd3\\\xb6&gt;\x7f\x0fQ\xc6Z\x9e\x0b\xe3m\x00\xcd#\x13\x1f\x00\x1e\x9d\xeb\xcd\xf5-9mn6\x98\xf9\x93\'\'\xda\xbe\x81\xf1^\x82\xb2)\xf9YJ\x8e=\xeb\xcb&lt;]\xe1\xecN\xc7\x07\xe5\xe9\xf4\xaf\x91\xcc\xf0\xaf\xe3G\xe8\xf9\x161J&lt;\xb2g\x16\x911b\xca6\xf6 qEYx\xb0YN\xef\x94\xe3\xebEx\x17\xb6\x8c\xfa\xad\xf6&gt;\xc1\xf1\x06\x8b\xbd\x89E\xcek\x87\xf1&gt;\x84\xa4Hv\xa8\xdb\xf3r?\x95z\xe6\xa9\xa7\xf9\xa7\xfb\xbd\xb1\x8c\x93\xf8\n\xfc\xc1\xff\x00\x82\xaa\x7f\xc1j\xb4\xaf\xd9\xc7\\\xd6&lt;\x05\xf0\xcc\xd9\xeb\x1e0\xb3\xcd\xb5\xf6\xaedYmt\x99\x7f\x89#P\x7f{2\xf4\'\xee\xa9\x04|\xc4b\xbfY\x8e\x06\xa6"\\\xb0W\xef\xe8~\x11\x1c\xc28md\xec})\xe3\xed:\xcf@\xd3.u\x0b\xcb\x88l\xedm\xe32\xcbq;\x88\xe1\x89G\xde,\xc7\x00c\xde\xbf8\x7fm{\xed\x1f\xfe\n{\xf1\x0b\xc2\xbf\x0b&gt;\x10\xea\xd2j\xfa\xe6\x97}=\xf5\xf6\xaaQ\xa2\xd1,m\x92\x13\xe6I&lt;\xe7\x8c\x0c\x00\x18\x03\xb9\x8e\xd1\x92\xc0W\x93~\xc5^\x1a\xf8\xe1\xff\x00\x05#\xf8\xdfcy}u\xa9x\x83\xc2\xb6\x1a\xf5\x98\xf1\r\xfe\xa9\xaa\xed\xb3*d\x13\x18&lt;\x86?\xbevH\xdb\x11\xc6\xbcnRp\xb5\xfb\xcdc\xf0{\xe1\xf7\xc0\xcf\x87Sj:?\x86\xf4o\x0c\xdaC\x11\xb8\xb9\xb3\xb4\x86%\x8d\xdb\xce\x92s\x18\x00m,\xd2\xfc\xb9\xf5-\x82\x00\xaf\xcbx\xc3\x88p\xf9\x1c\xdch\xaez\xf6\xd1\'\xf0\xbfN\xbe\x87\xadS\x88\xa7\x8a\xc2J\x8c\x1aQ\xe5nN[%\xa6\xaf\xb7\xea~\x14~\xd6\xff\x00\xf0Ko\x88\x1f\xb1\xef\x83t\x9b\x8d~e\xd5&lt;?y\x0c,\x9a\xc5\x8a\xb6\xc8/\x0cA\xda\x19\x10\x92\xc0\x13\x90\xae\xc4\x07\x00\x90\x069\xf9\xa6\xcfV_\rk\xc1\xa4O.l\x98d?\xde\xcf\x18\xc7\xa7\xd2\xbfa\xbf\xe0\xa6?\xf0R_\x07\xf8_\xe0\xd7\x894]wR\xb1\xd3t\xbb\x8b\x81\xe1\xeb\xdd:\x11\x0e\xa1\xad_NbI\'\x86;e}\x90\x94I"\xdf$\xad\xb9x\\\xe4\x95\x1f\x88~5\xf8\x99\x0e\xad\xabAwc\xf6\x86\xd3\xef\xcb&lt;K3+K\x1a\x83\xf2\xee+\x81\xbb\x1dq\xc6k\xb3\x80x\xa33\xce0\xb2\x9eiI\xc6I\xe8\xed\xba\xff\x005\xd4\xf9\xaa~\xc7X\xe1n\xe2\xba\xb5d\xdf\x92n\xf6_wf\xcf\xbe\xbf\xe0\x9a\xdf\xf0R\x19\xff\x00am_Y\xd0|I\x0bj_\t\xfce:\xb6\xab\x02\xfe\xf2M\x16\xe0\xa0O\xb5\xc5\xdc\xc6\xca\xa8$\x03\xa6\xd5a\x8f\x9a\xbe\xc0\xfd\xa3?h\xcf\n\x9d7E\xd0\xe6\xf1F\x8b\xa9i\xfe(\x84\xc9\xe1\xdb\xd5\xbeG\x92\xf2,n\xc1\xc1\xe7\x00\xe3=\xcd~,k?\x11Z\x7f\x87sGn\xb7\r|\xd8\xd8\xb1\xe3\xe7Q\xd78\xe7\xa6~\xb5\xe5\xd6\xf7z\x96\xa1\xac\xd8\xdd^\xc3\xa9[\xd8\xc2\xc0FQ]V\xddA\xc8\x11\xee\xe9\x83\xce}y\xacx\xaf\x82ifr\xf6\xde\xd1\xc3G{$\xef\xdbG\xd3\xbf\xde~\x8b\xc2|e_+\x87\xb0\x955;\xf5}\x17\xf5s\xf4\x0b\xf6\x9a\xf8\xb9y\xe16\x9e\xd4\xb3\xaa\xdb0h&amp;BJ\x92\x0erI=y\xc6{\xfe\x15\xf3G\x8b\xff\x00kMR\xe6\x07K;\xab\xab\x0b\xaf\xba\'\xb7\x97k{\x8e:\xd7Ew\xf1\x82\xcf\xe2\x06\x8dk\x1d\xdb\xc94\xf1\xc4\xb1J\xf2\xf2\xd7\x1cc-\xdbw\x03\x91\xe9^u\xe3\x1f\x836r\xb3\xdeiw1\xfc\xe0\xb7\x92\xc3\x80}\x0f\xbd|/\x0f\xe58L\x15\xa8\xe2\xe1i&amp;\xf5\xe8}/\x10c*b%\xed0\xcf\xdd}\x0e_Y\xf1\xa6\xb1\xe2\xb9wjZ\x95\xe5\xf6\xe3\x90f\x97vk\xd6\x7fb\xbf\xd8\xe3\xc4\x1f\xb5\xd7\xc6\x1d7A\xd2ce\xb4\xb8\x9e5\xbb\xba\nv[+0\x19\xe3\x19nx\x1d\xeb\xc7\xb4m\x06o\xed$\x86M\xca\xdb\xba\x01\x9c\xd7\xee\xf7\xfc\x1b\xed\xfb=i\xfaO\x82\xb4\xddA\xad\xd5o\xfe\xd5\xf6\xfb\x82\x13\xfeY\xc4\xa4FI\xff\x00\xae\x8e\x0f\xfc\x06\xbe\xa30\xc6T\xa7V\x8e\x17\x0c\xbd\xea\xb2Q^K\xab\xf9#\xe2h\xe1\xfd\xa7=J\xfbE6\xff\x00\xc8\xfd\x14\xfd\x96\xff\x00e\xef\x0c~\xc7\xdf\x03\xb4_\x87\xfe\x15\x85\xd7L\xd1c*\xd3\xc9\xcc\xd7\x93\x1ed\x96C\xd0\xb30\xcf\xb0\xc0\xae\xfaX\x14\'\xca+C\xec\xe4\x0e8\x1d1Q\xcb\x19\xdb\xeb_\xb0a\xe8\xc2\x8d5N\x1a%\xb1\xf1R\xa8\xe4\xf9\x9e\xe6\x1d\xe4\x1b\xc1\xff\x00\n\xe7u\x8b\x1f\xdd\xb7\xf9\xc5v\x17\x96\xf8\xe9\xfcU\x8b\xa9Z\xe7\xad*\x8a\xfb\x1b\xd1\xa9\xdc\xf3\x1f\x12i\xe7\xf7\x9f)\xfa\xe6\xbc\xe7\xc6\x1a\x06cf\xdb\x802r+\xda\xfcE\xa6n\x0e\x15x\xef\\\x0f\x8a\xb4\x8f5\x1bp\xfc=+\xc6\xc6a\xb9\x91\xf49n3\x92\\\xcc\xf0MsKkI\x89\x0b\xf7\x9b\xbd\x15\xd8x\x9b\xc3\x86YF\x17\xa1\xe9\x8e(\xaf\x93\xab\x80\xf7\xdd\x8f\xd1\xa8\xe61pL\xfc\xe8\xff\x00\x82\xa3\x7f\xc1z|]\xf1\xeb^\xd5&lt;!\xf0f\xeeo\x0e\xf8\x16\xd7}\xbc\xfa\xbc9K\xedp\x0e\x0b\x86\xceb\x84\xe7!W\xe6n\t ek\xe2\xff\x00\xd9\'\xf6i\xf8\xad\xfbm|C\x97\xc3\xde\x07\xd0\xf4\xcdZM=E\xc6\xa1wq\x88mlcc\x80e\x94\xe7k3\x11\xb5FY\x888\x07\x06\xbc\x9bT\xb7\xbc\xb8\xb8\x8e\x08\xe1\x99\xb7b1\x12r\xcf\x93\x80\xaa\xbd\xc9\'\x00z\x9a\xfe\x90?\xe0\x92?\xb1m\xbf\xec\x9b\xfb5h\x1e\x1f\x92\x08\x93]\xb5\xb7K\x8dl\xc0&gt;k\x8d^H\xfc\xdb\x87\'\xf8\x8c*D\x08OA\x8cb\xbe\xf3\x8f\xf8\x93\x0b\x90\xe0\xad\x87\\\xd3\x95\xd2\xff\x00\x83\xdc\xfex\xc1}f\xb4\xe0\xeao6\x92O\xd2\xf7~I\x1e\xb1\xfb\x1a~\xcczO\xec\xf7\xfb2\xf8\x1f\xc3&gt;&amp;\xd1t(\xb5\x9f\x0bivq\\\xde\xe9\xd6\xeb\x14kw\x0c;\x1eQ\xf2\x82\\6\x17-\xcbl\xc9\xe9\x8a\xf9W\xfe\nc\xff\x00\x05\x87\xf0\xb7\xecA\xf1oC\xf0\x86\xb7\xa7\xea\x1a\x94\x92h\xdf\xf0\x93B\xfalA\xc1B\xce\xb6v\xcd\xb9\xc1O3\xca%\xdc\x82\x02LN\x0f\x19\xd6\xff\x00\x82\xa0\xfe\xdc\xb6\xdf\xb2\x97\xc3\xdd[Z\xd7.\xe3\x85\xb4\x14x4\r-\x06\xd5\xf1\x16\xb2\x06R%\\\xe5\xad\xad\x89R\xec\xc0\x0c+\x1c\xeeu\xaf\xe7\x7f\xe2\x1f\xc5O\x10\xfc^\xf1\xa5\xff\x00\x8a\xbcE\xabj\x1a\xf6\xb9\xa8N\xd2\xdf\\]\xce\xd2\xbc\xf9\' d\xf0\xa3?*\x8e\x00\x00\x0cW\xe2&lt;!\xc2\xf3\xcej&lt;\xc71W\x8a\xd5YY\xdf\xb3k\x7f\xf8c\xd1\x96*\x9e*U(\xd3MSO\x96\xff\x00\xce\xe2\xd5\xdf\xa2i\xa5\xdfR\xcf\x8e.\xe4\xf8\xe3\xaaj\xde"\xf3&lt;\xcdf\xfa\xe6[\xab\xc5-\xfb\xc9\x9eF21?\xed\x12\xc4\xe7\xb9\xfaV\x17\xc3\xab\x9b]F\xf5t\x8b\xf9&gt;\xce\xcd!ky\x18}\xd7\xef\x19\xfa\xff\x00\x8dhi\x9e\x1c\xd5\xac5H\xeftX\xdahd\x1b\xce\x0f\x1bs\xca\xbf\xd3\xfc\xf5\xa9&lt;Y\xe0\x895mm\x82\xaai\x9a\x9c,\x0b\xc3\'\n\xaepP\xe7\xdf\xd7\xe9\xef_\xb6B0\xa7jq\xd1\x1d\xf1w!\xf1\x1e\x99|&amp;[K\x18\xe5Y\x11\xb6\xb3\x00W\x18\xe39\xad\xef\x0bxr\xebU\xb0\xd3|3\x15\xc7\xda5\xedNr\x91#\xcb\xb1I\xe4\x90I\xe9\xcdr\xfe)\xd5|Q\xe1\xfdr\xe2\xd3PYl\xee\xa3\xf9]\x03\x16\x0b\xd3\xa7c\x91\xcek\x1ci\x97\xb7\xf2}\xbaI\xa4\x17\nC&amp;X\xf9\x99\x1d6\xb7b+&lt;De8?b\xf5\xb6\x8f\xb3.\x9d\xd4\x93\x91\xec\x91\xdd&gt;\x8dg&amp;\x85\xaeh\xf0\xe9\x1a\xf6\x92Z\x19T\xc6Q\x9f\x1cs\xcf\'\x18 \xf3\x9c\xd7)\xab\xeaWVN\xbbd\x93\xc9l\xe3h&lt;\xfb\x1ek\xaf\xf0?\xc4\x84\xf8\xfdgg\xe1o\x18K%\xbf\x8c-B[h\x9a\xf4\x89\x95\xba\x03\x85\xb5\xba\xef\xb7\x19\xd9/U\xfe/\x975\xd0x\xeb\xf6y\xd7\xfe\x1a\xa5\xe5\x8f\x894\xab\xad*\xfa\xd2\x7f"Hg\xc2\x95m\x82A\xcfFR\x8c\x19Xd0 \x82A\xcd~_\x88\x92\xc2\xd4p\xc5\xaeY7\xb6\xad?8\xb7\xad\x9fn\x9b3\xf4\x0c-o\xad\xd3^\xc5\xedo\xe9\xff\x00\x99\xc6\xfc\x15\xd1o&lt;i\xf13G\xd3\xa3\x85Y\xae\xaeQs\x8cq\x91\x9f\xd2\xbf\xa7\x0f\xf8%\x17\xc1\xe8&gt;\x1c\xfe\xcfp\xde\xc7\x18\x8du\r\xb6\xf6\xc7\x18-\x1cy\x0c\xff\x00\xf0\'\xcf\x1f\xec\xd7\xf3\xb3\xfb&amp;\xe9\x11\xe9\xff\x00\x18t\x84\x8e\x18\xee5\x0b\xcb\x98\xad-#&lt;\xe6I\x18*\xfdy5\xfa\xc9\xff\x00\x04O\xff\x00\x82\xa3k\xda\x9f\xed\x9d\xe3O\xd9o\xc6k\xa7\xeb\x16\xbal\xd7\xb7\xbe\x17\xd6lU\xe31\xc5\x0f\xce\xd6\x92\xc6\xf8`B\x10F@eu`sZd4^3&gt;\x8dy\xafr\x8c\x1d\xbf\xc5\'k\xfd\xd78s\xc9\xbc&gt;\x01\xd3O\xe3\x96\xaf\xc9j~\xb3l\xc56H\xf2*b\xb8\x1f\xe7\xfc\xf5\xa6\xb0\xc8\xaf\xd7\x8f\x81\xf3F}\xd4\\V]\xed\xa6\xf5c\xeb[\xd3\xc1\xb9j\x8c\xf1mM\xbbj\xb9J\x8b\xb3\xb9\xc8\xeaVD\xee\xcf\xf1{W#\xe2\r\x1fya\x8f\xc6\xbd\x1e\xf2\xc3y\xe4V\x06\xb5\xa5\x99T\xe3\xd6\xb9\xe5N\xe7u\x1a\xd6wG\x8e\xeb\xbe\x1f/9\xc4\x7f0&lt;\xe2\x8a\xed5=\r\x9aS\xc0\xeb\xeb\x8a+\xcc\x96\x15_T{T\xf1\xb2QI3\xf9\xeb\xff\x00\x82p\xfc\x13\xb5\xf8\xb1\xfb}|/\xd3uFI-\xff\x00\xb5\xd7Q\x9d\x08\xca\xc9\xf6d{\x90\x9fB\xd1(\xaf\xe8\xc3\xe1E\xd7\xd8\xbc6\xba\xb7\xcc\xcd"\x1b\x96\xce73\xcc\xef+\x9f\xa9X\x15~\xa4\xd1E~I\xe2\xc5i\xbce(\xb7\xa5\x93\xfcY\xf39^\xb8\x88\xb7\xd2\x13k\xd5\xb8\xaf\xc8\xfcP\xff\x00\x83\x9d\xaf\x7f\xe18\xfd\xa4\xbc\x1b\xa7\xc2d\x85&lt;=\xe1\x85\xbb\xda\xcd\x88\xe4\x9a\xeayZW\xc0\xf5\x10\xa8\xf7\xfc+\xf3\x03I\xb2\xb7\x9fOF\x86?.\xe25/\xbb\xf8d\x03\xa8o\xe8z\xd1E~\xaf\xc3QP\xcb\xe9\xc6\x1a/\xf8,\xcf\x0f\x14\xe9BO~Tix+\xc4\xd3xoZkX\x7f\xd5K\x8b\x88\xd7?(W%Y\x0f\xb1\xda\x7fOJ\x9f\xc5Z\xcbj\x17wQ\\\x0f:m\x0f\xcb\x16\xf30\xf9\xa4\xb5\x90\xe4D\xfe\xa5\x0b\r\xa7\xb74Q^\xcc\xa2\x9b\x91\xb4\x9bI4u\xf0\xddC\xe3\x1f\x08[__[\xc75\xe6\x9fv\xbag\x9c\xca7\x95\xdaY\x1b=\xce\x0e\x0ez\xd4\x96\x1aTqjL\xa6(ZH\\,\x99_\x95\xbd\x08\xa2\x8a!\x14\x96\x86\x9c\xcd\xbdM\xddS\xe1\xfe\x9d\xe2\xabx\xfe\xd1\x1f\x93p\xbc\xa4\xd0\x8d\xaf\x13/F\x07\xdb\xaf&gt;\x95\xf4/\xc1_\x8aW\xbf\xb47\xc1\xaf\xf8U~9T\xd4/4k\xb8\xb4\xbd\x1bYE\xf3%\xd3\xe6*\xcd\x00\xf9\xb0\xcdn\xdf0x\x8b~\xec\x9d\xc8H%(\xa2\xbe_\x8b\xb0t*\xe0\xa7*\x91M\xc6\xcdy;\xee\x8fK)\xc5U\xa5\x8c\x8b\xa7+]\xdb\xe5\xd8\xe7\xff\x00aO\x86\xc6\x1f\xdb\xe7\xc1\xbae\xcc\xfc\xe9:\xa7\xdb\x1b\xcb$\xab\xb5\xba\xbc\xb8\x1d\x0e\tOj\xfd\x06\xf07\x86|5\xfb7\xff\x00\xc1N\xfe!|L\xba\xf0\xfcz\x96\xbd\xe0\xd9n\xa5]B\x1b\x96\x8ev\xb4\xbbvQ\x0f\x97\x80\x8c\xd1\x82\xc0\x16=\x1b\x00\x8d\xa2\x8a+\xe5\xb8V\tf\x12}\xe9\xaf\xfd+\xfe\t\xf4\x9c]&amp;\xe8R\xf5\x7f\xa1\xfa\xc1\xe0\xbf\x18\xdb\xf8\xeb\xc2\xf6\x1a\xc5\xacsCo\xa8F%H\xe5P\x1ds\xd8\xe0\x91\xd7\xd3\xf9\xd6\xc6(\xa2\xbfS\x86\xc7\xc0=\x08\xfb\xd5Yc\x0c\x83\xebE\x15\xacv\x11\x9f}\x17\xee\xfd\xbab\xb2o-B\x83E\x14\x17\x06\xee`\xea\x16\x91\xb4\xbftQE\x15\x81\xdb\x19;\x1f\xff\xd9'</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -504,6 +558,14 @@
           <t>Wilton Pereira Sampaio</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xe1\x00fExif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x04\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00&gt;\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00F\x01(\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\x011\x00\x02\x00\x00\x00\x10\x00\x00\x00N\x00\x00\x00\x00\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00`\x00\x00\x00\x01paint.net 4.3.4\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xdb\x00C\x01\x02\x02\x02\x02\x02\x02\x05\x03\x03\x05\n\x07\x06\x07\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01!\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xfd\xfc\xa2\x80\n(\x00\xa6\xc9"D\x8d,\xae\x15Te\x99\x8f\x02\x80&lt;G\xe3\xc7\xfc\x14?\xf6S\xfd\x9edk\x1f\x1c\xfcN\xb3k\xe5`\xbfa\xb3\x7f6@I\xc0\xc8\\\xe3\xad|\xfb\xe2\x1f\xf8-\x9f\x83\xf5{\x88\xdb\xe1w\x82V\xe6\xd5Y\x85\xc5\xce\xa5t!\xd9\x83\xd0\x0ew\x129\xedT\x92\xeaf\xea{\xd6H\xe4|Q\xff\x00\x05\xbe\xd74[\xb8mt\x9f\x07Y\xea\x13&gt;\x0f\xd9m\xb2\xd2I\x97\x00*s\x82J\xe7\x1d\xb2*\x9c?\xf0p&amp;\x97\xa5x\x8e\xfbO\xd5&gt;\x14\x8dSO\xb1\xb9\x11\xb5\xf6\x97t\x14\xb8&lt;\x83\xb5\xfb\xf6#\xd4P\xb9\x1fP\x93\xa8\xa5\xb1\xf4\xb7\xec\xfd\xff\x00\x05T\xfd\x95\xbe&lt;\x8bk$\xf1,\x9a\x0e\xa1p\xbf-\xa6\xb3\x1f\x95\x93\xe8\x1b\xa1\xaf\xa4,o\xec\xb5;H\xef\xb4\xeb\xb8\xe7\x86E\xdd\x1c\xb0\xb8ea\xea\x08\xa9\xba{\x1a\xb8\xc9nME\x02\n(\x00\xa2\x80\n(\x00\xa2\x80\n(\x03\x97\xf8\xc1\xf1\x93\xe1\xdf\xc0\x9f\x02\xde\xfcF\xf8\x9d\xe28t\xdd.\xc6"\xf3M3r\xd8\x1fuGr}\x05~U\xfe\xd4\xdf\xf0U\x0f\x8e_\xb5ZjZ\x17\xc2\x98\'\xf0o\x81\x84\x8d\r\xbd\xc3Lc\xbd\xd4\x94\x7f\x19#\xee\xa9\xf4\x1f\x8dEJ\xd4\xe8Ss\x99\xb6\x1e\x8c\xb1\x159"~\x7f\xfcz\xd4\xd2\xce\xe1\xae\xd1\xae\xae5\'\xe5n\xa6fvn}s\xff\x00\xd7\xaf!?\x13\xbe"[\xdb\xae\x98d\x932\\\x11\x0e$#\xe7\xef\xf5\xe2\xbcJX\xefiQ\xbb\x9e\x82\xc0\xfb=\xd1\xd7xC\\\xf1U\xf0\x9dn\x12\xf2Y\xed\xd5|\x9f.B\x1a\x12\x0eI\xc0\xf7\xafN\xf8c\xf0\xd4\xdfX4\x9a\x94R~\xf2_2E||\xe0\xf6\'\x19\xacqY\xa2\xa3+\x1e\x96\x0f/Uj95\xa1\xe8V\x9f\x02\xf5\x0b\x8d6\xe3P\xf0\xbf\x8a\xee\x96X\xa1o"\xd6y7/N\x83\xdf\xf2\xae\xdf\xf6\x03\xff\x00\x82\xa6~\xd5\x7f\xb2_\xc4Q\xf0\xcb\xe2T\xb7\x1e#\xf0\xfbL\x13\xfb"\xf1\x880F&gt;\xf3D\xed\x92\x1b\xd1O\x15\xb6\x170U,\xce&lt;^\x06Q\xba?j~\x00\xfe\xd1\xbf\x0b\xbfi\x1f\x05\xc3\xe3?\x86\xba\xf4w\x11\xb2\x8f\xb5Z\xb3bkg\xc7(\xeb\xd8\xff\x00:\xef+\xdd\x8c\x94\xa3tx{\x05\x14\xc0(\xa0\x02\x8a\x00(\xa0\x02\xabk:\xbe\x9f\xa0i7:\xde\xabr\xb0\xdbZB\xd2\xcf+\x9c\x05U\x19\'\xf2\xa0\x0f\xc9\x8f\xda\x07\xe2\x0f\xc4\x9f\xdb\xdb\xe3\xa6\xa9\xe2\xcf\x1a5\xcd\xaf\xc2\xef\x0c\xdfIo\xa0\xe8\xfb\x8a\xad\xf4\x91\xb1\x1ekc\xaeH\xfc\xab\x91\xf1\x7f\x864\xddA\xd6(\xfc=\x0cP\xc0\xbb!\x828\xc0X\xd0\x0e\x00\xaf\x9c\xe2\n\xfc\xb1\x8c\x13&gt;\xa3\x86\xf0r\xa9\xcdU\x9e5\xe3\xff\x00\x87v\xe8\xb7A\xfc\x175\xf4\x8c\xa4\xda\xc7\x14=\xfd3^Q\xa4~\xc9\x9e3\xd55\x95\xd5o|8\xd6\xc434q\xc9\xf7S\'\xef\x1fq\xe9_-O\x15*{3\xe8\xaa`\xe38\xd9\xa3\xd6\xbc\x07\xfb0\xc5\xe0\xed5\x99.\xe1\x92\xf2\xe3\x06i\xda\x1f\xcc\x0fj\xe8\xad\xfe\x19]\xe9\xe3lj=\xf6\xae+\x97\x1b]\xd5\xa8\x99\xd5\x85\xc3\xc6\x9d5\x14\x8e\x93\xc1\xde\n\xbf\xd2\xaf#\xbe,J\xac\x81\x99Yz\x80k\xb0\xf8\xc9\xfb4x\x7f\xe2\xdd\x94?\x13\xfc;\xa3\xc3\r\xd2\xe1L\xd0\xc5\x80\xccWn\xd2\x07q\xd6\xbb\xb2\xca\xf2\xe6\xb38\xf3\x1a\x11\xec7\xf6$\xf1\'\xc5\x0f\xd9\xa7\xe2TW\xba-\xc5\xe4\x97\x12]yw\xf6rFV;\xb8\x81\xe5q\xd3 w\xaf\xd7O\x01\xf8\xcfJ\xf1\xff\x00\x85,\xfcW\xa3J\x1a\x1b\xb8C\x7f\xba\xdd\xd4\xfb\x83_q\x80\xa8\xe5\x0eV|.6\x9a\x84\xee\x8d\x8a+\xd08B\x8a\x00(\xa0\x02\x8a\x00+\xe7o\xf8(g\xc4\xeb\x8f\x0fx\x0fO\xf8e\xa5\\\x98\xee&lt;IpR\xe7k`\xfd\x9d~\xf7\xe6H\x14\xa5.X\xdc\xbat\xddI\xa8\xae\xa7\xcf?\xf0\x8ah\xbao\x81m\xf4M\x16\xcb\xcb\x8dS%T\xf1\x9a\xf2O\x10\xaf\x97ta1\xf1\xbc\x8e\x95\xf1\x99\xc75J\x9c\xc7\xde\xe5\x0b\xd9PT\xd7B\x94\xf6\xc90]\xe9\xf7z\n\xafwg\x1b\xdb\xf9;6\xaes\xb4\n\xf9;7\xa9\xf4\nE;\x9f"\xca-\xbb?J\xc4\xbay&amp;\x9br:\x8e{\xd4\xc91\xc5\xaeckC\x8aw]\xa2D\xf6\xaf\xa5\xff\x00e\x1f\x0b\x1f\x10xf\xf2\x0b\xc8\xc3\xc3\xc3\x88\xd8p$S\xd7\xfck\xd2\xca\xe9\xdeG\x99\x9aK\x96\x06\xd7\x89~\x02h\xab\xae/\x88Y\xde\xdd\xad\xa4Y\xa3\xf2\xf8\xcb\x91\xfex\xaf[\xfd\x8c&lt;N\xf6\xda\x96\xbd\xf0\xf9\xf7,0\xcd\xf6\x9b0\xdc\x0c\x1f\xbd\x8f\xc6\xbe\xeb\t\xee\xd4H\xf8&lt;S\xf6\x90o\xb1\xf4\x05\x15\xeb\x1ehQ@\x05\x14\x00Q@\x05|\x07\xff\x00\x051\xf8\x99-\x87\xc7K\r*\x01\x96\xb1\xb3D\\\xe3\x8d\xc0\x92\x7f:\xe7\xc5K\x96\x8bgf\x07\xfd\xe1\x19\xfe\x0b\xf1\xff\x00\x865?\x05Y\xe9\x0f\x14\x8b*\xda+Op\xf1\xab|\xdbry\xce\xee\xe3\xf2\xae\'\xc6\x9aN\x98\xf2y\xb6\xf2\xc7\xf36k\xe3s*\x9c\xd1&gt;\xcb\x06\x9a\x91\x97\x06\x91fWo\xda\x17\xfe\xfa\xab\xf6~\x11\x81\xdb}\xc2\x85F\x1f+7C^\x14a\xcc\x99\xeb\x18&gt;-\xd1l,\xd4\xefP\xc0\x1e\x8b\\\xf4zn\x9b8\xfd\xda\x84\xff\x00z\x97-\xcd/cOM\xd1-md[\x96\xb9\xf9U\x81`\x0f\xbd};\xf0\x83\xc6\x1e\x1c\xf0W\x82V\xfbF\x83\x10\xcdy#H\xca\xd9\xe3\x03\x8a\xf4\xf01\xf6m3\xcc\xcc\xaf(\x17\xb5o\x8c\xba\x7f\x88\xee\xe4\xb6\x89|\x9d\xd2~\xee&gt;&gt;\xee8\xae\x97\xf6u\xd5%\xb4\xf8\xcf\xa7\xc8\x8b\x98\xef-\xe6\x86L\x0e\x9f.\xe1\xfa\x81\xf9\xd7\xd4\xe1gz\xa8\xf9\n\xd1\xb56\x8f\xa8\xe8\xafp\xf2B\x8a\x00(\xa0\x02\x8a\x00+\xf2\xa3\xfe\n;\xad\xde\xea\xbf\xb4\xd6\xa9\xe4\r\xdfg\x9bo_@Ey\xb9\xb5Og\x83l\xf5rh\xc6X\xe4\x9fc\x9a\xf0\xd7\x8dl`\xd0\x92\xde\xd6\xe85\xcf\x92\xa1\x93\x1d\xf1\x8a\xa7u\x17\x8a5\x99\xfc\xc5i\x162s_\x0f\x88\x9f4O\xb0\xc3\xc7\x96\xa3.\xd9h:\xb5\xbd\xccs\xc7\xaa+:\xff\x00\x04\x9d+rmoZ\x97m\x8e\xa5\xa9G\xfb\xbec\x8e3\xc0\xac\xe8\xd9#\xbdjfx\x83E\xd5u5\xf3-\xb51\x19\xdb\xc2\x16\xeb\\\xdf\xfc#\x1a\xdd\xb3\x93s\xaa\x1d\xd9\xfb\xb5&amp;\x83\x8c\x1a\x8ci\xe5\xc9z\xcc\xbd\x18g\xa8\xad\xef\x85?\x1d\x9f\xc16\xb7\xde\x14\xb8\xf0\xd4\xd7B\xe6B\x96\x92\x99\t\x11\xb3q\xd2\xba(6\x9d\x99\xc7\x8a\x872:6\xd7o\xa1\xf14f\xf2\x19\xa1\x9fhY3\xc0\xcd}\x03\xfb2x\xa2x|w\xa2\xad\xc4\x98f\xbc\x07\xe6\xee\xb9\xe7\xf4\xaf\xa1\xc1\xcf\xf7\x91\xf9\x1f/\x8c\xa7\xee\xc8\xfbJ\x8a\xfas\xe6\xc2\x8a\x00(\xa0\x02\x8a\x00+\xf2\x1f\xf6\xf6\xbd\xb8\x93\xf6\x96\xf1\x03D\xf9\xff\x00Je\xdb\x9e\xf95\xe3\xe7\x8f\xfd\x8e\xdeh\xf625|m\xfc\x85\xf8\x0f\xf0\x8e]gK\xff\x00\x84\xab^u\xb6\xb4U\xcb\xdcNp\xa3\x07\xa5X\xf1\xe6\xa9a\xa3^\xb5\xbe\x83\xac\tc\x07\x1b\xa1\xf9\x86+\xe3\xa5\x1ek\xa3\xea\xa9\xcf\xf7\xa7%\x07\x8e"\x86\xf4=\xc5\xdf\xca\xbf{\xe6\xe6\xa3\xd4&lt;ao}\xa8}\xb2\xc7QU\\rX\xfaW\x1c\xaa{3\xd5\xa7M\xb8\xdc$\xf8\xc1\x1a\x98\xd2\xda\x18\xe6\xf9q\xe7u9\xa1\xbcyit|\xeb\xcb\xb5M\xdf\xc4\xcc\x14TG\x11);#^h\xc2:\x9b\x9e\x12\xf1\xb7\xc3\rR\xf5t\xab\x8f\x10@n?\x89wt\xae\xea\xfb\xf6}\xb9\xf1\x9f\x85\xaf/\xbe\x19\xaf\x9fq\x00\x13\xaf\x94\x0e\xec\xa9\xceG\xe5^\x85\x1994\x99\xe5\xd7\xae\x9b1\xbc=\xacjZ\xa6\x95s\xa6\xfcF\xb6\x92=R\x18\xd9\xb4\xf9\x11p\xd3\xcb\xbb\x1c\x93\xd8w\xafI\xf8\x0b\xe2\rKE\xf1N\x93&gt;\xb9\x1b\xf9\x8by\x1a\x9d\xbe\x84\x81^\xae\x1e|\xb5,x\xd8\x85\x19E\x9f\xa2\xd6r\xf9\xf6\x91O\x9f\xbf\x1a\xb7\xe6*J\xfb3\xe4\x02\x8a\x00(\xa0\x02\x8a\x00\xcc\xf1g\x8b\xfc;\xe0\xad"Mg\xc4\xba\xb46v\xe8\xa7\xf7\x938PN:W\xe3\x87\xedG\xf1"\xc3\xc4\xdf\x1c5\x8f\x18\xd8\x93%\xbb^&lt;\x80\xba\x95\x0e\x03\x1f\xf0\xaf\x9f\xe2\n\x8a8x\xc7\xcc\xf7\xb28\xcb\xdbJ~G\xcb\xff\x00\xb5\xef\xed\xfb\xe2}3H_\x02h&gt;/k\r1\x17r\xd9\xdb\xc9\xb5Cw\xe7\xbd|\x9f/\xfc\x14\xef\xe2O\x83]\xad\xb4\x9dzK\xef-\xbfy\xfb\xc2x\xfa\xd7\xcf\xe1iJ\xb1\xebW\xac\xa8M4w\x1e\x14\xff\x00\x82\xbbY\xea\x9aL\x90k\xba`\xfbc.\x15\x8a\x81\x9f\xc4W\xbc|\x12\xf8\xfb?\xc5\xbf\x87\r\xe2$\x89\x80\xc3t5\xc5\x8f\xc1\xce\x9c\x8fk\x01\x98F\xb5;3\xc2&gt;%\xfe\xdf\xbe/\xf87\xae_\xf8Di\xed \xb7f\xf2fi1_?x\xfb\xfe\n\x19\xf1\xeb\xc6\xb7\x92\r7R\x92\xde\x16\xe0,lKWF_\x97\xc6k\x9aG&amp;a\x8b\x95=\x11\xb3\xf0\xe3\xf6\xc8\xf8\x89\xe1{\xeb{\xef\x14I\xa8G#F\xad\xe6\xcaJ\xee\x07\xbf\xd2\xbe\xf3\xfd\x8b?\xe0\xa9\x1e(\xf0\xc6\xb1j4\x8f\x1b\xcd$S\xc8\xa2H]\xb7/=A\x15\xd3Z\x8f\xb0\x95\xd1\xe4P\xc4{k\xa6}\xa1\xe3/\x8d\x9e\x14\xf8\xba\xd1\xea\xb6Vq\xdb\xdcO\x1a\xbb\xb4*\x00\xdd\x8eH\xf4\xad-\x0f\xe2\r\x8f\x81\xf4\x18u]Nu\x93\xec7\x02|\x93\x97|\x11\x85\xfc\xfaT\xd3\xab\xfb\xc4\xcd}\x9f\xb4\x92G\xd9\x9f\xb3\xf7\xfc\x14\x03\xe0\x7f\xc6=f\xc3\xc0v\x1a\xd4v:\xa5\xc4)\x1d\x9e\x9fy2\xac\xf3\xb0_\x9bjg8\x1e\xb5\xf4\x05}\xb6\x1f\x11\x0cE&gt;h\x9f5\x8e\xc1V\xc0\xd6P\xa9\xd5\\(\xae\x83\x8c(\xa0\x02\x8a\x00\xfc\xf3\xff\x00\x82\xfb\xfcy\xf8\x83\xf0?\xc1\x1f\x0f_\xc2qy\xd6:\xc7\x88\x1a\xd3R\xb7e\xc8\x90\x11\xc7\xe5_\x0b|O\xd4\xae\xbcK\xa4\xb5\xd6\x9fo$3Ob?v\xc0\xf0\xc4t\xaf\x85\xe2\n\xf2\xfa\xff\x00\xb3\xec\x91\xf7\x99F\x16?\xd9\x10\xaa\xb7m\xfe\x0c\xf8s\xc4\x9f\xb1w\xc5\xef\x8c\x1f\x10\xee\xbcE\xe3\x8b\x8f\xb1h6\x97\x18o1\xb6\xf9\x89\x81\xff\x00\xd7\xae\'\xf6\x94\xfd\x90\xf5\xc8\xfcF\xd6\xbf\x08\'\xd3\xe2\xd1\xee\xad\xe3\x8e\xe6\x15\xb8E\xdcW\xbez\xe7&gt;\x95\x9e\x0b\x15\xecl\xacc\x8c\xc2\xba\x96\xb1\xcexW\xfe\t\xc5\xf1{X\x92\x1b\xcd6[) \x04\x19A\x9c\x97\x1e\xc3\xd6\xbfL\x7fc\xdf\xd9K\xc3\xff\x00\n\xbe\x15\xd9\xe9\x9e \xf3&amp;YC\x06\x8ds\xf2\x9cQ\x98V\xf6\xcdX\xed\xc0a}\x82\xd4\xf0?\xdb3\xfe\t\xfb\xa1|J\xf1l\xda\xc7\x86RKi\xa5c\xf7\xb2r\x01\xeb^+\xe1\x9f\xd9\x87\xe1\xdf\xc2\x19\xaf4\x9f\x15\\\xc54\xd7\x1ak@\xd3&lt;G\xf7lG\xde\xf6\xae:X\xe9\xd1\x8a\x89\xd3\x88\xcb\xfd\xb9\xcd|\x19\xfd\x984\x1b\x7f\x1a\xddj~6\xf8\x81k\xaci\xd1\xc2\xd1X\xd8\xac\xcf#\xf3\xc0\xe0\xf4\xc0\xaf\xa1\xfe\x1e\x7f\xc18/\xbc7uk\xe3O\x87Z\xd7\x99o4\x82V\xb6f\xc7\x97\xed]x\x8cR\xad\x15c\xcd\xa7\x96\xbc=F\xcf\xaf\xbe\x16x_U\xd0t\xd4\xb7\xd6\xed\x9a9"\x8dT\x12x\xad\xaf\x1dx\x9a\x1d.\xca\r-\xf5X\xa1\xba\xbc\xdd\x1d\xb2\xdcL\x11T\xe3\xef\x12{W\x14\xa7\xcb\xa9\xd7\x87\xa3\xfb\xe4x\xcf\xec\xcd\xe0\xaf\x14\xf8o\xfe\n\x7f\xf0\xcb\xc6\x11jo+\xdeN\xf1\xdcK\x1c\xc5\x91\xf0p\xdb}\xb1\x8a\xfe\x84#$\xc6\xa4\xff\x00v\xbe\xa3\x86\xea:\x98z\x9e\xbf\xa1\xcd\xc7\x94\xa1K\x15\x87\xb7Xk\xf7\x8e\xa2\xbe\x90\xf80\xa2\x80\n(\x03\xe2\xff\x00\xf8-\xe7\xc2k\x1f\x1e~\xccv&gt;5\xbe\xb7\xf3\x07\x84\xf5\x95\xbf\n#\xdcO\xca@\xfas_\x9b\xbf\x06|m\xa4|U\xf0\xf6\x87\xe2\xfbmr+\xdbk\xe8\xd5\xa6\x87\xe4\x12Z6p\xd0\xc8\x17\xee\xb0 \xf5\xe7\x04W\xc8g\xd8;\xd7\xf6\xdeH\xfb\x8c\x8f\x1b\x15\x96*=\x9b\xfclz\xff\x00\xc6/\x81\x9a\x06\xbf\xe0\x06\xbc\xf0\xac\xf1\xaa\xace\xa6\xb5\xff\x00\x9e\xbcv\xf4\xaf\x8d\xb5_\x80\x1e\x19O\x13}\x83L\xf0\x9c\xd2\xdd4\xdf"\xb6Xn\'\xd2\xbes\xda{\xc7\xb7\x87\xa5\x19KS\xe9\x8f\x82\xff\x00\xb3L&gt;\x00\x8a\xd6\xff\x00\xc4\xb6\xcbqu6\x19mY\xb6\xacjGJ\xf7\x8dO\xc2z&amp;\x81\xa0\xe9\x1aT?\xbb\x92HY\xee\x02\xc7\x90\x18\x9e\x07\xe5[9sD\xeat\x97&gt;\x87\x1f\xe2O\x86\xfa{\xde\xad\xdc\xb1\x89\x14\x7f\x1b`b\xbc\'\xf6\x88\xfd\x914\xff\x00\x10\xad\xc7\x8c\xfc+`\xb36?}o\xb7p\xe9\xf4\xaeyD\xde0\xb1\xe7\xff\x00\t\xff\x00f\xdd*\xdf\xc4\x11\xc9q\xa0\xc7n\xd8P\xed\xe4\xed\xe7?J\xfa\xcf\xc3\x9a/\x82~\x1eYZ\xc1"\xa3+/\xcc\xab\xcfj|\xfc\x91\xd4\xe5\xc4F\xe5O\x13x\xa3\xc3\xfe%\xd4&gt;\xd1\xa0[\x98\x963\xb2E\xda\x00\xfa\xf1^3\xfbj\xfc\x07\xb9\xf8\x9d\xe0\xdd\'\xc4&gt;\x1c\xf1\x8c\xf6\x1a\x86\x9f3\xac\xb6i\x9d\xb3!\x03\x07\x8e\x87\x83Yb*sQ3\xc0\xc3\x97\x19\x193\xd1\xbf\xe0\x94\x1f\xb3\xcf\x8c.\xbfh\x0f\x02\xc3\xe2\xef\xf4\xa9\xf4\xb9%\xbe\x13H\xa5\x9a8B\xfb\xf4\xc9\x15\xfbT8\xe0W\xd8\xf0\x9ce\xfd\x9a\xe4\xfa\xc9\xfe\x16&gt;{\x8e\xab*\xb9\xb4b\xbaE~l(\xaf\xa7&gt;((\xa0\x02\x8a\x00\xf3\xcf\xda\xbf\xe1U\x8f\xc6\xdf\xd9\xd7\xc5\xff\x00\x0co\xe1,\xba\xb6\x87&lt;+\xb7\xef+l8#\xdc\x1a\xfc\x12\xfd\x90\xbe\x0bk?\x03&lt;;\xe3\x1f\x08\\i\xb7J\xbao\x89Ky\xf3F~fp\x0f\'\xd7\xfc+\xc7\xce\xe1\xcd\x82v=\x8c\xa6\xa7-Ky\x9e\xcdg\xf1CW6-a$\xe7b\xf1\xb4\xb7j\xf4\xcf\x83\x96\x9e\x04\xd34\xcf\xf8Lu\r:\x1b\x8dP\xe4[\xb3\x0c\x88\xb3\xdf\xeb_\x9c\xf3{\xc7\xe8\x18X\xaeT\xd8\xdd{\xe3w\xc0\xaf\x07j\xb1\xeb\x7f\x15\xfci&amp;\x9c%\x95\x96\xc6\xcddPfa\xd7\x96\xf4\xa9u\xdf\xda\x97\xe1\x16\xab\x02\xdd[A4\x90\xed\x02\t\x1a\xe0e\xc5z\x14\xd4\x9cnuo#\xcf\xbc}\xfb|~\xcd\x9e\x00\x8d4\xcf\x88\xfa\xd4\xdab\xdc\x1d\xb13\xc8\to\xa0\xae\xe3\xe1_\xc4\xcf\x87\xde2\xf0\xea\xeb~\x0c\xd6\xc5\xee\x95\x7f\xcc\x0c\xfcq\xe9D\xe9\xb4\x93*5:\x1c\xcf\xc5\xadb\xd6\xd6\xeb\x1a4\x0b\t_J\xf3C\xe2\xadv\xea\xf8\x1b\xbdL\x8d\xad\x80\xb5\xe7\xe3%\xcbk\x13+3\xb1\xf09\xbd\xb9\x9f*\xd9,G\xf3\xad\xcbh\xbc-\xe3?\x8c\xf1x\x1bY\xd6cKu\xb7\r-\xaa\xe4I$\x80\x1d\xa3&gt;\x99\xaca.hjs\xd3\xd2\xaa\xf5&gt;\xf4\xff\x00\x82e\xfe\xcfz\xbf\x82\xf4\xfdc\xe2\xdf\x8d-\xe3\x17\xfa\x93\xfd\x97ME_\xf56\xaax\x03=\xcd}i_\xa8\xe4\xf4V\x1f-\xa7\x15\xd5_\xef\xd4\xfc\xf7&gt;\xc4&lt;FmV]\x9d\xbe\xed\x02\x8a\xf4\xcf\x1c(\xa0\x02\x8a\x00GE\x91\x1a7\x19V\x185\xf8\xf9\xff\x00\x05B\xd6\xb5O\xd9\xd7\xe3\xd3|\x0e{q\xa7\xf8w\xc5WSkzm\xc40\xfc\xd7W\x81U|\xa2\xd8\xc61\x93\x8c\xf5\xae&lt;}?i\x85\x92;03\xe5\xc4#\xe7}.mCP\x95\x88e\xdd\xdf\xe6\xafU\xf8wqvt\xd5\xd3\xd5\xbfy\xb7;k\xf2\xf9E\xc6\xab^g\xe9\x18z\x91\xe5^\x83\xfe-\x7f\xc18|)\xfbo\xe8Z_\x83\xbc_\xad\xcb\xa2\xcdn\xf2I\x06\xa9n\xd8h\xb23\x9fs_&amp;\xfe\xd8\xdf\xf0O\x0f\x8f\xbf\xb3\x05\xc5\x9f\x86~\x12\xfca\xd4\xbcY\xa7\xd8\xb2\x89\xa6\x9aEWE\xfc\r{Xx\xfe\xe0\xb9V\xe5\xaaX\xd3?\xe0\x9cP|}\xf0\x86\x9f\xe3\x9f\x89\x9a\x9c\xd1\xea\xd1\xa2$k3\x16\xda\x83\x04\xf1\xd3&lt;\x9a\xfaK\xe1\xff\x00\xc2]?\xe0\xc7\x80\xad\xbc\'\xa0\xc94\xd1Z\xe3\xc9f\xe0\x8a\x8a\x8b\x9a)v3U\x7fx^\xd7\xac\xce\xad\xa7\xf9\xd7)\xfb\xccs\xb9\xab\xcd\xf5](\xc1\xa8\xe1\x1f\xf8\xab\xc6\xc7i#\xae/\x98\xf4o\x866\xb7\xdfi\x8c\xc1&amp;zn\xcfa_K|\x03\xff\x00\x82{|r\xf8\x83\xa8i\xdf\x11\xbcY\xa6i6P\xdc\\4\xd6w\xea\xd9\x94[\x93\xf2n\x18\xeb\x8a\xe8\xcb2\xca\xd9\x85NX=\xb7\xf4\xb9\xe7\xe3\xb3\x0c&gt;_\x15R\x7f/S\xf4[\xc1~\x19\xb7\xf0w\x85\xec|5l\xfb\x96\xd2\xddc2m\xc6\xf2\x07&amp;\xb5+\xf5JpT\xe9\xa8.\x8a\xc7\xe6\x95*J\xa5G7\xd5\xdc(\xaa (\xa0\x02\x8a\x00+\xe5\xdf\xf8+\'\xec\x83\xa3~\xd4\xbf\xb2\xf6\xa9\xa8Y\xe9+/\x89\xfc#\x0c\x9a\xaf\x87n\x11\x7fx$\x8dw4`\xf5\xf9\x80\xe9\xeb\x8a\x99EN./\xa9P\x93\x8c\x93G\xe2w\xc3\xff\x00\x89Z\xa5\x9e\xa55\xae\xb5\xa5\xddG\xb4\xab\xfd\xa2hJ\x89\x91\xbf\x8c\x1e\x99\xcf\x04v \xd7\xd2?\x08\xb5}1\xed\xa2\xf1\x19\x9f|&gt;Nw+\x0cW\xe6\xd9\x86\x15\xe1\xf1\x8d&gt;\xe7\xdbe\xf8\xafkM\x1d\xe6\xa3\xfbO\xf8WA\xd3\x8d\x9cz\xcd\xbd\x9d\xbe16\xa14\xc1R\x10:\x93_=|A\xfd\xbd\x7fc\rSP\xbb\xf0\xce\xa1\xf1\xa6MI\x94\xe4\xdf-\xab\x08\xcb\x03\xca\x83\xde\xba\xb0\xf2\xfd\xdd\xacz\x12|\xd3N\xe6\x8f\xc2?\xdb\x97\xf6Y\xf1\x9e\xb5\x0f\x81&lt;\x15\xf1\x1e\xdc\\D\x8a\xaa\xba\x8f\xeeD\xa78\xf9KW\xaf\xcd\xe3O\x07\xcbr\xf0\x7fh\xdb\xb3\xaf\x05U\x81\x14\xe5\x12\xa3\xf1\xde\xe71\xe3\xe8\xddb[\xfd2\xe3tr\x7f\n\x1e\x95\xe6W\xd2]\xcb\xaa*\xb3\xb7\xde\xc5xy\x87\xf14;\xe9\xcbC\xd4~\x12]\xfd\x8e\xf8y\xef\xd5GZ\xfd\x90\xf8\x0f\xaa[k\x1f\t4+\xfb&lt;ym\xa7\xc7\xb7\x1e\xc2\xbe\xa3\x85~)z\x1f\'\xc4\x9f\x0c}\x7fC\xae\xa2\xbe\xd0\xf9 \xa2\x80\n(\x00\xa2\x80\ne\xc4\x11]A%\xb4\xe8\x19$B\xae\xad\xdc\x11\x82(\x03\xf9I\xff\x00\x82\xcbx\xa7\xe27\xec\xd9\xfbd\xf8\xdb\xf6r\xd2\xf5\xbb\xab=\'G\xf1\x05\xc5\xc6\x92\xb0\xb6\xd5\x16\xf7,f@=\x80b?\n\xb3\xfb\x1a\xfe\xd6\xde?\xd0\xbff\xcb\x86\xf1f\xeb\xa5\x86\xfd\xa0\xd3\xe5\x93\xab\xae:\xe6\xbeg:\xc2\xc6\xa7\xbe{9]IBV0\xf4\xff\x00\x83\xbf\xb4\x1f\xed\x8b\xfd\xa1o\xa1\xfcR\xd1\xf4\x8b9\x9d\xbf\xd0o.\x983\x8e\xbd\x05q&gt;%\xff\x00\x821\xfe\xd4\xf2N\x0e\x83\xe3=&amp;\xe8n\xf9\xb6\xdc\x15P=\xab\x8f\x01V\x85(\xdeh\xfa\xc8`q\x18\xe8\xde\x05\x8f\x0c\x7f\xc1\x1f\xbfj/\x0f\xb3j\xde#\xf1\xce\x93`"\xff\x00V\xeb;6O\xd7\xb5z\x97\x83\xb4/\xda?\xe0\r\xe5\xad\x87\x8e\xbcy\xa6\xeb\x160\xa8U\x16\xec\xcd!_rjq\x95)T\xd6\x08\xeb\x8e_[\x07\x1f\xde\x1fd|\x1d\xf1w\x87|u\xe0\xdby\x1e\xfb2\xf9yec\xd0\xfaV\x0f\x8c\xff\x00\xb2\xb4\xedt}\x92u\xfb\xdfw5\xf2\xf8\xafzF\x97\xe5GQ\xf0\xefS\xfb]\xf6\x10}\xd5\xed_\xb0\xdf\xb1\xc4\xe6\xe3\xf6u\xf0\xdb\x96\xcf\xfa\n\x8a\xfa\x8e\x17\xd2\xb4\xbd?T|\xae{.j\t\xf9\xfe\x8c\xf5\n+\xed\x0f\x95\n(\x00\xa2\x80\n(\x00\xa2\x80?\x08\xff\x00\xe0\xe0\xff\x00\xd9\xb7\xc1\xb7\x7f\xb7\xdax\x93\xc5~\x15\x82\xf6\xdf\xc5\xbe\x0f\x86h]\xfeR\'\xb6r\xa4q\xea\xad_\x0b\xfcj\xd3,\xb4O\x86\xd1h\x1e\t\xb0Kx \x1b\x968W\x00q\xed_\x1b\x9f\xd7\x95&lt;J\x81\xefe1R&lt;\xcf\xe1&gt;\xad\xf16\xcbC\x7f\x10\xf8v\xe2{{\xcb)\t\x8c\xfc\xc3wj\xe8\'\xff\x00\x82\x8e\xfe\xd4\x9e\to\xb0x\x97\xc3\x1et\x11\xf1\xe7\x04d\xcdy\xf8^Y\xe8\xd9\xf6\x98,w\xd5\xe9\x974\xef\xf8(\xf7\xc6\x7f\x88K\xfd\x8b\'\x81\xa4]\xdcG0v\xda\xbe\xe6\xba+_\x16x\xafZ\xd1\xe4\xd4&lt;H\xd2=\xec\x83v\xe0\x0e\x17\xd8T\xe2\xa4\xa1\xa2gELg\xd6\x8e\xb7\xe0\x0f\xc4/\x14X_\xc9\x1e\xf7H\xfd2@5\xea\x8f\xe2+\xbdN\xfdg\x9d\xb2\xcc\xd5\xe4\xd4\xf7\x8ez\x96\xe5\xb1\xec_\tm\x9d\xa7\x8d\x82e\xa4\x8f\xa6+\xf5\xc7\xf6\x00\xf1\t\xd6\xbfg\xdd&gt;\xcd\xcf\xcdb\xe6\x1d\xbd\xc0\x15\xf4\x9c7.\\U\xbb\xa7\xfa\x1f/\x9c\xd3\xff\x00cO\xcc\xf6\xea+\xed\x8f\x95\n(\x00\xa2\x80\n(\x00\xa2\x80?.\xff\x00\xe0\xe1\xdf\x86w\x97\x9e"\xf8k\xf1b\xd6\xc1\x8c:q\xba\xb5\xbd\xb8U\xe1\x15\xf6\xe0\x1a\xfc\xa7\xf8\x8b\xa6\xd8\xe8\xba\x95\xc6\x8b\xa9L\xbff\xdd\xbe\x16oBzW\xc6\xf15;\xce2G\xb3\x94K\x96\xa3:\x1f\x85\xf6\xfe\t:\x7f\x93j-\xdf\xb9\x19\x14\xcf\x12x\x8f\xe1e\xa5\xfb.\xa7\xa5\xd8H\x14\xfc\xc2eV\x1f\x91\xaf\x9b\xa5RQv&gt;\xae\x8ca(]\x8e\xd0|s\xf0KW\x93\xec\xd6\xfa\x16\x8c\xac\xbc~\xee\xddU\xbfJ\xea\xa0\xb6\xf8P\xdal\x8b%\xb5\xaa\xb3r\xaa\x1b\xff\x00\xafN\xa4\xe5-Y\xd5O\x95j\x8f&lt;\xf1W\x8d\xbc1\xa3\\\xb5\xaf\x86\xad\xe1\x8fka\x8a\xb0\xa84O\x88\xad&gt;\xa1\x05\xbc\x17\xfb\xe4g\xf9Q\x1b&amp;\xa6\xda\x19J\\\xd2\xb1\xf5w\xec\xdd\xe2\xab\xcb\x1dwO\xfb\\\r"\xb8\x0b a\xd2\xbfU?`\xfdr\xd3\xc3\x9ae\xe6\x87=\xc8\x16\xf7l\xb3\xc4\xecp\x01&lt;W\xaf\x91\xcf\xd9\xe3\xa2\xfe_y\xe6\xe6\xf4\xd4\xb0M\x1fM\x03\x91\x91E~\x80|@Q@\x05\x14\x00Q@\x05\x14\x01\xf3\xef\xfc\x14\xd3\xe0\xef\xfc.\x8f\xd9+\xc4\x9e\x1f\xb2\xd3V\xe6\xfe\xde\xdb\xed\x16+\x81\xb8:\xf3\xc7\xe1_\x83\xff\x00\xb4\xbf\xc3\xfd=\xb4\xcf\x9e\xd8\xb4\xd6\xf0\x88\xefYO\xdclu\xfa\x7f\x85|\xfey\x85\x95h\xa9\x1e\x96_QFv&gt;Q\xf1\x8c\xbe;\xf0,s\\\xf8kR\x97\xc9Q\x8e\xf8\xc5x\x8f\x8a&gt; x\xb6\xe7Q{\x8b\xddZr\xecy]\xe6\xbc\x1c&gt;\x1e\x1c\xfa\x9fA:\xd2\xa5L\xa5\xa6\xfcJ\xf1\x0e\x997\x9b\x15\xf4\x81\xbf\xdf5\xd4i\xbf\x1c~ j\xd3\xad\x95\x8d\xcd\xd4\x8cF\x17k\x1a\xd2\xb6\x0e\x13\xf7\x97C:Y\x84\xa7\xee\x9d-\xa6\x8d\xf1\x87\xc4\xfbZx\xe4\xb7\x8d\xb9i\x0c\x988\xaf\xa7\xbfdo\x84\xd6z]\xdd\xad\xef\x88\x03M |\xb4\xd2\x1c\xfaz\xd7\x93[\x96\x0e\xc7\xafB2\x9a\xb9\xfa!\xf0\xb7\xe1\xe7\x83&amp;\xb4\x86M\t\x93\xcee\x0c\xc5\xf1\x91^\xb1\xf1o\xe2\xc6\xb5\xe1\xdf\xd9\x7f\xc5&gt;\x04\xf8k\xac\x8b_\x19j\x9aKX\xf8F\xea6\xf9\x97P\x94\xaa\xa2\x8cs\xea}\x80&amp;\xbb2\xdf{\x12\xacrf\x8f\x93\x0c\xdfc\xe9\xaf\x84\xbf\xb4\x1f\x89&gt;\x15|:\xd1\xbc?\xe3\xadVM^\xfa\xd7K\x8c]\xcb3\xfe\xf2y\x02\x8d\xc4\x13\xef\xd2\xb4|\x11\xff\x00\x05F\xfd\x92\xfcI\xe3\xf1\xf0\x97\xc4?\x11\xec\xb4_\x13\xad\xba\xcd.\x93}0Y\x11X\x90\t\xfc\xab\xf4\x08\xf3F)H\xfc\xfa\x9e"5f\xd2&gt;\x80\xd0\xfcG\xe1\xff\x00\x13X\xa6\xa7\xe1\xddj\xd6\xfa\xdeA\x94\x9a\xd6u\x91O\xe2\r]\xad\r\xc2\x8a\x00(\'\x1c\x9a\x00\xf9\xaf\xf6\xce\xff\x00\x82\xb2~\xc4\xff\x00\xb0\xacB\xd3\xe3W\xc5H\x7f\xb5\x9f\xfd^\x89\xa5\xa9\xb8\xb9\xfa\xb2\xaf\xdc\x1f\\W\xc9\xba\xaf\xfc\x1c\x8d\xfb.\xf8\xfd\xbc\xcf\x01\xfc]\xd1\xfc=n\xd2m\x8f\xfbn\xd2d\x96A\x81\xfd\xe5\x00rq\x9fj\xd24\xf9\x82Z+\x94|Q\xfbz\x9f\xda\x07G\x8fM\xd1&gt;%\xc3\xa9Y\xeb\x91\x98\xe1\xd5\xb4]StG\xb1VP~C\xf5\x185\xf2?\xc7_\x811\xa4\xf3C\x1f\x89o\x15\xe7b\xb2M"\xab\x02=\x08\xef\xfey\xadq\x18X\xd6\xa3\xc8\x91\xe4\xff\x00i\xd4\xc2\xd6Rg\xcb\xbf\x1d\xbfe\x8f\x89\xba.\x916\xb7\xe1\x89\xe1\xd6\xec\x16&lt;\xcd\xf6I\x06\xe1\xf5^\xa0\xfd2=\xeb\xe3\xbf\x88\xfe\x10\xbc\xb6\x97\xcd\x9a\xdaH\xa5\x0cD\x91\x18\xf9Z\xf9LF[S\x0fR\xe7\xd5\xd1\xce(\xe3p\xea\xdb\x9cL\x9a}\xc4g\x12#~+^\x97\xf02\xebH\xb1\x99&gt;\xdf,q\xc9\xbb\x19e\xcdqVmCC|\'\xf1\x92\xee}3\xa3\xf8Mu\xabx\xe5\xb1\xd4\xa3\x91J\x83\xfb\xb8\xbaq^\x97\xe0\x86\xd7\xbc5\x04v\xa9ndEa\xf3m"\xbeC\x15_\x9a\xad\x8f\xbb\xc2\xd1\xe5\xa3\xa9\xf4\x0f\xc2\xff\x00\x8dZ\x7f\x83l\x1bV\xf1?\x88c\xb4\x86\x18\xf0\x17q\xcb\x9f\xee\x8fs\xd0\x0e\xf5\xee?\x02\xec5o\x16x\x8a\x0f\x8a\x9e0\x82[?%K\xf8\x7fI\xba\x8f\xe7\x840#\xcf\x90vr:\x0e\xc3\xeb_Y\xc2\xf8\x19b\xab*\x8f\xa1\xf2\\S\x8e\x8e\x17\x0e\xe9\'\xab:\x7f\xdb?\xf6\xac\xf0\xb7\xec\xdf\xf0OT\xf8\xcf\xe2\xbb\xd1\x1f\xf6}\x91K\x18\xf7s&lt;\xe4aT\x0e\xf95\xf8\x0b\xab\xfe\xd4\xdf\x11|E\xf1\xdfR\xfd\xa0&lt;G\xaa\xbbj\x9a\x8d\xe1\x9d\x95r\xa1Ww\xca\xa3\xd8\x0e+\xf4,E.]\x0f\xcep&lt;\xd1\x971\xf4V\x91\xff\x00\x05G\xfd\xab\xfe\x10X\xe9\xdf\x19\xff\x00fO\x8d\x9a\xd6\x8cc\x95F\xa3\xa7Itf\xb5\x96@\x06\xe4\x92\x16\xe0\x1c\x01\x83\xdcW\xdb\x9f\xb27\xfc\x1e#\xe2K&amp;\xb5\xf0\xdf\xedq\xf0&gt;\xde\xfc|\xa9&amp;\xb1\xe1\xd9\xbc\x99\x0f\xabyo\xf2\x93\xec\x08\xaf&gt;\xc7\xb9\x19)\x1f\xa1\x9f\x08?\xe0\xe2\xcf\xf8%\xb7\xc5m%o\xaf&gt;87\x86n&lt;\x9f2K/\x11i\xf2B\xcb\xc8\x18\x0c\x01V&lt;\xf6&amp;\x8a|\xac,}\x19\xe0\x1f\xdb\x1b\xe1\xff\x00\xc4\x0b\x18\xef\xb4\xef\x0ek\x10\xac\x91\xee\x0b4qq\xf9Hk\xe3\xbf\xf8,\x9f\xfc\x15\xc7\xc4\x9f\xb3\x9f\xc1\x89\xbc\x13\xf0+A\xbd\xb2\xf1\x06\xb7\x1b\xc4\xba\xe5\xde\xc0,\xe3\x03\xe6(\x15\x89,z\x0c\xe3\x14\xe2\xae\x07\xf3\xd3\xe3\x9f\x88~*\xf8\xc35\xf7\x8c\xfe kwZ\xa6\xa5up\xcdqwy1\x91\xdc\x93\xeak\xcc\xf5\t[N\x97\xcbO\xb9\xe8\xb5\xd1\x1d"\x0f\xde\xd0\xeb\xbe\x0f\xfcw\xf1\xff\x00\xc1\xff\x00\x11Z\xf8\x97\xc0:\xf5\xc5\x9c\xb6\xf3\x89&lt;\xb5\x90\xf9rc\xb3.pk\xf4[\xf6h\xfd\xb5\xec\xff\x00l\xbbd\xf0\xaf\x88\xbc\'6\x97\xae\xc3\x1e%\xba\x85\x95\xed\xe6\xe3\x93\xc9\x0c\xa4\xfd\rwS\x9f\xba\x91\xf3\xf8\xec,}\xa5\xd9\xdb\xeb\x1e\n\x97\xc2\x0f2\xdb\xde+G\xff\x00-\xa1\xe4\x86\xfa\x1a\xf3\x9f\x16~\xcd\xdf\x0c\xfc\x7f\xa9\xfd\xbbS\xd0a\xdd0\xcc\x9bF\xdc\x9f^\x05r\xe3(\xfbh\xeac\x83\xac\xf0\xb5\x1aG\x1b\xf1\x07\xfe\t\xb7\xe0\x0b\xfd\x16{\xff\x00\r\xea)i"\xc6J\xac\xcaYA\xc7\xd2\xbeE\xf1/\xc2\x99\xfe\x1ax\xf5\xfc;uuo3E.\x0bB\xa7i\xfc\xc0\xaf\x89\xce02\xc3\xbet\xf7&gt;\xf3 \xc6\xc7\x11%\t-Q\xf5_\xc0\x0b+k\r\x1e\x13sn\xaf\xb9\x07\xdd\xed]\x07\xc6\xef\xda+\xc3?\x03\xbc?%\xd5\xe7\x83\xe6\xd4.\x19T[\xaa2\xa2\x86\'\x03q\xcfO\xc2\xbe&amp;\x86\x0b\xeb\x98\xd5\x0b\xdbS\xf4\x0cf;\xea8g+^\xc8\xf5\xbf\xd8\xa7\xf6o\xba\xf1\xae\x99\xa7\xfe\xd0\x1f\x18\xb5\x8bmJ\xea\xff\x00\x17z.\x85h\x8d\xf6==O\xdd\'p\xcc\x8f\xeex\x1d\xab\xeb\xcb+g\xb6+\xf3\xe4\xf5\xaf\xda2\x9c\r&lt;\x06\x15(\x9f\x89\xe6\xf9\x95L\xc3\x1c\xe5.\xe7\xe3\xc7\xfc\x15\xdf\xf6\xc9\xf1W\xed%\xf1\xc6o\x82PE5\x87\x86|\x1fr\xc9\xf6Wa\xba\xeap9\x91\xb0H\xc78\x03\xf1\xaf\x8d\xb5uF\xb8\n\x83j\xaf\x15\xd5V\\\xdb\x95F+\x97B\x7f\x0fx\x8e\xef\xc3\xc6[|\xb4\x96\xb7X\xfbE\xbb7\xca\xde\x87\xea*\x8f\x88\xb4\xc8\xac\xef\x19\xa3\xc1\x86e\xdd\x1a\x11\xd2\xb8\xdcu;\xa9\xee2\xcb\xc5\x9a\xb6\x84\x9eE\xb4\x81\xa3\xfe\x14~v\xd1A\xb1\xff\xd9'</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -514,6 +576,14 @@
           <t>Anderson Daronco</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x01,\x01,\x00\x00\xff\xe1\x01\x16Exif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x07\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00b\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00j\x01(\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\x011\x00\x02\x00\x00\x00\x11\x00\x00\x00r\x01;\x00\x02\x00\x00\x00%\x00\x00\x00\x84\x82\x98\x00\x02\x00\x00\x007\x00\x00\x00\xaa\x87i\x00\x04\x00\x00\x00\x01\x00\x00\x00\xe2\x00\x00\x00\x00\x00\x00\x01,\x00\x00\x00\x01\x00\x00\x01,\x00\x00\x00\x01paint.net 4.0.13\x00\x00LAURO ALVES                         \x00\x00LAURO ALVES                                           \x00\x00\x00\x03\x90\x00\x00\x07\x00\x00\x00\x040220\xa0\x02\x00\x04\x00\x00\x00\x01\x00\x00\x02\x80\xa0\x03\x00\x04\x00\x00\x00\x01\x00\x00\x01\xaa\x00\x00\x00\x00\x00\x00\xff\xdb\x00C\x00\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\xff\xdb\x00C\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xfe\xf3|\x1fjm\xb4h$i\x19\xda\xe7\xf7\xa4\x1eB\xf5\xc2\x8cg\xb7\xe9K\xe2\xabo?M\x92S\'\x95\xe5)\xe0\xff\x00\x11\xe7\x0b\xf8\xf5\xfc*\xa6\x87q\x16\x9d\x15\xbd\xab\xcf\xe6\xa1T\n\xa0\x92#f\x1b\x81\xe3\x8c\x00\x18\x1e\xc3 g\xa6p|e\xa8\xcf9hm\xe4&amp;\xddW\xa0#inA\xcf&lt;u=~\x99\xed\\w\xb4\xad\xca\xb7]5\xe8S\x8d\x92~W\xfb\xed\xa7s\xca\x972\xce\xec\xc7\xee\xb69\xe7\x8c\xf0\x00\xc99\xe8x\x1fZ\xd5MB(nR\xc7\xcc\xdb9C"\xa3q\xb9\x06\x01*z\x1cd\x7f\xf5\xb8\x15\x91\xbf\xcb\x98\xe4e\xbd\x07\xcd\xd4u\xe3#\x8e\xb9\xed\x8c\xf6\xab\xf6\x1e\x0b\xd4u\xedR\xd3\xc4\x16\x89+6\x9f\x14\x96\xeb\xba\xe1!\xb7\xb9Y\x08$\xab\x16\x02M\x85@;r\x14\xf59\xc0\xad/\xde\xf6\xebm\xfe^fP\x9bo\xa6\x9a\xfe(\xeb\xedd\x12\xed\xe8\xe0\xa89\x05O^\xfd}\xbb\x81\x8a\xd4\x16\xed\xb4:n\xdb\xce\xe3\x8c*\x8fVn\x15W8\x1b\x98\x80X\xaa\x83\x96\x00\xe9\xe9\x1e\x11\xba\x85\x83jO\x1aF\xa8\x1be\xbc\xac\xc4\xb7R\x8d\x95\x0b\x81\xceX\x13\xed\x90Mt\x17Z,F4\x16\x84\xae\xd27#\x92T\xf2\x02\x9c\x81\x80U\x8a\xc82\x1b\xee\x13\x8e8\x89BZ\xbeY%\xdd\xec\xbd\x7f\xe1\xce\x85=5O}\x92\xdfo\xc7S\'O\xb4\x91\xc6\x08#\x1c\x96=\x0fO\x94c\xab\x11\xd1G\xccs\x80\t S&lt;O\xe3O\x05\xfc:\xd0o&lt;O\xe3\x8f\x16h^\x12\xf0\xf5\x84\x17\x17\x17\xda\xd7\x885kM#K\xb6\x82\xd2\x17\xb9\x9eI/\xae\xe7\xb7\x81Dq\xc2\xcc\xc3\xcd\xf9\x942(.@\xaf\xc9\x8f\xf8(/\xfc\x15\x8b\xe1\xb7\xecc\x03\xf8\x17\xc1\t\xa1|M\xf8\xeds?\xd8\xe6\xf0\xc3\xea;t\xbf\n\xac\xb6\xfb\xbe\xd9\xad]\xdb\xb4/\xa8\xdf\xbc\xd3\xe9\xd0\xff\x00aZ\xde\xdb41\\]\xbd\xed\xc42i\xf3Y\xcd\xfc\x82\xfe\xd1\x9f\xb6o\xc7O\xdaC\xc5\x8f\xe2\x0f\x8d\x1e6\xf1\x17\x8b\xe4\xb0\xb9\xbcm7\xc3{\xae\xce\x93\xa2\\\xeb\x12$\x8f\xa3\xf8o\xc3\xe1\xe3\xd1\xec\xd2\xda\xc2\xea\x1b\x19uH\xb4\xcb]JT\xb57\x13\xf9WV\xf6\xb7r\xf8\xf8\x9c\xce\x95\x17\xc9NQ\x95O=U\xd5\xba&amp;\x9f\x9f\xe0zX\\\xba\xbe)]\xc6P\xa6\xedgg\xaa\xba\xbb\xd7\xf4\xfb\xcf\xedw\xc6\x7f\xf0X\x0f\xd8s\xc1\xf7\xb7\x160|H\xd4\xbcfmQ&amp;\x96\xfb\xc1~\x1b\xbf\xd4\xf4\xb9 K\x99m\xef\xee-/o[O\xb7\xb9].H$k\xb8\xed\xa5\x9aQ\x1871E%\xa8k\x85\xf2{\x1f\xf8.\x8f\xecG\xa8\xb4\xa29&gt;(Go\x15\x91\xbd\xfbd\xbe\x13\xd2\xa2\xb7\x1e\\\rxb\x91\xa6\xf1$F\x16[Qo$\x8d(E\x8a[\xb8\xac\xe5)v|\x91\xfc 7\x89&lt;E\xf6\x8b$\xb0\xfe\xc8\xd1\xd6\xc8I:\xd8i\xb6\xacfD\xb1\xb10\xcb$w\x91^\xb7\x9fyki\x1d\xa4\xb0\xc9c\xf68U\xb3\x11{5X\xe6j\xc9oss\x12\xda\xe9\x12O\xa8\xe9\xd2,B\xea\xce\xf0]\xd8\x8b\xe9\xc4I\r\xb5\xa0\xd7\xedE\xac\xba\xd6\xf6\xb42i\x8b\x18\xb7\xba\xb9\x96\x18V\xd6\xe2\xd5\xccRW\x9f\xfd\xad\x8c\x95\xf9%\x08\xbe\x8e)\xddm\xd5\xc9\xf9\x9e\x97\xf6\x058\xc59T\x9d\xfb\'\x15\xdb\xaf/\xfc?\x91\xfd\xfd\xe8\x1f\xf0Y\x8f\xd8\xd3X\xd4`\xb5\xbf\xd4|w\xe1}:\xefi\xb5\xd7\xb5\xcf\x0cY&gt;\x98_d\xcc\xebp\xba.\xb7\xac\xdf\xd99\xb7\x83\xce\x81.,#71\x1c\xdb\x99\x19\xe1I?A~\x16|u\xf89\xf1\xb6\xca\xe3R\xf8[\xf1\x13\xc3\x1e6\x86\xc9\x9do\x17F\xbfG\xbd\xb3\xf2\xdfc\x1b\xbd&gt;u\x83P\xb6M\xe5q$\xd6\xa9\x0b\xab\xc6\xe8\xec\x92\xc6\xcd\xfe^v~1\x9fE\xb8\x9fY\xbc\xb8\xd7.\x06\x9d\xf6\x98\xee\xc8\x1at\xfaM\xdc\xb2]X\x99\xd5SR\xbc\xb7:}\xf4WSZ]\xdcEy}5\xb2]\xc8\x90=\xcc\xab\x1c\xc2_i\xf81\xfb`\xfcE\xf8c\xe2[/\x1b\xf8S\xc7&gt;/\xf0\x87\x8a\xacL\xb31\xd0\xeen"\xb8\xb6\x96\xe8Io\xa7\xda\xd8_=\xa9{t\x96\xea\xe5Z+K\xf6\xd4\xb4\xfb\xdf\xb4\xcfotf\x8e6\xbbk\x86e\x8cM:\xb1\x85X&amp;\xae\xec\xfd\xa5\xb4\xdb[n\xfc\xf4\xdbS\x92\xb6N\xa0\x9f$\xa7\xcdk\xab\xdb\xcb\xa5\xaf\xff\x00\x0f\x7f#\xfd?\xcc\xf1\x02Ap\nr\xc3\xba\x8e@$\x1e@b\x0e\xd3\x8f\x9c\x03\xb7#\x9a\x0c\x91\xa0\xdf\x9e\x1b\xe6=x\x18\xef\xc7\x1e\xc0\xf2y\xc7z\xfc\x01\xff\x00\x82g\x7f\xc1c\xbc5\xfbJC\xe1\xaf\x84\x7f\x1f\xae\xf4\xef\x0b|X\xd5.-\xf4/\t\xf8\xbc\xc9\x1d\xa5\x8f\xc4=e\xfe\xd1*\xe9z\xce\x8f\r\x95\xad\x9f\x84\xfcW\xf6g\xb3\x16\xb6j\xcd\xa4\xeb\xf3\xddyzT\xf1\xdf\xb2X\xcf\xfb\xd5\x12;\xb3D\x7f\xd5\xe79\'\x0eTd\x07~p\xdea\xc9\x85\x97+\xb5\\g!\x80\xf6ibi\xd5\x82\x9d9Fr\xdd\xc1o\r\xbe+\xf6\xeb\xb1\xe5U\xc3\xba/\x96wN\xfam\xe5\xfew4ZD\x9a6Pxe&lt;\x8c\x9f\xe9\xeb\x8a\xc4\xb7\x94\xc4\xcc\x1c\xe4\xe5\x80\xdcs\xec=G\x7fZ\xd8]\xa8\xbb\x15@U\x18\x00\x11\x82?\xcfn\xbe\xd5\x99%\xb2\xca[\x922x\xe3\xa7?L\xf4\xf5\xabs\xe6\xddF\xce\xd7\xb2k\xf5&amp;\x9aZ\xa9ig\xfeFay\xeenB\xaf\x01\t9\x1c\x00\xd9\x18\x1d\xb3\xc6py\x1cu\xce+~+a\x1a\x10\xc7q#,z\xf3\xeb\xcf\xb7\xa1\xa9\x12\x14\x89G\x96\x83p\x03\xe6#\x04\x9cc$\x9e\xff\x00^\x95:\xa3\x11\x93\x92OQ\xdb\xfa\x0e\xd8\xe2\x94b\xe5-\x16\xcf\xa6\xdf~\xbf\x9f\xcc\'R\xde\xea\xdb\xcdkk+\x7f[\xf79Mf\xcd\xaf&lt;\xa5\x9aG\xf2\xd0\xe5cN0\xd8 7\x1e\xc4\x8f\xc7\xf0\x05t\xd3\xdb,\x98\x18\x04\x8ep\xc7\x03\xb8\xc8\xff\x00\x0f\xce\x8a\x1c$\x9d\xac\xff\x00\xaf\xf8\x7f\xd4\x14\xe3e\xb7\xe3\xfe~\x7f\xd5\x8f\x19\xd1\xef\x89\x8acrH\x93o\x96\xbbr\x08#\x189\xe9\xdb\xebX\xba\x96\xa9"\xc3%\xa2\xb0erN\xe3\xcbw\xe3w\xd0\xe7\xa9\xfdk\xa8\xba\xd1\xa2\xd3\xa0\x9eb\xec[c2\x03\xd3\xb7\xeb\xd4s\xdb=\xf8\xaf(\xba\x92C#\x9d\xcd\x86b}{\xe3\xb7\x1d\xf1\xf8f\xba\xa9\xa5Q\xf3&amp;\xf4\x7f\x95\xbc\xb72\xa9\'\x08\xa4\xedw\xa7\xddn\xb7\xb7\xf9\x9b\x9a5\xb5\xae\xa7\xa9ZY\\\xcaa\x82y\x95%pHv\x04\x1c\xaa0\xce\xd2\xdd\t8\x18\xdd\xc9\xe0W\xd1\xf6v\xd6\x9ae\xbc\x166\x91\xac0@\x81"L\xf0\x07\xde;I\x04\x9d\xc7%\x89#\'\x18\x1e\x9f9x;I\x97U\xd5\xa2Fs\x1c\x16\xee\'\xb8\x90:\x86UB\xa3\x0b\xf3\x06,K\x8cm\xcf\xe5^\xd9\xa9\xdd$\x08\x11&amp;o\xe1U,K:\xa2\x9d\xbb\xb22\x08 \xfdG\xa5L\xe7%~[^\xea\xcf\xd5\xa1R\xa6\x9a\xbe\xb7v\xfc|\xff\x00OC\xacf\xdc\x08 z\xfa\xf2:c\x95\xe4\x1c7^\x80\x8e\xf9\x1f\x86_\xf0R\x9f\xdb\xc7W\xd3mu\x9f\xd9\xf7\xf6y\xd7\xae-\xbcS\xf6\xb9t\xaf\x88^+\xd2ex\xaeQ\x1a\tb\xb9\xf0\xa7\x86\xb5{l\xc9kr\xae\xb2\xc3\xe2\xcdj\xde{+\xed\x1e;v\xd34\x99n/\xde\xe2\xde\xbfN\xff\x00i\xcf\x8c\x91\xfc\x17\xf8\x03\xe3\xaf\x88\x163\xdb\xcd\xadZi1\xe9^\x19W\xb8\x8e\xdc\xcf\xe2mzU\xd24p\x8d+!/ksp\xd7\xf2F\x8a\xd2\x98-%a\x19Ub?\x8e\x8f\x88\xff\x00\x15d\xd6\xfcGi\x04\xed-\xc6\xb1{\x1d\xd1[\xcb\xb7\x9e\xf7W\x96\xfaI\xbe\xc6\xf7PAx\xcfwomsx\xd7\xd7\xf7\xb7\x97q\xc7s}qcx \xd3\xe5\xb8/-\xb7\xceq\x0eq&lt;\x1d\x05N2w\x9cl\xda\xdd^\xda\xabn\xfc\xed\xb7\xa9\xf49\x06U,~!s\xc5\xb5\x19\xab%n^\x8e\xf2N\xf7V\x7f\xd7_\x9a\xbcK\xf0\xa6\xfe\xe2K\x99\xb5#\x19\x90[\xdcK\xa9\xce\xb6\xba\x84\xf3E\x11u\xb9\x9eY\r\x94A\xa6\xbe\xbf\xba\xbd\x95o\xfe\xdbq\xa7\xd9Jm\xe2\x176\x93\xb8\xb5\xd4\xa5\xf9\x03\xc7\xe2\xeb\xfbF\xdc\xe9\xd0[H\xdat\xaa!\xb4\xb2\x82I\xe2\xb0\xb5\x87\xec\xf6\xf6\xf1Ai{oi%\xd5\xe4P\xc6\xf2$\xb1Z\x8b;FwP\xba\x86\xa3w&gt;\xa1\'\xeb=\x9f\xc3{\xff\x00\x13[\xc1,\xedmcg\xe7\x19\x19\x16!,\xcf8\x8db[\xe9\x05\xe0\xb9{\xbb\xa7\xfd\xfb5\xc4\xf2\x19\xa0\x8eh\xa0\x8d\xa0S,Mn\x7f\xd9\x82\xda\xfc\x1f7S\x92\xe1.Y\x1aI."\x85\xae\xc1WWE\x8aTQ$1$\x8a\x92\x98\xd1\xca7\x96\x14\xc6r\x08\xfc\xbdf\x95\xd5yT\x92\x94\xa3{\xb6\xee\xdaZy\xf7\xec\xbd\x0f\xd9\xf0|=\'\x87\xa6\x95(\xc5\xa4\x95\x92\xb2\xe9g\'k\xda\xdaic\xf2\x0f@\xf0i\xd4\xb4\xbdKS\xb4\x96\x1b+\xd8\r\xcd\xf6\xa7\x0e\xa1s\x05\xc3\xea\x97P\xe9\xd3\xc9g\x15\xb2\xdc\xdc\xda]\xca\xd2\xcf\x01U\xb3\x7f0E\xe5\xdbDD,\xd1\x9a\xf3f\xd0\xf5K\x05\x8e\x06\xb7\x9a\xe2\xf5\xed\\\x0bSwj\x92J\xd0\x91m\x0f\x9dgg;\xeaq\xce%\x80?\xdac\xb7\x96{\x0b\x8bx\x88K\xc4\x9dn"\xfd\xc4\xf0\xcf\xec\x97\xa6\xe8\x177.\xd7"\xea\xd2\xea\x1b\xc5\x9e\x0f"\xca\x1b\xd7{\xd8e\x81\xe7\x17\xb1Z\x19\xe0\xb8\xb4Yb\x96\xd1\x92_,\xcbn\x0b&lt;2\x98\xa6O\x91\xfe7\xfe\xc6\xba\xe6\x92\x93\xeb~\x14\xb9\xbb\xd4`\x0e\x0c\x96\xb3\x05W\xb7h\xc9*\xf6Q\xc5\x0b\xbc0\xdd\xec\xf3\xae\xe4\xf3\xa1Q&lt;\x92\\H\xf6\xcb\xe7=\xc7\xa7\x84\xcf)9%$\xe1\xcc\xed\xcc\xf4Kk\xb7\xfeW\'\x1b\xc2\xf5y9\xe2\x95\xd2\xbd\xa2\x9f\x95\xbe~\xb7\xdc\xfc\xc6\xd6.\x13\xc563\xc5e\xa5[\xa3[\x8bh\xee~\xd4\xb6v\x93\xc3\xabZY4\xd3"\xdc\xbc\x90\x08c\xbb\x99n&amp;\x17-\xa6O}%\xdc\xec\x1cG\x15\xb3O\x17\x9e\x18\xa6\xbc\xbc\xb5\xb3\xb6\xba\x8aUO#W\x8c,W\xab{\x1c0\xdb\xb2\xa5\xad\xc5\xe2\xbe\x9bf|\xb8\xa7X\xed\xde\xde\xca}\xd2I\x02\xc6!a\x0c\x10}!q\xf0\xeb\xc4i$v\xba\x86\x85w\x06\xa1\xa2\xdc\xcb-\xe5\x8cR\xb5\xbbj\x1a|3\x9b\x94\x86\xd3T\xb7\x95f\xb6\xd5\xe1\xc8\xd4t\x89\xee\xae\xa5\xb1\xbca*B\x97r\xd9\xce\x90q\x1a\xbf\x81\xf5\r7\xcc\x9a\xca+\xb9\xa3Y\xc9\xb8\xb8x\x1d\x00YQ\xd5 \xber\xa6\xe6\xdfP\x89?t.m&amp;[T\xba\x92Ym\xe6\x97\xed\x12,^\xfd\x0c\xd6\x86\x96\xad\x17--\xeb\xdbw\xf3\xf4\xbd\x8f\x95\xaf\x91b\xa3+rI\xed\xba\xdfo\xeb\xe5\xb1\x99\xa1\xeb:\xaf\x87oc\xd4-\x1e=?\xecZ\x95\x9c\x82\xee\x18\'\xd3\'\x8f\xcaV\x9e\xe6\x08\xcc\x17\x9a\xa5\xe3\xcbo\x1d\xbb\xd9\xc5vn#ImeK\xb1m\x1d\xe5\xbd\x94\xb1\x7fx?\xf0F\xef\xf8(6\xa1\xfbZ\xfc&amp;\x9b\xe1\xaf\xc4\x9b\xcd\xff\x00\x16\xfe\x1bY\xabG\xa8\xcdsf\xf2\xf8\xcf\xc2\ru,\x16:\x84\x9eCn\xbd\xd5\xf4$6\xd6:\xa6\xa7\x1cP\x1dn\xde\xe2\xcbZ\x9e\xce\xda[\xa2\xb5\xfc1h~\x1c\x9bW\x9e\xed5u\x9c\xdc\xda\xc3n4\x96\xd4n"K\xe4\xd3\xf4\xf9\xfe\xd9j\xff\x00l\tpRT\xb6m\xb32\xa9\x8aeO\xb2[\xdb\xdb\xd8\xbcq\xc7\xf5\x8f\xec\x9d\xf1\xeb\xe2\x17\xec\xa9\xf1\x97\xc1\x7f\x10\xbc\x0bq6\x9f7\x87o\xee4\xe1 \xd3m#\xb3\xf1\x05\x8cv\x12j\xd7ZN\xbfgiq\r\xc5\xe5\xad\xc4\xf2]\xc3yii=\xb1\xb9\xb5\x97\xca7\x9a}\xce\x95l\xf1\xeb\x86\xccaJ\xbf59F*R\xf7\xd2n\xd3M\xa5g\xae\xbf$\xb5&gt;\x7f3\xca*\xfb\x07U\xd3\x97\xb4\x8e\xb1V\xb4o\xe7\xa7g\xabMt\xf9\xff\x00\xa4\xe0\x18\x03\x07%\x89\x189\xcf\xca\xd8b3\xd80\xc18\xdb\xc8\xe7\x90L\xab\x1f\xb0\'\xa9\xe9\xfc\xbf\xady\x17\xc1\xaf\x8a\xfa\x0f\xc6\xaf\x86&gt;\x03\xf8\xab\xe1;\xcbk\x8d\x07\xc7^\x1a\xd2\xbcGm$&amp;W_\xf8\x98[G%\xc5\x98{\x9bK\x1b\x924\xcb\xbf\xb4YfkU\x98\xb4l\xce\x96\xff\x00"\xcb\xea3\xea\x10[.\xe6p\t\xed\xb8\x03\xd0\x91\xdct\xc1\xcfz\xfb\nS\xa7R1\x9c]\xe1(\xa6\x9b\xee\xed\xa7\xe3\xfdn|D\xe9\xd4\x8c\xe5\x06\xb5\xd9\xae\xdbko\xf8r\xf6pzq\xef\xd2\xa6V\r\xd3\xfck\x9c\x87Z\xb7\x95\xf0\x1b&lt;\xe3\x05\xbd\xc6x\xfeX\x18\xe7\x06\xb6c\x99\x19r\x9c{\xff\x00L\x0f\xea?Z\xda\x95NF\xf4My\xfc\xb4\xfc\x9fr\x1d9\xae\x9f&gt;\xdfya\x97sc8\xe3=\xfd}\x88\xa2\xa32\xe4\xfd\xe2&gt;\x80\x81\xf9\xff\x00\xf5\xe8\xa7*\x89\xb6\xf5\xfe\xbe\xe2T[\xd9\x1f=O\xe2;\x8b\xbbC\x0c\xe7w\x98\x8d\xf3\xf2\x08\xed\xd3\x00\xf1\xcfoO\xa5q\xac\xd9\x05q\x95\xcf\'=\xb9n\x9d}=\xf9\x1fZ\x8aK\xe4\xb7\x18v\x0cX\xe0z\x00\xdc\xfa{\x7f\x8f\x15\x05\xe3\xeeX\xcc_zM\xa1O8,\xdd\x01#\xf1\'\xa7nk\xbf\xd9J\x9c\xb5N1\xdd_\xe5u\xbe\xdf#\x8e5\xe1R1\xf7\xb9\xa4\xac\x9d\x9d\xfb.\x8b\xee\xfdv:\xff\x00\rKz\xb7)5\xa5\xb4\xb3A\xe6\xac7\x06 O\xcarFv\xfc\xdfyFN0\x0fS\xd2\xbd\x0e-\x03[\xd4\xaf\xc1\xbf\x1fc\xd3\xf9l\xf9\x8ad)\x80U@Gf\x05\x8e\t\xc8\x18\n\xd9\xa9\xbe\x1c\xe9\xdf\xd9:c\xa5\xc6\x04\xf7$N\xcc\x0eP!\xc7\xcb\xdf\x9c\xb2\xfa\xe0\x03\x9cWgs\xac\xda[\xba\xc6dS&amp;NP8\xdd\x95R\xca\xaapA,\xc0)\xc6p\t&lt;\x00H\xe1\x9c\xaf;-\xaf\x1e\xfe_\xd6\xa7t\x1b\xe4Mm\xe7\xba\xf7U\xbf\xab\x1f\x8f_\xf0Vo\x1bi\xfe\x14\xf0\x17\xc2\x8f\x87\x90Itn5\x7f\x10\xea\xfe/\xbd\xb5I\x15&gt;\xdbe\xe1\xad&amp;K(\xa0\x0b\xe7\xdb\xbb\xbb\xdc\xea\xee\xe9q\x191\xda\xb5\xb9\xb9y!\xda\xb2\xc7\xfc\xc5\xe9R\xc1\xab|h7W\x11@nnJ\xc7\xf6\x8b[d\x84/\x97*\xbc\xac\x93\xca\x8b4\x91\xb9\x95~\xc9j6Cmd\xd1\xbd\xc8\xb7\xb9\xb9KX\xff\x00n\xff\x00\xe0\xae\xff\x00\x12t\ro\xf6\x83\xf0\x1f\x84V\xd5og\xf0o\xc3\xeb\xa6\x9a\xde\xe2\xef\xc9\xd3/\xee|Gw%\xfc\xb2j\x16\xb6\xfet\xcfc\xa3YY\xc15\xcaJ\xd6\xd2\\\xdc\xc9m\x14\x01\x9c\x12\x9f\x8d\x9f\x0f\xee\xd7\xc6\xbf\x10\xee5m\x025\x97H\xd3b\x8fO\xba\xd5\xcd\x9a\xdb\xdb\xea\x17\xf6\xee\x05\xcf\xd8\xad\xd7\xf7\x1aN\x9ff\x1a\x1b\x0b;\x08\xa5\x9b\xc9k{\x87\xbd\xbd\xba\xb9\x99\x16\x0f\xcd\xf8\xa6\xa2\x94\xebE;\xbau#\x08\xb5\xbe\xbc\xb7\xf9\xfe\x07\xea\x1c\x0bBM\xd2\x93ZN&gt;\xd1\xb7}\x1ai|\xbf\xae\x87\xdd\x9a=\xb1)\x05\xba,h\x91\xa81\xa4)\xe5D\x01\x03\xfeY\xe5\x97{\xf2\xcd\'\x99\x80F1\xf3W{o\x07\x97\x16\xf5s&amp;\xd2\x01D\xe5\xb7\x8e\xd9\xc61\x8f\xe2\'o\xbfj\xf3\xbd\x1cMb\xa1\x9a6\xc2\xa0-\xbd\x98\xc8\x14u\x05\x0fE,F\x18u\xc6W\x8c\xd6\xea\xf8\x8e\xed$Y-\xa3A\x12\x9d\xb2\xc6\x06X\xa9\xc1-\xe8O\xcb\xd0e\xbb\xe3\x8a\xfc\xfa\xac\xea_\xdd\x94\xee\xba?\x96\xfa~G\xef\x98Jj\x14)\xeb\x06\xb4m=\xec\xed~\xbd\xbeg\xa0L\xf0\xdb\xc1\x1c\xef\x95VQ\xbfw\xdeV##qM\xd9^&gt;\xea\xe4\xe7\x04\x0c\x03\\\xdd\xc3&amp;\xa5\x0b\xc5t\xf6\xdeb\x1c\xc6\x12o \xf9%\x82\x92\xcd\xcb\x81\xb5\x8e\xe5\x11\xb7\x98\xb9\x88\xa8Y\x19\x86\xdd\x9d\xf2\xdf\xc6\x08\x920\x1a5$\xee\x05RF\xfb\xa0\xe2D\xe4\xf3\x95\xcf\x1d\xc7B+^,\xf1\xa9/wd\xeeR@\xaa\xd1\x95#g$\x9c&lt;\xac\xd8\x00\xfc\xa198 \xe4`\xe0\xa4\xef\xefs&amp;\xf4\xb7}\xba\xdb\xf0\xb9\xe8*tZ\\\xb1\x8c\x9b\xb6\xea\xf1OM\xf6\xfe\xb7&lt;H\xfc-\xf0\xb4\xf7\xf7SG\xa7Z\xb3\xde\xbc\r"\xaa\xc5\xe5f\xcai\xae\xa0\xc6C\x98b\x96\xe6y\x89H\xd9\xc0FU\r\x18\xdc\xa7\x9d\xf1/\xc0\xaf\x02\xde\xd9_\xd9\x7faiNn\xc2\x8b\x89E\x9cE\x89\x8c\xf9\x91\xaf*\xc1\xd1%_0\xb1@\xc5\x9e0\x0e\xd0\xe2\xbd\xde+i\x04s\\]-\xa2\xecP|\xf8\xe7eM\xaf\x82\xb8FU\x04\x95\xfe!\x900T\x90Mc\xea7\xd6\xf1\xbcQ\x07e\x12\x0c6\x14\xb7\x04\x1f\x9b\xe5\x0c\xe0t\xe4\xf0}zV\xb1\xac\xe0\xd2Z]\xe8\xee\xee\xb6]\xec\xbe\xe3\x8a\xbe\n\x8b\xd5\xc6\r\xad\x92I.\x9e\xbd\xb5\xbf\xcfs\xe0k\xdf\xd9\x7fC\xd35s=\xac"\xe2\xc6I$\xf2U\xa3\xb6\x86\xee\x05\x91\x81\x8a/: \x19\xe2\x85a\x80lfDh\xa3p\xb2,\xc6#^+\xe2\xaf\x84+c\xac@.\'-\x1cwGS\xb6x-m\xd2\xed\x1e\xcbN\xf2|\xdbm\xf1\xcb\x07\x99q\x1c\xd9kI\xa1G\xb9\x96\x17\x8cC\xf6Y#\xb7_\xd4\xb9\x9a\xd64\x95\x8c\x91\xba\x94a\xb8\x0c\xc8\x84)p\xc5H\x04\x00W\x93\x8e\xf8\xef_%|O\xd54\xb8|[\xa5Zy\xf2\xc1\x0b\xf9\xb3^\xddE\x1aJ!\x92\xd0\xf9\xf0\xc8G\x98\x88\x916\xc8a\x9d\x98\x9f.\xdeif\x01\x0cFX{h\xd5\xa9\x1a\x94\xdcg)sN)\xf3;\xf5\x8f\xa7\xdf\xf3&gt;\x1b&gt;\xc3R\xa7F\xa4yb\xa3\xca\xde\x89^\xfe\xea\xd3\xf3?\xa0/\xf8"?\x8e\xb5k\xff\x00\x82\x1f\x10~\x11\xeb\x97\xc3Q\x97\xe1\xb7\x8c\xbf\xb44\x89\xdbM\xbc\xd3\xe6M3\xc5\xe9qywiq\x1d\xce\xa1\xa8E\x1c\xd6\xba\xd5\x95\xfb\xfd\x9e\xc9\xad\xad\x92;\xb8\xe4H\x1cJ.g\xfd\xa0\xbf\xd1\xed\xefT\xee\x05\x0e\x0f\xcc\xbd\x9b\xa7C\xf5\xe7\x1d\xfb\xd7\xe1\x87\xfc\x11\xa6\xc8\xe9\xde,\xfd\xa0\xe0\xb7\xb87Zy\xd3\xbc\n\xc9v\xb0\xaa\xc5u7\x9d\xafH\x92y\x90\x08\xed\x99\xa2\x82\xe1mRE\x84&lt;\xf6\xd0\xc2\xa5\x90Z\x9bh?y\xd4\xf5\x1dI\xc9\xfc\xf1\xfc\xeb\xf6\xac\x81{|\xae\x8a\x93\xf7\x94\xa7\xca\xef\xbf+V\xbe\xfd7\xb2_\xe7\xfc\xf5\x9bF4\xb3\n\xea\x9bn7[\xdb\xad\x9bZz}\xcc\xf2[\x8be\xb2\x98\x80\xf2\x13\x1b\x1c\x11\x81\x9c}?&gt;x\xae\xbfA\x9a) i$\x9c\x86f\n\x15\xc9\x18\xce1\xd7\x8f\xf3\xf9\xde\xd448.\xcbJ\x8cQ\xcf\'\x0b\x91\xfad}G\xe3\xd35\xc8\xea\x7fh\xd1\xf6\xc46\xb6\xf1\xf2\xb2\xe0\xbeO=\x06O@z\xff\x00Z\xed\x9c%J[\xf3+\xab\xb7\xaa\xe9\xf7\xff\x00\x91\xc4\x9a\x92\xeb\xf7\xd9\xf4\xf2g\xa2\x16\x8d\x00$\x80\x0f\x00\xfa\xfeY\xf4\xa2\xbc\xf2\xd7]2\xa2\xac\xed t\\\x15ea\xdcr03\xdf\xd7\xa5\x15&lt;\xf1\xef\xf9\x8dR\x83_\x13\xfc\x17n\xe8\xf9@y\xd2\xce\x86iL\x80\x1e\xb9#\x18\xe3\xbe\x0f\xf3\xfaWa\xa6\x88\xae\xef\xac\xac\xe4}\x904\x8a\t$\x82\xb8\x07\x07#\xb68&gt;\xe7&amp;\xb9\xf7\x8d\x06OLr8#8\xf6\xc6q\xef\xd3\xf4\x15\x024\xa5\x91\xa3\x90\xa3\xa3\x06\x0c2\x0e\xd0\x08\xc7n\xe4q\xd6\xbe\xbb6\\\xee&lt;\xb1IF\xdf\x0e\x89\xfc;\xbb\xf9\xf7\xe8|\x96N\xb99\xdc\xa594\xf6\x96\xb7\xdb\xd3G\xd7[\xf9\x9e\xe3\xafjO\xa1\xdaF\x91\xdc\x94\xc2\xe2\xdb\x12\xe3\xcd#\x801\xd5\x81\x19\xe0\xe3\x90\x0fj\xe3\xe1\xd6\xf5;\xe2\xf3\xcbv\xc2|\xa2,J\x9f \xde\xca\xaa\xd2c\x1b\xc7l3\xaad\xab1m\xa27\xe1u;\xdb\xeda\xad\xe0\xb8r\xe2\xd8\xaf\x95!\'\xee\xaeG\xd7&lt;\x9eOl\xfa\xe0\xfc\x85\xfbt\xf8\xf3\xc5~\n\xfd\x94\xfe,\xdex\x13^\xd4&lt;/\xe2MR\xdfC\xf0\x9d\xa7\x894\xd9\xe2\xb6\xd54{\x7f\x10\xeb\xfaf\x9f\xab\xde\xe9\xf7\x92\xc7*\xdaN\xfa&lt;\x97\xf6_k\t\xba\xda;\xa9&amp;\r\x1e\xc3"\xfc\xe6#\x97\rF\xb6"q\x94\xa3F\x9c\xaa4\xac\xdb\xe4\x8d\xd2\xd9\xf5K\xfa\xd4\xfa\xfc\xaf\t&lt;\xdb2\xc0e\xb4$\xa9\xd4\xc6\xe2)\xe1\xe2\xe5\xf0A\xd4j7\x96\xbb%v\xfd\x0f\xc0o\xf8(\x17\xc4K\xbf\x1d~\xd7\x1f\x19e\xd0u\x0b\xadOT\xb6\xd5a\xf05\x85\xdc\xd2\x99\xec\xecon\xbf\xb1\xf4y \xb0x\xa3T\xbck9dm\x8bg\x15\xa5\x8cR6\xfb\x88\xe7E7P\xd8\xd1t\x8d\x03\xe0\xdf\x84\xec\x9d\x91\xfe\xcd\xa5i\xb0Y\xc3c\x1afK\xcd@\xa4S\\M\xe5\xfd\xeb\xab\x97\x99fi[\xe62)\x8al\x92\xb3\x98\xfc?K\xd1/n~\'\xfc3\xd45\xcd&gt;\xd7\xfe\x12\xa7\xd2_V\xf1\x14\xc8\x81\x12\xea\xe7E\xb7\xfd\xc5\xcc\xd0\xa6DSI=\xdd\xa4\xfeF\xf9\xa5f\x94\xe1\xa5\x82\xd29\x8f\xb1|Q\x87R\xbe\x00YF\'\xfb\x15\xb4\x1b\xa1\x9a\x19nc7ryn\xc4!\x92\x18\x9aUfW\x8e7\x9e% 6X\x05$~/\x9bfQ\xc49\xe2e\x17NU9*\xf2\xcbnk\xf2\xed\xa3\xb5\xba^\xf7\xeb\xa9\xfd\x05\x91\xe42\xcakT\xc0B\xa5:\xb3\xc2U\x96\x17\x99\xc9G\x9dSQ\x95J\xaaz\xa8\xc6O\xe0mi\xb3\xeex\xb7\x8d\xff\x00ho\x89-p\xba\x8e\x95\xa2\xeav\x1a&lt;aY#S\xa7C=\xd3\x1d\xfeT\xd7\t.\xa1\x04\xef\x08\x8d$\x1b"W\x00a\x99F\xdc\x8f3\xd4?\xe0\xa27\xde\r\x8d,u\x1f\tM6\xb3\x10p^\xe6\xde\xe6;s:\x10\x0c\x17\x0c\x8fpcb\xac\x1d\xe5D&amp;8\xd9$b\xb1H\x1d\xb8\x1f\x18\xfc\x18\xf8\xc7\xab^j\xf2\xd9x\x9fE\xd0\xf5mOL\xbb6:\x85\xd4\x1a]\xee\xbbex\xf1\xc9\xfd\x9em\xdbS\xb6\x9f\xc3Z%\x92La\x17\x90h\xb6\x7fo\x92\xdcHN\xa9-\xd8F\xaf\x1d\xd3?f\xef\x8fZ}\xb6\xadu\xf1\xa7\xc5w\x1a\xfd\xa5\xb6\x89o\x1f\x84\xe1M7M\xd7,\xb5-v\rN\xdd\xa4\xfbu\xe6\xa1\x06\x97\xa9hzD\xbaO\xda\xed\xe2\x9bC\xbf\x9e\x05\xbbk\x1b\x8b\x8d*\xee8nm\xaeg\x05\x81\xc2\xe20\xf51S\xc4B2Q\xbf\xb2\xbf\xbc\xdf\xbb\xa2\xbd\xfb\xef\xf8w\xf7qX\x8cm&lt;N\x17\x07K\x0b\x89q\xab8\xc1\xd6\xa7R\x8dJ4\xd3K\xde\x93R\x8c\xf9t\xd6\xd0oU\xa6\xec\xfd\x1b\xf8m\xfbmI\xe3\x8bk;\xab\xfd\x08\xe8\xf7W\xeb\x06\xfd\'"\xebj\xb3\x08\xd6H\xe6\x94B\xcbo#2:\xb1\xfd\xe1\x1bJ\x82\x84\xb0\xfa\x96\xd7\xe2r\xc7\xe1F\xd6\xefY\xe2\xff\x00J\x928\xdf\xcd\x92\x15\x11J\\4\xc2)\xa2\x13\x16\xb7\n\xcccUc \x1f\xbbW\xc8\xaf\xc9O\x86\x7f\x0f\xef4/\x14\xe9ze\xbe\x91\x7f\xa6X\xebO\x12\xad\x8d\xf5\xa3[]\xe9\x97\t4K=\xbc)\x96\x8eXP\xcc.mn\xe01\xc3y\x03\xa5\xc4q\x94\x9e\x18\xe0\xfbK\xf6\x94\x9a\xe7\xe1\xbf\xc2\x1b\tm&amp;\x92[\x89\xa5\x884\x92\x12\xa5\xa4\x9fn\xdf-\xd5J\xb0X\x939\x04\x8f\xdf/&lt;\xe0\xf8\x18\x88\xb7\x89P\xa1\x18\xb4\xa5e\xcd\xa7n\xaa\xdb\xf9~\xa7\xd6\xe1\xe9N\x8e\x15\xce\xab\x92\x92\x83w\xd7t\x95\xad\xa6\xcd\xaf\xe9\x1d^\xb3\xfbZ\xf8\x13H\x96\xd9\xbcG\xf6\x8b\x1d:[\xc4\x87\xed1\xa2\xbc\x96\xd0\xb8\x99RYcb$\x92\x156\xe6g\x02"@\x99s\x8d\x8f\xb7\xd6\xb4\xcf\x13\xe8\x1a\xfe\x9c\xba\xdf\x84|K\xa3\xea\xd6\x97\xe8.c\xbd\x86\xee\tL\xf1\x91\x90\x81VR\x15\x93 &lt;h\xbc0\xc3\x05`\x01\xfc#\xf1U\x87\x8c&lt;[d%\xf1l\xba^\x85\xa3j\x10\x91f\xda\xcd\xf3i\xd2\xdc\xda\xed\x92T\x98\xcc\xf3[\x0bX\x19\x15\xa5Y\xa7\xf96/\x9a"x\xc1t\xeb&gt;\x15x?\xc6\x96ZL1x\'\xe2\xecV\x16\xd3\xdcG\x1d\x9d\x84\xf7:_\x88\xb4;\xab\xa7F\x9a\xda\xd6\xcb_\xf0\xee\xad=\x8b\xb5\xc5\xbaL\xf1\xdb\xdf%\x9e\xaf\xe4\xa4\x92Em$\x11\\\xcb\x1f\xa1,\xb1\xce\x8f\xb4\xbc\xb9\xb9y\xa5\xcbNN*\xc9?\x8fd\xbc\xe5\x7f\xc4\xf9\xca\xd9\x86"\x18\x8a7t\xe3)E\xcb\xd8\xd4\x9aU\xac\x9aJ\\\x8d\xa7(\xbd4K\xe6~\xdb^jW#K\xbdp\xbb\xef#\x85\xd9\xe5\x8b\x0c\xa60J1\xeaC.\xecgn\xec`\x1e\x86\xbe\x01\xbd\xf1\x13x\x93\xe2\x86\xb9\xa6\xc9p\x16\xebC\xd1\xae5\x08!\x91\xc6\xd9o!\n\xb3\xc1\x0ce\x1f\xed\x12Ik$\xa8#E&gt;`vH\\N#\x15\x1f\xc1\xcf\x89\xdf\x14&lt;\'\xe2\x15\xf0g\xc4U\xb4\xbe\xb4\xd4\xa7\xfb=\x96\xa9c%\xdc\xb6R\xa4\x9e]\xb1\x18\x9aY\x984\xaa\xe6e \x05\x00HCa\x1f\x1c\x16\xa9n|\'\xfbGE\xacM \xb6\xb4\x97H\x9a\xeeTy6\xab*Na\x10\x17\xc3*\xb5\xda\x9d\xd6\xd3\x1cG\xe6B\x0e\xfc+Vx*Qu\xe9\xc2\\\xd7\x8c\x14\xd6\xabYE\xc6\xdb\xad\xb5\xf9\xf9\x1f;\xc48\x89O\x07:\x93\xb2\x94\xa2\xefm#\xf6^\x97o\xee\xbf\x9fc\xfa\xd3\xff\x00\x822isI\xf0\x87\xe2\x07\xc4+\xabD\xb5\x9f\xc6\xde(\xd34[\x0c\xc0\x8b,\xb6\x9e\x17\xb0\xb8\x9a\xee\xe2\xdeE\x8a\x0c\xd8=\xde\xbc- T\x89b_\xb0\x0cl\x8b\xec\xd1\'\xedE\xcd\xdcVP\xb4\xb32\xaa(\xe4\x9e\xad\xc18\xe8N\x08\x19\xe9_\x92\x9f\xb0N\xa1\x1f\x82\xff\x00e\xff\x00\x84\xd6\x16\xac\xd0\x1b\xfd&amp;\xf7W\x96\x15b\xb1\xc5.\xa5\xab\xdf\xcb\x98\xd2T\x8eh\xa3\x92\x11\x00\x8d&amp;U}\xb1\x8f\x97\x81\x8f\xb2\xb5o\x88\x13\xc9o\xb6i\xc0]\x84\x11\xbc\x12O\xa62{n\xaf\xd9\xf2\xba5\xa8e\xf4!\x1d$\xef=V\xbe\xfd\x9b\xb7\x7f/%\xa9\xfc\xf5\x8e\xc4\xd3\xab\x89\xad9\xb5u6\x9a\xdbEd\x9e\xae\xfd5\xd5\xf7=\x7fT\xf1\xaa\x9d\xf1[\xb8\x8cn\xfb\xca@\'\xaf\xae0;\xf6\xe4\x0f\xa1g\x87\xf5\xcd*\xf2f[\xd9&lt;\xeb\xa2\xd9\x8d\xa4m\xc3\xa8\x04\x0c\x9c\x0e\xbd\xcfA_._x\xd2\x01\xbd\x90\x96b8?\x99\xfec\xe9\xdf\xbf8\x91x\xd9\xed\xe5\x12\x97(@.0\xeb\x90x\xf49\xcf\xb0\xecs\xef^\x94h\xd5q\xbc\x9d\xdfN\xc9\xe9\xa3\xff\x00/\xf8c\x89\xe2i+\xd9i\xdfU\xfeK\x7f#\xee+\xcb\x9d\x05\xdb\x12,\x05\xc1\x1c\x8d\xa81\x83\xdc`\x1e\xa3\x81\x9f\xd2\x8a\xf8\xd2?\x1d]_\x01\xfb\xdd\x9bA9gb\x18g\x03\xa6y\xe7\xbfn\xb4STe\xd7\xf0\xb7\xf9\x8b\xeb1\xe9\xb7\xa3\x7f\x8d\xcf@\xf16\x87w\xa3\xdc\xb6\x9fp\xbbD$\xf92\x15@%\x88\xe7\x0c\xae\t\xdc9\x1d\xcf^y\x15\xc6\x88\xccYn\xa4\x1c\x1f\xa7\xff\x00\xacu\xff\x00\x1a\xf5\x1f\x89\x9a\xdcZ\x85\xa6\x95$&gt;ZK\x03:\xca]\xff\x00\xd2\x9dY\\\xa9\n@"\x03\x8c\x9c\xf2\x1bfx\xaf\x18{\xf6eb:\xe3n:~\x87\x8a\xfajT+\xe2\xb0\x11\xae\xe2\xddNkY\xed\xca\xedkZ\xfa\xf5&gt;g\x11\x8a\xc3`\xf3)\xe1eV1\x94W;M\xee\x9d\x92\x8d\xf6\xba}\x16\xc9\x1aM|\x9b$X\xf0\x1fiP\xdd0G\'\xa8\x19$\x02\xa3\x1c\x92@\xeaq_\x02\xfe\xdd\xfa\xdd\xbd\xaf\xc2\x0bO\x0c\\\x08\xcc\x9e-\xf1m\x85\xdck)\x91\x92\x0b?\nB\xda\xed\xd5\xcd\xc2\xc6\xca\x1e\xd2\xdfR\xfe\xc2[\xa4\x99\xd2;\x88\xee^\x00\xb7\x01. \xaf\xb5\x13\xcey~U\xc9$6;oWF\x8b\x9e\x83\xf7\x81\x01=\x02\x96\xdcB\xe4\x8f\xca\xdf\xf8(L:\xcf\x89&lt;a\xe0\xff\x00\t\xdb\xc9&amp;\x9dd\xdf\x0fu[\xe8\xf5\x89\xe2\x12i\xf0\xcd\x7f\xe2\x0b\xbb=F\t\x91\xa4O-\xf5\x08\xad\xb4\xd8\xa3\x99\x86"&amp;0\xfbU\x8b\x0f\x90\xe2\x8a\x95p\x9965\xc22U\x1at[q\xbaQ\x9aI\xc9[\xae\xbd\xec~\x9b\xe1\xbd\x1a\x18\xfe/\xcai\xd4\xa9\x18G\rU\xe2f\xe3$\xb9\xa3N\nQZ\xa7~nk=\xbc\x9a\xdc\xfc\xdb\xd3&lt;\x194\xbe.\xd0&lt;[\x7f\xac\xd8\xdf\xdc\xbd\x9e\xab$\x96\x96\x9aQ\xd3\x96[m_\xec\x17:u\xbcqOv\xcdk\x1d\x85\xb5\xa5\xd9\xbd\x99\xc2\xcb\xa8\\\\\xc0\xd1[YEn\xb0\xcf\xeb\xb1X\xd8]\xc6\x92l\x89\xa6\x93\xcciX\xc6\xa8\x0fE\x89Tn;\xb0\x8aF\xe6\x1b\xba\xf6\xcdy\x1c7\xf7\xb1\xea"+\x85xn\xf4\xdd\x12\xd9n-\xf0\x87e\xed\xa5\xbaX\xdc\xe1\xe1i!*La\xf6\xa4\xad\xe5\tUe\n\xce\xa0\xf7~\x19\xd4\xe0\xba\x82\x19\'S\xb68cl\x86\xc1\r\xc8=NI\xc9#\x18\xe7\xad~%]\xc2tp\x94\xa7\xefsR\\\xd2v\xe6\xbcZ\xb6\xbb%\xae\xbazy\x7fH\xe0\xa8\xc2y\xa6d\xe4\xa9&amp;\xf11\xe5\x8aM\xaeM\x12\x8e\xbc\xde\xeb\xdd\xbd\xf6m\x90\xeb&gt;\r\xd1\xf5G\x8a=B\xd6&amp;\x88\xc72\x12\x18\xad\xd4G\xcar\x85\x197d\x97\xda\x80`\x81\xbb\'\x18\xc8\xf2\xaf\x14|=\xd1f\x80.\x9d\xe1\xd9\x1c\x08\xf0\xb2\\\xea7\xf6p\x16\x8e2ZIS\xce\x9dw\x17\x8dB\xcb\x1a\xab)!\xa3\x89\xd8\x05?OZ\\\xdam\xdb\xba\xd97\x90Vyv\x17\x04\x90\x02\x16\x93\n\x15\x8e2\xd9\x18 g\x8a\xe5\xaf\xf5\x08\xf5\x9b\xc6\xb7\xd3\xac\x9a\xfc\xda\\\x08\xaeg\xfb\xb61\\\xc0\xdf5\xbe\xf1\x88d\x95r\xbej\xab\xb2\xc5\xb9D\xbbL\x91\x86\x98SQ\x8f%8\xab\xb5d\xef\xae\xe9\xe8\xd7\xa1\xf5\x94\xf0\xf4a\x18\xd4~\xd5(\xb4\xdc!RJ/E\xa7"|\xb2\xd7\xa3G\xcf\x9f\x0e&gt;\x1c\xc9o\xe3\x1d\x12\xfbV\x92K\xd6\xb6\x96\x12\x1f\x98\xa0\x86\xde\xdb\x01!\xb5\xb72J\xb6\xcb\x18o1\xc7\x98\xe2Y\xe5y#fE)\x14\xff\x00\xb5\xb4\x83Z\xf0\xee\x9f\xa0h\xf0!\xbb\xb6\xbbMFF\x99RkLY\xc6\xc1-m\xe3\x9b\x0b\xe5M)U\xdc\xc0\xc2\xbb-\xd6\xe0\x18|\xd0~\x94\xd2\xed \xd0%\xb9\xbe\x9ah\xe5\xbe\x9d\x95c\x96h\xcbF\xbbU\xdc\xc5oo\x1a\xb1u\x1b\x8a\xbf\x96\xac\xeaP\x126s\\\x07\x8f\xbc?\x1e\xa9$z\xcc\xb1"\xdb\xc5\x13\xd9\xce\x92 h\xe1k\x92\xad\xe7\xc6FD\x80\x10\x06\xc5\xdcT\xb8\xdc\x01\x07\x0b\xea\xae\x17\x9b\xbb\x96\xfbu\xd3M\x95\xbdnu\xe2\xb4\xc1\xa9:k\x92z&amp;\xb5i7\x1d\xef\xfd?\xbc\xf8&amp;\xc3\xe1v\x9f\xa9i\xda\xfcW\x91\\hZ7\x8e\xbc;\xa9\xf8cQ\xd5\xa0\xb4\xb4\xf1\x0c\xb6\x96:\xfd\x89\xd3\xf5\x0b;k\x8dKO\xbc\xbb\xd0\xeem\xac\x8c\x91\xac\x9a%\xcc6\xb0\xc4\xb3\xc7\xa7@\x12i\x15\xbeM\xb4\xfd\x91\x17\xe1\xce\xbf\xe2=k\xc2\x1e&lt;\xd4&lt;E\xa8\xea\x96\xf6:n\x9b\xfd\xaa`\xb5\xd3\xc5\xad\xb5\xdc\x12\xcbk\xe2]&gt;\xde\xe2\xde/\x11Z\\XZ\xc5\xa7\xd8\x0b\xbf\xb3\xdd\xe8\xd7&gt;N\xa1i~\xda\xa8\x17O\xfb\x1f\xa1xV\x1b\r8\xa5\xb4\x82\xe6\xdd\xd3l\xb6\xed\xe5\xc9\x0bp\x182\xc3\x93\x1cN\xear\x0b\x15\x91FT\x81\x96\x15\xce\xea^\r\xd1\x1e\xe4\xdeG\xa6\x08\xe6\xfb\xea\x16\xda&amp;\x19R2BH\xe8\x85\xd5\xb0F\xe3\x81\x8c\x8c\xb6\x05w\xc37\xc6\xe1p\xd5p\xd4\xea\'J\xac\x1cgNQ\x8bVv\xd2\xfb\xfe\'\xc7c\xb2&lt;\x1e/\x17C2\xa9A&lt;M\x08rB\xb74\xd4\xed\xa5\xb4O\x91\xb5}\xb9m\xe4|#\xf0\xebK\xf1\x7f\x9f\xa0\xff\x00\xc2ag}\x06\xab\xa1\xddAi,\xb7\xae\xf3\xcf\xb8]\xc95\x86\xe9\xa6\x89.\xaf\x10\xda\x92\x93]M$\xefr\xe1\xae\x012\\LO]\xe2\x8d.\xdf^\xf8\xf3\xa6\xdcCq&lt;\xa3H\xb0\xf0~\x9fwe\xb3\xed1\xdei\xba\xbe\xa7}\xa9\xea\xfa\x9c\xf0\xc4\xd8\x92\xda\xc2\xc9e{7f\x0bl\xf0\x06\x97\xe7T\x8d\xbe\x99\xf1-\x9c\x160\xc5|H\x06\x07I\x1aq\xf2L\xdeZ;\xa1\x91\xa5\xcc\xaec\x91c\x1b\x15\n\x84\xdc\x10\x91_\'\xdah\x9a\xdf\x8b5\xff\x00\x8a\xfe&amp;\x85\xf5\x1d\x0fCK\xfd\x03\xc2z\x96\xabo*\x9b\xab_\x0fi\x96\xb6\xc6{}*X\xd9^\xd6k\xf4\xd5\xa5\x91\xaeIO\xb3FV]\xe8\xe2"|\x9c\riJ\xb4\xea\xb4\xb9\xe0\x94b\x92|\xae\xf2\x8d\xaf\x1e\xba\xd9o\xd4\xf1q\x997\xf6\x9e\'\r\x97s\xca\x9d*\xb5aJ\xb5]9\xa9\xc2n)\xcbf\x97.\xf7z\x1f\xd6\'\xc2\x0f\x1c\xf8+\\\xf8o\xe1;\xbf\x86:\xed\x8f\x88\xbc\x13\xa6\xe9\xb0\xf8oI\xd4\xb4\xcb\x9f\xb5B\x92xeWF\xbc\xb0\xb9\x91dx\xe0\xd4l.\xad%\xb5\xbc\xb6\x8f\xcc\x11\xc9\x17\x96e&gt;J\xbc\xde\x8b&amp;\xb3yvB\x87r\x0fbN\x07\xe7\x8ey\xfds\xdf\x8f\x98?b\xbf\x83\xa9\xf0\xdf\xf6^\xf8M\xa0[[\xc7j\xfa\x8e\x89?\x8c\xaf-\xe0\x81cKY\xfccy&gt;\xb5\x05\xb4{6$Q\xc3\xa4O\xa5G P\xed&lt;\xf1\xc8^EKx\x12\xbe\x9b:|\xd6\xef\x80\x18\xed\xee\x14\x9e\xe3\xae3\xd7\xf2\x15\xfd\r\x96\xc9\xd5\xcb\xf0uj\xfb:ue\x87JT\xa2\x9a\xbc\xbd\xdb(\xa6\xf4\xd3\xbb}m\xa6\xa7\xf2\xc7\x10aha3\xdc\xe3\t\x81\xc4O\x11\x87\xc3f\x15\xe8\xd0\x9c\xd5\xe5:T\xaa{7)I(\xc5\xcb\x9a.\xcd$\xad\xd0\xbf\x05\x8d\xcd\xc2\xef\x92\x7f,\x1e\xdc\xf4=\xf3\xd3\xf5\xff\x00\xebu\x9a\x1f\x86m/\x18\xf9\xf3\xb1*9\xc79\xcb.\x07\xcd\xc7C\xd4d\xfey\xae^(uVV\tm3D\xb8\x05\xc2\xfc\xa3\xa6:c=\xf8\x00\xf7\xe2\xbb=\x0e\x1dHH\x85-\xa6\xca\xe0\x80Q\x86\xee\x8b\x9e\x07\x18\xcey\xc5tI\xe9\xa6\x96Z\xa6\xad\xda\xdd:\x1et9\x95\xb9\xa1+\xbd\x13\xddt\xd5\xe9\xe5\xf7\xd8\xefm|\x17\xa3[\xa0\x0f\x03\xb1a\x9d\xdb\xca\xfa\x1c\x7fw\x9e\xbc\x1c\xf4\xa2\xbd?@\xd1&gt;\xdf\xa7\xc3\xe7\xc5(\x9a1\xf37\xcd\xc88\xe3i\xc1\xe3\x81\x9cq\xd3\xbd\x15\xe7\xca\xbbM\xfb\xdf\x9fo#\xd4\x85\x04\xe3\x16\xe2\xae\xd2z\xfa.\xc7\x85\xea\xfa\xb6\xa3\xae]\xb5\xe5\xde\x03\xed\xd8\xb1\xc6\xa5\x02 \xe3\x1d\x94\xe7\x1d\xb3\xda\xb3DR\xe39a\x8e\xc7?\x9f8\xcf\xff\x00\xaf\xb5[V\x94d\x1c\x1e\x01\x07\x8c\xf1\xc6p~\xbd\xfb\xd4\x8a\xd2s\xb8\x8c\xe3\x83\x81\xea8\xfe\xbd}Gz\xfdf\x9caF1\x8d8A\xc20N1\xe8\xfe\x1f;l\xfa[c\xf1\x1a\xb3\xa9Z\xa4\xa7Zru\xddI~\xf2o\xde\x8e\xda_\xa2]\x9f\xe62\x0c\xe3\x04\x11\xd3,2\x0e\x01\x19\x18\x1c\xf2\xa0\xaf\xa0,\r|;\xfbt|8\xbf\xf1\x07\x814\xaf\x1e\xe9\xba}\xfe\xa5m\xe0i\xaf\x87\x8a\xac\xf4\xdby\xef\xaf\xed\xfc\'\xaa5\xac\x8d\xad%\xa5\xb2\xbc\xd7\x16^\x19\xd4l\xad&amp;\xd5\xd1\x12C\x06\x8fy\xa9_\x84\xf2\xec\xe6\x96/\xba\xa320&lt;\x90}\x97&lt;~\x19\xc7\xe9V\xa2/\x1b,\x8a]$L\xc9\x1c\x88\xc5\x1c&lt;j\xce\x85]X&lt;xd\x04\xba\x07`\xbb\x80F\xce\x0f\x8b\x9cd\xd8|\xeb\x05_\x06\xd7\xb1\xf6\xed\xb7Q\xf2\xa5\th\x93N\xd6\xb6\xdb\xf94}_\x0b\xf16+\x87sl\x06gE\xacD\xf0\x95T\xa7Nsp\x8djm(\xce\x9c\xe5\xf6o\x14\xd4t\xb75\xafu\xa1\xfc\xb7jO\xa5\xdbZ\xeaZ\xb6\x85g\xa8I\xa2\\\xd9\xa46\x9a\xb4\xf6\xb7\x89\xa6\xeaW1L\xd1\xea\x03H\xd4\xa5\x8c.\xae\xbay\x10A\xa8I\xa7\xb5\xccKw0\x86g\x17\x10\x98\xc5o\n\xeab;_\xf4\xbf\x91\xd5\xb3\x1cj\xca\xaa\xd0\x95/\x1b\x0f0\x82\xcd\xc6\x1a&lt;\x19\x10\x90\x19T\xe2\xbfB?\xe0\xa7wb?\x1e\xfc1\xb5\x91Y \xff\x00\x85}t\xcb#n\x8dR\x19|W\xafJ\x96\xf6\xd0\x9c\xc3\x15\xbcs\x97\x9dc\x85"\xfd\xe3\xcc\x92F\xfb\x12y\x7f1&lt;9v\xb77s\x05\x13\x08\xa1\x8ef,\xce\x01V\x0c\x9b\xf0@|\xfd\xa1\xb6\xc8\xaa&gt;\xe8\x8c\xee+\xd0\xff\x00+\xf1V_\xfd\x8f\x99T\xc0Bj\xab\xc2E\xd2\x94\xfa^M4\xf4\xb6\x9a-\xbf\xe0\x9f\xdc&lt;\x11\x9fR\xe2\\\x1e\x13&gt;\x96\x1b\xeak3\x8dI\xc7\rwRt\xa5Fj\x16\xa95d\xb9\xf5wk\xfc\xdf}\xabx\x9bT\xba\xb7[\x1d$&lt;W\xb7La\x85\xfc\xa0|\x80N\x04\xced\xdb\x18\x8bpD\x97s\x06\xf2\xa4o,4\xa65?,\xfcF\xf1\x8f\xc5\xff\x00\x85\x17l\xfe\x0f6z\xb6\x93r\xebst\xfa\x8d\xdc\xf6\x81.\xe7$\\[]\xb0\x8a\xe1m\x16\xfaU\x11\xda\xea7\x16W6\xbep\xb2\x8a\xeb\xc9wI\xe1\xf7\x0b\x8da,\xc6\xf9R?\xb4\xc8\xe3\xe7\xb8\x00,Q\x17\x04,\x8d\x1b\xe6X\xc8]\xe5Uv\xab*\xb32\xed\x00\xf2:\xfe\x9f?\x8c,\x7fv\xadsk\xba;d\x8e\xd6a\x15\xb3\xcf\xe7\xe7\xcc\x966\xdc\x924j[\xcaa$\x88A8\\\xfc\xc9\xe6`\xa5)Y\xca\xea\xcf\xd5m\x1d_\x96\xfd\x9f\xa1\xfa\x1ck\xfbF\xe0\xa2\xda[[\xbe\x9e\xbd&gt;Zu5\xfc\x03\xfbVh\x93\xe9\tu\xe3;\x18\x7f\xb4\x13O\x96\x0b\xad.\xf6u\xb4\xbb\xd1\xae\x82\x16k{\xa7\xb7\x92\xf5\xa6\xdacb\xb2,\xbeN\xa0\nO\x01H\xe2u\xaf+\x9f\xf6\xf6\xf0/\xf6\xe5\xe7\x86\xecl\x93W\xb2\x8ei\x9bS\xb3\xb2\xb5\xbd\xbb\xb5T\x18\x8fv\xa1}g\x05\xd5\x96\x98cQ \x8c\xdc\xdc\xc0\xce\xe12\xbb\x99A\xf2\xef\x1b\xfc\x0c\xf0\xfe\xa5&lt;\xd2\xdf\xd9\xdf\xcd\xb2\x18\xe2\x0bo-\xe5\x91\x94On\xf2\xe2\xe7\xec\x93\xdb\x89\x03\x89a\xdc\xb2\xdc\xf9F6u\x99\x90\x86\x88\xe2\xf8\x03\xe0w\x82t\xeb\xe4]O\xc3\xb6\x12\xdb\x16y-\xe0;\x9bN\x81 \x99\xdd\xd2\xde\xd4\xc0\xbar\x13\xbd^\x7f"9\xcc\xce&gt;{\x96|\xa3\xfb+\xea\xf2\x84\x9b\x9bs\x8a\xf7b\x9aI\xbd&lt;\xaf\xdf\xae\xdd\xfar\xca\xa6`\xda\xa58\xbf\xab)+\xf3\'\xcc\x92\xb3\xd3[Yi\xbf\xf9\x1fz\xfc3\xf8\x97a\xe2\xad*-SM\xb5\x9a\xc7H\xbf\x92I,b\xb9c\xe6[A;\x19\x04l\xc4~\xf9\x0b\x12\xb1?%R&lt;q\xb8g\xae\xf1\x0f\x8alm!x\x0bG$\xc9\x0b\xb8"L`\x1ce\xcb/\x1ct\xc199\x1c\x1a\xf2{f\xb4\xb7\xb7\xb6}\x19!\x82+{h\x94\xd9\xc1\x12\x84\x16\xf1\x15\x8a\x03\x041\xaci\n\r\xc1L~J\xbf!\x89\x00\x1a\xe4|cs$\xc4H\xcc\x91\xef\\:18\x05Ab\x0c\x91\xe5T\x92\x02\x80\xcc7\x13\x81\xcd|\xd5\\KS\xab\x1b)Y;/==6\xfc~f\xf5kE\xd0\x85\xadu(\xa6\xd2\xd2\xcb\x95\xef\x7f\xeb\xcc\xc6\xf1\x7f\x89\xbf\xb4]\xb4\xfby\xa3\x9a\xf2\xe6_&amp;\x08]\xa4\x92&amp;\xe3\x0edLgd[\xd5\xc3\x0cd\xaft\x0eW\xb8\xf0\x97\x84\xb4\x8d{\xc6\xd7\xde\x1e\xf0\xcd\x8d\xa4\xda\xa6\xb5a\xa2icN\xb4K\x8f\xb4\xf8\x83\xc57z~\x9b\xe1\xe2\xd2E\x04\x92\xc0\xa6\xf5\x9e\xca\xda\t\xa2\x8eE\x8e\xea\xdd\x84\xcc\x85%1\xf8\x97\x854Y\xf5-j{\xc8\xade\xd4\x9a\xd2x\x9eXRU\x8c\xff\x00gYI\x0b\xcf*\xb1\x0cU\x9d\xaec\x11\xb4\xb1\x98\x9eH\x1d\\\x11\x0c\xc1?c\xbf\xe0\x9e?\x02b\xf1\'\xc5\r\'\xe2M\xb6\x844_\x0b|+\xb37\xfa\xe8\x9a\xd2\x07\xd4\xb5\xcf\x1e\xea\tt|!c\xaaj\xd1E\x0c7\x17\x9a|\x17z\x87\x8a\xef\x84Q$\x96\x97V\x1aH\x00\xc3{\x0bK\xeb\xf0\xeeYS3\xcc0\x98Z2\xe6\x96)\xc5\xcb\x91[\xd9\xb5(\xcbV\xee\x94m\x1b[~\xde\x7f\x1d\x9b\xf1\x0e\x1b\x87r\xdc\xeb?\xc5\xd0\x9a\x85\x1c=jxH\'\x15:\x95y-\x17\x1d4i\xbb\xc2VjV\xbd\x93?m|;\xe1\x93\xe1_\ri\x1aK$\x12G\xa6i\x1aN\x86\xdbHt\'B\xd3-4\xdd\xc9*\xff\x00\xacR!\x1eS*(+\x922\x05hAio\xb8}\x9e\xd2\x13#\x9eL\x83 \x8c\x16\xc6\x1f\xd4\x80j\xcc\xb2Lc1\x12\xc5Cn;A1\xe5\x8ex&lt;\xedH\xd4\x04\x8f\xf8\x88,\\\x06\xc5[\xd3UY\xf0\xf0\xb3\xc9\xb8\x08\x88\xc8\x1b\x88#?\x91&gt;\xdc\xfe\x15\xfdK\x0c\x05\x1c\x1e\x1a1\xab\n^\xd6\x9a\xa6\xe2\xdf\xf2\xc61O\x97T\xaf\xf8_S\xf8Ny\xe6+5\xcc_\xb3\xa9Z\x8ck\xb7^\xac\\T\x9c\x9dI\xb9r\xb9\xa5d\xe5{\xbb\xf5\xd7vu:V\x8d\x17\xf6X\xbe\x9dbI\x19\xc8\xf2UW\xcb!Cr8\xe0\x8e\x9f\x8e:\xd5\xfd=bY3\x1a\xc6\x879\xf9B\xf1\x828\xc0\xed\xe9\x83\xda\x9et\xbb\xfb-1g\x92\x19\xda\xd9\x8e\xef0$\x8c\x06\xe0N\xd0\xaa\x19\xb9\xe7\xf8ON\xbc\xf3\x91bc\x8c\xfd\xa5\xa5\xd8\xa2A\xb6\x17%Y\xb3\x93\xca\x9c0&lt;\x1e\x18\x03\xed\xd2\xbev\xa4}\xa4\xaa\xb8j\x97H\xf5\xf8\x7f\xcf\xfe\x01\xf5\xf4j\xfb:T\xe3RM]\xab\xce\xa2VZG}\x13\xff\x003\xd6t\xddG\xec\xd0\xe6V\x8cg\x81\x8c\x0c\x8f\xa7\xe1\xdf\xf2\xa2\xb8I\xa6\xfbI\x12FJ/\x03fN\x07\x1c\x1e8\xcf</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -524,6 +594,14 @@
           <t>Braulio Da Silva Machado</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00H\x00H\x00\x00\xff\xe1\x00\xeeExif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x06\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00V\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00^\x01(\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\x011\x00\x02\x00\x00\x00\x11\x00\x00\x00f\x012\x00\x02\x00\x00\x00\x14\x00\x00\x00x\x87i\x00\x04\x00\x00\x00\x01\x00\x00\x00\x8c\x00\x00\x00\xac\x00\x00\x00H\x00\x00\x00\x01\x00\x00\x00H\x00\x00\x00\x01paint.net 4.0.12\x00\x002014:12:16 11:34:59\x00\x00\x02\xa0\x02\x00\x04\x00\x00\x00\x01\x00\x00\x01\x86\xa0\x03\x00\x04\x00\x00\x00\x01\x00\x00\x01\xda\x00\x00\x00\x00\x00\x00\x00\x03\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00\xd6\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00\xde\x01(\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\x00\x00\x00\x00\x00\x00\x00H\x00\x00\x00\x01\x00\x00\x00H\x00\x00\x00\x01\xff\xe2\x02@ICC_PROFILE\x00\x01\x01\x00\x00\x020ADBE\x02\x10\x00\x00mntrRGB XYZ \x07\xcf\x00\x06\x00\x03\x00\x00\x00\x00\x00\x00acspAPPL\x00\x00\x00\x00none\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-ADBE\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\ncprt\x00\x00\x00\xfc\x00\x00\x002desc\x00\x00\x010\x00\x00\x00kwtpt\x00\x00\x01\x9c\x00\x00\x00\x14bkpt\x00\x00\x01\xb0\x00\x00\x00\x14rTRC\x00\x00\x01\xc4\x00\x00\x00\x0egTRC\x00\x00\x01\xd4\x00\x00\x00\x0ebTRC\x00\x00\x01\xe4\x00\x00\x00\x0erXYZ\x00\x00\x01\xf4\x00\x00\x00\x14gXYZ\x00\x00\x02\x08\x00\x00\x00\x14bXYZ\x00\x00\x02\x1c\x00\x00\x00\x14text\x00\x00\x00\x00Copyright 1999 Adobe Systems Incorporated\x00\x00\x00desc\x00\x00\x00\x00\x00\x00\x00\x11Adobe RGB (1998)\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00XYZ \x00\x00\x00\x00\x00\x00\xf3Q\x00\x01\x00\x00\x00\x01\x16\xccXYZ \x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00curv\x00\x00\x00\x00\x00\x00\x00\x01\x023\x00\x00XYZ \x00\x00\x00\x00\x00\x00\x9c\x18\x00\x00O\xa5\x00\x00\x04\xfcXYZ \x00\x00\x00\x00\x00\x004\x8d\x00\x00\xa0,\x00\x00\x0f\x95XYZ \x00\x00\x00\x00\x00\x00&amp;1\x00\x00\x10/\x00\x00\xbe\x9c\xff\xdb\x00C\x00\x02\x01\x01\x02\x01\x01\x02\x02\x02\x02\x02\x02\x02\x02\x03\x05\x03\x03\x03\x03\x03\x06\x04\x04\x03\x05\x07\x06\x07\x07\x07\x06\x07\x07\x08\t\x0b\t\x08\x08\n\x08\x07\x07\n\r\n\n\x0b\x0c\x0c\x0c\x0c\x07\t\x0e\x0f\r\x0c\x0e\x0b\x0c\x0c\x0c\xff\xdb\x00C\x01\x02\x02\x02\x03\x03\x03\x06\x03\x03\x06\x0c\x08\x07\x08\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1e\x00\x00\x00\x06\x03\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x05\x06\x07\x08\t\x02\x03\x04\x01\n\xff\xc4\x00E\x10\x00\x01\x02\x04\x04\x03\x06\x03\x05\x04\x07\x08\x03\x00\x00\x00\x01\x02\x03\x00\x04\x05\x11\x06\x07\x12!\x08\x131\t\x14"AQa2q\x81\x15#B\x91\xa13R\xb1\xc1\n\x16$b\xe1\xf0\xf1\x174Cr\x92\xa2\xb2\xd1\x18S\x82\xff\xc4\x00\x1d\x01\x00\x00\x07\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x02\x03\x04\x05\x06\x07\x08\x01\t\xff\xc4\x009\x11\x00\x01\x03\x02\x04\x03\x06\x05\x02\x03\t\x00\x00\x00\x00\x00\x01\x00\x02\x03\x04\x11\x05\x12!1\x06\x07Q\x13"Aa\x81\xa1\x142q\x91\xb1\x08\x18\x16\x17B#3DRS\x82\x92\xc1\xe1\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xbf\xc8\x10 @A\x08\x10 @Ax,\x9fh\xf0\x9d\xaf\xe5\x18\xa8\xdb\xd6\x18\xfe6x\xf5\xc0\xfc\t\xe5\xbf\xf5\x8b\x19\xce.\xd3\x0b-JH\xb0\xa4*ji@\x13\xb2I\x16H\x00\x92\xa3\xd3n\xa7h\xf5\x8c/vV\xee\x8f\x14n\x91\xd9\x1b\xa9Oq|(\xf4\x1fX\xe7\x9d\xadKS%T\xec\xc3\xed0\x84nT\xb5\x84\xa5?3\xd2&gt;}x\xbc\xfe\x93\xeeaWqmE\xac\x00\xa9j\x1d%\xc5\x04\xcb6\x00R\x9b\x00t\xd4@$\x9b\xdc\xdbm\x85\xa2\x0bg/k^{\xe7\x8c\xc9s\x10f^$\x9c\xb1\xd4\xd2\x112\xa6\xdb\x97\xbf\x93`\x1f\x0f\xd0\xde\x1f\xb3\x0f{\x85\xc9\xb2z\xda\x16\xb5\xd6\x95\xdfmW\xd4\xbe*\xe3\xd3,pm&gt;zjs\x12\xcb\xe8\x91\x9d2\x0e%\x08YR\x9f\x02\xfaS\xe1\x00\x8b~+\xda\xfb^\x11s\xbd\xae9#A\xa2*\xa1Z\xc4\xea\xa0\xb0\n\x92\x04\xf3%+Y\x06\xdb%:\x8d\x8f\x916\x06&gt;X\xf0\xa7\x1a8\xca\x8d=\xce{\x12W\x1d\xd6\xa2\xa5\xab\xbe\xac\x15\xdf\xf7\xac\xbb\xab}\xf7\xbck\xcc&lt;\xeas7j?iONw\x99\xb4\xa5:\xd4\xf2\xce\xa74\x82\x05\xcf[\xc0\xf8V\xde\xce)\xc3\xa9\xe9\xad\xb1_Y\xb9]\xda\'\x939\xc9(\xf4\xc6\x1e\xc7\x94Y\xc6%\xdb\x0e\xb8\xe2\xca\xd8JRS\xa8\x10\xa7\x12\x90|;\xecN\xc0\xc2\xff\x00\x05g\xbe\x10\xcc\x84\xa1T\x1cKD\xac\x07\x01RD\xa4\xe3o\x92\x00\x17\xb6\x92o\xd4n.#\xe3\xbf\x05\xe6\xa6 \xc23\x12uJ=j\xa1"\xe55\xc10\xcbr\x93+O%`\x8b\x1b\x01c\xe4,n\x08\xda\xd0\xf1P{S\xb1\x06\x0f\xac\xcc-\x14\x1as\xcf\xcd:\xa7W6\xa5\xbc\xd3\xe1\xc3u-h(RB\tY&amp;\xc9\xdba\xb6\xd6\x84_Kc\xdcDm%;\xb4$\xb5}m\xa5\xf1\xcc\xd2\x07\x95\xe35\x10DQ\x07\x02\xff\x00\xd2\x19\xcc,\t\x89)2x\xca^W\x1e`w\x92\x99g\x1e\x96u"\xa1NQ\xb6\x92\\\xb9J\xad\xd3B\xf4\x93\xeb\x17=\xc3\xa7\x128S\x8a&lt;\xb3\x95\xc5x&gt;\xaa\xc5R\x935t\x95\'\xc2\xe4\xbb\x89\xf8\x9bq?\x85i\xe8A\x84\x9d\x0b\x9a3x&amp;u\x14\xae\x8bPn:\x84\xe1\xc0\x8f\x01\xb8\x8fa$\xd9\x08\x10 @A\x08\x10 @Ac\xe1\x8fH\xb7\x94\x16/\x15S\x907\x9bc\xdb\xc67\xfdc\xa3\xedyp?h\x9f\xa1\x82\xb4\xe6\xf9Q\xcc2\r\xc1]\x11\xe1^\x93\x1e14\x89\x91\xe1)Tc0\xbd-\x93bt\xfaA\x8bN\xc8\x81\xa4\x1b\x15\x16;T\xfbF\xe9\xfd\x9f\xb9$\x9a\x8c\xba%\xa7\xb1Up\xae^\x93*\xeb\xa1(mA7S\xcb\x17\xb9J\x06\xfaF\xea;G\xcd\x87\x1d]\xa0\xf8\xbb\x8e,[N\x9a\xaeM\xd4&amp;\xa6\xa9\xe8y\xa4\x99\x97\x83\x8a\x99\xe68\x95j\xb2F\x94\x00\x10\x90\x10\x92@\xf9\xc4\x90\xed\xf9\xe2\xb6S?;Eqm&gt;V}\xd9\xaa~\x10@\xa0\xcb5\xa4\xa9,\xad\x94\x1er\x81\x03\xa1p\xafk\xef\x7f(h\xbb9\xf8]\xa3\xe2\x999\xecKShMLK&gt;Z\x94m\xc4\x95$\x0b\xdc\x92\x08\xfc\xa3\xdcG\x11\x83\x0e\xa73\xbf[\x0fr\xad\x98~\x18\xe9$m$Z9\xd6$\xf8\xf5\xb2g\xb2_\x81\x9cq\x9c\xf4\xce\xfb)"\xe4\xbc\xae\xbf\x0b\x8fxB\xce\xfd6\xff\x007\x85\xa4\xd7d\x9el.m(\x97\xa4\xb6\xf3k\xb6\x95\xa9\xc0\x8b\xfdLYv\x08\xa3J\xe1\xe6\x93+*\xd2\x18m\xb0\x124\'\xc2\x07^\x9bo\xbc&lt;\x98\x16\x84\xf4\xd9E\xddPR\xacE\x89\xd3o+\xed\xb4e\x95\\\xca\xa9\x0f\xb4m\x1a\xf5Z\x04|\x0bK\x94v\x8e$\xfdU%f\x8fg&amp;feu4=Q\xc3\xce\xf2\xaf\xcb\x0e2\xaejo\xecSqs\r\r?&amp;\xb1\x04\xd4\xf3\x92\xe9\xa7\xcd!\xc4,\xa3IAI\n\x1e]:\xfbG\xd3"r\xe5\xbcEErFq2\xb3\x8c\xba.\xb4\x16\x0e\x94\x9fXOJ\xf0\x87\x83\xe5\xa7C\xceP)\xef\xb9pB\xd4\xdal\x14&lt;\xeda\xbf\xd2\x15\xa6\xe6D\x9f\xe2\x19\xaa\x8f\xa8\xe0\xa8\t\xfe\xc5\xe4u\xb9_:\xb5.\x1bs\x0f\x06R&gt;\xd2{\x0f\xd6\x19\x96;\xad\xe5J\xb8P\x9bo\xbe\xdf(O\xa8\xb75!0\xec\xd3\xc9EA\x9e\x8d-\xb2\xda\xb7\xd8\x8b\x1d\xfdc\xe9o\x15e%:\xab\x87\xa6\xa4^\xa7\xc8\xaaM\xc1\xa4\xb4\x12,\xaf\xa4@\x0e2\xfb&amp;\xa98\xfeV\xb3R\xa3\xc9\xb7O\xaa\xf3\xcb\x92\xbd\xd9\x7fv\x12\xad\x96\x85\xa2\xdd:\x10A\xb8"$p\xded\xc1,\x99\'nQ\xd53\xab\xe0yDy\xe0xq\x1e\n\xa9p\xb6(\x9a\x953T\xb4\xcd6\x89y\xe0[sI )B\xddv\xb8\xfe\x06\'7c\xff\x00k\x96&gt;\xe0\x132\xde\xa5\xcb\xc9\xff\x00[\xb0\x9di\xc6\x91R\xa6\x95}\xebIH?z\xd0\xb8\xd2\xb0\x9e\xb7\x06\xe1#\xd2"g\x10&lt;\x18\xe3N\x1djn\xfd\xa9\'\xde\xe4\x93b\xdc\xeb\x00\xa9\xb2\x9b\xd8k\xfd\xd5\\\xda\x1a\xean,\x9e\x90\x9emM&lt;\xa6\xdeeCN\x93r\x08;\xfd\x04h\x94\xb5\xf0\xd43=9\x0eo\xb2\xa8I\x0c\x94\xf2vUM\xb7P\xbe\xdbrS5)\xd9\xd1\x94\xf4\x1cYMZ\x85&gt;\xbf"\xd4\xeb!\xc5\rH\x0e$\x1d*\xf7\x17\xb1\xf7\x85`"\xf7\xbfH\xa5\xff\x00\xe8\xb9v\x86\xe2L\xdck\x13e\x8e-\x98D\xc4\xac\x94\xba&amp;\xe8\xaf%\x90\xdf-i$&lt;\xd1\xf7PR\x16,&lt;\x8fM\xafs\xac)$BR4\xb4\xf9(j\xa8\x84ri\xb1\xdb\xe8\xb7@\x8c|1\xea\x95h"m\xf5^\xc0\x8d&lt;\xe4\x9f\xdd\xfa\x98\x11\xeeR\xbdT\xf9/\xc7\xcdYSA\xc7\x1d\x98H\xbd\xedt\xff\x00\xee\x17\x94\x0e\xd4)\xdar\x12fe\xe7\x9c\t\xfd\xdbX\xfc\xb7\x88\x14\xbc\xec-\x99t\xa2NU\xbej5\x1dM\xa9W&gt;\xde\xdbGD\xc6t9+0\xdbk\x95\x91BJB\xca\x96,\x16\x0e\xfbz\x7f(\xe2,?\x16\xe2:\x19L\xb0L\xf0|no\xecW\xd2j\xaeVa\xb3w\x1d\x03}\x02\xb4\xbc\x91\xed@\xa7\xe2\n\x8aX\x9a\x93\x9f@R\x80&amp;\xc3a\xf9\xc4\xc4\xa0f\x04\x96(\xc1(\xac2\xad2\xcf3\xce:\xfe$\xa6\xc4\x9b\xdb\xd2(3\x05\xf1(\xf6\t\xc6\xad8\x99:rZm\xc4\xa5IP?x\t\x1d\r\xa2\xcbr\x7f\x8bJ~(\xc8\xfa\x93-L%\xbdR.\xb4\x94\xb6\xab\x10J\x08\xdb\xeac\xab\xb9e\x8e\xcf\x8e\xe1\xe5\xb5\xc4\t\xd9\xbe\xda\x8e\xab\x9e\xb9\x9d\xc9\xd3D\xf6T\xd00\xe5$^\xdfU\xf3U\xc5\xe6c\xab\x1c\xf1\x8b\x98\xf5\xb97&lt;5LOP}\x04x\x86\x85\xcc\xb8v\xbf\xa8\xb4O\xae\x02$S)\x92\xf2\xb3\x0b\x01\xb2\xe3\x97\x08\xbf\x9f\xbf\xfaE`\xe2\xa5)9\xb7Um*R\xdcT\xfb\xc8%f\xea*\x0e\x1d\xccZ\xaf\x0e\xb8}\xdc\x13\x93\xd4Y\'\xd6\xc3\x8fwt\xba\xb7\x12z(\xf4O\xcc\x08G\x8fj\x03i\x04~$\xac\xcf\x87\xd9lZW\x01`\xd2G\xba\x91X\x16A\x13\x13\x08\x1aJ\xd5\xa7pz\x1fx|\xb2\xe5\xceK\xad\xb7f\xc1l\rW\x1bC\x1d\x95\x18\xe6BF\x9a\xa7\xe6\xd1\xa5H\x01\x1b\xfe\x13\xbe\xf7\x87K\n\xe2\xfayp8\x97\x93\xcbt\x8dJ\'H@\x1e\xb1\x87G\x14\xe5\xd7!in\x95\xa1\xba\xa7\xeaW0\xda\x95e\r\x94\xa7R\x85\x80\xd2\x12 \'\x146\xa7K\x81\x96\xd4\x95u\x02\x12\x18UXw\x10\xca\xb1\xfd\xb1\x9eaE\xb5%\xfd\x92\x9f#\x07+\xc32ru\x99\x06X\x9b\xfb\x99\xa6\xd6n\r\xeeGK\xc3\x89\x19T\x1d\xad\x94]\xa9\xef{\xad\x95\x9c}MaE\x05\x94\xb2\nI$\xa4\x1b\xc3e\x98\xb3\xf2\xf3\xd2\xeb\xee\xfa5h\xb9R\x06\x9dW\xd8B\xbf\x1d\xe1\xfae)\xaes\xf5&amp;\x10\x94\x9f\x12B\xafe\x1f(lq|\xc4\xbbr\xb7m\xc56\xdbd\x82\xe2w\xd4\x0f\xf0\x86oeC\x8fy\xba\'\xd4\x86\x9d\xad\xdfT\xcb\xe6\xceZQ\xf1\xa5\x0e\xa1%V\x92nbNi%+F\xc2\xc7\xc8\xf4\xf5\xb1\xfaD\t\xe3\xa3\x83\x1c\x1b\x82p\x1f\xdb\x94J\x7fu\xa9%\xd4\xa5a\x95hi\xc4\x90\xadGG@\xad\xbc\xac/}\xa2\xc43*\xb5&amp;\xaa\x1f1\xa75,n\xa3\xe9\xe8b-q\x83MF;\xc9\n\xe4\xbc\xbaP\xea\xa5\xd1\xde\t]\xf7\xd1\xba\xae\x06\xfd"\xd9\xc2\x98\xac\xd4\xf5Q\xb71\r\xcc\x01\x1e\n3\x1f\xa4\x8azg;(\xbd\x8d\x8a\x8a}\x9a|CT80\xe3\x17\x05U$\xdevZI\xda\xbb\x08\x98q\xc0\xad\x0bek\xe58H\x05;\x04,\xf9\xdb\xe9p~\xa1\xbf\xf9}E\xa7O\xaaZbi\xb4\xb8\x94\x85i\'\xa8=\x0f\xd6&gt;A*\x18\x97\xed\xba\x9b=e]\x97RT\x8d\xce\x94\xdb\xdc\xee\x05\xad\x17\x81\x8f\xb3\x9d\x9a\xcbty\x94\xbb\xa9\xc9\x8a\\\xab\x8e=\xb8\xe6(\xb2\x9fa\x1a\'18\xba\xa3\x00\xc2\xc5m#C\xdd\x98\x0c\xa7\xa1\xe9e\x07\xcb~\x0bg\x13=\xf4\xf3\x83\xdc\xd8\x8f5h\xc9\xe2\xf2\x82\x1b\xd5\xdf\x186\xf2\xd7\xfe0\x9e\xc5\\qP\xa9\xa8Q\x13M\x93\xe8\x0f\xf8\xc5[;\x9aw\xe95\xff\x00ths3\x12\xa3b\xf2\x95\xff\x00\xebh\xc3\xe4\xe7\xfe2c\xb4T\xack\xba\x9b\x9fe\xb2S\xfe\x9e\xe8\x9a\xfb\xbd\xce&gt;\x8a}\xe2\x9e\xd0\xe0\x99\xbd2\x8aqi\x07r\x91\xb7\xf1\x81\x10\x05\xdc\xc7h\x9f\xda\x7f\xdd\x02)\xb2\xf3o\x8c%y\x91\xb3\x06\xdf\xc2\xc3Eg\x8b\x92x[Z\x07d\xa2[\xb3Iy\xb9{M\xb9\xaaY\x1a\x12B\x93\xef\xff\x00\xb8\xf5Jf`\xa4\xb951\xd0%~4\x9d@t\xb5\xfa{\xc4\x1c\x18\xfe\xb2\xc0\x03\xed9\xcd\xf7\xfd\xa1\x8d\x832\xeb\x816\xfbNn\xdf\xf3\x98\xe9\xef\xe0\x08o{\x84_\xddn\x0cw\xa1w\xfc\x82\x9c\x8e\xaaUzT\xa9\x87\x825\x03\xa4\xb8,m\xd3\x7f\xe5\x0e\x16]g\xd5K\x08:\xdc\xac\xbc\xd5\xe5\x1d\x1c\x95#\x99{\x03\xb0\xe9\x15\xba\xdelb\x16\x87\x82\xad6\x9bn|f\x14Ym\x8aqfd\xe3\x19:[8\x91\x14\xb6\xde\xd4\xa5\xce\xcfN\xa6ZZQ _[\x8e,\x80\x91\xb0\x02\xfdT\xa4\x81\xb9\x89\x0c7\x84\xa4\xa2\x94KN\xfc\xa5\x16\xa3\xf5=\xc3\x951\x18$\xa1v\xban\x12G\x12S\x93H\xe2N\xa5&amp;\xeat\xa5\x8a\xeb\x8d\xabW\x92y\xf6\xbf\xcbLZ\x04\xady\xcc5\x80f&amp;\x92\x90\xb4\xca\xcb\xa9\xc6\x11\xaa\xc2\xe9\x17\x1b\xfc\xccU\xfec\xa1\xb1\x9b\xd23\xed\xf7\x89\x84\xd4\x04\xac\xca\x9f\x98\x1aV\xf2\xd4\x94\x85\x92=\xd6\x95|\x8cY\x96[\xd0\x15\x8fp\x9d&gt;\x98\xf7\x89\x97\xd2\xdf4\xab\xccu7\x1f0?(\x8c\xe30\xcc\x91\xbaM@\xf7\xd9s6\x118~!U$crH\xf2\x04\xdc{\x14\xd2Pg\xf3\x93:qGq\x91\x98q\x89w\xfci\x12\xa8(\xb7\xc9I\xbd\xed\xf2\x87Rc\xb3\xef0\x18\xc3\xdc\xea\xc6n=NIJ\x8f&amp;bt%J$\x13\xf0\xde\xfdo\xd4Z\x0e\xf8\x83\xc9\xecqJ\xa3Q\xe6\xb0\x94\xf3\xf4|6\xe4\xc7u\xa8*I\xb0&amp;B\x0fUk\xf2I\xb5\x85\xadk\x93\xbc%\xf2\x0f\xb3}\xe9n S\x89\'1\x1dF\xa7\x86\xe5fQ8\xa9U\x17\x1512\xa1p\x10VM\xcaw\xb7\xc5m\xafh\x82\x83\x10\x8d\xd1fk\x9a\xd1m\x05\x81&gt;\xe9\xc4\xd4r\t;\xe1\xce\xbe\xe6\xe4\x01\xe8\xb5\xe4\xde^ffD\xd7\x9b\x9e\x18\x9cb\nZ\x96\xa4\xf3\x98\x99\xd6\x93\xb8\xbd\xb6\x16&gt;\xdf\x94X\xf6\x05\xae\xcc\xd6\xf2\x9aV\xba\xf79F\x9a\xca\x8biR\xb7\x06\xc4o\xeb\xbd\xe1\x95\x90\xe1\xea\x81\x820\xd5Be\x0e-\xc7*D\x86\xe9\xef\x958\xf4\xa1\xd7\xf1%\xce\xba}R\xb2O\xbc:\x18\x03\xee\xb2fbMD\'KD:\x8d\xc6\xe7Q\xd8\xfa\x8b\xc57\x17\xc4]$\xc08\xeb\xd4\x0b+5%+C;\x9f\x9b\xa8+\xc4&gt;gf\xbelW\xea\x12\xf8N]\xc4\xc9\xa5e.\xcd\x99\xc0\xdb7\xbd\x85\xca\x94\x94\x8e\xbe\xb0C\x84xk\xe2B\xad\x81\xd51\'\x8e$\xdciI\'\xb9\xb5RD\xc3\x89\x04y\rf\xc0\x03\xd2\xc2%\xb6\t\xc9\xc9\x1c\xc1\xcbq"\xcc\xc3t\xd7\xa4\xdf[\xd3\x9aY\xd712/\xb2[V\xe9@\xf5:J\xbd\x08\x88\xef\xc5\xcfg=C1\xf3U5\xec5\x89\x15G\xa2\xcc\xaaY.\xca\xf3\x94\xec\xc4\xb1i\xbb\x15!\xc2K\x89\xb9\xba\x88\xd4\x9b\x925^\xc0\x8b\x16\x11\x88\x87\xb3#\xb2\xb4u"\xea\'\x13\xa57\xcf\x18q=/d\xc9\xcf\xe6&gt;t\xf0\xf4\xa9\xaa~8eS\xd4\xf9\xa5\x02J\xd7\xaa\xe3\xfb\xbavI\x02\xe7s\x0eU\x17\x15\xb7\x8e\xb0\x87xJ\x92\xe4\xac\xc367\xf8V\x15\xb1\xbf\xe7\x05\xd9\x7f\x93\xd8\xd2\xbb\x99\x15L9Q\xa8Lb\x0c\x17I)K\x13s\xe3\x9a\xed\x95\xf85\xfa\x80&lt;\xad\xd7\xce\x0cq\x86\\\xbd\x92R\xf3\xd4\xf2\x07vx\x85K\xe9\xfc)\xb8\xb0&gt;\xb0\xad\\\x90K h\r\xcfqb\xd1\xa6\xeb\xda(\xe6\x0c\xbb\x89\xcb\xd0\xfd\x15nbzBi\xd9\xfd1F\x97\xfb\xc6\x1e\xa9\xf7$\xa4\x91\xf0\xa9\xd0\x9f\xe0b\xc9\xaa\xb8\xf1I\xa8\xbc\xcfxR\x98\x96&lt;\x96\xaez%;$\x0f\xa0\x8a\xe4\xa6M3/\xc5\xa2g\xa7\xb9|\xa9:\xd1\x9bwR\x93\xa4\x86\xd4Wc{\xda\xfam\xed\x0e$\xc7\x18\xb8\x92qn+\x97$\x9eb\xca\xb4\x84\x93\xa7s\xb7]\xfa\x8f+\xc5\xd3\x1e\xe1\xb3\x8b\xd3\xc4\xc7\xea\x06\xbe\xb6W\xbeHs\x0b\x87\xf8XU\xcb\x8c\x92\x1d#\x80m\x85\xec\x06\xeai\x0cu\xa4\x8f\xbdO\xd4\xda=8\xe4_\xf6\x8d\xff\x00\xd4"\x17\xcbq\x81\x88\x1b$)\xb95)?\xdc\x8d\xaa\xe3\n\xb8\xb3s/)\xf4\xbcT\x9d\xca\xd6\x91\xf2\x8fe\xd0\x91\xfe\xa1\xf8\x19\xfb\xbd\xc3\xfd\xaae\x0cz\x91\xff\x00\x19\xbf\xfa\x84\x08\x87\x89\xe3&amp;\xb0\x07\xfb\xa4\x97\xe4`A?\x95\x8d\xff\x00(\xf6J~\xe0x\x17\xfdG}\x8adyJS\x83\xe5\x18-\xb5%g\xd0\x1fH3\x12EJ\xe9\xf9u\x8c\x1ei+N\xc6\xf1\xb8/\x9a\x99Qv\x859\xd3o\x7fH\xb0&gt;\x10\xb0-Q\x1d\x9c\x13M`\xf9\x199\xba\x964\xaf\xcf\x8a\xfaG\xed\xa7X\x93C\x1d\xdeZ\xe0\x05\xa5\xb0\xb5)ZA\xddN\x03\xd4&amp;\xd0\x15\xd9aa\xb9\xeb\xf9\x9b\x1b~\xb1e\x9d\x83\xb9\xb7I\xa8a\xdcY\x80j\x8ei\x98\xa5\xcd\x0cA&amp;6JV\xcb\x81\x0c\xbf\xa7k\xeaJ\xd2\xc2\xba\xf4&gt;\xc6\xd0&lt;E,\xac\xa1{\xe2\xdcX\xfa\x03\xaf\xb2\xb1p\x9fbq&amp;6`\x087\x1a\xf5#D\xcc\xf1\x87?A\xe2\'/2K\x1eRi\x0c\xc9U\x82\x91H\xae2\xd0\xb2P\xf6\xadK+H\x17\x04\x14\xb8A;\x90\xa3{\xd8D\x90\xe1\xde\xa0\xc35\x94\xb5\xf1j!\x1a}\x05\xc7H`\xb2o j\x1f\xd4&lt;\xd9\x9c\x98\x9aJ\xa9X;\x139M\x95e\xa5/\x9c\xfa\xd4\xf6\xb6\x96\xbd@\xa7J\x10\xa3\xa6\xdb\x92U{\x8d\xa1\xe7\xe0\xfc\xb9+\x8d\xd5#8T\xa5\x17\x12\xa9w\x08\xf0\xba-c\xb9\xde\xfb\xc6Y\x8eO\x9a\x9f\xb3\x06\xe1\xb7\xfb\x1b\x10\xaf\xd8ac*\x9c\xf1\xfdV\xbf\xa6\x8a\xc2r\x96\x8a\xcb\xb8^^[\x96\xc3\xcd\xbc\x8e\x8bM\xecw\xd8\xfa\xfda\xc0\xa5e]\x17\x0c\xc9\x85"E\x92\xe3\x83\xc6\xdbM\x00\x95(\xc3q\x95\x0b\xe4\xa5\x96\xd4\xe3\x81\xb7W\xe0Jz\x0f\x7f\xd2\x1f\nM5\xc9\xf6\x1bYW,8\xbb,\x8e\xa4Z\xc7\xfdb\x87J\xe2\xe7\\\xa9\xe9\xda\xdb\x97\x12\xa3\x8e|UY\xa2\xd5e\xe9\xed\xb6\x96\x952\xe9+\x08\xf0\xfd\x07\xb4e\x97t\xe9\xea\xfd\x12\xac\xa9V\xd4\xe3l\xa5\\\xc4\xa7\xa6\x90\x9d\xe1\x07\xc6\xd7\x10\x98;$s6zc\x10N\xb7+#\x87i\xcd\xaa\xe9l\xa9k[\x97\xb9H\x17\xb9\x1d!\xb0\xe1k\xb6s\x00K\xe0\xaa\x92Q6\xe4\x83\xcc\xb8\xe1u3,\x06\x1e\xe5nA)W]C\xd2$a\xc2\xe6\x91\x82B\xd2E\xf7\to\x8c\x8e\x00\x00\xd0\x91{\x14\xed\xe4.(\x18o0\x9b\x97Jt\xb6\xf2\xd5p\xa4^\xe4\x1b\x1f\xe3\x12*\xbd\x95xo\x18\xcc)\xe9\xca]5\xf5)&gt;%&gt;\xc8\xd3\xab\xcc~QZ|7v\x8cQ\xf3c8\xde\x9dnN\xa1Ny\xba\xb2V\xcaf$\x8bl\xcc0\xe2\xc3e)P\xd8\xeaI7\xf3\x8bK\\\x9br\x12%\xe6V\xe3\xd2\x8e \x16\x81\xea\x90D#[\x0c\xd4\xae,p\xcb}lQZ\xe8\xea,\xf0~\xc9\xad\xc5\xd82\x8fL\x90rNY\x99i\x16R~\x14\xb6\x12\x83\xd2\xf6\xfc\xa2\x10q\x87XB\xddm*J&gt;\xec\x90\x9d#\xca\xfbD\xd9\xccw\x92\xaa\x8a\x90\xda\x94\x95%e\x00\x1f\x91\xb7\xf1\x8a\xfe\xed\x0e\xad}\x99Y\x94\x95iAJR\x8a\xc9\x1e~\x1b\xff\x00(\xf3\x07\x91\xcf\xab`G\xabsa\x84\x9d\xd4s\xec\xfb\xcb|8\xc7\x16\x19\x89\x8b1\xc52\x9fR\xc3\xd8^Ud\xb1;(\xdc\xd3O:\xf2\x93`\x10\xe0Rul-\xb7\xe2\x85\x97j\x9e \xa3\xe3|\x95\xc2\xb5\x99\xec/@\xc2\xf8\xa6b\xb6\xa1Jf\x9b$\xcc\xac\xc3\xb4\xae\xee\xbewy\xe5%!\xc4\xa5\xee\xec\x10\xa5\x0b\x85\x15\x81\xb0\x87_\x82\xfe\x13f1\x9e\x04z\xb514\xb4\xca\xd6\x19]D\xcb\xb4\x9f\xda,\x05\rK\xfd\xe0\x043\xdd\xbc\x94\xd1\x86\xf8\xb6\xc3Tif\xd4\x8am/\x06\xc8\xb6\xd1\xb6\xd7[\xb3\x0b&amp;\xfe\xf6\x065&lt;\x0e\xb2J\xccg\xb8\xf3\x95\x8d:_M4\xd9R\xb1jJjl\x10\x97\xb09\xeeu\xc1;\x8b\x9b\xa8&gt;\x94(\x0f\x0f\x87\xf5\x8d\x88iE?\xe1\x1bZe&amp;6\xa5\xb2\x06\xdd#PYm\xed\xa8\\\xbc\xb4\xfa@\x8e\xad\x0b\x81\x01\x0c\xee[J\r\xb6\xeb\x1e)\x80N\xc2\x0c\xbe\xcds\xf7\x7fH\xc1\xe9b\xd7\x96\xfepK\x94\xa2.\\\xbf\x87\xf8\xc3\x8f\xc2\x07\x10\xefp\xad\x9f\xd4&lt;b\x89v\xe6\xa4\xe4\xd4\xa9j\x94\xba\x87\xfb\xd4\x8b\xa3C\xe8\xf9\xe9:\x92|\x94\x84\xfb\xc2\x18\xb7\xb6\xe0G&lt;\xcb:M\xd3\xf3\xbc%#\x03\xdaZF\x87\x7f\xa23$tN\x123q\xaa\xb2\xbcG\x94\xa8\xca\x8c\xfa\xccfe\xf1\x03\xd3t\x9c\xc5bR\xb3\'*\xd1\xd3/4\xc0\xf156\x00\xd8\xa9`\xa1[t\xd6\xafHQe%\x054\x89\xe9y\xa6\xd4\x9dM:\x9f\r\xee@\xd7\xf1\x0fK\xed\x11\x03(x\xc0N$\xff\x00g\xf4l`\xddA\xc9\xcc)\'\xfd]\xa3\xce\xc8i\xd7\xdd\\|\x94\xa5\xf0\xb2\n\x829\xa1\t)\xfc)\x03\xca\xf1!\xf17\x124\xec\x97\x9a\xa3\xca\xd5\x83\x92r\x15\xa2\xb6\x9e\x9cZ4\xb2\xcb\x89R\x14\x8dG\xc9*\x01[\xf9\x18\xccx\x9b\np\x05\x91\xefm&lt;\xc0\xfc\x95w\xc21&amp;\x97g;\x1dO\x91*~\xe5\x15]NT\x92\x03\x9e\x14\x9d)\x17\xdf\xfc\xef\x0f5g2\x19\xc2\x18m\xc7\x9ep\xa7m\x00+\xcd^\xd1\x14\xb2C\x1dI\xcc\xaaVq\x99\xc6f$\xe6\x00[s\r\xb8\x16\x82,7\x04u\x1d!k\x9dX\xd5NNK\xa8s\xe6\xa5\xe5eK\xdc\xa6\xbcJqj\xb8\x02\xde\xc0\x08\xc9\x85,\x8c\x97)\xd1^\x99T\xd7\xb30\xd5&amp;\xf1n\x0f\xa2f\xeef\xcbV\xa7(\xb2sU)\x1b%\xb9\x97\x90\xadM\xa7\xc8u\xd3{\xf9\x91\x1cy\x91\xc1NQ\xe7\xbe`&amp;f\xbd\x83\xa95\xaa\xe4\xb9B\xd6\xf3\x0bZT-\xff\x00\xd8\x10\xa04\x8f\xca".wq#\x9cX\xaf\x18\xcda\xfc5\x82\xea\x94\x8a:\x14o32\x8eGy\xdc\x0f3ko{{B\x98p\xa7\x99\x1f`*\xadK\xc6\xcf7X\xaaJ\x84\xaa]\x80\x19@Q\x16R5\x1d\xac|\xf7\x8bU&lt;3F\xd6\x86\xca\x1a\x0f\x9d\xff\x00\x08\xff\x00\x0c\xc9\x8d\xe4iq\xfah\x13\xfc\xae\x19pn\x11\xc4\x92n/\x0f\xc8\xceI\xd1\x1eR\xe5o\xa9Iic\xe1 \x02\x07]\xefc\xd2$\xf6Vft\xae%\xa6\x1a{\x8ehu\x08\xd4\x94\xdf\xe2@\xda\xf1T\x94Z\xef\x12\x19\x11\x88\xdbb^\x97+\x88\xa9\xe9RL\xc3\r\xd4[s_\x95\xb4\xea\x16\xd8y\x18\x97Y\x15\x9bx\x86\xb3\'M\xabW0\xddK\x0e\xd4\x99p\x05\xcb\xb9\xa5A`\xdfRIJ\x8e\xdf\x94F\xe34\x8f\xbew\xbc\x1f\xa1\xbf\xb28\x06\x11\x926\x9by\x8b\'\xaf8&amp;\xbb\xbd_J&lt;\x1c\xb4\xea\x1e\xff\x00\xeb\x15\xeb\xc7\xac\xb7\xda8\x89\x0bWT4\xa4(\xa7\xad\xc8\xb7\xf3\xfd"mg\xa63fY\xc5\xf8\xb58\r\x89&amp;\xdbX\x18\x84\xbcY\xd7\xd9yFzgf%\xd5\xcewH\xd44]7$\r\xce\xc0\xf4\x86X\x0c.\x15--\xde\xf6M\xea\x1e\x1d\x19i?\xf8\xa5\xa7\x0b\xf3\xf5l\x9e\xe1\xc6\x86\xda\xe5$Q5^\x97\x14\xfat\xba\x08S\x92\xed\xa9:;\xd3\xc7\xfe\x1biI[\x8a\xbfD\xa0\x93\x14\xfb\xc6fy=\xc4\xa7\x12\x98\xaf\x16\xb8\xf7:VjlK\xc8x\x92Be\x18@a\x8biJz\xb6\x80\xa3\xee\xb5D\x9e\xe2\xc3\xb4\xba\x83=\x91\xafa\x0c\xbb\x9c\x98z\x7f\x11H\xae\x95R\x9dL\xa2\xd9\xee\x92j\x1fz\xc3e~%-\xe4\x80\xd9)\x02\xcd\x95\x81rv\x83\xad\xca\'W\xc5}\xefa\x1bw\x08\xe0\x8e\xa5\x8d\xd53\x0b=\xc7n\x82\xeb=\xe2\xbcY\xb3\x86R\xc2\xe0\xe6\xb6\xd7#\xf0\xb4\xb1\'\xa9?\xacnj[\xf0\xc7[\r\xa5?\xddO\xbcf\xa4r\xf7\xf3\x8b\xb2\xa8..G\xb4\x081n_X\xe9\x02\x02\tO;\x85\xf9\'k\xa7\xeb\x05\x93tb5\x0b$\xd8zC\x8dW\xa7\xb7\xbf\x84\xc2b\xad!g|;\'\xa1\x84\xd0H\xb9\x8az\x9aW\xe0\x8d\x0b\xa6\xbb2\xe2[m\xb2\xe2\x95\xb0Ki\xba\x89\xf6\x02\x0f*\x12-\xb4\xe1R\xb5[\xe9\x18\xb9V~JA2\xd2\x8e*U\x9d\xd4\xb5 \x94\xb8\xe1\xf5R\x86\xe7o+\xdb\xda\n\xf7X"\x93\xa2+F\x12\xc44\xff\x00\xed\x8cQ\xebL\xa6\x9e\xe8X}\x12\x8e\'\x94\xb1e\x0b\x9bu\x1e\x13\xf9D\xde\xc8\xdcUI\xe2_$\xbe\xca\xae\xc97:\xe3l\x89y\x84\xa8\x8b\x95\x8d\xca\x85\xf7J\xa2\r\xd3\x12\xe2\x1bu\xc4\xa9\xcdKt\xad\'\x98\xa1\xb5\x80\xea\r\xfc\x87\x9c:\xbc5\xe6\xa4\xf6\x08\xab\xcd\xb8\xe4\xe3\x8a\x97a\xb4\xba\xbdVQ\xb9p$\xeaQ\xdc\x8d\xc7[\xc5G\x8ai$\xa8\xa42E\xa3\x99\xa8*k\x00\xablu\x19\x1d\xb3\xb4Jl\xd7\xcb\xac\xc0\xe1e\xd9Y\x8c\x05\x8c\xeb\x14zBf\x0b\x89\x96C\xea[AG\xf7\xd9P)\xd3\xd2\xe2\xdeQa|\x19q\x07R\xcf\x8c\x87\xa2\xcdb\xc9\x8aL\xc6(\x97mML="\x85!\xb5\x94\xac\x84( \x80\x12\xa2\x8b^\xdb\x13{Dg\xa5f\x057\x1d\xce%\xba\x9bl\xcdI\xcd\ri):\x93\xd3\xfd!\xe4\xca\xca\xfd2\x81FjVB^JM-(#J\x10\x12\xa5\x8f[Z2|C\x13\xed\xe9\xc42\xb4v\x8d?6\x97W\xfa*fC1{N\x9d&lt;\x14\x80\xab\xe0\x85W\xd2\xe3\xd2\xa1&lt;\xe5|\x1aS\xe0\'\xd4\xd8\xc1\x05[\x0c\xe3\xb9-)\xa7N3%.\xdbe\xb5\xa0K\x85\x1d\'\xe2;\x8bA\xe6X\xe6U\xff\x00\xb1\xa9\xc4hr\xc7Z\xec\x00\xda\xdda\xe5\xa2R\x9b\xac\xd3\xf594\xaeJ\x85\x8e\x97\x06\x9f\xa4W\xa2\x8aV\xb8\xbb@\x15\x94b@\x0b\x12\x98\xdc;\x97\xd5\x1a\x9fu]Zp\xcd?kn\x9eX?@-\x1b\xabX\x818x\xaeM\xb7\x03)BHN\xdbj\xf2\xf9\x88Y\xe6}^W\x06+\x98\xdc\xeaV\xe3`\x9d:\xb5%\x1e\x97\xdf\xd2#\xe68\xcd9g\xaa\xafM=0\xd2[\xf1\x1b\x9d\xad\xed\x1e\x1ag9\xd9\xc9I\xd5W\xb5\xd1X\x1dQNifc\xd8\xb6\xbf4\xe6\xb5.^Tn\x19]\xc2\x8f\x84[\x7f\xae\xd1\x1a\xf8\xda\xc4\xe9\x91\xcb\x99\xc4iPri\x1aB}6\xf4\xfa\xfe\x90\xb7\xc7\xd9\xc7+L\xa3\xb8\x997\x12^\x9e|\xb9\xe1\xea\x84n\x00\xfdb+q/\x8d]\xc6M\xd3t\xbe\x16\xcb\x8bp\x14#p\x9d$$x\xbdo\xbc[\xb8^\x86Ik\x18&lt;\x06\xaa\xb1\x8aU\x98\xa9^\xef\x12,\x99\x93,\xb4l\x14\xa3\xe1\xd2H\'q\xd0\xc6\xd9yb\x91\xbe\xdf8\xde\x18R\x96|J\xeb{\x98\xdc\x99 \xa1pU\xf5\x8d\xe88,\xa85c\xddu7\xeb\xeb\x1d]\xd4\x11\x190\x94\x85\x1fx\xec\x97\x97\xe6\x9d"\x0c\x94\xb0;\xae~\xe5\xb7\xc5\xfa\xc0\x83F\xa4\x14u\x1bu7\x81\x01\x0e\xcc\'*\xac\xc0P:G\x97\x9c&amp;\xea\xb2v\x05_XYT\x19R\xd6\xab\'\xc3{B~\xb3"y*\xdf\xcc\xc2M\x93DI;\xa5!\xb1\x05?\xbd%\xb4\x07\x1bk[\xc8J\x94\xb5\x04\xa4\x02lI\'\xa0\x1dI\xde\xc0\x1f\x9cv\xe6vNb,\xb1x\xb5Z\xa5\xcdI\xae`\x1e\xee\xb5\xd9M\xcc%_\x89\x0bAR\x14\x9fB\x95\x11\xeec9\xf9b\x17\x05O\xc9\x82~\x11\xe1\xe9\xb7Hl\xe7\x12n\x8f\x1bo\xaa\xe0fY2\xf2m\'\xf7\x13n\xbd`\xff\x00\'\xf0\xe3\xd8\x8f\x18\xbbM\x97J\x9dL\xd4\xbb\xa9!#\xa0\xeb\xfc\xa0\xa5\xc4\x9dF\xf7W\xce\x17\x9c+\xb2\xa7\xf3\xf6\x82\xdb{%\xc5:\x17\xe8\xb4\x86\xd4O\xea\x041\xaf~JY\x1e|\x1a\x7f\t\xf5\x0b\x1b\xf1,oR\x8e0t\xads(\xaa\xaa\x92}\x0e\xae\x9a\xa7\n\xd2\x95\x1b\xe8\xf5\xb7\x9d\xbaC\x9dJ\xcdN\xe6\x84\x15)IOT\x94\x9e\x91*\xa7\xf2\x16\x9b\x8b)\xbaU.\xca\x94\xe2\x01\x0bRF\xd7\x11\x1e\xb3\xc7\x85\x89\xcc"\xb5*]\x05\xc6\\\x04\xa9IN\x9d\'\xca\xc209\xeai\xabd\xcc\xe1\x95\xddV\xa5\xf0\x8e\x89\xb6:\x84iL\xe2^n\x82\x84\xb8\xd8S\xdbX\x9d^^P\xaf\xc3\x1d\xa2\x15j\x1c\xa0e-\xa8\xaa\xdc\xbb_\xa0&gt;gh\x88\xf5\xca\x06&amp;\xc1\tS\x8d\xa5\xe7YH\xba\x82Qt\xa4B&amp;\x7f\x88\xca\xbd:\xa7\xcbu\x8b&amp;\xff\x00\n\x93m\xbaC\xc6\xe03H/\x11\x0e\xf5M]R\xd8\xec\\,\xa6\xa6(\xe2\xaes\x14\xc8\xa9-\xeai.uN\xab\x93\xf30\xdcb\x1c\xc0\xfbbg\x974\xf4\xc2\xd2\xad\xd6\x02\xfc \xf9C\x1c\xdei\xd5\xb1r\x12\x99V]e\x0e\x00\x15\xa4^\x16X[\n\xd4jt\xf6\xd0\xe2V\x92\xe1H%#R\x8f\xd2\x12v\x0b$_\xde\xba\xc9F\xbcI\xabAEy\xa1\x98SU)ESh\xed\xa9.:9Kt\'\xc4\x90==&gt;p\x89\xccZg\xd8XC\x0bJ\xf2\x8a]K\x0f\xb8\xe1P\xf8\x94\xa7\xd5\x7f\xfcDJ&lt;\xbe\xe1\xd1-\xb4\x97^mkv\xd7QZ,m\xd4\xc3S\xc6\x8e\x08\xfe\xacOa\xd6\xd2\xd9JC\x13\x08;lwB\xc7\xfeD\xfdL\\\xf8J\xb6\x99\x95"\x9e=\xecuQ\xf8\xbd\x0b\x9dNd;\xa6\t\x86\xd5\xaf\xe1\x1fH\xe8Ki\t\xd3\xbf\xe5\x1d-J\xa5I\xd4\x91\xf1o\x1d\r\xd3\x0bm\xea\xf4\x8dC\xb4\x1b\x05Gu5\xb5\\LI\x87\x0f\x87V\xafx5\xa6\xc8\xd9_\x8a0\x95\x94V\xbb\xff\x00(:\xa7SJ\x92\x0c\x1b\xb4)\x1e\xcc\x03e\xec\xbc\x9f\x87\xa4\x08&lt;\x91\xa5kn\x04\x0e\xd0\xa1\xd9\xb5-]\x92J\x9a \xfcW\x82:\xcd0"\xf7\x85d\xcb)A\xbf\xb4\x10W\xc2w\xdf\xf4\x82\x87\x1d\x93I\x1a\x0b\xb5H\x8a\xc4\x9aS{&amp;\xd0\x9f\x98i"\xfe".a\xd2\xcb\xbc\x8a\xc6Y\xfb\x89\xbe\xc5\xc1x^\xbd\x8a*v\nq\x8al\x92\xe69 \xa8\xa4)e&gt;\x14\'\xa7\x89d\x0f\xe7%\xf0\xbf\xf4z\xf8\x8a\xc42mLTi\xb8_\x0f2\xe2\x81_\xda\x15\x84\x15\xb4\x93bIKa}=/x\x83\xc58\x8f\r\xc3\xda]Y3X\x00\xb9\xb9\x03A\xe2\x8f\x1b\x0e\xcd\xd5@\xfe\xe5u|]HOM\xaez\x0f\x9f\xb4?\x1c\x11d5i\xecLq\xcc\xc3.\xc9a\xc9\x06]a\x89\x97Sd\xd4f\x14\x9eZZk\xcdV\xd4T\xa5\x01\xa4\x04\x90H1hyi\xd9G\x96|\x1bd\xac\x9a\xebXV\x83\x99\xd8\xb2y\xc2\xd5J~\xad(\\\x96ASn\x04\xa1\x86Wp\xda\x01\xb5\xd4F\xa5z\x88os\x9b\x0c?9ES\xaam\x96$\xe9hm\xa9YYv\x12\xcc\xbc\x9bz\x92\x12\xdbHM\x92\x94\x0fK\x12}c\x1f\x9f\x9c\xd8V-O4xW}\xa0\x96\xe6\xf0\'\xc4\x8f.\x8a\xeb\xc3\xfc5&lt;\x8fmD\x9f(\xd7\xec\x95\x99IOn\xa3K\x96\x0bKjN\x81\xa6\xe3~\x9bG\xb9\xb5\x96\xe9\xaaI8\x87\x19B5\r\x8d\xbc\x80\xda9\xb2b\xa9\xddP\xcb~%i\xb0&amp;\xdd70\xefT)(\xc4\x94\xb7\x15d\xab\xc3a}\xed\x19\xec2\x97\x82F\xebO-\x16\xb1\n0Q2Z\x8a\xea\x14\xba\x94\x9bkm\'\xc4\n/q\x0eJ{?\xf2/3\xf0k5\t\xec+"\xfc\xc0\x00\x15\xb6\xa2\x85\x85\x7f\x9fX.\xa8\xd3\x9e\xc3\xf5\xe7%\xef\xcce@\x8d\n=\x0f\xb7\xb7\xb4rSs\xa7\xfd\x9d\xcb\xcdR\xfb\xbc\xc72az\xd3\xe1\xf0\xf4\xf20\xbd6/=&gt;\xcf#\xd5\x07R\xc6\xe1b\x13o\x8b\xb86\xc1x^jm\x14\x1954\xcaI\x01\x0b\x01^\xd6\xbc"\xe9\xd9 \xdd"\xae\x96\xdbf\xcd\xea\xd5`&lt;\xad\x12\n\x83)7Q\xa390\xe8\xbfx\xb9\xdf\xca\xf1\xaa\x81\x82\xf5\xd5\xd2\xec\xc2u\xa0Z\xc6\xfb\x18E\xf8\xd5D\x8f\xb3\xdcuE\xf8V\x0b\x06\x84\x9d\xa6`f\xe9\x94\xed}\xdciC{\x9b\x8d\x85\xacb"v\x80\xe0\xca\x84\xfd"\x99TnNi\xca\\\x85AL?2\x86\x94\xa6\x9au\xd6\xd3\xa1\nP\x16\nPA\xb0=lm\x13\xab\x12\xb8\xd2&gt;\xe1)\xd0\x94\x03\xb0=c\x87\x86\x1c5L\xcc\xbc\xe8\xaee\xfe\'\xa7\xfd\xb5\x84\xf1\xa59MTd\x1c%-\xbd\xc9J\x96\x87.7K\x88V\xe9X\xb1\x04\xed\xe7\x7fi8\xbd\xb8#\xce#+s1\x9a\xb8lm\xe2G\x98\x1a\xa6\x98\xc5-\xe9\x1c\x00U\x07-NHJo\xd6\xd66#\xa8\xeb\xd2;QO\xe6~\x18\xb4\xbc\xf0\xfe\x8d\xfb\xcf&gt;\xf5K,s\x12U\xf9WTV\xdd+\x10J\x14&lt;\xd0&amp;\xe9@\x99l\x90\xae\xb6\xba\x90=\xe2\x06\xe6\x7f\x08\xb9\x91\x91\xcc\xceLb\xac\x11\x8a(\xb4\xd9\x19\xa5\xc9\xb9P\x9a\xa6:\xdc\x92\xdcJ\xb4\x9d\x0f\x14\xe8RI\xb5\x94\r\x88\x8e\x80\xe1\x9e`\xe08\xecy\xf0\xea\x96\xbb@m}E\xfa\x8e\xab.\x923\xfdZ&amp;\xd6B\x98\x14\x9b\xc1\xcd:\x91c}&amp;3fY-\xa9^I\xbe\xdbu\x83)\x16\xd2P\x0f\x8b\xe8b\xed\x98\xecTk\xda\t]\x14\xfa:yp \xea\x9d%\xf7]?H\x10l\xc9\xb1j\xf6\xa55\xcb\x00[\xc4v\xe9\xb4:\\6p\r\x8a\xf8\xb6\xa9\xd3\x1b\xa2\xd5\xb0\xfd&gt;^\xa7&gt;d9\x93\xce\xbc\x1cii\xb1R\xb4\xa1\xb5\x02\x9fAp}\xe0@\x88\xccV\xa2H\xa2\x0e\x8c\xd8\xa6\x93\rJ\xb8\x9e\x03\xb8\'\xa5p\x1d\x95\x03\tIN"\xadW\x9d\x98\\\xd5V\xac\x18\xe4\xaeq\xeb\x00\x907\'\x96\x84\x80\x12\t&gt;gk\x9b\xbc\xef\x15)vZ\x8a\xf4\x93\xd4\xc0\x81\x1f"\xb9\xc7\x8bVO\x8fT\xbai\\{\xe4o\xe1\xd2\xca\xe3\x87F\xde\xc9\xbax"\x1c}\x87\xda\xc4\xb8VnU\xc0\x91\xcdA)6\xf8T7\x06!\x1es\xd1Q)\x86\xaa\xa8\x16\tQB\xad\xd7\xf1\xa7\xd6\x04\x08\xb7\xf2.g\x96M\x19=\xdd\r\xbc\xf5W\xee\x1e\'+\xc2C`\xa9\x93\'Q\xd0\xdd\xd3\xa8y\x1fHw0\x8d]\xc0\xebH&gt;4,\x84\x01{^\xfef\xd0 GI\xd3\xe9\xb2\x99~\x83DO\x99\xb4\xf9cZi|\xb29\xc9\xb1\xd8B~c\x0c6\xcf%EEJ\x06\xc9\'\xca\x04\x08&lt;\xf1\xb7\xa2\x17F\xd5\xaa_.\x94\xaf\x11\xfb\xb4\xe9\x02\xfbZ\n\xe5\x98L\xae\x1aK\x89\xbe\xbb\x15^\xff\x00X\x10!\x93\x8aR\x9fWj\x93\xd3.*~\xa2P\xad!;\x18{\xf8\x1e\xca\tY\x9cmX\xc6*R9\x92\xd2\xe2I\x86\xb4\xdc\xa4\xafu(\x9f\xf9E\xbe\xb0 Fe\xcc\xca\x89\x19\x80\xcd\x90\xda\xe6\xde\x856\xc5\x89\x14\xee\xb7P\xa5\xa5:Y,\xc864\x8dI\x16\xbf\xca0\xcc\xac\x0fK\xce\x0c\xb6\xafaZ\xfc\xbaf\xa9\x15y5\xcaL \xa4(\xe9R\x08\xd4/\xf8\x92w\x07\xc8\x81\x02\x04s\xc7.\xb1\n\x9a|P\x18$-\xd5\xbb\x1f5\x9a\xd6\x80ouF\xfd\xa2\xdd\x9bU.\x001E)\xb7q\x1c\x96"\xa1V\x88\x12o\xa5\xa538\x9f\x84}\xebv\xd1}\xba\xa5V7\xf8DGf\x19\x12\xae)\xb5x\x8bd\xdc\x83\xf2\x03\xf5\xb9\xf2\xeb\x02\x04}\x85\xe1\xe9\x9f-\x14N\x90\xdc\x91\xff\x00J\xa9sr\x954$\xf3Y7\x81\x02\x04M\x14\x98\x0b\xff\xd9'</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -534,6 +612,14 @@
           <t>Bruno Arleu de Araujo</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xe1\x00hExif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x04\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00&gt;\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00F\x01(\x00\x03\x00\x00\x00\x01\x00\x03\x00\x00\x011\x00\x02\x00\x00\x00\x11\x00\x00\x00N\x00\x00\x00\x00\x00\x00\x93\xa3\x00\x00\x03\xe8\x00\x00\x93\xa3\x00\x00\x03\xe8paint.net 4.0.12\x00\x00\xff\xdb\x00C\x00\x02\x01\x01\x02\x01\x01\x02\x02\x02\x02\x02\x02\x02\x02\x03\x05\x03\x03\x03\x03\x03\x06\x04\x04\x03\x05\x07\x06\x07\x07\x07\x06\x07\x07\x08\t\x0b\t\x08\x08\n\x08\x07\x07\n\r\n\n\x0b\x0c\x0c\x0c\x0c\x07\t\x0e\x0f\r\x0c\x0e\x0b\x0c\x0c\x0c\xff\xdb\x00C\x01\x02\x02\x02\x03\x03\x03\x06\x03\x03\x06\x0c\x08\x07\x08\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\x0c\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01"\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xfd\xec\x03\x02\x8a(\xa0\x02\x8a(\xa0\x05\xc8\xf4\xa5\x07\x1d\xe9\xb41\xe3\xaf\xca\xa3\xae(Z\x81!8\xac\x9f\x19x\xf7E\xf8w\xa0\\j\xba\xf6\xad\xa7\xe8\xfam\xaa\xee\x9a\xea\xf2\xe1a\x8a!\xeaY\x88\x15\xf0\xc7\xfc\x14\xdf\xfe\x0b\xad\xe0\x7f\xd8\xdfI\xd4\xfc7\xe0\xc7\x87\xc6_\x10\xa3\x06\x11\x14\x0cZ\xcfN\x93\x07\xfdk\x8c\xeee\xeb\xb1}9"\xbf\x08\xbfi?\xdbG\xe2\xcf\xed\x9b\xe3\t\xb5/\x1bx\xb3Z\xd6&lt;\xcc\x01l\xccV\xda5\x1d\x02B0\xab\xf5\xc7oj\x97R1\xdc\xb8\xd3r\xd8\xfe\x8e\xfc_\xff\x00\x05\x9a\xfd\x99|\x13}%\xbd\xef\xc5\xaf\x0e\xbc\xb1\xe3p\xb6\xf3.\x00\xc9#\xaa)\x1d\xabW\xc0\xbf\xf0V\x7f\xd9\xcb\xe2=\xed\xad\xae\x97\xf1k\xc2mqxq\x14s\xdc\x1bv=\xb9\xf3\x00\xc7\xe3_\xcb\xe7\x87\xfe\x08jZ\xec\xe0\xc7\x1c\xd3\t\x01;\xc7U\xc0\xce\x7f\xa5[\xf1\x1f\xc0-WI\xd3m\xee-\xe3\xb8\x93\xcc@\xe4\xee\xf6\xeb\xfa\xd6?[[\x1dQ\xc0\xc9\xc6\xe7\xf5\xed\xa5\xea\xf6z\xed\x8cwV7V\xf7\x96\xb3\r\xc942\xac\x91\xb8\xf5\x0c\x0e*\xc09\xaf\xe5\x87\xf6;\xff\x00\x82\xa5\xfcx\xfd\x80\xef\xe1\xb5\xf0\xef\x88\xefo\xb4\x18eV\x9fF\xd4\x0f\xdal\xdcn\xcb*\x86\xc9\x8fq\'%\x08\'\xdf\x02\xbft\xbf\xe0\x9a\xdf\xf0Zo\x86\xff\x00\xb7\xfe\x93c\xa4K&lt;~\x16\xf8\x86P-\xc6\x89t\xff\x00-\xc4\x9d\xcd\xbb\x9f\xbe\xbe\xc7\x0c=;\xd6\x91\xa9\x19\x1c\xd2\xa5(\xee}\x99E\x00\xe4z\xfd(\xad\x0c\xc2\x82p(\xa6\xb6M\x006\x9a\xe3\x9as\x0c\x1ak\xf4\xa6\x80m\x14\x1a)0,QE\x14\x00QE\x14\x00W\xe6?\xfc\x16\x83\xfe\n\xad\x0f\xc3\xab9\xfe\x1d\xf8\x1f[xdP\xd1k\xf7\xf6Rm\x9a&lt;\x8c}\x9e\'\x04\x15n\xbb\x88\xe80;\x9a\xfac\xfe\n\xc7\xfb`]~\xc8\xdf\xb3\x15\xcd\xd6\x8f2\xc5\xe2O\x11\xc9\xfd\x9d\xa7&gt;2b\xc8\xcc\x92\x0eG*\xb9\xc6:1\x15\xf8;\xe0\x0f\x84Z\xd7\xedg\xf1*\xf2k\xab\x89\xa5\xb4\xb7\x90\xb4\xf2\xb1\'\xcdrr\x7f3\xcek\x97\x19\x8a\x8d\x089H\xee\xc0\xe1%^\xa2\x8c\x0f9\xf1\x07\x8ff\xf1\x06\xad$\xd6:\\m\x0c\x99iK\xb7\x99+\x03\xf5\xff\x00\x0ej\xfe\x93\xe1(u\x9dV\x0b\xa8t\xbb\x85\x99\x8e\x1c2\x10\xa4\xfat\x18\xfa\xd7\xe8\x97\xc1\x1f\xd8\'\xc1\xfe\x1d\xd2\xa1[\xcd&gt;\x1b\xa9\xf02\xf2/ \xfbW\xbb\xe9?\xb2\xe7\x83\xed4\x85\x86\xdfM\xb7_,c;\x018\xfc\xab\xe6\xff\x00\xb7c6\xe3\x18\x9fS\x1e\x1fp\xd6L\xfc\xc9\xf0\xe4\xe7\xc3\x96\xd1\xfd\xaa\xdd,\xd6l\xae\xf1&amp;\xdc\xf7\xc7~s\xcez\x8cT~:\xf8\x99oskt\xb1\xc3\x1b\xfd\xa25H\x9aO\xbc\x85N7`v?LW\xdc\x9f\xb4\xc7\xecS\x17\xc4K\xbbU\xb1\x8e\x0b;8-\x8aE\x18\\fBNX\xe0\x7fv\xb9\x7f\x85\xff\x00\xf0N\x0b]\x1bD\xb5\x97X[{\xcb\xa5r\x1c\xaa\xe42\xe4\xe0r8\xe2\xa9\xe6\x94\x94n\xd6\xa6\xab)\xa8\xe5\xcb}\x0f\xce\xfbm\tn\xefZ\xe3P\xb1\x92\xe5N\tH#\x05dQ\xcf\xf8S4o\x16\xdb\xf8;\xc7v:\xce\x9bku\xa3\xdeY\xca\xb3[\xdf@L3\xdb2\x9c\x8c\x90py\xfd+\xf5\xd6\xdf\xf6]\xf0\xed\x86\x8a\xb6\xff\x00\xd9v0\xaa\xf4\xc4\n\x0f\xe8\x05yo\xc5\x9f\xd8\xaf\xc2z\xfcL\xd1\xd8\xda\xc77c\xe5\xf0\x7fZ\xcf\xfbyGG\x1d\x02\\;\xcd\xb4\xae\xcf\xaf\x7f\xe0\x95?\xf0U\x1b\x1f\xda\x9b\xc2\xbaO\x83\xfcU7\x95\xe3\x98m\x07\x95v\xec\xa2=qT|\xcc\xa0t\x90\x0eJ\xf7\xea;\xd7\xdb?l\xaf\xe7g\xe2\'\xc1\xddc\xf6X\xf1=\x97\x88\xbc;qqbm&amp;\x12\xc4\xf6\xeeU\xad$\x1c\x89#=W\xd0\x81\xd4W\xed\x07\xfc\x13\x97\xf6\xc1\x87\xf6\xc3\xfd\x9et\xfdZ\xe7\xca\x8b\xc4\x9aX[M^\x15\xe0\t@\xe1\xc7\'\xe5`3\x9f\\\xd7\xd1\xe0\xb1p\xaf\x0ed|\x9ea\x81\x9e\x1a\xa5\xa4}\x14\x97\n\xc6\xa4\x075L\x1c\xd3\xe3\x99\x92\xbbO&lt;\x9d\xd6\x9a\x07\x14\xbb\xf7\x8e)(\x01\xae0h\xa7\x13\x8a(\x02@\xd9\xa2\x91xZZ\x00(\xa2\x8a\x00\xfcN\xff\x00\x83\x84\xbe=\\x\xb7\xf6\xb2\xb5\xf0z\xc8V\xc7\xc2z\\h\x88\t\xe6y\xff\x00x\xc7\x1f\xee\x94\xfc\x05y\xef\xec\x07\x04&gt;\x1c\xf0\xd1\x81\x95|\xc9\x1c9\xc7|\xe7\x83X\xdf\xf0Z\x11\xf6\xcf\xf8)\'\xc4\x06\xdc\xad\xe5Oj\xbc\x1f\xfav\x88u\xf5\x1e\x9e\xd5s\xf6\x12\xb7\x97U\xd4\xae\x9bk41m\xdb\x8e\x8cOO\xe9_\'\xc4\x15[\xa6\xe2\x8f\xaf\xe1\xc8\xa5Q6}\xbd\xe1M ji\x1c\x8d&amp;\xdd\xd8\xc2\xaf\x19\xaf]\xf0g\x84!\x96\x15\xf9O"\xbc\xeb\xc0Kk\xa1,\x7fn\xba\x82\x19\x15w\xf9l\xc00\x15\xdb\xd9\xfc~\xf0\xfe\x88Dm\xa8Y\xc4\xca3\xf3\xc8\xab\x91\xf8\x9a\xf9\xec\x15\tZ\xf2G\xd6\xd6\xab\x17\xee\xc5\x9d\x8c\x9f\na\xbdO\x9b\x07\xea:T\x91\xfc-\xb5\xb6\xb5UU9^Mai\xff\x00\xb4~\x9f\xa8\xdb\xb3\xda\xdd[\xc8\xaaJ\xfc\xae\x0e\x08\xaa\xd7_\xb4]\xaa\xa3\xb3N\x83g\xde \xf1^\x8c\xbd\x9a\xd0\xe3Q\x9fR\xc7\x8b\xfc\x0b\x1c6\xecW\x1e\xdcW\x91\xf8\xbf\xc1\x82\xdeY\x1c\x91\xb5y\xc5t\x1a\xf7\xed\x9b\xe1K8\x99\xae\xb5{\x18\xd5z\xee\x99G\xe5\x93\\\xbe\xa3\xfbOx\x0f\xc6\xbat\xdeN\xb5\xa6aA\xdc\xeb:\x9d\xb5\xc9\x88\xc3\xb9\xc7\x9a(\xe8\xa7\x88\x8d7\xcb&amp;x\xbf\xed\'\xa5Y\xeb^\x02\xd4b\xb8\x08\xad\x1cd\xa3\xb0\xfe,\x1cqY?\xf0o\xaf\xc6[\xad\x13\xf6\xa5\xf1\x07\x83\xae$\xfd\xc6\xb7\xa6H\xc8\xbb\x8e\xd6x\x1808\xf5\n\xcdZ\xff\x00\xb4\xee\x8c\xda\xc7\xc3\x8b\xdb\xbd&gt;\xe2;\xbbv\x81\xa5\x86h\x8e\xe5q\x8e\xd8\xaf\x08\xff\x00\x82&amp;k\x9f\xd8\xdf\xf0S\x1f\r\xc7\xb9\x87\xdbc\xbd\xb69\x1d\xcc\x0e@\xfcq^\x9f\x0e\xf3\xc5\xb8\xc8\xf9\xfe%Q\x92RG\xef\x86\xfai94c\x8e;qE}\xa1\xf0\xec\x929\x08\xefS\xabdUJ\x9a\x07\xcfZ\x00\x91\xcf4R0\xc1\xa2\x80&amp;O\xbbKMN\x94\xe0s@\x05\x14Q\xdf\xf4\xa0\x0f\xe7\xc7\xfe\n\xe1c?\x89\x7f\xe0\xa7\xbf\x11\xa0;c\xdb{o\x84\xdc&gt;e\x16\xd1\xe0\x9f\xadz\x87\xc2I\x1b\xe0g\xec\xdb\x1e\xbbcc\x1c\xda\xb4\xf1m\xb7\x84\x0c)\x90\x927g\xd0\x0ej\xe7\xfc\x173\xe1X\xf0?\xed\xf3&gt;\xb5k\x98\xdf\xc5Z5\xad\xf2\xe1q\xb9\xd4\x98\x1f\x9e\xe7\xe4S\xf8\xd7a\xe2\x1f\x02\xea\x16\xbf\x03&lt;?\xa3\xdb\x9d\xd7\x11\xd8&amp;\xf6#\xf8\x8a\x0c\xff\x00:\xf8\xdc\xeeN\x13m\xf4&gt;\xcb!\x8aq\xd0\xf8\x9f\xe2\xbf\x8co4\xa7\xbc\xd6&lt;_\xf1\x07P\xd3n\xef\x1c\xc9$6\xce?t\x0ep\xbc\xff\x00*\xf9\xdfV\xf1\xad\xff\x00\x8c\xfcEuq\xa2\xf8\xab\xc4Z\xad\x8d\xa9T\x92[\x84`\xb8n\x9f6p3\xda\xbe\xbe\xd5\x7f\xe0\x9f\xb7W\xd2\xeb\x91\xeb62x\x83\xfe\x12\x1bc\x0e\xed\xfb\x1e\xcbq\xce\xe8\xc9\xce\x1b&lt;\xe7\xbfJ\xb1\xf0s\xfe\t\xf1}\xf0/\xc0\x9a\xe6\x95cgs\xa9^x\x81\x91g\xbd\xbcP\xf3,i\xf7#@8\x03\xdc\xe4\xf6\xc6+&lt;.*\x8a\xa2\xe4\xe5\xefzlz\xd5p\xd5\x9e!EEr\xf7\xb9\x81\xfb\x13|S\xd6\xfc=\xe2\xed7A\xb9\xb8\xbe\x91o\xa6\x01\x16i\t\xc9#\xb5}o\xfbf\xd9\xdf|\x17\xf8[6\xad,\x92\xab]\x00\xb8?u2?\xfa\xdd\xeb\x82\xfd\x94\x7fb[\x8f\x04\xfcA\xd1\xf5-jWy,n\x14\xc3\x03s\xe5\x8c\xfa\xd7\xd6\xdf\xf0P\xaf\x83V\xff\x00\x15&gt;\x1aX\xe8\xbbv\xac\xc8&gt;a\xdb\x8e?\xa5xr\x93\x9f=D\xfb~g\xbf*p\x8b\x8cQ\xf8_\xf1\x8bL\xbc\xf1F\xadq\xaa]j\xba\x85\xbd\xbb\x06\x9d\x81f\x91\xbc\xb1\xcb6\xd5\xce\x14z\x91V~\x08\xea\x9e\x12\xba\xd5#\x82\xcfV\xd5\x1a\xf6,|\xb3\xce\xf6\xa2L\x8e\xc4\x8d\x9c\x9e\x06H&amp;\xbe\xd7\xf0\xf7\xec3\xach\x8b\xad\xe9\xfa\x8d\xa2\xeaZn\xbb\x0bZ\xdc3E\xbb1\x9e\xc0\x8c\x15\xc7\x18\xe7\x1e\xd5\xca|;\xff\x00\x82l\xc7\xf0\xa3O\xd7t\xa8\xf4\xd9.\xa1\xf1\x16\xc8e\xbb\xbc\x7f:X\xa1\x07!\x13\xe5\x01{\x1c\xf2x\x15\xed\xd3\xc5\xd1\xfa\xb7\xbd&amp;\x9f\x91\xe1b0U~\xb3\xcd\x08\xc5\xc7\xad\xde\xa7\xa0\xfe\xc6\xfe"\xba\xbc\xbb\x9b\xc3r\\\xdc^h\xda\xa4.\xa29\xdc\xb3[\xc8\x01\x04`\x9c\x03\xeb\xeb\\\x87\xec\x17k7\xc2\xbf\xf8*\'\x80\xe2(\xc6;o\x14}\x81\xc0_\x9b\xe7\x0f\x16x\xec2?:\xf6O\xd9\xdb\xf6k\x9b\xe0\xd6\xbbo\x1f\xda\x1e\xe6\x18\x02\x84\x91\xbe\xf3c\xd4\xfa\xf6\xcf|\n\xd4\xf8\x03\xf0\x7f\xfb#\xfe\n\xe7\xe1\xbb\xdb\x84\x8a\x1d"\xcei&lt;G5\xcc\x98H\xe1E\x85\xb3\x92z~\xf3\x1f\x8dNSZ\xf5\xac\xce\x1c\xee\x8b\xe4\xf7O\xd8\xec\x13M\x1f)\xaa\xbe\x1b\xf16\x9d\xe2\xed)o\xb4\xbb\xcb{\xebI\tQ,/\xb9r8#\xea*\xe1\x18Z\xfbx\xc95t|$\xa2\xe2\xf9e\xb8\xda\x92\x0e\xb5\x19\x18\xa7\xc4y\xaa\x11+ph\xa5n\xb4P\x04\x80{\xd3\x97\xee\xd3)\xe3\x9eh\x01k\x84\xfd\xa7~#\\|"\xfd\x9f|]\xe2k5&amp;\xebF\xd3e\xb8\x88\x81\xc8`:\xd7w\\G\xed+\xe0\x99&gt;$~\xcf\xfe0\xd0\xa1m\xb3jZM\xc41\x9f\xf6\xb6\x12\x07\xe2F?\x1a\xc7\x11\x7fe.]\xec\xce\x8c\x1f+\xaf\x0e}\xae\xaf\xe9s\xf2\x7f\xc6\x1f\x11?\xe1\xbc|?\xe1MS\xc5\x02\xea\x1dwJ\x98y/9\xf3?pd\r"\x03\x8c\x90v\xe4g\xa15\xed\xd0\xdb\xc3t\xe9$\xa1V\x08\x80D\x19\xc7\x1c\x7f\x85xg\xc3\xcd\x0e\xe8|A\xd3\xb48Ym\xf4\xff\x00\x0c\xd93\xcaB\xf3&lt;\x81p\xa3\xf3;\xab\xd55]Y\xa2\xd3a\xeb\xc1\x19\xf4\xaf\xcdcZ\xa5JR\x95Ww\xe6~\xa1\x8a\xc3\xd3\xa3\x8aJ\x92\xb2g\xa5i6z}\xc6\xd6X\xd5\x9b\xb0#\x81Z\xad\xe1[t\xb5\x92\xe8\xaa\x8d\xaaH"\xbc\xe7\xc1~(U\x1f\x8f95\xda\xa6\xb5&gt;\xa9e\xf6x~}\xdftt\xedJ\x8dX\xc9r\xf5:\xa7\x04\xb5F\x17\x83\xc7\x99\xe2h\xef\xa7\xdb\x1d\xb2\xdc\x12\xce\xfc\x0e\x0e+\xd6~0\xea\x1ao\x8b&lt;;g-\xb5\xcc-4a@\\\x8f\x98b\xbf2\x7fl\xff\x00\xda\xef\xe2\xce\x87\xe3\x91\xe1\x7f\x0b\xe8z_\xd9,g\x11\xcc\'\x99\x96f\x19\xe4\x801\xc7|\xd6\x0f\xc5O\xda\x07\xe2_\x83\xfc\x0bk}\xe1\xab)uMIe\x8d|\x8b\x99\x99#\x851\x96o|\x1e:\x8a\xd2\x9c\xe5\x18\xf2(\xfcET\xa6\x9b\xbbz\xa3\xf4#\xc3(\xed\xab]\xd8H\x8a\x8d\t\xdc\x14\x8e\xa0\xf4\xfc+Z\xe3F\x82\xd6,][\xa1T9\xdcG\x00\xd7\x84~\xc4\xff\x00\x1b\xbcq\xf1\xc3G]S\xc56:|w\x1a\\&gt;S\xcdg\x9d\x8f\xfe\xcerrF+\xdbu\xcf\x11\xf9\xf6\xee\xd9_u\xf45\x9cm\x08X*S\xf7\x8a:\xc5\x9e\x9f1U\xb7\xf2\xd5\x93\xb0\xaf/\xf8\xdd\xaa\\xV\xe6\xde\xf3K\x8e?\xed\xedN\xdd\xf4\xc8$e\x04\x8e\xe0\xf3\xe9\xd75\xbf\xabx\x85\xa3\xba\x1e^7n\xe4\xf7\xaeC\xf6\x86\xf0z|@\xf0&lt;\xd7\xd6\xfer\xeb\x1e\x1dd\xd4,\x9a&amp;*\xdb\x89\xdb"\x9f\xf6J\x16\xcf\xd0Q\x19\xde\x94\xb9799W\xd6`\x9e\xc7\xd6\xdf\xf0G\r&amp;\xfbI\xfd\x8c\xe0]R[\x99u\x06\xd6\xafM\xc7\xda\x18\xb4\x8a\xe1\x95NO\xbe3\xff\x00\x02\xaf\xaa_\xee\xd7\xcf\xff\x00\xf0M12\xfe\xcdP\x8b\x8f\xf8\xf87\xd2&lt;\xa4\xfd\xe7%#9&gt;\xe4b\xbd\xfd\x8fZ\xfb\xfc\xa9\xff\x00\xb2S\xf4?=\xcf\x9d\xf3\n\xcf\xfb\xccnsRD2\x7f\x1a\x8e\x80\xfbMzG\x90X#\x9a)\xaa\xd4P\x04\xd4\xe54\xc59\xa5\xa8\xb8\x0f=\xa9\xb7\x10\x8b\x88^3\xd2E*s\xe8iP\xe6\x9dK\xc8\x16\xf7?6\xfe#|!\x9b\xc0:\xe7\x88-\xda\xdd\xadu&amp;\x98\xa2\x18\xf0\xfb\xd1\x18\xec|c\x8d\xc3\x8e\xb5\xc1\xd9\xdc\xbd\xe6\x8bo\xe7\x81\xe7)1M\xcf\xdde8#\xf4\xfdk\xf4O\xe3w\xec\xc3\xa5|g\xb9[\xaf\xb7^\xe8\xba\x86\xdd\x8fsj\x14\xf9\xab\xdbr\xb0 \x91\xea0k\xe5\x0f\xdb\x1f\xf6v\xd2\xff\x00g\x88\xbc=o\xa2\xac\xdfa\xba\x82O&gt;i[|\x977\x1b\xcb;\xb9\xe0d\xee_l/\xb5|&gt;;(\xabO\xdaT\xfb=\x0f\xba\xc3\xe7t\xab\xaai\xdf\x9c\xf2\xbd\x06\x1f\xb3]\x0f,\xe5s\x81\x8e\x82\xbd\x1fL\xf1\x9d\x9f\x86lv\xc8\xc8\xd7\x1bpI\x1ft\xfaW\x8c\xe9\xfe#K\x16f\xc9UQ\xb8\x93\xd2\xbc\xb3\xe2w\xc5\x8f\x16\xebW\xafk\xe1\xbd*\xe7X\x9b\x7f\xdc\x8d\x95T\xfb\x92\xc7\x02\xbc\x1c\x1b\x8c\'y\x1e\xf5IJQJ\x07\xa5\xfc@\xf0%\x8f\xc4o\x88\x87P\x8a\xde3&gt;\xe1\xf3\xed\x04\x8f\xc6\xb6\xe4\xfd\x9fn\x04w3\\[\xc6\xf6\xd1\x81\x86$\x15`q\xc5|\xa7\xe3&amp;\xf8\xf1\xe2A&amp;\x99n\xbaW\x84\xec\\\xe0\xb8\xbf\xf3.$\'\xaeYz\x0faX\xbf\xf0\xae&gt;8j\x9adzU\xc7\x8f\xa4K{R$\x8d\x9a\xfeV\x19\xf4\xc6s\xf9\x9cW\xa6\xa7\xcd\xacm\xf7\x9e\xa6\x1f)\xa9(&amp;\xe4}\xdd\xf0kQ\xb1\xf8Q\xa5\xcbgok\x1c\x10\xb9\'j\xa6\x14\x13\xd7\x8a\xd5\xf1n\xa1\r\xfa}\xa2\xdd\x95\x04\x9f\xeb\x17o\xdd\xf7\xaf\x8c&lt;7\xa8\xfcz\xd2\xed\xe2\xd3\xe6\xb8\xf0\xdf\x8ac\x8d@I\xbe\xd8a\xba8\xfe\x13\x91\x86\xfcH\xafV\xf8Y\xf1\xa3V\x17\x83I\xf15\x9bX^"\xe1\x91\xd86\x0f\xa6{\xd7&gt;"\xa4g\x1eS\xcd\xadB\xae\x1e\xa6\xae\xe8\xf4;\xf6]\xca\xcc\xcb\xb9\x88\xea}\xeb?\xc1z\x8cz\x9f\xc5]a/\x1b6\xfa\\q[\xbd\xb4\xe4\xa2\xc9\xbd\x03\x87#\xf8\x94\x86\xe3\xb7\x15P\xde}\xabPe\x8c+\x12\xc3i\'\xb6k\xf4C\xc0_\xb3W\x83\xe6\xd0\xbc/\xaaj\x9e\x1a\xd2\xae\xbcA\xa6\xe9\xf6\xf1\x8b\xa9\xad\xc1\x91J\xaf~\xc4\x82N28\xad\xf2\xbc\xb6X\x98\xb8\xc1\xda\xcf\xa9\xe3\xe3\xb3haf\xa55{\xad,K\xfb\'\xf8\x14\xf8\x1b\xe1B\xe5\xa4\xff\x00\x89\xb5\xc3_*\xba\xed1\xa3*\xaa\xae;p\xa2\xbd,\x8ar"\x8f\x95T(\x1d\x00\x1d\x05\x0c\xd9\x15\xf7\xf4)\xaaT\xe3N=\x11\xf0x\x9a\xce\xb5YU\x97Wq\xb4\xd2p\xf4\xac\xd84\xd695\xb2f$\xe0\xe4QH\x9fv\x8a\xb0\'CN\x15\x1eqO\x0f\x93Y\x80\xe0x\xc59zS3E\x00H\x0eMx/\xfc\x14_F\x86\xfb\xf6v\x9a\xfd\xe1W\x93K\xbd\x82M\xd8\xe5U\x8e\xc6\xc7\xe6?*\xf7\x95\x1cW\x94\xfe\xdb\xb6\x1f\xda_\xb2\xd7\x8c\x17\x19h\xed\x16A\xed\xb6D?\xd2\xb9q\xca\xf8y\xaf\'\xf9\x1dX\x17\xfe\xd1\x0fU\xf9\x9f\x94\x9f\x13/g\xd2\xf4\xd9\x9a\x06v\x86E\xc8d=}\xab\xce\xfc\x1b\xe3=b\x1b\xf1\x0e\x9b\x1d\xc6\xe9\x1bnW\xd6\xbbMkYXm\xe6\xb5\x93\xe6]\xc7\xe5\xc6z\xf5\xac=\x1b\xc40x&gt;\x16\x94`*\xfc\xc1\x94|\xc0\xd7\xe4Q\xa8\x9dNY=\xcf\xd3\xa1\xcdIw\x17\xc6\xde\x06\xf1\xa7\x89\xecr\x96\xb7B^\xa1\xb2\x00\xaf7\x8b\xe0G\xc4\x88u@\xf2.\xa8\xf1\xe7v\t\xf9\x7f\x0ek\xdct\xbf\xdbOO\xb7\xb3K{\xa0$\xf2~@x\xe7\xebT[\xf6\xd7\xb1\x8fWo\xdc\xb2\xc6\xfc!C\x90+\xd3\xa3N\x11Z\xbb\x9b\xfdjr\xb3Z#\x1f\xc3\xba\x17\x89&lt;#\xa4\xb3\xcdo&lt;2\xaa\xe4\xb9_\x9b\xf0\xac\x1d_\xc5\xfa\x9e\xad\xac\xc7%\xc6\xf9$\x8d\xb89\xc35w\x92~\xd3\x96z\xfc\xc8\xd7r\xae$8U\xc05\x8b\xadk6z\xbd\xdcrZ\xc7\x1a\xc8\xce\x19r:W\x1dnZK\x9a\xe6U1\x12\xa8\xf9O\xa3\xbfa?\x03\xda\xfcR\xf8\xd9\xa1Z\xea\x85\xa4\xb7\xdc\xd7L\x8d\xff\x00-|\xa1\xbbi\xf6,\x06k\xf4\xf0(\x03\xa0\xaf\xcd_\xf8&amp;\xdd\xf0\x83\xf6\x93\xd1\x15\xa4]\xbfg\x9e!\xe9\xfe\xad\xbf\xa8\xaf\xd2\x87nx\xaf\xba\xe1yFXf\xd5\xafs\xe0\xf8\x822\x8dt\xa5\xd8\t\xc7N)\xac@\xa2\x98rk\xe9\x8f\x04\x18\xee\xa5\x8e2\xde\xd4\xd3\xcdM\x1a\xedZ\x00p\xe0QM\xdfEh\x04\xd9\xa2\xa3\xa7+V`H\x1f\x14\xa1\xb3L\x07"\x802h\x02=OS\x8fK\xb4i]\xbe\xe8\xc8\x1e\xb5\xf0\xff\x00\xed\xb3\xfba\xc8\xd3^xQ.JC\xa9#[\xb4j~V\xcd}o\xf1.\xe6I,n!\x89\xbee\x81\x88\xfa\xf3_\x84\xdf\xb4\x8f\xc7]W\xc7\x7f\xb7,\xfa%\xa2\xc9$\x1a\t\x8c\xdd&gt;~X\xdd\x8e\xe6\x07\xdfn\x05~\x0f\xc5\xdcA\x8e\xc7\xe6\xef\x01\x85\x93\x8d:/[;^\xd6\xbd\xfc\x8f\xbc\xe1|\xa6\x94\xd3\xabS~\x87W\xe2\xcb\x9672\xb2\xfc\xd8\'5\xc8jBK\xdbi6\xf1\xb7\xa8\xe8\ro\xf8\xa9\xff\x00|\xec\xbd\x7f&lt;\xd6$\x97\x8b\x1cN\xa3\xefc&lt;w\xadjEI&amp;\xcf\xb4\xa9\x87\xb4O+\xf1B\xad\xa5\xe3,\x8a\xf0n\xea\x08\xf9^\xb3b\n\xc7\x11\xcc\xab\x93^\x8b\xa8XZ\xf8\x91\xd6)\x93\x9e\xc7\x1d\xfd\xeb\x1e\xe7\xc1\xd6\x9al\x9eZ\xe1\x9bw+\xd75\xd5\n/\x97\x9a3g\n\xc3\xf7D^\x10\xb0ie\x8eNY\x87\xf1v\xafL\xf0\xe4/\x04\xd137\xde\xe8}+\x9c\xf0\xa6\x97\x1c3\xc7\xb7\n\x00\x1bS\x8e\x83\x8a\xea-g[\x9dJ4Tlc\xd3\x8a\xe5t\xd3\x95\xe4\xee\xcd\xa8\xe1\xec\xee\x91\xeb\xdf\r\xfe \xdc\xfc5\x89\xb5\xab9\xa4\x86\xea\xc22\xe9"\x9c2\x9e\x9d\x7f\x13_\xa4?\xb1\xdf\xed\x17\xff\x00\x0b\xa3\xc0\xd6\xedq\'\x99q\x0ch$by\xce\x05~P\xf8\xe6\xc6mS\xe1N\xb1cku\xf6;\xab\xabC\x14\x13\x15\xdc\x11\xb8\xc1\xc7~k\xea\xef\xf8"\x87\xc4\xb9&gt;$\xf8#^\x96E6\xf7\x9a&lt;\x91X_C\x9f\xb9p\x8b\x86#\xd8\x80\x08\xfa\xd7\xcff\xb9\xa63-\xc6\xd1\xccp\xb2j1\xb2\x92OF\x9b\xea\xbc\xce\x1c\xdb/\xa5[\x0b)Mk\xd1\x9f\xa3\x7f\xc5L&amp;\xa3\xb3\xb8\xfbE\xb4l\xad\x9d\xca\t\xa9\x0fZ\xfe\x8c\xc2\xe2a\x88\xa3\x1a\xd0wR\xd5X\xfc\x9eqp|\xactcsT\xcc8\xfc*\x14m\xa6\xa4Y7\xd7A#h\xa5c\x93E\x00&gt;\x8e\xb5\x04\x97\xcb\x1f\xf7\x9b\xe9UnuY\x19~P\xab\xff\x00\x8f\x1a\xf9&lt;\xd3\x8d2\xbc\x14]\xeas5\xd2:\x9dT\xf0\xb5&amp;\xcd\x16\x9d`\\\xb3*\x8fsY\xf7\xbe UO\xdd\xf2:f\xb3\xdd\xbc\xd97&gt;Y\xbd\xcdA|\xbbc\xaf\xca8\x83\xc4\x9cn&amp;.\x9e\x16&gt;\xce&gt;\xbe\xf3\xf9\x9e\x9e\x1f/\x84d\x9c\x8a\x1a\x8d\xea\xdd\xdf0f\xe5\x860OZ\xfcr\xfd\xb6\xfe\x03\xc3\xf0\x03\xf6\xcd\xf1\xd5\xc5\xbcm\xe5\xf8\xaed\xd6br&gt;\xe8\x91\x02\xba\x83\xe8\x1dO\xd35\xfa\xfb\xa8&gt;\xcb\x95v\xfck\xe5o\xf8*\xf7\xec\xd5\'\xc5?\x84\xd1x\xbfH\x80\xc9\xac\xf8U\x1aWH\xd7-sjp]}\xca\xe3p\xfa\x11_\x9cp\xfeq(fNU^\x954o\xfa\xf3&gt;\xdf%\xa9\x1a\x15\xa2\x9e\xd2\xd0\xf8\x01\xa4{\xfb8\x9bv[h\x0c\x0fz\xc7\xd5\xf4\xe9 \xf9\x87\xcb\xdc\xe0V\xe7\x85\xd1u\x1d\x0e3\x9d\xbb\x80#\xd4U{\xf1\xe7\xeeU;\x8a\xfc\xac3\xf7H\xaf\xd3\xa9\xd7\\\xbc\xac\xfb)\xd18]F\xeb\xfb2\xeb\xcce\xcf\xf7\xb1\xd8z\xd3t\xddB\xdfS\xbcy\xa3m\xd21\xc2\xee=\x05kj\xf61\xb9+4_3\x0e\x08\xedYv\x9a$v\r\xe6\x0f\x97\x9c\xe0u\xc5\x14\xf1\x0f\xe1O@\xf6*\xdb\x1d\x16\x91\x14v\xb0\t\x17\xe6b:\x01\xc7\xe7Z\xdaT\x9bgYY\xb1\xd8(\xac-3RM\xac\xaa\xad\x8ct\x03\xa5o\xe8\xd0y\xb2\xf4]\xbe\xf4{d\xb5D{&gt;\x89\x1a\x9e/\xd5&gt;\xcf\xe1O\x94\x9d\xc4\xae9\xf49\xaf\xb2\xff\x00\xe0\x89?\x0c\xdb\xc2\xdf\x03&lt;G\xe2I\x15\x95\xfcS\xac\xcbp\xbb\x86\x01\x8e5X\xc1\x1f\xf7\xc9\xaf\x8a&lt;ko-\xd6\x86\xf6\xf6\xf1\xb4\x93J|\x98Qy.\xed\xc2\x81\xeeI\xaf\xd6o\xd9{\xe1d\x7f\x04\x7fg\x9f\x0b\xf8uv\x89,l"I\xbbfM\xb9b\x7f\xe0D\xd7\xc5\xf1~9C\t\x1aky;\xfc\x97\xfc\x13\xc8\xce\'\x18a\xd55\xbc\x99\xecZ%\xf6\xcbe\xf9\xbaV\xa47\xa9p:\x85?^\xb5\xc5[\xde\xc9\x1e\xd4\\\x9fZ\xdd\xd3\xe1o/sr\xd5\\\'\xc7X\xdc\x03Q\xa5\xefEn\x9e\xdf.\xc7\xe7\xb8\xdc\x0c\x1e\xb27\xbbP\xad\x86\xaa6\x97\xcc\x07\xcd\xcf\xd6\xac\xa4\xa1\xfe\xb5\xfb\xd6M\xc7Y~9%7\xc9\'\xd1\xed\xf7\xff\x00\xc3\x1f?W\x078m\xb19z*1&amp;:\xd1_e\x19\xc6J\xf1wG-\x99\x9a\xd7\x04\xf4\xa3\x1cQE\x7f"]\xdc\xfaii\xb1\x0c\x9dEGu/\x1fC\x8a(\xaf/\x19\xa3\xd0\xde=\x0cMb?17~\x15Z\xd2\x18\xf5]2k;\x88\xd6h]J2\xb0\xc8e#\x90h\xa2\xbej^\xedd\xd1\xeaG\xf8~\x87\xe6\x17\xed\x87\xf0\x02\xcf\xf6m\xf8\xe16\x9b\xa4\xc9\xbbG\xd5\xd1\xafl\xe1\xcf\xcdg\x97`\xd1\xf4\xfb\xa0\x8f\x97\xbe\x0e;W\x9aG\xa5&amp;\xa8\xacT*2\x9f\x98\xff\x00z\x8a+\xf5\xcc\xb2\xa4\xa7\x84\x84\xe4\xee\xd9\xfa\x16_RS\xc2\xc6swf&amp;\xb5\xe1Ee\x93\xf7\x9cc\x81\x8e\x86\xb0\xae\xbc&gt;\xadn\xbc\x8eOJ(\xae\x85\xf1\x9d\xb7v4\xbc7\xe1\xb8\xdc?#\xd0\x0e\xd5\xd4h\xfe\x1dV\x93\xaa\xe4QEv\xc9-\x0eW\'s\xe8O\xd8k\xf6f\x83\xe2\x87\xc4\x9bMoQ\x9a\x06\xd3\xbc5r\x93\x8bm\xa4\xb4\xf3\xed\xca\x13\xc6\x02\xaf\x07\xd4\x91_\xa0:\x83y%\x11~\xe8\x18\x03\xd2\x8a+\xf2n(\xad9b\xe5\x19=\x15\x92\xf4&gt;K4\xa9)bm\'\xd0\xd3\xd1lG\x96\x19\xb9&amp;\xb7"m\x89\x81E\x14\xf2\xed\x16\x87\xcbb\x9bs\xd4osSFp(\xa2\xbd\xba2j7G,\xbb\x12Es\x9e(\xa2\x8a\xf7\xa8\xe6\x98\xb8AF\x15$\x97\xa9\x8b\xa3\x07\xd0\xff\xd9'</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -544,6 +630,10 @@
           <t>Caio Max Augusto Vieira</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -554,6 +644,10 @@
           <t>Savio Pereira Sampaio</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -564,6 +658,14 @@
           <t>Edina Alves Batista</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00`\x00`\x00\x00\xff\xe1\x00fExif\x00\x00MM\x00*\x00\x00\x00\x08\x00\x04\x01\x1a\x00\x05\x00\x00\x00\x01\x00\x00\x00&gt;\x01\x1b\x00\x05\x00\x00\x00\x01\x00\x00\x00F\x01(\x00\x03\x00\x00\x00\x01\x00\x02\x00\x00\x011\x00\x02\x00\x00\x00\x10\x00\x00\x00N\x00\x00\x00\x00\x00\x00\x00`\x00\x00\x00\x01\x00\x00\x00`\x00\x00\x00\x01paint.net 4.3.4\x00\xff\xdb\x00C\x00\x02\x01\x01\x01\x01\x01\x02\x01\x01\x01\x02\x02\x02\x02\x02\x04\x03\x02\x02\x02\x02\x05\x04\x04\x03\x04\x06\x05\x06\x06\x06\x05\x06\x06\x06\x07\t\x08\x06\x07\t\x07\x06\x06\x08\x0b\x08\t\n\n\n\n\n\x06\x08\x0b\x0c\x0b\n\x0c\t\n\n\n\xff\xdb\x00C\x01\x02\x02\x02\x02\x02\x02\x05\x03\x03\x05\n\x07\x06\x07\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\n\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01!\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x10\x00\x02\x01\x03\x03\x02\x04\x03\x05\x05\x04\x04\x00\x00\x01}\x01\x02\x03\x00\x04\x11\x05\x12!1A\x06\x13Qa\x07"q\x142\x81\x91\xa1\x08#B\xb1\xc1\x15R\xd1\xf0$3br\x82\t\n\x16\x17\x18\x19\x1a%&amp;\'()*456789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe1\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf1\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xc4\x00\x1f\x01\x00\x03\x01\x01\x01\x01\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x01\x02\x03\x04\x05\x06\x07\x08\t\n\x0b\xff\xc4\x00\xb5\x11\x00\x02\x01\x02\x04\x04\x03\x04\x07\x05\x04\x04\x00\x01\x02w\x00\x01\x02\x03\x11\x04\x05!1\x06\x12AQ\x07aq\x13"2\x81\x08\x14B\x91\xa1\xb1\xc1\t#3R\xf0\x15br\xd1\n\x16$4\xe1%\xf1\x17\x18\x19\x1a&amp;\'()*56789:CDEFGHIJSTUVWXYZcdefghijstuvwxyz\x82\x83\x84\x85\x86\x87\x88\x89\x8a\x92\x93\x94\x95\x96\x97\x98\x99\x9a\xa2\xa3\xa4\xa5\xa6\xa7\xa8\xa9\xaa\xb2\xb3\xb4\xb5\xb6\xb7\xb8\xb9\xba\xc2\xc3\xc4\xc5\xc6\xc7\xc8\xc9\xca\xd2\xd3\xd4\xd5\xd6\xd7\xd8\xd9\xda\xe2\xe3\xe4\xe5\xe6\xe7\xe8\xe9\xea\xf2\xf3\xf4\xf5\xf6\xf7\xf8\xf9\xfa\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xfd\xfc\xa2\x80\n(\x00\xa2\x80\x19qq\x05\xa4-su:G\x1a.^I\x18*\xa8\xf5$\xf4\xaf\x9b?i\xbf\xf8+\xcf\xfc\x13\xe3\xf6L\xb1\xbc\xb8\xf8\xab\xfbD\xe92\\\xd96\xd9\xb4\xdd\x05\x8d\xfd\xc0n~]\xb0\xee\x00\xe5H\xc1#\x04b\x8f\xb3q\xa5s\xf3\x87\xf6\x84\xff\x00\x83\xbcl\xe6\xf1\xbbxG\xf6F\xfd\x99#\xbb\xd3#\xdc\xc7\xc5\x1e9\xd4\x9a\x05\x95T\x12\xdbm\xe3\x03o\x03#t\x84\xf6\xdb]\xe7\xc0\x8f\xf88\xf7\xe2\x97\x8b&amp;\xd3\xe4\xf8\xad\xf0\xab\xc3:}\xad\xf0\xdd\xf6\xb8\x9aXP\x8d\xe0|\xbed\xa7#\x07\x82z\xf5\xc0\x18\xa8\xf6\x91\xe8Z\x8cO\xa7|\x0f\xff\x00\x05\xc5\xfd\x9e&lt;G\xaeE\xe1\xfdW\xc2Z\x8bM&amp;\xf1\xbfC\xbc\x82\xfb\x0c\x832\x02\x8a\xc1\x81Q\xc9\x1dq\xd0\x1a\xfaC\xe0\xe7\xed\x7f\xfb:|xe\xb5\xf8s\xf16\xc6{\xd6$\x7fe\xden\xb5\xba\xdc:\xaf\x95(V$w\xc08\xa7\x19s\t\xc1\xadOK\xa2\xa8\x80\xa2\x80\n(\x00\xa2\x80\n(\x00\xa2\x80\n\xf9\xf7\xf6\xd6\xff\x00\x82\x83\xfc3\xfd\x924\xa9&lt;;\xa7\xda7\x8a&lt;uqjf\xd3\xbc#\xa712\xa4}\xee.\n\x83\xe5B\xbdO\x1b\x9b\xa2\x83\xda\xa2\xb9\x98\x1f\x89\xff\x00\xb7\xe7\xfc\x14\x97\xf6\x9e\xf8\xec\xfa\xac\x1f\x1d&gt;66\x99\n\xcf\xb7O\xf8o\xe1{\xe9-\xac\x91\x18\x14\x0fs$o\x97Q\xcb|\xdb\xc9&lt;\r\xb5\xf07\x8c\xee5\x1f\x11x-um\x1a\xdek\xbb\xa9uI\xd5\x9a\xea\x13"\xdb\xa0R\xa8\x15\x98s!\'qc\xc0\xed\xc95\xe5cq\xf0\xa3\xa2\x96\x9e\xa7n\x1f\r:\xd2\xb2F\x0f\x80\xbfd/\x89\xfe;\x87Ox\xb5\x19\x97u\xb9{y\xae7m\x8c\x06 *\x8c\xe3q9\xecx\xef\xc6*_\x8b_\x04~&gt;\xf8ST\x177\xb3\xdeI=\xa4\x1eG\xda\xa6\xbb\x90\xb7\x96\xaa8N\xc8\xa0\x0cdu\x19\xe9\x9cW\x93\x1c\xff\x00\x0b,G\xb1\xbe\xa7c\xc9\xf1\x10\xa6\xe7m\x0fG\xfd\x8e?hH\xfc\x19\xa8O\xf0\xeb\xc4\x90\xe9\xfaV\xa1&amp;\xeb\x89|A.|\xdbF)\xf2\x08\x83\x11\x18\xc8\x04\x1e\x18\xb1|\x9c`\x11\xf6O\xec\xdf\xf1\xb7T\xb0\xd7-u-&gt;\xc3R\xf1\xb6\xadqt%\xb6\xb8\xff\x00\x84\x99&gt;\xcbl3\xc4\xbeZ\x82 R3\x9c\x05l\x81\xeb\xc7\xd1\xd1\xa9\x1em\x0f&gt;&gt;\xee\x87\xe9\x7f\xecA\xff\x00\x059\xd7_\xc4Q\xfc:\xf8\xcb\xe2\x18\xf5\xad&amp;\xe2B\xb6Z\xaa\xdb\xbaO\xa7(\x03\xef\xbb;}\xae\x1e\xfb\xc1\x0e3\xc8#\xa7\xdf\xfan\xa5\xa7\xeb\x16\x10\xea\xbaU\xecw\x16\xd7\x11\x89 \x9e\x17\x0c\xb2)\x19\x04\x11\xd4V\xc6\x12\x8d\x9e\x84\xd4PHQ@\x05\x14\x00Q@\x05\x14\x01\xf2\xa7\xfc\x14k\xfe\n\x13\xa7~\xcc\xda\x15\xc7\xc2\xbf\x85\xd7\xb0\xdd|@\xbd\xb0\x133m\xf3#\xd0\xad\\\x95[\xa9\x80\xfe6 \x88\xe3&lt;\xb1\xf9\x8f\xca\x0e\x7f\x1e\xfcq\xa3\xfe\xd0\x7f\xb4\x9e\xa5u}s\xe3I\xac\xad\xf5\x8b\x86\xb9\xd4/l\xe4\x12Mt\xdc\x05g\x99\x97t\x8cT\x02X\xe0d\x9d\xaa\xa3\x00|\xbf\x13q.\x1f!\xc2\xea\xfd\xe9l}\x16C\x92\xd5\xcc\xf1\x1b{\xa5\xcf\n\x7f\xc19\xbc\x13\xfd\xa1\x0f\x8a&lt;H|\xfb\xe8\xe1X\x91\xb7\x16\xc2\x85\xf7\x1fZ\xf4\xdd?\xf66\xf8s\x0e\x87\x1e\x95\x16\x99\x1a\xff\x00\xa4\t\xa4&amp;1\xf3\x9e\x87\x91\xeb\xc5~\x13\x98q\x96#\x15S\x96&gt;\xa7\xe9\xb8L\x9f\rF*.;\x1b\x9a7\xc0/\x07\xf8#B\xb6\xd3\xedtx\xdf\xec\xf9U\x90d\x15Rs\xfc\xf3\xf9\xd7+\xf1S\xe0_\x85|{c&amp;\x91{a\xb5d\x8c\x86\x9b\xb8\xfa\x1e\xd5\xf3\xf4s\xccdq\xde\xdd\xbe\xa7\xab,\xbf\x0fS\x0e\xe1c\xe7\x1f\x8c\x1f\xf0O\x8f\x0f\x8d"K_\t-\xbd\xba\xbby\x8d1\x87t\x928\xe9\x93\x81\x80=\xab\xc1-\xfe\x03|F\xf8\x11\x0f\xf6\x9c\x1e)h\x96\xd6f\xfb?\x99\xbdV3\xb8\x12\xc3\x03\x92H\xea\xc0\x8fj\xfd\x9b\x87\xf8\xc68\x89F\x9c\xf7\xba?;\xce8o\xd8\xbej+\xa1g\xc0\xdf\xb4\x7f\xc6\x1b\xcf\x1c\xc0\xba\x87\x8b\xaf\xae\xac\xe0\x9f\xedsY\xe9\xec\x9bn\x99O\xcc\xce\xcd\x19`\xa0u,\xf8\x03\xa9\xed_\xae\xff\x00\xf0I\x7f\xf8)\x9e\x85\xf0\xfbW\xd1&gt;\x19x\xe7Yd\xf0o\x8bo"\xb1\xb5Yu(\xae?\xe1\x1f\xd5\x1d\x82\xc6\xcc\xc8\x11R\x0b\x87%HU\xda\x92\x05=\x19\x8d~\x99\x85\xaf\xed\x95\xcf\x89\xadO\x95\xb8\xbd\xcf\xd6\xd0s\xc8\xa2\xbb\x0eP\xa2\x80\n(\x00\xa2\x80\n\xf2\x7f\xdbs\xf6\xa7\xf0\xb7\xece\xfb3\xf8\x9b\xe3\xff\x00\x8a&lt;\xb9\x0e\x93j\xb1\xe9v2L\x13\xed\xb7\xd2\xb0\x8e\xde\x10O\xf7\xa4e\xcf\xa2\x86=\xa8n\xca\xe5F&lt;\xd2H\xfc=\xf81\xe2?\x17\xfcx\xd6\xb5/\x8b\x7f\x11\xfcS}\xad\xeb\x1e#\xd6\xa6\xd4u\x9b\xeb\x9d\xa2#4\x8d\xca \x1c\x84U\n\xaa\xa7\x84P\x00\xc0\x15\xf47\x87\xfc\x17eo\x14v\xbatF8\x81\xf9UW9\xaf\xe6\xbe4\xc7V\xcc\xb3iEj\xa2\xcf\xdax{\x0fK/\xc0E\xad\xd9\xd7A\xe1\x0b\xd8\xe0E[f\x1e\xa5\x96\xb4\xa2\xf0\xf4\x85r\xb0\xb0\xc7\xfb5\xf1?U\xa9\xb3G\xb3\xf5\x88\xbdP\xcb\x8f\x0eI&lt;\x0c\xb1\xc5\xbb\x8f\xe2\xc75\xccj^\r\x92\xe3\x84\x81\x97\x1f\xec\xd5G\x07R{"\xfe\xb1\x15\x1dL\roA\xb1\xb7\xb2h\xef\xa0S\xfd\xed\xd5\xe4\x1f\x14\xbe\x10\xf8_\xc5\x96Oi\xe5+F\xca\xca\xf1?#\x9e\xe3\xe9^\xb6\x0e\xb4\xb05\x15\xb70\x94#Z\x9d\xcf\x8c\xfe3|\x0f\xf0\'\x81u1a\xa9i\x976\xe2I\x18\xb5\xe5\xab\x1c(\xcev\x91\x90\x0fc\x8c\x8c\xe2\xbdc\xf6S\xf1\x0e\x88\xfe\x00\xf1g\xc3e\xd3&amp;\xd7\xad\xaf4_\xb7I$z~\xc9\xc4\xb1.\x11\x80\xc1;\xf6\x9c\xf0\xf8U\x0cx\xda\xb8\xfe\x81\xe1\x8c\xc2X\xaa\x11R\xec\x8f\xcax\x83/\xa7\x83\xaf\xcf\x1e\xa7\xeeW\xfc\x11\xd3\xf6\xc6\xb8\xfd\xb4\x7fb\r\x07\xc6\xde!\xd4~\xd1\xe2O\r]K\xe1\xcf\x14H\xd8\xdf%\xdd\xa8P\xb30\x1c\x03$M\x14\x87\x1ce\xcd}M_b|\xa8Q@\x05\x14\x00Q@\x05~Q\xff\x00\xc1\xcc\x7f\x13/uK\xff\x00\x83\x1f\xb3&lt;7!t\xfdWR\xd45\xfdf=\xbb\x8c\x9fgH\xe1\xb7\\\x13\x8cn\x9aS\xcf\xf7EqfU\x9d\x0c\x05I\xae\x91gN\x0e\x9f\xb5\xc5B=\xda&lt;\x17\xe0\x9f\x85t\xdf\x0e\xf8f\xd3K\xb6\x8dU|\xb0\xccQq\xda\xbe\x96\xf8/\xa4\xe8w\x12\xa0\xbeU\x0c\xb8\xda\xef\xfc#\xd6\xbf\x99\xb0\xf3\xf6\xd9\xa4\xbd\xa7V\xcf\xda\xdc\x15\x1c\x1c"\xba#\xd2&lt;C\x17\x86\xad\xec\x95m\xa5\x8aLu\xe3\xff\x00\xad\\\x95\xdd\xcc*\xe1\x90\xfc\xbd1\x8a\xef\xc6S\xa5\xb4Q\xcf\x84\xe6\xb3\xb9Z[\x9b\x08\x87\x9a\xac=\xc5V\xbc\xd4\xac\xc6\x9a\xb2\xa4\x08ZM\xc3\xee\xf4\xaeJ&lt;\xb1\x8d\x99\xb5ox\xf2\x8f\x88\xad4\xd7\x0e&lt;\x86\xd8\xc7\n\xd8\xaf;\xd5\xd9-[i\xf9~n\xbe\xb5\xe3\xe2\x9c\xa3\x88L\xf4([\xd8\xd9\x1e\x01\xfbC\xf8^\xe4\xc8\xda\xa0\x8eY\xadd\x90\x99\xa3\\6\x08\x19\xc8\x07\xbe\x07a^{e\xf1{\xc3\xde\x0f\xf0&amp;\xa9\xac\xf8/K6\xf7\xd7\x1bV\xf3P\xb4\x94\xac\xb20\xda\nI\x03\x83\x82\x08\xdaY1\x95\x91\xbag\x15\xfbG\x05\xe2=\xa4\x13\xbf\x91\xf9\xef\x16R\xbdE\xe8}\xdf\xff\x00\x06\x95|Y\xd65\xff\x00\x15\xfe\xd0?\x0en\xeewY\x0b\xcd\x1fY\xb3\x8b\x9co\x90\\\xc3#\x8c\xf6+\x1c]y\xe2\xbfi+\xf5\x08;\xc53\xe0%\xb8QT \xa2\x80\n(\x00\xaf\xc6?\xf88\x1fL\xb8\xf1o\xfc\x14\x9f\xe1N\x86\xa0yv?\x0fe\xb8f\xe7\xe5\ry&amp;\x7f=\x95\xe1\xf1$\xfd\x9eG]\xff\x00t\xf52H\xf3f\x94\x93\xeee|&amp;\xd1Z\xea\xc5D1\x96gl*\xe3\x80+\xde\xfc\x11\xe1\rSL\xb4\x8f\xccf\x1b\xb1\xf3/P+\xf9\xcb\x03Fu1Ni\x1f\xb1f\x15#\x08\xd8\xea\xb5\r\x1a\x08\xa2Q\xe6\xb37\xf13\x1eMs\xba\xcd\xc5\x9c\x11J\x16E-\x18\xafW\x14\xa3\x17n\xc7&gt;\x17\xde\xd8\xca\xb0ho\xed\xd6m\xd8\xdf\xef\xfaU\xb9t9%\x84F\xae\xab\xbb\x85\x05\xba\xd7=\x1aJ\xa18\x99\xaekv9_\x19xv{[GM\xa9$\x9bN\xd5\xdd\xc0\xaf!\xf1\x06\x8e\xfea\xf3Wk)\xc7\x15\xe4\xe3\xe9\xfb9]\x9d\xd8:\x8aT\xeeq\xde7\xf0g\xfc$&gt;\x1d\xbc\xd3\xa1\xd3a\x96f\x89\xbc\x968\r\x9c\x1a\xf8\x13\xe3\x0f\x895\xbf\x85z\x90\xd3m\xacn-W\xedL\x97WSM\xe7*\x1eT\x89\x069N8\xc8\'\x1e\xb5\xfa_\x00\xd4\x8e\xb0\xbe\xbb\x9f!\xc5\x9f\xc3S?@?\xe0\xd1y\xa7\x7f\xda\xeb\xe3\xa7\x93w\x1c\x90I\xe0\xfb\x06\x99m\xd0y{\xbe\xd8\xdb1\x8e\x00\xda[\x1e\xb9&gt;\x95\xfb\xd9_\xb1\xd3\\\xb0G\xe6\xd2\xf8\x82\x8a\xd0\x90\xa2\x80\n(\x00\xaf\xcb\x7f\xf8-\x97\xc2-OW\xfd\xb7~\x17\xfcOx\xff\x00\xd0\x17\xe1\xfe\xa7h\x19W\xefN\x971\x9d\xa7\xfe\x0115\xf3\xbcY\'\x1e\x1f\xae\xd7e\xf9\xa3\xd8\xe1\xf5\x17\x9cQO\xb9\xf2\xff\x00\x8b\xbfl}\x13\xe0L\xcb\xe1\xaf\tx\x16\xfb_\xd6#\xc3\\\x0bxI\x8a\x15=\x17#9n3\x8e\xc2\xb8\xab\xff\x00\xf8.\xbf\x8e\xfe\x1e\xdd\\iZ\x9f\xec\xeby5\xd2\x8c/\x9d\x0c\x88\x0f\xb0\x18\xe7\x8e\xe7\x1c\xfeu\xf9\x9eC\xc3\xf1\x8e\x1dV\x9c\xec\xda\xd8\xfb\xbc\xcf\x19*\x95\xa4\xa3\xb2g{\xf0[\xfe\n\xb5\xe1\xbf\xdaN\xf9m\xb5\r\x1aM\x16\xf1v\x83f\xf9E\x04\xf5\xe5\xba\xe3\xa1\xf4\xafR\xf1\x0f\x8f\xe6])\xee#\xd4I\x86e\xdd\xf2\xb6q_;\x9cQ\x95\x1ct\xe3\xe6z\xd9L\xbd\xa6\x1d7\xd4\xf0/\x8e\xdf\xb67\x8b&gt;\x1c\xe9\xf76\x9e\x03\x12\xcdz\xd1\x15\xb7uM\xdb\x18\x8e\x0e+\xe6\xbf\x0c~\xd1\xbf\xf0U_\x88\xfa\xc8\xd3\xf4\x1d~\xf2\xea&amp;m\xca\xd2[\xc7\x1e\xcc\x9f\xf6W\x91_A\x92G)\xa3\x87\xe7\xc5|]\x0f#6\x8e.U\x9ch\x9e\xd3\xe1}\x0f\xfe\n1m\xa76\xaf\xe3\xbf\x1c\xc7n\x15r#\x85D\x8c\x1b\xdf)\x8c~5\xdd~\xcf\xdf\x1c&lt;G\xe2\xdf\x17\xc9\xf0\xb7\xe3\xde\x88\xb6z\x84\xd2\x91\xa7\xeb\xd6\xe4\x88\xa48\xfb\xb2\x03\xc0&gt;\xe3\x83\x9a\xc76\xc3ex\xeb:z4m\x81\xa7\x8e\xa3\x1fx\xf5/\x10\xf8B\xf7E\xbch\x11\x03*\xf2\xb2\xc7\xc8a\xeb_\x15\xff\x00\xc1O\xfe\x0e\xe9\x97\xfe\n\xfe\xdf\x9f\xcb\xb6\x91\xa4\x0f\x1c\x8a\xa1r\xea\xa4\x8c\xfb\xb1\xe3\x9e\xe4W\x9f\xc3U%\x85\xce\xa1\xc9\xb5\xeci\x9dS\x8dl\xb2J[\xd9\xb3\xe9/\xf83K\xc1\xf7\x10\xfcR\xf8\xeb\xe3+y\x8f\xd9\x17C\xd1\xed\x191\xf7\xa4k\x8b\xa7\x19\xe7\x82\x02\x1e?\xda\xaf\xde\xca\xfe\x84\x86\xb1L\xfc\x8c(\xaa\x00\xa2\x80\n(\x00\xaf\x95\x7f\xe0\xab_\x0e\xed\xbcK\xf0\xa7B\xf1\xaa\xa0\x17:6\xa54\x02^\xeb\x14\xf1|\xdf\xf8\xf4H\x7f\n\xf1x\x8a\x94kdx\x88\xbf\xe5o\xee\xd7\xf4=,\x9e\\\xb9\xa5\x17\xfd\xe4~a\xf8B\x0f\x86\x7f\x02\xe6ms\xc6\xcbg\xb9\xa5,\xf3\\0\x06S\xd5\x9c\x96#\x00\x0e\xacx\x02\xb1\x7fh\x7f\xdb\xbf\xf6\x0c\xf1\x13\xb7\x854\xf9&lt;\x1f\xac\xde,\x7f:\xe9\xfa\xa5\xb2\xc8\xaf\xb4\x9d\xa0\xbe\x15\x8f\xd0\x9ek\xf1l\x1c\xb3\x8c\xd23xt\xed\x1bk\xe4~\x95Z\xa6\x17\x0f\x18\xc6}O\x98\xf4\xff\x00\x88\xbf\n\xe7\xf8\x81\xa7j\x1e\x02\x82H\xedn\xaf\x84~_\x92VHX\x90&gt;a\x8eA\xe7\x91\x90}k\xf4s\xc0\xdf\x05m5\xff\x00\x86\xb6z\xc4\xb7~b\xb4[\n\xb3u`\x80\xff\x00*\xe2\xcc\xa8\xe2(\xd4\x8ckoc\xd3\xc3r\xed\r\x8f\x8d\x7fm\x1d\x15\xbe\x12I\x1f\x894\xad6i\xa0iBJ\xeb\te\x8c\x12y\xfd+\xcd|+\xff\x00\x05=\xf8w\xf0\x89o \xb4\xf0\xe2\xdbX\xe9\xca\xa2\xefU\x8e\xc5\xaf.n\x1c\x9c\x05H\xc1Q\x1a\xe7\xab\xb3s\xd8\x1a\xf42|\x9f\x13\x9cS\xfd\xdc\xadc\x9b\x1d\x89\xa3\x81\xe6\x9c\xd1\xe8^\x03\xff\x00\x82\xb6\xf8/\xe2\xef\x86\xee\xa5\xf0\xe4\x1a\xb7\x93e".\xa5%\xef\x86\xe4\x10\xc6\x1fqR\xf2B\xeeS;O%q\x91]W\x83&gt;(\xf8?\xe2\xb6.\xf4\xc8\xc5\xbd\xc3\xcd\x91\xb6A"\x93\xd7*\xcb\xfd@&gt;\xa2\xb8\xf3\xac\xa7\x19\x94\xd4joc\xab&amp;\xc6Q\xcc\xb0\xfe\xd2\x1b\x1fH|;\x8bX\xd5l K\xb9\xe4\xba\x85c\x01\xa4j\xf9C\xfe\n\xf7sa\xe0\xff\x00\n\xe9\x9e\x18\xba\xd3d\xb8\xb7\xd6\x11\xd9~_\xf5L\xa7\x03i\xfa\x9c\xe3\xda\xba8R\x9b\xad\x8e\x83}\xcf#=\x97&amp;\x0eiv&gt;\xa9\xff\x00\x83;&gt;\x19\xc9\xe1\xcf\x82\xdf\x19\xfe*\xddI\x1cp\xeb\x1e,\xb0\xd2\xe1Vm\xa4\xb5\xac2H\xdc\x7f\xdb\xd2\xf3\xdf\xf0\xaf\xd9\xea\xfe\x80\xa2\xefM\x1f\x93\xb5`\xa2\xb4\x10Q@\x05\x14\x00W\xcb\x7f\xf0R_\x8a\xba\x00\xf0\xa4\x1f\x04!\x8d\xa4\xd4\xaf\x10j\x17\r\xfc0B\xb9U\xcf\xbb18\x03\xb2\x9c\xd7\x85\xc4\xd8\x88a\xb2:\xee]b\xd2\xf5z\x1e\xa6KFU\xb3*|\xbd\x1a\x7fq\xf9}\xf1\x0b\xf6A\xf0\xf7\xc6/\x13\xc3\xe2_\x88\x9a\xa4\xb2Z\xc0\xc2(\xf4\xf6l\xc0\xe06\xe0]A\x1b\x86\xeeH&lt;\x1c\x0c\xd7\xce\xda\x97\xfc\x12;\xe0\xaf\x81\xbfjO\xf8[\xd6\xde7\x86\xefO\xfe\xd1\xfb`\xf0\xacvq\xbc"S\xce\xc0\x03\x92b\xcf!\n\xf4\xe35\xf9\x16C\xc4\xb1\xca\xb0S\xa1k\xb6~\x95\x98eQ\xccj\xc5\xa4\xd5\x8f_\xf8A\xff\x00\x04\xe2\xf8y\xe0_\x8a\xd2|m\xd3\xee\xef#\xd0\xe3\xbc\xf3\xd7\xc2\xf7\xd6\x8a,\xa2\xe3\x00\xc5\xfcJ\xd9\xe4`\xfb\x1a\xfb\x06\xc3}\x97\xc3e\x9a\xce\xdd\xa3\x8d\x9eYcE\xec\xb8\xe2\xbc\xbc\xd3\x1d,|\xa3Q\xab4\x8fk\x03\x87\x8d\x18\xf2\xde\xe7\x91\xf8\x97\xc3px\xef\xc1\xba\xa6\x81qe\x0c\x9flS\x12\xf9\xd0\x87+\x9e\xe3=+\xc5\xb4\xff\x00\xf8\'\xbf\xc2O\x86\xbf\x0c\xf5\x9d\x16\xe3\xe04z\xc2\xf8\xa6&lt;\xebM5\xf3K$\xdb[*W\xa1B\x0f#\x1d\rg\x95\xe7X\x8c\x05\x17\x1an\xc4\xe3\xf0t\xebU\xe5\x92\xd0\xd6\xfd\x9c\x7fg_\x87\x1f\x05\xf4\x0b\x9f\x0b\xfc=\xfd\x9b\x93M\xfb|\xc1\xee.5\x08\xe5\x94\xbb`\x81\xb8\x9e\xc0\x1e9 f\xbd\x16\xd3\xe0N\x85g2\xea\x12\xf8:\xce\xcen\xbee\xad\xbe\xcek\x872\xcd\xb1X\xc7\xcd=n\x18Z4\xb01\xf6t\xf4G\xad|\x1a\xd14\xdd6\xd2k\x06\xb7;V6e,~R}\r|\xb3\xff\x00\x05\x81\xf8{o\xe2\xef\x0c\xf8g\\0o\x82\xcbU\x16\xf2C\x18\xce\xcf3\x18r22\xa0\x8e@\xc1\xe6\xbe\xab\x85}\x9e\x1e\xb5:\x92\x7f\xd5\x8f\x9e\xcec\xedi\xc9t3\xfc\x1d\xa2|C\xfd\x94?cHuO\x80\x1f\r.\xb5mF/3U\xf1&amp;\xa0\xb7N\xban\x97t\xc1ZC\x12\xab\xa8\x92UM\xab\x95\xc9\xc4y&lt;p\x7f`\xbf\xe0\x93\xff\x00\xb5_\x8b\xff\x00l_\xd8\xc7@\xf8\xc1\xe3\xcbu]X\xdcMew"\xae\xd13G\xb7\xe7\xc6OP\xdf\xa5}g\nfX\x9a\xf9\xe5hNm\xa9)h\xfaY\xab[\xe4\xd9\xe5\xe7\xd9]\x1a&lt;7J\xb4mx\xb4\x9f\xfd\xbc\xae\xd7\xde\x8f\xa4\xa8\xaf\xd2\x8f\xcf\x82\x8a\x00(\xa0\x02\xbe\x07\xff\x00\x82\x95x\x0bU\xd1\xbfj}\'\xe2v\xdd\xd6:\xc7\x80\xe4\xd3\xb3\xcf\xcb47H\xf8\xfcU\xff\x00J\xf9^4\x877\x0f\xd5\x97\xf2\xd9\xfe6\xfdOs\x87g\xcb\x99\xc6?\xcc\x9a\xfd\x7fC\x07\xe1\xf7\x80\xfc\x1f\xab\xf8~8\xf5-*\xde\xeb\x0b\x89&lt;\xe4\r\xb8\x9fj\xb0\xff\x00\x07\xfc\x11\xa6\xdd4\x9ao\x85t\xfbe=V;uO4\xe3\xa1 p+\xf1\x9c\x1d\x1a2\xc3\xc6v\xd5\x9f\xa3N\xa5UR\xe9\x9c\x7f\xc5(\x9d^\xcfB\x9a\xda\xddc?\xbdh\xa0\xce\xde\x0f\x03\xf0\xac\xdf\x15\xeb\xba\x96\x9b\xe1H\xa1\x8b\xe4\x84BU\x90/E5\xe7\xe39\x9dI(\x9e\xee_\x16\xe9\xc6\xefs\xcf\xf4\xcf\x11h\xdae\xcf\x991\xf2\xd7vKv\xafQ\xf0o\x884O\x12\xe8f\xd6\ta\xb80\xe02\xab\x06\xc0=+\x96\x9a\x94SL\xd7\x19Nj\\\xc6\xa5\xb6\x8fg\x0c\x9ej*\xaf\xf7\x94\n\xc4\xf1\xde\xa5\xa3[\xc1\xe4\xb4\xdf1\xfb\xa3mUIr\xc4\xf3c\xcd*\x87\x13\x1f\x8e\xa1\xd1\xd1\xa1\x96\x7f-Oe\x1dk\xc7\xfe2\xe3\xe3\x7f\x8a\xad&gt;\x1e\x9b\xf7F\x9a\xec4,\x83,\xa4\x0c\x86\x1fLWV[^\xaf\xb4I;Y\x19\xd7\xc3F\xa2jG\x91xO\xf6\xcc\xfd\xa4\xbe\x18x\xfa\xe3\xf60\xf8\xd3\xe1\xed\x1d\xbc3&amp;\xb1uk\xa6\xc3fv\xcem\x9d\xfc\xb4\x9fi\x1f:\xb8e\xf4`\x01\xcd~\xcb\xff\x00\xc1\x1f~\x0f\xdc|\x15\xfd\x88\xb4?\x0cO&amp;\xe5\xb8\xd4\xae\xee\xa1\xff\x00\xaefM\xab\xfa%~\xa3\xc3\xd9L\xb0\x1cP\xa6\xa5\xcd\x19Qr\xf4\xbb\x8a\xfcn|vi\x99G\x11\xc32\xa6\xd5\x9f\xb5K\xeeL\xfa\x8a\x8a\xfd4\xf8 \xa2\x80\n(\x00\xaf\x9c\x7f\xe0\xa5\xde\x0f\x8bW\xf85\xa7\xf8\xcf\xfeZhz\xa0%q\xf7\x92Q\xb4\x8c\xfdB\xd7\x87\xc4\x94Ul\x87\x11\x07\xfc\xad\xfd\xda\xfe\x87\xa5\x93\xcb\x974\xa2\xff\x00\xbc\x97\xdf\xa1\xf2\xcf\x81&lt;[\x0e\x85d\xcc\x92\r\xd2\r\xe5Kq\xd35\xbb\xaa|`\xb1\xd3tk\xadf\xfaX\xe3[X\xd9\xa4y[\x80\x00\xeb\xf4\xaf\xc0hb\x15:|\xb7?W\x95\x17*\x88\xf9\x13\xe2\x07\xed\xabe\xf0\xebH\xd4~&lt;\xfcQ\xd05k\x8b\x1b\x9dXZ\xd8\xb5\x9d\x8bH\x96\xd6\xaav\x86 \x0e2~c\xeb\x8cV\'\x8e\xbf\xe0\xb1\xbf\x07\xa6\xd3n,\xb4\xa5\xb5m=l\x94\xb6\xa0\xb6\x80\xab\xfb(\x03\xefv\xe7\x9f\xa6+\xb7\x0b\x97\xe21T\xddD\xb7v=7[\x0fFV\x9fM\x8f4\xf8U\xff\x00\x05:\xf8U\xf1\xef]\x93\xe1\xfe\x9f\xe0\x1dj\x0b\xbb\x86\xf2\xecd\x92\xcf\x89\xc98\xe89\xe7\xde\xbd\xdb\xe1O\x89&lt;]\xf0O\xc5q\xff\x00k\xd8\xc8\xfaN\xae\x17r\xed\xf9\xa0oC\\\x19\x8e\x06\xa6[\x8a\xf6rw\xbfmN\xc8b\xa9\xe20\xc7\xba\xdcx\xfa\xc6\xfa\xd7\xcf\xb1vP\xd1\xe5k\x84\xf1/\x8cN\xab\xfe\x8eab\xcb\x9d\xad\x9a\xf1\xf1\x15/\xa1\xcbN\x9f\xbd\xa9\xc5k7w\x06M\xf3\xb6\xed\xab\xf2\x8a\x8a\xdbM\xb8\xf0\xbf\x81/&gt;$x\x7f\xc3\x93j\x9a\xc2\xdc\x04\xb4\xb5\x8c\x85i\x18\x92\xaa\x9b\xff\x00\x841\xc2\xe7\xa0\xdd\xcdz\x99=/h\xe5~\x8b\xfc\xbfC\x97\x1bQQ\xb3}]\x8f\x89\xff\x00\xe0\x9d\x1e\x0e\xf8\x93\xfb@\xff\x00\xc1@~ |B\xf8\xd1\xa1Gu\xe2\x8bMz\x08\xe3\xb1\xb3\xcc\x8b\x15\xe3\xcd"$\x08\xc3\x82\x10\x85%\xbb\x88\xf9\xfb\xd5\xfd&lt;|#\xf0&lt;?\r~\x18\xe8&gt;\x03\x85\x10\x7feip\xdb\xbf\x968.\x14n?\x8bd\xd7\xed\xf9\n\xa7S8\xad:z\xc6\x14\xe9\xc6\xfem_\xf2\xb1\xf9~m\x17C-\xa7M\xef)\xce_%d\xbfS\xa2\xa2\xbe\xc4\xf9\xb0\xa2\x80\n(\x00\xaf%\xfd\xb7\xfc1y\xe2\xbf\xd9\xaf\xc4\x166*\xcc\xf0,W$*\xe4\xedI\x01?\xa5y\xd9\xc59T\xcak\xc1n\xe1/\xfd%\x9d\x99}EK\x1fJo\xa4\xa2\xff\x00\x14~j\xea:\x99\x8d\x1d.\xa7UD\xc0\xeb\xe9X\x7f\x11\xbcJ|G\xe0\xd9\xf4k{\xd2\xcb1\x11\xc8\xaa&gt;\xf8&lt;m\xaf\xe6J|\xde\xd2\xcc\xfd\xaa2N)\x9d\xd7\x86\xb4\xbf\x08\'\x80\xe0\xf0\x1c\xfa5\xad\xf5\xa4\xb6\xde]\xc5\x9d\xcd\xba\xca\x93ds\xb8\x11\xce}\xeb\x87\xf1\x87\xec)\xf0;U\xd4,u#\xf0\x9b\xc3\xd6\xab\xa7\xab=\xbc6zL\x10\xc7\x1f\xfbD*\xe0\x91\x9f\xe2\x06\xbd\xe8V\xad\xecmM\xdb^\xf69}\x9c\xeaV\xbfBO\xf8D|\'\xf0\xda\xe0\\[\xf8KK\xb4d]\x9fl\xb4\xd3\xe2G#\x03\xab(\x06\xb1&gt;"\xf8\xcbMm\x0f\xed\xd2\xdb\xb4\xd1\xc2w|\xa3\xee\x0fZ\xf2\xf1\x9e\xd2u9\xa4\xeez4\xe3\xcb\xa1\x91\x0f\x8b.\xaf4\xab}O\xc3:\xb35\xac\x9c:\xe7\xa1\xa9\xad\xfcQ2\xedK\x83\xb9\xdb\xee\xe4\xd7\x8f_\xe3;i\xf2\xde\xe5\xa10\xd5\x10,\xb1\xe0\x9f\xe2\xa9&lt;9\xe3\xff\x00\x00x\x82[\xef\x84\x9a\xa7\x88\xae4\xf9\x9fM\xbc\x96%\xb3\x93\xf7\xb7K\x14e\xe4\xf2F\x0eYN\xd1\x8fV\x18\xc9\xaf\xa8\xe1x\xaa\x98\xa5\x07\xd5~\t]\xfe\x08\xf9\xde \xe6\xfa\xad\xe3\xd1\xfe\xba~\'\xbc\x7f\xc1\x17\xff\x00b\x8f\x0b|\x11\xf8\xcf\xa8A\xadh\x17V\xf7\xba\x7f\x84\xb4\xadZ\xdf\xfbj\xdfm\xd5\xe4\xd3\x89\xd1\xee\x1bp\xcba\xd5\xf1\x9e\x9f-~\xa0W\xee\\5\x83\x96\x17/\xe7\x9a\xb4\xaa&gt;g~\x9a$\x97\xc9$~[\x9dU\xe6\xc5\xfb4\xee\xa0\xb9S\xef\xabw\xfb\xd8Q_@y!E\x00\x14P\x01Q_YZjVSi\xd7\xf6\xeb,\x13\xc6\xd1\xcd\x1b\xaeU\xd4\x8c\x10\x7f\n\x1a\xe6Va\xb1\xf9=\xfbh\xfc\x1c_\x85\xdf\x1au\xaf\x02\xe9\xaa\xd0\xdbGu\xf6\x8d?\xe6\xebo\'(=\xf1\xc8\xfc+\xc8&lt;}{\x0f\xc2\xff\x00\x0b\xc1\xaf_\xba\x85\x8d\xf7\xc9\xb9\xbe\xf7\x19\xaf\xe5\xfc\xc7\x0f\xf5,\xea\xb6\x1di\xcb6\x97\xa5\xf4\xfc\x0f\xda2\xba\xdfX\xc0S\xa9\xd5\xa4|\xe7\xae\xfe\xd5\xbf\xb6/\xc6\x88c\xd3\x7ff\xff\x00\x85\xf3hzm\xd5\xd4\x917\x8b\xb5\x89\xd6\x05\x95\x03c1/.\x17\xaf\xcd\xb7\x93\xd2\x97\xc6\x1f\xb2o\xfc\x14\x96\xdb\xc3?\xd8zW\xc7=\x03Q\xb0\xd4\x15n\xae6\xf8\xaaeX\xf7r\xca\xdb\xa3\xc8 \xf5\xc7\x15\xfa\x0e\x0f+\xc0\xd0\xc2\xa5Q\xde[\xbf\x9fO\x91\xdb\x85\xf6\xd2m##K\xf8;\xfbix\x03\xc3\xca4\xff\x00\xda\x93\xc3\xf7\x17\x81\xb6\x9d\x17\xed77p\x1fgb\xbc\x0f\xa0\xad\xef\rx\xb3\xf6\xd4\xfe\xc8\x96\xf7\xc4\xde\x17\xf0}\xc5\xad\xaeE\xd2X\xdf\xdc,\xd7\x11\xf7!Z=\xa3\xf1&lt;\xd7\x9d\x99`\xf2wI\xd9\xf2\xc8\xe9\xadK\x15MY#\xd4&gt;\x00k\x91\xea\xabs\xa6jVkc\x1e\xd5\x93\xc9\x91\xb9F#\x91]\x14\xfe\x1d\xd5u\xef\x15\x08\xf4\x0bi\xae#\x85\xb0\xa2\x15\xc8\xcf\xb9\xed_\x03,%J\xd8\xefgIs7\xb1\xa4j\xc6\x95;\xcd\xd8\xe4\xbe4~\xd1\x9e\x10\xf8\x1a\xf3h\x1e"\xb8\xdd\xac2\x84\xb7\xd2\xed\xd85\xc3;\x0f\x97\xe5\x06\xbe\xe7\xff\x00\x82\x02\xfe\xcf:\xde\x99\xe1O\x18~\xd2?\x15\xb4+?\xed\xddz\xe2\xda\xcfG\x8f\xcb\x0e\xfau\x9a\xabH\xd1+v.\xd2+&gt;:\xb0\xe7\xa0\xaf\xd48\x0f+\xa9\x85\xcc=\xa6"6\x95\x9d\x97\xe6\xcf\x85\xe2\xcc\xc9b0n\x9d/\x87M~{\x1e\x8f\xfbk\xf8\xd7\xc5\x7f\xb3\xcf\xfc\x15#\xf6n\xf8\xcd6\xa1\xe5\xf87\xc7\x10\xea\x9e\x02\xf1\x10\xc6\x15/&amp;O&gt;\xc4\xb1\xf7\x97p\x1fC\x8e\xb5\xf6\xb5~\xcbV1\x8d8IuZ\xfa\xdd\xff\x00\xc0?7\n+\x00\n(\x00\xa2\x80\n(\x03\xe3/\xf8+\x87\xc1-_P\xf0\x85\x87\xc7\xff\x00\x08\xe9\xdeu\xc6\x8f\x1f\xd8\xb5\x88\xd7?\xf1\xeeX\xb4r\x1f\xf7\\\x90I\xec\xc3\xd2\xbf;\xbe \xdfj\x1e9\xd1\xac\xf4#l\xcc\xd2L\xab\x82\xbdr;\xd7\xe0&gt; `~\xab\xc4\x12\xac\xbf\xe5\xe5\xa4\xbe\xeb?\xc5\\\xfd;\x85qQ\xab\x96\xc6\x1db\xda\xfdQ\xd3j\x9e\x12\xd3\x9f\xc2\xf0xv\xd7D\x9a\xdeKh\x02\xc3%\xa7\xdeF\x02\xbem\xf8\xa9\xf0+\xf6\xe6\xbf\xd5e\x83\xe1v\xa3\xa9I\xa6\xb7\x18\x9a\xd8\xe4\xf3\xeb\x8a\xe1\xca\xf3)Q\x92\xf6\xae\xe8\xfa\xc7RT\xa1\xcd\x07\xa9\'\xc0\xff\x00\xd9;\xf6\x8a\xb0\xd6\r\xf7\xc5\xbd&amp;\xf25\x7f\xbd4l\xd8\xfcG\xf8\xd7\xb0|\\\xb1\xf1\xf7\x80\xfe\x10\xeaG\xe1\x0f\x83\x1bT\xd7\xbc\x91\x15\x85\xa3mV,\xc7o\x98w\x0c\x1d\xa3\xe6\xc1\xeb\x8a\xe6\xc6b\xa9\xe31\x89\xd4v\x8bk\xee\xb9\xb4\xb1\x1514\xdao[\x1f!\xf8#\xe0/\xfc\x14\xef\xc6&gt;;\x9b\xc4\xde&amp;\xf1\x16\x9b\xe1\xd6K3\x1c\xad{(U\x91\x1c\x1c\x00\x90\x82\xa5\x87\xae\x01\x1e\xb5\xec_\x0c\xfe\x13\xfe\xd7_\x0cc\xd4,\xf5\xaf\xdaV\xce\xe2;\xcbtWo\xec\xd3/\x92\xc3\x92\xc8\xacG8\xe3q=\xfaq^\xfe3:\xc8hT\x8a\xc2\xd3\xf7\xa2\x92\xbf\x99\xf34\xf2\xac\xceW\x8dj\x97W+\xf8\x7f\xe1\xcf\x81d\xf8\x97\x1e\xb9q\x04\xde$\xf1#\xba\xfd\xa3X\xbd\x01\x98\xe3\x00mA\x84\x8dW\xd8{\xe6\xbfq\x7f\xe0\x99:\x02h\x9f\xb2\x9e\x972\xc1\xe5\xb5\xdd\xe4\xee\xcb\xfe\xebl\xcf\xe3\xb6\xbe\x87\x82\xf1u\xb1\xd9\xcb\x9dWv\xa0\xed\xf7\xc5\x1e/\x13ai\xe0\xf2\xd4\xa0\xady/\xc9\x9ea\xff\x00\x05\xf0\xf0\xa7\x88\xaf\x7f\xe0\x9e\xda\x87\xc5\x7f\x06\xd9\xbc\xda\xc7\xc3?\x19h&gt;,\xb2h\xe3,\xd1\xad\xae\xa1\x0f\x9c\xe3\x1d\x96\'\x91\x8f\xb2\x9a\xfb\x17\xc3z\xed\x87\x8a&lt;;a\xe2m*u\x92\xd7P\xb3\x8a\xe6\xdeDl\x86\x8d\xd02\x90~\x86\xbf_\xa9\xae\x0e\x0f\xceK\xf0\x8b\xfdO\xcf\xcb\xb4W(\x05\x14\x00Q@\x05\x14\x01O\xc4&gt;\x1f\xd1\xbcW\xa1^xk\xc4:|wv7\xd6\xed\x05\xdd\xb4\xcb\x95\x926\x18 \x8f\xa5~0\xfe\xd3\xbe\x16\xd6\xbfe\xcf\x89\xda\xb5\x88\xd2$\xbb\xf0\xfd\x9e\xad,6\xba\x97\x97\xbb\xcaUs\x81&amp;\x07\xcb\x81\x8eO\x06\xbf0\xf13\x0bNx\\=\x7f\xb4\xa4\xe3\xf2j\xff\x00\xa7\xe2}w\t\xd6\x95:\xf5!\xd1\xa4\xff\x00\x13W\xc1_\x15&lt;7"\xa6\xbf\x15\xdd\x9c\x91\xc9\x18fY\x1cq\xc5u\x9a\x9f\xedI\xf0\xd3\xc3zj\xb4\x9a\x85\xb8m\xa0\xb6\xd9\x01\x03\xf5\xaf\xc9\xe3\x1a\x8a;\\\xfd\x0e3\x8c\xba\x98Z\xbf\xedM\xf0\xff\x00U\xb7W\xb6\xd4\xed\xd4\xbf%\x9aN\x00\xfaW\x9c\xfc@\xf8\xef\xe1\xb8\xaf\xe2\xbd\xb5\xd5-\xd64\xe6Fg\xe1\xd7\xd6\x94\xb0\xf8\x89o\x13\xa6\x8f&amp;\xe7\x8f\xfcW\xfd\xba\xbc\x11\xe1\xb8\xda\xd2\xc2\xf6;\xb9\x82\xf4\x84n\xc1\xfa\xf4\x15\xe5\xbe\x19\xfd\xa0&gt;/~\xd2\xde!o\x00|(\xd1Z5d\xff\x00\x89\x8e\xa4\xdf\xea\xed\xe3$\xe7-\x8eO\x1c\x01\xd7\xe9]\xd8l\xb2T\xe8\xba\xf5\xf6J\xef\xd7\xa7\xdei*\xcaVI\x9fP\xfc\x17\xf8\x0b\xa1|.\xd2a\xf3n%\xba\xbf\xdb\xfe\x91w3\x92\xd29\xea}\x87\xb0\xaf\xd7\x9f\xd8\x0e\xd8\xda~\xca\xbe\x19\x88\x83\xf7n\x1b\x9fy\x9c\xd7\xd8xk\x88\x96#:\xaf.\x9c\x9b\x7f\xdb\xc8\xf8\xee6\xff\x00\x91m?\xf1~\x8c\xe9\xbfj\x9f\x0bX\xf8\xe3\xf6d\xf8\x85\xe1\rJ\xdde\x83R\xf0V\xa9\x04\x91\xc8\xb9\x0c\x1a\xd6A^\x7f\xff\x00\x04\xac\xf1\x95\xf7\xc4\x0f\xf8&amp;\xe7\xc0\xff\x00\x16\xeaW\r5\xc5\xd7\xc3M$M#\x1c\x96d\xb7T$\xfb\xe5k\xf7._\xf6V\xfbI~)\xff\x00\x91\xf9\x8fS\xdf\xa8\xaeq\x85\x14\x00Q@\x05\x14\x00W\xc0\xbf\xb5&amp;\x95d~?\xf8\xbfA\xbfD\xfb=\xd5\xea;G"eHxc\'\x8e\xfdO\xe7_\x9e\xf8\x90\xbf\xe1\x16\x94\xbbT_\x8cd}\x17\x0c\xdf\xeb\xb2K\xf9\x7fT~|\xfe\xd5\x1f\xb2\x17\x8d\xbc7\xa9\xdd\xf8\x93\xe0^\xb9qo\x0c\xfb\x9aM+\x7f\xee\xf7\x7f\xb1\xc7\xcb\xf4\x1cW\xc0\xbf\x15\xae|m\xa4kRi\x7f\x10\xfcE\xa8X]\xc2\xe45\xb5\xdd\xd3E\x8ey w\x1e\xe3\x8a\xfc\xf3\'\xf6u\xaa(5v}\xc5iN\x11\xb9\xc8\x9f\x88w\x1aCb\xdb\xc77\x87o\xfc\xf3\xbcf_\xe7L\xbf\xf8\xdb\xac\xddA\xf6i5\xfb\xeb\xce0\xaa\xd2\xb7\x02\xbe\xb3\xfb&gt;\x9c\x9a|\xbb\x1c\xb4\xf3)sr\xa6w\xbf\xb3\xcf\xec\xd7\xf1c\xf6\x8c\xd5#s\x14\xbaV\x8a\xb2\x03q\xa8\\BWx\xf4@~\xf1\xfeU\xfaq\xfb9~\xce&gt;\x01\xf8#\xe0\xeb\x7f\x0bx7J\x10\xa6\xc0\xd77\x0c\x01\x92\xe1\xf02\xccq\xc9\xaf\x86\xe2\x8c\xc3\xdaIai;Ej\xfc\xfb\x1e\xe6\x162\xe5\xe6gU\xe2\x93\x05\x99\xfb\x1d\xaa(\x1c\x12}\xeb\xed\xef\xd8\xab\xf6\xb8\xf8\x17\xe0?\x83\x1a\x0f\xc3o\x8a_\x124\x9f\r\xea\t\x1c\x86\xc5\xb5\xab\xc4\xb7\x8a\xedL\x84\x90\x8e\xe4)`Xer\x0f#\x19\xafs\xc2\xb9[8\xab\x0e\xb2\x86\x9fzg\x83\xc6\x10\x94\xf2\xd8\xbe\xd2\xbf\xe0\xd1\xd4\xfe\xda\x1f\xb5g\x82\xf4_\x80~&amp;\xf0_\xc1_\x11\xe9\xbe.\xf8\x81\xe2M\x06\xe3O\xf0o\x85t;\xd8\xeeno\xae\xa7_%\\*\x13\x88\xd3~\xf7s\x85URI\xafA\xfd\x91\xbe\tE\xfb6~\xcb\xbf\x0f\xfe\x01D#\xcf\x84&lt;#a\xa5J\xd0\x9c\xabI\x0c\n\xae\xc3\xea\xe1\x8f\xe3_\xbf\xce2\xa7\x87Q\x96\x8d\xbb\xdb\xd1i\xf9\xb3\xf3\x1bks\xd1(\xae`\n(\x00\xa2\x80\n(\x00\xaf\x81\xff\x00l\xe4x\xff\x00i\xaf\x10:\x7f\x12\xda\x9cc\xaf\xfa4u\xf9\xff\x00\x89\x1f\xf2"\xa7\xff\x00_#\xff\x00\xa4\xc8\xfaN\x17\xd70\x92\xfe\xeb\xfc\xd1\xe5:\xe4\x90\xdf[5\xad\xcc\x1b\x861\xc8\xe9^\x1b\xfbF\xfe\xcf?\x0f\xfe+\xf8*\xe3A\xf1W\x83\xed\xf5%*L22\x85\x92&amp;\xf5V\xea+\xf0\xfc&gt;"\xa5\x1a\xca\xac^\xa9\x9f}Z\x84jG\x95\x9f\x9b\x1f\x1c?\xe0\x9f_\x11\xbc/\xe2\xc5\xd3~\x17Y&gt;\xadg&lt;\xbbDe\xbfyo\xfe\xf68\xc7\xbfZ\xf7\xbf\xd9K\xfe\t\xed\xe0\xef\x02\x9b?\x12\xfcE\xd3!\xd6\xf5\x8f\x95\xd6\xdf\xe60\xc0\xdf\xee\xf4l{\xd7\xda\xe6\x1cD\xa5\x95\xc64\xdd\xa6\xf7&lt;\xfc\x1eO\xec\xf1\x9e\xd2[\x1fbh\xfe\x19\xd2t\x08#\x82\xd6\xce8\xfc\xbc\x04U^\x14z\x0fJ\xeb4\xbdBH\xa1\xd8K\x0c\x8e\r~wR\xb4\xaa\xcb\x99\xb3\xe9\xb9m\xb1\x89\xe2x\xd9Q\xe4\xf3\x0eTej-+G\xd1&gt;2\xe8\xb6^\x13\xf1\xbf\x834\xdd_I\xd1\xf5\x08\xef\xaet\xfdZ\xdcH\xb7\xcc\x81\x82\xc2T\xe3\xf7g\'q\xeb\x8e\x9e\xb5\xf4\\#\x9b\xcb(\xcd\xe3V;\xed~\xdf\xd5\xacq\xe6\x98*x\xdc\x1f,\xb6\xfe\xbf\xe1\xcd\x1f\x83\x1f\xf0p\x0f\xfc\x13\xd7\xf64\xf8\x9b\xe2?\x82\xbe3\xfd\x8a\xad~\x1a\xde\xe8w\xcf\xa76\xa7\xe0[\x18\'\x8a\xf7i\xcf\xf7#\x91\x14\x8d\xad\xb4\x922z\xf7\xaf\xd5/\x83\x1f\xb47\xc3\x9f\x8e_\x0f\xf4\x7f\x88\xfe\x14\xbb\xb8\xb5\xb1\xd7,a\xbb\xd3\xe3\xd5b\xf2%h\xe5@\xea\n\x93\xc3`\x8e:\xd7\xf4\x1dn%\xcb\xd6.\x85\x1a\xf3ju\xaf\xcb\xcd\xd5\xa4\x9d\xaf}\xec\xf4\xee~7[\x0f*U%\x15\xad\x9b_q\xdc\x83\x9eE\x15\xed\x1c\xe1E\x00\x14P\x01E\x00S\xd7\xfcG\xe1\xff\x00\nirk~(\xd7l\xf4\xdb8Ff\xbb\xbe\xb9XcO\xab1\x00W\xc0\xbf\xb4\x8f\x8e\xbc)\xf1\x1b\xe3\xfe\xb5\xe2\x1f\tk\x10_i\xf7Q\xda\x9b;\xcbv\xdd\x1c\xc9\xf6h\xf0\xca{\x83\xd4\x1e\x84c\xd6\xbf9\xf12\xb4!\x92\xd2\x83\xdd\xd4V\xf4Q\x95\xdf\xca\xeb\xef&gt;\x93\x85\xef\xfd\xa2\xdfh\xbf\xcd\x1c.\xb3\xa6\xed\x1b\xc2\xfc\xbd\xcdr\xfa\xf46\xc1V6 \xabq\xc7J\xfc6\xa2\xb4n\x8f\xd0\x94\xceM\xed|\x1d\xa3&lt;\x92\xc6\x96\xeb&lt;\x99\xde\xec\xa35\x82\x9a\x9e\x99\xf6\xa2\xda]\xaa\xeev\xe5\xe2\x1dMsN\xa4\xb9Z:i\xc9\xa4lKg\xaaX\xbc/}b\xea\xac2\xacGZ\xda\xd3\xe3\xf36\xcab*\x14t\xac"\xed\x1dMUMt!\xd4,\xc5\xfc\x8d\x0cI\xc9\xff\x00g5\x9bm\xa9Y|3\xb4\xbc\xf1_\x8b5K}6\xc2\xde\x06io/&amp;X\xa1E\x039fb\x00\x1f\x8dk\x85U\xa5\x89\x8f\xb3WwB\xc5T\xe4\xa1y=\x0f\x90\xff\x00\xe0\x94\x9f\xb2\xcf\xec\xbb\xfb{\xff\x00\xc1A&gt;#|n\xf8\xe3\xf1\x1fN\xd5\xc6\x8b\xe2\xab\x8b\xdf\r\xf8\x06i\x08:\xbca\xd9R\xf1\x8b`K\x02\x80\x08E\xce\x7f\x8b\x03\x19\xfd\x8c\xfd\xa1\xff\x00jo\x81\x1f\xb2\x0f\xc1\xeb\xcf\x8a\x7f\x18\xbcKg\xa2\xe8:\\[a\x8d\x95CL\xe1r\x90\xc3\x18\xfb\xeex\xda\xaa=\xf8\x03#\x8b\xc4\x9c~w\x99q\xf6\x17)\x84$\xa5\x08\xc1A+\xd9\xb9+\xca_\x85\xbc\xac~`\xa3E\xc6s\xee\xdf\xe6~&lt;\xfc\x0f\xff\x00\x83\xa4\xff\x00l\x9f\x87\x9f\xb4\x9f\x8a&lt;u{\xe1[\x1d{\xe1\xa6\xb5\xae4\xf6^\x04\xd5f+&amp;\x9bj6\xa2\xad\xb5\xc8\x05\xa3b\xab\xb8\x82\xac\x9b\xd9\x8e;\xd7\xec\xb7\xec\x17\xff\x00\x05\xb1\xfd\x83\xff\x00o\xcb;]\x1f\xc0\x1f\x13\xed\xfc;\xe2\xf9\xa3\x1fh\xf0_\x8a%[[\xc1&amp;9X\x99\x8e\xcb\x81\xe8c$\xfa\x81_\xd8ye\t\xe1\xf2\xfaT\xa5\'\'\x18\xa8\xdd\xee\xec\x92w\xf3&gt;vO\x99\xb6}p\x0eFE\x15\xdaHQ@\x08\xee\x11\x19\xcf\xf0\x8c\xd7\xe4\xe7\xfc\x15K\xfe\x0e\x07\xf1\xe7\xc0\xad{T\xf8/\xfb/\xf8\x04\xe9\xba\x9e\x97\x04\xf3k&gt;\'\xd7\xe1\x8eW\x8e(\x9bk\x0bXU\x8a\x97\'\x18i\x0e\x00\xe7\x19\xaa\xda&lt;\xcf\xc8\x993\xf3/\xc2\xdf\xb7_\xed;\xfby\xfcn\xf0n\xb5\xfbO|`\xd7u\xad?^\xf1.\x9f\xa4i&gt;\x1d[\xf7K+H\xe6\xb8X\xdewE*\xa6b\x85\x86\xe5Q\x82\xdcm\x1cW\xecG\xed\x0f\xe0\xabo\x0ex\xaa\x1f\x12\xe8\xf0\xdb\xdbC3}\x91m\xad\xe3\xd8\xa9\xe5*\x85\xc0\x1c\x01\xb0*\xe3\xb6\xda\xfe}\xf1\xa33\xc4`\xf3\x9c\xbb\x0e\xdd\xe3.\x7f\xd3\xf2&gt;\x9b\x85\x9f.-\xc9\xfa\x1c\xde\x9f\xa8=\xf8[y#_\x9b\x83\x9a\x93\xc4\x9f\x0f4[\xbbl\x00\xd1\xb0\xfb\xcc\x8d\xd7\xf0\xaf\x88\xf8\xb0\xf7g\xdf_\xf7\x96&lt;\x97\xc4\x7f\x00\xb4\xcb\x8dFI\xff\x00\xb7n\x15Y\xb2Ux\xfd:V\xb7\xc3\xdf\x83\xfe\x19\xd1\xee\xb7fI\xbc\xbeG\x98\xc3\xfc+\x93\xa1\xd1\xcd\xfb\xbbw;\x8f\x10\xc3\xa7Ea\xf68\xb4\xf8\xc0=\x19\x978\xaeB\xe6\xcd\x0c\xdbb;A\xac\x1c\xb9\xe7dTe\xca\x8f\x9f?m_\xdb\xcf\xc3\xbf\xb1\x96\x99mm\x0f\x80\xee\xf5\xcd{TRt\xe5y\x96+T&lt;\xe0\xc8\xe1\xb7\xf5\xec\xab\xcf\xa8\xaf\xcb\xef\xda{\xf6\xbe\xf8\xe5\xfbJj\xb3\xeb\xbf\x16|]$\xd60\xb3=\xa7\x87\xf4\xfc\xc3\xa7\xda\x83\xc6\x12,\x9d\xc7\xfd\xa7,\xdd\xf3\xda\xbfq\xe0\x1e\x19\xc2\xd1\xa5\x1cekJ[\xaf/\xf8\'\xc1g\xd9\xc5Z\x95%\x87\x8e\x893\xc9&gt;\x1c\xf8\xff\x00\xc7\x9e\n\xf1\xbd\x9f\xc4\xef\x02x\xc7Q\xd0\xf5m6\xe3\xcd\xd3\xef\xb4\x9b\xa6\x86hH=\x99y\x19\xef\xeb\xde\xbb\x0f\xdak\xf6\xc9\xfd\xa5?k\xddz=g\xf6\x81\xf8\xaf\xaax\x82Ku\xc6\x9f\x05\xd4\xa1m\xed8\xc11\xc2\x81cB{\x902{\xd7\xddb2&lt;\xaf\x11\x9cS\xcc\'M:\xb0\x8b\x8cemRv\xfe\xbe\xf3\xe4\x9dj\x9e\xcf\x96\xfb\x9esg\xad^A\x11\xb4\x9c.TaZ&gt;?:\x8e\xdb\xc4\x1a\xae\x9d\x7f\x1e\xa7\xa7_Moqn\xc1\xe1\x9a\t\x8a:0\xe8A\x18 \xfb\x8a\xf6\xa3\xee\xecO\x99\xf7W\xec\x83\xff\x00\x07\'\x7f\xc1M\x7fd\xdf\n\xff\x00\xc2\t\x07\xc4{?\x1d\xe9\x10\xc0#\xb0\xb7\xf1\xf5\xbc\x97\xd2Y\x80F6N$IH\x00ck3\x01\x9e1Ei\xcd\x1e\xa0\x7f\xff\xd9'</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -574,6 +676,10 @@
           <t>Lucas Paulo Torezin</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -584,6 +690,10 @@
           <t>Felipe Fernandes de Lima</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -594,6 +704,14 @@
           <t>Jefferson Ferreira de Moraes</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00H\x00H\x00\x00\xff\xe2\x01\xd8ICC_PROFILE\x00\x01\x01\x00\x00\x01\xc8\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x07\xe0\x00\x01\x00\x01\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00$rXYZ\x00\x00\x01\x14\x00\x00\x00\x14gXYZ\x00\x00\x01(\x00\x00\x00\x14bXYZ\x00\x00\x01&lt;\x00\x00\x00\x14wtpt\x00\x00\x01P\x00\x00\x00\x14rTRC\x00\x00\x01d\x00\x00\x00(gTRC\x00\x00\x01d\x00\x00\x00(bTRC\x00\x00\x01d\x00\x00\x00(cprt\x00\x00\x01\x8c\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00\x08\x00\x00\x00\x1c\x00s\x00R\x00G\x00BXYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfXYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-para\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00C\x00\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\xff\xdb\x00C\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x02\x02\x03\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x07\t\x06\x08\x03\x05\n\x04\x0b\x02\x00\x01\xff\xc4\x009\x10\x00\x02\x01\x03\x03\x03\x03\x02\x04\x05\x03\x04\x03\x01\x01\x00\x01\x02\x03\x04\x05\x11\x06\x12!\x00\x071\x08\x13A"Q\t\x142a\x15#Bq\x813\xa1\xf0\x16\x91\xb1\xc1$R\xd2\xd1\xe1\xff\xc4\x00\x1e\x01\x00\x01\x04\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x05\x04\x06\x07\x08\x02\x03\t\x01\x00\n\xff\xc4\x00;\x11\x00\x01\x02\x04\x04\x04\x04\x04\x05\x04\x02\x02\x03\x01\x00\x00\x01\x02\x11\x03\x04!1\x00\x05\x12A\x06Qaq\x13"\x81\x91\x07\xa1\xb1\xf0\x142\xc1\xd1\xe1\x08\x15#RB\xf1$r%3b\x92\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00t\x9a\xd3\xb8q\xd8/3H\x92\xb3S\x99p\xe1?q\xb7\x1fK\x00I\xe7\x8f\x9c\x8f\x9ez\xe9T\x0c\xb61\x94I\x89\x0ci\t\x7f0\xe8\xf5q\xb3\xee\xf5\xed\x8erp\xff\x00\x1a\x0f\xef\t\x97LX\x85\x05`h\xd44\xd5\xa8\xc0\x86 \xb3\xf5\x1b\xb66V\xce\xe3\x8a\xdbdR q\x0c\xcc\xa0)# 3(9]\xd99\xe7\x19\xff\x00\x1c\xf5W\xbe(ffBai\x97\x88\xa8L\xad%(ST-n\xfb\xb1`\xff\x00.g\xa3\x1f\x07e\x84\xf4\tx\xb3(\xf1\n\x92\x14&lt;@\xaa\x03\r\n\x0fk?\\H)\xa55\xb5\x11\x881\xf9\x8a\x93\x18\x8a\x1c\xe4\xe4\xe4\xb6W\x93\xbb\x1c\x80\x07\x80O&gt;za\xe4\xd9\xecx\xe9\xacH\x84P-\xcd\x14\x0b\xb1%\xf6\x0e\xfb7\xa6&amp;\xfc\xde,&lt;\xae$\x1f0\x05\x95\xa1\x8b\x04\xb3\nTP\x03\xbf*\xb39\xbd=\xa7\xec\\\xd7+z\xd7\xdc\xe2\x8eZ\x99i\xe1d\x0e%D\x808f\xcab#\xb9\xdb\x0388\xce9\xc7C\xb8\x92$8\xc1\'}N^\xe4R\x977oG&amp;\x98\x14\xae4\x99\x84\x93\r3QtY\x82\xc3\x0f\xa3\xf6\x04\x16#\x12\xbdq\xe9~K\xd5\x1a\xad\xb2t\xa3\x9a\',d\xfa\xd8:\xe0\x1d\x9bBc\x920\x0f8\xc7\xf81\x96m-\x0eqIBR\x90\x8a\x8d \\\xb9rY\xcd\x80\xdd\xfa=\xc7\xaf\x8c\x14\xb2\xeb\x8a\xb3\xb8v\xf9W\xef\x9e\x04\xd5~\x8d-\x97\xaa*\x8a{\xf5\xbd+\x15\xe14\xf2&lt;\xb1\xb0 \xba\xb2\xb3\xc7\x88\xf8\xc7\xea \x80A9\xf09\xf6O\'L\x048@\n`C\x00H\x00|\xabQO\xa0\xc0\xb9\xfc\xfcO\xe9\x84\xb2\xa5\xa0\xa4\xa4\xa5LRB\x8bY\xfd\x0b\\a:\xfa\xb1\xf4b;;=\xe2\xff\x00DZ\xbbOM\x15qeh\x1de\xa0pXB7l\xdb*!\x90\x0fp\xb7!r|\x9c:r\xf9\xf5J\xa9\x10\xe2\x12\xe5I\t\xb5\x18\xb5\xbdN\xf4\xbd\xf1\x1ff&lt;\x1a\x89\xe8\x86f^\x1a\x10A\xd5\xa9)$\xea\x15{\x16\xe8\xd4nC\x15o\xb0\xb5\xfe\xfc\xc9M\x04\x92H\xf4\xb5\xe1\x06\x18\x950\x17\x0c\xce\xa5Nx\xc8\x04.\x06\xdf\x07\xe7\xa2K\x86\xa9\x99\xa1\x1d%\xc8)\xabT\xd3\x98\x1b5-\x8fr\xb9\xc3\x96\xaa&amp;]0U\x10\xb2\x80\xd4\xd4\xd5j7Z\xda\xf8`4\x1d\xdd\xed\xee\x9a\x9a\x9e\xd3x\xd5\xd6\xfa\x0b\xa1e\x8dRZ\xc8\xa3\x96\t\xca\xab{O\x04\xae\xb2oQ\x87l\xaeJ\xb0 c\xa9\xc3\x80\xf3\x982R\xd0\xe0L\xf9\x9a*\x88\n!\xaaE+P\xf5\xa9\x01\xaa\x051\x17|E\xe1\xd8\x99\xbac\xc4\x83@\xb4\x00\x80\x1c\xb3\x06\xb0\x04\xf2k\xb6\xc2\xa5\xb5\xfa\xeb\xd5\xae\x80\xd0\xf0Bju\x1dE\xefx\x1e\xc5-\xa7\xf2\xf2\x1a\x85*\xc7\xe8\x12T\xc6\\\x90\xa7\xea\x18\x18\xcbdr\x0b\xc3?\xe2i\x14AY\x97Ja\xc4\x08\xfc\xc8 \x10m\xb2\xac\xf5k\x9eF\xd8\x882\x1e\x02\x9e\x877\rq\xf5DB"\x12\xca\n?\xf2\xa0\xfc\xb7\xad\xbd0\x11\xbdz\xe1\xf4\xf7\xa8\xa9c\xa1\xac\xa3\xbdQ]\xaa\x1cG5=eu-&lt;\xd06\x01\xcc\x91=FHe\xc3)\x0cC\x0cc9\xc7U\xaf\x8d\xfc|\xf0)"*\xd4\tv5\xff\x00\x8e\x92\xcd\xe8\xdb\x1d\xa9Clx\x1a,\x1e\x1f\x80\x80\xb4$\x14\xa0\x0b1\x05\xc9\xb3\x8a\xb1\xe6Hb7\xc6\xff\x00F\xf7K\xb6\x97\x8b\xed\xb0[\xf5dMm\x96e\x85h\xeb\'\x829\xe2m\xa7x\xdc^P\xf0\x96G%VF\xdc\n\xb6\x06J\x88\xb2C\x84f`\x90\xf1\x0e\x80I\tb\xceT\xec\x01\x1b37rp\xef\xe2^1\x877$`\xa0\x1d@9cSq\xb1$\x1a\x82\x1c|\xeb\x87\x93\xd9\xedAl\x82\xdfH-\xb50\xca\x8b\x04`\xacm\x19`\xa5\xb7/\x08\xcc\x00\xf0F1\x9f\x82GO\xb9&lt;\xb4\xcb\xc3\x1a\xc5\x00\xd85m\xb8\xfb#\xd7\x15w&lt;\x98\x88c\xc4\x8e\xa0\xb5\']\x94)\xccr\xda\xd4\x1d/\x8bE\x16\xb2\x8a0\x03\x0c\x10\x06@ d\xfc\xe7\xea\x1c\xe7\x9cc\x8c\xf4\xb7\xc2I\r\xb7"\xcd_J_\x02`\xe7(\x0c\x81\xe5 v\xf9=j\xe6\xb7\xad\x0e=\x92\xebzJzs,\xac\xc3(X\x00\xcb\xf4\x81\x91\xff\x00\xdf8\x18\xc9\xf2&gt;:M\x12X\x87RA\xd3\xd9\xff\x00^\xff\x00&amp;\x18V\x9c\xf1Zb\x03\x11N\t\tS\xb3PZ\xce\x1f\xbd/\xbe\x01\x9d\xc4\xee\xed"\xda\xab\x04S\xa2\x11\tL\xbb\xc6I\xdc\xe1\x7fO\xb9\xc1\xf2s\xf6\x1e1\x92F\xcdf\xb0\xb2\xc8~*\xd2\x92\\"\xec\xefb]\x83\x1d\xa9\xcf|\x16\xcbd\'\xf3\xc8\x05\x02"\xd6\x16\xb6/P\xc1\x9a\x80V\x8c\xff\x00=\x80\xe67\xf1\x0e\xed_x\xfdF\xeaj*}\x15f\xfe,\xb4J\xd1\t\x0c\xb2\xc7\x1b\xfb\x82u\'|t\xf3\x06e2n\xe0\x9c\x83\x8f\x8e\x84\'9L\xf2\xfc\x801\'w\x15n\xa6\x95\x14\xb6\x1d\t\xca\x07\x08\xc1\xfcddP\rD\xa41:\x8bYM\xbe\xfc\xfeTwE\xfe\x13\x1d\xec\xb9\xc6\x95:\xafM\xd2\xca\xd3\xba\xbb#W\\\x93\xd9V9p\x1a\x1bz\x05 \x9d\xb9\xc1\xcb\x0f\x93\xe5\xc1\x92\xe5\xaa\x8f9\x08\xc7:\xa1\xac\xbaR\xa7)\tj\x0bw\xb1\xad\xedQ\x12q?\xc4\t\xd8\xb1#\tD\xc5BS\x11A%$\xec\xaa\x10C\x8a\xb7S\xdbk\xd7\xda_G\xb5\xdd\xa8\xa6\xaa\xb3\x7f\x0f\x92\xda\xde\xccqJ\xa8\x95\x12\xc4\xf2D\xe0\x9d\xb2\xcb\x14o!R\xcd\xc9Pp\xc7=[\x9e\x18\xe1\x1c\x8dYt\x15\x99\x19UDT$\x15(\xa4\x95\x1e\x85\x95\xf7L\x03\xc8~$\xe6\xd0\xe3\xcc"4Y\x90\x04$\x8050p\xb0\r\xc3\xee\x7f^f\xf8\xea\x0e\xd8U\xb4uS]VO\xcdS9?\x96\x94\x84Yv&gt;2\xac\xc1\x9c\x96\xe5\x80*\xbe@\xf1\xd3\xb6\x7f\xe2\x04(y\x7f\xf8\xd4\x00\xf0\xde\xa5\x8b\x14\x90\xe1\x95\xca\xbc\xc1\xf7(xS\xe0\xc2\xa5\xb3\x84M\xcc \xa9\x1e&amp;\xa0\x10\x1c\x8a\xb8\xa1F\xddK\xd1\xda\x94\xdcim\x04\xf5\xb6\xfaIZF\xa5\x90\xc4\xafM\x08_\xa2=\xc4*\t\x0e\xd1\x9c\xe4\x8e8\x19\x07\'\x07\xaa\x85\xc5\xb9\x8a\xb3\xdc\xc6#D\x0c\xa8\xca\x04\x12k\xfeE\x12Y\xd5\xb9\xfew\xc7@\xf8.E9\x1eY\x0c\xa0\x11\xa2\n\x00\x00\x01A\r\tj3\x17\x02\xf6s\xce\x92\xce\xd4\xd2\xd5\x1e\xf3R\xe9\xbb\xaa2\x0b|F\xa4\xbc\x8a\x1a\x19\x12T\x95 hy!\x8f\xd0\xc4\x8d\xa3j\xe3\x9c\xf4\xbeO\'L\x9c\x82b\xbaI\xd2\x0b\x02\xe6\x82\x95m\x9d\xc35o\xb6\x1a\x9cO\xc4Q\xa6\xa7\xe1\xc2" \x08T@*@\xa9\xdf\xcc\\Pz\xd6\x98|z\x12\xd9OGc\xa3\xf6\xe4Fc\x0cC!0\x0e\xd0\xdf`8\x19\xe3\x1f\x1ez\x8f\xb3\xc8\xf1U\x15P\xd2T\xc1Jw\xdc;X\x1e\xfe\x96q\\#\x84\xb5-!J\xb9\xdb\xaf\xb9\xfd}19)\x0e\t\xf6\xd7\x00g\x95\xc8\xce?\xe7\xfe\xba\x0b\x0c\xa9#S\x1a\x13\xb1\xe8Z\xbb\xbd{\xe36I,\xddlAo\x96#\xf7\x1a\xea*\x15s$\x90\xc4\n9\nG\x9c\x027\x00\x01\xfb`\xe4\x8f\x9c\xf1\xd2\xa8SCJ\x95\x19@\x04\x9a\x07es\xe7^U\x17\xf6\xc2\x88P\x14V\x91\x0c\x12\xa5\x10\xc7I"\xec\x1e\xa5\xab\xd3|-\xff\x00YUZkQ\xf6\xff\x00R[\xeb\xde\x89\x04\xf6\xbb\x84bg1*G\x1cQ\xb2\xcb;\x17\x04\xae\x00.\x0e\xdcp7\x15\xeb\xd2\xa4M-*\x82\xb4\x82\x83\xa8\x85\\1qcR\x1a\x9c\xfdC\xbc\xe5\x11\x1e\x04\xb2\x90\xa4UH)A.\xc9Q\x049\xb1\x00\x12\xee\xc7r\xdc\xb8\xe1\xef\'\xac\x8b\x1fh\xefz\xafHv\xf2\x1bu,T\x11,\r|\xb6\x9a\xaa\x99+\xab\xa6\xa2r\x12\x1a\x8ax\xd0A2\xca\xea6*8\xfeY98\x1d=2\x88\xd0Q\x05\xa2\xb1P}\x9c\x0b\xeemB\xcd@\xf8\x8d3Y\x08\x90g\xa2F\x88B\xd4X\xff\x00\x8d\xc8\xb5\x8d\x1d\xdcv\xad0\xbeo}\xe9\x97YAw\xd5\xba\xdbR\xea\n\x1a\xca\xba\xb6\x9e\x8e\xe1\x1a\xd7\x18RI)E&lt;\x82\xa6Y\x10\xcc\xdbX\r\x81\x11|&gt;\xe28\xca\xe3\x99&amp;^;\xa1D$1\x02\x82\xe7\xbf6\xeaH\xeb\x84a\x11b\xa4\xa1h$(\xee\x14\xcc@\x03\x9btnOM\xa3\x1aw\xbf\xfa\x1e\xdfi\xa9\xb4T\xea\x9b\x8e\xa7\xa9\x08\xbf\xce\xae\x96B\x90\xac2\xb1\x92*u\x97\x0f\x13\xc8\xa5\xa3\x04\x926\x12p\x0f\x03D\xcex\x98\xa7R\xd4\xa2\x81B7&gt;\x8fN}\xaa\xec[\n\xa1e\x85\x03Za\x06\x01\xcf\x94\x87r\xe7k\xd1\xf9S\x96\x05\xd7\xbfR\x94KM=$\x14\x1b\xc45Nm\xb7\t\xaa^I\xde\x8c1+IQ\x1b\x13\xb8\xc2\n\xacr\xa3\xae\x14\x0f\xa4\x8f\x02cfpU\xf9I\xa6\xca mk\xef\xd4|\x867\te\xbf\xff\x00Z\x80f\xedC\xd4mN\x9f,yt\xaf\xae\xfb\x8fo\xaePP\xd4\xc7UQg\xaaw\xaa\x86Y\xcc\x85\xed\xd5\xaaH\xc4R\xc5+\x13N\xcb\xbc\xed(\xad\x93\x81\x91\xc9L3%\x02\xcc\x08aaK\xecI-\xd0\xda\xdc\xab\xf2\xf2\xf4,\x15)*\x00\xb0\xa8\xae\xfd\x83\xd6\xb55\x1b\xbe\x19_\xa6o\xc5\x97\\\xe9\x1b\x8d\x1d\xca\xc5\xab^\xbe2M5\xd2\xdd}\xb9T\n:j/}%\x8f\xd9Ox\xfbr\xc6\xab\xed\xe4\xb3d\x12\x14\x13\x8e\x95\xc3\x9eJ\xd4\x01q\xebO\xe0\x13{\xd8\x02k\x86\xa6k\xc3\x88\x98B\xc2B\x005b\xcf@\xc0\x8a{w\xc7Q^\x89?\x12\x1e\xde\xfa\xb2\xbf\xd2hzT\xaa\xa2\xd4\xf2\xdb^\xac\xcd\x1c\xf1\x9agzx\xd3\xdd\x11\xb133\x87rH\xe0q\xe7\x19\xe9t \x98\xa1\x92R\x07V\x00\xefg\xff\x00\xae\xc3\x10n\x7f\x95Le\xd3\x04\x88d\xa4\x1a\xa9 \xb5\xcd\xe8\x06\xcc=\x18\xf2e:\x8a:\xb5\xa5i\x1avX\xc2\x95`\xc4\x81\x8e\x018*\x87i\xcf\xc8\x04\x93\x8c\x1f=\x16\x85)\xe2\xc2R@\x05A%\xcb\x02\x1e\xad\xd0\xf5\xb9\xbdE0.\x08+BVV\x90J\x81\xd2K\x10(\xf4\xa5H\x15\x1f\\R\x8e\xe4S=E\xe1s^Z\x15D\x8d\xa9\xe3v\xda\xc4\xb1!\xc88\\(\x041\xe4\xe4\x8e:\x89x\xa3.\x8aV\xa4DZ\x02\x02\x81\xb9\xab\x17p\x19\x9fq\xcb\xebl&gt;\x13\xca\xc9\xaeH\x18\x88*S\xad\x88\t\xa9\t\xa5\xd8\x81\xcd\xad\\\x1a;G\xa7\xedW\t\xed\xb4\x94\xb6\xe8\xa7u\xdaf\x94E\x1e\xd0\xe1T\xb6\xe6 \xbeq\x8c\x92&lt;\x91\x9cy\xebG\x0e\xc0\x96\x11R\x82\\\x82E*\x1d\x83\x9bU\xaa\xd4b+\xcf\t\xfe(*\x12\xa1\xc4\x96!@(%\x99\x98y\x89\x0f\xfa\xfc\xaf\x8b\xff\x00C\xa0\xac\xadl\x85\r\x05:L \x8c\xb6\xd8#\xc8p\x03\x13\xfa\x01\xdd\x9e\x0f\xd8\x83\x83\xc9\xe9\xf3\nap#\xa4B:|2\xceiA\xd5;\xb7\xd48\x0f\x88^O\x87$\xa3 \xaa"\x12\xa7\x0fP\x93\xd9\xcbR\xc6\xb6\x17\xe4qU\xfb\xb7\xdb\x8bj\xdcbxiJ\x06\x9abO\xb5\x10\'x\xdc&gt;\x00\xc7\x07\xe7&lt;\x0c\x0cx\x9d\xb8K\x8ac"X\xa2$T\x80\x98HfR\x80\xa1m\xc8\xa0n_\\\x05\x99\xe0\xb4F\x99X\x95\x84\x82C\xa8\xd2\xa1$\x8d\x82y\xef\xef\x8a)\xea\x17_Y\xe9\xab\xa5\x92\x19\xe2F\xdc=\xc6\xf7#!A\x91\xd4d)\x1f\xd3\x8ery\xe4\x9cs\xd49\xc4\x1co//.\xa8b0\x0c\x9aT\xbb\xd4U\xda\x94\xab0zU\xc3\xf4\x9b\xe1\xff\x00\xc1\x18\xb9\xd4\x08q\xc4\x05y\x81S\xb7 \x93\xc8\x96$\x96\xbf|i\xbb}\xab\xa8u%\xb6\x85\xa8\xeab&amp;\x9e\x1f\xcbU\xfdK\xb7\n\x98\xca\x90\xf9!\xb7*\xe4s\x93\xe4u\t\xc2\xe3\x15\x19\xd2\xb2A\x02*\xd8\x97f\xd6\xa2.Ku\x14\xde\xc5\xb0\xef\xcf\xbe\x18\xc5\xc9 E\x86R@H\xdf`\xec6\x0fg\xfe1\x96\x93X[t\xd7u\xec\x06uUEIb\x8a\\\x92\xcd,\xb1\xb1\x01\x9f$\x94!2\xa1\x86G\xc1\xf3\x99\x1eS\x8f\xd1\x1e\x14)gI\x04\x00w\xa57~\xf6\xdb\x99\xbdx\xe2\x1e\x14L(\xe6!\x07\xf3.\xb6\x04\xb8\xf5\xadwp\xedM\xdcgn\xbb\xafASi\xa6\x8eY\xa2U\x8e\x9a\x000\xe0\xb7\x08A-\x92\x07\x9c\x9e1\xf3\xc6|\x10T\xb0\x9fO\x8e\x90\xe1I+qb\x08~\x83\xd4oWj\x96TTxk\xf0\xe8\xc0\xb6\xdb7}\xfa{\xbe\'\xd5}\xcb\xa3\t!\xa6\xdb1\x08Hd \xa98\xe0d\x1f\x90|\x02\x0e?\xcfZ\xd1\x95$\xc0TBIa\xa9\xb6\xa8\xa5v\xb5\xff\x00Za\x18\x88?\x12\x94\x00\x08$\x0b\xed\xa8{T\xd6\xf4\xef\x85\xdb\xea#\xd4\xa6\xa0\xd3w\xcaz\x1bw\xb1\x14s\n\xa30\x949\xdb\x1aL\x10\x18\xb6\xcc\xb8`\x19\xb2[x#o\xd29&amp;(\xe2x\xf3\x12\xd3H\x83\x04\x9d%\n$9\xa1\xd4\xdc\xebOG\xa04\xc4\xb5\xc39T\x19\x84\xa6,@\xecP\xd5q`\xf7\x17\xf5f\xaf&lt; \xdf\\&gt;\xb1\xfb\xa5\xdc;\xba\xfaz\xec\xcd\x0cW\x9da\xaa\xe9e\xa3\xbb\xdd!&gt;\xfb\xda\xe2\xad\xdb\x13\xc4\x00\x90E\x13\xcb\x1bN\x00\x91[\x95\xc0#\x19\xebfBf\xe2$\xadJ jI#\xcd\xd5\xf9\x96`]\xf7\xbf,\x18\xe28\xf2r0"AK\x08\x8a\x84\xa4\xa1\x99\xf5i\x00?\xa9 \xbf;\xe2\x99v\x7f\xf0\xa8\xee\x95}\x1d\xde\xef\xdc+\xb56\x9b\xad\xb97\xbb\x1cXJ\xf7YJ\x0f\xfe\\\x8b\x9fm$\x1bI\xd8\x17\x92\xde@\xc82\x14\xb4X\x89\x86+Z\xdc}\xfa\xf5\xc4\\%?\x12\xb0\xb8\x81\xf7\xd8\xefC\xbfQ\xed}\xa6wo\xc2\x12Z\xcbU\xc2\x1a\xbe\xe6W\\\x1a\xad\x89\x143S\xd1\xd3P\xee\xe7\x95\x11\xc0\xb2*\x13\xf5\x7f\xa9\xbbqbI\x18\x1d"\x99\x9c\x8ab\x1d\x83\x01\xea\x1f\xf5?1\x83\x12\xd9L\x18\x8cBnBy\xd4Z\xed\xd2\xce\xfd\xe9\x80\x94?\x82\xc5\xbe\x1a\xc7\x9a\xba\xfaX\xb3\x92\xc6\x9axws\x95\x05\x14\x8c\x9f&lt;d\x93\x83\x92\t\xe8tY\xb8\xbaV\t\xa5_\x9dH\xa8\xb3s\xfd\xb0\xe2\x81\x93\xc1B\x02\x94\x96\rP@\xb7\xedR\xfd\xcdpf\xb2~\x0e\x1d\x9c\x86\xd8#\xb9\xd6^\xa7\xba\x08\xbe\x99\x92x\x19I\xc9\xe1\x91P`\x0c\x8e~\x9c\xe3\xe7\x1d"\xfcZ\xf9\x9f\xbf\\)\xfe\xdb-\xfe\xbfN\x9f\xc7\xd9\xc4j\xe7\xf8\'v\xd6\xf9AQL\xf5\xf7$\x92]\xef\x0b\x16\x81\x1dJ\xff\x00\xa6\x18\xb4N\xdc\x82O\x9eWn\x08\xe9|\xb4\xc2\x8a\x01&amp;\xbc\xcb\x96\xd9\xb7\xdb\x99\xf4\x18\x15=\x96\xc0.\x12\x9a\xfb\xf4\xa8m\xdb\xdd\xa8p\x9f=F~\x1a\x97N\xc2\\n+T\xda\x8a\x92\x91\xeaX-u\xbd\x94\xd3KM\x19\xf7\x03\xc8\xad\t\x0cLjI)"\x0c\xff\x00N2: \x99\x82\x00\xd2C\x92\x19\xb6&amp;\x86\xbb\xfb\x8c3\xb3\x0c\x9e&amp;\x95):\x82_aS~\x8dV,\xec7\x03|\x0f\xbd8\xf7W\xba\xbe\x92u\xfa_\xf4\x96\xa6F\xa3\x86\xe5\x04TwIc\x93}=&lt;\xe4(\x8e\xa6Fe@7\x08\xd5\x82\xa8\xce\xef9\x03\x05\xe5c\xc4"\xa01\x1b3^\xf7\xde\xbc\xf0\xcf\xce\xb8zR~T\xc1\xd0&lt;R\x08qR}X\x93ZZ\xec\x1b\x1d\xc1zA\xfc@h}Hv\xc2\xdbKr\x94\xbe\xa8\xb6\xd0\xcf\x15\xeax\x91\x7f#$\xa1\x15\xe3)&amp;\xe6b\xcc\x178Q\xc1\xdaO\xc92/\x0e\'\xf1\x08\x88\x0b\xb8\x06\xe2\xd4,,\xc5\xf6j}1\x00\xe7\x1c+5!9\x12\x1au\x04&amp; \x001\x14\xf2\x9b5/n\x9bb\x7fw\xd4q\\\xee\xcd\xed\x1d\xd8&gt;\xde\xed\xfb\x88f&lt;\xe7\x04g\x1eA\xc7\x07\xe7\x1cu\x07\xfcH\x9d\\\x9c\xe2\xe1\xa5\xc7\xe5\xe7\xba\x8d\xb6\xabnz\xf5\xc5\xb3\xf8=\x91/\xfbT5\xa9\xea\xb2\x92\xee\xc4i\xa0\xb5\x86\xf4\xe6z\x83\xf7h\xf5$\xfaV\xaa\x06\x89\xf7\x06`\xce\xd2:\xe4\x12#\xfaF=\xbc\x1c\x00\x0er0@\x03=\t\xe0\xc8\x91&amp;f\x92\xaa\x87R\x8f\xc8Z\xe1\xba=)PI\xc6_\x15x}Hx\x83U\x93\xb8\xbb\xab\xad\xad\xb9w\xa1\xa98aZw\xba4U\x94\x10\xb4\xa6\x1fx\xc7\x16\x15\x18\x1c\x92\x8b\x9d\xc3\xdc\'$\x93\xe3\x03\xec\x07R\xfa\xb2\xb2\x91\xe2\x12K\x87=^\xad\xe8*w\x14\xa5N+Z\xb3Q\'2\xa9gs\rJA\xa3\x87J\x8a}\xdd\xfb\xd6\xd8\rw[W\xcfYQ\x07\xe5\xe8\xcdF\xd9\xd8\xe4#\x01\xb4\xc6@;\x96L\x13\x9e?\xb7=\x05\x9b\xcd&amp;\xa4\x82a\xc0:YD\x10\x06\xc0r\xae\xfb\xb7\xb5\x1e\\\xe0\xd4I\xc51f&amp;R\xe2$\xba\x18=\x02\x8a\xd2M\xc7z\x7f8\xe73[R\xde\xb5E\xae\xbe\xe1Qp\xa9\x96\xbat2\x18\xd9\xbd\xb1\x1bd\x12\x9b\x18\x826g\x03 d\xe0\xf3\x9c\x8a\xe7\nzjad\xc7+X$Qd\xd40\x03\xab\xfc\x9b\x91\r\x8e\xe4|\'\x99\xc8d\xb2\xd8\x10@\x95Z\xc2H4I5B@r\x03\x13G\x14\xd8\xe3w\xe9\xc7X\x98\xe0\xa9\xb1\xcbP\x82\xae\xdfX\xd0\xc83\x89\x18/\xb4\t#98\xc9&lt;~\xe7\xfb\xa0\xcc`\xc5J\xc2\xa1\x82\x13CN\xbd\x88;\x0b\x91\xb3;\xe1\x07\xc5L\x96Z9\x8d9\x0e\x1a\x04\x15C\nd$i$\x95\x1dLv.+G\xbd\xce.\xc5v\x8e]III}\xa3y\x1a\xbe\x92h\xa4\x8d\x95\x92=\x9b\x061\xc9\xdc\xfb\x81`9%y\xf0\x0fJd&amp;\xe3\xc3\xd2\xe9.\x92\x1e\x84\x9eT \xdd\xdd\xb9\xed\xb9\xc5\x1e\xcf\xb281\xa7\xa6\x12\xb0\n\x16\xb5\x08`0\x00\x059\x00r\x0c\r\x8e\xe5\xf7\xc1\xce\xc9\xac\xf5\x15-\xaa+x\xf6\xd2a\x1cp\x19\x7fI\x01x.Ha\xf5s\xfa\xb3\xc9\xcfO\xa9\x0e0\x89(\x84\xc3TB(\x94\x90J\x80\x14b9\x16\x14&gt;\xd5\'\x0c\x99\xde\x06\x93PTM\x01\xc2T\xa0XT\x80\xfb\x8a\xfe\xbd\x86,\xb6\x9d\xd4\xd5\x10\xd8\xe9i\xe3\x94TlX\xa2\x99\xa4\xcbH\xd2\x14Bd\x0c\xa7\x05I\x0c\x01#\x83\x92&gt;s$d\x99\xfag\xa5\xcaAK\x91z\xb1\x04u`y_\x96"\xbc\xe3!\x12\xb1\x9fF\x83\xa9U\xd2\x01\x1c\xebB\x08\x06\xa0;\xdb\xba\xdb\xfcF5\xd5\x9b\xb7Z.n\xe0\xd7U\xc7D\xba~\n\xfb\x8c\xeeI&amp;\xa5`\xa7i\xcd(T \xbeZ0\xe5T\x12A\xc6&lt;\x0e\x9bY\xf4\x9f\x8d9\x0e(@#B\x9e\xd4%]\xb6\x03\xdd\xfdW\xe5S\xff\x00\x80\x82\xb8z\xc8%@\x83S@\x96\r\xdb\xd5\x98a(~\x1a\xfa\xe2\xdb\xaa\xf5\xf6\xbd\xee\xce\xa9\xaa\xa7\x9bQj\xbb\x945\x94\xde\xea Z:V\x96\xbb\xd8\xa7\xa7\x89\x81\x96\x16\xf6gGl\x90\xd9\x00\xb0\xe3\xacec\xc3\x97\x02\x18\tIU)\xb3\xd3\xa8wq\xf7T\x99\x84E\xe6\x11\x92\xb2T\xb0\x14\xe1\xc1k\x82\xfc\x9a\xec\xfe\xe5\x9b\x0frMQ\x1d\xc1"\x14\xf2\x87\x8d\xe3\xfa\xb0\x19A\x1f\x19bp|\xf1\xf7\xff\x00\xbfEa\xcd\x00\xe1\xcb3\xb04\xd8}~^\xf8F (D\x00\x02\xce\xcd\xfa\xd2\x83\xb3\xd4|\xfc\x81)j\x89I*0\\mX\x84\xb8,\xdc\xf8\\\xf99\xf8\x19\xfe\xdd$\x99\x88\x95E}L\xe9\x16\xda\x94z\x864\xa9\xdc\xf5\xc1\xd9t.\x1aX\x03w\x0c\x0b\xb9\xb8\xf7c\xfb\xdf\x18\xa7\xa1H\t\xc9g\n&lt;d\x96\xc60\x07\x92I\x1fl|c\xc7\x84\xe4!cN\xaa\x9am\xfa\x1f\xd7cl/LX\xa8N\xa7W3r\xfc\x9d\xf6\xdd\xad\xd3\x1a\xf8\xe3\x86V,\xc2X\xf6\x122\x15\x8e\xdd\xdf\r\xf2&lt;\x1f\x90I\xe3\x07\xcfX\xfe\x19\x1c\xfe{7~\xa3\xd3\x19~1\x7f\xfey\xfe^V\xde\xf4\x1f+m\xb6\xa4\xa0\xa8g\x7fbbF\xc1\x82\xe7\x07\x93\x91\x9c\x9e\x0f\xc0?ls\x91\xd6\xe4\x04CHHP\xebW\xeaXw?&lt;"\x8d\x15k\x88\xa5\xb9\x0e\xd5\x02\x94\x1bS\x96!Z\xd7B\xd85\xd5\x03\xd95\xbd\x92\x1b\xbd\rDf\x16J\x90Y\x95\x1dJ\xb1IT\x12[i\xc7\x07\x18\xf2\x08\xc8\xe9V\xb4\x80\xe0\x87\xe4(\x0b\xd2\xf5g\x7f^g\x08\xe6"\x05\xc2(f\xf3\x02\xe6\xb5\x1c\x9b\xb7no\x85\'\xea\x9b\xf0\xbc\xed\xb5\xd3H\xde.\xbd\xbb\x96\xba\xcdq\x80I]\xfc&gt;Y\xe3\xa8\xa1\xad0\x934T\xce\xb2\x18\xce\xfe\tG\r\xc1\x03&lt;\xa8\xe8\x8c\xa4\xc8C\x02i\xeb\xcf\xb3\xde\xbb\x8ew\xc0\xa8\xf2AH\xd4\x94y\x99\xdc\x00\rwr\xccF\xd7\xf6\xbd\x12\xfc&gt;\xf5\xc6\xa2\xd0&gt;\xa4t\xc7i\\\xddh\xaa/w*\xfa\x07\xb3B\xcd&lt;\x15N\x96\xca\x89F\xf5X\xa4evX\xf2\xa5\\*\x80\x1b\x8c\x12\\\xf9Nw\xf8Y\x84\x80\xb0\x02\x8d\x9c\x8e{W}\xcfZ\xb1\xa3tp\xe4,\xd6kDT\x81\xa5IrY\xce\xe1\xc9\xbb_\xa9\x15\xbb\xe3\xa7X\xec\x17m=\x8a\xbb\xad\xa6\xba\x84N\xea\xeb,\xd4\xb3\xedPN\xd0\x0c\x85\n`\xf8\xc1\x19&gt;A \x1e\x98_\x12b&amp;yAp\xe1\xa7R\xb4\x1d@\x17\xfc\xc0\xd0\xdf\xb5^\x98\xb0\\\x1b\x96\xca\xe5R\xe9\x96F\x80\x90\x92\x7f\xe2\xe0\xb1\x00\x8d\xbfolKR\xaa\xba\x1asV\xe6\xbe\x08V5e\x99\x11\x91\x00$\x90\xe7r\x1f\x83\x8d\xdc\x021\xc7\x91\xd6\xaf\x86\xf2K3\x90\x82\xc5\x1dW\x1b\xb0\xb1\xebV~\xf6\xc0\xae7\xcbaN\xc2Y\xa2\xdc\'\x92\xacI\r[{\x0f`14\xed\xee\xb8\xba\xd0\xdd\'\x92{\x97\xbbmM\xac\x0c\xa8H\t\xc9\x1fP\xc0f\xc0\xe4\xae&gt;\xf8\x1c\x0e\xac\xfa\xe5$\xa3J\xc2\x82\x02B\xc4$\x05\x10\xcf\xa8\x00\x0e\xc5\xcb\xd4\xd5\xf7\xb9|Q\x0e&lt;\xe1\x89\x99&lt;\xda,\xcc?\x110\xcc\xc2\xd4\x19\x80e,\xed\xeb{\x178\x9dk\xefQ\xdaoNR\xd1\xa5m}\xba0\xd3\x88\xd6YZEf\x7ffF)\x8d\xe3\xe1w}\x868\xf3\xd0\xc9\x7f\x87*\x9f\x8b\x12*R\xb5\x05\']\x92\xdecp\xff\x00\xf7\x84R\\n\x8c\x8e\x18\x81\x11I*\tL6$\x86)\x0el\xdb\xf5\xfd\xf0\x06\xf5\x95\xd8\x9a.\xd9[.\x1a\xb3OR\xbc0S$m_HDm\x13\xc2\xd2\x142\xach\x88=\xc4R\xa7\xf5c\x03\x91\x92z\xab\xf9\xb7\x0f\xc2BO\xe1\xd2\x94\x80C0\xb5y\x00+\xb5\x1d\xf7\x1c\xfaw\xf0\x97\xe2|\xd2\xa7%\xe4\xe6g\x0c5\xf8\x8cT\xb5\x16\x1f\x92\xfe`Y\xc9b\xd4\xfa\xa5^\xdbk\xf1E\xdd\xab\x8dM,\x84[\xea\x0c\x91\xc9\x12\x86*\xb5&amp;`\x0b\xb2\x82\x00\x1b&gt;\x9f\x96\xdcG\x1fd\xd9^Ds\x08\xe9\x97\xf0\xfc\xe2\x8em@\xdb\nm\xda\xcd\x8b\xb5\xc69\xf4\xbc\xd7\r"\x1c)\x88qc\xc4\x95\x80\xcaJ\x839B\tz\xb9\xbdF\xf4n\xae[\xb7\xfa\x8a*\xfd=\x04\x94\x92\x8c\xbcH\xf2\x0eF~\x8f\x90O\'\x96\xc7\xfb\xf1\x8e\x8bf\\"2\xc8*TXB\xa0\x11\xa5\x81-\xd4\x80X?\xddZ\xb9\xc8\xe4Q\xb3)\x95\x18\xd0\x94Yj\xd2\xad\x8b\x92Z\xafv\x07\x91\xae\xc3\x1b\xe4\xbe\xcc*V N\xf2\xc0\x91\xb8c\x03\x19\xe7p\xf2\x0e|\x7f\x82z\x8ag`&amp;$\xcf\x87\x0c\x04\x11\x10\n\xd2\xaf\xd2\xd5}\xb7\xdb\x1a8\xa3(\x83\x94B\x06$2H\x0b\xfc\xac\xce\xc1\xde\x9b=\x07nX)P\xf7\x0ezJc\r YX\xaa\xaaG\x82O\xb9\xb7j\x0eX\x00K\x1e?\x7f\xb0\'\xa9C\x85\xe5\xa2K\x82\x85(\x12BX\x87\xa3$\xf3\xde\xa0^\x9c\xde\x98\xac\xdca7\x05Jd!\x8f\x99\xb9\xfem\xfd\xab\xd5\xeb\x8ep?\x18\xbe\xfej\x8b\xce\xa4\xd2\xfd\x9fz\xe3\x0c\x13Is\xae\xbf\xd1\xc4\\\x14\x8dJ\xd3S\xc17\xf3\x19\x19$\xc4\x9b\x93i\x04|\x81\x9e\x9dY\x94\x0f\xc3\xc3*\x8aB\x8a\x92H`h\x18\xbe\xcfC\xb8}\xf9\x93\x88\xf0\x08\x91\xa2!),T@w4r\xcc~\xa6\x8djm\x80\xbf\xa1]\x07{\xb3VCu\x95\xc5-\x9eD\xa2oy\xfd\xa8\xe0\\D\xfb\xe4,1\xb1#\xdd\x92\xec\x01P3\xf1\xd4q33\xff\x00\x97\x0c$\xb2DA[\xd1\xc7\xeei\xcfno)\x19\x01\x0e]j\x88\\\xa5\x05Z\x9b\xf2\x9d7=\x05]\x87Nxow\x9fR\xbd\x85\xed\xfd\xb2+}\xcb\xb9v\xf9\xee\xf0\xc6\xd2OOE#T\x08\x0cjAWe\x8f\x00\xe5\xd5\xb8$py\x07\x1d\x1d\x82\xadi\xd6\x95\xa5\x9bq\xb6\xdbX\x90\xdd\xfb\x17G\x13\xc3\x86B\xa8\xb0\r[\xa7\xce\xdd\xfbS\x00\xab\x87\xac\xde\xcd=b\xdd\xa8;\xb7kW\xa6c:\xd1O$\x83\xdc*s\xb3\n\x9b\x8b\x9c`\xa0\'\xc0\x1f=%\x9aTMEI\x88\x90\x02@"\xbbR\x9e\xa6\xbe\xf8%%9+\x10\x04\xa9\x04\x1dLIoB\xe1\xc8\xb6\xdc\xac\xd6\x99h/^\xfd\xb8\xd4\xb7\xc1j\xa4\xbd[\xeb\xe6\xa7\x89\xe4\xa8\x9e5\x9bn\x06&gt;\xa5\x0f.\xe3\x9d\xe1\x7fI\xceGB"\xe6J\x82H$\x93j^\xe2\xd56k\xdc\x1f\x93\x96^J\x04\xdat\xa1Iu\x82\x05\x08\xa5:\n\xd2\xec\xf4\xc1A\xfd`\xf6\xe6\x82\xdf[r\xba\xdc()i\x96\xa5\x93s\xa4\x8a\xc0\xefdM\xe7v\xdeO+\xfbd\xfd\xfaN\x9c\xf5k\x89\xa0\x05\xdc\x175\xab5\xca\xba\x1a\xb1\x03g,\xdfE\xc9\xd1\t\xc9)!\xc2\xa89^\xe3\xec\x9fQ\xae\xb8z\x9dK\xdaR\xb6\x86\xb8\xdaj\x81\n\xce}\xe8\xc1x\xdc\x16R\x8a\xd5\x02F\xe0\x85\'`\xe7&lt;c\x04\xadL\xfcE-\x885\x00\x06\xf7;\x82\x1a\xbb\xb1\xedaQ\xe4\xe0\x87\x01A$0k\xd7\x91\x16\x1d\xcf~X/i&gt;\xe7j=CIO\x1d\xd6\x86\n\xba\x97\xfa\x1ej\x02\xb2{d\xf1\x93\xfc\xe3\x903\xf0\t\xf3\x8eG%`\xc7\x8aC\xaa\xa1\xad\xf3\x0c\xc4\xb3\x0b\xdb\xd8`\x14\xc4\x04 \xb8P,\xa0\x0f\xaf\xa1\x1b\xdb\xd3\x9e\x04\xfd\xe7\xd7\x95\x96;-\xce\x19\xaaM8\x86\x19%\x92\'$1\x8fl\x8aAL\x9cc\x1e\x08\x19\xc7\x19\xe9`\x99JX\x92S\xbb\x1f\x9e\xf6\xfd\xfa\xe3j\xa0\'\xc2rS\xa5\x9c\x11p\xed\xd1\xc5{6\x14\xff\x00\xe1cm\xb7k_\xc5\xa7\xb2\xb7\xab\xe2\xd3\x1bE]f\xb5\xa7\x86:\x8d\xa5e\xaf\xff\x00\xa3\xef\x02\x91U\x18\xb0i\x04\xa8\xcc\xad\xe4\x92\xa0\x1c\x8e\x08B^\xb3\n"Uk\xb6\xe1\xf6\x02\xacz\x1e\xd5\'\x0c\xe9\xf8\xf1\xa5\xa2\x95\xcb\xa8!A\x89,C\x90\xe3\xa1\xa0\xa3\xdb\xb8|w\xcb\xae\xbbQ\xa6+\xec5t\xcfn\xa4h\x05; W\x8dA\x0c0AV;\xb6\xb7#i\xf3\xfb\xfd\x94\xcf\xc0\x13\x90\xf5).R\x12\xf5\x16{\xd7z\xed\x82\x19o\x14MC(DE\xac\xa8\x96\x04Y\x8b\x8f\xa9\xb5\x19\xfd\xa8*i\xfbN\x9c\xb8\xdd-\xb7\x88\xcc\xd6X\xfd\xd0"\x98\xc54&amp;6\x020\x83v\x19@\x08B\x820\t\'=\x14\xe0\xe8\x02^q&gt;\n\x82\x95\xad^D\xd1Z\x98Q\x98\x0fnTja\xc9\x99f\x91\xe2\xcax\x91"\x10\x9d"\xe3\xd4\xd0\x9b\xb7JoZ\xe1c\xfa\xc5\xee\xfe\x96\xed#\xb3\xe8\x9b\x8b\xd2GV\xf5$\xdb\xb7\x06JiD\xa1^X\x95q\xc33\x82\x13s\x01\x8c\x05\xc61f\xf8;\x87&amp;3\xc9\xa4\x0f\rp\x81.J\xdc\x83CP\xc1M\xd2\xf7\x17$\xe2\x03\xf8\x93\x9dePd\xc4H\xda\x02\x93\x0c\x059K\xa9N\x1c\x80\xfc\xdc\xd7\x97&lt;"n\xeb\xf7\xfb\\\xf7\x0e\xe6\x1e\xa2\xf9Y\xf9:J\x89\x9e\x9a5\x96H\xd4\x126\x06(\x08\x1b\xb6\xe4\x03\xf0\x0e&gt;z\xb7\\/\xc0\x92\xb2r\xed1\r+Q\x82\x80\x08\x0fb\r\x98\x11\xedZ\xd6\xd8\xa2\\O\xc4\x90cOD0\x91\x17\xc2\x11W\xa4\x85\x02:T(\\?\xb6;e\xf5Uc\xb6j\xcb\x15}\xbd\xe9`\xa8\x8eh\x99$\x81\xe1WIIw\x01X\x1e\n\x81\x8e\x0f\x00\x80\x7fc\xcb9\xb9ha\x0e\xb0\r\x1d\xce\xcd\xdd\x89\xa8\xb5\xbbc\xa1\xb9t\xe6c\x95\xe6\xc2,\xach\x89e\x15:TG+1\xe6\x1a\xfe\x9b\xe1\x16j\x9fI:n\xcbq\xaa\xd4\x16\xbbi\xb2\xd7\xcd;T+S\x00\xb0\xb7\xb9!,Z5\xc2a\x81 x\xdb\x80\xd9\x18\x18\xc7\x85W+\x072\x1e M"\x16$r\xa0&gt;\x86\xb4\'\xf53\xdeU\xf1W\x88\xe3B\x81/1\x1e2\xd0\x92\x98zT\xb5\x10\xc8\tH\xba\x99\x83\x02\x0e\xd7\xa50B\xd1\xd53i\x0b`\xb6\xd5\xcd#K\x94Os%\xa3(\x03(\xc7\x90\xa7\x04d\x82&gt;9\'\x9e\x9c|s9(d\x81\x86\x94\x82\x10C\x809\x86r\x00w\xe7\xfbb\xd9\xfc5\xe2\x08s\x92\x82$\xd2RVS\x08\xf9\x80\'QK\x92\x0f\xb51(\xb9^\xd2\x95c\xaa\x86bK7\xd4\xfe\xe3\x12\xa0\x81\xf79\xe4\xe3\xcf\xdc\xf1\xd5Z\x0b\x139\x84B\x19\x84W\rF\x01_\xb7\xf0m\x84\x9f\x14\'\xa0.\x18\x10\xc2C\xf8\x80\x14\x87#\xca\x91\xb5+\xcc\xdf\xdd\xf6z\x1fX\xd2\xd5^b\xa2\xa8\xad\x0c\xd2\xc9\x18T\xdc\x14\x87\xdd\x9f\xd4F8 \xf89\xc6x\xfbH\xb9D\xfa!\xa8\x10_\xf2\x87&amp;\xa2\x8dW\xe7q\xb1;\xed\x8a\x95\x9d\xe5\xea\x8c\x14\xa2\xc0\xb9\xa1\xbbR\xce\\Wls\xe1\xeb\x16\x80w{\xd5\xee\xa9\x0c\x16\xb1(\xef\xb3\xd9\xbd\xc6\x00\x88\xa3\x8e\xe1$l\xa1d\xc7\xee\xd9_$\x0c\x9e3\xd1L\xfb2\x11\x10\x80\x95\x02\x04\x15\x06rK\xbe\xe3o\xe4\x86\xbb\xb5e\xa4tL\xa4\x14\x8f\xcd\xd3r\x03r\x14\xf6\xbb\xe2\xdcV\xdb,\xfa\x0b\xb7\xd1X\xed\xf2\xc7j\xa4\x86\xd3\x1c\x15\x95\x90\xc4"p\x91\xd2\xa2\xd4\xce^0\x1f8\x12;\x159##\x8e\xa38\xd1\xd6b)@\x12Az;\xbf`zs\x1f\xae$IiD.\x03+\xf2\x90R\xa7\xab\x029\xb7\xbb\xbfL-\xce\xedw\xc7\xd3\xb6\x9b\xb3\xdd\xadIOh\x98\xaa8\xae\xd5W\x84\x9c\xd5\xac\xcd\xb8\xb2\xc4\x02IP\xc9\x96\xdb\xb8\x8d\x9fH\x04\xe7h\xe8\xe4\x84X\xaa@.Z\xa0\\5o~\xb4\x1b\xd4`l\xe4\x96_\x00y\xcd\x89\xb5\x8fF\x7fC\xb5\x03\xb5p\xa1\xbb\x8d\xdc\r3\xaa.\x97+\x86\x8a\x92\xbc\xda\xa8kcY+mRWAG\xbeP\x0cNC\x04 3\x12[\x1c\x10z\xfan2\xa1:I.\xce\xe5\xcf\xbe\xe2\x94\x07\xb8\xe5\x81\xb2\xf0\xa4"F\nE\x03\x80\xcc\xc1\x81\xe8+\xd8l\t\xe6M\x8e\xf4{g\xeen\xb9\xee\x1d5\xbbHGr\xad\xa8\x9a\x9f{\xc8\xaf8FT\x9e\x99XH\xf2\xb2\xa0\x18$6\xe22p@\xe7\xa6\x9c\xc4\xca\x95\x14%\xe9\xa8\x8b\x17/\xb9\x15zz{\x11\x87\xdc\x94\tTAJ\xe1\x9f:\x12\xe0\xb7V,\xe7\xd8\x86\xf9b\xeaz\xca\xd2\xbd\xcf\xed~\x95W\xd4\xe2\xb6\xcd\x05k\xc3\x0c\xc9\x14\xef\xec\xbc\xe4\x06\x8d\x81\x85\xce\xd7\x1c1\xf1\x92O\xef\xd1)x\x14\x11\x19\xc9cj\xd5\xfa\xd5\xeb\xee\\[\x1a\'"\x12\xec\xe2\xe2\x9e\xcf\xd2\xd7\xe4\xfd\xb0\xaa\xe8{\xc9\xddd\xb9S\xc1g\xee\x8d\xf6\xc6)\x81P\xe2\xe7S\x0c\x00*\xe0)\x91\x1c\x1f&gt;\x078\xf1\x9c\x0e\x88\xc1\x88\x94\xb1)\'c\xdd\xcd7~\x94\xe9\xcf\r)\xb4E\\e)\'JX0w\xd8\x07\xda\xfe\xac\xe0r\xc3[\xf4\xf3\xdc\xdfQoOCQe\xefuL\xb5[\xa1\x9e\x9e*\xbb\x9dD\x90\xd4\xb0u+\x1b\x9fy\x90+\x9f\xa7\x07\xff\x00|\x11\x87&lt;\x94\x01B\x19\xe8\xcd\xdd\xa9\xcb\xa39\xa0\xc2\x08\x92q\x08u\x12\xce\x01\x0fw\x1b\x07~B\xe3\xeb\x86og\xeeF\xb8\xeff\x9c\xd4\x16~\xe6\xd8\xa9\xa8uU\x96$\x8djh\x800\xdd\xa8e\x06\x17q"\x10$`\xde\xe4\x85\xb2X\x06\xcey\xc7Z#M\x18\xbf\x91D8nG\x9f\x7fVv\xe7|.T\x92\x84\x07$Y\xee\xdb~\xce.\xd4\xdd\xdb\x15\x87\xd0\xe6\x96\xb9\xe8\x0f]~\x9c\xf5(\x8a{|v\xee\xebSBgR\xca\xeb\x1dl\x17\x1aWI0r\xc943\x00\xcax`\xdc\x8e\x9dy\'\xf9aC\n5o1z\x1b\xd7\xd0Z\xdf3\x86\x16m\x08\x05,i`\x0b\x96\xb9\xdf\xd5\xc1o\xb7\xc7\xd0;\xb9\x1a\xca\xd3c\xd2\xf7\x1a\x99\xea\x14b\x8aIFW\xc01\xae\x0eN1\x8f\xfd\x8e3\x9e\x89\xcd\xaa2\x10\xb4A\x04\xadI\xd2\x00\xa8\xb9c\xb8\xfbm\xf0"DAD\xcc5F\xfc\x81a\xfdM9\xd0o\xf5\x14\xc7;~\xa3\xfdaRh[^\xa7\x9ez\xe8*\x16Y\'z%Y\xc7\xbe$\x0eb\x89\x03*\xbb\x85\x0c\t)\xb8\x0c\xe7\x8e\x9f?\x08\xf8\x1f=\xcc\xf3\x84GZ"*\n\xe2(\x87r\xf4I\xde\x8eh\xd4\xdc\xbe\xe3\x04\xbe \xf1NS\x91\xe4F ZA\x08Ij\x02*\\\xb0\x14$\nR\x9d\x1f\x1c\xf2w\x97\xbd\x9a\x93\xba\x1a\x86\xaa\xe3q\xad\x9c\xd3\xb5D\xcfGN\xf5\x12\x14\x8e7\x98\xb2\xe4\xfe\x92\xc1U2\xb8\x03#\x1f\xb7]+\xe0N\r\x95\xcb\xa0\xcb\xaa$$\x08\x89\x84\x90\xb2R\x07\x9bK\x1d\xb9\x97\xa5\xb75\r\xce_\x88\x7f\x10\xe6s\xe8\xb3\x10%c\xc4\xf0\xd3\x1e K,\x8f"VBY\x8f&amp;"\x841-[\x05\x0c\x81\x94nt^N\x180fc\xf3\x9c\xf5-\xff\x00\x86\x1a\x8a!\x804\x86p(Y\xads\xe9\xcd\xfdb(\xb3\x06,\x14%d\x18\xa1EJ*\n7\x1e\xb7\'\x9b\xf6/\x8f\xa0?z\xa9\x968f\x9d\xe3/\x06\xe5\xc3\xee\x04\x1c3\x0e\x06wy\xf8 \x1c\x9c\x8c\xe0u\xc4\x1c\xf31J\x12\xda\x88`\x0bT\x06c{\n\xeeO\xa5q\xd6\xbe\x1d\xc9\xbf\x193\xa9GS\x93w,hMO+z\\\xd4b\x8bku\xa0\x96\x96P$p\xca\x15\xf68$\x15$\x90&lt;r?\xb1\xce|\xf03\xd3/.\xe2\x05~$i*\r\x11A\xc1"\x8ej\xe0\x8d\x87\xcd\x9b\x13.Y\xc3)\x80P\xa0\x84\x92\xc0\xb3$\xec\x0b\x8a_\xa9olS]SG5T\xf5\t\x07\xd2\xfe\xe0\xf6#\xdcP\x12\xc4\x85by\x04\x1d\xa3\x82A\\\xf29\xeaB\x8b\x0e6}\x97\x98Ir\xa0\x90\x01\xd5Z\xdd\xfc\xcej(^\xf4\xc4\xb5\xc3\xb3J\xc9\xa1\xc5*R\x92\x95h\xd2\x01 \r.,(\x19\xef\xbfAA\\5}^\xbd\xb3\xadd\x13\xca\x92\xc5\x1b\x13\x10\x8aL\xb6\x07\xc1*\xcd\x9c\x029&lt;\x7f\x8c\x1e\xa3UpL\xfe]1\x121\x84\xa2\x16\xa5\x17w\x0cM\xc5}[\xfe\xb0\x8f?\xe2\x01&lt;\x145\x15\x14\xebguT\x01wq\xd2\xf7r\xf8\x83\xe8\xeb\xc6\xb2\xa9yo\xf6\xfa+\x9dQ\xa4|,\xb4\xfe\xe1_z\x16f\xday\xc9\x03\x9c\x900q\x80O\xcb\x93-\xc8 \xf8Z\xe3\xac\xa1l\x96\x0e\xd5\x00\x96\xe4\xe4\x9b\xb7\xb0\x07\x10\xfek=3\x14\xbaP@\x04\xbb\n\x10\x0b\xd5\x9f\xf7\x18\xa8\xbd\xbf\xd0\xf7\xbdA\xdf\x8b\xf5\xf3T[\xaa\xe8\xee\xd7\x1b\xe5m\xd9a\xac\x8c\xac\xad\rE\xcc\xed\x94\x89&lt;\x02\x03\x10\x0e\n\x9f\x8d\xc7\xa49\x86[\x0f^\x9f\x10\x90\x02\x87\xe6\xb8\xa9\xe7\xbd:\xf2z\xb0Iy\xa8\x8a^\xa5 \x82\x15G\x15\xd8\xb9w.~\xbc\xb0\xdcn\x9e\x9ct~\xaa\xd1\x91\xd2\xdc\xe9\xe1\xaa\x86\xae\x97eZ;2\xfb\xf0\xc8\xa1^0Ter\x8cW\x83\x91\x9c}G\x1dh\x95\xcb i$\xe9$\x1d\xc0\'rn\xfb\xd5\x9b\x04\xbf\xbaL\x05\xc3\x84\xc7J\x94\x94\x96\xb3\x12\x01z\x8e\x7fKac\xf7\xcf\xf0\xb6\xed\xae\xa8\xa6\xbc\xc3n\xb2Zm\xb4w\x08\xc7\xb8\xcf\x18\xa9v\x1brp\x18\xab\x0c\xb2\x86\x18R\xdb\x95N1\x93\xd6\xe8\x90\x91\x00\x1d\x00Y\xec6&gt;\xdd\x9b\x90/\xc8\x8a\xa5\xbf\x14\x0e\xa3C\xd5\xd9\xa8\xec\x7fv&lt;\xdf\x15\xbfG\xfe\x10\xfan\x86\t\xed\x14l?\x85V\xd4A%\\Q\xc3\x15&lt;u\x0b\x17(\xb2\x12\xfb\xb0@`X\x0c(\xc08&gt;E\xcc\xc33.\xa2\x00\xa3m\xb0\xe7\xf4z\n\xb5N&lt;\x85\x95\x081\x01\x14\x14\xb3}\x059\xd4\x17\xbd\x9c\xe1\x99zS\xf4y\xa0;\x19w\xa7\xb7i\x9b\x1d\n\xdc!\xa4\x94\xdc+\xda8^X\xcb\xcf\x1c\x8c\x80\x95\x12\x1f\x087\x02A\x039\xc9\x19\x0f\xfd\xa9\x06:VH\x00\x174\x07j\x06\xfb\xad{9a\xc40e\xc8JAd\xd5\x80\xb3\x81g\xe6\xd6z\x92q#\xf5\xc7\xe9\xd6\xc1\xde\x9b}.\x8f\xaf\xa7\x8de\xac\xa2Y\xe0\x9a0\x88\xd1K\x1a!\x8eL\x93\x83\x95\xcf\x19\xdc\x08\xe7\xcfD\x0c\x04\xc2\x0e6,\x18\xd2\xe3b\xef\xf3\x16\xe9\x8c\xa1\x8f\x18\x12\xa6\x1c\xde\x97\x03\x1c\xd3\xf7#\xf0\xcc\xee6\x95\xa5\xd4\xd6\xbbdkt\xfe*\xfe\xdd\xbe\xef3Bj\xe8\nK\xee\xa9\xa5&amp;\xa1J\x86\x05\x91\xb7\x05\x03\x04g\xa5R\xfaR\x02\x8aR\xc5\xdd\xd2\r\x988p\xe4\x90\x07\xa1\xe4\xee\xdf\xcc\xb2\xf9\x95LD0_\xc3d\x94\xb33\xe9\x0e6\xde\x9e\xdb\xe29\xd9\xbfH\xfe\xa9\xf4X\xa8\x86\xd9u\xae\xad\xaei"4t5\xd5\rMM\x1a\xc6\xea\xc0\xadC\xd4\xcc\x12S\x8e\x1b\xdc\xdb\x9f\'\xc9\x19FJb\x96\t\x1d\x19 ^\xedM\x87`\xee\xf4\xc05I\xcd\xc3XTU\x12\x91v$\xee\x00\xb1 Z\xcc\x1b}\xb0\xf2};i\xae\xee\xc3j\x82\xa3\xb8\xdav[}\xf2\x8e\x98\xdb+\xe6j\xa8+"\xab\x11$%*\x16xeea$\x9b\xc6\t,&lt;\x9c\x02\x0fH\xc4\x82\xb5\xea"\x954,*i\xb9\xbd\xaa\xdb\x8e\xebcDx\x01.u0\n\xff\x00\xba\xd2\x8d\xcc\x8ao\x8c\x14E\xb4_\xa9m\x01|\xdfN)\xa85\xbd\x8a\xeb,)\xf4\x98\xb1,Q\xbb)\x18\x19U\x0c\xd8\\\xb6F1\x93\x9e\x9e\x9c=\x07\xc5A\x86\x90\xea*)\x15\xa9\xa3\xd3`\xc7\xaf\xbe\x19S\x8c\x85E\x0bc\xa1\xc9&amp;\xa4\xb0pM\xf9\xfb\xfb\x07]\xeb?\xd7\x15\x1e\x9f\xd3\xd7K%\x1d\xd2U\x9aj7\xdaPN\xaf\x19x\xd3j\x8c\x06\xdc\x08\x07\x80\x08\x1f8\xc8\xcc\xf3\xc1_\x0e\xe73\xa8\xd0\xb5\xc2\xd4\x85-\xca\x94\x90XQ\xdc\x92\xff\x00\xcd\x88\xa6"\x8e%\xe2\xe9&lt;\x9a\x1cH\xa5L\xa1FbjM\xff\x00/*P\xd0S\x91\x1c\xc6w\'\xb9\xf7\xad{v\xa9\xae\xb9\xd6\xd5U\xd2\x19\x18\xc1O,\x84\x80=\xc7}\xc5Kc\x1b\xa4\'\x04g dx\xcd\xf6\xe0O\x87p8k-\x830 A\xf1\x12\x90KC\x86\xe0\x90\x05H\x04\x93N|\xb1P~!|J\x8d\x9dE\x8b+\xe3E\xf0\x94\xc0\x02\xb8\x85$j%\xc0%\x9b\xd3\xb3`A+\xac\xca\xd8;p[\x18\x04\xe3\x9f\xecr\x07\x1f\xed\xc7\x07\xa9J\x00\x1a\\$%\xc0,\x00\x17~@_\x10\\EkZ\xd6?\xe4\xa2\xafz\xe3\x1clW \xf2\xbe\x01\xdb\xff\x00\xe8\x0f\x81\xfd\xfaZ\x80\x18\x16\xadk\xeb\x8c1\xf4+\xd76\x8a\xddsc\xad\x86\xda\x0f\xe6\xa4\x8b\xdc\x862\x00\x1b\x81\x1cd2\xe3 \x93\x9c\x123\x9d\xbf\x1dp\xaf&gt;\xcb&amp;\xa2\xa5KB\x94A\x00\xb0M\xael\t\xdb\x95\xec\xf6\xc7e21\x13.\x98JV\x87 \xa9\xc7\xe5\xe4\x1e\xa0\x8d\xb7\xec*\xd8\xa1\xfa\xb7\xb7\x9a\x96\x96\x9eh\xaf\x00\xc3U\xeeH\x11\x14\xb34I\x13\x18\xce\xe2\n\xe3#q\xfe\x9cp0x=3\xf2\xbc\xa6"&amp;\x01.\xa2b*\x85755\xa9\xb9m\x98\x9e\xaeq3d\xb9\xbc\t\x83\x0c-%"\xc5D\xea\xb2F\xd4p\xff\x00m\x8a\x8f\xad-U\xb6;\xac24\x99\x88\x12\x0b\xbf\x04\x90\x84\xedU,C\x10~w~\xff\x00\xbfS\xd7\x06\xcbxQ\x90\x98\x88d\x1d\x0e\xe0\xb5\x12O\xb7\xe9\xbe\x1e\xd3r\x90\xe6\xe4\x9eZ/\x98$\x15$&amp;\xc4\x90E\x8b\xb3\x03Sr\x0e\x02\x1a\x86Xk\xe4\xaa\x92\xa6X\xe3\xd8\xa43&lt;\x88\xa4\x83\x82\xc4\xae\xf1\x82Fp\x06O \xe3\x18\xeaX\xe2\x0c\xb3/\x89 \x15\x0e\x0c"\xb4\xc1R\xcb$\x10\xe1\x0eh\xd4\xb1,\x1e\x95\xeb\x88\xd1i\x8b/0\xa4G\nP*\xd3\xe6,\x08,\tb\xfbu\xb1\xc2\x8d\xa6\xef\xc7\xa8\x9a\x9fR7\xbd\'\xda\x9a\x1b\xfd\xe7H\xe9\xab\xb8[\x9e\x9f\xb2E$\x8b=\x0f\xe7\xa6\x8cL\xd1C\x13\x05i#\x8c\xed\xdc\xaf\xb8\x00I\xc1\xea\xa4q\x14i\xf5f\x1e\x0c\xa2\x97\n\x1aV\xa7\xd1f\nm\xadA\xe8\x1e\x86\xd8qF\xcbr\xc8yy\x9a\x8b\x12\x18%/\xa0\xa0\x06:\\\x8dZ\x89\xdf\x95E@\xc3\x18\xba\xd2\xea\tk-=\xcb\xd4\xb6J\xfd5s\xba\xc2\xd6\xf4\xa4\xb8S\xb5=\xc3m8\x8e\xa5\xfd\xe8\xd8#\x02\x8f1\x07\x08\x08 \x80~\x02(\x88\x9a\\ \xa8\x91T\x85$\x14\xa8\x17%^W*\x05\xd8;[\xb6\x18\x012\x91\xe3\xa8\xc1BB\x12\xa5\x02\x00\xa1 \xb8&gt;\xd4z\xf2\xb0\xc1.\xc1\xdd;\x9c\x8b\x05\x13\\\xaa\xe3\xa6\x8dB\xff\x00\xae\xc5\xb0NC"m\x00\xb1\x00aI\xf3\xc1\'\x9e\x87\xc3\x9d\x8d\x01ZJ\x8a\x805/\xd6\xb4\xabs\xdf\xe8\xc4\xd5+.\x12\x93\xe1%\xc7\x98)\x9a\xb4 \xb5\x9fa\xfb\xe0\x95\x16\xb6\xb7V$mR\xf3U\xaa\x9cH\xd5Y\\\x81\x9ey\xc8$c\x81\x8f\x19\xfe\xdd-Nd\x95\x16Run\\\x8e\x9dN\xf8\xd8\x89U\xa9:\xa1\xa8\x87\xa5\x03\xda\xae\xef\xfa\xb6\xf8\x1f\xf7\x13\xbf\x96\x1d\x13i\x9ah\xdf\xf2\xf4T\xf0\xd4Mq\x96\x03\x1f\xb9\r$I\xbeFV*\xac\xad\xb1X)\x04\x1f\xb0\xc8\xc7Y\x99\xf4/\xc8\x8856PS\xb9 \xb3\x06 sw\xab\x1e\x8c\xb2ZP\xa8\x85E\x8d\xa4\x85\x90AK\xb8\x1d\xcd)\xf2\x18RW\xef\xc5\xe6\xc5_\xdc+\xfe\x8d\xed\xf5\r\xf3O\x8b\x0c\xa6\x9e\xa2\xe1[O\xed\xad\xe68\xd62\xf2\xc1r\xfc\xab$\xbe\xf3\xb0\xd8\x8c\xe7\x08\xbf\xaf\xe9\xc7B\xa6\x955\xa8\xa9\x10\xd6\xc7`^\xc1\xbew\xab_\xb6\x17\xc5\x8b-\x05&amp;\x11R\x16M5\x00\x07\xb0\xa0\x1b\xfe\x8c\xe0`\xd5\xdb\xcf\xc4\xc3\xb6\xbd\xcb\xd4V\xee\xd</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -604,6 +722,10 @@
           <t>Ramon Abatti Abel</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -614,6 +736,10 @@
           <t>Paulo Cesar Zanovelli da Silva</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -624,6 +750,14 @@
           <t>Maguielson Lima Barbosa</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00H\x00H\x00\x00\xff\xe2\x01\xd8ICC_PROFILE\x00\x01\x01\x00\x00\x01\xc8\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x07\xe0\x00\x01\x00\x01\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00$rXYZ\x00\x00\x01\x14\x00\x00\x00\x14gXYZ\x00\x00\x01(\x00\x00\x00\x14bXYZ\x00\x00\x01&lt;\x00\x00\x00\x14wtpt\x00\x00\x01P\x00\x00\x00\x14rTRC\x00\x00\x01d\x00\x00\x00(gTRC\x00\x00\x01d\x00\x00\x00(bTRC\x00\x00\x01d\x00\x00\x00(cprt\x00\x00\x01\x8c\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00\x08\x00\x00\x00\x1c\x00s\x00R\x00G\x00BXYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfXYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-para\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00C\x00\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\xff\xdb\x00C\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x01\x05\x00\x03\x00\x03\x00\x00\x00\x00\x00\x00\x00\x00\x00\x07\x05\x06\x08\t\n\x02\x03\x04\x00\x01\x0b\xff\xc4\x00&lt;\x10\x00\x02\x01\x03\x02\x04\x04\x04\x03\x07\x03\x04\x03\x01\x00\x00\x01\x02\x03\x04\x05\x11\x06!\x00\x07\x121\x08\x13AQ\x14"aq\t\x81\xa1\x15#2B\x91\xb1\xf0\xc1\xd1\xe1\n\x16$R\x173br\xff\xc4\x00\x1d\x01\x00\x01\x05\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x06\x03\x04\x05\x07\x08\x02\x01\x00\t\xff\xc4\x00;\x11\x00\x01\x02\x04\x04\x04\x04\x04\x05\x04\x01\x05\x01\x01\x00\x00\x01\x02\x11\x03\x04!1\x00\x05AQ\x12aq\x81\x06\x13\x91\xf0"\xa1\xb1\xc1\x072B\xd1\xe1\x14#R\xf13\x08\x15$br4\x82\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xcf\xcc\xb0H\xa4\xab.6\x00\x82\x0b\x10{\x1d\x860p}N\xdf\x9e8,Z&lt;\xb5\x14\x97-\xf5\xd6\xbb\x8ai\xfc\xc0y\xfcI\x1e\x8cva\xce\xcdrv\xc2YVG`\xa7\x00z\x13\xb7\xe6{\xe7\xf3\xc7\t&amp;"\xa0\xac\x10\xf4\xa8\x1a\x81^\x9f\xc0\xd7\x7fU\x04)-\xab\x17\xda\xb7\xf7\xaf\'\xc2\xd5-\xd5\x960\xad\x80\xc4\x81\xdf\xbe2\x07~\xd8\x1d\xbe\xfd\xfbfn[4\x8a\x94\xb2TE\x0e\xa0\x16p\xc7Fm\xf1\x18\xb9D\x98\x87\xe1\x14\x04\xed\xa8\xbd\xf7\xd6\xdfNUw\x07x\xca\x97\\6\xf8\x04}\x06\xc4\x0f\xbf\xd0\x1f\xbexFfz,g\x04\x92\r\x83\xdd\x9c\xeb\xa30?}U\x81-\r+\x14\xae\x8d\xd7\xa73\xd2\x8dl#u\x0c\xa9 \x13\xb8\x07\xab\xeb\x9f\xef\x81\xbf\xf6\xe2)J&lt;D(\x17q^g\xdd\xf9a\xe1\x86\x13\x18\xb5\x18\x8a}\x0blG\xb6\xc7\x16V-\xd2\xb8`v\xc7\xd7\xbfq\x82\x7f\xe3\xb7\x1d\x84\x95\x02\xda{\xf7\xd4c\xd8\xab\t!\xd9\x86\xf6\xd1\xde\xa3L9\xec\x16\x96\x9au\x91\x86\x14\x10H\xe9,w\x04\x0f\xb9\xdf\x1e\xc3\x7fn\n\xf2l\x90\xce&amp;\x1c@\xfc \x8d\t\xa5zV\x9c\xfex\x84\xcc\xa7\x08Ib\x18\xea\x0f\xc9\xa9\xa6\xa7\xf9\xc1n\x01l\xb2\xd2\xa5M\xca\xb6\x8a\x86\x982/\x9bU:\xc0\xac\xed\xb2\xa0\x05\xba\x89b\xc0\x1e\x85\x92E\x1b\xa21\x1c[\xd9t\t9\tT"ai\x84\xc41$\x02\xa6\x01\xaeA\x02\x95\xd3\xd7\x02q\xd3\x1eb\xb0\xc1,\xa2\\9}\rup\x0b\x80\xdfLx5W7\xb9y\xa0\xe9b\x9a\xf9\xa9)%\x92l\x08(h\xa4\xa6\xaa\xb8I\x8c\xb3;SST?\x94\x00\x1d*\xf2\x98\xe29R\xcc\xa7\xa8\x0f\xb3\x0f\x18\xf8{-\x84|\xd8\xdcD\x02\x9f\x85H,\xc2\x8e\xeb\xe5\xad4\xadN\x13\x81\xe1\xf9\x99\xa59\x04=\\\x859\x1a\xd8\rH\xecy`7S\xe3\x07\x97R\t\xcc6\xadC\xf0\xe8\xd1\xaa\xcc\xf1[\xe3\x99\xe2i\x1a#:@\xd5\xff\x00\xbd^\xa4\xc2\x08d\x93\xccfDc\x03\xb8R*\xaf\xc5,\xa0\x95B\x97r\x80O\t*M\\9p\xfb\xfa\x11lL\xc3\xf0\x84\xca\x08V\x85\x89piP\x7foM\x89\x18V\x1c\xdb\xd2Z\x9a(e\xb6\xde\xe8\xfc\xca\xa8\xd4CES&lt;T\xd5\xec\n\xf5t\xbd,\x8d\x13+\x00\xdd9\x8b\xcf\x0e\xc0\x80W\x03\x88\x0c\xc3\xc6Rs\xbcA&amp;\xaaI\xe1\xa8\xa9\xa9\x02\xf5\x1dX\xfc\xb1#\x07\'\x8b\x03\x84]\x88r\x01!\x86\x8cCQ\x8d\xb9u\xc1O\x91\x15\xa6}h\xceO\xccU\xc0\xc1\xea/\x9c\x9d\xc60@ 7\xd3\x03\x03\xd3\x8a{\xc73Fg.\x88\rG\x0b\x91\xb5\xdd\x8fv\xc4\xb2 \x04)\x04\r\x83T\xd5\xaa\xfdk\xa6\xf8\xb8\xcd\x1f\x0b~\xcb\x80\x10\x08\xf2\x89+\xbe@\x07\x1d\xbb\r\x8fo\xf8\xe3$G\x03\xfe\xe0\xab\xff\x00\xc85\x1a6\x9e\xae\xd7\xe8\x0e/?\x06(%\x10\x87\xff\x00-\xb7\xe6OV\xd6\xc3F\xb50\x03\xd6p2\xea\n\xe0s\xbb\x93\xb0\xf4f|~\x80\r\xbf,z\xdf\x1e\x1f\xff\x00\xf1\xa3\x9a\x12[j\x0fv\xd7\x1a\xdf\xc3g\x8aM\x1d\x12\xef\xc8\x02y\xfb\xd3\x03\xfa\xe8\x02\x8e\x93\xf2d\x12\xbe\xfb\xe7&gt;\xe7\x7f]\xcf\xb7\x12\x137\xee&gt;\x98\'L _\xee\xed\xd2\x9a\xe1\x9b_H\xa5Yp\x07N[\x1de\x89\xc0;\x1c\x9f\\\x7fR}\xb8f\x1c%\xecC\x91\xeaZ\xdfn\xd8u\x0e\x17\xc4\x92l\xe9\xf5\x06\xac\xcdN\xb8nL\x9d$\x83\xf6\x1b\x9d\x88\xc0\x1f\xdco\xc7\x05d\xed[\xe1\xf7\nv\x1e\x98O\xab\xa7c\x03\xb1L`d\xb6\x08,7;g\xeb\x8fO\xeb\xc7\x18F*@M\x07\xd7q\x86\x8c\xa7\x0cH!NO\xbeN\xe7\xea?\xcf\xb6\xdf{\xf7\xef\xf8f\xb0H\x0c\x1e\xbe\xfd\xb7\xf2\x0f\xbbZ|\xa2\xef\xd4\x00\x1b\r\xb7a\x93\xf5\xfc\xff\x00#\x8d\xb6:G=\xca\x95\tj)G\trC\x00\x1e\xb6\r\xd3\x9d\x9b\x1f\x932Y\x82\x16\x90\x93R\xda\xee\xdb\x17/}A\xe6p7\xae\x06\x16e\xcfN[n\xaf\x94g\xff\x00\xceH\xf7\xfc\xfe\xbe\x81\x91\x10a\x90\\\xbd\xabS\xdd\xff\x00\x9e\xb8\x9d\x97\x88\x92*.\t6;}\xc7m\xe9\x8f\x1cnrs\x9e\xa0=v\xf5\x1f\x9e}\x7f\xaf\x1c\xa0\x9e#SQ\xa56\xdb\x1e\xc4\x0fP\x9b\x9d\x06\x8cv\x16\xc7s\xcd\xd4\x14\xf7\xdb\xb9&gt;\xbe\xa3\xef\xff\x00\x1d\xc7\nc\xd4\xa4$i\xdbA\xee\xb8\xed\x8c\xb3\xbezC(\xc61\xfe\xc3\xd7?\xd3\xfa\x01\xe9\x05@$\\\x9a\x96ws\xae\xb4~xD\xd2!YS\x82\xdf/\xbf\xd7\xb6\x17\xed\xd6\xd6\xa8\x922RL\x93\x9e\x9e\x96\xce\xe7n\xfe\x9f_oN\t\xb2\x8c\xa6$\xc9JJ\t\n 9\xd8\x9a\xbd\x07\xd5\xab\x88\xa9\xf9\x84\xfcL\xaa\xb5kBZ\x80}\xf5v\xe9\x82\xc5\x9e\xdd\x15\x1c^|\xe8\x12(\xa32H\xcc6H\xd0\x12\xed\xd2\xdb\x1e\x85=@\x1cv\x00\x95\xceE\xc1\x95H\xc2\x91\x91\x8a\xb8\xa1\x08\xfe\x8d\x05N@\x01\\ \xd0\xd9\xed\xcd\xe9[`Fnmq\x8ae\xe1\xb9u\x04\xd2\xe5\xc8\x1d]\x9c3\x9b\xe81\t\xbcF\xf3\xe4\xd0]\xa3\xb2\xd8!\xad\x8e\x92\x9e\x9cTW]i\x9aJ\x98"\xad\xaa\xe9\x8a;|/G\xf1\x14\x02\xb8\xdbi`\xac\x91\x9b\xcd\xae\xb5\xd3\xdcQ&amp;Jj\x80i\xa3\xa5|Y\xe2U\xe6s\n\x12\xd1T\x8f&amp;"\x92D8\x8aH)\x06\x85\x92\x037\'\x0c\xce\xd87\xc9r\xc4\xcb\xc9\xa6,d\x82T\xc0q\x876\x15ro\xdc\xf2\xc4/\xadI\xeeUT\xd2\xd3\xd6\n\xba\x8a\xe2\xd5uu\x925I\x8d\'23\xc3D\xd4\xef:\xd2\xfc\x15|\x12\xb4r?\xc2\xe2\xddSL!\x85\xa1\x8d\xa3f\x00\x8d51\x10\xb4U\x95\x06fZ\xca\xb5\xff\x00\xda\xf4\xb9j\x87\xae\x98\'\x83\x06\x02\x7f*\x03Z\x88\xb0\xa1qmk\xae\x9a\xd7\x0e\xab~\x9a\xba\xbbQQSZ\xa6\xaa\xa7\xa6\x82\xf54\xd3\x15\x7f9\x92j$\xa8\xa0Jw\xa9P\xd2\nJ\xc8\xde\x9e@\x8d\'ZO\xd5\x1bH\xe2\x17f*\x9b\x95\x97\x04\xadP\xd2\xb1p\xe9M\xcf\xa5-M\xaf\x87i\x93\x99\x8c\xa3\xe5CZ\x90l@5\x04t\x0f\xeao\xea\xe2\xa4\xd3Z\x9f\xe0\xe9\xe5\xa8\xb3\xdca\xad\x85\xa5{`jI\x15b\xf8q\x14\xf2+T\xa2\ti#\x929#4\xdegLA\x92O(\xb3|OK5gR\xa9Q)\x8c\x80G\xfe\xfbz[^\xb6\xd3\x0e\xbf\xecS\xeaM`Dcs\xc0Z\xbd\xdc_\xafLK?\x0f|\xea\x9bCj\nC\xae\xe8\xeb\xd2\x1aQML\xd5\rO-U@\xf3dZr\xb2\x05\x85\xa6\xad1A\x1c\x95^d!\xd9\xa0\x8eB\xbd\x89\xe3\xe9\xb9\xb4\xe6R\x11\x00ZTJh\x1d\xc5\xb9\x92\xcc\xf5gqP\xfaD\xcd\xe5\x91eV\x9e8j`\xa1\xf1p\xa8X\x91\xf0\x9e\x8fO\xa1q\x8d\x17r\xa2\xfbi\xd5\x9aF\xd7~\xd3\xd7\x1a[\xb5\xae\xbe\x99\x9e\x9a\xb6\x86Q4\x0c\xa9+D\xf1\xb1\x05\x9b\xceGV\x8eE\x94\xac\xb0\xc8\x1a\x16\n\xcb\x8e3\x96i\'5\'\x9b\x18\x8a\x86\xa1\rQ\x00\x14aB+@\xc0^\xbbi\xae-O\x07\xc1\x82\x94A!c\x8c\x90\x08p\r\x08.\xcfrC\x12\xd7\xe7\x80\xfe\xbb\x02-AW\x8c\xe0\xb1$g\x05GS\r\xc1\xdfs\xd5\xdf\x1f\xaf\x17.A\x0c\xc4\x93\x87\x14\x12\xe1"\xc4\x81a\xa3\xb0\x15\xb0\x1aU\x98cYxs\xe1\x93H\x05\xcb\x06\xa7!Nt?\xb6\x07\x95\xa5\x1a2H\xcfv\xcf|\x12v\x00\xff\x00\xa6\xd8\xfaw\xe2Z!\xe2Q\'v\xf4\xf7\x7f\xa5\xb0[\x07\xf2\xa3\xaf\xde\x9f&amp;\xc32\xb8\xa8\xfd\xe1\x0b\x9d\xf3\xbe[\x1888;\xe7a\xb0\x1fn\x1bD\xba\xba}\xb1"\x8f\xca;\xfdN\x19\x953\x9e\xa2@\xc8\x04\xf5g\xf8\xb1\xb6\xc4\x0f\x7f\xb0\xdb\xf5h\xa5\x009\x9d\xbe\xbc\xb0\xb25\xed\xf7\xc2uM\xc5&lt;\x96\x8c\x10\xbb\x11\x8c\xef\xdb\x1d\x8f\xb1\xed\xef\xb68D\x1b\xb1\xea\xc7\xeb\xe9\x8f\xa2$\x14X\x00\xf7\x00r}:m\xf6-)\x8aHIb\x7f\x89\x88\xee\x0e\x0fo\xcb\xf4\xe3\xd7;\x9fS\x86!\x15%\x9e\xf4kW\x0c{\xfc\x0b\x14\x0e\x00\x04\x85\x0cr\x06{\xe0\xe38\xf5\xdb\xd7=\xfbdq\xb6|C+\x0c\x85(\xf0\x82C\xde\xd55\xf9\xefzc\xf1\xa7)R\x94@\x06\xa0\x83P^\xcf\xca\xbc\xaf\xb6\xd8\x06^\x08i\x1b n\xfe\x98!N\x0e\xd9\xec7\x18\xc1\xfc\xfd\x0f\x14\xceg\x0f\x85J\xe1\xa6\x81\xb9\x1f\xf5P\xcf\xdf\x07R\x89P\xbbY\xe9\xb3\x06\xeaG\xdcs\xc2@\x07*\xc7\xdb$w\xce6\x1e\xf9\xc89\xdb\xfdO\x11\xd0RY\xda\xc0\xbf\xa8?Oo\x87\xe41 \x9fJ\xb9\xdb\xf7\xe9\x8e@\x19\x0f\xca\xa4\xe0\xe4\xfa\x01\xbe\xe3\xef\xec?^\xfc*\x92\x14@\x05\xc9\xe5\xa5?\x9c%\x10\x90\x1f\xf4\xeb\xd7\xf6\xf7\xb6\x1c6\xcb|\x95\x12\xa6C\x1c\x91\xdb\x00\x1c\x9c\x0c\xfbw\xc6\xff\x00_~&amp;\xf2\xfc\xb24u\xa0\x84\x02\t\x1a\xd4\xfcL\xc7\x91\x1a5i\x88\x89\xc9\x91\x0c*\xb6\x1b\x13g\xe8tp\x03\xfa\xe0\xbbd\xb3t\x85\xebP\x18`\x0e\xa0:@\xf4$\x82p\xbbnF\xf8\xf7\xe2\xea\xf0\xf6M\xe5BO\x1c4\x850\xe0f\xfc\xce\xc2\xb55w\xa8\xdf\x01\xb3\x93\xcb*Qr\xc9\xe2S\xbe\x8dZW\xef\xafv\'95\xa5M\x8e\xc5]\xa4\xf4\xfd\x1d\xd6\xa3SW\xd8.\x17\x88\xa6\xb5\xd6[\xa8\xde\x82\x8e\xdd\x14r3K-i\xeasS,\xb4\xb1%\x1d\xbe9+\xab\xa9\xe5\x92\nx\xfe%\x96D\x17\xfcG\xf1\x0c\x1c\xaaEr\x12\xf1\n&amp;\xd6\x92\x88\xc3\xe2\t\xfd&lt;LF\xf5r\xf6\xd4[\x12\xfe\x1a\xcb\x7f\xab\x9b\x81\x1a*^\x1cB\x16\x82kF\xe2\x05\x88&amp;\xcc~W\x18\x00r+\xc1\xb7=y\xd7b1S\xd3]R\xca\xb7I\xef&amp;\x1a\xc5\x92*).\x17\x18\xe2\xf8\xca\xf3\xe6\xbc)UQ&lt;T\xd4t\x8bQ\x99\xd9ih\xe9\xa3\x8c\x98B\x16\xc7\xd9\xdf\x8b\xa1e\x8a$DW\x9a\xb5,\xae\x8a\x005i\xa1\xab\xef@\r\xb1\xa1\xfc7\xe0\xe8\xb9\xda\x94\x84!\x1f\xd3\xc3H\x00\x92\x90x\xde\xc4\x1e@w\xa6\xa7\x13\xfbI\xfe\x11\x9c\xd3\xab\x96\x94\xfc\x1d\xb3\xe61T\xad\\\x86\x8e\x9e\x9f\xa9I\xeaW\x8aEi\x1d\x81=M\x86\xc3\x11\x91\xb1\x07\x80I\xbf\xc4H\xa4\x91\rF\xe6\xe4\x83\xa1\xa3\xb5\t {ag\xca~\x17B\x85\xc3\xe7 ud\x10\xdc\xae[\xde\xd8\x9b\xdc\xbf\xfc3\xc6\x9c42\xea\x9b\xd5\x8et\xa7H\xd2\xae\xdbMj\x82h\xa5=,\x95\x114\x8c2\x1f\n\x8c\xac\x02\xaf[\x12\xdeh\x1d\x1c\tf~3\x9f\x8f\xc6S\x11\\Ge)\x9c1\xfa\x0295\xb4\xc1~Y\xe0)\te%\x0b\x86\x95\x00Ar\x94\x92\xc6\xb5\r\xd3R\x19\xb5\xa91\\\xfc\x17r\xd3\xe0M\x1cv\xc8\xa6\x91VX\xe2\xcd%"K\x1c,\xa6&amp;\xa73\x08\x01\x96\x15U\xeb\x8c0_-\x8e\xdbl\x06\x91\xe2l\xdc\xc4\xa2\x94\\\x90&gt;2^\xa7B\xaa=4&lt;\xb9\x97\x9f\x07\xe4\xdeQt\x00\xc9\xd1\x08a\xae\x83]Hz\xdb\x9c\x19\xe7\'\xe1\xbfu\xd44\xf5\xd7M\x15-E=m\xbaf\xab\xa4\x81)bcU\xf0\xc2c\xfcQ\xb4~Pt\x9e\xa0\x05\x90`\xab\x88\xd8\x15\xd8\x9a\xe4\x9e,\xcca\xc5L(\xef\xc0I\x05\x94T\xe3\x9dC\x06\xb3\x1a\xf2\xc0\x1f\x8a&lt;\t\x97D\x93TIp\x9e0\x03\x06H\xaf\xa5K\xbb\xb1\xe4\xf7\xc4\x00\xf0\xf5\xe2+\x98\x9e\x14y\xb3U\xa65\xc4\x17J\xad\x1f,\xb3\xc1\xaat\xdc\xf3LD+QU\x12M\xa8,k:\xad-=\xde(#i*)\x16\x13Ot\xa5_\xe5\xaev\x92[Ar\xb9~w"\x16\x80\x0c\xc2\x13\xc7P\x06\x96r7-\xd4jI\xc5\x1b\x08\xc4\xc8gT#\x92\x98))H)u~\xa1P\x01zT\x9a3\xeak\x8ba\xd4\xba\xa2\xcf\xaa*(\xf5-\x86\xad+,\xb7\xdbm\x1d\xca\xdbS\x11\xe9I\xe9j\xd5\xaa\x12^\x9c)L\xf9\x98e`\x1dX\x11&amp;\x1b&lt;H\xe4P\xa2\xc9\xc1\\\xbcd\xb5\xc2Z\xa0|,\xee\x1fF5\xae\x95\xc6\xb3\xf0\\\xe2fr\xb8\x13iW\x1c5\xa5\x01$?\x15P.4\xbb\x93\xc8\x8c5d\x97\xa8\x10p\x15\x87\xfe\xfe\xa3\xf2\xc6={p\xf1A\x94\xa1\xa8\'\x16$+\'\xb1m\x81.&gt;Xj\\\t!\xc0d\xc1\xd8aO\xb1\xecr0p2\x08\xfe\x98\xc0\xe1\xa4u\x84\x92\x0b\xd5\x85\x1d\xed\xc8\x1aR\xaeF\x1f\xa2\xa0{\xd4\xe1\x81s,\x85\xba\\\x80\xc0\xe7}\xce\x14\x9c\x7fQ\xdcz{p\xc1d\xb1._\xf9\xc2\xe9IK\xbe\xad\xf7\xc32j\xa2dU\xc9$62s\x81\xd8v\xceO\xa8\x19\xfdxE\xce\xe7\xd7\x1e\xad@\'\x84\x96r[\x99\x00\x11\xf4\xd7\x1e\xb8\xc0|\xb7R\xe4\xfa\xe39\xed\x9d\xb7\xc0\xcf\xa7\xeb\xc7&gt;eH%A\xba\xfd\xb0\x92PI% \x97\xbff\xd3\xdd\xf1&lt;u\xef\x80\xfdKG\xa6\'\xae\xccH\x0c\x01\xe2\x90t\xcb#\x12:\x94\x12\x11H?\xfbg\xeax\xd49\xaf\x89\x952T\x04B@}\xf9\xbd\x1f\x9f.\xc3\x1f\x8frYy\x80_\x84\x01w\x176\xb5\x87kS\xb6)\xfbZ\xe9[\x96\x98\xbb\xd5[nc\xcb\x9a\x9ef\x89\x82\x9e\xa0zKe\x9bs\xb9\xe9\xef\xbe2\x07\xa6x\x0f\x8f5\xfdA\xbb\xee\xfd\x9bJ0a\xf3\xd7\x04\x90\x12@sm\xde\xf6\xc3UQzF\x06X\x83\x85\xed\xd8w\xdf#\xdb\xb7\xa1\xef\xc7\x15J(\xeeM{\xd9\x9b\xa0\xeeq\xd2\xd5V\xa5\x08=\x7f\x8a\xe1J\xdbn\x9ai\x01\xe9\xd9\xb1\xb0\xef\x9f\xeb\xdf\xdb\xea&gt;\x983Y&gt;Z\xb9\xa8\xa2\x945=\x0b\x00\xfb\xdf\xa5G&lt;0\x9c\x9a\xf2\xd2I\xa5)\xb1\xadu\xf7\xa9\x1a\x16,vE@\x8c\xeb\x80w\xc9=\xb0G\xd3l\x81\xfd?3\xc5\xc7\x92\xf8|B\x85\rkMK\xb5\x06\xe4\xd43\xd0\x06\xde\xed\xcc/1\x9e%k\x01_\t\x01\xc3PR\xd7j\x165\x0f\xdb\x0f\xf4X\xe9\x101eP\xab\xd4\xfefJ\x84\xc6K\xfc\x80\xb1\\nq\xb8\x1e\x9c\x1d\x04\xa2JZ,C\xf0\x88p\xd4\xb2l\xc1)%\xe8\xcc\x03r \x0c@%j\x8b\x10$9\n \x1doK\x16\r\xc9\xad\xa6\x98\x9c\x7f\x86G\x85\xeb\x8f\xe2\x01\xceJ;V\xb5\xbd\xea\x1bw\x86.^]\xab5&amp;\xa7\xb1\xb5E%\x1d\x1e\xa5\xae\xa7\x863j\xb7\xcf\nP8\xbb[\xee\xd7\xcb\x0c\x17g\xb4\xddg\xad\x86\x18\x7fh3\xc1ISq\xacG\xc6\xff\x00\x89Y\xcf\xfd\xcb9\x89\xe5D%&lt;j\x14\xa5X\r\xdbN\\\xf4k\xb7\xc3\x99z\xe1"@\x88u0R@k\xba.\x00\xa1qwf\xa6\xcf\x8d1x\x96\xe4\x86\x83\xd3\xf6\x8d\x13\xa4yef\xb7S\xdb\xf4\xb5\xa6\x0bt)Io\xa3\xa2x\xe9)\xa2\xf2))\xca\xd3EO\x14k\x1c1\xa0T\x8a0\x89\xb8@\xa8\x02\x0c\xe3\xe39/8#\x85o\x10-E@\x11g\xb1\xa5C\x96\xda\x9acJ\xfe\x1bGT\xb0\x981\x90\x02J\xc2A\xad\x08M\xa8\xfat&gt;\xb8\x8c\x11r\xea\xec\x90R\xf9\xc9*6\x01P\x11d\x89\x17?8\x12\xaeHe\x04\x1c\xb1\xc6\x061\x8e+\x08\xb9\\`\xb3R\x0e\xce\x06\xc6\x8cM_\xbe\xd5\xc5\xd4\xac\xd2\x0f\xc0\xc9\x0fw\xe1\xa7\xcbSJs\xc2\xbbr\xf2\xe1\x08\x94QAQQ)X\xe4X\xe5\xf2\xfaO\\hY\xc0 \x0c\xee\xce\xa7\x00\x91\x8c\xef\x9c\xa1\x1aMh\x1c\x06\xfa\x92^\xfa\xbb\r\xd8r\xe60\xbag\xe0\xa9EN\x05\x80zPu\xebJ\xf3\xdb\x1d+\xcbz\x99 \xe9\xab\xb7\xcb\x1c\xf9\xea\x0eL#\xcc,rF}\x06I\xc8=\xc1\xdf\x1b\x8e9\x83"\xbe \xa6\xd7\xed\xbdo\xca\xf8J&gt;h?(4\xb5\xc9r^\xbb\x1e_\xec`\xb3\xcb])c\xb5\\%Y\xe8)Z)\x15\x16dzx\xa4Y\x87Ry\x84\x82\x00\x00\x10C)?0\xdbpx4\xcae\xa0\xd1J\x00\xa8\rtS\x10\xd64\xdbW\xdc\xbe\x02s\xb9\xc9\x88\x89(IXI\x07Z\x12\x1e\x97:\x07\x15\xa1mqO_\x8cg\x81=\x01{\xa6\xa5\xe7\x06\x81\xd2\xd4\xee/\xa6\x9e\xdf\xab)i\xa9m\xd1\xc7\x14\x10S\xb7M\xd6\x92)\x92$\x86\xb9i \x11BU\xfc\xb0\xcd\x99P\xa9wB\xf9&lt;\xc5rQ\x92\x97!\n! \x02w\x07z\xefPo\xae*\xdc\xdb)\xfe\xbaZi\x92\xf1\xb8\tN\xee\x01\xadurn\xfa\xb6)W\xc3\x85\xf7Pi\xea\x8b\xf7(\xf5\x94\x95\xcdq\xd3\xd5U\x17\x1b\x07\xed\'s \xb0T\xa5\x17M42K\x99\x1e\x9e\x19dy\xa0Y@\x90%Kd\x05@\xa2\xcf\x93\x8f\x06&lt;\xb2T\x828\xc8\xd8V\x80\xd0\xb5\x8b\xdfK\x9c\x1a~\x0egk\xe1\x89\x93N\x93\xc7\x05|)J\x9f\xf4\xa5\x9a\xa5\x8d\xabK\xb6%\xd4\x8eUPd\x80P2\x86\x00\x9c\x11\xb2\xb66\x04.\x062q\xdb~\x11\x89GQ\xd5\xfeT\x15\xad\xf1\xa3\xd0X\xd3\x90\xd9\xac\xde\x98j]$\x01]\xb7\xf9rH\xc7}\x8e\xd9\xf4\xdf\xd7\xe9\xbf\x11\xb1O\x13\x9e\xe3\xb7\xef_\\HC]\x1f\xefb\x1f\xebL\x0f\xaeRy\x80\xf4\xe4\xecI\xc9\xed\x91\x8d\xb3\xf7\xfap\xd5\x7f\x94\xf6\xfa\x8c)\xe6\x9f\xfd\xbdp\xc1\xb8\xbf\x97) \x1d\xfbm\x8cv\x07\xb7\xf4\x1e\xe7lp\x8e91C\x80\xa7\xad\xaa\xfe\x8f\x8f\xba:\xf5N\xae\xa69\xc6\x0f|z\x1e\xe3\xb1\xc9;};\xf6\xe1\x05\\\xf5?\\:\x85\x15!=\x1cj\xfa\x1b\xb5\xb9|\xf1\xaf&gt;g]t\xdd.\x8e\xb8=Lt\xc68\xe9\xd7\x18$\xae[\x000\xe9\xed\x92v#\xe5\x19\x18\x01x\xb6\xd3\x11jQbK\x905\xbb\x97`\xfar\xe7[\xe3\xf2ip\xc7\x00 3\x00i\xa9a\xec\xef\xd7\x19\x1b\xf1d-Qs&gt;\xef\x15\xaaX\x9a\x19\xbajr\x8c\x1f\xa1\x9d\x9dY6\xd8\x90O\xdf\x1e\xfc&lt;\x82\x92\x0b\x12^\xedNT\xa0\xae;A\x00\x175\xb9\xbf+?;\x0cFJJF\xa8\x96&lt;G\x906f\xe9oq\x90Nq\xdb&gt;\x83\xb7|q5)*\xa9\xa8\x81\t\x07Gk\xdd\xbd\xff\x00\x18g\x12:\x10T\xa2\xa1b\x01$uw4#\xbd\xb0V\xb1Y\xbapLLs\xbeH\xf5 \x0cv\xef\xea{\xfe\x9b\xdc^\x1b\xc8a\xc2Jb\x10\xb2X\x10\xec\x05@\xbd\x8e\xfa\x87\xde\xa0`G1\xcc\xd5\xc4S\xf0\\\x86\x0e\xfa\x81\xbf\xaf^\xe4\x88\xe9\x12\x04O\x97;\x0c\x0cv\xce\xfe\x9e\xb9\x19 {\xf1f\xc0\x85\xc0\x98p\xd0\x07\x11\x05\xde\xac\x06\xd6\xa0s\xfc`f&lt;P\xa2\x9a\xfesQWg/\xb7\xb6\xc7\x8e\xec\x8b52\xd0\xa3\xacR]g\xa5\xb4A#\xf5\xb6$\xb9TCH\x8a\x02\xb2\xb37\\\xe7!Hl\x00\x10\xa9\x1d\\\nx\xeb69?\x86\xe7\xa6B\x92#\x18Q\xa0\x80\xb0\xc9\xf8\xe1\xac8b\x08"\x8dc\xa8\xe5\'\xe1\xb9\x1f\xeb\xb3dK\xc4\x04\xc3B\x90\xaf\x842\xa8\xa0jK\x8br\xa7\xd3\\_\x87G\x87\x8d?\xe1c\x90\xb6\xadA;$w=e\xa6\xec\xd7\x81N\x8ej&lt;\xcf\x8d\xb7u\xa4\x87\xab\xcd\x9e\x9f\xae\xdf\xf0\xbee?_D2!\x8e8\xa2\x93\xac\x1c\x05\x99fK\x8b\x1dsJ\x88\xf1\x1dJbiW\xd2\xfa\xee\xc7\xa08\xd4\xf9\x1e]\xc4e\xd1\n\x13\xa6\x12R\x80\xe2\xa4p\xb1r\xe1\xc8\x17f\xad[\x05\xadI\xaa\xeb/w\x9f\x8b\x15\xfeAIOC\xba\xe5b\x8d\x9c\x94\x8c\xc3",\x8c:2\xa0\xb8m\xbf\x9b=\xc03\x19\xc5\xccF\\B\xa7UCh\xc0\xbb\xeb^\xf5l\\Y4\x94)h&gt;Z\x07\t*\xe3=H\xd8Q\x98r5\xde\xde\xcaJ\xf6yDe`\x96\x19T\xc2\xc8cQ\xd7#6\x19\xba\xe4!\x02\xb2c\xe5L6I9\xc0\xc0\x1a\x8b\x12!]E9\x86\xd0t\xb6\xbdm\x82\x94%K\xe1\n\xd0\x96`=&gt;\xef\xa51\xdb3\x8a)RH\xa3H|\x82\xe9\xe5\x89\x0b\x06^\x80\x00\xfeS\x80s\x8fLc\x04\x8c\x12\xda(Z\x8a\x94\xc1\x8e\xe9\rNn\xf7\x1f\\,!\x9e"\xc5@\xb0v6\x02\x8f\xe8F\x1b\x15\x97Z\xb9\xa6\x91V\x1c)\\\x19\x15HX\xc9\xc9\x1d%\xcf\xccI\xf6\'\xb8\xee\x0e\xfc&amp;2\x90\x02x\x12\x01\x1c?Gf\xb7\xbex\xedPJ\xb8\x94\xe4\x90=\xf3\xc3f\x9a\xe1QM^\xae\xf5\x12C\x10\x05\x83\xa0\x0b\x81\x9f\x98\x16 \x8c0\xd8\x1c\x13\xd5\x8d\xc8\xf9K\xe9X\xa1\n\x04\x12\x1c\xfc\xd9\xf6\xabR\xe5\xbexe\x1d\tZ\x14\x95\xa5\xe8\xe5\xaey\xeb]v8\xe1\xae\xe9\x870\xac6\xdd15\x0cw(\xd6q$\xeb2&lt;\x90\xcb\x11\x92^\x8e\xa4\xea\x19(\x92\x04%^3\xd0\x06\x08`\x18L\xc4\x8ec\x08a qC.\xee\xc4\xb0`iMM\x8d\xf6\xc0\xccH\x10\xe0*,P\xe5II\x01*\xfc\xa4\xd41\r[&gt;\x86\xc7S\x8c\xdex\xdf\xe5\xed\xb7\x95\xfe&amp;4~\xa1\xb4S%\xbe9\xadP\xd8o\x08\xd0\xab\xc74\x95f\xa6\x96*\xa7dq\xe5O1H\x97\xc9\x0b\xd2\x89\x0fXE\x0e\xa5l?\rL\x95Ar\xa7P \x01\xa31{\x8bU\x9d\xdfAq\x80\xdc\xa28\xca\xbcQ\x02f\x0f\xc2\xb9\x98\x8e\xb4\x1f\xca\x01*\xa2S}u\xd1\xaf\x84\x1a\x8c\xf53v$\x16\x05\x86\x08\x0cKn2:w;\x8d\x80\xc7`;\x12\xc7\x88b\xa4h\t\xd2\x9b\x9fN\xdd.q\xad`\xa8,\x82,P\x83\xb1\xf8\x80\'\x97\xa7\xa9\xc3:\xbeF&gt;b\x86\xc9\x04\xe4{\x81\xf4\xdblg\xdf\x1f\xa7\x11\xaaQM\xb5\x04\x1f\x96$O\xc2)\xfa\x85_J\x7f8`\\%X\xd9\xb6\xc1`\xdbzv\xf5\x00\xef\xef\xdc\xfd\xbd8n\xbf\xca{}F\x1b\xae(M\x9b\xbd6\xfd\xf5\xc0\xf6\xe7P\x18\xb0=\x818\x00\xe0\x93\xd8c9#\xfe=v\xe1\x1c4\\\xd1\x04;r\xb8\xaf-t\xc2\x1cU\r\x968$\x13\xdb \xef\xb6\xfb\x0e\xd8\xc0\x1d\xf8\xe0\xa0\x12Mk\xd3\xf6\xc2\x88\x9c-B\x1f\xbb\xfd\xfdu\xa65\x07\xe2\xa3\x95\xbc\xc7\xa5\xd3w5\xb0\xdd\xea\xa8\xe3\x911"2\x96\x8d\x14J\xdf,}3\xa6@\x00\x05\xfa`\x8e-ifS\x12\xf5/\xa73K\xb7&gt;\xf8\xfc\xc0\x86\xe4\xf0\xf2q\xd8[\xe9\xf3\xc6^\xf9\xb9\xa65\r\xbbX\xd6E|\x91\xe7\xa8\xeb\xe8\xf3\xca\xef)\x0c\xed\x8c\x17fL\x91\xb9\xc9\x1bm\xed\xc4\xf4\x94\xbf\x9d\x15 9\x04\xdfV,\xfa\r\x0b\xf5\xb8\xae\x1bEW\x02K\x90.\x0b\xb5/\xee\xd8O\xd3\xf6B0^"7\\\x00\x17\'\x7f\xe2\xecq\x8f\x7f\xb6=\xb8\xb62\x1c\x85\tP\x88\xa4\xb9)\xd4\n|Z\x8d\xa8\xf5\xf9j%?4\xa6P\x06\xe7Z\xe8\xc6\xac._\xbb6\x87\x04\xdaJAO\x10 u\x13\xddp\xa0\x021\xb0$\xe7lgoo\xcf\x8bbFZ\x1c\x08I\x01 \x10\x19\x98;3\x07\xfa\x8c\x08L\xadKQswz\xd7\xab\xf7\xf5\x1d\x87\xb5\x8fDa\xce\xfd\x04\x9cm\x80FH\xecq\x8d\x87l\xfb\xfd\x9f\xc3Z`-1\x08\x00\x14\x9a\x1e\x8dzmW\xda\xb8LCu\xc0$\x92\xc0\xd4\x90\xcc\xf6/S\xd9\xbaa\xb1SWK6\xa1\xd1~|\x8f\x155&gt;\xb8\xd2\xd5U%\x00f\xf2`\xbcR&lt;\xac\x8aHV`\n\x84S\xb1\xd8\x13\xdf\x8a/\xf1\x9ayk\xf0\xb4\xd1B\x88e-E\x89\xd1+:\xdb^\xe4\x9ex\xb0\xbc\t\x01+\xcfP\x82\x0f\xc6P\x97\xea\xa0\x96va\xa8,t\xd3\x1b!\xe5\xde\xac\x8a\xef\xcbn_h\xcb%T\xd5\xb5\xd4zz\xdfG\x1bo5L\xac\xd4\tX\xd2\xd4\xa1\xcaC\x0cP#\xc8\xc1e\xe9\n\xdd8`\x026\x0bL\xe2\xe6\x1c:\x8dN\xe6\xe4\x83}\xedn\x9b\xe3]e\xd2\xe8\xcb\x92\x90\xa4\x82K\x07!\x8f\xab\x17~\xddq\xd5U\xa9\xf4\xc5\x85k\xe2\xab\xb8\xdajj!\x99\x9e\xefS=TpIB(Ra%&lt;0\xca\xd8\xea2\x96\xf3_*\xbd\n\xa0E\x9f\x981\x8d.\xa4\x9e=THj\xb6\x8d\xa7J\xeb\x82\xf9\x18\xe8\'\x88\x14\xb3\x01B){W\x9f\xed\xbe\x1c\xf6mI\xa1\xae\xd4\xb1\xd5\xfe\xd5\xa2*S\xae\x9azz\x85\x967\xdf=jc\xebIH\'\x05\x94\x8c\x11\xd2w\x18\xe1\x94x!)v\xa5[~\xefaw\xd3\xa51?\n&gt;\xa1\x98\xed\xadmG\xbf\xa7,q\xa8\xd6Z\x02\x8d\xa6Z\x9b\xfc\x15,#\x92Y\x15\xfa\xd0\xc6\x91\x83\x9c\x82\x84\xe4\x01\xb6v \x03\x8d\xc7\x11\xbc@+\xcbP\x17k5I\xf9t\xa5\r0\xf0\x97G\x98\x1c\x12\xfc\xac\xff\x00\xb6\xf8\x88\xbc\xc5\xf1\xe5\xe1\xbb\x977\xc9\xb4\xf6\xa0\xd6\x16\xdaIc\xf2\x0c\xddIY2A\xe7\xb5dp\xaa\xbaQ\xb2\xc8\xec\xd4m\xe7 o\xfcvh\xc6q\'\x0f\xe1H\x08\xd5\x00&gt;\xad\xfe\xb4\xdb`\xce0\xc2.b )\xd4Hg%\xc9\x14\x17\xa1\xe9M\x0fVae\xd7\xf1\x01\xf0\xdbSp\xb7\xd0Z\xf5\xad\xb2\xe1Or\x92(\x8c\xb4\x7f\x114\x94\xcb+\x16\xf3\xa4CL\xee\xd1+\x05V\x94!Tb\x03\x0e\x90s\xda\xb2\xff\x00(h\x00\xb3\xb3\xbb9sVc\xa9&gt;\xb8a\x13=\x97\x88X\x00A\xb1\x16\xa7\xbe\x97\xef,i\xb5\xcd\xaa\x8e\xc3g\xd5\x16\xbb\x95-\xce\xd5y\xb6\xc5s\xb4\xd5Q\xb01MJZE\x95T\xf5u\x86\x8eX\x1dJ\xc9\x0c\x13t\x96\x12D&gt;V-\xa3\xc5\x12P\xd4\xb7$\xa8p\x8a\x8e\xa2\x83W\xee/\xcb\t+\xcb\x9c\tL4\xb1%\xcd\x85\x08mC\x16w\xfeq\x9c\xef\xc4\x12\xefQ\xa8\xfcE\xe9P\xd1N\xd4\x95U6\n\xba\xdcU\xff\x00\xe2\xb3=]\xce:iR\x07\x84\x94\x91Z&amp;\x12\x91.\n\x04\xc0R\xa4\x92\x8f\tf*\x8c\xa2\x97,H\x17\xad\x03\xd3\xb1\xa1\xd1\xba8\x06i"e|O\x95\xa1%\x82\xe2\rj\xee\xae\xb6\xa5\xfe\xd8\xfa\xb9\xd323lJ37C\xaf\xf3)c\xd2\xc3\xbe\xce\xbf0\x1b\xe3\xab\xd3\xb7\x16y\xaa\x13\xd7N\xf8\xd6\xf2\xf0\xf8\x11\x0c\x10\xe4B\x86\\\xd7\xf4\xa7^\xdd\xf0\xc3\xae"/3\x04\x02r\xa4\x902s\x90@\xdf\xbe\xc3\xb7n\x18\xc5\x05\xec\xd5\'\xdb\xb7m\xf0\xacEp\x8b\xef\xfb\x01\xdf\xed\xcb\x03\xcb\xb1\x19\x93\xb6B\x93\x9fa\x8e\xe0\xf0\x82\xbf)\xed\xf5\x18\x89\x99\x8a@%\xf74\xe4+C\xb3\xd3fmp(\xbc\xd5\x14b\xab\xb1\xf9\xb3\x9f]\xbf\xb8\xf4\xff\x00\x8e\x11b.0=18\xa4\xa8\x177:\x97\xe8\xe5\xaa\xf5,p\xdd\x86\xb0\x80p\xc7}\xdbbp\xdd\x88\x07\xdb\x00m\xc7\xd8I3\xea\x16Uz\x92[\xe7\xcb~\xbb\xfe\x80\xde#t\xb5\x01\xd2\x17\x02\xf0B\x17\xcbf \xa08\\zm\x9d\xbb\x1fc\x8cqdA*J\x98\x7f\x90\x1fb\xc4\xd3\xe5\x8f\xcfd\x11\r*\xe27r\xe0\xda\x9bk\xf5\xdb\x18\xd7\xf1wEo\x1c\xc7\xae\xa1\xa2\x10\xb3EPr\x00\x07\xb9lg\x03l\x81\xeb\x83\x90s\xdbkk\xc2\x19lH\xcbLeCt\x92\xce\xc2\xc0\x87{\xd8R\xfa\x9a`W5\x99\x01\xd9F\xa3E\x17\x14\xd3\xbfk\x8c\x00mV\xf1\x0c}eTv\x07l\x1c\xe0\x9czv\xc1\xef\xb9\xef\xb9&lt;^\x922B\x02|\xc6\x0cAH\xdc\xb9z\xd2\x81\xac\xdb\xfa\x86E\x8e\xa8\x85@\x93G:\xb5;\xef\xcb\xe9\x85\x17\xe9U,\xe3#$\xff\x00\xb7\xe5\x808\x96\xe1\t\x0eK\xf2\xa7\xa5o\xfbb8\xa0\x95^\xa2\xb7\xa7Z\x8e}v\xc3b\xe9q\x8cF\xeb\xd7\xff\x00\xd6\xbe\x87m\xc7V&gt;\xfb\x9fq\xecrx\x82\xces(R\x90\xca\x82\x8f\x18\x16\xa1f\x07N\xd5\xad\xbeR\x12\xb0\xa1E\x88\x98*\x84\xa2\xb4\x9a\xac\x00\xd54b\xe4\xebZ[L\n*\xafN\xb7[t\x91\x14v\x82\xedn\x95z\xdbd\xf2ki\xa7=89\xeb\xf92\xa0{\x0cc~3\xe7\x8f\xa7#\xe6yd\xf2R\xdc\x06Vb\xf6\xff\x00\x88\x87\x17c\xb6\xbf!\x8b?\xc3Rj\x94\x9b\x94\\5\x84\xff\x00\xe4A%\xe8[\x8c\x16p(\xff\x00\xeflh\xa3\x99|\xd3\xe6O(\xb9AU\x0e\x88\xaa\xaf\xa4\xd5:\xb3M\xdahhn\xb17L\xd6*+\xfd%7\xedj\xe8XM\x0c\xf0O\x15\xbag\x80\x88\xc9\x98\x8a\x94H\xd5\xe4dS\x85\xa2\xce\xc7\xca\xe6\x0c2\x1f\xe3/\xa8\xbf\xf3\xd2\xacX\x93\x8de9\x01SYD\x9a\xc0.R\x8a\x8a\x13\xf0\xa4\xd4\xb9%\xeb\xa8lU\x077y\x1fWb\xd24\xba\x97\x99^6\xe3\xe5u\xf3Q\xfcM\xc7\xf6\x16\xaa\xab\xb9\xd4|\\u\tOQ\x03\xfe\xcd\xb4y\xf7G,\xd3\xb9\x90\xb4l\xa0\xbcb z\xa7\xc1d\x94\xdcI\xa8\x01~I\x8a\xe9v\xe1\x04\x8a;\xb5k^\xb4\xd1\xb1\r\x1aN:\x0c0\x9c\xcce\xa5\x83\xc4R\xc8J\xdf\xf4\x86B\x8d&gt;\x86\xf5|\x01y\x1b\xcf\xaer\xf2\xbe\xe9Cf\xd2\x9c\xc9\x9b\x9a\xbaF\x9a\xba:x\xaam\x92\xdf\xda\x06\x15\x15A\x1e\xa2\x96\xdfu\x82\x92jh\x84\xce\xe1\x96,\xc6dc\x96\xf3\x19\x87\x11\x19\x94\xbc\xe1s\x0cy5\xfdtg\xe8\xfd\x8bT`\xc7 \xe2B\x80\x8b&gt;\x99\xe6j\xa5N\x08z\x16 S\x95.\xce\xe0cD\xfa\x8f\x92\x1a\xc7Sxq\x93\x99\xd1j\x1a\x8a=MS\xa3%\xbdCo\xa5\x96x\xa4\x96G\xa0y\x8d,\xea)\xe6a#J\xc1U|\xf6&amp;g\xc7\xcaOH\x13\x8d\ta\\1V\x15\x13\x8b\xe2P4}4\xdb\x96\xd88\xf3\x87\x12\x82\x11\xc2\x00\x0c\x08\x1bU\xb9\x93\xb1\xc6c9\xbd\xa3\xaev\xbb\xe7\xfd\xc5\xe2\x0e\xd9\xaa$\xb2\xc35\xcfP\xcde\xa2\x96\xb2+\xcdE\xaa*\x91\rEP\xf2\xe8\xee3\xa4n\xea\xbf\xbf\x96\ntu\x8eD\x12/C\x95)\xc8\xe0\xade\x10\x90\xa0",\x84\xa1D\xfc)%\x80~Z\xbd\xdbBp\x1b\x9f\xa5!1#\xc4K\xc2BJ\xe2\x00\xc4\x94\x06p*\x0b\x96\xaf;\xb6%\x17!\xf9\xd1\xf8\x7fk{&lt;\x9a\x7fI\xf2\x93X\xe8z\xb8\xfalk\xae\xab,\xe9v\xb4=\xe2ZX*~\x16\xe3[J\x1a\xe0\xbf\x10\xbd9\xf2\xa9K\xac\x91\x17\x90*#\xb2\xb6\xf1^U\x9f\xc8\x05.,\xcc8\x80U\x90\xb7.I\x0fF"\x9b\x8b\x01l\x0c\xe5y\x8eK9\xc2\x99Ix\xa8&amp;\xae\xa4\x81p\x1f\xf5\x13B\xecj\xedC\xbd\xa9\xf2\x12\xc3\xab\xac\xf6\x01\xa2d\x91\xab\xb4\xea\xd4\xc8ij&gt;6[\x8544u\x8f\n\xc9=%D\xbf\xbeZz\x8agWXY\x04\xb1\xb3\x95#\x1cW\x90\'f\xe6\xa2\x18\x11\xd2\xaf\x80\xf1\x12^\xee\xc5\xaaE\x01\x14\xbe\x0c\xe5`*\x12W\x19l\x94\x04\xba+\xb7\xd1\xc3s\xb1\xae"\xb7\xe2#\xa3-\xf6^a\xf2\xc6\xa2\x95\x9d\xa4\x9dlo4\x8e\xc9\n\x80.\x92B\xb1D\xe8&lt;\xc7q\xff\x00\x92JO\x84\x02U\xe9\xc33\xe6\xdf\xf0\x94\xb2!\x14\xa9e P\xb5\x03Q\x9a\xc2\xa0\xb6\xdf&lt;\x05\xcfGT\x7f\x12e\xc4&amp;\x89\x88*\xd5\xba\xaf^\x9a\xda\xfaa\x87tl\xc4NI\x01\x11\x99\xb7\x1d\x94d\x9c\xeew888\xdc\xe3#\x1cZ\x11\x0cH\x89G\x92\xa0P\x80\x19\x9a\xa1\xf6\r\xa9cBq\xaa\x84T\x980\xc0#\xfe(o\xab|\t\xd7\xa3\x0e\xb6\xd3\x02\x9b\xb4\xa7\xccrB\x8c:\x01\xbeNF\x00\x18\x1b\x13\x90;g;{\xf1\xec\xc0LT#\x8d\x82\x90_bH$\x8fZ\xb8\xd9\xabg\x8c\x8d1\xc0BI\xb9n\xff\x00\xebn\xb5\xae\x18w\x87\xfd\xd3\x16+\x93\x9f\xe2\x19\x1d\xbb\xe0\xf7\xd8v\xf4\xf5\xf7\xe1\xb7\xbf{\xe2\x1ezi \x1d\x19\xdd\x85\xf9\x1b\r\x98kAK`)\xa8\xe5Pd\x01Xdm\x858\xee\x08\xdf&gt;\xa7q\xb0\xfbo\x9e8ZB\x85\x9c\x82\xfc\xfbk\xf3\xae\x04\'\xe7\xd0\x05\x0e\xa5\x9d\xdc\xd3\xe8\r\xf7\xd7\\3"\xac#!\xd8\xe0\x1c\x0c\x9c\x13\xdb\x7f\x7f\x7fN\xfc4T3\xa8}\xae\xf8\x87\x19\x90\x04\x90\xa3\xb5\x89\xad\x1e\xb5\xf7\xf3\xdfw\x8c}q.\x9e\xe5e\xf2\xba\n\x84\x13-\x19`\xccA\xcb67\xc6w9\xec\xbf\x91\xc7n-\x8c\xba\\\xccG\x87\x0c$\x92\xa5\xa4V\xd7\xfaW\xab\xe3\x10\xcd\xc4\xe0B\x88!\xc2\x0fW\xdb\xbd\x8f}\x8e1\x85\xabnu\xda\xa3U^\xaf\x97\x19\x1aj\x8a\xaa\xf9_.p\x02)!T\r\xf1\x81\xecN\xff\x00C\xc6\x9f\xf0\xde[\x06VA0\xb8\x00\x8f\xc2X\x8f\xcbP5:\x12\xf4kS\\V\xd3\x93+\x88K\x90\x03S\xd4\xfe\xd4w\xc2|\'\xa4\xb7V\xe0\x0f]\x86\x00\x1f\xdb\xd0\xfbgl\xef\xc1l\x12Q\x08C\x88\xc2\xafCz\xf5\xda\xff\x00\xe9\xd8\x00\xff\x00\x94\x97b\x086jZ\xfa\xfd\xed\x84\x1b\xbdh\x8a9U\x18\x0e\x91\xe8F3\xb89\xcf\xa8\xdf#\xd3\x1e\x9cGf\xd3\xa2\x0c\x12\xca\x02\xefZ\xb6\x8f\xa3=\\r\x16\xae\x17\x97\x96\\E\x80\x00.h\xee\xce\xc2\xcc4k\xf7\xe5\x81\r\xe2\xec\xe7\xa9\x04\xaa\x0b\xe78#89\x07n\xf99\xcfa\x80~\xb8\x15\x0e{\x9by\xe20LBJ\x08\x04+\xf2\x92\xa4\xd1\x8b\xe9\xee\xef\x83\x1c\xb2Z"D8f\x047\x0e\xa2\xb2O\x11\x0fZ\x96\x0e\x03\x8b=5\xae%\xaf&amp;|*h\xdedX4\xb5\xca\xbb\x9cVK?35\x05\x15V\xaa\xb1\xf2\xeaz9\xd9\xeat\xe5\xb6\xe8\xd4q&lt;\xf7\x17\xcc\x12\xd6\xdcg\xa6B\xd4\xb0F\x82\nj\x8af\xf3\x9ay\x1c\x8c\xb9\xe2\xff\x00\xc4\xa4C\x9b\x9a\xc9\xa0\x18\x9el8jD^$$$\xa5i!\x92\xae:\x96:\x01\x8d\x0f\xe1_\xc3%\xe6\x19|\x1c\xde*\xf8\x13\xff\x00, \x16~%\xc3r\xc7\xe1\xb3\xa40\xb6\x8c\x01\xc6\x83"\xe4\xcak\xee]\xd8+\xee\x1f\x0c\xd7\x1a;e\x1aS\xd6\xf4\xb9\x8eJ\x9a\x08\xe0\x8e):VY#\x1d\x02\x05\x8eB\xcb\x82\xf1\xc4zr\xa4\x1a\x170\xf3g\x96c\xa5#\x85\xdc\x97\xadK\x87\x16\xa1\xdc\x8b\\\xe2\xe4\x97L$\xe5\xf2\xf2*\xachA)W\xf8:Y\xea\xe3\xfc]\xc8\x1b\xdf\x15}\xcf\x9f\xc2sGs\x1aK\x8du\xd3Cs3\x99\x17\xcdGWMs\xb8jK=\xf2\xba\x9a\xfdIY\ruUS\xd3\xd1\xd4U\xc5S\xa7\xed\x96\xa9\x16\xaehV\x9dm\x91F)dv\x05\xaa\x12\t"\x99\xca\xb3\xb9\x9c\xad\x010a\xa2!ZD5\x053$0\xb3\xd5\xda\x81\xdc\x93\x88\xcc\xc7 \x96\xcd\x16\x98s\xa1F\x0c\x11\xc6\x8e\x05\xf0\x9e3B\x1c5\x18\x0b&gt;\x9c\xc6&amp;\xaf\x86\xaf\x03\x1c\xb1\xe4\x96\x96\xb7\xd4?+\xac\xdan\xf5f\xb3I\xa7t\xf9\xa7\xbd\xde\xaf\xf5\xc2\x8a\xbaI$\xa9\xa7\xba\xbd\xc6\xaaK]]D\xb3\x95\x9f\xce\x8e\x19\xa6\x8a\xa1\x16H\xaa)\xcd&lt;I\xc2\xb9\xa6c\x1f0I\xf3\xbf\xb6\xa59\x1c\x15\x15\r\xaf\xab\xf4\xb0\xc4\xb6M\x94Ie\xe3\x8a_\x8c\x04\xbb\xb9&amp;\x8e\x0bV\xfa\xebW\xe811/\xb2UZt|\x1av\n\xc8\xbc\x88\xe8h\x96\xae\x9a\x9c#4q\xd4G\x0c\xa6\x9b\x08\x84F@`\x8c\xa5&gt;V\xea\x05\x89\x05\xb8\x13\xfe\x9a2\x16\xa4\xba\x96\xcap\xa5\xddoR@g&amp;\xac\x00\xd47"u\x03\xca\x98\x86\xe8p\xa6 \xb9`\xc1\xc7`X\xdcmj\xe0y\xa8\xf9\x07K\xcd\x1b \xb8\xdb\xbe\x02\xddq\xa8\xa3\x8a\xdbq\x9e\xb2\xcdl\xbb\x9a\xb8\xe9#\xfd\xccu\xab]M5CA\x0cu\x13\xa7\x97\x15\\i\x01\xcf\x95\x08f\x9b\xcd\x95\x91\x8b\x15\x07\x85\x05H\x8a\x8a\xbb1I\x0fV!\xa9~\xd6\xc0\xfea.\x85D0\xd6\x90\xa4\x9f\x85CB\x92K\x8aij\xefQ\x84\x9eUx%\xb4r\xe6\x8eyj\xdfC\xc7D\xd5S\\\xda\xd7\xa6\xf4\xe4v\xa8jk\'G\xcc\xd5%\xdb\xa6Y\xfa]\xd6YL"V\x8d|\xb5\x93\xa4\x91\xc7\xd3\xf1\xe7#\x1f\xefM.04&lt;L]\xc9.\xd6\x02\x9d+\x86\x902\xfc\xbaX\x0f"U(5n\x17\xa1zo\xc9\x88\xb5i\\H\xae_\xe8+\x15\x14\xd2\xd0\xad\x90\xc6\x89!\x92Z\x98`\xf2\xa1\x92\t\x99\xb3\x04\'\xa4\xa28\x8dB\x01\xdd[\xa7\xe6\xf6i#*\x83\x15\xd5\x0c\x02X\x05=I$^\xa4]\x86\xfaQ\xea\x94\xfcX\xb0\xe5\xd6R~\x01V\x07FfmKY\xb5\xd4b\x1fs\xcf\xc3\xee\x98\xe672\xee\x89\xab`\x92\xbbKQi*\xa8\xe9c\xa7dk\x90\xb9Z\xb5\x1d\x1d\xe6\x1az\n\x9ap\xb3\n\xaa\xb3\x05&lt;B&amp;\x90\x01N\x95\x89\x1a\xc6f\x99\x9aZfn,\x92\xfc\x89r\xd1\x040\xb0\xd5KU\xbb\x86\xd0k|D\xcbH\xc3\x99\xcce8RDd\xb2\xdc\x83\xc3bn\xd7\xa1\xe7]Cb\xbe\xb9\xd3Ar\xb3E\xab\xb4U\xd7\x94\xda{A\xff\x00\xd9\xd4\xbacZ\xe9\xbb\xfd\x04\xd7j\x9dKu\xd3Z\x8a\xa2k\x04\x96\xfdQUr\xa9j9:k*hf\x9a\x1a*\x1aQEq\x8f\xa6\x9av\x8awVS\xc1~)\xcd\xa6\xb3\x8f\xe8\xa6\x08T\x18\x85~S\xbb\x84\xa4\x84\xb9\'Wz5\x886,n\xe9H\xea\x8c\x94-%\x90R\x96\x04\x87p\x00.\tz\x90yW\\A\x8b\xbdNX\xe5\x87pr6\xc3\x8e\xd8\x04\x81\xb1\xfb\xfag\xebr+\xe2\x88\xa2\xaap\x16#\xb3\xda\xa0\x8e\xbaa)\xd5\xa5%\xcdHj\x8d\xd9\xc7\xa3\x12k\xc8\x83\x81\x8d\xfa\xa1\x82\xf5\x17$\x0c\xef\xb7\xb1\xdb\x19\xdf~\xfe\xde\x9d\xc7\x1d\x82\rG&lt;\n\xe6S\x04 \xb1j(\xeaM\x9fCm\x9c9.u\xc0n\xf5p\x92\xa1\xd8\x16\xc9B0\xb8\x03\n\x0e\xd9\xc7\xa9\x18\xf4\xfa\x0e;\x10\xd4\xba\x00\xe2\xf5\xa7F&lt;\xec&gt;t\xc0\x16c0\xaa1z\xaa\xa4\xb6\x80j\xe2\xa2\xc45\xda\xce0\xccj\xa7Fn\xa3\x82X\xed\xb6{\xf7\xdfn\xd8\xf4\xfazp\x8a\xa1\x10\xaa5\xaf\xf6\xdf\xdf\xac\x18\x98XR\x9c\xb5\xf5\x02\xae7\x04\xf6|mO\xc6\x9e\xa7\xb96\x8b\xb9\xdb\'\x0c#\x92"\x19\t\xc6w \xe1\x8a\xef\xbe\xfd\x87\xdb&lt;^^\x1a\x95DI\xb8D\x90HZMw\xb1\xa0\xab1\xae\xdb\x8a\xe3!O\xc4Ra\xc4\x01\xc0)U\xad@Y\xf9\x1ce\xee\xeb\nG[V\xa0\x13\xd3Q+\x1d\xf6\x07\xa9\xb6\xc8;\xed\xdf\xf5\xf5\xce\x96\x91Ba\xc3\x16\xb0vkw\xdb\xdbQ\xabx\xd1x\xd4C\xea^\xc7^\x96\xb5}0\x8b[Z\x91D\xca\n\xf5\x01\x82N6\x18\xdc\xef\xf5\x1d\xfe\x9cq94\x98`\x91F\x04\x96\xa37&gt;\xc3K\xde\x8e0\xe2\x12LF\xe1\x06\xe0\xbdj\x19\x86\xc5\x9e\xdai\xb9\xc0\x8fP\xdd\xfeF\n\xe4\xfc\xf8lc\x04\xe4\xfa\x8c\xf7\xfbc\x8a\xa3\xc4y\xfa\xddp\xc1 \xd6\x8e7=\xb4.t,\xd8.\xcb$Y\x8a\x9a\xd5\x04\x11\xb1k=l^\xb6\xab\x1c\r\xe5\xa8\x12\xbb0n\xac\xe4`\x9e\xdfO\xcb\xed\xb8\xdf\x8a\xcefj4^2\xe7\xe3\x8b\x0cS\x98g;\xd7Q\xe8\xe1\xf0T\x98IO\x90\xa4\x06\xe1DE,\xd5\xc8\n\xedO\xf7\xbe4\x0b\xe0\xb0r\xf7Fr\xa59\xc9\xa84\xef\xfd\xc5Uy\xd0VM\x11AG!t9\xb6\xd6\xd7\xd6\xd5SSTD\x1eH\x9ek\x8d\xa6\x8d\xd5\xe2P\xd14r\x12\xb2n\x0e7\xf1\xe4\xbcH\x1e,\x9f\x8ah\x93\xe5\x9b\x1a\x8e\x14\xbb\x0eW\xab\xbf\\m\x7f\x06LK\xcex"B\x1c\xa8\x1el4D\xf3\x18\xb9 \x158"\xedO\x97LZW)\xf9\x91`\xa8\xd1\xd6\xcaZ\xc8\r3=)\xaa\x82\xd9&lt;\x8b\x9aQ=D\xce\x13\xad\xc7\x98\xec\x90\xbce\x92C\x96oln\xc9\x13PL\xb0.\x03$=E:\xd7Ww\xa1\xef\x86\xd0\xa5\xd7\xfdC1\xbe\xbd:8\x01\xcb\x8b\xbf\xcc\xf7c\xbe\xc3w\x85\xa9\xe9CC\x0e\x02\xf5\xcc\xf9W\x88\x0c(X\x94\xe3#;\x126\\\xe38\xe3\x981a,\xa7\x84\x8a(\x9a\x10(\xcc\xf7\x17\xf6q"%\xd4\x95\xac\xb1\xfc\x94w\xdc\xec\x08&gt;\xbb\x10\xd6\xc3K\x98\x17\xfb}\xb6\xb2\xcfb\x8ah\xa2\x8e4\xab\xbbWO!\x8e*d\xa7\xa1\x85\xe5\xe8\x92w\xe9\x0b3\xb3|\xa8\xeeY\x81\x1d$\xe0\x0e\x1e\xc4RW\x11)\xa38m;\xb8\xd3\xaf=\xb1\xd2Q\xe5BZ\xedC[\xb8k\x8et\xd9\xb9T`KQ\xcfnL\xd6[\xe1\x9e\xa4\xc5L\xf2\xd5U\xd1\xc0\xb4\x15\xd4\xb3\xc3_-$\x8c\x93A\xd6\xf2\x18S\xca\xa8\x04U|\xcd$d\xb1(\x18\x88\x87\x19\x8c\xdc\tO%+H\x11@hI\xa3\xc4\xe2 \x80\x90A%\x8d()\x85d3TA\x85\xc2\xa2\n\x81/g\xfc\xc6\xad{6\x94\xc3\x87\x95\xfc\xdd\xe5\xfe\xbd\xa4\xa8\xbd\xe8k\xf5\x8a\xa2\xd2*\x9a\xcd]m\xb4\\i.1\xd1]\xed\xe8I\x92I\xe0\x9aEu\xab\x8ad2`DR\xb69#\xf2\x99\x1e6,U2\xa4\xa91R\x82#D`\xa8MP\x93\xa9\x0c\xe6\x95p\x05\xaa\xc3\x1eC\x8b\xfdTU),u\xbd\x1d\xc9rw:\xdci\x83#] \xa3\x8d\xbaj\x03\x86\x1ekC2)\x04!\xe8`:\xd8\x95W\x0cHn\x92\x17\x18\xc62G1\xa2\xa4\x0e%\x1a\x0e\xba\x9b\x00v\xfb\xe1\xcf\x93\xca\xbf\xfc\xfb\xd3\x02=[\xcef\xb1\xca\xadE\xe5+\xd2\x82\xcc\xd1E\x1c\xcee\x88&lt;\xb81\xb7Dgr0\x0bF\xb9@\x0c\xa0&gt;\x04\\|\xf1\x12#\x89\x03\x89EL\xc0\x8aY\x89\xa1\xd7\xa5;\xe1\xbc\xcc\xa1\x8f\x0f\xcb%\x85I\x0c\xd4cN\x9ab\xae\xbc|k\x9eoi~I\xc7\xcd\xde\\\xeb\x8b\x07.\xf5v\x9d\xd7\x1aB\xfa\xf2\xdf\xee4T\x14wm1w\xbf5\xb2\xbe\x92j\xaa\xda\x1a\xe8\xe8\xb1/\x97QP\xabIS+RE2S\xc4\xcf$m!g\x84dO\x893%\xae0!\x02\x01k\xb0\'\x88\x83J0\x14/w~X\xaf\xb3_\x13\xa3&amp;_\x9b\t%j\x84L7\x05&amp;\xd4\xe7Z\xfb\x14\x00\xfb\xbf\x89#\xcf\xcf\x0cT\xbc\xdc\xbc\xdb\x16\xdf\xa9u5:hk\xad1\x90\xb2\xfcw\xed\x1b.\xaai(\xe5JX\xc5e\x14\x7f\xb3\xea\xe3J\x94\x82\x15\xf8\xa7\xf2\x96\x14X\xfa\x99\xf6E\x93#/\xf1r!Cn\x08~`\x04=G\x16\xefn\xe2\xdd1gxO:\x89?\x94\xc9M\xa8\x14\xae4&gt;2\t\x00\xe8Z\xcc&gt;vfc\x8a\xf4\xbcW\xaed\xee\x01\xec\x0fr@\xd8\x10FFq\xdf\xeb\x</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -634,6 +768,10 @@
           <t>Rafael Rodrigo Klein</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -644,6 +782,14 @@
           <t>Rodrigo Jose Pereira de Lima</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00H\x00H\x00\x00\xff\xdb\x00C\x00\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\xff\xdb\x00C\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x00\x05\x05\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x02\x08\n\x03\x04\x06\x07\t\x05\x0b\xff\xc4\x00@\x10\x00\x02\x01\x03\x02\x04\x03\x06\x03\x06\x04\x04\x07\x00\x00\x00\x01\x02\x03\x04\x05\x11\x00\x06\x07\x12!1\x08\x13A\t\x14"Qa\x81#q\xf0\x152\x91\xa1\xb1\xd1\n\xc1\xe1\xf1\x16\x17BR$%(3Cr\x92\xff\xc4\x00\x1c\x01\x00\x01\x05\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x02\x03\x04\x05\x06\x07\x01\x08\xff\xc4\x00=\x11\x00\x01\x02\x05\x02\x04\x03\x06\x06\x02\x02\x01\x03\x05\x00\x00\x01\x02\x11\x00\x03\x04!1\x12A\x05Qaq\x06\x13\x81"\x91\xa1\xb1\xc1\xf0\x07\x14#2\xd1\xe1B\xf1\x15Rr\x08\x163$%5Cb\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\x9f\x86\x99R\x92\x94\xe99\x1f7\xbbo\xd3\xfa\x82)\xb9\xe8\x07O\x99\xfd|\xbb\xea\xbat\xc0R\xb0\x9c\x97\xcf\xdd\xb9\xb9"=NGq\xf3\x84\xa9\xc3\x0f\xafO\xe3\xfe\xban\x9d8\xc3\xf2~\xa5\xba\\\xb1\x85\xac\xec\xc79\xdb\x1b{\xe2\xaez\x91\xf2\xc7\xf3\xd5\x90\xb0\x03\x90\x10\xd0.\xfd&gt;\xfe-\x07\xafc\xd8IRX\x1e\x9d1\xfdt\x1b\x07?wh\x08`\xfb_\xe1\t2\xa0\xc0$d\x8c\x81\x90K\x0cst\x00\x9c\xe4u\x1f1\xd4dd\x85\xa1\x05L\xa1\x8c\xbd\xf0\x1f\xa7H\x00*\x04\x00pv\xc7\xde;\xc7 |m{l|\x17\xf80\xbe]\xb8yu\xddU\x9cQ\xe2\xd5\xb2\x8aY*\xb6G\x0c\x85\xabq~\xc1\xb9EP\xd4\xc6\xd3\xbb\xae\x89u\x8a\x9bo\\\xa1u\xf3*\xed\xd3\xa4\xd5\xd4(c\xf7\xeazf\x91\x15\xa5\xcb\x90\xb9\x89*Kscg\xe7\xf5\xf7\x18\x9b#\x86\xa9i\x04\x96\x06\xe5\xc9v9`A\xbe[wr\xdc\xe3\xf7\xc5\xaf\xf1^qtGQM\xc2O\x0f&lt;!\xda\xf3\x1a\xa9\xa2\xa7\xbcq\x1a\xff\x00\xba\xf7\x84\x10S\x89\x89D\xa9\xb3m{\xb6\xd2\x11V\x9aeB\xc2\x1b\xfc\x90\xc5#r\x88\x1a5\x05\xcf/J\x8aTR\xe3\x99m\x9c\xfaf\xe7\x94L\x97GN\x97\x05+Y\x0c\x1d\xad\xbb\xb0\xc1\x1d3\x8b\xe6\x1b]\x1f\xf8\xa6&lt;z\xd2\xdc\r\xc6\xe9\xb6\xbc0\\-\x1f\x80\xcbAG\xb6wU\xa6\x88\x87\x9a\xa2Y\x16Z\x9a\xad\xeb_q\xe7t\x96(B\x8a\xa4D\x8a(\xca\xfe#J\xee\xda\xa5$\x92\xdaUw\xe9\xdd\x85\xbe\x02\x1d\x14\xd4\x8a$\x04,\x11k\xbb\x0c\x0e|\x9b\xd36\x87\xa9\xc1\xbf\xf1\\^*k\xad\x91q\xd7\xc3V\xd0\x8e\xcc\x19\xd2\xedt\xe1^\xf4\xb8\x0b\x8f\x96b\x91\xe1km\x87u\xb4\xb4\x8cc\x08\x9ew\xbcn\x16W\x1f\x14j\xad\xca\xa5\xe4J\x96\x10\x1c\x8dM\xcd\x87\xc9\xd9\xf6&lt;\xec\xef\x0cL\xa3AR\x82\x02\x9f&gt;\xd0\x7fCbl\xdd\xc6\xe4\xc4\x87|\x0e\xfbU\xbc#x\xf1\x84\xda\xb8O\xbc\xe5\xdb\xfcA\x82)\xea%\xe1\x96\xfb6\xcb6\xf1\xaa\xa1\xa7\x91\x04\x97\x1b%=5}e\x15\xfe\xdb\xcb"\xc9\xe7Z\xea\xe5\xa9\x87\xe3\xf7\x9aH\x92\'*\xd2\xe5\xad!\xd2R@\x0e[\xe4\xdbo\xf0h\x816\x9al\xbb\x94\xd9\xc5\xc0$n\xf9\xb8f\xb9\xbd\xb9GI\xc3\x82p3\x9f\x91\x1d\xbad\xf5\xecq\xd8\x80I\xcez`\x12#\xebS\x02\xcc\xfc\xc1\xfeb&lt;\x19\x1dA\xf9g\xf9\x8d)*$\x90~\x10A\x05\x1dr\x01\xc9\'\xed\xa4\xa9*Q\xc5\xb1\x91q\x04+^\tCp\x07F\x06\x08\x1a4+\x97\xc4A\x03J\xf2\xfa\xfc?\xb8 i\xb9\x92\xcd\x98\xf3\xcd\xb9w\x82-\xcc\xa0\x1c\x16\xeb\xf9\x0c\xfd\x7f_\xd3T\xf3+\x1f\x0f\xb8\xf4\xfa\xfcGm\xde\xd0\x9e\xff\x00XK\xb6\x01$\xf5&gt;\xbf\xaf\xf2\xfa\x01\xa8\xab\x9e\xe1E\xc8\xf7}\xfd=#\xd0\x84\xb8\xb3\\s\xe7\x026\xc8\x07\xbe\x0f\xf1\xc7\xeb\x1fm;I9\xc8\x04\xf2\xc1\x1c\xfa\x01\xb1\xf7@\xb4\x1f[\xb7_\xbbf.\x06\x0eH=\xf1\xf6\xc0\xd5\xda\x0b\xa4\x1f\xed\xfa\xfd\xbc2A\x06\xe2\xf0\xad*&lt;\x8f&amp;\xf9}\xb4m\xbbU\xc6\xf9~\xb8RZl\xd6\x8a*\x9b\x95\xd2\xe7_Q\r-\r\xbe\xdfE\x0c\x95\x15\xb5\xb5u3\xbaE\x055,\x11\xb4\x93\xcb#*\xa2\x95\xeb\x93\x8d8\x12\x14\x91\xce\xe0\xd9\xf76o_\x8cx\x84\xa9s4\x80\xe0\x90\x00\xe6\xed\x96\xfe\xd8wh\x83g\xb6\x93\xdb\xf1\xbcwm\xf7|\xf8c\xf0i\xb8\xab6\xd7\r-\x91Um\xed\xe3\xc5\xdb\x1c\xb05\xe7\x89\x13T\xa55=\xda\xdd\xb5\xa6\x92\x8a:\x9b\x06\xdd\xa4\xa8z\xca(.\xd6\xfb\x83\xd7nh\x05E\xc2\x1a\x8bM\nRIY\xe9P\x96\x129\xb8\'\x19\xe9{\x7f\xbeM\xa3\xa4\xa2J\x13\xada\xd5\x90\x18\xb0l7^e\xac@gg1&amp;\xb8\xde7\x15\xca\x86\xaa\x19!\xaf\xab\xad\xb9\x85\xaa\xb8]kb\x0fpyX\xc8\xe5\xa2\x9e(\xe7\x95K\xc9$\x920j\x8a\x87\x95\x8ay\x8e\n\xf3\xb2\x8dbP\x90\x90y0p\xdf\x1fQ\x92}/\x12L\xb9\xeb\x98B%\x92\x9blZ\xdc\xb3fa{\xdd\xc6\xf1Oo\xf0#\x8d;\xbe\x8e\xbe\xf7g\xdb7k\xd5\x15\xb68\xde\xa9\x9e\x86\xad*\xa5\x81\xc0\x8e9\x12\x11N\xcf/#K\x18/\xe6 &lt;\xd9\xec5Q:\xaej\x94\xe0\x93\xdb\xe2\xfd\xed\x8f|Z\xa6\x98\x84%\xe5\xba\x8fB\xe7\x1f~\xb1gw\xe0\x8f\x18ltF\xa3rl\xbb\xe5\xbe\x86?)e\x9e{UZ\xc5\x1cj\xcd\xcb\x1f?\xbb\x85w\xe6 \xe2PH\x12\xa8\xe8\x00,\xec\x9a\xb5\x0b\xa8\x90O3qq{\x8b\xe1\xb7\xb3Z\x1a]*\xe5\xba\xbc\xb2OP]\xd8\x0c\\\xf4\xe5\x18\xdc\xb4\xb7\x9a9)Q\xa8.4\xd1\xc6\xb2"\xac\x94\xf3!y&amp;\xa7d\x18\x0c\x80\xf2\xab2\xb3r\xe5\x80\x8c\x81\x18\r\xf0\xbe*\x95s\xa8\x91\xb0\x18\xbd\xf95\xf9\x9f\x94EV\xb0I\x12\xcd\xfa\x7f \xfb\xe3bm~/\xee\xee\x1e_\xacW\xbb%\xc2\xf1b\xbbm\xfb\x92\xdc\xac\xb7\xba)*-\x97KU\xc6\x9et\xa9\xa0\xae\xa0\xa8\x81\xa1\xab\x82z\x1b\x84\x14\xf5t\xd2E$n^\\+G\xc8\x8c\x1fEj\x01\x01F\xc6\xc6\xed\xbb{W\x16\xcf^\xb0\x85\xc9\x995*\xf6\x0f\xed \x9c\x8b\x83fa\x83\xfd=\xa2\\~\xc8\xefof\xee\xb2\xf1\x1e\xd1\xc0\xef\x11;\x8buq\x1bcn\x1b4\xbb{eI(\xb7\xddwU\xb7\x88\x15{\x8e\x82\r\xa7m\x86\xedS%%]M\xba\xf1I_q\xb6\xdc\x1a\xf5T\xd0\xd3T\xc3l\xaa\xf7\xcaq\x15BV:\xa9\xf2\x14\x19!/\xdc\x16\xeb\xe9\xf1x\xa9\x99\xc3\x94\x12Kr\xb8\x07\x91\x7f\xe4|\xb7\x89\xc1\xd0\xd6%u-=J\xa1\x88\xd4S\xc39\x85\x99ZH\xbc\xe8\xd5\xccr\x14%y\xe3b\xd1\xb1RT\xba0V \x1d6\x86*Q\x047N\xbf,E9IB\x94\t{\xf5\xb7\xbf\xd2/4\xe4\x104A\x03D\x104A\x03M\xcc\xdb\xd7\xe9\x04y\xe4u\xc9\xee3\xfe\xba\xc8\x94\xa9\xcf\xb4GK\xff\x000\xf8.\x01\xe9\xf1\xde)\xcc\xc5\x978?&lt;\x0e\x84c\xf3\xce\t\xcf\xdf\x1aJ\xd2\xa2\x82\x1d\xfb\x82\xf9\xef\xf4\x85\'#\xb8\xf9\xc0\x81\xfa\x11\xca\xc3\xf3?n\xbd;\xf4\xfe\xba\xf6\x9c\xaeY\x05\x9b\xddk\xf2\xfe\xb9B\xd6A\r\xbb\xfc\x1b\x9f\xba/\xa3u9\x1dGn\xa7W\xb4\xf3\xca\xc3\x03\x86,\xdc\xec\xd8\xe8\xdc\xfe\x91\x96\xee/m\xbaa\xe2\xb6\xac4\x8d:\xae\xff\x00\x0c\xb4"#y\xfe$O\x185\\\x10\xf0\xc9\xb3\xf8\x05\xb37]n\xdb\xdf\\}\xbdW\xcd\x7f\x9e\xd1p\x9a\xdfY\x1f\n\xb6\xb4\x11E\xb9(k\xa4\xa5+:\xd2\xee\xab\xad\xda\xd3k\x8dy\xd4VQ\xdb\xef4\xf1\x89\x0cR*I\xa6@XS9!\xce\xcd\xb36\xff\x00^QaC,j\xf3\x08\x1c\xc1&gt;\x98k\xdb\x9d\x9f\x17\x11\x12\x7f\x03\x9e\x00\xe7\xf1O|\xa9\xe2\x0e\xf5j\x9a=\x89n\xa92K,\xa2P\xd76\x12J\x91[\xe8^j\x88\xaa\x1e8\xcaE\x1c\xd3e\xa4\x1c\x8d"rJ\x03i\xd9|&gt;mJ\xd8\x82\x12\xe4X\x00\xcf\xea\t\x03m\xd8\x93\x9c\xdf\xfea\x08\x01\xd8\xb6s\xdd\x99\xbf\xad\xb3h\xee\x1d\x83\xc0\x07\x87\r\xaf\xee\xe6\x97\x87\xd6Z\xea\x88!\x8c,\xf7*e\xaci\x0c\t\xc8[\xcb\xa8\x9aE\x04\x80K\x109\x98\xfe\xf1mH\x99\xc0\xe5 \x131Kq{)\xb3\x87\xbb\x927\xe9\x88\xb9\xa0\xe2 \xb2S&amp;YI\x16\xf6\x07+9o_X\xde\x96\x8e\x11l\xab,\x0bKm\xdb\x96\x9a\nq\x12S\x95\xa2\xb7\xd2@\xa6\x15\xc7\xe1\xbaC\x1a\xab/\xc0\x9f\xbc\xa7\xaa\x8e\xb9\x1a\xa6\xa8\xa4\xa5\x92H\n&gt;\xaa\xb0\xbe\xe6/\xe5\xccB\xc0W\x94\x87\x19\x1aC_\xd2\xd9\xe6\xde\xf8\xbf\xbcpw\x87\xf7\x8aos\xbam\x9b5\xce\x9aS\x99b\xac\xb6\xd3\xcf\x119C\xd5$FB\xc3\x90zc\xe45\x08K\xa7$\x8dE\xb6 \x91\xc8\x8b\xe7p\xdb\x97\x85,\xa5a\x8c\xb4\x0el\x90\xe7\xd5\x9c|\xe3Vn/\x07^\x1e\xf7\x8c\xd1=o\x0c\xf6\x9aON\x19\xa1\x92\x92\xd3ML\xc8NA "$e\x888\xe7 \xb8\x18\x01\xba\rO\x95K&amp;bBP\xa3\x9d\xcb\x9c]\xf1\xbey|"\xae\xa6BP\xec\x81\x97\xb8\xf7\x8fV\xe9\xcb\x9c6\x0e+{0x\'\xba\xa8+\xe9\xad{:\x8a\x93\xce\x8c\x940E3\xb2\xe21\x0f43{\xd1\x95q\xca\xaeT\xb9\x05\xd4\x10\xa3\xb6\x94\xbe\nT\xa0\xa7S8v$[|\x1f\xf4\xf6\x1c\xe0\xa2\xa9\x08t\xa9)\x1a\x83\x12\xc1\xc0f\xb5\x877&amp;\xed\xcbh\x8d\xcf\x19\xf8-\xb9\xfc+\xf1\xc5\xae\x1bz\xba\xba\xdb_\xb2\xef\x96{\xb5\x0c2\xc1\xcc(\xbc\xb1\x15\xda\x9a\xae\x18\xea\xd2\xb6\x8e\xb0\xc3="T\xb2UQ\xcf\x0cn\xa4\xca\x8c\x84\xa9\x8d:\x84\xc9&gt;\xc9YH\x0c\xe5D\x8e{\xef\xb1\xf7\xe6+\x11X&amp;\xcf\\\x85\x04\x89[\x16\xbev ?;\x9eo\x1fNodw\x1f\xef\x1e&amp;\xbc\x01p\x07\x8b\x9b\x8dj\x0e\xe5\xbd\xd8n\x96\xed\xc3U=\xf5\xb7\x12\xdc\xee\xbbv\xff\x00t\xb0T]\xa1\xb8=ut\xb4\xa6\xe6-\xcbYYb\x9f\xdcf\xdb\xd7\t\xaa\xad&amp;\xd7C\x1d4k#\x94\xf9 \xe4$z\xfd\xfb\xe35\xc4P\x94T\xaf@\x1a\x0b\x10\xc5\xfb\xef\xeb\x81\xf0\x8e\x93\xeaT@\x81\xa2\x08\x1a \x81\xa2\x08#\x9fL}\xff\x00\xd3I)\ng{A\x081\x82I\xe9\xd7\xe85T\xbaA\xa8\xb098v\xf8\x03\xfc\xc2\x82\xc8\rkAr!\xe9\x91\xf4\x1d\x0f_\xcbI\xfc\xafC\xf1\xfe +,q\x8d\x9d\xfep&lt;\xa5\xfa\x7f\xf9\x1a?$\x16\xc1\x88\xc6,\xdf\x06\xf7\x7f0!d\xb7"w\xce{\xc1\x85\x00\xa8\xee\x0ezc\xe44\xea)\x85;\xe5\xd4\x07\xc3\xf8\x7f\x8c*f\xde\xbfH\xa8FG\xdc\x01\x82A$\xe79? \x07A\xf9\xea\xc3\xff\x00\xd7\xf7\xff\x00hn&gt;}\xbe\xdd\xeb\xe5\xff\x00\x8e\x1e\xd2\x8d\xe7\xb7+\xaa\xa4\x93l\xf0\xb6\x83e\xec\xad\xbfL\x93\xcb%$\x0e\xf6\x0bU\xe6\xe4\xe29\xc2\xa8\xa8\x9e\xba\xe5UP\xd1@#\x8d\x84\xa4\xac\xed*\xb93\xa8\xd2\x12\x85/\x98$\xf6\x1d7\xc7/\x98\x8b\xeat=4\xa5\x0c\x94\x97\x18\xb8&amp;\xcd\xb7\xdb\xed\x0e\xfb\xc1L\xf4\xdb#\x83V\xcd\xb3KOGlU\xf3\xda0\x90\xe5\xcf\x99S9\x98\xd4I\x0e \x92i\xbc\xc9&lt;\x92\xc7\x99|\xd8A,A\xcc\x99&lt;U2J\xd2\x02^\xe0;\xb9$Z\xf6\x1e\xb7\xda%J\xa43\x14\n\x89!\xc3\xfc\xfal\xec=Z\xf0\xe9f\xdc\x13\xd4\xcf\xe4\xd2\xc4%UR\x86H\xd5GRN\x06\x0f\xa6{\x8e\xdd\xb3\xaa\xda\xde%Q1\xc2I\x03\x90v`\\5\xdbk\x9f\xe25\xfc6\x86B\x03\x90=Z\xec\x0e\xfb1\x1d\xcec\xd2\x82j\xc4\x89\x0c\x94\xef\xf1aX!C\x83\xf3a\xdcg\xd3\xbfmg\xe7*{\x15/\xfc\x89\x00\xb9wa\x9b\xef\xcf\xbd\xf1\x17R\x93,\xa9A\t\x16\x0cm}\x9baf\xdbg\x8b\x9a\xa9jj)\xc8\xa7\x02)\xa1*\x1cg*\xe1\xfbd\xa9\xe8\xdd\x08#\xae\x00\xcf\xcbPS5el\xea\xcd\xee@{3z_\xb7\xbc?\xe5\xb7\xf8\xfc\x01\xfb\xfa\xf7\x8f:\x9e\xa6\xb2\x0eg\x99P`2\xb2\x0ep\xf9ROG?\x00\xc8\xef\x8e\x9d{\xe4\x1dZR\x9a\x810(\x13\xa4\x9b\x07\xfb\xb3\xe4f\xd1\n\xa2JTH\xc77\xd8\xf66\xdf\xe5\x9d\xfdZ-\xc2`\x8eF\x91\x07\x97\xca\xd8\x8aB:\x91\x86\x1c\xaeF\x19\x8b\x0c\x81\xf3\xf4\xd6\x8d\x15\xd3\x10\x90\x16O\xab\x9d\xfd\xc3\xdd\xf2\x8c\xadu"\x92TR\xa6`O\xae\xcd~\x8d{\x0c\xbe"&gt;\xbe\xd3\xfe\x17~\xdc\xe2\x15&gt;\xf1\xb3\xd2L\x91W\xd1\x13y\x9a:q&lt;l\x8a\x89MH\xf3\xa4m\x1f\x94\xd2\xa9h\x95\xb2Ksc\x94\xe7\x1aY(\x9e2\x0b\xec;0\xb6{\x8fNq\x9e\x99)T\xe7\xcdr\xe4\x92_\xa67\x0e\xee-\x90s\x1d\xf6\xff\x00\x0bo\x187\x05\xdf\x80&lt;v\xf0\xff\x00v\xac\x92\xa6\xcb\xc1\xfd\xedd\xdc\x1bB\n\x9a\x99\xa4\xa9\xb6\xdb\xb8\x8ao\xd7;\xcd\xb9i\xdb\x96\x9e\x9e\x92+\xd5\x1c\xb51\x8ahaW\x9e\xb2\xa5\xe5\x12J\xed!\x84P\x10\xa5\r\xfe\xfd@\x8a\xfa\xdfm2\xe6cQ!\xbb\x00~\xbc\xcf\xa3D\xa94E|\r\x10@\xd1\x04\r\x10@\xd1\x04\r\x10@\xd1\x04\r\x10@\xd2\x15\x94w\xfe!I\xfd\xc3\xd7\xe5\x14N\x02\xb7&gt;\x02\x8c\xb1%rz`\xfc9\xecp\t\xca\xe4\x8cv\xe84\xa5\xac\x00\t\x16\x0c&gt;\xfe\x83\xd2&lt;\xba\xa72]\xec\x00\xea\xed\x8e[\xf2\xc3\xc7\xcfo\xc5\xdd5V\xff\x00\xf1\x89\xc7=\xc5I\x04-Wt\xe2\xce\xed\x843\xcc$\x8dZ\xc5t6\x05"\xa2NWB\xe6\x98N\xe8\x06]\xa9\xccj\x18\xc6H\xa6\xac\xe3\x08\xa5\x1a5\x00A\xd2\xd8lX\xdb\xa3\xdc\xefm\x8cl\xe9\xf8b\xebeHJ_\xd8\x00\xd8\x103c\xc9\xb7\'\x03c\x97}\xbe\x1d\xf6%w\xec\x1b]\xb9q"[#\x13\xcdT\xc8\xb4T\x94\xc8\xe8\xedUR\xd3\xb9\xf2a\xa5P\xc4\xcd$\xa5\xd3\x97%\xa5\x8c\x1c\xe9\xfe\x16\x11\xc4\x8af\x15\x00\x1d\xdd\xc5\xc3\xe1\xdc\x1c\x01\xf2\xb01&gt;\xad\xf8|\xb4J\tr\x00\x1dI\x07|\x97\xee\xdc\x98Z\x1c\xad^\xf1\xe1\x86\xdbsB\x9b\xcbjT\xd7F\t\x9d)n\xf6\xb6Eu\n$U\xe4\x9f\x19S\xd1\x9f\x9b\x0e=Nrl\xab\xd7OF\x92\xcaI-\xcc\x16w\x19\xc1|\x07\xcepbG\r\x9d2y\x00\x829\x83g\xb1\xcf\xba\xf9=\xa2\xc6\x1e\'l\x8a\xe9DIu\xb7\x97\xca\xaayu0\xc8\xa5\x8f1\xe7S\x1b08\x00\xe4\x82q\x90I\xeb\x9dc\'\xf1\xa9Z\xd4&amp;))\x00\x16*9-\x9e^\x8d\xe80v\x12)f\xe9y`\x97\x01\xd9\xf9{\x99\xdb\x07\xd2\xd1\\\xef]\xa5I\x04\x95r\xddiR6\x91\xa4\x0c\xf2\x85\n&gt;\x18\xca\x90H\xcfTf\xf9\x90\xe3LJ\xe34z\x9c\xad\x07\xa3\xb7\xab\xdf\xdfw\xc48\xbaJ\x90\xe7B\x99\xb2\xc0\xb9\xdf\xae\xe0`\xf6\x8bO\xf9\xb7\xc3\x10\xc46\xe7\xdb\x8a\x91\xbf\xe2\xb5E\xe2\x86\x06\x8c\xb0\x01\xf9\x92Y\x95\x90!$\x10\xd8\xfbv\xd5\xcd\'\x12\x952`\t)\xd2\xa2\x18\xbd\x9b\x9e\xd6v\xbb\xf7a\x10*d\xcc(/\xa8+v\x17\x1d9u\xc6\xcfl\xc6ci\x9ff\xef\xaa\x19!\xd9\xfb\xaa\xc1u\xb8\xacm$V\xdbu\xce\x86z\x8a\x81\x18-\xff\x00\x83H\xea\x19\xa69*&lt;\xa4\x0cdbF2q\xad\\\xa92*%\x85\xeaK\xb1!\x88,@\xeeq\xc8\x9e\xa1\xe3\x17[2b\x16R\xc7\'$\x9b\xdd\xedw\x03|07\xe9\xca/\x17[F\xf9[\xb8\xa9\xee\x03\xdf\x05\xa2Zh-\xd5\x902M\x01\x84\xc38fy\x98\x00\x95\x08\x19s\xd0\x11\x18 \xb1\xc6\xb3\xb3kfp\xfa\xb7\xbe\x82Y\xcfw\xdc\\^\xdc\x9c\xde\xee\x05\xd0\x9a\xfa`\x00r\x90\xfb_-\x93kwpr\x1d\xe3\xa6\xbf\xe1\xda\xda\x14\xdb_\x8b\x9e+j\xa9\xb9aK\xe6\xd0\xe1\xcc\xcbL\x89\x14JM5\xefu\xabJ9[\xcc\x91\x9c\xccY\xb9\x94tps\xf1\r["q\xa8\xfdb\xcc\xb0\x08\xfa\xf4\x0fbX3\xf6\x8c\xd7\x12\x06T\xb94\xe4\x07\x94\xa5&gt;97\x7f\xbc\xe2%\\\xe3 c\xafn\xcaG\xfd&gt;\xa3\xd7\xf3\xfbziqQ\x0b\xd1\x04#\x07\x9f88\xf9\xfav\xd0l\t\xe5\x04(\x8c\x8ci\x1a\xc7#\xf0\xfe`\x82\n\x07l\xfd\xf5\xe8P%\x83\xc1\n\xd2\xa0\x81\xa2\x08\x1a \x82$\x0e\xff\x00S\xfc;\xeb\xc2\r\x95\xb2]\xfdE\xa0\'JJ\xf0\x07,\xfaE7\xf8\x86\x07\\\x8c\x1f\xc8\x86\x03 \xf7\xcez\x01\x83\xf9\xe4i\x99\x80\xcc\x97\xad$\x04\xa6\xeasp\xd9\xb7=\x85\xbd\xf0\x84{3%\xac\xb8\x0bP\xd2\xd7%\x8b\x87l\x0b\xf4c\x98\x81&amp;\xff\x00\xa2\xe7\xf1-\xc5\xf8\xea\xe9\x94\xcf\x1f\x14x\x83.\x03\x08\xe2\x0cw\xb5\xdei0\t\x97\xab\x16\xeayW\xbeN{\x8ea\xc6\xa7\xe8\xabJ&amp;+\xff\x00\x9dC\xcb\x01\xcb\xdbp1~l\x19\xaem\x1d\xb7\x80\xcaBi\x82\xc8\x0eP\x19\x99\xee\xde\x8c}1\xce3n2\xdf\xe4\xb5p\xfa-\xa9G\xc4J\xed\x8bg\xad\xb6\x1b\xa6\xf2\xa8\xb5\x87Y\xebi\xa4S5-\x1dMROJc\xa2X\x82O-:\x94\x8e\xa69B\xd4!v\xc3&lt;\x8f\x10\xcb\xe0\xd2\x8c\xa5L&gt;b\xd0t%\x0eK\x90X:M\xaeCB\x17\xc2\x95YX\x14\xb4\xa4K3\x05\xc9\x0c\x90_#\x1b&gt;\xf9~M\x1bO\x11{\xc2\xdfK|\xa8^\x1eq\xf2\xf9y\xa7\x8aIa\x96\x96\x92\xdbs\xa0h\xe6Y\x1f!\xab\xc5x\xa6\x97\x98\x88\xc2\xb3)\x120(\x84\x924\x85q\x1a\xfa\xe9bz\x82\x84\xa2\x1c\x92\xa5\x02\xc4\xe5\x89\x0c\xddC\xe6%y\x14T\xb3\xfc\x89d\x19\x80\x97`r\t{\x86l\x11m\xa2\xd3\xc3w\x1b\xf8\xb7K\xbe\xb6\xf5\xa6\x1d\xf5w\xba\xd2\xd7\xd6\x1a3\ruek\xb3\xbb&amp;9\x19f\xa8\xca\xe3\x94\x10p\x14\x8e\xa0\x90z\xd0q5j\x97-IZ\x81\n!e\x8e\xe2\xc78s\xb31\x8d\x1f\x0e\xd5,\xa8\xa9.\x96\x009\x06\xcf\xc8\x82.\xcf\xf4";\xad\xe2\x9e\xd7\xc5\xad\x81\xc0Jm\xf1\x1d\xc2\x9a$\xa4\xb7\x03s\xa82I\x1f\x9c*\xe4\x81i\xa4\x8c\xc5;\x10\xd0\xb4\x8d\xccr\xc5\x8a\xe3\x03\xd6\xb4\xca\x9f)\x08\x9c\xb5(K\x98X9r\xd6\x05\xc3\xe3{\xdbc\xca-\xe6T\xc9\x98\x8d)G\xb7l\xa3\r\xd5\x83b\xfd\xe25\x17\xae"\xef[\x85\xf6j\xdb\xa7\x12\xf7-7\xbc\xd47\x9f%-]\xceeU\x92c\xcc\x84\xc182),\x02R\xf2\x86bW\x94\x12@:j\x15\xcdT\xb4K\x92\xadK@.\xean\xad\xcf\x96\t\xb6C\x88\xce\xd5\xa52\xa6\xa9S\xd4\x94K&amp;\xcc\xce\x00\xb5\xc7\xbe:\x91\xe0\xbfxmh\xae\x14P\xed\x7f\x117\xa8w\xcd4\xeb5$RGu\xb1\xd4EZ\x92\'$~MD\x90M6fT\xca\t\xa5\xc0\xf8\xccL\xbd5&lt;\xf1\xde!\xc3H\x13B\x80\x05\xc9I$\x00;\x1d\xb1\xcd\xb0\xd6\x8a\xd9\xdc*\x8e\xbd\x0b\\\x89\x92\x94\xa6%\x89\x01D\x80p2M\xfa\x96~M\x1d\xcb\xbf\xdf\xabx\x85\xc3\x0be\xfbv\xc1K_~\x96+\xb5\xabpMB\x8a)\xa6\xb8R\x94Hn\x0b\x93$\xa8k\xa8\xb9*\x19\x1c\xb1f\x8el\xb0h\xf1\xa7\x17\xc6\x0f\x16\x96W(\xba\xd0\xe5N\xe9\xf7\x15_)=\xdf7\x8a\xaaJI\xb4\xd3\x14\x95\xa4\x04\x11\x90A\xc6_\x90\xf4\xc5\x9e\xe2\x1f\xe7\xb0\x82\x9eV\xe3\x07\x889\x14\x08!\xa2\xd8\xbb.\x9b\x91XH\xcf\xef\x17\xad\xc0\x15\xaa\x182\xa9x\x84\x00!\x01\x89\x04\xa1\n\xc3:\xd7p)\xf3\'S\x00\xb2\x19\x00\x0f\xdc\xe4\x97f\xb9\xea0&gt;\r\x18\x8f\x13\xd3\xa6T\xcf5,\xda\x94\\\x10\x1f\x1bd\xf7by\xf4\x93\x80 g\xff\x00\xb1\xf5-\x9c\x9e\x9dyW\x1f 0p\x00\xeb\xd7W\xcc\xe1\xdc{\xc7\xd9\xf4\x8c\x99PJR\xb3\x85\x90\x03s.\xcf\xcb\x19\xc0\xde\x14\x0et\x94\x9dA\xd8\x8b\x9c\xf4-\xf1\x85\x10\xc5\xbd}\xf04+\x07\xb1\xf9G\x904\xc4\x104\xb4d\xf6\xfa\x88 i\xd8 h\x82\x06\x88 \x8f\xe5\xd0\xf4\'\xd4g\x03\xf5\xf9i\xa9\x93t2\x19\xca\xf1\xe8\xef\xf3\xf5=\x1e=(\xf3\x10\xa4\xb9\x05\xc1\x03\xb7\xf3\xf4\x11\x86n\xbd\xff\x00\xb2vCQ.\xec\xdc\xf6]\xbd%\xc1\x96*%\xba\xd7AJ\xd5,\\"\x98\xe3v2\xb2\x89\xb9\x10\xbf \x8c3\x052g\xa6\xa3/\xcaS\xc9T\xd0\x82\xb7\xb1$98\x16g|{\xe1\xfaJj\x89\xe8W\x97)K\xf2Ar\x90l\x03\x12I6f&lt;\xec\x19\x86\xf1\x0c\xdf\x12|=\x9fi\xf8\xcb\xe3\xfd\xaa\x8c\xa4\xd0S\xefJ\xaa\xea*\xaaz\x98\xe5\xa7\x91wBC\xb8\xc5DO\x18\x90&lt;&gt;]\xc3\xa3\xa0\xea\xe1\x863\xaec\xc6xr\x8f\x15)+%!_\xa4Ip\\\x02\xc2\xf7\xbb\x8c\xb3\xbcu\xdf\r\xd4\x15PIT\xc1\xa5~Y\x058m$\xa6\xf8\xe4\x08\xe8\x1c\xb1xb\x1e,&lt;&gt;\xf1\x0b\x8a{~\xaa\xdbIuk}\xb2\xaf\xdd\'\xbcKGSR\xb5\x15T4Q\xc5\xe4\xdb\xd2\x14\xa6\x91%j\x94\x89i\xc4N\xcd\x08\x1c\x8b+$`\x91\x95\x1c\x17\x88\x0e+2\xaapR\xe4\xc8y\xa9J\x89!IM\xc3\x03\x9c\x03\x8b\xb9\xc9\x06.\xe5\xd5IZ\xd5\'ZR\xb9\x9e\xc0V\nI$;\xdc\xbd\xc5\xfb\xc7)W\xc3\xa8\xdb\x97yi(\xf6v\xe1\x98C%4u\x14\x10\xc7$Vz\xda\x9a)\x07-Ee;\xd3%,\xbek\'9\xf3\x9d\x8a\x1c\x18\xc88\xd6\x8eW\x1dJ\xd3\xf9_\xcb\x94\x1f\xda\x180q\xdb\xb0\x7f\x91-\x0f\xcb\xf0\xe0\x970V\x19\xa1C.\xef\x97}\x9e\xef\xce\xff\x00\x18v\x1c\x0c\xf0qMi\xbcY\xf7U\xca\xc8m\xd5&amp;\xeb\r\xc6\x9e)\x1d\x1dm\xe42\xb8\xa7\xa2\x91b,\xb1r9\x8d\xa1%\x91:2\x93\x93\xaa\xda\xb4L\x98\xb4\x02\x08IXq\xb6I\x1b\xbb\xee2\xc7\xbche\xcb\x96\x99K#! \x0e\xac7k\xdc\xdc\xf5\x8e\xf1\xf8\xaa\xe15\xb7zx|\x1b^\xae%\x92\x92h-0\x85&lt;\x85\x1c\x06\x82b$B\xb8\x7f\x89\x08\xce1\x9e\xbe\x87Z\xde3\xc3%\xcb\xe0\x94\xebCj\xd3fK\x17p&gt;\xfd\xc2 \xc9\x9a\x935\x9c;\xb1\xe4\xdb\x91\x97\xc4G\x8fz\xf8%\xba\xec\xcb\xb5m\xd6\xcd\xb5d\xb9\xd3_ij)!C:\xc2\xd0SM*\xc9\xe4\xdb\xa4D\x89!Fh\x078Ybw\xcb\x86fF\xe5\xd6f\x88N\xa5Jg9:\x86.\xfc\xec\x06\xee\x1f\xb3\xf4o+\xe8\xf8}a\\\xa9\xb3\x08\x98\xe1\xfa\x1c\xf2\xff\x00A\xfaF\x07\xb0\xbc\x0bo\x1d\xd7{\xa7[&amp;\xd9\xbalk\x9d\xae\xbd.4\xb7\xaf=\xd7\xdd\xe5\xa7\x11\x98iL\x81K\xfb\xa0\x98\xf9\xf8\x89\x87,\x8c]\x8c\x98!\xa6N\xa9_\x10\x1f\x97L\x92\xa5M\x1eZV\xd8+\x1aB\xb7f|\xfa\xdc\x98\xa9O\x07\xe1\xf4O&lt;T\xab\xf4\xdda:\x98\x12\x9b\xb1\xf6{\x0e\xfd\xe3\xbd|)\xe1\xbe\xf1\xd9[*\xe3o\xdcR5O\xbd\x1aj\xc9\xd4\xc8\xcd\x17\x9d\x1f4&amp;U\x02YZA\x1c2H\n\x95\x8c\x98\xd8\xaf+u\x07\xce\x13\xc1*\xa8\xd3R\x95\x92\x06\xceN\x06\xa2]\x83nm\xb3^+\xe6\xd5\xcb\x9aV\xa9e\xc9\x05\x98_\x19\xeb\xd3\x1b&lt;t\x87\xd9c\xc4n\x1cxj\xb1\xf8\x96\xe2\x0e\xee\xab\x9aZ\xcb\xdd\xe7m\xda\xac\x9bz\xcfo\xae\x9e\xe5q\xa6\xb2\x9b\xcdM\xc6\x7f&gt;Ju\xb6PSE=\xc5\x0c\x92\xd5V\xc2\x1b\xca\xa8e\x8d\xdc,G\xa5\xf8\x7f\x86\x84p\xff\x00\xcc-zS,k\x98J\x80\x00\x0c8g7\xbb_\x99\xda9\xbf\x1d\x93&gt;\xbex\xa6\x95u.bP\x90\xf7%JH\xe7\xf0;\x0c\xf3\xef\xdf\x01x\xf3\xb0\xfcEp\xfe\x9b\x89\x1c:\xa9\x9e\xaa\xc1%\xda\xeb\xb7\xea=\xe2#\x1b\xd3^ls-=\xd6\x8de\\\xc1V\x94\xb3\xb0\x88UR\xc9$\x120d\xe7YRX\x92l\xa9\x88\xa9R\x97N\xb12\\\xa2\xca),=\x92\x1c\x01\x9b\xbe\x1b\xa1\x8a&gt;!\xc3\xa6\xf0\xc5\xcd\xa3\xaaN\x99\x92\x10\xec[\x03\xf6\x9b\x8b\x1d\xba\x1d\xee\xf1\xbb\x01\xc8\x07\x18\xcf\xeb\xf9\xf7\xd4\xa0\xb4\xaf\xdaN\r\xbb5\x88\x88\x17a\xab,=\xcdo\xbeo\x07\xa0\xdc\x1e\xc6\x08\x1akB\xb9|G\xf3\x04\r)) \xdcm\xd3\xa4\x10Y\xcfb\t\xfd|\xb4\xb4\x97\x00\xfd\xe6\x08=\n,\t\xfb\xcc\x104\xde\xb3\xc8|\x7f\x98!,\xdc\xa4|\x8e\x7f&gt;\x9d\xb1\xfezHXT\xe4!@]+S\xef\xec\x87\xef\xdf?7IPIA\xbe\xb2\xb4\xa5#fYbN\xec6\xeb\xda#\xbf\xed\xb5\x92\xe7O\xc4\xaf\n5;2i\xe2\xde\xf7*\x8d\xd9e\xaa\x85f\x7fu\xaf\xd92\xbd\x15]\xd2\x9a\xa6\x907\x97P\xd0\xdc\xa9\xe8j\xa3w\x11\x88DN\xc6d^u~o\xe39\xb5t\xd5T\xcb\xa2[%e\x94\xfb\x10\t\xb33\x07|\x9eb\xd1\xda\xff\x00\n(\xa9jd\xf8\x8du\xf2\xc2\xd3O \xaa\x9c%\xc3\xa9E)\xbb\x9b\x96%\xc0l\x03`c\x8c\xdbc\x7fO\xb87\xe5\xc2\xbe\xba\x9f\x15T\xb7;m\x86\xb6f&amp;X\xa7\xaf\xa5F\n\x86\xa2)\x19\x18\xd3@\x89\x08U~EYa\x020\xa9\xcb\xac\xa57\x19\xa8\xad\x98\x17_\xa0.\x8c\x8f,\xa3\xd9\xd6^\xe5z\x89{\x06\xb0n\xd1p\xae\x1dL\x84-r\x02\xd0\x15\xabJ\x0b\r"\xf6a\xbb\x87\xc91\xd2U\x83\x86\x97K\r\xb8\xd4\xfb\x8dM\\t\x915\\\x0f)\xf7\xa4\xab\x96&gt;gA\xc9 t*\xc3\x08"\x08W\xa1\x1f\x10\x1a\xea\x94\xb5\x9c.\xa7\x86\xcb\x9d1\xbf4\xa4i\xd2\x08\tU\xd9\x88$\xb5\x83\xe4\x11\x8d\xed\x8f\x9dEX*\xac\x14%\x95\x87ZC(\x03\xfb\x946q\x91\xc9\xefq}C|\xe1N\xd8\xbf\xce\xd5\x02\xda\xb1[\xe2Gw\x80FS\xce\xf8\x89Uy\xd9d\x9c\xab\xe1G\xef\x06?\xf7\x82\t\xd6n\xa6\x82\x91SL\xf9hJ\x17\xb7\'$\x9bv\xc7\xf0\xf7\xd6\xd1\xd4ML\xa4\xc8\xd71H\x00\x07Pu[/\xb1\xc0\xc6l\xf8\x11\x8a\xd0lX\xef\xbb\x92\xcbo\x96\x1a{]\x96\x92\xa9"\xab\xa9A\xe4\xdb\xad\x10\xaa8X\xa5\xab\x94\x1530\x8d@YX\xb0f\x05\x8b\x82\x00f_\x0e\x9d&gt;aZ\x97%\x12\xe5\xb1Y6\xdf\x00\xbb\x12\x1e\xe0\x96\xda\xf1c6\xac\xc8\xa7RR\x95)k`\x01\xe7\xd5\x9a\xc3\x1c\xc3\x8cC\x9a\xdf\ta\xdc;J\xefh\x82\xe3E"Q\x88=\xc4\x8a\x98\x98K%1\x8db\x88\xb0i\x03\x99\xb9\xfe\x06\x8d\x02\x96\x0c\x06\x08:\xd3\xcf4&lt;G\x87\xa6\x8d\x15\x08\xf3\xa5\x06\x03Pn\xae2F\xe7\x93zC\x13dWRI\x95ZP\x08Yr\x92\t\xe7\x8b\x0b]\xb9\xf7\x8d\x01I`\xa2\x9a8\xacW\xea.t\x84yR\xd1\xd5F\xaa\xf18\xf8\x92\xa6\x9d]A(\xac\xc4\x19\x19Y\n\x8c\x84\x04\xe7Y\x89\x94fJD\x99\xcaIR\t\x07C\xe8,Ki\x0cZ\xccq\xbf;\xc4\xb0\xbf4\x99\xdeXu\x80\xa2\xe0\x8eO\xef.\xc2\xf9p\xe6\xf1\x9aZ-;cl\xd5@\xb3[\xa2x\x10\x87J\x92\x87\xca\xc9 \x83#sF\xa1\x06&gt;#\xd0\x05\x1f,\x1d[p\xc1O!R\xd4e\xca!*\x04\x93\x90\x01\x04\xe9.\x00\xfe\xce3\x19\xce+(\xce\n\t\xd4\x92RC\'{\x1b\x10F\xfb\\_\x90\x8c\x9b\x88\xfb\x8bfO\xb1\x9a\x1bS\xd1\xc7u\xa3\xf3fc\x0bDVj0\xa5\xdb\xccX\xd9\x9d\x9c\x10\x00\xe5\\\xe3\xa0R\xc0\rK\xae\xae\xa4\xf2j\x96\x85\rw,\xe1\x9d\x89\xe7\xd0}mx\xaa\x95\xc3\xaa)\xd7$\x00\xb2&amp;\xb0QP6\xb8b?n\xde\xb99\x86\xcb\xc2\xaa\xcb\x86\xfc\xb4x\x8d\xe1\x8dU\xd6;\x0c\x9b/f.\xfb\xb2\xc0ajk}\xf2\xc5\xb8\xedw\xa2\xb2\xcfqh$\x82\xa3\xf6}\xf2\xdfUM_\x04\\\x92\xd1U\xc0\x12\xac\xcc\x8f\x18/p\xc5M\xe2&gt;\x19\xe2\x88L\xc5#D\x85)%\n!O}\xc8.\x1f\x95\xc9\xc6\xc6+k\xd6\x8e\x11\xc7\xb8J\xcaB\x8a\xebi\x81J\xf0G\x9b,)\xc7\xb3\xb1-s\x12\x07\xf6?lK\xde\xc1\xf0\r\xc1\x9b6\xe2\xb7\xd5[n5\xa2\xff\x00\xb8\x045y\x13\xcdM}\xbb\xd4\\i\xab\x1b\x99U\xc8\xaa\x8aQ2\x97\x1c\xcc\xac\t\xcfB|\xf0e4\xfa&gt;\x12\x919KR\xe7M%j\x99\x96bF\x97b\xcd\xb9\xb6o\x98\xab\xfcN\xa8\x91Q\xe2\xae \xbaB\x8f*b\x04\xbf\xd3 \x80Y\x01@3\x80B\x92Cf\xcdc\x1d;\x03\x03\x03\xf9\xfey\xd6\x86A i\xd8\xadd\x13\xd4\x93n\x91\x8cQ\'K\x86\xf6R&gt;\x02\x0fJ\x9b1H,\x1b\xd4v\xfea04\xe1X\xda\xf0@\xd0\x95\x12X\xb6?\x88 \x80\x03\xb0\xd3\x08.\x91\x04\x1e\x95\x04\r\x10A\x10\t\x19\xee:\x8f\xef\xaf\x19%n\x7f\xe90;\xe1\xc7\xba\x12\xbd\x042\xbfp!I\xee\x92\xff\x00}c\x8b&gt;\xd8\xfe\x06\r\xf3\xc3}\xa3\xc4\xfb\\\x15\x0f\xb96\x8c\x1b\x97h\xc1="\xce\xf3SP\xee\xabt\xb5a\xe1\x11\x13\x89\xa4\xac\xb5\xc3\n3&amp;?\x11b\x0eZeC\x8e\xf1W\x07\xa9\xac\xa7\x91:\x9d_\xb1\xc9w\xb7\xb2\xbc\x97\xb06m\xb2q\x1dK\xf0\xc3\x8d\xa3\x86\xf1)\xb2+[\xf2\xd5\xa0!`\xa9\xad\xa99\x04\x01\xfb_w\xc3\r\xc4i\xb6^\xdc\x1c4\xd8\xbbO`J\xb2\xc5\xb8\xa97M\xc3v\xdd\xe4\xad\x12Csj\x8b\xadT\x95q\xa5U-IY\xe1AI_\x10\x8c2\xaf\xc1\n&lt;q\x92\xd8\x1c\xa12\xff\x00+\xf9i\x13}\xa9\xab\x7f0\x80N\xa2\x14@9\xc3\x10\xfc\x99\xef\x88\xea\xde$U*k\x0c\xca!\xff\x00\xd2\xcdZJ\x00\xc3\x14\x87\xdd\xaeA\xdd\xf3\xbbF\xfc\xb4\xdf+,7)\xabd\x95\xcbd\xca\x8b.DFWNPcf\xe8\xec\xc1\x80\x0b\x81\x93\x80\x009:\xba\xa2\xac(\xa8Z5{\x12PW\xe8=\xacX=\xbb\x9d\xbaF\x99&amp;A\x91)\xd0\x1e`\x03\xad\xd9\xb7\xe7\x9d\xd9\xdb\xa6\xd2\x93\x88\xb7\xba\x9ax\xa8\xe8_\xcc\xba\xd7\x90\x15\xd5\x01\x80B@\xc0nP\xc71\x82\xc4\x80\xa0\x92@-\xdbV_\x9c\x9dZ\xb0\x9aw\x0eN/\x9e\xc0\xff\x00\x16\xc5\x89\x85"\x9e\x9aT\xbdD\r\xb3\xd2\xcc_9\xe8\x0f\xbe\x19o\x8a[w\x1e\xa9\xeb\xe8$\xd9&lt;C\x1b{g\xdb\xe0\xa6\xb9\xde\xad1Y\xe8\xaf\x13\xee\x1a\xf8\xe5d\xa8\xa2\xa9J\x89)\xe5\xa2\xf3\x12@\xf1\xcf\x04\xad"yXh\xfa\xea]W\x04\xe2\x86\x91KT\xd5KB\x93|\x87\x0c\x0b\x8b\x07l\x87\xb1v\xeb\x10\xcdm\x06\x99\xa8\x99u\x82\x91/\x06\xe1A\xf7\xe4\x1f\x17\xef\x86\r\xb5\xf8\x8b\xc7\x9e!\\\xeb\xf6\x9e\xdb\xde\x97\xed\x8b]\x15\xd5\xc5%\xd6\xaa\xd7\x15g\x97\x14\x0f,\xe3\xc8\x86\xb6\x9exXJK#4\x91\xc8\xb0 Y\x14\x12uG\xc1\xf84\xc5\xcfRQT\xa3;U\xc3\xabpr\xd9\xbb\xfdyE\xa5et\xb9t\x14\xca\x9c\x07\x90\x1b 8K\x8d\x8e\xf69&amp;\xd8\xe6z\xe9\xc0\xdd\xbb\xc5?\xf9}B\xfb\xf3u\xd2n\xdd\xe3I#\xca\xb5\xf4\xf23M%(\x86&lt;4\xac\xb4\xb4K#\xb1vgE\xa5DVb\xa8\n*\xb1\xd6\xce\xe15\xd2$\x8f1ek\x02\xea\xc97\x01\xd9\x85\xbd\xd1\x0f\xfeR\x82t\xd2%\x00\x10Y\x9c\x8c\x06qb\xd9\xc0\xbf\xc0Fou\xdc\xfb\x86\xdd\x12\xc8\x12\xa6B\x9c\xd1TSI\x1bg\x9cg\xe2Nl\xfc/\x1e_8\xc0\xc7n]g\xa6N\xa9\x94\xa5!D\x87\xf6mc\xd3\xd6\xceCg\xa4*l\xbaY\xc3RF\xcc\x08\xc0\xef~v\xf4\xb3\x88\xc2-\xb5\xd7\x1a\x89\xaf\x10U\x19\x16)\xad\xb5m\xce\xed(g\x8dAl\x18X/\x96T\x9eP\xe8\xfc\xa7\xbf0\xe9\xa8(T\xe3*x*S+\xbfQ\xfe\xc7\xbf\xa3U\xe6L\xbf\xcb- \x10\x9eW.\x1b\xa9\xe9\xf6\xf1\xaa&lt;%o\x1d\xd1\xc7.1\xf1\xba\x9a\xddo\xad\x1b:\xd5\xc3\x8a\xee\x02\xd9\xaeT\xc0\xc7Y&amp;\xe4\xe2Ud\xf6;]E\x9e\xa0+~\xd1\xb8[\xaf\xafC-\xbe\x08\xdaJ\xa8\xaa\xe3\x11IH\xfe\xf5\x1d&lt;\xbd\x1f\x80T\x7f\xc7\xf0\x02\x959\xfc\xe2\x93,%\xae]`\x1b\x1b\xff\x00\x9d\xf2\xc7\x95\xa3\x8e\xf8\xa6i\xae\xe3\xb4I\x96mM7\xcd$\xe0h\tXs\xb3\x14d\xd9\xdd\xc4M\x83\xc3\x17\x04\xac~\x1f\xb87\xb48uf\xaa\xdc7\n\x8a;M\x9e\xafq\xdc\xf7&gt;\xe0\xba\xee\x1b\xad\xcfs\xff\x00\xc3\xf6ke\xde\xbeJ\x8b\xad]R\xd0E;\xdb"\xf2\xed6\xb4\xa2\xb4Q\x15\x7fs\xa2\x84\xc93I\xa5XE-*Q(0)\n\xb5\xf3\xca\xe7\xb5\xba\x92q\x19\x1a\xda\x85\xd7VUTMS\xa8U-\x00\xd9\x99#\xa3Z\xf9\xbbr\x87\x01\xa9\x002\xd3\xd5)&gt;\xf4\xdf\xe2\xf0\xc2\x8b\x92~\xf1\t!\xbd\x0f\xdb\x03\xaf\xdfQ\xea\x1d\xed{\xf5\xe9\xcb\xef}\xa3\xc8%bz\x1f\xb7\xeb\xf5\xeb\xa4JYQc\xdb\xa66\xfa\xfd\xb1\x0b\xd4\xc4\x0fg\xb9\x7f\xa7\xd2\x08 r\x07\\\x9c\x0c\xea\xb9$\xeaU\xce\xff\x008 \x9b9\\g\xbf\\}\xbb\xff\x00=X \x02\xee9}`\x85il9\x0fp\x82\x06\x915?\xa4\xa6`\\\\\x0e\x8a\x84\x9f\xdc\x81\xdf\xe5\x1a\xf3\x8a\xbc8\xdb\xfc\\\xe1\xfe\xec\xe1\xce\xe6\x85\xde\xcf\xbblu\xd6\x89\xea"U\xf7\x9b|\xb512\xd2](d=c\xb8Z\xea\xbc\xaa\xfa"A\x8f\xde`\x8f\xcc\r\x1f:&lt;:\x99*\xac\xa0\x99 \x12\tI\x0e\n\x81\x16\xd8\x82\xf6pXg\xe5&amp;\x96\xa9T\xb5(X$\x14\x10C)\x9d\x88$t\x07\x0f\xb7\xb9\xa2\xd9\xc6?f\xcf\x8c5\xe2euKm\xdb]\xe3jm\x0b]\xdfp\xcf\xbda\xbb\xc3%\x9a\xe9n\xb4\xdb\xe3ycX\xea"{\xdb^\xaa(\xe9\xa4Z;Y\xa3\x14\x8fS\xe6$\x95c\x08\xcd\xf3\xddO\x85\xfck\'\xc4\xa4\xa9\'\xfe\x1aX&amp;B\xcaI\x1a5%D\x95\x14\x13{\x9f\xdc\xe0\xe7h\xeaR|W&amp;m\x1c\x99+\x99\xfa\x9eb@\xd4\x1dWp\xc0\xdd\x98\x11g\x167\xc43\n\x8a\xa4\x92\xaaz9\x01\x12CZ\xd4\xe5%W\xe6A\x03\xf2L\x98\x91\xf2\x8e\xae\x8c\x84*\x96WR\xb8\xc8\xc6\x9e\xa4\x08UUM2\xd4\x0c\xdf7\xcbS(\xd8\x92\xa0n.\xd6\xc73\xcd\xa3\xa0S\xce\x13\xfc\x95\xa4\xb8\x12\x02\x807\x16@=Fo\xdf7\xbceT\x9b\x9e\xcb\xb2-5W{\x94\xd1\xd3\xdcjy\xc5\x04\x95\x93\x00`\xa6E\x08\xc68\xe4\x91H\xcf9U`\xb9\xe6 w\xd6\xe3\x85\xae\x9b\x86\x8fkB\x887%\x8b0fs{l\xc5\xdf\xdd\x14\xdcN\xaa\xa1k2\xd0\x08\x18:C|\xaf{\xb0\xe5\xce\x1b/\x14|A\xf0\xd7nO\xee\xfb\xbfpIv\xb8\xd5D\xaf%\x82\xd1QM-]\r4\x85\x9a&amp;\xb9MWY\x0cP\xbb)#\xdc\x9d\xfc\xf5e\xe6e\x00\xa9\xd5\xad_\x88)\xa6\xc92W7\xcb\x042[K&gt;\xc2\xf6\x18`v\xf72\xb8O\x05\xf3\xd6\xb9\xd3\xde\xc0\x10\x14Km\x97b\xc0;o\xda\x1b]\x17\x89_\x0c\xdbz\xeb\x15M\xae\xcb\xb8\xea\xeeX\xe6\x92Z\xa9\xad\x94b\x98;\xc8f\xcc\xa2\xe6\xe2\xa9\xdd\x1b\x967RU\x15U\tR\xa7Y\xcaZ\x81MP\xa9\xf2\xa7;\x97$\x04\xb0\xcd\xc69\x97\x8d4\xfe\x1d*\xa6G\x90\xee\x00\xb0\x7fgl\x07`\xecK\x1e\xfd\x9e\'\x0f\xfcQp\xfa\xe5EOx\xd9\x9b\x96\x96KlSG\x05\xc2\xdfSSM\x15\xf2\xd2\xd2\x1e_*\xa6\x08\xe7\x91M3~\x1a-Tn\xd1\xceXF\xcf\xdckK+\xc4\x943=\x99\xd3\n\xe7\x10\xcaK\x06\xd5k0 3t\x1c\xb6\x061\x95\x9c"M,\xc5$*rJK\x15\x00\xa0\x87$\xdc\x17\xbf!`\xfd\xc8\x87\x03q\xdf\xdb~\xf9k\x8ft\xd1\xcf\x0c\x91G\x03TH!\x92)\x12v\x81\x96\\\xa0\x85\xdd\x01\x96\x13\x18G\x1f\x0e$R\t\xe6\\\xc1\xa9\xa6Mt\xc16U"\x94\x90\xc4\x90\x17\x87.}\x9c\xb6\xef\xbb? \xf5\x1dr)\xdaZ\xe6\xc9\xd3\xfe~d\xc1\xabN,2\x0b;s-\xc9\xe3\x1f\xe2\xf4;\x9bh\xef\x8d\xb5\xb1\xa5\xb4\\j\xf7?\x12\xed1S\xec\xbbE\xa6\x18\xae\x15\xf7\xd8\xaf\xf5B\xddl\x92\x8b\xc9\x92?x\x82\xa6\xb6\xa2\x928eG*\xd2H\x8b\x13;\xb2\xa9\xf2\xb7\x81\xf1\x04\xf1z\n\x04\xcbM=1\x96\x95\xeb)`\xaf=(&gt;\xd1)\xd8\x9b9,\xf1EK\xc7\xe9\x8d\x1dbQ3Y\x15K\x00\xa9Z\x88N\xb5\xfe\xddD\xb0\xe8\xfd\xf1\x1do\xf6@\xfb9\xef\xbc\x1c\xd9[;\x8b|F\xa2\xa1\xa3\x8bs2\xf1J\xcd`\x92f\xaa\xba\xdcn\xdb\x9cT_\xac\xb7\xdd\xc1\x00\x85!\xa2{{\xdc\xa9\xeeV\xabk\xd4\xd4I@\xd0Z\xd5\x84oB\xa1/\xe98erj\x94\x89\xf5\x08\x9dIM3\xc8\x91-\x1at\xa5R\x8b\x12Y)\xb9`nI\xb1!\x88\x8ew\xc4*\x89\xa9\xa8Z\\\xa9s\x165=\xd2\x1c\x82\xc4\xde\xe0\x11f\x1c\xb6\x89\x08\xc4\x08\\\x11\x8e\xa7\xa61\xf9\x9f\xaf\\\xe0\xf7#\x04\xe0\xe4kT\xb4\x00\x94\xbb\x16\x01&lt;\xc37\xf5\x7f\x90\x8aR\x8dd\x91g%G7=[{\xe7-\xbc)\xbft\xfe\xbdt\xeba\xeeX\x079h\xf4\x8d%\xb9}o\x04A\xc2\xf4\xecW:J\x80 \xb8\x06\xc7h\xf2\x17\xa6\x00\x03\x00\x0e\xc0A\x03HY!\x98\x91\x9f\xa4\x0cN\x03\xc58\xfd~\xdf\xe7\xa8\xf2\xc1$\x9ev\xeeKG\xa6\xe4\xf71P\xf68\xef\xe9\xab\x14\x0b\x13\xcf\x1e\x8f\x1eA\x01\xd8\x9e\xf8\xc1\xd2\xe0\x83\xfc\xb4n\x01\xfd\xa78\xf8\xfcq\x1e\x7f\x9aN\xc0\xb9\xfb\xfb\xfeHsc\xaf|\xff\x00/\xb6\x92\xb1\xe5\x97\x94\x90_ `f\xe3\xea;A9!J\nIr3\xd7#\x99h\xa1,+*\xbcn\x8b"J\x19\x1d\x18\x02\xa5\x18\x15n`\xdd\x1c\x15%Y\x18r\xb0lv\x1a\x8eG\xe6\xd4\xb9s\t\x97-2T\x0b\x07u\x16\x05\x8f@\xef\xea/\xb3\xb2\xca\xc5\xc1\xc2\xc1\x1d\x03\x83\xb7V\'\xb1\xce\xf0\x8e\xf1-\xb6\x93b\xf8\x89\xe3^\xd6\xa3\x1e\xedE`\xe2\xe6\xf6\xa0\xa0X\xc9\x04Z`\xdd\x15\xdf\xb3T\x06%\x89[H\xa6\xe6#\x9b\x9d\x95\xdc\x16\xe6\xc9\xf9S\x89\xd5\x1e\t\xe2\xaa\xc9\x06b\x97(\xd6(\xeafieE\xcd\xce\xe1Wr\x0fm\xfbW\t\xe2\x1a))\'\x95\x10\x99\x92\x10\x80,HYH\x01$X\x00\x08\xb9\x01\x9a\xf9$CN\xe2\xf5\x99\xb8\xb9WI\xb4#\xbcT\xd0["\xa1a[WD\xd8\xadW\x95\xf9\xd9\xa0|r@q\x10\x1f\x11g\\\x92\xaaN\x06\xb7T\x8b\x97X\x9f=3^NI%\x8b\x1b\xb6y=\xc6\xfb\xbch%\xaeT\xe1\xa8\xa7T\xceB\xe4\x9c\x8e\x8e\x01\xc9\x19\xbci\x8bg\x01|/\xf0\xae\x9e\xb2\xab~\xed[\xc7\x11\xa4\x987\xbdW\xdd/7\n\xda\xb9\x03\x80\x8d#\xc3\r\xda\xde\x19\xcf\'\xc4PC 8\xf8\x94\r^\xc9\xe2\x1e\x1b\xa6I\xf3\xd2\xb9\xf31\xa4 \xb2T\x1b%\xce\xe3\xaez\xc4\xdaSW\xadAi\x12\xe50oi\x9e\xe3f\xb6\x01;\x8b\x83s\x1a\xfe\xc5~\xf0\x1fC\xb8\xa7\x1b[\x80\x9e\xfdt\x97\x90S\xd3\xdd\x1a\xa6\xe5O\x08\x80\xb9\x01)/\x1b\x92\xe1\x04A\x89vb\xcb3\xe7\xa9\x93\x01#\x8d\xef\xfd\xc5\xc2e\x03\xe5p\xb5\x14s$\x8b_b\x92Z\xf6\xe9\xef7!2\xd4\x8fbjJ\xc0b\t\x0c\xe1\xb7\xdf|t\xc4g\xb7.\n\xf0\xcb\x8a\xb7\x08\xaf\xdbwe\xda65\xc1i\x18\xd3U\xd8\xaa&amp;\xa1fe,\x04s\xdb\xa8gK|\x81T\xf2s\xbaJU\x97&gt;^\x00:\xf1~ \xe15)\t\xa7\xe1\x08EB\xb2\xb30$\xde\xc4\xb1I\x7fw\xad\x83R\xf1\tU\x0cW:\xa5"R\x8d\xa5\x89\x1a\x949\xba\xc6M\xdb\x90v\x19x\xc4\xed\x1e\x12\xed7\x87\xb5\x98\xf8\x81\xb8\xecuV\x1b\xd47%\xb7XjL\x16\xd6\xa9\xa3\x9aib\x99\xe9\x9av\xa7\xa6\x7f6S,\xcb\x05\x18y\xd6i\x15\xe4\xf2f\x96\x01\x02\xb3\x8a\xd6\xc8\x915\x1ex\xa5L\xd9jJR\x80\x17\xa7RH\x1b\x82\xedw\x1b\xf5\x8c\x95e\x17\x0e!j\\\x99\x8a\x98G\xff\x00 \x98R\x12vV\x91b\x12K\xb3\xf7h\xee\x17\x83m\xb3g\xdd\x9e.\xb8\x19\x05\xfe?\xda-\xc2\xab*\xd5Z\xea&amp;\xab\xac\xac\x95a\xdaTf\xb2\xd9O\x18\xac\x9aqN\xb2\xba\xd2S\xc9\xe5\x15\xe6\x8e\x15vY\t%\xa0\xf0\xbf\x11q\x1e/\xc5(i\xe7\xd5*h\x92&lt;\xb5\xa8\xa4\xa4\xe9F\x94\xa0\xb8;\x8bf\xc0\x16\xe5\x18\xba&gt;\x0f&amp;\x86\x8a\xadK\x98|\xc5\xceT\xc4\x01\xed{*Yb}\xa6\xc1\xc3|"T\\\x03\x87\xdd\xf8\x1d\xc1\xa8\x08\x00\xc3\xc2\x8e\x1e\xc2B\x9el\x08\xf6\x95\xa1UA\xeeyT*\x92GR9\x87\xefu\xecr\x88\x95\xa1\x12\xc3\xa5\xbc\xd5\xac\x97&amp;b\xc3\xa8n\xd9;\xb1\xff\x00\xad\xa3\x1bXI\xa9\x9c\x9f\xf1L\xd5\x90\xd6rI\x0flu\xbb\xf4\x0ecnjj\x8a\x94R\xa6\x01\x038\xe6\xc5\xedw\x1f\'\x86\xd4F\x96I\xbfK]\xb7\xdb-\xbc\r&gt;H%\xc6\x0e\x1d\xfe\xb0\xdau0\xd7\xfb\xb7\xf7\xdb\xe0\xd05\xe4{\x05\x91\xf3\x1f\xc7^0\xe4=\xc2\x08\x07&gt;\x98\xfb\xff\x00\xa6\x98\x9c\x9c0\xf7\x0e\xef\x8fHRH\x05\xcf/\xe2\x11\x1f\xaf\xdb\xfc\xf5\x12N\x13\xdc}#\xc2\x18\x91\xc8\xb4+\x9b\xa08\xeeq\xfd\x7f\xb6\xacQ\xfbG\xaf\xcc\xc7\x90g&gt;\x87\x1fl\xe9P@\x00\x8e\xe7?lh\x82\x0809\xf9\xf5\xc0\xf9\xe8\x82\x0c\x9e\x99\xc1\xcf\xc8u\xef\xe9\xf9t\xef\xfe\xda@J|\xc6\xc1ZU\xef\xd8\xbf\xdf\xc8G\x8b^\x99v\xdd_\xc7\xd5\xb1\x10\xe1\xf6\x95P\xc7\xb6&lt;mq\xae\x80\xaa\xc5\x05\xd2\xf3d\xb9\xc4\xe0\xe1\x05m\xe3f\xed\xeb\xfeH\xc7\xc2\xd5&amp;\xe6\xca\xcc\xc4fNi\x08\xc1\n&gt;T\xfcC\xe1\xca\x95\xe2*\xa9\xcc\x00*R\x9e\xc1\x9c$\x82\xf6\x1b\xfcOS\x1d.\x8el\xc4\xf0*Y\xe3\xf6\xca\tQo\xff\x00\x95\x10_k\x10A\xb5\x9bk? \xef;\xa2\xfb`\xdd\x15"\x8e*\xba\x89\xe7\xaa\x91\x80\x8c:\x98\xe0\xe6`\xaaUQ\xbc\xc5\xc1b\x18`\x10\x0f\xa6N\x9a\xf0\xd5T\xda\x92h\xd10\x96,\xc9WNO\xb3Y\xeff\xdd\xa2\xd3\x85\xf8\x85\x01@L\x01\xac\xc4\xd9\xed\xce\xde\x9d\xb7\x8f~\xfb\xc0\xbe \xf1v\xd6\x9eO\x96\x91T\x85\x95\xea\xa6\xab\x8a\x99\x059\x01\xcbr\xfb\xc4D\x15\x0c\x0b p\xff\x00\x10\xe6\x1d\xb3\xaf\x1e\x1e\xe2I\xa8T\xc4$\xa9&amp;\xeb*b2H\xc9g\xc3\xf7\xcd\xed\xb6\x93\xc7x|\xe4\x04LS(\x81\xa4\x07rm\xd2\xf6\xf4\xb7\xack\x9a?\x00\x97\xa8\x1d\xe6\xb4\xee\xdbY\xba\xd1H\xb2,b(#\x90\x06 \xb4Q\xd4\xcbW\xf8\x8e\xc0\xb6:\x96l\x85\x1e\x9a\x9d2\x86\xb5H\xd0\x94\xa0\xa9\xb4\xe5\x177\xe6I\xf4\xe5\x83\x97~M]\x1a\x15\xadj^\x83\xff\x00\x93&gt;\xce\x1b{\x1cw;F\xcf\x9fho\xde\x16\xd9~\x04\xaa\xaa\xa9\xa7\x061\x122y\x88\x0e\x04\xb2\x02\\\xc4T\x80z+\x92\x0e{\xf6\xd2\xb8w\x00\xab*\x992hPRA*\x01\xad`\xec\xc7\x91=\x00\xb9\xc4Wq\x8e?G\xa0K\x92S\xa5,\x12rC\x1b\xd8\x87~\x84\xec\xcco\x17&lt;!\xddU\xb3\xee\x03p\xb9\xd1sQ\xe6(\xeb\xa2\x82\xa0\x01RR\xa2\x19*Q\x9d\x94\x88j$\x804@\x95\'\xa8\xc6q\x8dc|C^\xa95\x0b\x92f\x17\x97\xb6\xa6.\xc4\xb0\xe8\xfd\xb1\xd4\xc6\x17\x88q\xb0e\x94$]`\xa4Z\xee\\e\x9c\x10\xf6\x1c\xde\xfb\xc7R\xbc\x06o\nD\xf1\x03w\xdf\x95r\xc7EA\r\x97tMJ\xee\xe2H\xe9\xad\x96\xfb-t\xf2\xb1p\x143G\x1d$l\xdc\xa0\x17\xf2\x9b\x1f\xbd\xd6\xdb\xc1\x14\xd3&amp;U\n\xb6,Nt\xee\x0b\x8d\xf9\x020\xfd\xc0\x88\xd2\x93:e\x12\xcc\xc7\xc0$\xaa\xce\x1f\x9e\x00\xc69D\xb487O5\x0f\tx]I8\x0b5\x1f\x0e\xb6U,\xab\xdb\x12Sm\xbbl\x0f\xd3\'\xa7\xc0\x009&gt;\xb8:\xed\xf2\'\xa8\xa8\x02\x7f\xc5)\x16\xb3\x81\x83\xcc\xe3v\xdd\xf9\xe1+\x82EL\xd0\x96-1w\x05\xde\xef\xf3\x7f\xf6\xe4\xec\xf1\xd4\x03\xf3\x00\xff\x00-]!aR\xf2\t\xfe\xc7\x</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -654,6 +800,10 @@
           <t>Emerson Ricardo de Almeida Andrade</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -664,6 +814,14 @@
           <t>Bruno Mota Correia</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00H\x00H\x00\x00\xff\xe2\x01\xd8ICC_PROFILE\x00\x01\x01\x00\x00\x01\xc8\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x07\xe0\x00\x01\x00\x01\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00$rXYZ\x00\x00\x01\x14\x00\x00\x00\x14gXYZ\x00\x00\x01(\x00\x00\x00\x14bXYZ\x00\x00\x01&lt;\x00\x00\x00\x14wtpt\x00\x00\x01P\x00\x00\x00\x14rTRC\x00\x00\x01d\x00\x00\x00(gTRC\x00\x00\x01d\x00\x00\x00(bTRC\x00\x00\x01d\x00\x00\x00(cprt\x00\x00\x01\x8c\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00\x08\x00\x00\x00\x1c\x00s\x00R\x00G\x00BXYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfXYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-para\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00C\x00\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\xff\xdb\x00C\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1e\x00\x00\x01\x04\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x06\x05\x07\x08\t\x03\x04\n\x02\x01\x0b\xff\xc4\x00&lt;\x10\x00\x02\x02\x01\x03\x03\x03\x03\x02\x05\x02\x04\x05\x05\x01\x00\x01\x02\x03\x04\x05\x06\x11\x12\x07\x13!\x00\x081\x14"A\t\x15#2Qaq\x81\x91\x16$B\xd1\x17\xa1\xc1\xe1\xf0\n3CRb\x82\xff\xc4\x00\x1e\x01\x00\x01\x04\x03\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x06\x03\x04\x05\x07\x00\x01\x08\x02\t\n\xff\xc4\x00:\x11\x00\x01\x02\x04\x03\x06\x04\x06\x02\x03\x00\x02\x01\x05\x00\x00\x01\x02\x11\x03\x04!1\x00AQ\x05\x06\x12aq\x81\x13\x91\xa1\xf0\x07"\xb1\xc1\xd1\xe12\xf1\x08\x14B\x15#b$34Rr\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xa5\xcc\xad(\xf2\x19\x05\xb1v\xb5\xb7\xab\x04\x8b(5&amp;(9!\xddF\xea\x8c\n\xf8;\xae\xc3\x7f\xc7\xe0\t\x8cC\xe12\x0b\xf8\x7f\xdc\xda\xea\xe2\xe6\x92\xda\xb0\xafVi (\xe8\xdb\x007\x9c\xab\x13\xf2|\xed\xff\x00oY\x8c\xc2\xec\x98\xfc\x8d\xdf\xab\x93\x1d\x18\xa70\x86cvJm\xc6\xc7=\x812L\xe8\x15\x9fr\x18\xb3\x1d\xb9\x1f?\x9fY\x8c\xc6\x95\xcc|\xb1\xbbC\xa8\xf2\xb7^\xdbWF\x88\xd7\x8eE\x88\xd6\x0e8\xf7$\xee0f.\x08m\xf6\xdb\xfc|\xe1\xa0\'Lf\x13\xace\xae\xcf\x1d\\f0\xc1\x15Xa\xb2;\xbc\x83\xcb&amp;\xcd\x18\xdd\x80\xd8\xeev$\xf9\xf0w\xf8\xf1\xeb\xcf\x1ay\xf9c0\xb5F\xc4\x18\xcc]\x86\x9e\x98\x0f5ha\x86G\x90NRO\xa8\xe6\xcd+\x14\x04)\x04\xf8;x;\x12~}\'\x11Y\x87-\x95&lt;\xc1\x19g\x86\xc7\xebG\xd3\xdf\xd7\x0b\xd8\xd4\x96\xbe&gt;C\x90\x92\x0b(J\xda\xad\x15:\xc1X\x17\x0c\xe8\x11\xd5\xdf\x99\x01\xbc\x95PA\xf9\x1ev\xf4\xd4\x97\xa9\xc6\xdf\x86\xb6j\xfa\xfep\xb5NZ\xefj\xd6R{F\xa4\t\x02\x99\xa4\x9aC\x1c\x8c\xf1\xee\xd1\xd7!\x88;J\xdc#\xd8\xfc\xf3\xdbo&gt;\x94J\x01\xa9\xce\xd5\xf7\xefK\x8d\xa6c\x85AE\xd8\x17f\x1f\x9f~\xb8l\xb3\xddS\xd0tl\x06\xb5\xfb-\\\x8fzXa2Z\xac\xb66v-+\x88H\x0e\xcc\x19W}\x88\xf9\xf9\xdfo[\xf0\xc9\'\x86\xa0k\x7f/\xc6\x1f\xa2vZ%\xc6v\xe9N\xd9\xd3\xfb\xc04}q\xd1\xd6\xfe\x8a\xba\xebF\x86\x942\x16\x7f\xa8\xa2g\x81\xabHLl\xb1\xa9\xb4\x8b\xf2\x1d{\xa0\x90G\xdb\xc7\xed;\xb9\x8191(\xa0PJH?o\xabzY\xb0\x94yY\t\x94\x90\xb4\'&lt;\x80\xbeLX\xfa}q)\xba\x19\xee2-\x0b\xac\xb1\x9a\xa7\xa7\xba\x99n\xe5\xf0\xd7)\xd8\xa5\x8c\x81\xbe\xa7\x15&lt;\x10\xc6U\xbfp\xc3\xc71Y\xa3s\xc3\x9cm \x04\x9f\'\xd1\x0e\xce\xdf\xb9\xb9\x18\xf0\xd4\xa5\xa8&amp;\x19\xf9\x98\x9a\x00G+raK\xe5\x81]\xa7\xba\x9b2n\x04T&amp;\x1aIX\xa7\xca\x1d\xc8f\xce\xddqn]:\xfdS5$\x1a\x9aG\xea\x86\x8d\xc4\xdf\xd23R\x10\xc2\x980\x98\x8b\xb8\xfb\xd0\x89${\x99\x02 \xb6Z\xad\x90\xd0\xc3\x0cN\x91\x88$G\x93\xb9!&lt;E\x99\xb3~+*"\x92&lt;J0\xce\xa4\x9f"\xd6\x07\xdb\xd5\xdbO\xe1\x94\xb1J\x8a`\xa4\x92\xe4\xd08\xa87\xcb\xee\xdc\x9f\x13\xff\x00\xa0\x1e\xe2\xb2&gt;\xe1)\xe6\xb5&gt;;\xa7\xb0\xe0zuZ\xf7\xed\xb8\xbdZ5\x0cys{$Z`\xb4EE\xc6\xd4\x12\x80 \xb2$\x9cY"\xa3\xc3\xd8h\xc9rV\xd7\xd8\x1b\xe0\xad\xa4\x10\x93\x15\xf8\x88\xa9:\xd4T\x9d\x19\xf9?zkx\xf7 \xc9\x15\x94A \x07/\xc3J\xd7\xcbQ\xcb\xceP\x8e.\xa5\xd4\x92I \xbal\xb18\x00l\xe8\xc0\x11eX\x90;\xcb\xc4n6\xd8\xf1\xf5g\xca,)\x02"\x94\x18\x8aT\xe6(\xfa\x1c\xedZ\xbb[\x15TY\x18\xd2\xd3\x04)$\x00s\x1a[\xd3\xf7\xa0\xcc\x84\r\xc9\x1b\xfc\x7f\x9f\xef\xe7\xf1\xe9h\xc4\xad-\x0c\xd5\xee\x0b\x07\xcb\x9b\xf6\xc7\xb2\x19\xcb\x102pq\x95\x82\xb8\x04\x03\xb9\xff\x00\xcb\xfb\x0f\x1f\x9f\xfe\x0f\xe8\xcd\x08\x99J\x88Qp\xe4\x1a\x96\xeb\xca\xbaPa\x13\xe1\xb9{s\x14\xe7\xe5\xcf\x1eV \x1fv\xf8#\xf26\xdf\xc8\xf1\xbf\xfe\xbf\xe0\x0f\x92=&gt;wH\x06\xe0\xe5\xde\xb5\xd0\xfb8\xf7\r0T(\xce\xc4\x1dr/\xf9lg1\xa6\xdf\x1f\x03\xc6\xff\x00\x8f\xfd?\xcf\xe3\xfam\xeb]\xcf\xa7\xe3\n\xf8H|\xae\xaau\x16\xbeW\xc7\x81\x1a\x1f\xe8\x7f\xd3\xfe\xfb\xff\x00\xef\xeb1\xa3\t\x1a\xb5F\x9a[\xef\xed\xf1\xc2\x85\xbb\x99KQ\x84\xc4e.U\xadZ\xb4v\xacYd\xac\xfc\x8b)x\xa5r\xd1\xbcfI\x00v1\xa0\xd8\x10A@\x00\x1e\xbes\xe3\xe9v0Th.Z4\xa9\\7r)Q\'\x91,0\x8e9_\xbeyO\xca.\n\xa5G\xfd \xaf\xf2\xff\x00)\xdco\x98\xcc+\xd4\xa9\xab/\xd8\x92\xb5Kq\xbaF\xcd\xf5h\xb3\xc7^fE$D\xb0\xf7Z%\x95\x19yq\xe4X\xb0\xe2N\xe7\x7f[ \x86|\xea1\x98Xi\xea\xdf\x95*\xe6\x85\xd8%\x83\xf8;\xda(\xac\xd5\xd0\x16\x067\x88\xf0}\xe6\xe4\xbb\x06c\xb6\xfe6\xf4\x8a\xc9v\xc8~\x8e3\x1e\x16\xb5\x18\x99\xdb\x18\x91F\xee\xc6(\xa5\x99\xa6f\xdbr7\xe0\xbc\xbev\x04\xfd\xbe|o\xbf\xa4J\xc0:\x8e^\xeb\x8c\xc16\\\xe1\xf1\x14\xaaV\x96\xed\x8b\xd7\xac\xc1\x1b[\x87\x8c\x1c"\t!\x91\x8a\x15D$\xf1_\xc1bA\xf5\xa5\xa8\x10\xc3;\xde\x99\xe1\xb7\xd3\xef\xef\xcd\xe9\x81\xcda\xae\xf0\xb8-&gt;\xb9F\xb0*\xd7\xae\x89\x04p3 \xb5h\xba\xf2\xde8\xd8\x10\x118q\'\xec#\x92\xed\xf2}x\x00\x92\xc3\n\xa6\x1f\x10\xce\xa3O\xae\xaf\x95\x9f\x10;Wu;U\xea\x8bV\xe8P\xc9M\x85\xc4O+G\xf4\xe8\xccL\xf1\xc2\x04\xfc\xcc\x8c%\x91dm\xb8\xabsD\xe4\x17}\x86\xfe\x9c!?-n\x054&amp;\xb4\x7f\xb0\xedl,\x89#\x10\x84\x9aqR\xc1\xc3\x9c\xf9Y\xaf\xcd\xf0\xd2\xae\x96\xcb]\x92Ie\xbb4\xe4\xccd\x8b\xebei\'\x01\x8b\x1f\r\x01m\xb7\xdc\x1f\x07o^\x91\x15\t,\xc1\xea\x1c\xfd\xed\x97\xf5\x89\x11\xb0\xd2\x84\xb8.Y\xdd\xc5\xef\xd7\x9d\xbb\x8ck.\x90\x92\x94\x9c\xecY5C\xcc\xae"&amp;N.\x15\x94\x9e\xd8p\xdb! \x8d\x86\xc8&lt;\xf8\xf2}8\xf1 D\xfeL\x0bX1\xca\xf5\xbf~c"Kx\x9b9i4\x7f7&lt;\xbf\xac\x83`\x87\x13\x90\xb9\x8b\xc9X|M\x9b8\xfbA\x10\xc1"K$}\xd6\x8c\x01\xb0(|\x82v;x_\xea&lt;\r\xd0\xff\x00F\x0cu0 =^\x80\xe5j\x0e\xc7\xf2\xf8DJ\xa9\n\x05\xc9f \x1a\xb8\x03W}E\xe8\x06$\xf7N\xba\xefqnQ\xd3:\xb6\xe0\x92\x0bc\xb7[,\xceKS\x94\x03\xb2Z\x03\x89\x91\x19\x80\x1f\xc4\x8eA\xf7y#\xf0\xa0\xd9\xd0\xe5HR"X\x8c\xf2\xe5Ol\xdd2,\x01\x11$)7\x05\x9a\xb909\x9a\x11\xf6\xc4\xd2\xe9\'\xb8\x8e\xab\xf4\xc3S\xe2\xedh\xcbY\\\x86\x07\x1b\x95\\\x83\xe2#\xb9$X&lt;\xbb#\xb9\x0c\xb5b\x9a \xad*\xc8\xc5\xdb\x84L\xcc\xecw\xf3\xe4\x9fdo$]\x94\xa4\x84\xa8\x9e\x12*\xf7g\xea\xe5\xaf\xcf\xb0\xc0\x16\xde\xdd\xe8s\x89R|0\xa2\\[=Ch[\xd3\xa6.\xa7\xa7\x1f\xab\xc6\x07!\x8f\xc8\xd2\xea\x0fL[H\xe4\xb1\x11\xc9\x1e9*\xcd$\xb4\xf22\xc7\x08j\xcb;M\x93\xb3,\x7fQ`v\xc7\x16\x88n\xdb\x9d\xbc\xfa\xb2d&gt;*\xc5dATFv\xff\x00\xa3\x95N~\x87\xa5qPmo\x87J\x98\nT8E\xc9,BC\xfd,Z\xc0\xd0Pr\x9b\xdd4\xf7\xcd\xd0\x8e\xa5G\x84\x812\xdf\xb2j\x0b\xd5\x05\xac\x9d9\xe4\x8a:\xb8\xe5\xde5uyfgI\xa3\xe5*\xec\xb5e\x9e\xc0\x04\x06PC\x85\xb2\xb6\x07\xc4\x198\xc4&amp;4T\x92M\x8a\x83\xb9\xd2\xaf\xf5\xee\xe4`\x0fh|&gt;\x9b\x80\x82|%Q\xeaSz\x91Zr\xd3\xed\x89\x7fZz\xd6+W\xc8Q\x9e\x0b8\xfb\xd1\t\xa9O\x00\x99\xfe\xaa\x17\xfeI fR\x826\xd8\x81\xdc*\xe0\x86\xdf\xc7\xab*Wl\xc8\xce\xa5&amp;\x1cn%\x1b\np\xea\x1c&amp;\xaes\xca\xd8\xae\xf6\xa6\xc2\x98\x94*\x1c\x04\x11\xc5\x95I\xb5\x1e\x9eu\xbd\xb1\xb07S\xc7\x83F6\xdf\xb6\xdb\x13\xb9\xf9bw \x13\xf1\xb0;y\xf8\x1bxz\\\x80\xa2\xd5\xa5,9~3l\x0cC\x87\x1a\x1cB\x14\xf9\xf6\xab_\xaezg\\{\xd8\xff\x00C\xebXt\xd1\x0b\x96&gt;\x9e\xc7\xbdq\x90 \xd8o\xbf\xc7\xff\x00?\x1e\xb3\x1ae\xf3\xf3\x18\xe2O\x0f_H\xa68E\x97E\x15\xdf\x86\xd5\xaa\xb2QT`&lt;X\xb3\x08\x0e,G\x1e\xfb\x84n!\x14\x90\x1b\xee\xf1\xf3\xab\xc5M\xb3\xeb\xef\x9f&gt;Z}+Tu\x03@\xe1\xcd\x98\xd1\xfd\x87\xa8\xe4\xf8\x11\xa7\x0e\x92\xd2\x16\x1a\xc5\xe9\xb1\x8bZF\x91\xa0\x92zp\xcbr\xe4.\xcc@\x01\x9c\x18\xab\xa1;\x16\x05\xd4\xf0c\xb0\xe5\xb0] (?\x10\x1e\xfa\x8c-\re`8:\x13\x95\x9f\xb3\xd2\x9c\xf0\x1b}r\x99\xdb\x162\xba~\xfe"d\x8e\xe4\xcf\x17\xd1\x98\xed\xa5|zHMdy\x11\x94U\xec\xc2\x00\xed\xec\xdc&gt;\x07\x85\xf5\xb5\x04\x80&gt;kR\x8dW4\xb5\xaao\xf7\xbe\xca\xd8\x90\xd6\xe7\xfa\xc1v;=\x06^\x13\xf5\xa3\x1d\x95\x97\x1d\x19J\xee\x8d\x1d\xd8\xe2\xb2\xa0\x96\x8f\x8e\xdb+\x9eD\x9f\xb8\x10\x1b\xcf\x8f\x96\xcb)\xa9|\xb5\x0c\xf4mO\xee\x83&lt;h\xc4l\xbd\x7fXN\xa7\x16_\'&lt;\xb6\xae\xe3/P\xb0dh\xf1\xbf\xb7\x89#\xa9\xc7r\x15\xe4dED\xf8C\xf1\xb0\xdc\xf9\xdczf\xa2@$r\xfa\xe3&lt;N^\xbf\xacnY\x84\xd5\x89\xf36\xebMn\xa6.\x19%\x90\xcb]\x8c\xb1\xb2\xa3rI\x03r2\x81\xfc\xdb\x9e;\xee\x07\xf7\xf5\xe9\x1f5\xc8\x1e\xc6\xad\xf7\xc2G\x89?\xf2K\x9aR\xdd\x9a\xce\xdd^\xb5\xbc#\xeaN\xa9\xb3\xaf\xb5\x96!f\x02\x1cD\xa4\xc3^\xacQ\xfd\x02\xc6\x88\xd1 \xb0v,\x1f\x92\x80\xcc\x9cWr\x7f\x9b\xc6\xfe\xb5\x11h\x828\x8a\xc6\xb7\xd3@\xf6=\xb1+\'\x06&lt;Vh\x04\xb3\x0f\xe3Z\x03[3i\xaf;a\x06\xadzr\x98m=\xba\x92Ij\x9b4\x15B\xa7\xf0"\x12\xcd\t\x92X\xb9\x1d\xe5a\x1b\xa8s\xc4\xa9\xe2\xc3}\xb6;\x13\xd0\n\x08\xe3\x00\x8a\x07\xf3\xad\x8e\x9f\x8c\xf1$ L\xc3X\xff\x00\xd0\xa0(\xe4\x82\x00\x0e\xf6o\xb8\xbb\xe0\xfb\x13\x86\x9a\xb6=\xde\xac0\xd8k\x14\xacI\x13\xc9\x18\x8aJ\xef\x0bF\xa8\xab)\xdc\xbcd9-0\xe2\x10\x85R\xac[\xc3(\xd1\xd2B\xb8Wj\xd0\x8b\xd6\x9dI~\xd9\x8cH\x15\xa5\xab\x14\xa5\x85E\xaf\x97\xf2\xf4\xd2\x94\'\x1e\xb3z*\\\x96\n\x95\xeb\x11Y\x8e\xe5`9=\x96i\x03F\xccUeGn&lt;a\x0cX"\xecA!\xbc\xf9;1\xf1\xd4\x92\xfcd\n\xb3\x16\xa7!\xd1\x87L\x9f\x08\x98p\xa2\x92Df.\xf6\x19\xd1\xc5jr\xa3]\xf2\xc3x\xd8KM"Z\xfa\x1by\n\xd59\xc1\x1d\xa8*:\xef8 \x15M\x8b\xf7\x82\x14e\xdc\x11\xb8\x04\xff\x00\x87\xd06\x92R\xa4\xa0\xc6\x00\x96\x0e\xe0\x9f\'\xf2\xcfA\x8cT\x81)\xe2\x84\xae5X$\x02I\xf2\xce\x9d.\x071I\xf0\xd6d\xb9\x92\xb0\xf4\xde)7@8\xb9gI\x01\xdd\x7f\xe5\xc2\x82\x9b\x1e$\xbf/\x1eN\xc7c\xbb\xf5\xce%b\xb3\x00\xd7[\xbd\xdd\xcdi\x91\xce\xad\x9e\x1a.Ni\x892\xeb\x0c3I\xfa\x91M;\xf9\xcc_n\xddF\x9a\x9d\xe8t\xde\xa1\x96\xd4\x8b\x1d`q\x96+\xc8\xd1\xbcr\x8e\xd8X\x9d~\xe2\xc0\x86?w%\xdb\x8f\xc1\xdf\xc6\x04\xa2/\xfd\x83^\x96\x1c\x8e\x99y\xe2\x12a+B\xcf\x1c&amp;\xadx\x83\xe7k6\x8d\xf4\xc4\x8b\xd4Z\xaa\xbc\xb2\x1a/\x81\xfd\xc0\xdcxR\xc3M\x18\xb7\xc2\x1e\xe6\xc9e\xa4h\xff\x00\x85,lY\xa2;\x12\xb2"\x90w\x1e\xb4\xb8\x06\x1ax\xe1\xab\x85A\xad\xce\xa3\xd2\x83\xcd\xf1\xea\n%\x83-P\xd2A\xb8aw\xcd\xf9\x8bg`Xa{\x0f\xa72/J\xbc\xf8\xec\xc8z\xd8\xb6\x92z\xf5\xe0\xc7\xff\x00\xcdU2\xcagef[\x1c\xa5dbW\x97\x14\xdcnv\x04\xfaR\x0c\xf4\xec\xa3-1\xd6\xc9/\xc2\xe5\xf3:\xdb\x90\xbeX\x8c\xda;:N}*B`\xa5\n4\xb5\x18\xdb*\xeb\xe9\x8b(\xe8o\xeaE\xd6N\x91U\xc4\xe25M4\xd7:\x16\xbcq\xe3\xe2\xa1&gt;5\xf1y:pB\xa0(\xad\x94v\xbe\xf0\xf1\xe6\x08\x85`\x1eF\xdb\xfd\xfb\x8b\'t\xbe!L\xca\xc7\x87\n1R\xc0RC\x95\x1dX\xdf/;7J\xa7y~\x1b\xc3\x98\x86\xa8\xa9[(\xf1+\xf8\xea9\x1c\xf3\x19\xe2\xf8\xbaI\xd6n\x9eu\xabKa\xb5V\x8f\xd4x\x9b2e\xa1\x80K\x82\x19\x18\'\xcac\xaf4{\xd8\xc7\xcd\n\xb7vY\xe1\x99e\x8dKG\x1b:\xa1~\x0b\xe4\x0e\x9b\xd8{\xeb\xb3\xe7\xe0\x01\x1a" \xab\x84\x1e%(\x00\xa2X\x11Va\xf5g\xcc\xe2\x80\xdb\x9b\x933%\x11^\x14#\x15\x89\xa8I\xa7\x93\xeb\xe4\xd6\xa3\xbb\xb2\xd7\xb1VC\x15\x9a\xf2@\xe1\xc2q\x95x++\x10\x14\xa1`9l\x7f\x9c\x01\xf6\r\x8f\x9d\xc7\xa2\x98s\xf0#\xff\x00\xf8\xebL`\xcf\xf2\xd5\xf36$t\xd7\x01\x1323\x12\xaa\xe1\x8d\x01B\xee\xe0\xb5Xh\xed\xf7\xc7\xc1\xdb\xdc\x86\xe2\x84\x12\x0fq\xd5\t \xed\xba\x86\x1eT\xf9!\x81&gt;6\xfe\xbe\x97J\xa2\xa8?\x02\x9a\xac@\x06\xdd\x83a\xbf\x02sKfA{\xb7&lt;q\x07\x9f\xd1\xd7\xa9I\xdf\xbbbI\xea\x18\x98Es\x1a\xb1\xbdX\x99@\xe0\xf6\x03\xa1\x94\x8f;\xb0\x8d\x08#\x7f\x1e\x07\xaf\x9a\xdf\xec\x90{\x91{\xbf#\xd2\xd9\xf2l}\'2\xb5v\xd7]i\x9e\xa0\xb5\x99\x8d0/w\xa4\xf1\xe5\x1f\x1c\xc3;=\x8b\x11\xb0\xbdj\x19;\x124\x95\x14\xb7$\x8dR\x12\x12-\x94\x86V\xe1!&lt;\xb6\x07q\xe9\xd4)\xcf\x949 \xb1\x0eH7\xccU\xf4bt\xe40\xa0\x97\t\x14\xb3=\\\x01j\x8e]yac\x01\xa1$\xd3\xa9\x91j!\x96\xa6N\xf4\xf7#"&amp;\x12\x8a\x93\xca\xf2E]\x04\x88#D\x11\xb0U\xee\x80\xc3\x88\xdc\xfc\x9f^\xcc\xd3\xff\x00\xd1"\x9c\xde\xeeZ\xb5\xf4\xc3e 9q^\xbf\x83L(S\x83Kc\xa4\xb8\xb9*vq\xd5\xa4\n\xadF\x08\x18\xdbi\x8b\xaf+M$i$\x05$S\xc0\x04\x90\xb0&gt;H\x03s\xeb\xc7\x8c\xa5\x92\xc4\x81\xa5+\xcf\xd8\xd3\x1a\xe0N\x9f_\xce\x0c\x1f\x03\x81\x14\x0eC\x11\x91\x8b\x1d^(D\xc9O)%\x89&amp;\xb2\n\x86\xe5\xdb\xad\xdc\x91\x17m\x8e\xff\x00g\xf3\x0f\x8fZ*&amp;\x84\xe38\x13\xa7\xa9\xfc\xe2;u\xfa\xdc\xdakJ\xd4\x8b\x17g\xfecR\xde\x18\xf3*\xb4\x817\xda9%\xe2\xad\xf7\x11\xda\x04yR~\t\xf3\xe7\xd7\x99\x88\xc2\x02\n\x98\n\x13\xcb\xd33\x89]\x9d,\x89\x98\xc9K=X\xd6\xd6\xfd\x87\xe7g\xb3\xef\xed7\xd8\x96\x91\xebF\x95\x83W\xeb\xcbY\x1a\xb0F\xd6*\xd3\xfa\x02\x11\xec&lt;2v\xfc\xb4\xa8vW\xed\x8f\xb9J\xfc\xff\x007\xaa\xbfx\xb7\x9f\xfd^ \x16C\x13Gg\xe4\xe5\xf2\xb5[\xa3\xbe/\xed\xd2\xdc\xa8S\x90\xe1\x93\x08(+\x85\xe8\r4v\xf34\x1aR\xf6\x0f\x86\xfd&amp;\xfaGe\xda\xee\x8d\xd49\x9c$\xd7\x8a\x19pY8\xa8\xda\xc6\xc4P\xab\x02\xb3\xfd\x1d\x9b\xca\x0b(\x90\xaaZ\xe3\xb9&gt;6%}\x02\xa7~\xd7\xe2\x04\x18\x85\xdc\x8a\x11\xabW\xb5\xdbF"\xb8\xb4\xcf\xc2\xe81%\xc90R\x1d4\xf9F\x94\xd3\xe9\xe7|.c\xbfD\xee\xa5\xe7/\x13\xa5\xb5n\x8f\xcc\xc5b\xcc\xccq\xd7c\xcb\xd5\xadXK)x\xa42\xadZ\xad\xc65%fQ1\x89\x9d\xbe\xd0@\x1b\x15l\xbd\xe73\x04:\xdc\x1c\x9cW\xd6\x8c\xfey]\x806\xc7\xc2\xd8r\xc1j\x040$\x92\x1e\x82\xb4\xf9C\xf5\x1c\xa9\x83\xcdc\xfa\x13uz\xae\x91\xb7Z\xd7Qzs\x87\xa1tU9\x1bP&amp;~\xc6_\x1f\x04V\x12G\x8a\x1f\xf9K57\xd9[\x88X\xdf\xf9\xfc\x9f\xe9;;\xb6Q\n\tPP\xa0{\xbbP\xf6\xeaZ\xb5\xcf\x10\x9b7\xe1\xc2cGJ\\\x1e*W\x89\xee\xcf^\x99e\x86\xf0~\x95\xba7J\xe0\xb1\xd8\xbc\xe6\xbb\xc8\xe6\x8e\t\xdd\xd6\xdd\n\xb5`[\x0e\xcc\xcd\xcc\xac\xd8\xba\xee\xdf\x9d\x83\xa0\'\x7f\x82w\xf5W\xed=\xf7\\\x08\xc4"!p\xa2/{[*\xf3\x16\xc5\xbf\xb2\xbe\x0f\xc0L\x04\xc7RPB\x00-\xafc^\xee\xe7\r\x06\xbe\xf67\xd1)b\xfasF\xf4\x13\xd3\xc6\xd9\xab\x05\xfeh\x8dm\xfbSq\xb1e!`9\xab&gt;\xfe#_\xe4\x1b\x03\xeaWao\x8cy\xc8\x89\xe2\x8a\xa3l\xdd\xaa\xdd\x1b;\xe5\xa6\x1a\xed\x9f\x87\xd2\x90!,\xa6\nC\x02h(\x1b\x9f\xb1V&lt;\xa9\xe7\xa9\xbd5\x9f\xa6\xfa\xae\xc6&gt;\xba\xcb\x04\x98i\xcb\xe3f\xa6YD\xb5\xc3\x83\x03L\xd3\xfd\xcc\xcd\x0f\x12\xfe\x08\xe4|\x01\xe3\xd5\xcb\xb2\xa7U\x1a\x12U\xc4M\x05\xbe\xbe\x9a\xf5\xe7\xcd\xdb\xdd\xb0\x11\'\x11|)\x17S\xd0\x03|\xcemo\\K=?X\xe5\xf4\xe6\x99\xd4\xb8\x1b\x10Oc%\x1dx\xf2"\xe2\x05\x8a\x11\x0b\xab\x85nH\x8f\xcd\xd9\x8a\xa9B\xc3\x97\x1d\xfc|\x10%jp\x14\xe5!\xd5\xf7\'B\xf6\xc5]\xc2\xa4\xc50\xc0\xa5Y\x85.@\xe9\x96X&gt;\xc7\x8bv\xf27\xea\xdf\xafZ\x1a\xf1\xc3\xbb\xacr\x88\xe2\x97ePvZ\xf2\x89\x8e\xfeI\xd8\x03\xe4\xef\xeb\xdcR\x98\x80\x80H\xa3;\x87\xad\xad\xca\xde`aD$\xa1nA\xfeB\x86\xfc\xfe\xbc\xf0\x17\x04\x9fWc/[\x1df\x9e6*\x92)\xe5\x13^\x9a\xaa\xd7\x8d\xcbA\xdc[]\xf9\xbe\xaeG\x0e\xaca\x02\r\xb8|\x00O\xa8\xe8i\x8f-\x14DC\x86 \xb8\xab\xeb\x99\x15\xe7\xe5L=Z`L#\x81\\$5C?\x7fw\xb66\xe0\xb3\x9b\xc5\xc5\x05\xfc^\xb0\xccDVG\x96T\xc4\xde\xbd\x8fz\xae\x84\x85e\x82\xa9\xad\xdcgm\x9b\x94q\xbb\xecH$y\x04\xaa[m\xcf\x14&amp;\x1c8\xabAC=[\'\xab\xe4\xf4w\xa5\x03\xd6\xa3S\x9b\xbf\xb3\xe2\x15\xaa$$((\x1a\x10&lt;\xcb\xb1mz\xb0\xc5\x87t\'\xf59\xeaoC\xbaQ\x0e\x88\xd4\xf8i\xf5\xe6f\xc6\xa6|\x96+Q\xe7\xe5\x95\xeac\xf0\x8e\xd8\xf1&gt;\x15\xd8Z\xad\x92\x13\x9a\xf5\xe5D\x96\xd2:\x07\xb0\x8d\xde\x1b1S}\x8b\xf1&amp;sd)(\x89\x11JH\xb9w\xb5\xdf])\x9558\xae\xf6\xcf\xc3ym\xa5\xc6`BJ]\xf2f\xfb\xe7\xe6\xd8\xb5\x1e\x8a~\xa3\xbd\x0c\xea\x96\x12{:\xca\xf4\x1d;\xccV\x11;\xe3\xf2q\xdb\xb6\xb3\xee\x8a\xb2IV\\b\xe4\x14\xc0]\x83G\xdc\x97\x9f\x02\x03\xfd\xfb\xfa\xb7\xb6G\xc5\xa99\x88\\Q\x14\x94,&amp;\xa5DV\xb5\xa3\x8a\xbezzU\xdbW\xe1l\xcc\xa2\xc2S\x0c\x97U\xc2M\x9bP-l\xfbi\xcfez\xe7\x1b`R\xee\xc1w\x1d8)\xdatS\x03\xa3\xec\x02\x88\xc9e\xe7\xc4\xec\x87\xc9\x1b\x9d\xbf\xa7\xae-R\xc8Q\xfb\xe6\xf9\xfb\xe7\xdb\xb2\x12\x90C\xfd2\xf7\x7fuM\xcea!\xc2\xf6s\x18\\{(\xed\x08r.\xa9\xc0\xc5\x14\x930\xdd6S\xe1y\xa9\xf9\x00m\xfe6\xf7\rjl\xaa\x7f\x1aW\xdd\xb0\x82\xea\x925\xa6_|6\x9a\x86\xeer\xd4W\xaba3V\xab\xdc\x89\x91\xa0\xe5\x03]\x8aJ\xca\x1f\x81h\x8c\xc8\x0e\xeb\xc7}\xff\x00\xd4\xf9\xf5!\r\x04\xa5\xc6z\xfb4\xc4z\x90x\x8b\x11\xfdS\x9e2j1\x93\xce`\xea\x8ayJ\xb53\x98\xe8\xe3\x9b#nhS\x1b\x1bWR\x04\xe24\x12?9J\x16\xfby\r\xff\x00\xaf\xe7\xd6\x1a;\xe5\x8f&lt;\x07\x97\xbe\xd8ih\xe7\xf5\x04\xd2\x9b\x8bF\\\xa5#5\xacu&lt;\x9bU5k\xbcpJ"aj\xf8\xee\x81\x0b\x04R\x19\x81^;\x9e&gt;\xbcq\x8e~\xfb\xe3E\ncks\x7f\xef\rwR\xde\xf6\xa8\xea\x06\x8f\xd3\xd3H?n\x86\x04\xca.9\xac\x9e\xc4V\'\x96\xc56\x91l\xf1 \x0e(6"!\xf0\x00\xf5\x1f\xb6&amp;\x08\x80\xa0\t\x1f)\xbfG~Zy\xbd\xf0C\xba\xf0\x14\xb9\xd40rT\x01\x04[G\x1a\x82\x1e\xce1\xd0\x87\xb5j0\xe2zS\xa51\x11\x85\x89bk\nR){\xcb;\x19\x17\x93w~\xdeaH\xf1\xe0\xed\xc8m\xf8\xf5\xcd\x9b\xe37\x13\xc4XJ\xb3-W\xeb\xae\x959\xb6;\x87\xe1\xd4\x82|\x08J)\x14\x08`@4\xa5Xr\xb6W\xb5\xb1d\x9a\x0e\xe5\\M\xca\xcd-W\xbc\x8f\xdb\x0f\x08^\\\x10\xec\x19\x82\xec\xc3\xc2\xee~\x07\x9f\x1b\xfeEc\tq\xa2GI\xe2Q/w\xc8\x1c\xef\xde\xdf@n\xe8\xb0\xa1"\\\xa4\x80IM\x0b1\xf4\xca\xf7\xfbb{h\xfe\xa3`h\x98\xaa\xd7\xc6\xda\x86)i\x88K\n\x84\r\xc8\x8bo&gt;\x07\xe0\xef\xe4x\xf4{\xb3\xa6bK\xf0\x95\x1c\x82\x8ezs\xbd\xb9b\xbb\xda\x9b1s\x01@\x00C\x96j\x16\xad9\x0f\xa1l\x11\xe7\xf5\xc5\x0c\x8e&gt;H#\xad,\x90N\xa8\xdc^.\x07b\xfc|)\r\xb8\xf1\xb6\xe3\xf3\xbf\xa9i\xcd\xb5\x12$\x1f\x08.\x8cspN\x9f\x81\xdb,C\xc8l\x18\xb0c\x88\x8c\x05\\&gt;G7\xa0\xcb^Db\x0b\xf5X%\x89\xad\xc7\x1d\x13^\xab\xb0\xdd\xc2\xfe\x08?p\xfbG\xf5?\'\xfd\x87\xaa\xe3jC\x8b\x15J\x88\xe4gM\x0f:\x93g\xfb\x13\x8b:QJ\x85(`\x92\x1f\x8565v\xe8\xe7\xfb\x16\xc4\x00\xeav2\xbd[/&lt;gx\xbb\x16\xb7/\xf0\x1f\xb2\xfbnN\xff\x00\xdb\xcf\xe7\xf3\xeaov#\x98\x11\x11\xc4Tj\x90j*\x1d\xb9\x9b\xbf\xafa}\xb9\tJ\x97Yk\xa0\xdf]+\x95\xcf,Q\xef\xbbz\xa7\xfe!\x9a\xf2\xc5\x1a1\x86\x00\x8e`WY\x95+ e\xee\x9d\xb7\xe3\xb7\x1f\x83\xb6\xdb~\x00\xf5\xd2\xdb\xb5\xb4R\xa8p\x81\xa3\x00*i\xef\xebS\xa69O~\xe5\x92\x17\x14\x91Q\xc5q\xe7\x99z\xd7\xf5\x86O\xa1:\xde\xd6O\x03s\x17N\x93\xe4.\xe3\xadH\xf0A=\xf6\x8f\x1fR\x17X\xd2\xbc\x93W1I\x19H%F\x98!\xd87\x1d\xb7\x1b\xf8\xb0\xc2\x93\x16\x11\xe1\xaa\x8d\x8d=}\xf4\xd0\xd0S\xb0\xd1\x06"\x95\xfcJI\x0c\xce\xff\x00\xb1\xd3\x95\xaa_\xfdC.^\xb4\x98\xcb\x97\x16\xb5;\xd2\xd7R\x97\xaaRZ\xb8\xb9\x9d\x82\xf2\x85gB#i\x0f\x95.\x01,U\x8e\xc4\xef\xe9\x92"\xa9\x11BTh\tq`\xc1\xa9O\xb6N\xf8n\xc2*\\\x10\xed\\\xdb\xae\x9a\xfei\x80|\x86B\xd6&gt;\xb8\x8e\xbd)a9k\xdd\x8eqW6\x0b3\x98\xd6\n\xed|\x04h\xc0\x91\xc9\xdc! I\xb8_\xeb:\x85B\\7$\x1aY\xc1\x14\x1c\xeb\xce\x9f\\B\xc7\x89\x16\x1cVrC\xd8\x1aP\xdd\xab\xeb\xa7l\x10U\xd0\xb9Ju\xa3\xca.K+\xf5v|,\x18\xfbS\xe4\xe4\xa7 \x04\xf0b\x1a&amp;\xae\xad\xc4\xb1\xd8\r\xbe\x0e\xfb\xef\xe9\xaf\x89\r\x0bS\x11b=G\x98\xfa\x13AG\xc3\xe8\x10\xd50\x92\x16M\x03\x8dr\xbd[\xbfl\x1b\xe9LNw?\x15:\xb7\xab\xc5u.Mc\x1b\x949JB\xd4\xd7+\x94\x8dd\xb9]&amp;$\xc3:$\xcf \x99Y\xd82\xabr\x05A\xf4\x1d\xb6\xf6\xfc\t&gt;"WQb\xe4\x1ey\xf3\x0c\xcc\xdc\x86\x1d\xc0B\xe1+\x84\x07H\xd6\xb6\xa72;\xd3\x93X\xc10\xba\'D\xe5\xa6\xc3M\xa9\xe8Q\x95*\x97\xfa&lt;\x94P\xc7%X\xcc\xb1\x94\x8e+2O\xcaTue\x91\xa3\x11\xa0C\xb0\xdc\xf0\x04\xd7\xf1\xb7\xfe&lt;5\x94\xc0\x8a\xa0\x05(Un\xce\xdd\xf1(\xad\x9b\x06q!Q\x90\x97\x0cC\xa4h\xddj-\xdf2\xe6#\xa7\xea\x0b\xd2\x0c\x9d\x9f\xa9:\x87)\x89\x91d~\x1d\xecdrI\x12\xf2\x1d\xb6\t\x166E\xe5\xb0;\x96R\xbb\x8f\x91\xb9\x1e\xaeu\xec\xc8\\%\\E\xea\xd4#\xdd\xbc\xa9\x9e!\x93?\x18\x16R\x00\xefk\x83\xecg\xa6\x08\xbac\xd7]c\x97\xd18\xcdS\x95\xcc\\\xcfR\xca\x1b\xf6k#\xd2\xa6`\x9e\x9bd\xaeS\x83\xbb\x0c\x15"\xb6Dh\x8b&amp;\xc8\xaa\xdc\xd3\xcf\x8f\x1e\xa3\xa2@\x10UB\xe43\xe5\xa1fn\x95\xc2\xe8\x8c\xa8\x8c\xff\x00\x8a\xb3\xf7\xef\xaf\\&amp;j}3gV^L\xf69\xe0\xc7\xe4\xef2\x15\xbemX\xabB\xa4\r\xb9\x06Z2\xce\x96\xbb\xaa\x08-\xb4\x05\x07\x16\xd8\x1f\x03\xd2\x90f\x94\x7f\xf5\xb0\x0004\xca\xc5\xab\x8d\xc6G\nx\x80\xaez[\xf2\xfay\xd7\x19WD\xe7\xb4\xe6\x0c\xea}G\x9c\xb9\xa8k\xf1Yi\xfd\x0b\xd7\xfaz\x91\t~\x9c\xd8\xe0#\x8eiY\x9d^&gt;3\t\x13\x8f\xdd\xc0\x7f0Z*\xc7\x0fl\xe9\x7f\xc5\xf4\xfb5B\x96O\xcc\x18\x1br\xfc\xe9\xe5\x85\xa8-^\x96\x846\xe8\xe4b\xfa+\t\x100Z\x92\x84\x12\xf1\x9dy\xb6\xd5\x88\x88\x86 }\xac#\xdd\xc6\xe5I\xf2}3J\x8a\x8b7\xe6\xfdk\xec\xf2\xc2\xca\xe1\x00\x17/G\xd0zk\x86\xe35\x8e\x97#\xd7\x1d\x06*,\x86\xcbi\xbauv\x91b=\xf9?u\xbe\xf2H\xe21\xda\xfbbs\xc4\xa8\x1b\x05\x04\xfc\x12`7\x86"\xa0\xc0[U\xd2H\xbd\xea\xe0XeBt\x07\x07\x1b\x9b\x0b\xc6\x9c\x87\xc0\x12\xfcA\x8e\x87&gt;o\xd7\x1d\t\xf4w\x07n-?\x85\x86\x9cI\x17\xd3\xd7\xae\x8e\xc4\x1e&amp;h\x91Vv]\xb7^rH\x0b\x1f\xc1\xf3\xbe\xdf\x1e\xb9\xcfxLi\x88\xd1\x1d9\xe9l\xf2\xd2\x9d\xb34\xc7nnT\x18\xf2\xf2\xb0\x95\xc0\x96JR\xe5\xc5\xc8\x17\x0f[V\x9a\xe9\x8b\x04\xe9\xed&amp;\x9e\xa9\xba\xd5o\xd8\x92\x10\xb1\xb4T\xe2V\x9c\x93\xc5y\x93"4|G-\xc8\x1ev\x07\xce\xff\x00!\xf0\xa5\xe6\x91\x19&lt;\x10Iu_\x84\x87\xca\xa7\x9b\x9fu\xc1\xc4\xd6\xd6\x86\x84\x14FZP\xa0\x1a\xe2\xf4\xeb\xee\xf8}t\xf6\xa6\xc3Ef\\U\xf1s\x15u\x00j\xa3"\xf5\x13\xeb\x08\x04\x18\xa1d\x1cRF\xddJ\xac\xac\x9b|\x11\xe3\xd1\x04Xs\x88\x01\xe1p\x8e\x11k\x8f3n\xbf\xbcD#iH\xc5$\xf8\xc0\xb1 \x87\x0c\xc0\xb5\x08\xb7/3\x82=?\xa9\xe9\xdd\xc0\xc4gh\x12Q+V\x9e6q\xf55\xa2\x8eNfM\xc9\xed\xcb\xb8o\xb3\xb5\xdc\x01\x86\xec8\x82}j\x1c\x08\xb1\x01\'\x89\xf4sRz\xbbgq\x85\xff\x00\xdd\x95J\n\xb8\xc0\x0f\xadn\xc7P{\x1c\xb1\x1f:\xa7\x99|\xb4\xebKKb\xb3\x171\xf1\xce\xf1d\xb37#\xae\xb5+\xc8\x85\x94"\x94X\xd9\x83l\xe40WU\xe0\x03\x1d\xf6\xdd\xbc\xd4\x9c\xcf\x02\x92!\x12\x14.\xc7\xdb1\x7f\xa8\xaba\x8a\xf6\xf4\xbc\x03H\xa0\x97 \x07\xd0\x86\x03\xd3&gt;Y\xd2\x1du\x1bH_\xc8\xe1\xed\x06\xe4\x85\x12R]\xd9\x03\xec\xc9\xb3\x04\x8f\xf9\xc8\x03}\x8f\x1d\xb6\xdf\x7f\x03\xd2;:\x04\xcc\x05\xa4\x88e\xc2\x8bR\xe3V\x7f\xa8\xd0\xd7\x0e&amp;6\x84\xb4\xe4\x92\x96\xa5\xa5*(WK7\xd6\x9a\xbd\xb1J\xbe\xeat\x8a\x11e"P2uaW\x81\xd9\x89.\x91\xc3\xc5\xc1\x04\x94\'}\xb7\x1b)\x07\xe4\x03\xbe\xf7F\xebG\x8eL4\xa8\x10)\xe4\xec_\x93\xdf\xdbs\xae\xf7\xca\xcbM\xaa3\xaa\xbf1\xeaE3\xad\xa9\xf6\xcf\x15\x93\xd1&lt;\xa6F=I\xaa0\xf4\xea[\x02\xf5\xf2\x1b%\x14\x90!\xa7\x17 \x01\x93w\xe0\x11HfD\xe0Y\xd8\x95\xd8\xee\x07\xab\xaa^1\x81("$q*\x8e\x0f0\x9e\x837\xbf\x969ox\xd3\xe1\xcd\xaa\x02?\x87\x17\xf2w$\xbd]\xba5\xbbXb\xc5\xa1\xa3\x85\xca\xe9\xcaqg\xf5}\xedMv\'\x8a\x8c\x18\xdcuU\xa9\x066\xba\xa3+[\x9a[tk\xb4\x93\xc6\xf1G\x1c\x85&amp;\x91\x19\xa5r\x8aP\x82\x11\x89\xc5\x10\x18\xaa\x0cHz7\xf5O\xbexk,\xb4\xc3@\xab\x92\x00c\x7f\xb7,\x03e\xa8\xe50\x97\'\x86\x8dz\xb9\n\x90\xc0\xf3\xc2\x93\xd9\x88\xc2\xb7\x02\xb9F\x98\x89\xe3\x90J\x19"?c\x04\xdc/\x8f\x9d\xdeJ/\x8a\x1a\x814\x00\x1a\xe4\x18\xd7\xef|3\x8a\xae8\x8e\x12\xf5j\xb5+\xef0q\xf7HE\xac4\x86\x17+\xaf\xf3\x10Iz+\xb6\xc4o\xa6\xebX\x84\xa4\t\xb4\x80_\x86I\xe5\xd8"\x88\xc0ek\x04\x96\x9b`\xa7\xf0\x17\xb76\x9cIE\x11\rd\x82\xe0\x10j\x1b\x9d\xf9gp\x1b\x0f\xe5]\x80f\xbd\xb9S7\x15\xf5\rSL$j\xadm\x94\xb1\x8b\x9fUU\xea\x10\xd3u\x99\xd7\x12\xd8\x8b\xd0Fa\x9a\xb4,\x1a\xcch\xb4\xe9=\xb1%\xb8l\x98D\xb1\xc8\xac\xa5U\x8b\xaf\x1d\xfdW\x9bEGh\x12bDP}=r\xcf\x9f,\xb1;.\x12\x92\x0f\x08:\xb8\xd1\x8b\xfb9\xe1\x0f\x05\xaf0y\xbbo\x8f\xb1\x86}JjR\x8ey-\xccgB\x8e\xe6\x11\x12\xc6\xcf,\x13\xb4b\x196^\xe7#\xb0RIoCK\xd9\xf0`\xac\xfc\xce\xfa\x9a\x0eUc\x892\xa0@\x01!-v\x17\xf5\xf4lU^\xab\xd0X\xb8h\xe4l\xe9m4\x97R\xbe2{6\xec\xd8\xc88\x92\x01Z2\\\xa4\xdfM#rm\xc9\x11\xee\xbc\xca\xfe6\xf5\xd5\xca_\x12I74g\xb5\xfd\xdb&lt;\x04xa\xd9\xbe]Y\xdb\xe8=\xb6\xad`\x9e\xd8\xf2\xc6&gt;\x88\xe8G\x88\xd3{0\xe2oWX\xd9V{C\x96W$yC\x1b\x00e\x113\x16\xdfu\xdb\x81\xf8\xe3\xb8\x86\x98S\x95k^\x9ar\xd3\xfb|=\x87\r)\xab\x87p\xdd\x9b\x9b\xfb\xab\xdb\x05\x99\xac\xad\xace\xc4L\xddK-\x05\xd8Y\x7ftNSYX\xc8^\xe4\xab\x8d!T*\xf2R\xcc,\x0e&gt;\x07\xc7\xc35\x00\x80\x143\xae\x85\xe9\x98\xe6{u\xc2\xc1\x96\xe9jPW\x9f\xbf\xd6\x14-\xf5O%\x99\xa5cM\xe9\x8e\x9ee\xe4\xc0U5*\xd6\xcc&lt;\x93\xd7K\xc9\xde\x86I\xe3\x15R\xab\xa6\xc0\xbc\xaeS\xbc\xc0\xf9\x07\xd7\x98q\x15\x10t\xa1\xab\xbb\xeb\xe6\x05q\xe1pS\x0cXP9q\xa9:\xd5\xf5\xd7\xea\x93\xa8\xe8I.v\x9d\xcb\xbab\xedJ\x14j\xd1WxL\x8e;\xcb\x12\x8a\xf1\x98{H\xac\xf0*\xba2\x93\xbc\x07t\x1b\x82}9\x050\x83\x93PH\xa8g5\xcd\xf2\xe6\xd8b\xa8q"8EKQ\xab\xe9\xado\xa0\xc1\x1fM\xeb\xd8\xcf\xf5\xdf\xa56%\xabr\x9d{\x142\xb8\xf6\x87#\t\x82\xe8z\xb4\xf2\xd7\x16A\x1b\x16n*\xbc\\\x1eC`7\xf0\t\xf4/\xbc\xd3P\x95\x05i\x06\xe0\x8dk\xa7&amp;\xb7\xf7S\x8d\xc7L\xdc\xa4\xdaW\x12\x19\tJ\xc3\x12\xe3\x8a\xcfq\xe5\xca\xefF\xbd.\x9f\xea\xbc\x9dD\xc7\xe1qW1\xd4\xe8c\xa3\x7f\xdco\xe5fX7v({\xa8\xcc\x8d\xb8@$$\x97\x1bn\x00\xf3\xf1P\xaaN\x1c\xc4s\xc4\x02\x87\x1b\x9ae\xa0r\x00\x1d\xbb_\x1dy\xb2\xb7\xacK\xc8%)\x00( Q\xea~VsC\xcf\xb14|2&gt;\xe1\xbd\xe9\xeb&gt;\x9bS\x9f\x03\xd1op==\xb7\xaa-LkI\xa719\xaa\xb6\xf5@\x91\xb6WJ\xd4!\x97\xbed\x0b\xbb V\x07u\xfc\x1fDR\x9b\xbf*R\x98\x8b@\xf9C\xd8]\x89r\xedo`6\x016\xe6\xf5\xed\t\x99\x9f\n\x11[-\\,\n\x85\xf2\xb0\x17\xcc\xb9l\xb0\xc5\xf4\'\xdc\x8f\xbe.\xa5kL\x06\x0b+\xa1unf\xa5\xab\xefe\xb5\x1e\xa6\xa5~\x18^z\x93\x08Y\xd6i\xe0\xb2#\x85\xdawo\xb6B\xbcU\x7f\x00z\x84\xdb\xe8\x94\x80\x95\x04\xf0\xa7\x84rr\xc2\xd9\xb9\xd7\x13\xfb\n\x0e\xd3\x8ePW\xe29cu[1\xca\xbd\x1fL\x85\x8f{\x82\xa9\xef\x17@\xf4\xbe\rK\r\x8d1^\xcd,q\xcbS\xb9\xa6\xb2\ro)fi\x8bE\x1e \xe0\xe2\xa7]nst\x0b\xf5-h&gt;\xf3\x91\xd9=\xa5\xe6+!5\x00\xc4e\x14\x91\xc4\xceY\xa9\xfa\x0co\xd3Cy\xbd\x9b&lt;\x99b\xaf\x9d\xc0v\x04\x8b\x81\xdf,\xbe\x97\xa6k&gt;\xf8\xbd\xf2\xe22\xb3\xd4\xd7\x19}G\xa14\xf4*\x97s\xff\x00\xbdQ\xb7G\x1f\x8f\xc4\xbf\x17\x92\xfc\x95%\x96(\x0cr\xac\x89/6(\xab\xcc/"\x1b\x7fG\x92\xb2\x92siJ\x08K\xa9!\x8b\x03\xa5/\xd3\xab\xf6\xc5W\xb5U\xb4\xe5\xe3)D\xc4\x08J\xab\xfc\x80g&gt;n\xd5\xfb\xe2O\xe8\x9f}]\x12\xd68\xf81\xb6}\xcaT\xbb\xabg\xae\xc8\xe6\xf4\x15aIl\xf0;\xc1V\xbbfd\x12\xa9o\xb7\x90\xe2~\xe3\xf6\xf8\xdb\xd3\xe8\xbb\xb9\n\x0f\xcd\xe1\xf0\x80*J@\x15\xcc\x1a\xb6L\xf9\x8eX\xdc\x1d\xe0\x9a\xf0|%-U\x04&amp;\xa7Nu\xa35\xce\xb7\xae\x18\xde\xa1k\x1cV\xb2\xca\xb5Irus\x96\xa7\x16E[\x94\x965\x89\xa1\xdc\x80\xf2,n\xea\x85\x81Fo\xb9\xb6\'\xe7\xf2e\xb6\\\xb2%\xd4\x92\x05\x12C\x11z\x1e\x96\xd5\xc5NX\x10\xda\xf31\xd6\x16TT\xae.!\x9d\x8b\xbf^v\xfcW\x97A\xb1yXu?T\xe9R\xd3s\xe5\xab\x8c\xe1\xa3$\x95\xd5\xe6\x9a\x91\xaf"K\x04\xe0\x08\x89\x8dL\x92\xa8\r\xc8m\xb7\xcf\x8d\xbd\x1e\xc3\x99I\x82\x10\xf9\xdfK^\x8d\xcd\xabn\xf8\xa4\xf6\xce\xce\x8b\x16aQ\x9a\xc4\xdb\xae\x8ci\xa9\xbba\xf5\x87[\xe3\xf1\xd1\xe64\xed\x99\xa5\xc6fZD-\xce\x11vx\xa2\x81\x0cr,i#\xc2\xc8\x1c\x95\x92M\x88\x02@7\xdc\x9d\xfdL\x14\'\xfdwK\x17M(\r\xf9k\xfd`Vc\x8a\t\xe1#\x85\xba\xb7fo}07\x1e\xb7\xc4EN\x11\\\xcf\x986\xe7Z\xedo \x7fo23:)\xb3\xf4\xe0\xd9[\x1cy\xf2\xf3 \xdf\x8e\xdc\x87\xe1\x8aW\xe1\xc3\x89Fd\xd7\x9d\x0beJ\x0f\xa5\x19\xdbr\xc9\xf1H%\xab\x99\xe5\x9dr:\x9f\xa1|HW\xd2\x99\x1c\xee\x98L\x01\xd4\xa2\x9c\xb7\xeaAf\xb4\xebX$u\x84\xa8\xb2\xa5{0\t\xc2=v\x8d\x8b\x07f\x00\xb0F\t\xb9\xdcT\xfb\xc58W0\xa1\xa1"\xa6\xfat\xd1\x9a\xb9\xb6\'!B\t\x02\x83\xee\x7fY7\xa0\xc0v[\xa2\x9a\x17!c\x05&amp;\x7f+&lt;\xb0``\xae\xf6\xeaw\x8cP[\xb5\x03\x176en\xe9\x0f\x0b\x14S?$a4hQ\xce\xde\x85U6\xa1G\xc9N\xe6\xe7,\xbbS#\x89\x18ic\x99\x15/\xe9\xec_;aR+\xfaz\x0f\xab\x1a\x1fM\xe0s\x0c\xb6"\x86\xd5\xb8$\x86\xbc\xa9\x14\x10\x98\x92&amp;1U\x98\x98\xfe\xc8\xca\x82\xc0\x1e*@\x1e\x9b.!\x88\\\x97\xee\xfa\xe1\xd9[\x01AP\xf7\xb7\xa5\xb4\xef\x88\t\xd4\x1d\x17\x94\xc6\x0c\xb6\x12\x9e\x92\x8a\x9d[\x18\xa9\xe4\x92j\xb7c\xe3\x04B#\xdd\x94\xbc\x97\x1dL\xaa\x18\x15\x8f\xee-\xe4\x04m\x88\xf5\xd4\x02\'\x12s{\x1b[\x9f\xbeo\x81\x02\xa0\x0b\x10q \xba\x03\xa2\xad\xd2\xe96\x02\xdc\xd8\xb4\x9b\x0f$\x16\xa3\xa4\xdd\xd0\xd1\xc2\xf1\xdc\xb2\xed,\xcf\x0c\xa1\x91\xcc\xa1\xc0R\xc3}\xd4q\xf3\xbf\xa8\xb8\xe6\x85\xf2 v/R\xf7\xbfC\xa1\x18Y\x0b\xc8\x96&lt;\xda\x81\xb5\xc8\xde\xbe\xb8t\xb07\xb4\xee\x99\xcd\xbd\xedGM\xf25?m\xb1\xf4\xf8\xd5*\xb1K3\xacfU\xee[ $v\x18\x03?)T\x8d\x97\xb4Po\xe9\x08\xdf2\x03\x1c\xbbU\xbd=\x1cr#\x1a\x83\x14x\x8a\xa8\xcbS\x9d2jz\xd8jP\xb2\xba\x92\xa5I\xa5H\xa8\xd4\x8e6V\x9a\xb4[\xc9\x1dX\xa3,\\\xf2\x95$U\x0f\xdb,\x8a\x8d\'6}\x98)R\xa4\xbd\x90\x94\xe2rFOS\xe4I\xa0\xa7\xd5\xb5\xc7\x99\xb9\xaf\x98 \x13p\x18X\xbf\x9fS\xda\x98&amp;\xe8\xf6$\xf5\x7fU`t^.\xd1\xaesy\x83\x8e&amp;X\xe6yq\xe9j\xc0K\x17"\x0c\x8f\xdeHX\xa3C\xb8\x9bu&gt;\x15\xb7\xdc\x8f\xed\xf9\xdf\xf4\xca\x81 76\xb7C\x96T\x180\xdd\x9d\x90\'cA\xa3\xa4\xad \xbe\x94\xcbA\xcb\x13\xdfGh\xefg\xda\xc6\xe6\x92\xcdt\x9bQ\xea!\xd4\xcd\x1d\x98\xb9\x86\xcbb\xb3\x904\x18\x9c\xe0\x92\xbc\xb8\xfb\xb9*\xa5\xb1\xd5\xa7\x93\xb5\xf53\xaa\x8a\xf6\x94\x06\xab\xb9F\x1c\xb7\xaa\xf6\xbe\xdc\xf1B\x87\x17\xff\x00\x124\xa9\xfb\xfdoB\xfd=\xb2\xf7&amp;H@\x82\xa8p\xd2\x16\xa4$\x9a\x12\xc5\x9b1\x9e\x7fV4q\xba\xb1\xfas\xe5\xfa\xc6\xeb\xfbgT\xb5\xc6#\x05q\x94\xb6\x07\x07%j\xb5\xa6\xb5(\xdcof\\q\xb0b]\xe4TU\xb4\n\xa3\xff\x00\x13v\xd8\xfa\x1a\x96\xda\x82\x14N0\x07\x15\x08Qw\x0eMExy\xd4\x1c\xf9\xe0\xae\x06\xe9\x0e\x10)\xc2\xcc\xc0\x11\x91:r\x1d\xa9\xae\x1d\xfe\x8d\xfe\x96\xda\x03Eft\xfemz9\xa5\xb2\xf9\x8cRE\x12\xea\xedisP\xcf\x91\x99\xa2v\x93\xea^*9\xaa\xf0\xb4\xb2;2)j\x9cw\xdbu\xdb\xe2J.\xf6x0\x0c0\xb1\x9eb\xe4T\xebj3\xb0\x18w/\xb92\x86:"DB8\x92Av \xdd\xf9\x03nX\xb2kz\x07\x0f\xa0icpx\\V\x1f\x13=\x89\xc4\xb3\xbe&amp;9T\x9b\x96\xd8\xca\xf0\xc1\xf5\xb2O(\x8f\xb8\xce&gt;\xd2?\x95vm\xbd\x01m=\xab\x1ayJ\x01D\xbb\xbbf\xfay\xf9&gt;m\x8b\x06OeI\xc8\x84\x82\x84\x86\x17j\xd1\xb9R\x8f\x90\xcb&lt;nu\xaa\x93\xe20zc\xf7\x89"5$\x8a\xb5Wn\xe4dW=\xe2\xd1\t\xa2\x94\x9d\xf7w\x1b\x90\x9c|\xf8\xf3\xea:V\x1cd\x1e74/\x98aG\xcd\xf9\x0b\xbe$\xa3\xc6\x93R&lt;0\x94\x9aV\xafK1\xcc\xb9\xd3L\xae\x04n\xf4W\x11\xac\xb0\x16.\xd0\xa5\x84\x92\xc6o\x1e\x98\xbb\xef\x92\xc5\xc1n\x9d\xfa}\xa4\x8f\xb1 H\x1d\x95YcM\xf84g\xc1\xd9\x87\xa9\xf9=\xbd\x12R&lt;0\xa5\x10\x94\x90\xe1\xdd\xda\x80fE\x9d\xcf\x9d\xb0/\xb4wvWh!A\x10\xd3\xc4\xb1\xa3\xb1c\x93&gt;C\xaf&lt;\xea\xd7\xae_\xa4N\x9e\xd7u\xe5x\xb4.\x92\xd2\xb5\x04\xafh\xe5\xb4a\xbfZ\xec\xb2\x96\xdc\xca\xc9r\xf5\x96\x8eM\x946\xc9\nF\x0e\xff\x00g\x10}\x16\xc3\xdf\x02\xa5%I\x88A\x01\x81p@\x04\x17gqK\x9ae\xcf\x15\x9c\xde\xe7\x181\xca\n\x08\x1cL2j\xbd\\kG\xe4\xfd\x18\x07\xf6\x15\xa5\xfd\xb7i\xcb\xd91\xabu6w+R\x90\x96\xa2g\xa7\xa1b8\xe3h\xf9v"4\xa9\xc2Y\x13uU\x0e\xcc\xe1T\x07%\xf7&gt;\xa7v~\xd9\x11\x96\x0b\xd4\xd5\\\xc9\xa9\xe5Z\xbbX\x93\xd8won\xe0\x81\x04\x8f\x0f\xbbu\xd3N\xe72kH}\xd1\xfe\xa7\xf4\xa7O\xd8\xd5\xbd\x12\xbf\xd2\xcc\xa6\x7f\\\xf5\x0b\xa8:\x96h\xf5\xe62W\x8b\xf6D\xb1\x8a\xc6E\x8aVO\xaa\x8d[\xb3v\'\x94#W\x97\xcb\xf9\x04\x1fF\x92\xf3\xac\x94\x97%\x88\x0f\xf5.\xda\x17\x1e\xb8\xaf\xe6wp.]j\xe0\xd7+\xb7&lt;\x9a\xec\xe7&lt;\xb0#oL\xe2\xdfYR\xc0E\xa6\x86k1\x8d\xc9]\x83-\x90\xbb$\xb5\xec\x9a\xb4\xadIVYdc=XY\xd1\x82x\t\xb3\x1f\xfa[\xcf\xa3iX\xe9\x89,\x9a\x8b\x03\xaeA\xf5\xb3\xf9\x9dqHo6\xcf\xff\x00Z*\x83p\xf0\x92\x19\xa9C\xd3;\xf3k\xdb\x05\x9a\xb7Mi\xecEJ\x99l\x15\xf8Q\xb1\xf9w\x8aH2\xe9\\o\x1c_L\xf0\xa4\x02\x18\xa3Q\xdc\x91\xdd7}\xff\x00\xfe\x88\x1b\xfa\xf1\x11\x07\xc1\x88]\x89O\xdb^\x80\x1f\xb6b+f\xa1\xc5h\xc3\xfbnm\xad\x0b\xe1\'_P\xd7Z\xf2|-];\xaa\xa8b1\xb2\xc3Y\xb2q\x89!\x16\xea\xc7\x1c\n\xa6\xd4rD\x0ck\x12K\xc6\x10\xaf\xcb\xc4\x80\x95;n)}\xb8\x82g"&amp;\xa4\x82Z\xc0=\x19\xfb\x1f\xc6x\x99Ax\x8cl\xf9\xf2\xa6N[[\x8eA\xf1\x8b\x0f\x167I\xe4\xde\x95\xbc\xe6;+\xac\x066Z\xda\x86l\x8eJ\t)\x8a\xd5\xe2\x95\x96\x9dha\x996\x92\xb7;\x12\x07\x01\x8c\x8d*\xaf98\xf1Qx\xa8PqV\x06\xd7\xf6u\xe9\xe6\xf9\x00\xb7R\xe3\x18r\xa9\xa7e\x93\xbb\x8a\xd58L\x0c\xb3\xf6\xa5\xb6\xab$\x90\xc5+\x88\x82\x8d\x84\x9b\xb36\xc4\x12\xcb\xf6x?\x9fK\xcbK\xa9`\x90}[\xd0\x1f\xbf\xdb\n\x12K&gt;T\x18b\xf5\x86R\xd5\xa83\x11\x88;\xf1\xc7B\xe2M\xbc\x8d\xbc.\x10\x85\xdf\xed&lt;\xf8\xec\xdf{lA\x07a\xe7\xc7IC1\x1d\xa8\xdc\xf2\xf2\xd6\xde\xc6\x04\xca\x12u\x1d0+\xd2\x9e\xa2d\xb1\xbao\x17\xa4\x9a\xed\xd4\xc3H\xd6V\xc55\xbb5U \xd8\xb125h\x91\x8a\xb4\xbd\xee\x1fp\nJ\xee\xbb\xecH\xf4\xb0\x97\x85\x12\xaa\x04\\k\x96\x86\xfayY\xb0\x99% \x81\xcd\xc7\xd9\xed\xdf\xf5\x87c6\xfa?;\x8c\xaf_9\x16\xa6V\x81\xc8y\x9f!n\x8f4\x8c\x80b&lt;%~\xecl?\x9br\x03\x81\xf7/\x9fM\xa3\xc0\x86\x96\x02\xc3\xd5\x99\x83\x8d\x1b\x95\xb2\xc2R\xea&amp;*\x82\xacM\xec\xd5:6\xb4w\x14\xc3s\xd4\xea\x14\xad\xe9asK\xea91\xd1R\xecH1\x97\xee&lt;\xf2\xe4dIQ\x02\x07\x92NR?\x00\xbb}\xad\xe1@\xdfoS\x1b&lt;$B \x81@\xdd\xd9\xdb\xd9\xbd]\xf1\x93~\x18ZZ\xe0\x82\x0b\xb8\xe63\xb7\xb1LJ\x0fh\x12\xe74&amp;\xab\xd0\x9dS\xd4\xb9&lt;u\x08\xf0Y|&gt;V\xee&amp;u\x8e\xb3X\xc4#\t\xccK1\x1c\x90X\x89T\xc8\xc22\x03\x05\'\x97\x83\xea\xb4\xdf1\r~+\x17W\xcch\xf7\xbf\xbayQ\xed\r\xc7\x9c\xe0\x8b\x01%\x83\xad \xbe\x9a\x06\xf2\xe8\xf7\xb6:-\xf7\x0b\xd1n\x9ei.\x88\xe9\x9dm\xd3\xee\x95\xe9=&gt;\xb8\xbbX\xadD5N+\x1bG\x1d\x93\x82&lt;\xd6F\xbc3\xc36B\xad\x14\x9ex%{29\x8eI\x95\x19\xa7f#v;\xd1\x13*\xe3\\N*\xb1)\xf6\xddk\xd3\\v&lt;\x00`H\xcb-\x0c\xe6\x12URt\xccg|\xf4\xbe\x8f\xdf\xb7\x9dD\xf9LF\x1f\xee\x16\xa31\xac\xdd\xc9\x1c\xc9\x183\xf0pc,\x08\x05&lt;\x85a\xb1Q\xe0m\xf0G\xa7fU\x04\x90\x8ed\x17\xa7N\xbem\xa5\xf1=\xb3\xa6b\xc5d\xa8\x02\xc0=&lt;\x81\x1a{8\x9a09\xb5,\xb6\xad\x17\x92\xa4Q\xeecR\xcd\xe25\xe5\xc6\xbcd\xf1\x0c|qU\xe3\xc9\xce\xc0\x82w\x11\tR\xe6\x16\x02\x89\xb8\xa5M\xcb?\xeb\x99\xc4\xb4H\x</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -674,6 +832,10 @@
           <t>Joao Vitor Gobi</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -684,6 +846,10 @@
           <t>Yuri Elino Ferreira Da Cruz</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -694,6 +860,14 @@
           <t>Bruno Pereira Vasconcelos</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00H\x00H\x00\x00\xff\xe2\x01\xd8ICC_PROFILE\x00\x01\x01\x00\x00\x01\xc8\x00\x00\x00\x00\x040\x00\x00mntrRGB XYZ \x07\xe0\x00\x01\x00\x01\x00\x00\x00\x00\x00\x00acsp\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\tdesc\x00\x00\x00\xf0\x00\x00\x00$rXYZ\x00\x00\x01\x14\x00\x00\x00\x14gXYZ\x00\x00\x01(\x00\x00\x00\x14bXYZ\x00\x00\x01&lt;\x00\x00\x00\x14wtpt\x00\x00\x01P\x00\x00\x00\x14rTRC\x00\x00\x01d\x00\x00\x00(gTRC\x00\x00\x01d\x00\x00\x00(bTRC\x00\x00\x01d\x00\x00\x00(cprt\x00\x00\x01\x8c\x00\x00\x00&lt;mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00\x08\x00\x00\x00\x1c\x00s\x00R\x00G\x00BXYZ \x00\x00\x00\x00\x00\x00o\xa2\x00\x008\xf5\x00\x00\x03\x90XYZ \x00\x00\x00\x00\x00\x00b\x99\x00\x00\xb7\x85\x00\x00\x18\xdaXYZ \x00\x00\x00\x00\x00\x00$\xa0\x00\x00\x0f\x84\x00\x00\xb6\xcfXYZ \x00\x00\x00\x00\x00\x00\xf6\xd6\x00\x01\x00\x00\x00\x00\xd3-para\x00\x00\x00\x00\x00\x04\x00\x00\x00\x02ff\x00\x00\xf2\xa7\x00\x00\rY\x00\x00\x13\xd0\x00\x00\n[\x00\x00\x00\x00\x00\x00\x00\x00mluc\x00\x00\x00\x00\x00\x00\x00\x01\x00\x00\x00\x0cenUS\x00\x00\x00 \x00\x00\x00\x1c\x00G\x00o\x00o\x00g\x00l\x00e\x00 \x00I\x00n\x00c\x00.\x00 \x002\x000\x001\x006\xff\xdb\x00C\x00\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\xff\xdb\x00C\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x02\x02\x03\x01\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x06\x07\x08\t\x04\x05\n\x02\x03\x01\x00\x0b\xff\xc4\x00;\x10\x00\x01\x03\x03\x03\x03\x02\x04\x04\x06\x00\x06\x02\x03\x00\x00\x01\x02\x03\x04\x05\x06\x11\x07\x12!\x00\x131\x08A\x14"Qa\t\x15q\x91\x16#2\x81\xa1\xb1\x17BR\xc1\xd1\xf0$\xe1%r\xf1\xff\xc4\x00\x1e\x01\x00\x02\x02\x03\x01\x01\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x05\x06\x04\x07\x02\x03\x08\t\x01\n\x00\xff\xc4\x00&gt;\x11\x00\x01\x03\x02\x05\x02\x04\x03\x07\x03\x04\x01\x04\x03\x01\x00\x01\x02\x03\x11\x04!\x00\x05\x121A\x06Q\x13"aq\x07\x81\x91\x08\x142\xa1\xb1\xc1\xf0\x15\xd1\xe1#BR\xf1$\t3br\x16\x17%4\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xa9)n\xa5A\\+)\xf0G#&lt;\x0e~\xa3\x8f\x18&gt;\xd9\xfb\xab\x14\x19N\xb2M\xedi\xe6\xfbO7\xe3\xf3\xc3\x1bg\xcd"\x0co\xb1\x8f\xccv\xfeo\x8diPQ\xf6\x1e\xc4\xf2\x06x\xfb{\x93\xf5\xfa~\xbdJ\xf0\x17\x12\x0e\x91cs\xf46&gt;\xde\xa0\xf6\xe0\x92\x1d\x02#h\x02~\x92\x0fo\xd7\x1b\x88Q\x16\xb7\xd0q\x93\x91\xb7\x00yP\xe3i\xc1#\xdbq\xe3\x1f\xa7Q\x9f\x05\xb0`H\x83&amp;}&gt;G\x91\x8c\xfcd\x84\xaeLyO\xcbx\xb9\x07x\x113\x1bw\xc3B\x91\x04\x14\xb4\x1cO\x8cd\x0c\x93\xe4x\xf7\x07\xfd\xf9\xcf\x1d+&lt;\xe6\x97\x1c\xd5\x02\xe4\x897\xf9\xf7\xf9@\x9e\xdc\x03\xacy\x02H!F\xd6\x1e\xc6{Xs\xebm\xf0\xd1\xa5\xd3\x92\x92\x95co\x00\x11\x82\t\xc0\xfa\xf3\xe7\xdb\x03?c\xd0\xba\x87\xd6\xa4\xaa\x15\xa4l7\x92&amp;DnF\xf0;r"0\xb2\xf5Q.\xc8L\r$|\xc1?\xbf\xef{`\xfe\x13m\x84\xa7\t\x1f1\x19&lt;\xfb\x0c~\xb9\xc7\x07\xf4\xe0\x0e086U\'\xf1\x1b\x95L\xc92\'\xd0\xec9&gt;\xbb\x9c\x0eZ\xc2\xc9R\xcc\x14\x93\xa4\x13\x13m\xa4@\xee"G\xcf|\x12\x05\xb1\x19\x80\xb7V\x1bi9Z\x94\xb3\xf2\x8cg%G\xce?O\xa7\xd3\xa8\xa9\xcb\xdd\xacYCM)\xd5\xcci\t*\x13s\x04\xa6G\xaf\xd3x\xc0G\x03\xabR\xf4\x825\x10\x13\x1b\x91"\xf1y\x81\xcc\x0e}H\x0b\xb9uB\xde\xb6P\x0b\xe5\xe9Ju\xa5\xb8\xdac4\xe3\xe4\xa1#n\xec6\x95d\x15\x90\x90\x01\xdcy\xe1 \x12\x1c\xf2\xbf\x85\xf9\xb6f\x84-\xf5\xa2\x91\x92u:\x95\x82\x95i&amp;F\x91\xe8&amp;bw\xe3\x8f\xad\xe4\xea\xa8RJ\xe4$\xddr\x08\xf6\x17\x03\xd4Xw\xf9+e\xeb\xf5\x1bc\xa9m/*Sm4\xb6\xe1G`\xba\xe8K\xad\xa9\xde\xeb\xa5\x04\xa5-mF\x1b\xdc\x02\xd6\\B\xf6\xec \xf5aQ|*\xe9\xc6\x00C\xf5\x0bq\xed0J\x8cz@\x981\xd8lb\xd8\x9e\x9c\x8e\x99$\xcaDLL\xd8\x81\xc8\xe4v\x00\xfe\xd7\x17W\xa8\'[m+\x97m\xd5\x1d\x8c*\x12\xe2\xfe`\xec\x17\xa1\xc3u\x98\xee\xb8\n\xe28\xeaR\x99\x0e!\x9e\xcb\x8f6\xca\\SJXJ\x89Y \xe6\xef\xc3&lt;\xa5\x06i\xaa\x16\x95\x03)\xb9\x8dS\xe5\x1bDM\xfd\x8c\xed\xbe\xe5dt\x85$\x83}&amp;\x0c\xdc\x1e?\x9e\xe7\x1b\xdbsW,\xbb\xb9\xc1\x10&lt;\xbamKwaQf$%\x05\xe0\xa0\x0bh|\r\xbb\x92V\x9c\xa1\xd0\xda\xb1\x83\xcex\tW\xd1\xd5TjR\x9bQq\xb0\x15\xb4X\xf0bg\x83\xc0\xed\x80\x95\xd9(Cjq\n+"\xc0\x01\xef\x1e\xbf\xbf\xae\x0c\x9fd\x00\xa5\x0c)\xb3\x85\x05\x03\xb8\x10|\x14\xa8pG\xb8#\x8eN\t\xcfJ\xf54\xc5\xa9C\x89$\xc1 A\xb4L\xc8\xdf\xf2\x1c\x1fL/!\x0eS\x12\xa5%@\x93\x06m\x00ZH\x9b\xc8&lt;\xf6\x8c\x7fGCe)\x03js\xc0\xdcp9\xc9\xe4\x1f\xbf\xb7\x8e\x85\xb5\xa5\x0bQ?\x82l\x91h\xbd\xc5\xbd~\x87\x12\x92\xa4\xab\xf0\x99\xf4\xe6\xfe\x98\xdc"2\x02S\xf3$\x9c\x03\xb5$\x81\xed\xec\x0f\xb7\xff\x00]\x11e\xe0\xb2\n\x8c\\~W?\xcf\xa4\xe0\x95/\xfe\xda\xbe_\xa8\xfd\xbf\xbe2[`\xe4\x94\x02I\x18\xc6\x14p&lt;\xf3\xe4}9\xe3\xa3m8\xb5\xb6R\x95\xc0\x03\xcd\xcc\x83\xb8\xed\x16\xf9\xed\xc1\xc7\xd5 $\xea\xe4\x80&gt;\x9f?_\xe79i\xa6\x97\x00\xf9H*\xe4`\x1e=\xceH\x1f\xaf\xf6\xe8M_\x88\x82P\x93e\x89P\x8b\t7\xf7$\x01m\xf7\x98\xe7K\xad\x95\'W\x02\xdbLw\xe7n;c10v#omEX \x14\xa5X\x18\x1e\xe4\x8fo?\xef&lt;t\xb7R\xd8eD\xa8\xeb\x92H\xe3s\xe9\x03\xf2\x89\xdfs\x88\x82\xc4v\x11\xb7\xa7i\xfd\xf1\xf4\x88\xdb\x8d\xa9Ah!*#\x90\x08\xc7\x9c\x15\x13\xc6\x06}\xfe\xbcu\x13ZW)\xd3\x13\xb5\xc0\xdb\xda/\xe9\x8f\x91\xe6\x0687\xf5\xfeO\xf0\xe3s\xb8\x10\x01\x04c\xe9\x8fn?\xcfR\x11\xe4\x16\x83&lt;\xc6\xf1\xff\x00v\x13\xeb\x18\xf8T\x94\xee@\x9e\xf8\xaf\xa58\xdb\x88P\t\t\'\x18\x18Q\x07\x07\xee0&lt;{\x7f~\xadd\xe9)\x90\x90$\x8d\xef\x04L\xda}w\xd8\xfe\x97\xb2\x1bJ$\x02M\x84\xcf\x1b\xf3\xfc\xfd\t\xf7\x12\x12\x9eR|\xed\xde\x088\'\x8e=\xf3\xf5\xcf\x03\x8f\xb0=nR\xbf\xd3*&lt;\x02mm\xad\xfc\xef\xeb|o\x0b\tM\xe7\xf9\xf3\xfd\x07\xcb\x0cz\x155\xb2\xa6\xf7\'\x9f?0\xc9\xe4\x9f\xa6q\x9e=\xf8\xfb\x91\xd2\xed}ZE\xd2H\x9f,G \xc4\xed\xde\xdc\xf3\x81\x95u&gt;\x19\xd2e \x98\x03\xb81\xcd\xbd\xc02L\xf1\x18k\xd3\xa9\x08F\xc5\x94pG\xfd\'\xc7\x9e\x0e28\xfb\x8e?~\x93]\xacJ\xdfX\x9d\x81\x111y\x17\x13\xbe\xe7\x9d\xe60\x06\xa9\xd9\x04\xa5\xcd"L\x92w\xb5\x81\xecO\xd7\xeb\x18&lt;\xa7S\x82\xb6\xa8\xe3\x90F\xdc\x8c\x023\x85g\x83\x92\x01\xf3\xe0\xff\x00\x88\xce\xb8\x85$\x04\x10\xa3#n;\xfb\x8b\xfb\x12-68\x05P\xf9\x00\x94\x95\x130`\xc1\xf5?-\xe3\xd0\xed\x8c\x8a\xa5N\x05\x02*\x96\xf3\x88S\xe0\x12\xd4m\xc9.\xad@\x15\x12\x01 \x84\x00\n\x96\xaf\x1bG&gt;\xf8a\xe9\xec\x8e\xaf8\xa8[A\xb2\x1b\x06\xea\x82\x00O \x9bpE\xef\x07\xb4\xdf\x16\xdb5)\x17:\xa0\x13\xc0\x99\xe6/\x06\xfb^\xd8^\x18z\x8d\xaa\n}\x16u:\xa9\xf94X\x95\x17\xdd\xa92\xda\x9bm\xe6\xda)\x8e\x9f\x84i\x0bmR\x02\x1fuH;\x9d\xfel\x84\xb4\x84\x85\xa1\xd7\x19M\xb5\x97\xe5ygO!\t\xa6m\x0bx\x1f2\x96\x02\x88\x90d\x89\xbf;\xf1\xc8\x92\t?G\x94:\xe0\n\r\xa8\x9d\xc1\x00\xfeD\xfd\x0f\x1e\xfc\x8c\xdd\x1e\x9fo\xb7jT84\xf93\x91/\xe1a\xc9\xab\xb7+\xe3Zr7\xe7\xcdI[\x8dlq\x97\\\r8\x14\xb6KbB\x98\x87\xf0\xeam\xb6J\xd6[I\x07s\xe6aEu\x08g@\x10\x93\t\x12A\x90"\x05\xa3m\xb9\x168bo |\xa5\x03\xc3qD\xc8\x1eR\xab\x98\xec\x07\xb7\xb6\xc3i,G\xa3\xcb\xc2=q\xf9\x92\xac\xba\x9c\xba\\$\xa5\xae\xe2\x94\xb7\x15\\ao\xb1\x1a]J\x96\xa0RK\xaf\xc7\x90\xcc\xe6Q%\x959\x1bv\xe4\x04\xb8\xc9JC\xbb\xd4-)\xc0\xb0\xe2\x16R,\xa9$\xf3i\x16\x98\x8f\xd3\x05\x99\xe8\xea\xb7\x92\t\xa7uH&amp;,\ncbw\xdb\xd0[\xe7l\x07j\x7f\xa7\x8dO\x87S\x91b\xd2\xe82*lQ\xa9l\xbd\x1e\\*$\xb8p\xe234\xf7\x02co\x8f\xdcrt\xd4\x7f\xf2\xea\x88Hl\x99\x89Pu9m9\xdc\xd7S6\t+pox\xb4\x03\xdaM\xfd\'\xd2q\xaa\xaf\xa334\x7f\xec\xd3.#e\t$Z\xd6\xdeF\xd3\xef1l&amp;`\xfaT\xd5\xc7\x9f\x8f\x02\x1d\x91v\x14\xcb\x9b,=-\x98\x7f\x14\xe31\xb6\xb6\xfbo-\xc9\nfj\xa4!\xd1 \xc8\xee\xa1\xb0\xb6\xc1m\x82P\xb4\xa0\x11k6a\xf4\xebJ\xb5\x0b\x01\xab\xcc\x93\xb1\xb8\xb7}\xf8#\x01\x9d\xe9\xba\xf4\x02\x97\x99-\x882\x14\x92y\x13\xf8v\xb6\xfc\x88\xbd\xaf\x87=b\xca\xd4\xfd\x07j\x9f\x0fP \xcd\x93B\xa9%\x0f\xb1Pu\xa9\x0e\xaa+N\xa5;Zu\xe5)\xd6\xd2\xa6\x1b\x1f\xcc@Z\xf68\xdb\x89R\x82\xd6\x85,&gt;i\xd3\x88\xcd)\x9f\xa9\xa3%5J\x1a\x8aPBR`n9\xfe\xe6\xdcac;\xc846\xa0R\x92\xb0\x01\x1aDX\x80{\x93\xda&gt;{\x1c\x15\xc6\x92\xd4\x86\xda\x91\x19i[O\x04\xba\xdb\x88RHSn|\xc9X \x9e\nH \xf3\x91\xcf\xdb\xaa\x82\xa6\x9a\xa2\x89ke\xf2R\xa6\xc9\x04\xa8\\\x99\xf6\xf9\x0fo\xa2(g\xee\xebRV \xa4\xc4A\x99\xdfx"\xe0\xfc\xbb[\x05\xd0BT\x10I\xe7;Ny\xc1\xce\x01\xff\x00\xd28\x1f~\xb1\x0b\xd2\xb4\xe9T\x893\x1c\xdb\xf9\xfb\xce&amp;\xb0BD\x1e\xf6\xdb\x81\xce\x0ba\xc0l\xa7p\x00\xee\xf7\xc68\xce\x00\x1c\x1eq\xed\xf6\xe8\xb2jT\xdbs\xb1#\x8d\xc8\xee\x0c\xfb\xef?\x95\xb6\xa8\x827\x9e\xd0y\xe3\xe5\xdf\x1b\xa4S\xc8)% \xa7\x07\xdc\x13\x8c\x11\x8c\x83\xb8\xf3\xf6 \xff\x00\x9e\xa2\xb9TT\tQ\x80S$\x9d\x87\xc8v\xb6\xdd\xb6\xc4"\xb5\x00B\x89"v\x07\xe5{\xdf\xf9\xf2\xfb*\x12v\xe0#\x9fn\x0erp&lt;\xe3\xe9\xe7 \xfdOK\x19\xa5x\xd2G\x97b\x01\xb7\x12&amp;7\x89\x8b[lj\xd4\x92\x17\x00H\x07\xb5\xe0M\xfdy?\\k\x9de\r\xa8\x80\x00 \xf8\x1c\x83\x8e&lt;\xfby9\x18\x1e\xdez]Mb\xe4B\xe0\xfb\xef\xdco\xdb\x9cA/\xe8\xb2\xa4\x08"{\x13\xfc\xb1\xfac\xc0o8!)\x1cy##\x1cp\x07\x1f\xbe=\xb0z6\xc5h)\x1bl\x7f\x15\xf9\xdfk\x1d\xf8\xc6\xa1\x0f\x12u\xc8\x1c\x0e&amp;w&lt;\x9cWf\xd7P\xa2\n8\x04\x84\xf1\xbb\x8e\x0f$\x00\x0f\xed\xcf=]\xfe\x1a}\x7f\x9f,tZ\x19\x00\xadfd\x94\xd8\x91\x1c\xd8\x08\x9f\xf1\xed\x82\xfa;m\xad-\xe7\x1b\x8e8\'\x80p\x0e0&gt;\x87&lt;\x1e8\x03\xcfQ\xaa\\\xf0\x9bRE\xed\xcfb/\xdb\xbc\x8e\xfe\xd8\x8fP&lt;\x8b"|\xb3\xe9\xc8\xfc\xf6\xfc\xf0\xd7\xa0\xc1\x0b[j \x0eF\x0eN\x07\x00\x8e\ny\xf6\xfe\xdfOt\xea\xe7\x80\xb1\t\xdc\x93\x11~L\x99#\xb7\xcc\xfa\xe1v\xb1\xd5\x04\x82L\xdc\x08\xf4\xe3\x9fN\xe6o|:\xa94\xf6\xcb\x03z\x02\xfe\x98\x00\x81\xe3\x8ep1\x8f\x1c\xf8\xc1\xf0F\x10\xab^\xf3\xafA\x85\x05\x19\x89\xb8\xbd\x8f\xa4\xc1\xd8m3\xbe\x15\xeb\x1c:\x8e\x95+\xf1\x01\x12"\xc3x\x80v\xf7\xe2\xf8%b\x08@Om8$\x900\x0eF\x01\xf2\x02y\xe7\xe89\xf6\'\xad\xd9Z\xd2\xf5E:&amp;V\xb7\x000m%^\xe4\xdf\xdf\xbf\xbe"4T\xe3\xa9N\xe5CL_c\xcd\xaf2\x07\xb4\x0bcq@\xf4\xebY\xd4\x1a\xda\xd5Q}\xd6\xa2\xce\x90\x84\xb8\xc6\x1bS.\xc6\xf8D\xb7\x11q\x9eZR\xf46;\xee\x82\xf2\x1dl\xb9)\xc6\x9cRJ\x10\xd6\x13\xd2Yc\x8det-4\xdba.)\xb1\xe28\x91\xfe\xa6\xa291\xea7\xdb\xd2H\xc5\x83\x95d\xc1)o\xc8I\xd27\xdf\xbd\xccA\xdf\xd3\xd0\xf2o\x93E}7\xe8\xde\x94Y6\xecD\xdb\xedU\xabq),\xc5L\xb9\xbb\xca!\xc5[\x8a\x9a\x98Q\xe16\xb4\xc7m-\x17\x10\xda\x9d\xed!\xd7R\xd2\x0b\xb8#\x00uR\xc2\xb5,\xa9EDL\xf6\x93x\x9fKs\x8b#*\xcb\x94\xd9L\xa5$\x7f\xf2\x13\xfe\xd2#a\x1b}},\r\xea\xf0mJHvD;~\x89\te\x92\x85\xb8\xcc\x08\xc9p7\xb9N\x84\xa9a\xad\xe7\xf9\x8bR\xc8Q9YR\x87$\x9e\x95\xeb\x10\xdb\xaa\x85\x80\xad\xe4\x9f\xe6\xdd\x89\x9e;\x1c&lt;P3*\x08\xf0\xdbN\xc3V\x99\x99\'k\x98\x8fM\xfd6\xc2&amp;\xe4\xd4Xt\xd6\xd7$Ge\xc42\xe0K`\x0c%\xd1\x90\x0e\xd4\xf1\xb4c\x0188\xc0HP$\x12F)-\xa0Y!0,\x07\xa77\x9f\xd7q\xef\x87!N\x1bH\xd3s\x02\xf07\xe2,.;a\x17sjL&amp;\xe4\xa1\xf9\te\xb1%\xc2\xb2\xeb\xce#\xba\xb2\xa2\xa3\xb4\xa0d\xa8\x026\x82\x12\x9c\xf03\x9c\x11\xf1\xb5"L\x81\x1b\x99\x1f_\xaf\xca#\xdb\x1a^eK\xd3\x04\xc9\x8b\xd8\x01&lt;E\xad3n\xdb\xf7\xc6\xaa\x06\xb8\xdb\x90\xe5\xa6\x13\xc9\x8e\x01\t+Z\xd2\xa4-.(\r\xc1\n\xda\x12\x12\x92\x15\xc8\x07\xe5Q\xce\x07\x05\x93-\xab\xa7\x947\xc4\xc7\xccG\xd4\xfb\xc7\x18]\xcdrU\xbe\x85\xb8\x92" \x92/ \x13\x1c_\xb76\xc3\xfe\x8bX\xd3\xedI\xa1\xd4\xad[\x9e\x91L\xb8m\xfb\x8a\n\xe2T!\xcbCK+\x8c\xf2T\xd2\x9cfB\x92\x1ej\\q\x87XZT7l\x00\x10P\x9c[yBX\xa8c\xc3m\x00\x12\x80\x01\x02\x14dmn\xff\x00)7\x938\xa3\xba\x86\x91\xc4:\xe1RTbE\x85\x88\x06&amp;\x0c\xfeg\xe9|Q\xce\xaa\xe8,\xbd\x04\xd4\xcb\x9a\xc6\x8e\xf9\x9df\x9a\x83\xb5K.b\x97\xbd\xc8\xf4I\xaf\xc8v5:N\xe7\xdcqf;!\xb5GV\xc4$\xb4T\xd0S\x85\x82\xe2\xea/\x899:\xe8\x88\xad\x80\x96\x16`\x84\x8d\'\xc4\x00\x00/\xc1\x00\x13\xce\xe6c\x15\x8ekJ\x12u\xa5\x17Y\x937#\x837\x11\xb77\xf6\xbe4Q\xa1\xa9\xa2\x02U\xe4\xa4\x80A\xfa\x9e=\xb8\xf6#\xf7=T\x8d&lt;\x04)7\x02\r\xf9?.\xfc\xda\xf8\x0e\xda\x04\x7f\xb8\xdf\xb8\xf4\xda\xc7\x06\xd0\x1a\x00$(\x926\x92y }\x07\xf8\x1e\xff\x00\xf6\xe8\xb0\xab\x0f\xa7IHI\x03\x8b\x08\x9e/\xb9\xdf\x1f\x17\xe1\xa2%FI\xb2L\x18\x1d\xec9\xf5\xe7n\xd8"a \x90\x06@\x07\x03&gt;\xe3\x07?\xdf\xfc{s\xe7\xa85\xaf)\xb6\x96\x13p\x113\xec}\x08\xf4\xf6\xecq\x19@\x19\x17\x00\xed\xed8\xd99\x19\x08@RO\x92\x01\xf9\xbc\x92\t\xf6\x1c\x13\x8f\xed\xed\xd2\x05s\xee)D\x13\xb2\x8f\xbf&amp;\xf7\x03r{\r\xf1\x1c\xa1)2\x152n?=\xbb\xee7\xfa\xe0:\xa0\x94\xb6\xe6S\xe7r\xc1\xcf\xf69\xf6\xf3\xee|q\x8fn\xa1\xb4\xe1 )V\x886\xb1\xe6-&lt;\xferc\x11\xddJ\x15\xbc_\x99\x04{D\x19\x9e\xdf\xb65\xa9\x98\t\xc1\x00\x00&lt;\x9c\x81\x91\x8c\x01\xfe}\x87\xdb\xa3\xd4\x8bih\x9dK\x16\x8b\x1b\xef\xcd\xaf\xc4\x1b\x8f\\FAXR\x82\x1b$@\xb8\x1b\xfa\xc8\xfc\xfd\xef\xc4\xc0\xb0\xc2\x94\xad\xdb\xc6\x0f$c&gt;|\xf0\x0e&gt;\xe3\xef\xd7D\xeb\xb0\xb4\x9ex\xe0_m\xbfLt\xb4hJ\xd4H0\x05\x88\xdf\xeb\xda\x7f\xc8\xe3}Fh\xa1i\xdd\xe4+ \xe3\xcf\xf4\x80\xaf\xd7\x8f\xbfCk]\x04\x10\x00\x98\xdeg\xdcH\xdbo\xc8\xfb\x01u\n\x86\x97\xc9)\xb1\xeego^&gt;\xb3\x87e\xb4\xd8=\xa5(\x03\xc79\xe7?)\x18\x03\x8cx\xce}\xc7\x1ct\x85\x9b\xb8\xbf\x0c\x84\x98Q*\x88\x91\xe6\x1bOq\xf5\xfaaV\xa4\x98\x13&amp;\x08\xdf\xdfo\xe0\xc3\x92\x97\xcbm\xa1\t\xff\x00\xa4`x\xf0S\x9f\xed\xff\x00\x9e\xab\xfa\xf7\xca\x12\xb90\xbf0&amp;H\xe2\xf0g\xd3\xd3l+\xd4,)k\x13\xf8U\xf2\x1b\xdb\xd3\xf9\xc0\x18`P\xe9+\xa9\xd5i\xd4\xfc\xa5\x02t\xc8\xd0\xf7+\x01)\xf8\x87\x90\xd19\x04\x13\xc2\x8e\x02JI\xf0H\xf6\x91\xd2\x15!\xfc\xf6\x8d\xa5\xac\x94\xf8\x80\x90I\x99\x04\xdb{pL^\xe2\xc4\xe3&lt;\x9d\x05\xdc\xd6\x8d2H.A\x1b\x83{\xc8\xb8\xe7\xd7\x91\x8b&gt;\xb7i\x94\x8b~2%vY\xf8\x96#\xa7\xb6\xe6\xc0\xdb\xaa#\xb6\xb9\ni`\x06\xd4\xbf\x88\x0b)N\xd2\x94%\r\x94$\xed9\xe8\x9a\x8c\xcd\xaav\xf5\x05\x92\x05\x81R\x893k\x1e\xc0l&gt;\x83\xbe:\x13,\xca\x9dZ\xd0\x12\xde\xa4\x10\x93\xf8\t\x89\xda\x00\x1c\xfe_&lt;\x1a[\xda\xdf2z\xe6S\x9f\x12&amp;\x04\xa3\xb8\xdbqZ.\xb9\x1a\x0b\xce\xa9\xb7\xdd[\x8e-\x0bKQB@\x1bB\xdc\x01\xcc\x84\x84\x01\x85\x9f\xea\xee\xbe\xe9IQ)&lt;\x05\x7f\xf1\xfc\xb6\x83\xdc\xefkb\xcag\'\rS\xa5e\xb4\xc8\x17\x94\x81\xe9\xd8\x0e;\x9f\x9e\xf87\xab\xc9\x9f6\x90\\D\x85\xa9\xb9A)/-D\x90\xda\xfePB\x82\x81J\x81\xc2F\xe0\xa4\x8cc\x03\xc1\xc9JR\x82\x94\t&amp;\xdc\x93\xc1\xe2\xfb\xef\x7fA\xcc\xe3Sd6By\n1\x10"\xf3kw\xdf\xeb\x18L\xdc\x96\x82!7\x1d\xa9\xf5\x02\xa9\x0f\xb6\xb9\t\x8c\x94\x7fIYPm\x01]\xbc\xa8\x1e\x0er\x90N\x00\xc7\n\x10\x9f\x90\x90I i2M\xaf\xfc\xdao\x86ju\x95\xa0I&amp;\xc3s7\xdbc\xf9\x9fLF\x9b\xde\x9f\x11\xda\xb7e\x90\xea\xfb\r)\n\x05n%\xd7#)\xa0w\xa1\t$\x83\xb8\xad\x05IBT@\x18$c:Z\x92I\xdd%\x06fJn\x04\xed\xcc\xc9?&lt;mZ\xb4F\xc6\x7f}\xc5\xb9\x93\xefm\xb1\x1e\xabvR\x14\xea\t\xa9\xca\x86\xd8\xca\xdbI\x92\xbd\xc8J\x94xuK\x1b\xd2v\x82S\x93\x83\x8f\x91)\xe4\x92yk\x1a\xddI\x98\xf3\x02$\xc4\x01{mkl\'\xbd\xa3\x02\xeb_\x96\x1e\t\x10\x02I\xb1\x8b\x8e\xf0\x05\xc6\xfc\xef\xb8\x8b\xb4t\xe2\xea\x93n8\xc3\xa2k\x92\x92\xcb\x91\xda,!jZ\xc0\xdc\x12\x90\xb4\x9c\x15\x87B\x89\n\xdcp\xad\xf8\xc1Q\xcd\xd9\xd2\xe5M2\x85j&amp;\x14F\xa9\x9b\t\xb4\xedn\xd6\xb7\xa6)\xee\xa1i\n\n\xd8\x15$\x99\x90I#c}\xf8\xb0\x1e\xfb_y\xea\nu+P\xadi\x95\xc8\xc3\xff\x00\xca\xdb\x13\xe2\xc7\xa8\xaaB\x1dL\x8f\x87\x88\xb7`\xb8\xc2\xa3\xbcS!\xb4\xad\xf7\xb7\xc7x\x05\xa42\x84\xa5h\xda\xeaV\x88\x1f\x12\xa9\x98\xcczz\xa8\xa3J\x9ci\xb2\xb2\x05\xe1W\x01b\xd6TX(_\x8d\xa4b\xa3\xce)\x1d\x08$\t\r\xecH7I\xe4\x13b\x01\xe6\xe0\xed\x888\xb5\xf6\xd5\x81\x82\x01\x00\x11\xc6\x07\xe9\x83\xc8\xc7\x8f\xed\xd7%7P[\x94\x91\x17\xbd\xf6\xbd\xc6\xd2$\x88\xe6\xff\x009F[\xc5\xb5\xc7&amp;\xf297\xf5\x1e\xbf-\x88\x9cm!\xcfo\x8d\xcbH\x04\x8e@\xc6\x01&lt;\x83\xc8\x07\x19\xe0\x81\xe0q\x93\xe6R*\x16I\t\x90E\xc8\x93p;O&gt;\xdf!\xda2\x97\xa9ef\xfb\x187\x9d\xad\x1b\x9e{\xfa\xcc\xe0\x8e,\xe6\x8e\x12\x16\x9f8\x1c\x8c\x11\xb4\x9f8\xcf\xb1\xf3\xc7\xd3\xac\xd6\xb5\xa9**$\x92\x92 \x99\x9bX\x1d\xb1\x97\x89\xafq\xa6\xd6\x83\x11\xb5\xb6\xb7\xf7\x9e\xf8\xd8\xaepRq\xb8\x12\x06F0\x07\x03\x8cq\x82s\xfbq\xf5\xe9n\xa1\x94\xad*\xf2\xa6B\xb9\x00\x19\x93o\xa0\x8b\xef\xb6#\xba\xc9+\x06N\xc4\xef\xbc\x00{\xefk\xeeGy\xb6\x03\xaar\x02\xc9P9\xcaO\xeaq\xbb\xe8\x01\x18&lt;\x7f\x9c\xe3\xac&gt;\xe2\x14\x84\xc0\t\x90&lt;\xa0G\x1c\xc7\xf2\xde\xf8\xd0\xf3D\x84\x89\xf7\xbd\xa4z\xf6\x9f\xacs\xc0\x82\xa5\xb8\x87\x15\x85\xee\xdc3\x80|`\xe3\x07 \x83\x8f\xae\x07\xdb\xa9\x94\xf4\x81&gt;[\x00\x05\xacG&gt;\x80~\xf8\xda\xd0\x81\x131\x1f\xbf\xf8\xc4ZM5M\xa8\xe5\'\x07\x9c\x14$\x8e8\xfb\x8e\t\xf6\xcf\x1f\xbfW\xba\xdep\xc6\x80\x8evT\x98=\xfbm\xb6\xf3\xb6\xd8\xe8\xba\x94(l\x08Jg\\\xce\xfb\xa6;\x9b\x19\xbd\x87\xbe7T\xe8\x87 \xec \xe4{\'\x8f\x19\xc1\xc6q\xc7\x8c\x8e\x85U;\xb8\x136\x9b\x1d\xc4O\xa6\xf6\x1f&lt;,\xbc\xa5\x92\xa9Q\x02H\x00q\xbd\xeeE\xed\x86\x85\xbf\xbd\xb2\xdaT\x920\x13\xf6\x03\x03\x04~\x9f\xef\xf5\xcfJY\xca\x16\xa6u\x01\x02\x0f"F\xa3n\x7fo\xf0\x16\xa9@\xb6JT\x9dRJA L~@\x83\x1d\xaf\xc8\xc3\xae\x92\xa4v\xdb\xf96\x92\x13\x92\x7fNH\xc7\x18\xc6y\xfa\xf1\xcf\xb5E\x9c8\xf3+p\xc9)\x1co\x13\xb4\x03\xbd\xc4|\xef\xdb\x0b.%(R\xca\xb7Wa&amp;G\x1f\x97\xe9\xed\x86\xa5\x88\xeaM\xdbD!JOnX}\'\x03\x850\x85\xba\x0f\xcd\xc7\x059\xda&gt;e\x91\xb59Q\x00\xe1\xd1uN\'\xa9\xa9d\x84\xa5\x1a\x94I ^ v\xb9\x1b\xf6\xf9\xe0\x8fI7\xe2\xf5\x1e\\\xc8F\xa4\xb8\xef\xe7q\xebx\x8ew\xf5\xc4\x85\xa9^\xb5\xea\xedEt\x98\xf2\x9cy\xe7\x9eC(q\xd5\x96\x10\x16\x14{JS\x8b\xdb\xdam\xa0\x00R\xd6\xa4\xa4\x81\xf3e*#\xabf\xbb7}\xc7\xd6\xca\x14\nu\xabc\xd8\xc9\x00\xdc\x1bv\x9b\xda\xf7\x9e\xd9\xc92\xa6\x1aBT\xb4\x14\x80\x00 \x02H1"\x00&gt;\xf1\xb6\xf1\x1b\x83(t\'N\x05u\xe9u\x19\xb5w\xe9\xc8\xa1\xb8bVj\x89\x11\x0cj\x94\xb5\xb0\x96\xe4@\xa7JP.(4\xde\xd5MS.\x18\xfd\xfc\x84\xa1}\xbd\xfd0d\xb4\x1e:&gt;\xf0\xf3\x9e\x1aM\xc2\xa7\xca\xab@\x8d\x81\x99\x88\x1b\xed\x02\x061\xcf+\x9ch\xaa\x9a\x95\x82\xeaH\x98H\x95\xb6A\x1f\x89"t\xecw\x8d\xfeX%\xd5\x1di\xd0\xad*\x92\x8bn\xe1\xd4\x9br\x8a\xfb\xa4\xb4\xe4yuS"_t%. 8\x98\xe1\xd4\xb0\xa0JW\xb5\xd0\x93\x85\xb7\xf2|\xe9%\xa3\xfaz\xd4\x90\x96B\x88&lt;\xc6\xfd\xa2;~\xbf\x9aZ\xf3\x16)U5o%\xb5\x83%*\xb6\x9b^o\xcc\xc1\xfaqh\xd5|z\x89\xd1\x99y~\x93\xac6ef\xa7\x02N\xf94\xe8\xf7-5\x13\x97\x1fi-3\xda\x94\xfb*\x01n\x944JS\xdb%cfF\xec\x88\xcc\xd8z\x81\x85\xb8\xf3j#IRD\x12\xa9\x1b\x98\x1b\x11\x07\xde=\xe1\x87)\xcf2\xc7\xd5\xa0V0I\xec\xb1\xcc@&amp;\xc0v2\x00\xef\xce\x10\xb3=Ii\x14\xe8\xd7e\xc5&amp;\xb8\xd7n\xdeuQ\xa6\xce\x80U2\x1c\'\x9b\x8a\x97C.HG\xf2\x0e[J]t\r\xeam\n\xc9\x00cjs=F\xdbQ\xaa\x98\x8d`i\x95L\x92LJG7\xda-q\x86\xcf\xb9\xb6\xb6\xbe\xf2\x87PYO\x98\xafP\x08\x11\xe6\xba\x89\x88\x00v\xb7lF\xd9\x9e\xa34\x8e\xe3\x95V\x9f^\xd4\xbbf\xcf\xa5)}\xb6\x0b\xf5DI\x97)(m\xc7\x1b\xd9M\x8f\xbd\xe7P\x94\xa4\xa9K\xd8\x12\x95))\x1c\x85a\xe7\xa7\x1fz\xb9\xe4-MhA\xb8\xde4\xc0\x07\xbcn~\x82&amp;p\x81\x9f\xe7\x99m2\x08j\xb1\xa2K\x90\xbd*\x1cj\xd5\x03\xb6\xdbD\xfe\xa5\xba3\xea\xd3\xd2\x89\xb8"\xdb\xd3o\xa8\xf5 \xe9D9/\xcfh\xc2\x87,\xbc\xb2\xd2\x92\xd4\xd2T\xd3n\xe5c`\x7f\xb3\xc9\xc0P!G\xabW-\xaa4\x83\xc2Z\xd2\x86\xf5\x1b\x95\r\xc9\xb0;G\xe5\xdeqZ\xe6U\xd45\x88_\x84\xe0Q\t%$\xc8\x83\xdcs}\xed\xdf\xdb\x12\x07\xd4]6\x89l*\x15\xd3eNju\x91|Q\x9am\xb91\'\xaety)}\xb4\xbf\x1ek\xdd\xf7\xe69\nj\xde3)\x8f\xb0\x89\x8e0\xdb\x94\xb4\xcb\x8e\x96X\x9a\xd3(\xfb\xd4\xaa\x8c\xba\xa0(\x82\x9a\x8aU\x81\x04\x192\xa1`/\x11i\xf578I}\xb2\xf5%b\\\xdd\xb6\xc8I6\xd4$\x98\x12{Z\xdbA\x8e1\t&amp;\xd4\x00q\xc0\xdaG\xf5\xf0\x068\x04\xf2\x0ey\xc8\x19\x03\x04p\x07\xd4\xe7\x90\xdee\xe0\xeb\xaa*\x90\x95\x14\x11\xbc\x90m\xb4\xda\x06\xfc}1P8\tZ\xb5A)&amp;\xe2\xf08\x1e\xd7\x03\xfe\xb0&lt;\xed`\xb2\xe62\xa1\x8c`g\x00\x1d\xa0\x8f\xa89\xcf\x8f#\xc6q\xd6\xd4\xb8\xb4\x90@\xb4\x00}?-\xfb\x9f\xc8\xc4c\x0cl`]%\xb7\x12\x16\xa4\xe0c\n\xfag\x8f&lt;\x8c\xf3\x83\xf5\x04\x8es\x8e\xa6\xa5`\xc0\x93\x06\x0f\xf7\xfa\x01\xeb||\x04\x13\x00\xdf\xe7\xde0J\x9b\x88-%IX \xff\x00\xd2\xa1\xef\xe3\x81\x8fl{\xfe\xc7\xa8\xceS\x95\xa8\x94\x8bL\x8fA3\xb6\xdf&gt;\xff\x00\x9e$\xaaT\x04\x08\xe7{pG\xeb\xb7\xf9\xc4]M\x0e\x02\x92O9\x01D\x83\xc9\x04s\xf2\xe7\x1c\xf1\xe7\xeb\xf5\xcf\xc0\xda\xd0d\xc0@\x173\xf2\x021\x81Q68\xd7\xae\x19^\x16\xd2\x8e\x0f\x18\xdcx\xf3\xc7\x07\'\xf5\xc0\x1cu\xb4\xbe\xd01\xaa\xfe\xd8\xdd\xe1\x80\x90@\x92w\xe7\xe7\xfc\xe7\x9c(\x1d\xa7\x176\x946s\xe0\x82\x0f\x81\x93\x84\xfe\x99?S\xc1\xc7\xde\xddeA!_!\x1e\xf2&gt;\xbf\xe2\xf7\xc7L\xd4\'XRL\x0f\xc5}\xc1\xdf\xbf\x00\xf7\xfc\xb1\xb1\xa7R\xf0R6\x8eNO\xdb\x92\x0eI\x1f\xbe}\xfd\x89\xeb\xe3\xf4\xe25L\xcd\xee;\xde-\xbc~V\xd8a*\xb5%+V\x94\xd8\x1f\x94\xc7oRx\xe7\xe6C\n\x97M\x08Sgnq\xc9\x00\x1c\xf8\x1c`r=\xfe\xfd-\xe6\x94\xebZ\n@&amp;\xc7\xda/#\xd7\xeb\xc7\xb8\xc2\xbb\xc9\x94\xafP2\x95\x12.{\xce\xd0\x0fnd\xfa\x1c\x1fE;\x12\x08\xf2\x06\x00&gt;@\xc7\xdf\x9cd\xff\x00\x8cg\xd8V9\xd6X\xb5!\xd2\x10\xa5)0D\'Q&amp;b#a\xef\x80\xef\x84\xa5R\xb2\x02I\xb9&lt;q;\xf7 q\xdf\x04\xb6\xec\xa9\x0c\xd6\xa9\xeai\xde\xca\xd6\xfa\x02\x1d\t\xc9\x1b\x95\xb3(\x1e\x15\x82JN\xcc(\x13\x8d\xc0\xe7\xa09&amp;WWO\x9c\xb6\xeb\x8c8\xdbp\x08:L\x10d][\x88\xb5\xbd\x00\xc1\x9e\x8e*k\xaa2\xb2\xa1\x08K\xe1KPB\x84\x03\xb1$\xa4N\xaf{X\xe2j\xdbVG\xe65\xa8\xf0\xa5\xc7\x90\xf3U\x10\xc4\xa9\xf3T\xda\x94D\x1c2\xf4\x84\xa1\x03\x84\x99/\x90\xdfq8\xda\xc3\x8b%;\x8a\x87V\xbbyP.%zT\xb4\x0b\x93\x07m\xef\xf2\xf5\xde\xf3\x07\x1d\xa5\x97\xd6\x95!I\n\x08Y\xfc \xde$[\xb7\xbf\xa0\x99\xb9\xb2\xf3\xd5\x1e\xbc\xdevU\x196\x0e\x98YW\x05VG\xc3\xfe[F\xb7\xadx\x8b.M*|\xa0\x07\x9c\xc7h7!\xdc\x99.\xbaR\xb2\xdeZA\x01 \xa9c5\xcf\xf3G\xf3\x84e9Hz\x9e\x95\x97\x02?\x01P\x89\xb9\xff\x00l\xccD\x9d\xbeG\x0cL\xd0\xd1\xd1eu\x95\x95\xcb\x0f\xd5&lt;\xd9S\x8aI\x01kP \xa4$\x19\xd3*\xd30l\t\x89\x99\xc7&gt;\xfe\xa0\xf4\xd3\xd5\xd5J\x1dJ\xe6\xd4\xc8\xd3,\x89\xf5\x99\xd5\x98T\xdb*\xdd\x9do\xb5&gt;\x93:\x9e\xecFbM\xba\xea\x95y2\x1d\x93\x1aK(\x94Dzk\xd1\xea-\x98\xc1eq\xdb\x92\xd2M\xbd\x93TRQ\xb0\x86\xeb\xeb*&gt;\xf9\x02yI o\x1a\xbc\xbd\x8f\x1b\xf3\x8et\xcf\xf2\xae\xa9\xcc\x1f[\xf4\xf9z\x11F\xb5\xa8\xb6W%E3a\xf8@&amp;\xc2}\xed\xdc&amp;\xa9\x1e\x925\x02U\xc2\xa96\x85\xec\xbb\xda\xde\xa71Oz\xb1WJ\xa4\xb2\xe49o1\x05S\xd0\xca]Cn8\x86j2\xbe\t\x87@K\x92\x16?\x92\xd3\x9c\x15\xfc\xea\x1c\xe1\x02\x91\xc5\xa9%M\xa5\x04 \xfe"\xb9\x04_\xb1\xbf\xa8\xbc\xfbI\xe9\xce\x8e\xce\xdf\xabe\xbf\t--q\xad`\x10\x94\x83\xccM\xe6y\x89"m|_\xcd\x87\xe8\x87\xf2\xbfNt\x98l\xd7\xaf:\r]\xa8\x15*\xbd6\x1c\'i\x10\xe9\x13\xaa3\xa3\x87]v\xa1\nM\nD\x8a\x82\xe6\xb8CR\x1f\xa9\xc9\x90\xf2\x9b!!IJp+\x9a\nTf(\xf1\x824\x90B\x91a \xdc\x8bw\x12\t\x1d\xff\x00;\xb5\xcc\x80\xd0\xe5\xbfq]j\xe1)%\xd1\xc2\xd6\x04-1\xaa\x02J\xa4@\xee\x04\xc5\xb1\xcd&gt;\xae\xfat\xd4h\xb7\xed\xdb@p\xbdn\xa2\x97.R\xe2\xa5\xc7\x99\x87\x0c\x15\xca\ni/)\xe7\x10\xdcH\xcf0\xa7;.\xb5\x1d\xc6\xd0\x12\xd2\x02\x02p\x05\xa7\x91\xb8\xdb\x0c\xb6\x99\tZ,\xbb\x00H\x816\x9b\x1b^\xc7{\x8cswP\xe45\xff\x00yy,7\xa9\xb2\xe3\x8a\n\x83\xff\x00(\x16\x93\xc7\xaf\xeb\x18nh\xf6\x82\xea\n\xadx\x03K\xef\xd9K\xd6\x07\xee\x19\x08z\xd8\xa9\xae\x04\xdb1V\xb9\x8e\xd3\x10\xd85Ga\x89R+O\xc9\xf8\xa5a\xb8\xff\x00\x00\xdb.\xb0\x1c\x7f\xb8\\\xed\x15\xab~\x92\xb0\x96P\xa7\x8b\xa0H\x82P5\r\x8f3q~\xd1\xce\x06\xd2e\x19\xdd0I\xf0\x9b\xd1:\xd4\x92\xde\xb2\xa07\x8e\xdc\x9e\xfc\xda\xf1p\xdal\xbdr\xa7\xfa7\xf5\x12\xc6\xa5[o\xd1n]\x1a\xb6$\xdf\xb4\x96%\xc1}\xca[*\x82;\x15G(\xe1+\x05\xc8.\xaa4\x19RcG\r\xb7\x84\xb4\xee\x13\xdcsq\x1c\x86\x8f1\xab\xa3\xccX\xadqo%\x81\xe1\xd3(\x83(J\x86\xbd\xc9\xf3AQ\x8d\x87\x118\xcb\xa9\x16\x85Q%~\x08i\xd7\x1b(t"\xc9*I#T\x0e\xe0A\x07\xdfx\x18\x1cC\xaf\xd6m\xcaU\xddN\x8a\xf1\xa0\xd7`@\xa9@\xa8\xa1\x87\x04\x17Y\x9f\x11\x99l\xb6\x89!*\x8e\x1d\r:\x9d\xec\xf7V\xebJ\nC\xbf\xccB\xc0\xa43\xac\xb2\xa7.\xa8\xa8\xf1)\xdd\r\x85\x15\x95)\x97\x12\r\xe0\x02JH\xdc\xcc\xce\xe0\xec#\x14R\xa9\xdeR\x9eq-\xb8\xb4!E!iB\x8a\x0cI\x9d[\\\x82\x07\x13;\x08\xc0d\xf5\x11\x92\xa5\xf2=\xca\xb1\xe1#\xc0\xce&gt;\xc3\xc7\xef\xc7Jo&lt;\x94\'X\x16&amp;"\xf6=\xbf\\h\xbd\x89\x16)\x90g\x99 \x83\xfa\xff\x00\xde\x07\xdf\xa9.6\x0ft\x8cd\xf2x\xe0\xe0\x8f?\xa1\xfe\xddIe\xd4\xa8$\x80v\xfd\xbeW\xe7\xb7\xae4\x93rE\xae\x7f&lt;}\xa3\\\xee\x90\x07p\x80\t\xe3v=\xc7 q\x80r&gt;\xf9\xfa\xe3\xa2l)\x06y\xed\xf3\x10Ds\xf3\x17\xf9\xe3jE\x89\xdc\xaa8\xef\xfa\xef\xe9\x82z}in\xa9\'\xb8N\xec\x0eI#\x93\xecI9\x07\xfb\xf8=}y!HRBd\xfd\x05\xafom\xf8\xf7\xef\xf4\xb2x?\xcf\xa8\xc3\x02\rEE\xbe\x17\x81\xf5$\x00q\xff\x00\xecGB\r&lt;-GI\xf6\xbco\xe9~\xc3\xb5\xb1\xb7R\x92 \xa0\x1d\xaeL{m&gt;\xb3\xf2\xc0\xec(I)\nVr\x0er&lt;\x8f$pG\xed\xe3\xe9\x93\x8e\xad\xd0\xea@W\xcb\x7f\x9fb1\xd2\xd5KImJl\xc9H\xed\xdfc\x07\xd0\x1fO\xdc\x8e\x9fOOq#\x18\xc8\xcf\xf4\x9e\x06\xe2\x07\xff\x00y&lt;{}\xe6\xf8\xa1I\t\x88@\x02\xff\x00)&amp;\xf3i\xfa^\xe7\n\x95\xeai\xb4\x1dG\xce\xa3\x03\xd3\xd4\xce\xe0\xff\x00\x8e0{\x06\x9e\x94\xa4\x12\x9d\xa0\xa7\xe5 \x1f\xfay\xf6\x04}~\x9f~:\xd5P\xdbv@!d\xc6\xafk\x18\xb7\xa1\xdfx\x8b\xe1]\xd4\x87\x02\xc173\x06\xc3\xbd\xce\xde\x87n\xf8\xde\xd2)\x02ub\x93\x04r\x99\x95H1\x16\x93\x9c)\x12d\xb4\xd1\xce9\xdb\x85\x9d\xe4r\x06\xe3\x83\x8e\x94\xf3j\x00\x1a}\xe4!CCe~Y\x82@\x84\xcd\xff\x00\x08T\x13\xf4\xef\x8d\x19F\\3,\xf7(\xa0XJ\x9a\xa9\xcch\xd9rvR\x17P\xd8Zw\xd9@\x91\xc4\x89\x12\x0e&amp;\x1f\xa6Z\xce\xb1]\x1a#\x0fS\xfdB\xfeAz\xe9\xa4\xba\xadNE\x97I~\xda\xa3\xd3$\xd8\xd6\xec\x19\x8b\x8f\rp$S\xa2\xc7m\xfab\xe4\'\xe0a4\xa8\xdf\x12\xd2[R~9\xe8\xff\x00!D\xa6\xce\xf3l\xa2\x95u\x19\xcbt\x95\x0c\x12|2\x02\x12\xeaAT"&lt;0\r\x84X\xef\xbf\x9b\x8fGz\xc3\xe1\xf7B\xb1[G\x93dYKT\xd5T\x99u\t\xaa}\r\xac\xaf\xc54\xe9Z\xcaV\xb5\x92d\x92fI\x1c\x10\x05\xa5&gt;\x86\\\xf45C\x98\xec\xf1\x1d\xe9S\xf2\x9a\x16\xe5\'\rQ\x8a\x8a\x10\xa6\x89$\xb8W\xb4\x1d\xea?\xd0\xb2I*\x1dXy\x1ewK]B\x87\xd6|5:\xa0\xa6\xdb J\xd0y\x90\x01\xfe\xf0\x0c\xf6\xa9\xab\xb2\x17\xd8\xaatS8\xb0\x86\x93\x00\xc9$\x91\x02L\x9b\x9bA\x07\xb0\xc4\xbe\xb6\xed\x0b%\xa8NU\xcb\x14\xf1R\x967\xa1\xe5%\x05\xd4\x0f \x15\xed*\x05$gr\x8e\x00?*A$\x92A\x14\x1e(u\r5\xe3M\x94\x12\x90\xa2{\x98M\xcc\x13\xbfi\xed\x81\xea5\xce\x13N\xaf\x11M\xa6\x02\x89*\xdb\xd0\xcd\xfb_\xf3\xc4\x07\xf5\x03\xa2\xf6\x96\xa7\\\xd5\x06dY\x94\x9a\xb3\xef%\xb6\xe4\xd4\xa72\x942\x86P\x8e\xda]\x92\xf3J\xcc\x84\xa0\x94\xa5\x08p,\xa5#hH\'o_\x1fe\x04\x07\neK$\x92d\xde\x01\x11y\xb0\xed\x136\xc3M:\xdbM#l\xbaV\xb0\x01HH\x98\x11\x1b\xc8\xb0\x93{\xf1|\x0b\xe9\x07\xa5\xfd.\xb6\xa1*Sq\xa3M\xb8QPj\x9fN\x85\x02&lt;zm\x1d\xa7\x01T\xb2\xd4zkh\xc4\x85\xa3\xb5\xddT\xb9Ao+jv\x96\xdbN\xd0\x1f0a\xca\xa6@\xd4T\x86\xf7nt\x88\xf4\xd3\x1d\xbf\xea\xd8\xcd\xaa\x93H\xb2XB\x9b\x04L\x91\xe6\x04\xcf\xb4$\xf3\x1b\xcd\xe6F&amp;\xe5\xdbh\xd3F\x9d\xc3n\xaf%\xb8%\xd8\xae\xc5\x8ec\x80\xd8h2\xbc\xb4w\x02\x84\x84\x80\x94\xa4\xa5)\x19\x19I\xdc1\xd6\xec\xa9\x94\xb3\xe1\xa4 $\xcam&amp;d\xed\xc8\x98?\xa7m\xe3&lt;\xb7*K\x85\nQ*J\x95rI\xd4\xa0I\x99\x98\x93\x7f\xcao\x8a\x83\xd7M\x06\xd3y\x85\xea\xb6\xa0SR\x14f8\x8auj\x1b\xca\x8f1\x82\xb5\xb8c%\x89m\xb4\xae\xebo\xb6\x82\xa6\xe3\xbc\x97\x98^\xd56PV\x08\x0e\xca\xa1\xa5\xa7\xa7K\xeaQC\x8a\x85\xab\xcc\xa2\x08\x82M\x89 \t\x9d\x93\xb5\xed8D.\xad\xca\xb3H\xb4\x88\n(\x82\x94\x92J\x8e\xfa\x80$\x93\x06\'\x8c\x07i\xf6\x94\xd86|\xa8\x17%\n\x81B\xae!\xb7p\xe4\x84S#D\xa9F\xed\xafj\\\x96\xe3HX\nq\xb0\xa5)M\xb4\xd8\xdc9)\xf1\xd6TUt\xcbu.\xa1`\xa9"\x08 I\x82\x0fi\x8bw\xfa\xc6\x0b;\x967N\xda\x92\xa0\x12J}\xc9\n\x13\xed7\xb4\x0f`8\x9f\xd0n-+\xbf\xac+\xb2\xc8\xb8\xd0\xc4z}\xd7c\xdd\x16\x8dr!q\xb7\x112\x87qQeR\xaa0\x94\xa4\x848\\\xedI.4R\xa0\xa6\xd6\xcbn6\xa4\x94%B\xc1\xe9\xcc\xd6\x9dh\xa8aki\x0buB\t&gt;k\x01\x1bz\x01\x04\x81\xb7m\xaa\x9e\xb5\xcaV\xba$*\x99\x01HC\x84/\x92A\x92o\xbf&amp;"\xfe\xb0#\x1c\xea\xda6\xcf\xac\xcfO\xec\xfaz\xd1\xcda\x9dx\xdb6\x1bqu\x02\xcc\x95eT$Cr\x83Ur\x8b*\xb9:\x1dC\xbfH\x97:\x8fZ\xa7\xcb\xa5\xcf\xa0W(2\xe3M\x90\xdd5\xf5\xbd\x1d\xbe\xd4\xc8\x12\x92*\xaf\x89T\xddMG\x98\xa3\xef^+y}M1R5iR\\T\x82$\xa8\x12w\x06\n\xa2S07\xc1\xee\x8ag\xa4s\xdf\x84\xbdX\x80\xcbng\x19?\x88A\xf0\xf4\xad\xb4\xa6"V4\x93\x07\x95\x12Lr\'\x07\xb5b\xee\xe5\x04\x92\x12\x94\xeeP\xe7\x04\x82IO\xcb\xc7\x1e\xdeG\x8f\xb1\x14\xab\x82J\x92\xb0.\xb2{\t\xf6\xb4z\xfc\xfb\x11\x8eL[\x1aR\xa5%A_\xee?=D\x9e\xdcv\xdf\xe7\x85\xe5A\xc5!\xc2HZ\xb2|s\x81\x91\xe7\x1e\xfeN|{u\xb5\xb4\xa4\x10\x07a\xb1=\x8cng\x10\x80\x95A\xbd\xcc\xfex\x1eS\xee\xb6\xe8\x01G\xe7$\x9c\x93\x903\x9f\'\xf4#\xc8\xfe\xc3=1e\xcc\xeb\xd2T\x99\x00\x032\x00\xe3\xb4mk\x99\xfa\x8cJm\xb5,\x80\x9e\x08\x03\x9f\xe4`\xba\x8fQq+HB\x89\xe3\x1f\xd4O\x8c\x7f\xb0N|\xe0\xe3\xa2n\xd32l\x12\x073\xce\xfd\xa4\xef\xfc8\x99\xa4\xa6\xc7\x7f\x90\xf4\xe3\xda&gt;Xl\xd3$\xbc\xa6\xf2W\xb7\xe5\xc7\x19\xe4\x829\xf3\xfa\xf4-\xd6\x10\xda\xbc\xb0\xa2lL\x91\xfd\xfd?\xbcF?\x8a5\xa6\x06\xe0\x8b\xfa\x10m\xb8\xc1\xcc\x06RP\x9c\x9e\x07\x03\xdc\xe7\x1f\xa7&lt;\x0f\xa0\xe4\xe3&gt;z&amp;\xeebR\xe4\x7f\xc6\xf1~Oc\xcd\xbb\x11\xe9l]\xb5\x15\xa5I\x02c~bgk\x8e=\xe7\x8d\xa7\x06\xf4\xc8\x8d\xa8\xa7\x00\xa7\x8eI;\xb27\x1f\x00\xfd\xbc\xf3\xf6\xfd&amp;3\x9a8\xe00\xb0\x127\x92\x01\x04\r\xe7\xd2-\xdf\xd7\x0bu\x8f\xa5\xc2\xa0\xa1;\\l@\x1b\xdb\x91&lt;\x9d\xb7\x1c`\xb91\xdaJ\x00\x01@\xed\x18\xc6\x00\xc9\x00\x8f\x1f\xf7\xcf\x1es\xd1\x1aj\xedF\x0c\x12N\x9d\xe7}\xad\x1f\xa6\xdb\xda\xf8\x12\xe1\xf0\x92b`\x83bx\xf4\x88\x1f\xf5\xe9\x8d\xdd\xb1\x15/\\\xd6\xe3JXm.\xd7)L\x97\x0f\xf4\xa0=9\x96\x8a\xd5\xcap\x94%jQ9\xe0\x0c\xf8\x1dM[iy\xa7\x81\xddM+L\xcd\xcc\x82\x01\xdf\x9b\xff\x00~%t\xd3\xe2\x9f\xa92:\xa4\x15!L\xe6\x94\x8e%V\x84\x94\xbc\x93$\x1e\x00\x933\xf9`\xe6\xe7\xd3-C\xd5+\x9bCt\x155J\x85\xb9\xa6\x1a\x7ffi\x9dB\xe1v\x05M\xeaZU\x1a\x8fo\xc1\x9fU(Ko&amp;4\xea\x8c\xda\xbcZ\x9a\x90TCJ\x9c\x1c.\x8f\xe5\xac\n#0\xa2\xa9\xccs\xa0\xc5R\xb4\xd2\xd1\xac\xca`\x84\xaa\t"F\xc7a\x13\xe87\x16\xf5\x05Y\x8b\x0cd\xd5\x19\x9a\x19\x15u\xf5\xed\rO\xb9\n#R\x12\x00I$\x98\x8b\x886\xda#\x12\x1e\xf1\xadB\xb5o\x89?\xc3\xec\n%\xbf\x05\x11\xe2\xd2\xe1\xb1\xdcSPi\xca\x8e\xd2\xa2\x86\xd4\xe9q\xc5\xb6\xa6\x8a\x14\xa58\xa5,\xefQR\xb7d\xf5\x8d~b\xfd*\x14(\x92\xa4!\x92D\x03t\xa4O\x00\xd8v\xbe\xd1\xee+v\x92\x8f\x16_HQp\xea\xd26%W1;\x89\xe3\xbf\xb4\xe0\xea\x83\xae\x0cHQ\x87P\x9b)\x11\x9bBw\xb8\xc3\xee\xa9.-\xd5l\xc1\r,8\xd2HR\x023\x94)`\x80\x02T\t\x8b\x95\xf5\x8dAQ\x0e\xbe\xe2\x7f\xfb[\xd69\xbcoi\x11\xbe7\xe6\x19S%\xa0\xaaF[B\xd4\x04\x94\xee.\x06\xdb\x1eo\x16\xfa\xcb\x1a\xe6\xd4\xfby\x14d@\xa3\xadI\x9f#\x08S\x8e\xb8\x95\x12\xd8C\x8f\xac\xa5iQR\x81[c%{v+\xdc\x81\x94\xd8\x94}R\xcdCm\xb4]+qQ\x12y&lt;\x88\xf6\xb9\xd8s\xbe\x16\xd3\x95\xd4!\xddN\x13\xa0\x12I\x07h\xf6\xbc*\xdb\xff\x00\x9cE\xfb\x87\xd5=\xbb\xe9\x82\xcc\xba5z\xfb\xb6k\x97\x12\x19\x11\xda\xb4h\xf4\xf6ID\xc9\xd2YZ\x16\xe1)RR\x99\x120[\x0e\xa9\xe6\xdbTv\xdb\x01yR\xf7\x12\xa8\xcc\x1e\xa6\xa7I\x01\x0e)\xf5\xa4#\xc4\x90\xda \x80T\xa2$\x9e\xe6\x01\x1bl1%\x14,:*\x16\xe3\xe4\xa1\x96\x94\xeb\x88E\xca\xb4\x0f*S\xea\xaf\xa7\xce\xc2\xb5\xae_\xc6\x12\xfc\xd6\xbbv\xb4\xa9\xday]\xd3&amp;\xa9\x13Q"\x15\x1aS\x10\xe5E\xa8Q\xe4&gt;\x98\xe2S\x15h5\x07]a\xe8\xc4!R\xa2:\xca\x10\xda]Hi\xe9 /d\n\xd3\x9a\x07\x1au\x9c\xc2\x9d\xd0\xbd$\xa2\x9eJPI\x07\xc3L\x80m\xb2lm\x1e\xd8X\xa4\xeb\x1c\x99\xa0\xf3neo\xd28\xc2\x16\x1b\xfb\xc8\xd2j\x02\x81\xd4\xa1s \x93"6\x07\xbe\x13Z{\xf8\x8cj\x96\xb1]\xcf\xe8\x85\x7fJ\x1c\xba,\xab\xc1m\xd2\xa9ud&lt;\x13]\xa7\x14\xa8v\xae\x18\xfd\xb4\x11Nf\x03\xcd"{n)\xf72\x86\xf0\xebm)\xc7\x11\xd3\x9d;\x99\xb9\xcb&lt;\x1a\x8a\x9f\x1c:\xdc$\x14G\x87ky\xb7$N\xf6\xf71\x84Jn\xa3\xa4\xab\xaf[\x82\x8d-)5\n!`\xde5\xdb\xdf\x93\xff\x00v\x9b\x96\xd0\xbc\xec\xe5\xceB\xa0\xd5\xe4&amp;\x1fj\x9d)He\xf7\x98\xee8\x87V\x87d\xa9jHSn$!ay*\xda\x95\x90\x92\xa4\x94\x81\x99u5^\\\x87\n\x8a\x97\xa8\xea\x12\t\x03p{\\\xfaF\xdd\x8e\x1e\xeb\xf3\n*\x86PB\x90\x97\x0b\x7f\x86D\x98\xed\xed\xfc\xef\x81X\x1a\x87Q\xaa\xea\x15&amp;\x81/\xb5@C\xb5xMKT\xd2\xd4\x16\x19e\xd7\xbb2f\xc8\x99!\xc6\xd9f \x8c\xe2\xddq\xc7T\x86\x9am\x05\xd7\x08H=\x10\xc9\xf3G\xbf\xfc\x97*\xa4R\x82R\xf5U8\x831\xa4,\x95\x83\xe8\x01\x13\'\xb4\xed\x8a\xe7\xa9\xea\x18k+\xaa\xa8\x8diKdyxT\x18\xb0\xdc\xc0\x9d\xb9\xe3\x16\xbb\xf8\x84i\xa5\xa1\xa9\x9a\x1dc\xea\xce\x9d\xbbD\xaf\xb9\xa6\x1a\x82\xf5b\xbf&gt;\xd9\xae\xd3+\xd48\xf6\xcdF\xd7\xb9m\x19\x13\xe2\xc9\xa6K\x92"\xbb&gt;\xe2\x93kG\x95\x1d\xd0\xb4\xa4\xd3$\x16\x12\xd2\x9at/\xa4\xbe0\xe5\xc6\xbb\xa4\xd7Z\x1biO\xd06\x03e\x04\x13\xe1\xb9\xa4\x05\xfa\x82$\x8d\xbd\xb9\xc74tOPU\xe4n\xf5M:\x02\xd1M\x9b\xd1\xbc\xd3\x8d\xaeBVJJ\x84\x02@*\xd6\x00\x06\x0c_\x83\x8a\x19}\xa2\xf1&gt;0\xa4\x9f?Eg\xdb\x04\xe7\x04g\x1e\xe3\x82z\xf3\xfd^ |\xf8\xaa"5(^\x07\xe2#\xd3\xd7\x7f\xdf\x0b!JPR\xd5`t\xabM\xfc\xb0\x14\x15\xe9cks\xef\x81i\xd4d)\xc5\x1d\x84\x92HI\xc6G#\x93\x9f`\x07\xb7\'?\xb0\x91IS\xfe\xa9H$\xa6`{\x8f\xce\xf1\xb7c\xbcc\xe8\r\x94\xc9\x06f\xd1\xdb\xfe\xcc\xf18\x10\x9dG\x03\'\x1e3\xc0\xf3\x8fp2\t\xe4\x9e~\xdc\xe3\xa6\xaa\x1a\xe5 \xda/\x1b\xf0O#}\xbd{v\xdbcHJo!"$s\xcc\xdfn"\xff\x00.\xd8\xcb\xa6\xd3\xc2\n\x07\x08\x19\xce2HV\x08\x1fLy\x18\xfa\xfd\xb0z*\xbc\xc7KJ*\x82\xbb\t\xe2\x08\xec/\xfb_\xd3\x1b\xca\x92\xa0H \xa8^\xc6\xfb\xdc\xf7\xc3B\x12@F\x07\x80\x00\xfb\xfd\x7f\xd6?q\xd0\xa5\xd4\x95+Q;\xed\x7f\xa6\xd3o\xe5\xb01J!G\xcd\x1b\xdac\xd0s\xef&gt;\xb8iDd\xa4\x01\xb7\x1bN\t\xf1\xc7\x04q\xed\xfd88\xc0\xe3\x03\x1e\xff\x00j\x1d\x1a\x96\xbd\xa0\xdfi=\x80\xe2\xd7\xde\xfe\xa6\xd8\xb2\xea+\xd4\xb8\x85\r \x19\xf9\xf1\xbd\xef\xdc\xc78+\x80\xf8h\x83\x81\x8c\xed\x19V&lt;\xf21\xc1\xfd}\xf8\xcez\x88\x1fQZBT\xa0\x14D\xd9&gt;\xdd\xc7\xcc\x9d\xb8\x99\xc0\xf7+Vl\x94\x93\xb4\x93\x06}}@\xed\xe8\x0e\xd7\xc1#R\x92\xac\r\xc9\'h\xf0\x7fA\x8c\xe3\xfd\xf4\xd7@TT\x93\xbc)\x16\xef\x02`z\xda/\xdf\x11\xd4\xe2\xd6\tWk\xcf\x03\xeb\x02{\x0f\xa62[\x94Yq\x0e\xa1}\xb7\x1aZ\\B\xc1;\x92\xb4\x10R\xa4\x90&lt;\xa5X#\xa6\x94\x02R\x08\x04\x18\x811\xbcs}\xa2q\xad\x15\n\xa6q\xb7\xda\x00\xb8\xcb\x89q\x13$%I \xea:d\xd8[\xdc\xf2Dbj\xe9\xb6\xbc\xe9\xd4jd\xd4\xdc\xe9\x87J\xb9&amp;e\xd9\x13+\x14)\xb7\x15\'\xe2\x17%\xa9r\xa5\xd1\xa4S\x9eEZ\x84\xba\x8b\xcc\xaeL\xd8,\xad\xb8\xac\xcdy\xe9p\x9fHpGi\x17\xa8(\x02|G\xd0\xd1\x</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -704,6 +878,10 @@
           <t>Matheus Delgado Candançan</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -714,6 +892,10 @@
           <t>Andre Luiz Skettino Policarpo Bento</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -724,6 +906,10 @@
           <t>Fabio Augusto Santos Sa Junior</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -734,6 +920,10 @@
           <t>Arthur Gomes Rabelo</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -744,6 +934,10 @@
           <t>Paulo Belence Alves Dos Prazeres Filho</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -754,6 +948,10 @@
           <t>Davi de Oliveira Lacerda</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -764,6 +962,10 @@
           <t>Jonathan Benkenstein Pinheiro</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -774,6 +976,10 @@
           <t>Gustavo Ervino Bauermann</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -784,6 +990,14 @@
           <t>Alex Gomes Stefano</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>b'\xff\xd8\xff\xe0\x00\x10JFIF\x00\x01\x01\x01\x00H\x00H\x00\x00\xff\xdb\x00C\x00\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\xff\xdb\x00C\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\x01\xff\xc0\x00\x11\x08\x00\x96\x00\x96\x03\x01\x11\x00\x02\x11\x01\x03\x11\x01\xff\xc4\x00\x1f\x00\x00\x00\x05\x05\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x02\x07\x08\t\x01\x03\x04\x06\n\x05\x0b\xff\xc4\x00?\x10\x00\x02\x01\x02\x05\x02\x04\x04\x04\x04\x06\x01\x02\x07\x00\x00\x01\x02\x03\x04\x11\x00\x05\x06\x12!\x071\x08\x13AQ\t"aq\x142\x81\x91\x15B\xa1\xc1#3\xb1\xd1\xe1\xf0R\n\x17\x19$Crs\xa2\xf1\xff\xc4\x00\x1d\x01\x00\x01\x04\x03\x01\x01\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x00\x04\x05\x06\x07\x01\x02\x03\x08\t\xff\xc4\x00:\x11\x00\x01\x02\x04\x04\x04\x05\x03\x04\x02\x02\x02\x01\x05\x00\x00\x01\x02\x11\x00\x03!1\x04\x05AQ\x12aq\x81\x06\x91\xa1\xb1\xf0\x13"\xc1\x07\xd1\xe1\xf12B\x14\x15#b\x16$r\x82\x92\xa2\xff\xda\x00\x0c\x03\x01\x00\x02\x11\x03\x11\x00?\x00\xef\x03\n \x8b\x8a\xe0\x009\xff\x00\xa7\xef\x82\x08\xa8pH\x1c\xf3\xf6\xff\x00|`\x96\x04\xed\x04\x1f\x1a}N^\xbf\xc4\x11BM\xd1UK\xb35\x88_\xe5[\x13\xbc\xde\xdf/\x16\xe3\x9b\xfa`\xfa\x9c\xbd\x7f\x88"\xda\xd4S\xbbF\xa2e-$\x8d\x1d\xac\xdf)U,I6\xe4qn/\xcf\xdb\x07\xd4\xe4\xdc\xdd\xdb\xd2\x081\x96\x01\x1c\xf2\xb5D1\xa4*\\\xb4\xad\xe5+(#s\x06\x90*\x80\x05\xc9\xb9\xbd\x81\xe3\x1a\xa9+\xa3\x17\xae\xe4\xe9\xf3\xca6IB\x9a\x9a\xb3\xb9\xbf{^\x19G]\xbc{xs\xe8l5p\xea\rS\x97\xe7\xd9\xe5\x11\x906E\x97L\xe6\xa6)\xa3\x07\xe5w\x92%\xa7\xdcH*\x02\xccly\xb8\xc2r\xb5%\xdc\xd86\xf6??;\xc2\xa9x`\xa6\x0c\xdb6\xa7\xb5&lt;\xa2\x1az\xbb\xf1\xf5\xd4\x99Fl\xd2\xf4\xd3\xa4\xd45y\x1c\x0c\xd1\xa2gSDj\'PX\x06\x1f\x86\xceaK\x10V\xd7\x03\xd6\xde\xd8\xe13\x16@g\xab\x9e\xdd)\xb9\xda\x97\xad!l\xbc\x0b\x00\xe0\x91\xae\xacj\xf6\xed\xe6yC[\xad\xff\x00\xd4C\xe2\x0b+\xcd\x1a\xb3\xff\x00l\xf4\xa1\xcb\xa5\x9f\xcdl\xa8~3\xcf\xa7\x84\xb5\xcc\n\xdf\xc6D;\x95E\x81\x0e\xcb{s\x8eH\xc4\x1e\'%\xebZ\x9f\x8d\xe4\x19\xc4fn\x05\x92xRX\xb1\x007\xa6\xc0\xf5\xbdbB\xbc/||\xfa\x1b\xd5\xfc\xcf*\xc8\xba\xbb\xa3\xaa\xfai\x9c\xd69\x82MISSF\xd9-,\xc5,\xbedT\xf5\xb9\x85yZ\x89\x0f\x95\x19X\x9a\xcc\xea^\xc0\x16\xc2\xf4\xceB\x93\xfeZ\xb3\\\x1d\x9b\xfa\xbfHmV\x15E\\&lt;*\xbd\xb5\x03\xb6\xbd\x9d\xbb\xbc\xefi\rs\xa55\xfe\x9e\xa1\xd5Z+;\xa1\xd4\xb9\x0ea\x1a\xcb\x06a\x96\xc8^-\x8e\xa8\xe0\xb2\xc8\xb1\xca8u\xef\x18\xef\xf7\xb6\xc8AR\xbf\xca\x8e\xf7\xde\xa0\x17f\xd2\x9b@\xa9\\\x1f\xe4\x96oV\xf4c\xa6\x9d\xa3g3\xc5\xe5\x87\x0e\x0b\x16  \r\xba\xc2\xd6c\xc5\x80k\xf0\x0f&lt;cu$\xa4\xb1\x8e\n.]\x9a\x0eM\xd2\xebvb\r\xd4w\x03\xd4\x9b\xdb\x81\xeb\xeb\xf4\xc6\xb1\x88\xb3\x82\x08\xa1`\xb6\xbd\xf9\xc1\x04YcrO\xfd\xed\x82\x08\xa6\x08"\x84\x80.pA\x198Q\x04\x0c\x10EW\xb8\xfb\x8f\xf5\xc6\x15c\xd0\xfbA\x17\xf1\xc2\x08\xa8\xda\xa1\x99_l\xce\xbeR{X\x90I\xfb\xf7\xc1\x04xy\xd6kC\xa72l\xd3:\xcc\xe7\xa5\xcb\xb2\xbd9O5u}t\xce\x15\x08\x89&gt;pX\x12A!\xd7\x929${\xe3\x04\x80\t4\x02\xf1\x90\t \x0b\x98\xe4\x87\xe2\r\xf1\x87\xea6s\xab\xb5\x1e\x91\xe8\xf6q&amp;Y\xa3a\xfcM%\rVZ\xf2\n\xba\xa5\x0c\xf1\xddv\xb9\xb9+\xd8\xf9*8?r\x92ne.ZU\xf7\x02F\xea\xecH\xaf!\xb1\xf3\x06\x1f0yB\xe6\x11\xf6\x12\xf5`\x1d\x9f\xa0\xf6:\xda\x91\x01-\xd4&gt;\xb8u\x076|\xd3&lt;\xa1\xcf\xb3hk\xab\x9a\xa2|\xc2\xae)\xe4\xa8\x9c\xcb`Q\xbeaa\xc0`Lb\xe4\x93r{Gq\x99\xdc\xb9t\n\x14$\x1a\x82]\xaeZ\xe4\xea"g\x80\xf0\xe2\xd6\x03\xcb,\xcfk\x9e\x86\x94c\xcfZ=\x17&lt;\xbf\xc3\xf7P:\x956U\x1eI\xa5\xf3\xe9\x1aR\x9e`\xf2BFX\x8ey\x93o\x16"\xf7\'\x11\xacG\x89\x12\x92~\xe7\xbfQk\xff\x00E\xb4\x89\x0c\xaf\x0b\x12\x97\xe0\xd7\xb3\x1b=@\xf8+\n&gt;\xbf\xf8xuZ\x9b#J\xfa\x1c\xaa\xbe\x1a\xc4\x84\x19i|\xa0Lr\x81\xca\x1d\xa4\x83k\xd8\xd9\x8f6\xc3\x7f\xff\x00,\x08Q\xfb\xd8\xe8\xefm4g\xb7\xa9\xd2\x1c\xd5\xe0\xd32RU\xc0\xf4\xa9n\xfa\x03\xee\x07a\x0c\xbe\xbf\xc2/[r\x8c\xc9**2\x0c\xd29\xa0\x94:\xc8\xd00\x8c\x14`\xdb\xac\xac\x0e\xe1o\x97\x9e\r\xaf~\xc7\xbc\xbf\x18\x87H+}\xd8\xb3\xdf\xd9\xe1\x18\xf0A\x7f\xf0\xdf\x99#_M\xdbv\xa4I7\x86\x0f\x1d&gt;5&lt;\x12\xcd\x95\xd93mG\xd38\xa5\x82&lt;\xc7!\xccD\xbb"\xa7FE\x97\xc9W\xa8\xa7\x1cFV\xc7\xe6\xfc\x83\x83lK\xb2\xcf\x11\xcb\x9e\x10\n\x81vw=\x19\xdc\x8d\x9e\x9ai\x11\x9c\xe7\xc2s$\xa5D"\xd6\x00X\x87\xd1\xba\xda\xb4\xa6\xb1\xd6\xff\x00\x81\xaf\x88\x0fJ\xbcmiX\xb3=3QK\x91\xebH\x1e\xaa\x1c\xd7J\xd5\xc8\x16\xbe)i#S%H\x88^\xd0\xcc\xc2a\x11\xf3\x18\x91\x13\x12N%\x89\xc4"zB\x92\xa0F\x95\x1a\xedo\x9aEo\x8a\xc2\xaf\x0b0\xcbP.\x1d\xe8@\x1f\xcd\xc9\x87\xf1\xe67\x97#:\xec\xa8\x8e_*@\xbd\x88-\xb0\xdf\x9b\xfb\xfa\xf6\xe7\xef\xb4%\x81\x82\x08\xb7\'\xa7\xeb\xfd\xb0A\x16\xf0A\x03\x04\x10G\xec&gt;\xff\x00\xd8\xe0\x822\xf0\xa2\x08\x18 \x81\x83\xac\x11[\x9fs\xfb\x9c%\x9a\xe0\x1e\x1a\x1e*h\x1a\xbbh\xd6\x8e\x94\t\x04\x87\'~\xff\x00\x882F&amp;o-\x9e\xcc\xc2\xd1_\x9d\xae\x08%\xc5\xfb\x1d\xa0\x8f\xb6\tf\x8ek]u\xf8a1R\x94\xa6I\xa1\xd7\xd5\x98[\x91\xec\xd5\x8e|\xbe0^3\xb5f])\xf0\xad\xd1\x8a\x8a\xe5\xd5:\xb9\x05\x0eyY\x93\xca&lt;\xe8|\xd9_rT20\xb2\xda\x9a;\x8e\x7f0\xbf\xbe\x1a\xb1\xf8\xf4H\x971\xd6\x90\x00=\xda\xfd\xb7\xf6\x89nM\x95\x89\xf3%q\xa3\x8b\x88\xa5\xc2\x83\x80\xf6\x1a\xfe]\xfa\xbb\x1b\xf0\xd5\xf0\xcc\xd1Y&gt;I\x96\xea\xee\xb7=&gt;}\xa9\xcf\x97:\xd1U \x99\xa3\x91\xd43\x0b\x18\x9c\x03w\x90\x1b\xbf7=\xcf8\xa83\xaf\x11LB\xa6}5\x94\x80M\x01,\xf5\xe7M?\x1c\xee\xfc\xa7\xc3\xd8p\x89d\xcb\x16\x02\xc0;~]\xf9k\xca%\x0bGx\\\xe8\x94\x064\xa3\xd1Y$p\xb4Q\x81j!\xb8\x10G\'\xe5\x00v\x1d\xc0\xf4\xe2\xd8\x8b\xc8\xcd18\xa9\x8c\xb9\xaa \xab{\x83G\xe9[S\xacJ\x8e\x03\x0f\x87\x96Je\xa4\x10\x01\xa0\x02\xaf]4\x15\xec\xef\x0e\xbfF\xf43\xa7\xdax@\xf4Y\x1e_\x18\x8c\x03\x1a%8P\xa4v m\xbfoO\xb5\xc5\xf1#\x18T\xceH$\x05\x16ei\xdb\xe7N\x91\xdc^5rTR\x8e$\xd6\x95\x17\xec\xd4#\x9e\x91\xb3j=\x0b\xa6\xe7I\x07\xe0)\x109bT\xc6-s\xdc\x11n?[\x7f|%\xc4`\xa4\xa4\x7f\x80qO\x8ch\xcc\xf7\xb7(S\x82\xcc\xf1\x13\x12\x94\xadE\x86\xa5\xfe\xe6\xee\x1fC\xb59\x97B5\x1fG4~a\xbf\xf1YU\x0c\xaa\xb7`|\x95\x0c\x19~abE\xbf0\x1c\x9f\xa8\xc3\x06"Re\xa8\xb0\xe1 \xb8\x1d\xf9v\xf3\xa31\x89\x16\x16o\x13:\x85\xbe^\xd5\xab{U\xdb\x1fT:\x17\xd3MQ\x96M\x94\xea\r5G&lt;\r\x1c\xb1\xc74\x91D\xdb.\xb6VS\xb4\xda\xd6\x1f\xca{\x0b\x0fn\xd8l\xc6t\x92\x02VRC\x00\xd6\xa5\xdd\xba\x1f\xe5\x9a9\xe2\xb0\x92q\x01I\x98\x80\xa1f!\xfe?N\xa6!\xafXh^\xa0\xfc:\xfa\xd5\x91\xf8\xa3\xe8\x83\xd5\xd7h\xea\x9c\xce\x8b$\xd5\x99-#\x10\x17.J\xa5\x86f\xa9Eh\x07\xe1\xd2&lt;\xc6r\x9c\x10\x02\xbfs\x8b;\xc3\xb9\xc4\xe5\xcbH\x995\xdc\xd4\xbe\x9aQ\xeaM^\x9f\x91\x15\'\x8a\xb2\x0c8\x9a\xb9\x92\xe5\x01\xf6\x9b5\xc3\xff\x00!\xec\xfa\xb4v\r\xe1\xdb\xae\x19/\x88&gt;\x90\xe8\x9e\xafd\r\x1f\xe1\xb5NY\x05FeGN\xe1\xa2\xa5\xaf\x9a\x96\x9eY\x12D\xb9et\x9a\xa3i\xb96+{\x9cZ\x18I\xb2\xe6\xca\xe2,\xe4\x01\xd4{9\xf2\xb3\xc5;\x8a\x90dNR\x18\x84\x83O\xdbV\xf5\x85\xc6\xe7\xdc\xfe\xe7\x1c\xa7+\x86\x89:\x90\x7f\x1f&lt;\xe3\xb7\n&gt;\x90\xa0~\x13\xce\xd7\xf4\xde\x01$\xf77\xc6\xb2T\xa2\xefP\x18\x03\xf0\xed\xca\x1b\xea\x14\xa0K\xb1\xa5\x1bx\xa6;\xc6``\x82\x05\x81\xee/\x82\x08\xc8\xc2\x88 `\x82\x065_\xf8\x9e\xde\xe22\x9b\x8e\xa3\xde\x068\xa7\xee\xb5}=\xe33\x94\xc1\x85\xdcWo\x83\xe6\xda\xe6\xb0\xd4\xb9f\x91\xd2z\x8fSf\x95)IK\xa7\xb2\x9a\x9c\xd2Z\x87\x0cV5\x0b\xf8u$($\xff\x00\x89"\x8b\x0e\x7f\xa64\xc5\xa8\xca\x96\xa1f\x0eM\xcb\xf4~\x86\x8c\x1e9\xe0RfNJk\xf7(WN^\xcc6\xee#\x96\xee\x8cPe}X\xeb\xf7Vz\xf3\x9f\xcc3\xda\x9f\xe3\xd5\t\x91\xb5B\xb3\x08\xa1\rHT\xc5\xe6\xa8)m\xf2\x11r;\xfb\xe2\xa1\xf1\x16jP\xb5\xa7\x8a\xe4\x8dZ\xf5b\xdf\x07h\xbc\xfc5\x95\x85"Z\xb8\x1a\x82\xa5\xef\xf3\xfa C\xf6\x8b:t\xacZ\x93.\xe0\xf6\x1bd\x0c\xe1\x00\x07\xd0[\x80&gt;\xfe\xb8\xab1\xf3D\xd5+\x85D\xb9\xde\x97\xb5\xf9\xd2-\x8c\x1a\n\x02\x12\x7f\xd5$l\xdf\x0b\xc2\xf9\xa3\xf5U-$1\xd8,\xee\xea\xa0\xba\xa3\x00\r\xc5\x80\x0c/\xef\xf4\xe7\xb1\xc6\xb8 P\xb0\xa1RyZ\xa2\x94{\x90\xdd\xa9\xa4o\x8e\x98\xe9g\xa6\xa0\x1d6;\xb3\x8a\xfeY\x96z=W4\x88\x86\x16\xdbq\xc0\xda\xc3\xb8\xfd\x07\xf4\xf4\xf4\xed\x89\x86\x1f\x16\xb0\x91J\x81J\x1a\xf5\xf3\xf7}"\x1d\x8a\x90\x99\x8aSvcnu\xf8\xdb\xc6.s\x9b\xd4H\x86W\xe6\xe0\xb3\xfc\xc0~\xb6-~\xfe\x9c\xe3\xa4\xe9\xfci$\x87,\xe5\xa9\xd4w:9\xf6\x10a\xe5\x99e\x81`\xfa\xd2\xba\xf5qG\xfea0\xcdu*\x88e,\x92\xba\x84k\x84;Z\xe4\x10,Xm\xefk\x8e\xdf\xeb\x88\xe6.`\x1cE\x9e\xba\xb3\xea?\x17&amp;\x94\xda$\xd8B\x18\x03\xa9\xd4m\xf0Cb\xd7z\xb1ji\xcc\x11I&lt;r\xc6\xcdtg\xbd\x96\xc3\xd4\r\xa7\xb1\xbd\x8d\xcd\xb8\xef\x86EO)%\x89\x02\xc4\xf5\xdf\x9b\xb6\xad\xbd\xaa\xf1.W\x1aF\xc1\x8e\xd7\xa9\x1f\x8f]!\xb6jZ&lt;\xa3X\xe9\xadS\xa4\xb3\xd4\x19\x8e[\xa9\xf2\xda\xaa)!\x9c\xabGC4P\xcf\xe4\xd4"\xb0+\xbaId_\xca\x18\xde0M\xac/*\xc8s2\x85\xa5%L\x1f\xcd\xcf\x7fM\xefh\x8dg\xf9rfKZ\xf9+]6\xb1\xb9\xa6\xcf\x0b\xe7\xc1w\\\xbe\x9c\xcb:\xa3\xe1\xc33\xac\x7f;IgUu\xfaf\x9eV\xdd\xe6e\x8bYX\xccc\x03\xe5DZZ\x14 \x1d\xa6\xdf\xca{\x0b\xd7$\xc5}Y\x08\xab\xb8r\xe6\x94\xb7;~zG\x9d|G\x84\x12g\xa8\x84\xf0\x87&amp;\xc1\xefMk\xf3Z\xc4\xef\x82\x0fc\x87\xe5%\xdc\x87~\xd1\x1bD\xc7t\xb8}@\xf9\xd8\xe9\xf8\xae2\x94\xb0\xe6Y\xe3E\x80\x0e\xb5r`ch\xd2\x06\x08 \\\x0e\xe6\xd8 \x8c\x8c(\x82\x06\x08 c\x048#x\t`N\xd5\xf2\x81\x8dR\x8e\x1b\x1d\x19\x99\xa3\x92\x96UF\xab\xee\xfc\xa2=\xfe(Z\xeb4\xe9\xef\x83n\xa8gY&lt;\xcf\x05]V]\xfc9\xe4F*L/QI&amp;\xd2ASm\xc2\xfd\xc8\xfa{!\xcc\xd6\x0c\x95\xb71\xdc\x026\xda\xf5\xe9\xac:eR\xc7\xfc\x94\x06\xb1\x04\xb5\x99\xda\x80\xfe.@\xda g\xc1N\xa0U\xe9\xe5|e\xb7VUF+jd\x1d\xcb\xbc\x90(\'\xb1\xb9*;\x93\xfdq\xe7\xdf\x15\x13\xf5V\x01\xb2\x8d\x05\x01\xb8\x07r-g\x15\x8fC\xf8T%2\xa5\x0b\xb8\x1f\r\xb5\xbf\xed\x12\x11\xa4#\xab\xd4;\n\xc6\xe5A\x17;M\x8fc~\x7f\xef\xdb\x10\x89R\xa7-Z\x97,([[X~\xd4\xa9\xd2\x7f\xc5-"\x8c\xe6\xd5\xf4\xa8\xa6\x9f,\xec4f\x96\xa6\x8a8\xc5^\xd5\xf9T\x8d\xdc|\xc0\xf3\xe9{\xd8\\z\xf7\xc4\x83\t\x85(\x00\xa8^\x8c\x1a\x96\xf3\xdc\xef\x0cy\x86!\xdc\x03W,Am\xf7\xd2\xf7\xb6\xf0\xba\xd0\xe5Y2"*\xbca\xad~\n\xdf\xb7\xdb\x8f\xb0\xb7\xbe$\x12\x11)"\xb7\x14\xb6\x97\x03\xb9\xd4\xd3wh\x8c\xa8\xce+!$\xaa\xaf[?&amp;\xe5[\x90vzG\x8b\x9ee\xf4n\xe5 \x8c76f\x05B\x93\xeb\xe9\xfd=\xfd\x8e9NG\x11&lt;"\x95\xb0qR\xdc\xf4\xae\xaf\x0b\xa4\x82\x07\xddp\x9dn\xd4\xbf\xf7\x1ave\xa7r\xf9(\xe5FX@e\xbb|\xd1\xdf\x8e\x7fN\xdf\xaf|4b0\xc5N\x08"\xa4U\xae7\xf3\x7f\xdcY\xd6D\xf4&amp;\x8e\x1co\xa1%\xb7\xfe\xab\rg_h\xcam\x95oI\x12\xbbY\xed\xb4\xaf?\x98w\x16&lt;_\xe9\xf7\x1d\xb0\xcb;\x04\xb0\xe7\xa3\x86\xdc\xd9\xb4\xd1\x80\x87\x99X\xc6\rf\xa5\x0e\xd7\xbf\xef\xb9a\x0cgROQ\x91\xe6\xb54\x95\x08\xf0\x91\xe5\xcb\x15\xef\xf3\x82\xcd\xe6\x01\xef\xf2\x0e@\xfdq\xb6^\x15\'\x14\x84\x13@E\x0fv\xe5\xa56\x05\xf5\x8ey\x84\xc4\xcc\xc3)\xebC]\\\x86\xa5.\xf7\x01\xe3#\xe1\xa1\x9eI\xff\x00\xc4S&lt;\xa1\xcb%qA\x98\xe8\x8c\xeeZ\xe8T\x9d\xadQ\x16K\x9c\xcbwQa\x7f0\x9e\xe0\xf3\xed\x8f@\xf8i\xd5&amp;[T\x94\x8f \xdet\xf8c\xcf\xbe+\x94&gt;\xa4\xcb\x06*6\xa1\xbd\x1e\x9a\x81\xcbCH\xea\x12?_\xd3\xfb\xe2k\x15\x92\x8f\x0c\xc2F\x86\x9eQx\xfeU\xfd\x7f\xd7\x04u*\xe2\x03\xa7\x9b\xb4\x17\x04b\x06\x08 \x8f\xd8}\xff\x00\xb1\xc1\x04e\xe3n5o\xe8?h `\xe3V\xfe\x83\xf6\x82\x06\x0e5o\xe8?h\xd9!$\xb2\x8b\x0f\x9dtx\x18\'\xadH\x96\x95&amp;\xea\xd1\xed\x7fGm&lt;\xaf\x1cJ\nV\xd2\xea\x96\xd0z&gt;\xbe\xfe\xe24~.Y`\xcc\xbc\x0cud.\xf3-%\nT\xc4\x12\xf6\x0cj\xe8#\xbb\x80\t+g"\xd7\x1c\xf3\xe9\x86\x9cZ\xa6L\xc2\xac\x9b\x8e.\x8e\xddno\xcbq\xab\xc6ZJg \xb5M+O\xf6-\xef\xedCh\x83o\x06\xbaX\xe5=1\\\xf6\xbaO*\n\xfaX\xd2Y^UTZdh\xa5fRO\xcaT\xc6Ik\xda\xd7\x16\xc5\x1d\x9d\xa7\xea\xe3&amp;"e\xb8\x98\xef\xd4\x93\xfdv$E\xfb\xe1\x95\x01\x86J\x94\xce\x94\x86b\xce\xdb&gt;\xba\xf6\xd9\xe3i\xeaG\xc4\xcf\xa4\xdd\x07\xcd\xa6\xd3:C%\xac\xd75\xd9pe\xaf\x9f-\x95j!.\x97\x04G\xe5\xd2M\xb7\xe6T\x17\x0e\xdd\xed\xc5\xf1\xcb\x03\x81\xc3\xa9@0\x02\x8d@K\xd8\x93\xbb\x83rC\xf4\xb3\x96/0\x9f,}\xae\xc0\xd09\x7f\xff\x00n\xc6\xedB\xe2\xd0\xd7\xab&gt;?\x14pf\x93\xd1\xd5t\xbb9\xca)\xe2\x91D-Q\x13\x17p\\+^\xd4*\x7f-\xcf\xe5\xb6$sr\xac2$\xf1\x8d\x12+Kyo\r\t\xc7N\x9c\xb0\x14\\Z\xdb\x9djo\xbf\xb6\xaf?\xc3\xcf\xc5\xa7Eu\x83P&amp;U-$\xd9h\x9cF Y[\xcb!\xdc\x90C\x16\x81.\x00\x17\xe2\xde\xa7\x10\xacf-Xy\xaaJ\t\x00(\xb3\x12\x1c\x07\xe7\xa8\xbc?a$\xf1\x81Nv\xaf;\x1fq\xd6\xd1!Z\xcb\xc4\x96I\xa74\xbd~~s\x08\xde(\xa9\xa7\xa9\x8dP\xdd\x80X\x8b\x80H\xbd\xednHQq\x7f\xa69#4\x98Y\xcb\xbf+W\xaf\xcbup\xff\x00\xad\xe2/\xb8\xd1\xbb\xdf\xd2\x83`\xda\xc0_]\xbe6\xd9\x9e\x88\xae\xaf\xa4\xd3\xb9t\xb5\xf50\xd6TS\xaa5,\xf3F\xc2&gt;\x17\xe5E\x177\xbf%\xad\xda\xfe\xe2E\x97\xa6N,\x815\x98\x9a\x96\xd7S\xabv\xec\xce\x1d\x970\x95\x89\xc2\x82e\x80?\xcbm./\xa7\xa7;CB\xa6\xf8\xe7x\x8b\xce+JQt\xde\x9a\xb2\x86I\n\xf9\x83)\x90\xb0B{\x8b\xcb\xba\xe4{\xa9\x1fL;\xe2r\\\x10\x96\xe9..\xd5\xae\xdf\xeb\xbfM\xa1\x96Vg\x99\x05\xb1f%\xa9\xa7\xff\x00\xd5)\xad4%\x84&lt;\x8e\x8a\xf8\xe5\xca\xfcF\xf9Y&gt;\xb7\xd35\xba{\xa8\x11\xb9|\xb8\xacOGC,U\x1f*\xac\xf0I\x013Ycm\xa1j\x16\xc4\x93ox\xd4\xdc\xb7\x0c\x89\x9fU?\xe6\x92\x01\x0f\xa0\xb5\x1b\xdf\xda\xef\x88\xc6\xe2W(\xa6o\xf8\xf0\x93\xe9\xb8\xa3\x8b\xdb\xb4H\x8f\xc2oD5G\x8e&gt;\xa9jy\x03\xee\xc84\x94\x90\xca\xca\xd6\x81\'\xcd(\xb3\xeaiT\'\xf2\x82Wj.\xe3\xb7\xdc\xdf\x16\xcf\x84\xdf\xe8\xa4(Y,-F\x04\x0enEzz\xd3\xbe.\xc6&lt;\xf5K\xb8+\xab\x1b2\xa9\xe4\xd6zGL\xa1@\xed\x89\xcc\xa4\x85+\xeeb\xc0P\xeb\xa0\xefh\x80\xcf@ \xad7\xdbk_R=K\x98\x0c\xcc\x02\x80/k\xfa\x13\xde\xd8\xd1`\x05(\x0b=#\x8a\t!\x8b8\x03\xda\xbf9\xc17?\xfe?\xd0\xe3X\xe9\x17\x07a\x7fl\x10A\x1f\xb0\xfb\xff\x00c\x82\x08\xca\xb8\xf7\x1f\xb8\xc1\x04\x0b\x8fq\xfb\x8c\x10@\xb8\xf7\x1f\xbe\x08\xd5J\xe1\x04\xb3\xb4W\xd6\xde\xbe\xde\xbf\xb66R8\xe5\x81\xb3\x9a\x8a\\\xdfo\xde\x14%\x93\'\xea*\xed~N\xfc\xc8\xb1\x86y\xe3\xf3N\rU\xe0\xf7\xaf\x19`\x85j\x1dtd\x93\xd3\xaa\xa8\x92F\xa9\x8f3\xcb[b \xbb\x16\x11\xab7\x00\xf1{\xf1\x848\x95KF\x1al\xb5\x10\xecI\x14\x0cZ\xdf7\xecTe\xb3\x153\x10\x86\x0e8\xc2y\x03V$\x81m\xabv/H\xe6\xcf\xa7U\xf5t\xbe\x11\xf2\xaa\xe4\x9ezW\x97+\xa8\xa7&amp;5\x90y\x97\x92X]So\xe6!\x0b\x12\x14\x12\x00=\xad\x8a\x13\xc5\'\xe9b\x96\xb4\xd1\xd6j\x01\xb7\xe6\xdd\xc7&amp;1{\xf8t\xa8\xc9@\x02\xa1!\x85v\x14\xbe\xbe\x9eb"~^\xad\xf4\xe7\xa2u9\x85\x06S\xd3\xd8u\xbe\xa7\xa8\x12\xcdU&lt;\xf99\xacy\x181f\x1f5\x1c\x8cI(\x7f\x9c\xf7\xf6\xc2\x1c\xbb\x14x\xd2\xe7g\xbfPK_\x9d\xdd\xdd\xaf\x0f\xf8\xb9&lt;B\xcc\xe3\x96\xf7\xf3c\x0c\x9fSu\x83Yx\x8e\xd7UYv\x9f\xe8tZN\x97*f\x96\xa2w\xc8\xff\x00\x87\xa5J\xb1\x91\x04a\xe4\xa5\xa6\x0cU\x99Z\xc0\xb1\x04~\xb8\x98\xcf\xc4\xf1a\x01\x05\x9d.k\xb0\xd3\x9e\x9a\xd0\xef\r\xf20\xe7\xea\x07I\xde\x80\x0eB\x95}\x7f\x11%&gt;\x04|4j\x1dA\xae2J\xbc\xebNK\x97l\xa8C#\x04\x10!\n\t\xfc\xdb@\xee}/\xce+\x0c\xd2i3\xcdh\xf7j\xb1\xb7\xf0\t\xdc\xf4\x96\xe1$\x04\xa6\x94\xfe\xae\xfb\x93M\x0bs\x8e\x8d\xfa\xd7\xe1o.\x1d\x1a\xaa\x93/\x9d\xa3\xad|\x9e}\xf1\xb3\x86\x02S\x07\xe4\x04m\x0cn@\x1d\xeeO\x18\xe8\x9c9\xfa(\x99p@&gt;z9?\xd6\x97\x8ec\x14\xb4\xcf\x99,\x02\xe9\xa7=\x81\xb7"\xd7\xa0\xdd\xe3\x8f.\xb4xp\xea&gt;_\xa9\xf3H\xf2\xfc\x85g\x9a&lt;\xca\xbex\xa5\xaa\xa4a\x13$j^\xcd$\x85P\t\x02\xecK\xb5\x99\x8d\x85\xf0\xf5\x95\xe2&gt;\x9a\x928\xb5\x02\xfbW[5\x7f\x9bB,\xccN\x98\x87\xe0$\xb7P\xf6\xf6\x84G\xa7}h\xeaF\x83\xd45:cPt-\xa6\xa6\xa4&amp;?\xe3\xa2\x8e\x1f\xc3|\xbb\xd7\xccG\xfc3\xa9\xb6\xc0\xd6\xf3\x0f~\xf77\xc4\xc6d\xf9k\x90\x93\xf5\x03\x97\x1c-P\x03\x1e"Ib\xe5\xc3n+\xca/*\\\xf4\xcd?\xf8\xce\x97\x15\xae\xc0nu\xe5G\x10\xf8:\r\xd5:\x1dS\xd5\r9\x98\x1c\x85r\xea\xec\xbb0\x85\xaa\x0c\x14\xa66jc*\x05\x8f\xe5\x8a\xee\xb1\x05\x93q\xb9P\r\xcd\x808aT\xc12x\x96\x15B\xa7\xe4\xd7\xbb\x91\xf1\xf9\x079\xa1I\xc3\x95\xa8\x10YB\xcd\xa5Z\xcdv\xd9\xa9\x1dX|%\xb4\xc8N\xa0\xf8\x87\xea\x1c\xf4\xf3GM\x9c\x8d=K\x96\xc8\xd1:\xa4\x87\xf8\x96t%\x119K8D\xa8C Se\x16\xdfac\x8b[\xc3a2\xa4\x80\xe3\xfcX=\xea\x08\xa6\xbbo_J7\xc5)Z\xf1Jd\x92\xea$\x964\x0e\xee\xfe\x9a\xbcNH \xf0\x08\'\xbd\x81\xbf\x1e\xf8\x94\x85\x14\xac\xb1\xa1\xde\xd6\x06\x8fM\xbc\xe20\x92T\x90\x85k\xde\x83}\xdf\xaf\xa5 \xca\x03\x7f0\x1f\xb7=\xef\xeb\xe9\x8c\x859"\xed\xae\xf0\x14\x04\xb35y5\xbf\xb86\xd1\xff\x00\x98\xfe\x9f\xef\x8d\xa3X!\xe2\xfc\x8e=}0A\x16\xdc\x828 \xf3\xef\xf7\xc1\x04\\\xc1\x04\x0c\x10A\x90\xaa\xb0.\xbb\xd4\x1eV\xd7\xb8\xf6\xb78\xc2\x8b\x02D`\x80o\x07\xb4\x8c\xec\xc0yrn\xf2\xd3\xd0\x05*M\xad\xc7\xd0w\xfac\xb2\x14\xd2\x94\xad\x90I;\x17\xad\xfb\xfb\xc7)\xebQB$\xa4\xb1$$\rC\x92}m\xbc2\x0f\x10~(:?\x91\xea\x0c\xe3\xc3\xd6\xa3\xad\x8a&lt;\xf3S\xe9\x9a\xa5x\xa7eX$\xf3gx\x01b\xe9\xb3v\xe8\x80\xe5\xfb\x01\xf4\xc5c\x9fx\x818i\xea\x94\xa5UN\x03\x1a\n\xbb\xd3\xa1\x01\xabZ\xd1\xa2\xcc\xf0\x9f\x84\xb18\x99\x08\xc51\tB\xc2\xd6\xc0\xfd\xc9)b\t\x14\xb9w:\xb0"\xd1\x18:\x0f\xa2Zv\x1d\x11\x96h\x18\xa1Z\xbc\xbe\x81\xea\x1e\x9e\x0b+S\x04\x9d\xe6\xb6\xd3c\x15\xad1&amp;\xc6\xdd\xfb\xe2\xb9\xceTq\x88L\xca\x97.\xfb\xbd:\xedP\xdd\xaf\x16\x8eO\x86\xfa\x13\x97(\xbf\xda\x19\xb6c\xf8\xbb\n\ra%\xd6\x1f\x0e=)\x9cf4\x99\xa6\x9b\xca\xe82\xfc\xcd\xc3~.\xb68"[\x06\x12\x12w\xaf\x96n\x0b_\xf3\x1fo\xbbV\x19&amp;Z\x92\xe0\xd3q\xae\xcf\xe9\xaf\x93\x08z\x9fWp-\xb0\xd4\xe9\xf3\xab\xc7\x9d\xa3\xbe\x1b\xf9nA\x9e\x1a\x9a\xec\xc5j\xa2\x13\t\xaaV0B\xbf&lt;\x86"G\x04_i\xe4\x1b\x1bX\xdf\x9c&gt;\xcc\xc5\x9f\xa2RK2I\x01\xdc\xb5E9~#\x9e\x1eX+\xa3\x06\xde\xad\xbdo\xa7:\xc3\xd5\xd2=.\xd2\xdd?\x9e:l\xbf,\x86)Pl\xa7\x9e\x05\x8c\xc8\x19obv&amp;\xe2x\xfa}~\x90\xcc@\xfa\xb3\xf7u\r\xce\xad\xf0\xb3\xbe\xd6\x89\x1c\x94\x84\xa1\xeeC\xde\xd6\xfd\xa8\xdaC\xa9\xd4\xd9-nq\xd2\xa8"\x96\x16\x95\x85:\xeff\x07{\x1bFIm\xc0\x9b\xfa\x92E\xfe\x98\x94/\x06\xb4\xe5\xd2\x94\x94\xd8\x12\x0b\x11\xfe\xa2\xd6}-@\xd0\xc3+\x15$fS\x92\xa28\x88Hk\x17\n.G_z\x90\xc2#_:\xe8n\x91\xd6\xd5y\xceW\x99P\xff\x00\xf3\xae\xb6R\x80$\x81\x95\xd9\xbeS\xe5\x93\xc5\xaelo\xc0\xed\x88\xa8\xc4\xcd\x914\x8a\xb3\x91]+\xa9\xd3\xf9\xd6\xf1&amp;X\x90\xa9.\xd7\x16!\xf4\xb96\x03\x9b\xde\x90\xce\xf5W\xc3\xc2\x975\xcc\xeaR\x87;\xa8H%v"\x8a\xa5\xa4h\xec\xc4\x90\n\xb4\x91\xa7o\x97\x95\xb7\x1f\xb3\xd23)\xa6X\x1a\xb3\x1b\x82u\xa9\xa8\x86o\xa5!3\x0f\xda\x06\xacC\x92\xf5\xbdv\xf7\xe5\x1bOO|\x04\xe9n\x9eM\x16iQ\x94\xd0\xc9\x9cC\xf8\xa2\xf5\x10$\x01L2DV"J\x86;\xbef$\x16\xbf\xd3\xdc\xc2b\x8a\xb1I*\xd2\x8c\xef\xab\x02\xda\x07\xeb\x08\xb3\x14!H)F\xba6\xf5\x07\xab|a\x0f\x83\xa2&gt;0\xfam\xe1S3\xd3}%\xce\xa9cL\xcf\\j\\\xb7(\xa3E\xda\t\x9f8\xccih\xa0b\x04O\xdaJ\xa47\xdc9\xe6\xe0s\x8b/&amp;\xceD\xb9\x92\xe5\xb8\xa9\tk\xde\x9c\x99\xf9\xf9\x18\xaf\xb3\xbf\x0c\xfdy\x0b\x9e\xa4\xa9\xc2J\x81\x0e\x01\x0cIp\xd5f\xa8&gt;\xe5\xa2xh\xe4\x8e\xaa8\xa7\x82\xc1f\x88X\x9f[\xa8\xe3\xd0\xdb\xe6\xf4\xfd\xb9\xc5\xad!\x1fW\x0c\x99\x87P9\x9btwm\xf4\xae\xcfJce\x9c6)R\xd8\x80\tz\xd6\xe7J7n\x87\x95H\n\xa1\x07uw\xbf\xb7\'\xeb\xf6\xfd1\xa2.\xaf\x9b\xfc\xb4s$($\x8b\xb5~y\xc1q\xd25\x8b\x8d\xf9\x17\xf4\xff\x00C\x82\x08\xb0?;}\xbf\xdb\x04\x11\x97\x82\x08\x18 \x83)\xda\xc0\xf7\xb1\xf5\xed\xfa\xe3\x048#x\x05\xc4\\\x8d\xe4\x9b\xe4f\x01\xdao5Z\xdc\xaa\xac{\nZ\xfc\xdf\xb9&lt;[\xd8s\x8e\x81$H\x98\x1e\xe8Sw\xdf\xcbA\xde\xd1\xca|\xa3!R\xa7\x92\xff\x00p\xa0\xae\xe7\xdd\xea\x06\xd41\x05~&lt;&lt;8ez\xbb\xacU\x9dGI*(\xf3\x8c\xaf\'\xfcl\x13\xc4\xae]\xa3Z\xed\x86\x98:\x15*79\x900;E\xc8\xdbsq\xe7\x9f\x19a\xa6\x9c\xc8\xcc\n&lt;\x1cF\x9c\x83\xfb7\xf4\x01\x8fR\xfe\x9a\xe6xy\xf9\x12\xa4\xaeZJ\xc2BJ\xc8\x0f\xa5m]5\xe7SQk\xa4z\x8a*\x1c\x8b)Z\x86YX\xc0\xb1\xba\xb1\x02u\xd8Y@2\x9b\xb17Py\x03\x83\x86\xd9k\x07\x0c\x94\xac\xbb0\x04\xf4\xdb\x99\xd0\x96\xec\xec\xa1k\x12\xf3)\xc5 1\'\xa0\xb5m~\xd44\x87s\xa6\xb3\x93YM\xb5|\x88Q\xac\x18\xb4j\xec\xcba\xfc\xd7\x1cp=\xff\x00\xad\xb1\xa2\x10\x95\xa9\x81\x03j\xd1\xef\xa1\xa6\xac\xdeQ\xd5s8\xdc\x01\xc8W_-\x7fjF\xef?\xf0\xbaj\x1a\x8a\x82)\xd5|\x96\xdc\x02\xc6\xaf#\x01\xdb\x7f\xb96\xbf\x06\xdd\xeco\x8d\xe7\xc9(\x96O\x10?mjKj*y[\xf6hQ!*\x05?h\xd8\x9d\xbc\xaeM\xba\xda#\xf7\xaa^":e\xd1Y3=]\xd4\x1dO\x97\xe4\xb4\xd4/#\xd3\xe5\x95\x95\x94\xe2gTn\x19VIQ\xadf#\x88\xcf*~\x83\x11\xf9j&amp;p\xfb\r\x0b\xd0]\x9e\x96\xdf\xcd\xf4\x87\xf9(\xe2O\xf90b\x1b\xa8\xbb=y\xf9\xc6\x9f\x0f\xc5\xeb\xc3ng\xd3\x893\n\\\xf6\x8eZO\xc1\x8a\x85\xb5d)\xb9\n\x8b*\xa1\x04\x8e\x07\xb7\xbf\x04\xdc\xe2T\xbc\xedJ\xc2\xa7\x080\xaa\xfb\x03\x05p\x9a\x96\xff\x00\xed\x05\xbb\xe9v\x86O\xfa9g\x1b3\x14g%\xd4\\%\xc6\xe5\x87\xf9&gt;\xf7mk\x1a\x07\x86\xff\x00\x15}/\xf1\x13\xab\xa6\xce\xf46n\xb5\x08\xf3N\x954\x91\xb5\xde\x00\x15\x98\x9f1@\x06\xe5\xca\xdbh\xbd\xb9\xc4rf\x1f\xea\xac\xac\xa0\xa4]\x8d\xf5m\xab\xad\x9e\xdd\xde\x8aD\xb9|\x01`\xd1\xc1\xf9AX\x91J\xec\xbf&amp;4\xa2\xaa\x15\x84\xccc$\xb3\x84\xdc\x08\x1c\x1b\x9e}o{\x8cn\x12\x89ib\x05(\xe4\x01^t\xbc6\xac+\x88\x90\x8e-A\xa7\xe4i\xfcCk\xd6\xba\x90e\x1f\x8d\xdfP\x19m\x18VO\x95T\x16 \xa8&lt;\x82@\xe2\xd7\xfd\xbdy!A3\xc2\x92\xc5\xf6\xef\xdb\x9d\xb5\xab\xea\x9f\x13,\x91\xf5Hb\x96\xa5\xac\xde\x8d\xad[\xa34\x7fO\xd0T\xf1\x0b\xe2\xe3\xa39\xcc\x0b3\xd3\xe9\xedA\x95f\xf2\x95G\x95\x03\xe4\x15\xb4Y\x89\x90\x91\xf2\x80M-\xf9\xbe\xdb\x1b\x93n%\xf9\x1e\x15s\xf1R\xe6q\x10\x90\xa0H\xb0`\xa0E\x1d\xfb\xef\xa3\xb46f\xd9\xbc\x99\x19t\xe9\x7fL)BR\xaaX\xfd\xdc-\xb1\x17-w\xe7\x1df%8\xa7\x8a\x96\x96\x03\xe5\x88\x14)nN\xee\x00\xe0\\Z\xf6?\xa1\xb5\x8e/\xfc\xbeh\x18D\xcagd\x80\xe6\xa5\x98k\xb0\xdbs\xde&lt;\xc1\x9bO\xff\x00\x93\x8dZ\xc0\xe1\xe2R\x9d\x9cX\x9a5\xba\x1fH\xb8\xeb\xb4\xf3\xc9&lt;\x93\xee{\xff\x00|e\x87\x11#_O\x94\x8e\x01% 9w\x17\xfe,/\xa4\x13\x19\x82\x0cZ\xe0\x0bv\xb7\xf4\x16\xc1\x04Z?)-\xde\xfc[\xfe\x7fL\x10F^\x08 `\x82*\xa4)\x04\xf6\x1f\xed\xfac\x06\x80\x9d\xbe\x7f~\x95\x8c\x12\xc0\x9d\x83\xc5\xad\xe6%\x86~\xc3u\xb8\x04\xf1\xcf~\xff\x00\xf3\xfd1\xbc\xa5\xf1!I,I\x04z\xfb\x1f\xdfa\x1bb\x0f\x1c\xa9I?\xeaA\xab5\x037\xb7\xae\xd0\xd3&lt;Di\xea\\\xe32pbV5\xb9\x04\xb11 s\xb6\xa2I.x\xef\xf2v\x16\'\x15\x17\x8b0\x05x\x8e \xe5\xc9\xe6\xdf\xbbz3\xeb\x17w\xe9\xee5\x18|\xbed\xb50\'c\xc8\x07\'g7\x1b\xdc\xc4$\xe5\x9a\xce&lt;\x93Rj\x1c\x9d\xe5*\x99Fb\xd0"\xde\xdbB\x98\xc8\x02\xdf\xfd\xfd\xad\xe9\xc7\xae+\xfcb\x17\x87\x96(\xd4c\xe6\xfd\x8b\x0b\xf51/\x914b1s\x8e\xa6\xd5\xe9g\xb7\xeca\xd4\xe8\xfe\xa5y\xb0\xa4i!\xe7o\xf3\x1fa\xda\xfe\xde\xdfA\xef\xcb:1\xe5+\x00\x9e\x17#s\xbb\xd3\xca\xd4\xb1\x10\xe5"B\x9c\xa8\xb0\x04\xbf;\xd8\x1d)\xee\xf0\xbe\xe4y\x85N|!\x06X\xfc\x88J\xcb:\xcd"\xaa\xbcf\xca@\xdel}\xec/\xc7{r0\xfa\x89\x82|\xba\xaa\xa4i_!\xbf.\xe1\xe1R\xf12\xf0\xe9cqG\xe4\xda\x9d\xf5;\xecb%&gt;%\x1e\x054\xbf\x88L\xe6\x83U\x1dXi\xb2\x9a{\xadnGI\x99\x88\x92f\xbc\x9b\x95\xa2\x8a\xa9C_\xcdAc\t&lt;\x0b\xf3\xdb\x18l"U0(\x03\xfeD\xbd\x88\xa3\xb3\xd6\xd7\xefhoVtC\xa5\x0eK\x97\x01\xfa\x8e\xb5\xbf\xb3\x88\x85\x8dk\xf0\xe1\xa6\xa4\xa4\x97)\xd25\xb5\xd4YE2:\xfe\x1b\xf1R\xedJp\xb6T6\x95\x05\x80[\x03k\x1b\x1e0\xfeF\x152\xc0P\xfb\xf5\xd4\xf5vw\x1f\xbb\xdcB4f8\xa35JW\x17\t7\x00\xda\xb6\xf6\xde$#\xe1]\xe1\xb7 \xe8\x06o\x9bf\x99\x9e~\xbb*\x8c\x89\x15\x0c\x95!\x9d\xe4p\xeaHV\x98\x93\xb4\xba\x93d=\xbd\x00\xe1\xa7\x13\xf4\xc8Q@j;\xb07?)A\x0e\xf2\xf3\x12C-\xedA\xa3\x01\xbf\x99.\xdd6\x9a\x9d_\xaa\xa9\xe8i^ZJ\xa2i\xda6+f\xb8"\xdd\xc7?Q\xe8=q\x1e\xc4\xb8V\xad\xcf{\xd0\xda\xdc\xf6\xda\x8b\xa4\xe2e,\xd3jX\xd7\xf0\xd5\xe5\x11\xeb\xd6\x0e\xaaUl|\xba\x92t\xbb\xc8\xf23\xb1\x05\xb6\x92\x18\x8b\x93{\x00\xa4\xf2{zs\x8e\x98)"iI5.\x18\xea\x0b\xfe9w\x065\xcc&amp;%\x12\x14C6\xc0\xbe\xdd{\x0f\xc0\x87+\xf0\xe0\xce\xa9s\xae\xa6e5\xe2\xa2\t\xab \x939\xa7}\xde[:\xee\x85\xa3 ]\x89\xbfp-b\x0f\xf4\xb3r\x0c\x12\x92\xa4\x16\xb1M\xcdI\x1b\xd6\xc7W\x16\xed\x15\x96{\x8bJ\xb0\xd3R\x14\x1b\x81@\n\x17pE\x055\xe4\xc5\xbc\xfa\x1eq\xfe8\x1e\xd6\xfe\xe3\x16\xce\t\x1c2\xfb\x00\xdb\x18\xa2q`\x9cJ\x98\x13\xf7.\xddL\x12o\xcd\xff\x00}\x87\xfd\xff\x00\xa7\x1dcn.*;\xf0\xd3\xe7\x94Y\xc1\x04\x0c\x10A\x1f\xb0\xfb\xff\x00c\x82\x08\xcb\xc1\x04\x0c\x10@\xc6\xaa\xff\x00\x13\xf3\xaf\xa4j\xb2\xc3\xad=\xe2\x84\x02\x02\x90\n\x8eB\x91\xc0&gt;\xe0v\x18\xe7 \x9f\xa8\xaa\x9d\xaf\xa11\xb8\xfb\xa5\xa6\x8e\xc5\xb7\xde\xb0\x95uG\xa6\x14\x1dJ\xcb\xa1\xa0\x933\xab\xc9\xebi\x832V\xd2TKJ|\x89\x15\xe2\xf2\xdaH\xa4\x84\x90]\xc9\xdaX\x8b\xd8\xdb\xb6\x193\\\xbd8\x95U5\xab8\xa6\xba\x90\xc45nij\x1a\xcb2|\xddx\x19dq2\x08 \xf0\x87S\xbb\xbd\x1a\x9c"\xc1\xdf\x96\xbc\xd7x\xaa\xe9\xe4\xbe\x1e\xba\xd9Y\xa4\xd2\xae\xaa\xa6&lt;\xe2F\xccFeY,\x92\xa4\xe0\xb3)\x0c\xf2\xbb\x86?\xe0\\^Bx\xbf\xb6+\x1f\x12e\n\x96\x80\x12\x08rC\x80k\xcd\xc6\xbf4h\xb0|=\x9b\t\xf3L\xde;\x87\xad6\xbb\xdbg\xbb\xd7g7L:\x95KW\x9aEJ\xd2\xed\x08T\x9b\xb5\x81 v\xb5\xc0\xe6\xdf\\V\x18\x9c*\xa4\xccr\xf7\xa1.\x1b\xbd\xbfk\xb3Z\xc2\x93\x8aL\xc4\xb5+z\xb9\xd1\xc5\x1b\xfa\x8d\x83\xac\x1e1\xb2\x1e\x98\xee\x82\xb2\xbce\xd0Q\x07f\x9dd\x11\xee\n\xac\xac6]\x04\xfcs\xe5\x92}\xf0\xe9\x82\x99\xc2\x80\x1d\x9b\xa1\x1ez\x1b\x16\xa4\'\xc4a\x975B\xb4&amp;\xe2\x9d\xdbv\xf6=a\x8c\xcd\xf1.\xe9\xde\xb1\xcd\xa4\xa2\xd3:K\\uG:\x8e[\n\x0c\x9f%\xcd\xe9\xe8Z@o\xfem\x1d=lN\t\xee\xc5\x08&lt;Z\xf8w\xc3\xe2D\xb2\xc0\x8a\xd5\xae\xc6\xd7\x0fp)\xed\x0f\xd9G\x85\xe5\xe2\x88R\x8d\xc8w\xb9n\xee\xdb\xfam\x1e\xdeo\xf1\x03\xea5-\x1c\xb4\x19w\x83\x9dO\x15y\x8c\xc4\x86\xabMfUk\xe5\x0b\xd8L\xf2i\xabH\xc0o\xbb9\xdc\xc2\xdcq\x81R\xa6MZ\xa6q\x1e\x12wp*\xf4\xd1\xaa\xc6\x97\xde\xd1-_\x850\xd2\xe5\xf0\x80\x9e \x06\x83\xf9.]\xbc\xedP[\x1ec\xf1\x0b\xa8\xca\xb37\x87St#[\xe9\x1c\xec\xcb\xf3\xc9C\xa5\xf3z\x1a\x1agf\xe6\xcf\x0eQM\n\x06;\x94r\x0fa\xdb\x8cea)K\x159\xb9\xae\xb4\x03Z\xd7\xb5+\x11L\xc7#\xff\x00\x8eTQ\xa5\x85\xe9\xad\x8f\x7f=\x8b\xbb\xae\x8b\xf8\xb3\xa8\xea\x05%X\xa8\xf3\xe9\xa9\x9a\x92C\x1d.n\x1e9\xd7trX\x05\xaaUpA\xb0\x04\x00n8\xc36/P\x9d\x8d\x8f:V\xbe\xf4\x86$KT\x95\xd4\xd0^\xac4\x03R\xdc\xc7\xe6\x1b\x97Q\xf5\xf5m~}^2\xf0\xcf$UO\x11\x8d\xaa\xd9\x83\xadt\x86\x9d\x04|\x11\xc1$\xa0_\xcbqk[\x0f\x19\x1e\x1f\x8f\x84p\xb9p\x0b\xeam\xe5\xb1a}uC\x9ec\xc4\x9c"\xbe\xe7\xfbKv\xd2\xbb\x8ah\xf6w\x8e\x9b~\x1a^\x194oOz1\xa4\xfa\xad.W\x99O\xac5,r\xcf:T\xcfQQ\x14\x02\xbe\nviR)C*\xed\xfcK\xb0p\xabm\xa0\x82,-s\xe4\x98\x04\x89h$;\x01\xc3\xb3\x00z\xd9\xb9\xf7\xacRy\x9en\xb9\xab\x99/\x88\x04\xb3\x82H$\xdd\xc7\r\x80\xa1\xa8\xb5\rbT\xbdo\xdc\xfb\x9eO\xea{\x9cK\xf8x\x10\xda\xd0S\x97\xf5\xe7\x10\xd5:\xe6\xa9ZV\xbb\xd0\xf9\xeb\x16\xe4\xe6\xd7\xfa\xff\x00li\x1a\xa41WQ\xea\xf1o\x04o\x03\x04\x10G\xec&gt;\xff\x00\xd8\xe0\x822\xf0A\x03\x04\x101\x85( :\xac\xe1\xe3\x048m\xed\xad`cC-I\xff\x00\xcc\x07\xd8Et\xe7\xa1\xd0Q\xda\x91\xbaT%\xa5\x8b\xd0\x9f=\xbc\xe0Y\x182I\x18x\xdd@o\xe5&lt;\x1d\xd6W\xb1\xe4X\x1d\xa3\xef\x8d\xe5\x04bK\xb1\xd7KW\xf7\xf7\x8e&amp;l\xca\td\x8e\xe4{S\x9f\xf7\x10q\xf1\x8e\xe9L\xad\xa5t\xdfZ\xb2\xfaj\xa3G\x90Ja\xcfZ8\xa4\xf3\xa2\xa7"\xa5Q\x95G\xcd \x13UB\x1b\x95\x01\tbN\xdcFs\xfc\xb1X\x84\xab\x80\x0f\xb4\x12t\xa5l}E\xcd\xe85\x97\xf8{2\xff\x00\x8c\xb0&amp;\x1f\xf2 3\xde\xdf\xd5-\xacs\xe3\x90\xf5y\xf2\\\xee)\xa1\xaf\xa4\x8e=\xc0nj\x84P\xf6RH\x8c\x93f`=\x89\xf5\xe7\x8cS\x19\xc6^R\xb5\x00\x96\x00\xde\xf5r\xfa9q\xbf1z\xc5\xd1\x94\xe2Q0"\xa0\x03\xec\xdeu\xf6\x85\x93Mg]5\xea\x86\xa0\xaa\xab\xd6\xf4\xf4\xf9\x8d\x1d:\xa0\x8e\x1c\xc6\x08\x8d4\xb5&gt;g\xf8\x8bi\xf7F\xeb\xe5\xb0\xb9\xda~\xc3\x11\xc2\xa1\x87\x04(3\r\xbd\xb4&lt;\x86\xc3Md\xbfU\x07\x87\x85\x9cis\xd2\x97\xebw\xb7?\x7f]\xf5O\xa3\xdd\x01C\x9b\xe9M\'\x90ePR\xc7\xe7H\xd9\x16\x97\xca\xcdK\xa2\xee\xb9Z\xaaJh\xa5f\xed\xc8b{ro\x8dd.d\xf5\x81,\xd3\x881&amp;\xf6\xf8\xfb\xf6\x87\xfc\xbf9N\x05\x8a\xdc\x01\xb0q\xb9\x1at\xf6\xa9\x86\xd5\x9e\xfck:}53i\xcc\xbb\xa7\xf9\xb9\xac\x0b\xe4\x9c\xe1\xe8j\x7f\x111\xfc\xbei\x89\xa9\x0b\x02\xc4r\xa2S\xdc\xf2q,(\x99+\n\x92X\xab\x85\xe8\xcd\xfb\xdf\xcb\xa4,&gt;2\x90\xb9\xeaC\xbb\x1d\x8d\x8d6\xa3\x8bn\xc7H\xce\xd1&gt;+\xb2N\xa8S\x9c\xef2\xd1qU@\xe4\xb7\x9b\x9c\xe4\xf1Y\xc1\x00\xdd\xd6\xa6\x91\xc1e\r\xb9.I\xdcx\xb1\xe7\x11\\\\\xd9\xeb\x98R\x1b\xcf_\xdb{F\xd8\xac\xdb\r\x88\x96T|\xec\xfd\xe8+N\xb4j\x08\xd25\xdfT4\xc8\xcd\x8c\xf9\r\x04\x19[\xcf\x19_.\x89\x12\x8a @o\x97\xfc\x04\x8d@\x17\xb7\x0b\xc9\xfaaf\x07\x056q\x1ca\xc3z\xf4\xe5\xe8+\xbc@s,R\x02\xc9G\xda\t\xa7aG;\xd7WzWo\x1f\xa0\xf9&gt;o\xd6\xde\xb3\xe8n\x9e\xe5\x14\xb55\x99\xb6{\xaa\xe9e\x91`\x9ei\t\xa1\xcbk\xa9j\xea\xda\xa9\xa3\x17\x8a%\xa6YZ6rVC\xb8\x0b[\x99\xfeA\x93\xcc3\x12\x10\x077\x16;\x11^\xbak\x15\xf7\x893\x0f\xfe\x99r\xc9&lt;@\x11\xcc\xd2\xe0\xf3%\xf6\xbf~\xfdz}\xa6!\xd0\xba\x13G\xe9\n@\xd4pdy%\x06_,Q\x8d\xec\xd5t\xd4\xb0\xc3P\x08\xb8\xe0\xb2\x00_\xb1\x07u\x8d\xb1m\xe0\x10\x9c2\x11.g\xf9\x00\x13\xde\xd6\x1c\xcf\xa5tjbr\xa6L\x9c\xb6U\rA\xb9wj\\\xb1\xb7\x978\xdd\xb67\xd3\x0e3\x99)}\x0b3\x7f1\xd1\x08(\xff\x00:0&gt;\xbe\xba\xfc\xd6\xcc\xaaF\xdb\xfa\xdf\xfa[\x1co\x1c\xdb\xeeQ\xd0\x90\xd1`\xb0\x06\xdc\xe0\x8c\xc1\xbb\xe0\x82\x08\xfd\x87\xdf\xfb\x1c\x10E\xcf0\xff\x00\xe4?\xa6\x08"\xf2\x9b\x80}\xf0A\x15\xc6\tH\xaa\x99\x81\xab\xc0\x0b\x10v\xaf\x94\x0c*\x9d\xc37\x0c\x13(\x06\t p\xb6\xf7\xa7\xc1\xb4s\x98\xae#\xdd\xdf\xb6\x90\x1e7t\x89\xd1\xc5\xe1\x9f\xcc1\x92\x06\xe0P\xaf\xad\xefk\xde\xd6\xf4\xc2\x0c\x14\xd4\xc8\'\x8fS\xce\x9c\xbf~~G\t\x07\x88P\xf9r1\xa1u\x1fC\xe9\x9e\xa6h\xbdU\xa0\xf5}\x1c\x19\xdeK\x9f\xe5\x95\xd1\xb5=DH\xe9G#\xd3\xb0\x8d\x91\x981FI"F\x04\x04&lt;\xf0{\x93\x8cd\x99\xd8\xa11HO\xdaSR\x1c\xd3\xd6\xae\xcdk\xea\xd4p\xc3\xa8\xa1hX\x15I\x14j\x96S\x0f+\x98\xf9\xd5u\xf6\xa5\xbc?\xf8\x8d\xea\x87H\xb3h!\x8b#\xd0\xfa\x8a\xaa\x93(\xcc\xab\xa4\x0c\xd5Q\x89"\n\xa94\xeaw\x80\xb35\x80\x95\xc7\xca}\xb1Yf\xf9y*[\xa5\xaaC^\xadw\xfe\xf5\x8bc\'\xc7\xa9(\x96I\xff\x00P\xda7z\xb6\xdc\xe3o\xe9\x96\xb7\xc9\xb56\xa5H\xa2\xcc&lt;\x88g\xa8\x8d\xe4E\xa8)\x08\x05\x85\xca\x00\xea\x97\xe2\xdc\x01\xc0$\x9e\xe4\xd7\xf9\x8eR\xa2\x14BK\xd6\xc0\xdf\xf1Ov1*\xc3\xe6\xa93\x00R\x80\x14\x01\xb4&lt;\xb5\x14jz4L\x96\x8c\xe9_Au\xae\x97\xa4\xa6\xd5\x954\x95^lK\x15K\xc94r\x11p\xa1\x81-5\xcf\xbf$^\xff\x00|0\xc8\x91&gt;D\xda$\xd0\xdf}E\xc0n\x83^q%\x95:T\xd9uP%N\xcc_\xad\r7\xe5\xa6\xc2&lt;\xca\xdf\x05~\x062Y\xe6\xce%\x87+\x99\xe0\xbb\xa8\xddLC2\x93ao\xc4\x1b\xdc\x90{w\xfa[\x0f\xd3&amp;\xcfT\x90\x92\x93@wo:l\xdd\xf9G\x01\x85\x94\x99\x86a n\x03s\xee\x08\xf8\xf0\x8bu\x7f!\xe8NO\xa3\xear\xed\x11\x0e[\x95\xd2|\x8a\x95\x11y\x11\xba\xaa\xbc|\x82\xac;\x8e8n\x07\x04\xdc\xe1\xaaN\x12t\xd9\xa0\xf0\x9a\xa9\xcb\xfa\xb9\xd3\xe0\xadc\\F6\\\xa9|\x01L\x00#cb[\xf3Mt\x88[\xea\xbe\xbb\xd2zgSUQ\xff\x00\x15I\xa0\xa6\xdc\xd1\xb8\x99[s\x03 \x00\x11#\x0b\x92\xa0w\xed\xda\xd7\x18\x9b\xe5\xb9r\x92\x84\xb8.\xc0\x16s_F\x1c\xfd\xcb\xbcO\x19\x98\x05\x12\x12\xc6\xba\x1a\xb7O:\xdd\xde$c\xe0\x81\xd4\xad\x0f\x95x\xbc\x9f\xaa\x9dJ\xcc\xe92M\'G\x95I\x93\xe4\xf5\xb9\x91\x86:h\xf3*\xba|\xc6\x8a)\xb7T\xbcq\xc7\xe6\xcbQM\xf3\x86\xb9\xb0\xb16\x03\x16\x07\x87\xe4\x84\xe2S,^\xa0\x06\xad\x8b^\xb7\xb73M^\x1d\x9c\x836B\xd4\xc7Z;\xdfM\xfd\x0fH\xef\x03%\xcd\xa8s\xda:j\xdc\xa73\xa1\xcer\x9a\xe7\xaa\xcc\xa9\xf3\x9a\x19\xe3\x9e\x16\x82\xa5Vzh\xd5\xe1/\x1e\xd6\x04\x05"Cp\xdc\x03\xc6&amp;x\xdc$\xd9a\x138He\x13PC\xb3;\x7f\xebZ\x10*:\xc5j\xa0S0\xa5\xaci\xb3\xb9\xa3\xf9{\x98\xf5\xfc\xdf\xab\x7f\xdf\xd7\x1b\xa2j&amp;\xca\tQ\x1cT\rK\x8f\xd9\xb5\xbb\xf4\x8e\x93\t \xb8\xdb\xfb\xe4\xfe\xe7\x9c\x11\xdbu\xbb\x9b_\xbe9\xb3t\xd3n\xd1\xc8\x86\x00\xee\x1f\xe5c\x19\xff\x001\xfd?\xd0`\x8cE\xd5\xec&gt;\xc3\xfd0A\x05~\xc3\xef\xfd\x8e\x08 \xbb\x0f\xb8\xfe\xbf\xed\x82\x08\xbc\xa5\x95@\xbfo\xa0\xff\x00l\x10A\xd6@\xac\x0c\x9c\xa0\xfc\xc3\x81\xc7\xdc[\xd7\xdb\x9cdJ3\x88\x96.u\xdb\x99\xe9\x18U\x8fM`\xe1$Y\r3\x10\xf38.\x92\x01e\x8d/o\x98\x0e\r\xbdI\x1e\xa3\x9f}\x10&amp;K\x98%$\x92\xe1\xafK\xda\xcc?6\x11\xaa%\x95\x16 \x13\xa0z\xdd\xbak\xbc2\x9f\x15&gt;;\xba\x15\xe1K\'\x96\xa3]\xe7\x8dU\x9cGL\xf5T\xf9](\x8fl\xc5\x19\xa3\xdb,\xc9T\x92FK#\x02\xa26\xe0^\xdc\x81\x89f]\xe1&lt;N8\x85\xfd0\x84\x10\x08\x98I*s\xff\x00\xa9\x00Y\xeear0\xc4\xb1nw\xaf\xcd\x1e\xa2\xddc\x96\x1f\x1a_\xfa\x8d\xfa\x9d\x9bRf\xdas\xa19n_\xa22\xc9\xdd\xe9\x86iSMO_S,\x05\xb6\xeeI\xabh\x9eH\xd8\x81\xde9}\x0f&amp;\xf8\x91\xe2&lt;?\x86\xca\xf0SW8\x85LL\x82\x15V\x07W\xe1~\x11}\x9d\xab\x0b\xf0\xf8rf\xcbH\x00\x02C\xef\xd0v\xe9\xd2\xb1\n\xbe!3-I\xd7\x8d#\xa7:\xb5\x9d\xd7=v\xa2\xd5t\x11\xea\x0c\xe35\n\x11\xebk\xa5\x96Uyl\x87j\xa9X\xd6\xc8\x0e\xc0E\xec;\xe3\xce\x19\xce:G\xfc\x99\xc9\n\x00\t\x8a\x00PU\xfa\xda\x81\xde\xbe\xd1f`\xf2\xd5\xa6JHI\xb0r\x05\x1a\x9c\x859\xe9g\xb40\xe8\xba\x81\xad46\xa0l\xd3)\xcc*\x88\x13\x98g\x87\xcd}\xaa\xd1\xdd\x8b\xaar\xa8\x08!@\x00\x0e\xde\xf8lBdbR\xc7\x84\xb8\xb8\x02\x8f\xb86n\xed\xb4$\x9b\xf5$M\xb3\x10iw&lt;\xbb\xe9\xf9g./#\xf8\x83k\x8c\x8a\x88eb\xb2\xb6"@YKI+\x1d\xd6\x02\xe0\xb0;nW\xf9O\x1fc\x84S2i\n\x98\xe9\x15\'p\xc5\x8f\xf3\xeaa\xe3\x0f\x9aM\x96\x80\xea \xeeK\x8d\xa9\xb7\x97!\x18\xf9\x87\x8f\xfe\xa0L\x92Fs\x1a\xc3N\xdb\xb6\xee\x92F\xbaz\x1b\x90o\xc7\xd7\xfa\x0e\x15\xa7$\x92R\x07\x08v\xbd\xef\xcbsH\xee\xac\xe9|$\x15;\x86\xd4\xf3\xb5\xb9\x7fp\x98\xea?\x1a\xda\xd7&gt;\xa0\x93,\x15\xd5gu\x84h\xa5\x87\xa8\xe4\xdb\xbf\xd2\xfc\x0eN\x14H\xc9d\xcb!E"\xe6\x83\x97-j\xf4g\xef\x0c\xf8\x9c\xcet\xd3BK\xd0U\x99\xe9\xb3kJ\xf2v\xb2#A\x98j]{\x9e$\xb9\xd4\xd52\xd3\xcd2Ifi#bw\x877\x90Y\xad{]okv\x04\x1c/(\x91\x86M\x00\x1d\xef^W\xd3~v\xa7\x1c:fN\xab\x91PI&lt;\xda\x82\x8ck\xfc\xc4\x814\xf9\xa6\x95\xf0\xf5\xade\xcbe\xa8\xa2z*|\xb2\xa2\n\x8a\n\x89\xa8\xea\xa2z\x1a\x834n\xb3\xd3\x18\xe5V\r\x18g`\xf7p&gt;clc\'\xcd%#8\x96\x82[\x89I\xd4\x07\x04\xb0\xd7~\xbc\x9e\xd0\xe9\x8a\xcb\x8c\xcc\tSX\x1b\x8a\xd0|\xafm\xdam\xfe\n\xff\x00\x17\xfd_\xa6\xb2\x1d1\xd3\xae\xa8\xe7\x15z\xa7E\xbf\xf0\xdc\xa1\xda\xb5\xdaj\xbc\xbeBc\xa5\x82\xa5\xf3\x17/TR\x99\x99%\x91^`\x8e\xb1\x95\x7f\x94\xb6=A\'\xc3H\xce\xf2\x89X\x9c9i\xa8\x95\xc4\x14\x94\x85\x02\nAP\xe1?o\xdc\x039r*@\x8a\xa3\x17\x83\xfaX\x85\x82)\xc5Z3\x9e\xb5\xab\xd5\xeeZ\xd4\x8e\xdat\xd6\xa0\xca\xb5\x86K\x96j\x1c\x832\x86\xb3&amp;\xce)\x96\xbe\x8a\xbe"\x92Fah\x96u\x84\x95fM\xcc\x8e\x89}\xc5\x81=\xef\x8a\x973\xcbq\x19~1r\x96\x82\x9e\x151\x0c\xce\x1c\xd5\x9a\x80\xd1\xb7\xb8\x86\xe9\xe0\x8b\x86\xb3sg\r\xcd\x99\xf6f\xac{+7\x9f\x12\xce\x88bB\xf2D\x14\xdc\x96hHF\x93\x9el\xe7\xe6\x1e\x96&lt;}9\xbb\xa5/p+\xe9\x1c\x95@\x91\xa3\x16=t\xec\x1b\x94P\x92M\xce1\x1aE\xb3+\x82@\xb5\x87\x03\x8fl\x10E\x0c\xaeE\x89\x1f\xb6\x08 \xdet\x9f\xf87\xff\x00\xae\x03K\xd3\xa8\x82\x0c\xae\xcd\xeao\xea\xa0\xf2?A\xfac^4\xb8\x0e\x1c\x8</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -794,6 +1008,10 @@
           <t>Kleber Ariel Goncalves da Silva</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" s="2" t="n">
+        <v>45489.90849537037</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -803,6 +1021,10 @@
         <is>
           <t>Anderson Ribeiro Goncalves</t>
         </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" s="2" t="n">
+        <v>45489.90849537037</v>
       </c>
     </row>
   </sheetData>

--- a/data/referee.xlsx
+++ b/data/referee.xlsx
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67320601852</v>
       </c>
     </row>
     <row r="3">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67325231482</v>
       </c>
     </row>
     <row r="4">
@@ -510,7 +510,7 @@
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67326388889</v>
       </c>
     </row>
     <row r="5">
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67320601852</v>
       </c>
     </row>
     <row r="6">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67322916666</v>
       </c>
     </row>
     <row r="7">
@@ -564,7 +564,7 @@
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67334490741</v>
       </c>
     </row>
     <row r="8">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67326388889</v>
       </c>
     </row>
     <row r="9">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67321759259</v>
       </c>
     </row>
     <row r="10">
@@ -618,7 +618,7 @@
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67335648148</v>
       </c>
     </row>
     <row r="11">
@@ -632,7 +632,7 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67321759259</v>
       </c>
     </row>
     <row r="12">
@@ -646,7 +646,7 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67335648148</v>
       </c>
     </row>
     <row r="13">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67332175926</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67318287037</v>
       </c>
     </row>
     <row r="15">
@@ -692,7 +692,7 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67324074074</v>
       </c>
     </row>
     <row r="16">
@@ -710,7 +710,7 @@
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67328703704</v>
       </c>
     </row>
     <row r="17">
@@ -724,7 +724,7 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="18">
@@ -738,7 +738,7 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67329861111</v>
       </c>
     </row>
     <row r="19">
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67325231482</v>
       </c>
     </row>
     <row r="20">
@@ -770,7 +770,7 @@
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67319444445</v>
       </c>
     </row>
     <row r="21">
@@ -788,7 +788,7 @@
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67328703704</v>
       </c>
     </row>
     <row r="22">
@@ -802,7 +802,7 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67329861111</v>
       </c>
     </row>
     <row r="23">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67332175926</v>
       </c>
     </row>
     <row r="24">
@@ -834,7 +834,7 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67331018519</v>
       </c>
     </row>
     <row r="25">
@@ -848,7 +848,7 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67331018519</v>
       </c>
     </row>
     <row r="26">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67333333333</v>
       </c>
     </row>
     <row r="27">
@@ -880,7 +880,7 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67333333333</v>
       </c>
     </row>
     <row r="28">
@@ -894,7 +894,7 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67317129629</v>
       </c>
     </row>
     <row r="29">
@@ -908,7 +908,7 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67318287037</v>
       </c>
     </row>
     <row r="30">
@@ -922,7 +922,7 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67327546296</v>
       </c>
     </row>
     <row r="31">
@@ -936,7 +936,7 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67329861111</v>
       </c>
     </row>
     <row r="32">
@@ -950,7 +950,7 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67336805556</v>
       </c>
     </row>
     <row r="33">
@@ -964,7 +964,7 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67334490741</v>
       </c>
     </row>
     <row r="34">
@@ -978,7 +978,7 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67317129629</v>
       </c>
     </row>
     <row r="35">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67319444445</v>
       </c>
     </row>
     <row r="36">
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67322916666</v>
       </c>
     </row>
     <row r="37">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" s="2" t="n">
-        <v>45489.90849537037</v>
+        <v>45492.67324074074</v>
       </c>
     </row>
   </sheetData>
